--- a/examples/analytical/pHBB1991/pHBB1991.uniform2x_analytical.solution.xlsx
+++ b/examples/analytical/pHBB1991/pHBB1991.uniform2x_analytical.solution.xlsx
@@ -455,34 +455,34 @@
         <v>-0.0495</v>
       </c>
       <c r="B2">
-        <v>8.142879415447775</v>
+        <v>8.142585263137384</v>
       </c>
       <c r="C2">
-        <v>0.0002477325945436478</v>
+        <v>0.0002477371068645818</v>
       </c>
       <c r="D2">
-        <v>-1.8254345307729752e-7</v>
+        <v>-1.1488363384859497e-7</v>
       </c>
       <c r="E2">
-        <v>0.001999571918833889</v>
+        <v>0.0019995475238025074</v>
       </c>
       <c r="F2">
-        <v>4.8972068559830466e-5</v>
+        <v>4.8971471000624606e-5</v>
       </c>
       <c r="G2">
-        <v>8.142879419057632</v>
+        <v>8.14258526678637</v>
       </c>
       <c r="H2">
-        <v>0.00024773259524357217</v>
+        <v>0.0002477371074365166</v>
       </c>
       <c r="I2">
-        <v>-1.8254397978374175e-7</v>
+        <v>-1.1488416805375859e-7</v>
       </c>
       <c r="J2">
-        <v>0.0019995719193399834</v>
+        <v>0.0019995475243203362</v>
       </c>
       <c r="K2">
-        <v>4.897206856941035e-5</v>
+        <v>4.8971471010311926e-5</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -490,34 +490,34 @@
         <v>-0.0485</v>
       </c>
       <c r="B3">
-        <v>8.1284326079658</v>
+        <v>8.12753286664363</v>
       </c>
       <c r="C3">
-        <v>0.00024319778363094367</v>
+        <v>0.00024321132059374557</v>
       </c>
       <c r="D3">
-        <v>-5.477834383427265e-7</v>
+        <v>-3.445865614469404e-7</v>
       </c>
       <c r="E3">
-        <v>0.00199871085862467</v>
+        <v>0.001998637267901857</v>
       </c>
       <c r="F3">
-        <v>4.894734744780691e-5</v>
+        <v>4.894556247095243e-5</v>
       </c>
       <c r="G3">
-        <v>8.12843261883516</v>
+        <v>8.127532877625281</v>
       </c>
       <c r="H3">
-        <v>0.00024319778561458072</v>
+        <v>0.00024321132240234152</v>
       </c>
       <c r="I3">
-        <v>-5.477850219000923e-7</v>
+        <v>-3.4458816550236545e-7</v>
       </c>
       <c r="J3">
-        <v>0.001998710860071646</v>
+        <v>0.0019986372693818646</v>
       </c>
       <c r="K3">
-        <v>4.894734747577575e-5</v>
+        <v>4.8945562499191736e-5</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -525,34 +525,34 @@
         <v>-0.0475</v>
       </c>
       <c r="B4">
-        <v>8.11370832902762</v>
+        <v>8.112179585751413</v>
       </c>
       <c r="C4">
-        <v>0.00023866297271823961</v>
+        <v>0.00023868553432290944</v>
       </c>
       <c r="D4">
-        <v>-9.132408268669401e-7</v>
+        <v>-5.741979859055905e-7</v>
       </c>
       <c r="E4">
-        <v>0.001997842935730632</v>
+        <v>0.001997719566493645</v>
       </c>
       <c r="F4">
-        <v>4.892275549877095e-5</v>
+        <v>4.891979596420215e-5</v>
       </c>
       <c r="G4">
-        <v>8.113708347243941</v>
+        <v>8.112179604153821</v>
       </c>
       <c r="H4">
-        <v>0.00023866297595840372</v>
+        <v>0.0002386855373411095</v>
       </c>
       <c r="I4">
-        <v>-9.132434707402023e-7</v>
+        <v>-5.742006612639394e-7</v>
       </c>
       <c r="J4">
-        <v>0.001997842938099366</v>
+        <v>0.0019977195689154827</v>
       </c>
       <c r="K4">
-        <v>4.8922755544304086e-5</v>
+        <v>4.891979601011908e-5</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -560,34 +560,34 @@
         <v>-0.0465</v>
       </c>
       <c r="B5">
-        <v>8.09870326877674</v>
+        <v>8.09652179459532</v>
       </c>
       <c r="C5">
-        <v>0.00023412816180553585</v>
+        <v>0.0002341597480520736</v>
       </c>
       <c r="D5">
-        <v>-1.2789327092927023e-6</v>
+        <v>-8.037105565711472e-7</v>
       </c>
       <c r="E5">
-        <v>0.0019969677315198747</v>
+        <v>0.001996793947319617</v>
       </c>
       <c r="F5">
-        <v>4.8898317307305964e-5</v>
+        <v>4.8894199426474496e-5</v>
       </c>
       <c r="G5">
-        <v>8.098703294420563</v>
+        <v>8.096521820498184</v>
       </c>
       <c r="H5">
-        <v>0.00023412816627504132</v>
+        <v>0.00023415975225282072</v>
       </c>
       <c r="I5">
-        <v>-1.27893641698728e-6</v>
+        <v>-8.037143046543751e-7</v>
       </c>
       <c r="J5">
-        <v>0.001996967734791524</v>
+        <v>0.0019967939506632115</v>
       </c>
       <c r="K5">
-        <v>4.8898317369549286e-5</v>
+        <v>4.889419948916164e-5</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -595,34 +595,34 @@
         <v>-0.0455</v>
       </c>
       <c r="B6">
-        <v>8.083414969085519</v>
+        <v>8.08055689123941</v>
       </c>
       <c r="C6">
-        <v>0.0002295933508928329</v>
+        <v>0.0002296339617812386</v>
       </c>
       <c r="D6">
-        <v>-1.6448775405100353e-6</v>
+        <v>-1.0331163338387316e-6</v>
       </c>
       <c r="E6">
-        <v>0.0019960848046318004</v>
+        <v>0.0019958599117893246</v>
       </c>
       <c r="F6">
-        <v>4.887405903004079e-5</v>
+        <v>4.8868802641427e-5</v>
       </c>
       <c r="G6">
-        <v>8.083415002228426</v>
+        <v>8.080556924711601</v>
       </c>
       <c r="H6">
-        <v>0.00022959335656449404</v>
+        <v>0.00022963396713747568</v>
       </c>
       <c r="I6">
-        <v>-1.644882315575004e-6</v>
+        <v>-1.0331211560356772e-6</v>
       </c>
       <c r="J6">
-        <v>0.001996084808787806</v>
+        <v>0.001995859916034875</v>
       </c>
       <c r="K6">
-        <v>4.8874059108109995e-5</v>
+        <v>4.886880271994314e-5</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -630,34 +630,34 @@
         <v>-0.044500000000000005</v>
       </c>
       <c r="B7">
-        <v>8.067841975571016</v>
+        <v>8.064283485885682</v>
       </c>
       <c r="C7">
-        <v>0.00022505853998013232</v>
+        <v>0.00022510817551040592</v>
       </c>
       <c r="D7">
-        <v>-2.011095211972994e-6</v>
+        <v>-1.2624067612940175e-6</v>
       </c>
       <c r="E7">
-        <v>0.0019951936915086972</v>
+        <v>0.0019949169357444648</v>
       </c>
       <c r="F7">
-        <v>4.885000837764619e-5</v>
+        <v>4.8843637216125155e-5</v>
       </c>
       <c r="G7">
-        <v>8.067842016273326</v>
+        <v>8.064283526982496</v>
       </c>
       <c r="H7">
-        <v>0.00022505854682676333</v>
+        <v>0.00022510818199507568</v>
       </c>
       <c r="I7">
-        <v>-2.0111010580046963e-6</v>
+        <v>-1.262412658957653e-6</v>
       </c>
       <c r="J7">
-        <v>0.0019951936965307794</v>
+        <v>0.001994916940872431</v>
       </c>
       <c r="K7">
-        <v>4.885000847062615e-5</v>
+        <v>4.88436373094945e-5</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -665,34 +665,34 @@
         <v>-0.043500000000000004</v>
       </c>
       <c r="B8">
-        <v>8.051984000695091</v>
+        <v>8.047701602808981</v>
       </c>
       <c r="C8">
-        <v>0.00022052372906743804</v>
+        <v>0.00022058238923957954</v>
       </c>
       <c r="D8">
-        <v>-2.377607116520026e-6</v>
+        <v>-1.4915726425775392e-6</v>
       </c>
       <c r="E8">
-        <v>0.0019942939074103277</v>
+        <v>0.0019939644708587617</v>
       </c>
       <c r="F8">
-        <v>4.8826194579219324e-5</v>
+        <v>4.881873653057958e-5</v>
       </c>
       <c r="G8">
-        <v>8.051984049003226</v>
+        <v>8.047701651568959</v>
       </c>
       <c r="H8">
-        <v>0.00022052373706185277</v>
+        <v>0.00022058239682562445</v>
       </c>
       <c r="I8">
-        <v>-2.377614037165978e-6</v>
+        <v>-1.4915796170223938e-6</v>
       </c>
       <c r="J8">
-        <v>0.0019942939132804524</v>
+        <v>0.0019939644768498014</v>
       </c>
       <c r="K8">
-        <v>4.8826194686162404e-5</v>
+        <v>4.881873663778879e-5</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -700,34 +700,34 @@
         <v>-0.0425</v>
       </c>
       <c r="B9">
-        <v>8.035842095726174</v>
+        <v>8.030812892824443</v>
       </c>
       <c r="C9">
-        <v>0.0002159889181547606</v>
+        <v>0.00021605660296876995</v>
       </c>
       <c r="D9">
-        <v>-2.7444362022849573e-6</v>
+        <v>-1.7206041247990123e-6</v>
       </c>
       <c r="E9">
-        <v>0.001993384947998304</v>
+        <v>0.001993001946788572</v>
       </c>
       <c r="F9">
-        <v>4.880264831357451e-5</v>
+        <v>4.879413564364214e-5</v>
       </c>
       <c r="G9">
-        <v>8.035842151669302</v>
+        <v>8.030812949265071</v>
       </c>
       <c r="H9">
-        <v>0.0002159889272697721</v>
+        <v>0.0002160566116291317</v>
       </c>
       <c r="I9">
-        <v>-2.744444201248264e-6</v>
+        <v>-1.7206121772983594e-6</v>
       </c>
       <c r="J9">
-        <v>0.0019933849546984878</v>
+        <v>0.0019930019536232003</v>
       </c>
       <c r="K9">
-        <v>4.880264843348982e-5</v>
+        <v>4.879413576362156e-5</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -735,34 +735,34 @@
         <v>-0.0415</v>
       </c>
       <c r="B10">
-        <v>8.019418828305115</v>
+        <v>8.013620851620702</v>
       </c>
       <c r="C10">
-        <v>0.00021145410724212677</v>
+        <v>0.00021153081669800385</v>
       </c>
       <c r="D10">
-        <v>-3.1116070117726034e-6</v>
+        <v>-1.9494906905690097e-6</v>
       </c>
       <c r="E10">
-        <v>0.001992466291577381</v>
+        <v>0.0019920287741884003</v>
       </c>
       <c r="F10">
-        <v>4.877940160184815e-5</v>
+        <v>4.8769871147863034e-5</v>
       </c>
       <c r="G10">
-        <v>8.019418891889494</v>
+        <v>8.013620915730247</v>
       </c>
       <c r="H10">
-        <v>0.0002114541174505464</v>
+        <v>0.0002115308264056224</v>
       </c>
       <c r="I10">
-        <v>-3.1116160928172957e-6</v>
+        <v>-1.9494998223524844e-6</v>
       </c>
       <c r="J10">
-        <v>0.0019924662990888392</v>
+        <v>0.001992028781845526</v>
       </c>
       <c r="K10">
-        <v>4.877940173365104e-5</v>
+        <v>4.8769871279399025e-5</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -770,34 +770,34 @@
         <v>-0.0405</v>
       </c>
       <c r="B11">
-        <v>8.002718461184424</v>
+        <v>7.996131037633176</v>
       </c>
       <c r="C11">
-        <v>0.0002069192963296045</v>
+        <v>0.00020700503042734902</v>
       </c>
       <c r="D11">
-        <v>-3.479145701719902e-6</v>
+        <v>-2.1782211609057614e-6</v>
       </c>
       <c r="E11">
-        <v>0.0019915374020762103</v>
+        <v>0.001991044348696937</v>
       </c>
       <c r="F11">
-        <v>4.875648765604322e-5</v>
+        <v>4.8745980966345855e-5</v>
       </c>
       <c r="G11">
-        <v>8.002718532380301</v>
+        <v>7.996131109350044</v>
       </c>
       <c r="H11">
-        <v>0.00020691930760423908</v>
+        <v>0.00020700504115515975</v>
       </c>
       <c r="I11">
-        <v>-3.479155868678667e-6</v>
+        <v>-2.1782313731574176e-6</v>
       </c>
       <c r="J11">
-        <v>0.0019915374103763096</v>
+        <v>0.0019910443571487125</v>
       </c>
       <c r="K11">
-        <v>4.875648779836945e-5</v>
+        <v>4.8745981107765486e-5</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -805,34 +805,34 @@
         <v>-0.03950000000000001</v>
       </c>
       <c r="B12">
-        <v>7.985747126446329</v>
+        <v>7.978351281369085</v>
       </c>
       <c r="C12">
-        <v>0.00020238448541736126</v>
+        <v>0.00020247924415697243</v>
       </c>
       <c r="D12">
-        <v>-3.847080039028509e-6</v>
+        <v>-2.406783711369528e-6</v>
       </c>
       <c r="E12">
-        <v>0.0019905977328391034</v>
+        <v>0.0019900480559807907</v>
       </c>
       <c r="F12">
-        <v>4.8733940678790405e-5</v>
+        <v>4.8722504085735554e-5</v>
       </c>
       <c r="G12">
-        <v>7.985747205154578</v>
+        <v>7.9783513605276735</v>
       </c>
       <c r="H12">
-        <v>0.00020238449773100708</v>
+        <v>0.00020247925587790037</v>
       </c>
       <c r="I12">
-        <v>-3.8470912958160886e-6</v>
+        <v>-2.406795005227566e-6</v>
       </c>
       <c r="J12">
-        <v>0.0019905977418923993</v>
+        <v>0.0019900480651777663</v>
       </c>
       <c r="K12">
-        <v>4.8733940829442784e-5</v>
+        <v>4.8722504233988065e-5</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -840,34 +840,34 @@
         <v>-0.038500000000000006</v>
       </c>
       <c r="B13">
-        <v>7.9685129882288495</v>
+        <v>7.96029187635955</v>
       </c>
       <c r="C13">
-        <v>0.00019784967450580212</v>
+        <v>0.00019795345788727807</v>
       </c>
       <c r="D13">
-        <v>-4.215439367901104e-6</v>
+        <v>-2.6351659037347937e-6</v>
       </c>
       <c r="E13">
-        <v>0.0019896467312813895</v>
+        <v>0.0019890392778924033</v>
       </c>
       <c r="F13">
-        <v>4.871179561078113e-5</v>
+        <v>4.869948022135482e-5</v>
       </c>
       <c r="G13">
-        <v>7.968513074200423</v>
+        <v>7.960291962560388</v>
       </c>
       <c r="H13">
-        <v>0.0001978496878312314</v>
+        <v>0.00019795347057422413</v>
       </c>
       <c r="I13">
-        <v>-4.2154517185424536e-6</v>
+        <v>-2.6351782802945127e-6</v>
       </c>
       <c r="J13">
-        <v>0.001989646741017245</v>
+        <v>0.00198903928772734</v>
       </c>
       <c r="K13">
-        <v>4.871179576533999e-5</v>
+        <v>4.8699480369761414e-5</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -875,34 +875,34 @@
         <v>-0.037500000000000006</v>
       </c>
       <c r="B14">
-        <v>7.95102638580912</v>
+        <v>7.941965740384049</v>
       </c>
       <c r="C14">
-        <v>0.00019331486359588777</v>
+        <v>0.00019342767161922392</v>
       </c>
       <c r="D14">
-        <v>-4.584254543412523e-6</v>
+        <v>-2.8633547352696324e-6</v>
       </c>
       <c r="E14">
-        <v>0.0019886838444322023</v>
+        <v>0.001988017399753091</v>
       </c>
       <c r="F14">
-        <v>4.8690087824073565e-5</v>
+        <v>4.867694941320262e-5</v>
       </c>
       <c r="G14">
-        <v>7.951026478470537</v>
+        <v>7.941965832717854</v>
       </c>
       <c r="H14">
-        <v>0.00019331487790581766</v>
+        <v>0.0001934276852450342</v>
       </c>
       <c r="I14">
-        <v>-4.584267992105086e-6</v>
+        <v>-2.8633681955945565e-6</v>
       </c>
       <c r="J14">
-        <v>0.0019886838546963586</v>
+        <v>0.001988017409984773</v>
       </c>
       <c r="K14">
-        <v>4.8690087972880353e-5</v>
+        <v>4.8676949546705356e-5</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -910,34 +910,34 @@
         <v>-0.036500000000000005</v>
       </c>
       <c r="B15">
-        <v>7.933299947950857</v>
+        <v>7.923388534513388</v>
       </c>
       <c r="C15">
-        <v>0.00018878005268984922</v>
+        <v>0.00018890188535503505</v>
       </c>
       <c r="D15">
-        <v>-4.9535578271523184e-6</v>
+        <v>-3.0913367071940178e-6</v>
       </c>
       <c r="E15">
-        <v>0.0019877085253485445</v>
+        <v>0.001986981818709909</v>
       </c>
       <c r="F15">
-        <v>4.866885276176675e-5</v>
+        <v>4.8654951554976536e-5</v>
       </c>
       <c r="G15">
-        <v>7.933300046066555</v>
+        <v>7.923388631042061</v>
       </c>
       <c r="H15">
-        <v>0.00018878006795687552</v>
+        <v>0.00018890189989243447</v>
       </c>
       <c r="I15">
-        <v>-4.9535723784003525e-6</v>
+        <v>-3.091351252346948e-6</v>
       </c>
       <c r="J15">
-        <v>0.001987708535810778</v>
+        <v>0.00198698182882234</v>
       </c>
       <c r="K15">
-        <v>4.866885288415969e-5</v>
+        <v>4.8654951641339494e-5</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -945,34 +945,34 @@
         <v>-0.035500000000000004</v>
       </c>
       <c r="B16">
-        <v>7.915348668881587</v>
+        <v>7.904578727105117</v>
       </c>
       <c r="C16">
-        <v>0.00018424524179276372</v>
+        <v>0.00018437609909977457</v>
       </c>
       <c r="D16">
-        <v>-5.323382741310299e-6</v>
+        <v>-3.319097913059961e-6</v>
       </c>
       <c r="E16">
-        <v>0.0019867202403325472</v>
+        <v>0.0019859319530361606</v>
       </c>
       <c r="F16">
-        <v>4.864812552729216e-5</v>
+        <v>4.8633525862316535e-5</v>
       </c>
       <c r="G16">
-        <v>7.915348769968875</v>
+        <v>7.9045788239928685</v>
       </c>
       <c r="H16">
-        <v>0.00018424525798921924</v>
+        <v>0.00018437611452122596</v>
       </c>
       <c r="I16">
-        <v>-5.32339840020154e-6</v>
+        <v>-3.319113544180823e-6</v>
       </c>
       <c r="J16">
-        <v>0.0019867202503296316</v>
+        <v>0.0019859319620076582</v>
       </c>
       <c r="K16">
-        <v>4.864812558178619e-5</v>
+        <v>4.863352583766819e-5</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -980,34 +980,34 @@
         <v>-0.0345</v>
       </c>
       <c r="B17">
-        <v>7.897189936301802</v>
+        <v>7.885557590419435</v>
       </c>
       <c r="C17">
-        <v>0.00017971043091595139</v>
+        <v>0.00017985031286473153</v>
       </c>
       <c r="D17">
-        <v>-5.693763878604334e-6</v>
+        <v>-3.546624146543699e-6</v>
       </c>
       <c r="E17">
-        <v>0.001985718476821285</v>
+        <v>0.0019848672521536265</v>
       </c>
       <c r="F17">
-        <v>4.862794042965308e-5</v>
+        <v>4.8612710290874337e-5</v>
       </c>
       <c r="G17">
-        <v>7.897190035718232</v>
+        <v>7.885557680632663</v>
       </c>
       <c r="H17">
-        <v>0.00017971044801361183</v>
+        <v>0.0001798503291421421</v>
       </c>
       <c r="I17">
-        <v>-5.693780651345453e-6</v>
+        <v>-3.546640865034989e-6</v>
       </c>
       <c r="J17">
-        <v>0.0019857184851170347</v>
+        <v>0.001984867258118759</v>
       </c>
       <c r="K17">
-        <v>4.862794033890626e-5</v>
+        <v>4.861271003849144e-5</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1015,34 +1015,34 @@
         <v>-0.0335</v>
       </c>
       <c r="B18">
-        <v>7.878843502607278</v>
+        <v>7.866349119227083</v>
       </c>
       <c r="C18">
-        <v>0.00017517562008413922</v>
+        <v>0.00017532452667456505</v>
       </c>
       <c r="D18">
-        <v>-6.064736666601537e-6</v>
+        <v>-3.7739010263416657e-6</v>
       </c>
       <c r="E18">
-        <v>0.0019847027517494145</v>
+        <v>0.001983787207058307</v>
       </c>
       <c r="F18">
-        <v>4.860833049419597e-5</v>
+        <v>4.8592540919348137e-5</v>
       </c>
       <c r="G18">
-        <v>7.878843592266011</v>
+        <v>7.866349190794852</v>
       </c>
       <c r="H18">
-        <v>0.00017517563805362604</v>
+        <v>0.00017532454377869092</v>
       </c>
       <c r="I18">
-        <v>-6.0647545614991825e-6</v>
+        <v>-3.7739188342818895e-6</v>
       </c>
       <c r="J18">
-        <v>0.001984702756204119</v>
+        <v>0.0019837872068657375</v>
       </c>
       <c r="K18">
-        <v>4.8608330124249395e-5</v>
+        <v>4.859254024181589e-5</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1050,34 +1050,34 @@
         <v>-0.0325</v>
       </c>
       <c r="B19">
-        <v>7.860331392154554</v>
+        <v>7.846979863786364</v>
       </c>
       <c r="C19">
-        <v>0.00017064080935024175</v>
+        <v>0.00017079874058204428</v>
       </c>
       <c r="D19">
-        <v>-6.436337085916019e-6</v>
+        <v>-4.0009141332898526e-6</v>
       </c>
       <c r="E19">
-        <v>0.0019836726201165875</v>
+        <v>0.0019826913607436988</v>
       </c>
       <c r="F19">
-        <v>4.8589326951763106e-5</v>
+        <v>4.857305131702979e-5</v>
       </c>
       <c r="G19">
-        <v>7.860331458894987</v>
+        <v>7.8469798977319005</v>
       </c>
       <c r="H19">
-        <v>0.00017064082815983753</v>
+        <v>0.0001707987584813091</v>
       </c>
       <c r="I19">
-        <v>-6.436356115092145e-6</v>
+        <v>-4.000933034303554e-6</v>
       </c>
       <c r="J19">
-        <v>0.0019836726172771726</v>
+        <v>0.001982691349443211</v>
       </c>
       <c r="K19">
-        <v>4.858932608621116e-5</v>
+        <v>4.8573049903767226e-5</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1085,34 +1085,34 @@
         <v>-0.0315</v>
       </c>
       <c r="B20">
-        <v>7.841677739969406</v>
+        <v>7.8274786738598126</v>
       </c>
       <c r="C20">
-        <v>0.00016610599882518957</v>
+        <v>0.000166272954697795</v>
       </c>
       <c r="D20">
-        <v>-6.808601341825316e-6</v>
+        <v>-4.2276491510953734e-6</v>
       </c>
       <c r="E20">
-        <v>0.001982627683433776</v>
+        <v>0.0019815793181516667</v>
       </c>
       <c r="F20">
-        <v>4.8570958722168254e-5</v>
+        <v>4.8554271919368095e-5</v>
       </c>
       <c r="G20">
-        <v>7.841677763710241</v>
+        <v>7.827478642053833</v>
       </c>
       <c r="H20">
-        <v>0.0001661060184385419</v>
+        <v>0.00016627297335600015</v>
       </c>
       <c r="I20">
-        <v>-6.8086215241121786e-6</v>
+        <v>-4.227669152089419e-6</v>
       </c>
       <c r="J20">
-        <v>0.0019826276680810235</v>
+        <v>0.001981579288477477</v>
       </c>
       <c r="K20">
-        <v>4.8570957033450505e-5</v>
+        <v>4.8554269313585765e-5</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1120,34 +1120,34 @@
         <v>-0.030500000000000003</v>
       </c>
       <c r="B21">
-        <v>7.822908560733401</v>
+        <v>7.807876355813619</v>
       </c>
       <c r="C21">
-        <v>0.00016157118873679738</v>
+        <v>0.00016174716924900604</v>
       </c>
       <c r="D21">
-        <v>-7.181565486941489e-6</v>
+        <v>-4.4540919964663954e-6</v>
       </c>
       <c r="E21">
-        <v>0.001981567597686182</v>
+        <v>0.001980450755155533</v>
       </c>
       <c r="F21">
-        <v>4.855325191062221e-5</v>
+        <v>4.853622943812965e-5</v>
       </c>
       <c r="G21">
-        <v>7.822908512641202</v>
+        <v>7.807876219121313</v>
       </c>
       <c r="H21">
-        <v>0.00016157120910857386</v>
+        <v>0.00016174718862099765</v>
       </c>
       <c r="I21">
-        <v>-7.181586852653545e-6</v>
+        <v>-4.4541131109343135e-6</v>
       </c>
       <c r="J21">
-        <v>0.0019815675624004258</v>
+        <v>0.0019804506971004884</v>
       </c>
       <c r="K21">
-        <v>4.8553248932173724e-5</v>
+        <v>4.853622500897388e-5</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1155,34 +1155,34 @@
         <v>-0.029500000000000002</v>
       </c>
       <c r="B22">
-        <v>7.804051450997756</v>
+        <v>7.788205250875121</v>
       </c>
       <c r="C22">
-        <v>0.00015703637954336664</v>
+        <v>0.0001572213846927197</v>
       </c>
       <c r="D22">
-        <v>-7.555264986952259e-6</v>
+        <v>-4.6802289156950495e-6</v>
       </c>
       <c r="E22">
-        <v>0.0019804920804445143</v>
+        <v>0.001979305426103195</v>
       </c>
       <c r="F22">
-        <v>4.853622933769868e-5</v>
+        <v>4.8518946334388455e-5</v>
       </c>
       <c r="G22">
-        <v>7.804051291983672</v>
+        <v>7.788204958023479</v>
       </c>
       <c r="H22">
-        <v>0.00015703640061122767</v>
+        <v>0.00015722140471638343</v>
       </c>
       <c r="I22">
-        <v>-7.555287585653155e-6</v>
+        <v>-4.680251169757011e-6</v>
       </c>
       <c r="J22">
-        <v>0.001980492015269049</v>
+        <v>0.0019793053266890567</v>
       </c>
       <c r="K22">
-        <v>4.853622444179301e-5</v>
+        <v>4.851893926068999e-5</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1190,34 +1190,34 @@
         <v>-0.028500000000000004</v>
       </c>
       <c r="B23">
-        <v>7.785135232048925</v>
+        <v>7.768498748715326</v>
       </c>
       <c r="C23">
-        <v>0.00015250157214801</v>
+        <v>0.00015269560192956747</v>
       </c>
       <c r="D23">
-        <v>-7.929734209439478e-6</v>
+        <v>-4.906046510787163e-6</v>
       </c>
       <c r="E23">
-        <v>0.0019794009167873076</v>
+        <v>0.0019781431695229217</v>
       </c>
       <c r="F23">
-        <v>4.8519910124287425e-5</v>
+        <v>4.8502440382205655e-5</v>
       </c>
       <c r="G23">
-        <v>7.785134911927773</v>
+        <v>7.768498236261931</v>
       </c>
       <c r="H23">
-        <v>0.00015250159381813546</v>
+        <v>0.00015269562251139497</v>
       </c>
       <c r="I23">
-        <v>-7.9297581225236e-6</v>
+        <v>-4.906069953863008e-6</v>
       </c>
       <c r="J23">
-        <v>0.001979400809072179</v>
+        <v>0.0019781430128587366</v>
       </c>
       <c r="K23">
-        <v>4.851990251064029e-5</v>
+        <v>4.850242965347974e-5</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1225,34 +1225,34 @@
         <v>-0.027500000000000004</v>
       </c>
       <c r="B24">
-        <v>7.766189545268464</v>
+        <v>7.748790755976054</v>
       </c>
       <c r="C24">
-        <v>0.0001479667682938756</v>
+        <v>0.00014816982269790838</v>
       </c>
       <c r="D24">
-        <v>-8.30500579341978e-6</v>
+        <v>-5.1315316356990466e-6</v>
       </c>
       <c r="E24">
-        <v>0.001978293963766093</v>
+        <v>0.0019769639117166926</v>
       </c>
       <c r="F24">
-        <v>4.850430935234951e-5</v>
+        <v>4.8486724348003856e-5</v>
       </c>
       <c r="G24">
-        <v>7.766189002857246</v>
+        <v>7.7487899496074535</v>
       </c>
       <c r="H24">
-        <v>0.00014796679041550784</v>
+        <v>0.00014816984368761014</v>
       </c>
       <c r="I24">
-        <v>-8.305031154471234e-6</v>
+        <v>-5.131556358834163e-6</v>
       </c>
       <c r="J24">
-        <v>0.001978293798260173</v>
+        <v>0.001976963679399712</v>
       </c>
       <c r="K24">
-        <v>4.850429805169607e-5</v>
+        <v>4.848670878613613e-5</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1260,34 +1260,34 @@
         <v>-0.026500000000000003</v>
       </c>
       <c r="B25">
-        <v>7.747244415730988</v>
+        <v>7.729115143501913</v>
       </c>
       <c r="C25">
-        <v>0.00014343197127635613</v>
+        <v>0.0001436440502840814</v>
       </c>
       <c r="D25">
-        <v>-8.681109818866305e-6</v>
+        <v>-5.3566710670975385e-6</v>
       </c>
       <c r="E25">
-        <v>0.0019771711532500817</v>
+        <v>0.001975767668125357</v>
       </c>
       <c r="F25">
-        <v>4.848943781989429e-5</v>
+        <v>4.8471805805153964e-5</v>
       </c>
       <c r="G25">
-        <v>7.747243580028639</v>
+        <v>7.729113960655669</v>
       </c>
       <c r="H25">
-        <v>0.00014343199359813795</v>
+        <v>0.00014364407143104487</v>
       </c>
       <c r="I25">
-        <v>-8.681136846547292e-6</v>
+        <v>-5.356697233652055e-6</v>
       </c>
       <c r="J25">
-        <v>0.001977170912477152</v>
+        <v>0.0019757673399838902</v>
       </c>
       <c r="K25">
-        <v>4.848942171487922e-5</v>
+        <v>4.847178410698122e-5</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1295,34 +1295,34 @@
         <v>-0.025500000000000002</v>
       </c>
       <c r="B26">
-        <v>7.728329802750397</v>
+        <v>7.709505198356259</v>
       </c>
       <c r="C26">
-        <v>0.00013889718719696542</v>
+        <v>0.00013911829077283716</v>
       </c>
       <c r="D26">
-        <v>-9.058072633250468e-6</v>
+        <v>-5.581450797164073e-6</v>
       </c>
       <c r="E26">
-        <v>0.0019760324931224135</v>
+        <v>0.0019745545425343897</v>
       </c>
       <c r="F26">
-        <v>4.8475301904409654e-5</v>
+        <v>4.8457687095508846e-5</v>
       </c>
       <c r="G26">
-        <v>7.728328595149119</v>
+        <v>7.709503551897794</v>
       </c>
       <c r="H26">
-        <v>0.00013889720929395483</v>
+        <v>0.000139118311653342</v>
       </c>
       <c r="I26">
-        <v>-9.05810168414097e-6</v>
+        <v>-5.581478693039814e-6</v>
       </c>
       <c r="J26">
-        <v>0.001976032158032984</v>
+        <v>0.001974554097651418</v>
       </c>
       <c r="K26">
-        <v>4.847527976759122e-5</v>
+        <v>4.8457657893006905e-5</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1330,34 +1330,34 @@
         <v>-0.0245</v>
       </c>
       <c r="B27">
-        <v>7.709475157819829</v>
+        <v>7.68999310696349</v>
       </c>
       <c r="C27">
-        <v>0.0001343624271193985</v>
+        <v>0.0001345925551974745</v>
       </c>
       <c r="D27">
-        <v>-9.435915095850247e-6</v>
+        <v>-5.805854708805855e-6</v>
       </c>
       <c r="E27">
-        <v>0.001974878066960466</v>
+        <v>0.001973324724387943</v>
       </c>
       <c r="F27">
-        <v>4.846190354327699e-5</v>
+        <v>4.844436544036421e-5</v>
       </c>
       <c r="G27">
-        <v>7.709473495089755</v>
+        <v>7.689990909417488</v>
       </c>
       <c r="H27">
-        <v>0.00013436244827423616</v>
+        <v>0.00013459257509618636</v>
       </c>
       <c r="I27">
-        <v>-9.435946748434578e-6</v>
+        <v>-5.805884822827269e-6</v>
       </c>
       <c r="J27">
-        <v>0.001974877617804136</v>
+        <v>0.0019733241422918765</v>
       </c>
       <c r="K27">
-        <v>4.846187408938793e-5</v>
+        <v>4.844432737220152e-5</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1365,34 +1365,34 @@
         <v>-0.023500000000000004</v>
       </c>
       <c r="B28">
-        <v>7.690709010786136</v>
+        <v>7.670609494024761</v>
       </c>
       <c r="C28">
-        <v>0.00012982771068934378</v>
+        <v>0.00013006686314970744</v>
       </c>
       <c r="D28">
-        <v>-9.814649857585672e-6</v>
+        <v>-6.029862264473893e-6</v>
       </c>
       <c r="E28">
-        <v>0.0019737080325148942</v>
+        <v>0.0019720784846864983</v>
       </c>
       <c r="F28">
-        <v>4.844924033308445e-5</v>
+        <v>4.843183319378547e-5</v>
       </c>
       <c r="G28">
-        <v>7.69070680839216</v>
+        <v>7.670606661710923</v>
       </c>
       <c r="H28">
-        <v>0.0001298277297039277</v>
+        <v>0.00013006688087187061</v>
       </c>
       <c r="I28">
-        <v>-9.814685043615178e-6</v>
+        <v>-6.029895414106499e-6</v>
       </c>
       <c r="J28">
-        <v>0.001973707449837646</v>
+        <v>0.001972077746562053</v>
       </c>
       <c r="K28">
-        <v>4.8449202280484846e-5</v>
+        <v>4.843178498023066e-5</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1400,34 +1400,34 @@
         <v>-0.022500000000000003</v>
       </c>
       <c r="B29">
-        <v>7.672058604254529</v>
+        <v>7.6513830386084285</v>
       </c>
       <c r="C29">
-        <v>0.0001252930720660338</v>
+        <v>0.00012554124869492</v>
       </c>
       <c r="D29">
-        <v>-1.0194277090266059e-5</v>
+        <v>-6.253444655526972e-6</v>
       </c>
       <c r="E29">
-        <v>0.0019725226195058316</v>
+        <v>0.0019708161711597884</v>
       </c>
       <c r="F29">
-        <v>4.843730574302028e-5</v>
+        <v>4.8420078222691224e-5</v>
       </c>
       <c r="G29">
-        <v>7.672055779442093</v>
+        <v>7.651379494987541</v>
       </c>
       <c r="H29">
-        <v>0.00012529308697126624</v>
+        <v>0.00012554126227690154</v>
       </c>
       <c r="I29">
-        <v>-1.01943172959984e-5</v>
+        <v>-6.2534821787879285e-6</v>
       </c>
       <c r="J29">
-        <v>0.0019725218851503567</v>
+        <v>0.0019708152609230036</v>
       </c>
       <c r="K29">
-        <v>4.8437257877957605e-5</v>
+        <v>4.8420018735574805e-5</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1435,34 +1435,34 @@
         <v>-0.021500000000000002</v>
       </c>
       <c r="B30">
-        <v>7.653549594415493</v>
+        <v>7.6323401846459635</v>
       </c>
       <c r="C30">
-        <v>0.00012075856940472022</v>
+        <v>0.00012101576982858889</v>
       </c>
       <c r="D30">
-        <v>-1.0574777800520169e-5</v>
+        <v>-6.476558607240892e-6</v>
       </c>
       <c r="E30">
-        <v>0.0019713221274834628</v>
+        <v>0.0019695382036375333</v>
       </c>
       <c r="F30">
-        <v>4.842608943152206e-5</v>
+        <v>4.840908439161665e-5</v>
       </c>
       <c r="G30">
-        <v>7.6535460684602326</v>
+        <v>7.632335862240882</v>
       </c>
       <c r="H30">
-        <v>0.00012075857702589538</v>
+        <v>0.00012101577610446086</v>
       </c>
       <c r="I30">
-        <v>-1.057482536752017e-5</v>
+        <v>-6.4766026481223245e-6</v>
       </c>
       <c r="J30">
-        <v>0.0019713212254621857</v>
+        <v>0.0019695371087334558</v>
       </c>
       <c r="K30">
-        <v>4.8426030668584805e-5</v>
+        <v>4.840901271215738e-5</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1470,34 +1470,34 @@
         <v>-0.020500000000000004</v>
       </c>
       <c r="B31">
-        <v>7.635205834117482</v>
+        <v>7.6135049586699175</v>
       </c>
       <c r="C31">
-        <v>0.00011622429963852557</v>
+        <v>0.00011649052321752413</v>
       </c>
       <c r="D31">
-        <v>-1.095610350047594e-5</v>
+        <v>-6.6991367068273105e-6</v>
       </c>
       <c r="E31">
-        <v>0.0019701069247587645</v>
+        <v>0.0019682450707942316</v>
       </c>
       <c r="F31">
-        <v>4.841557765077601e-5</v>
+        <v>4.8398832126358934e-5</v>
       </c>
       <c r="G31">
-        <v>7.6352015331726095</v>
+        <v>7.6134997990621605</v>
       </c>
       <c r="H31">
-        <v>0.0001162242949638916</v>
+        <v>0.00011649051718936066</v>
       </c>
       <c r="I31">
-        <v>-1.0956162062956223e-5</v>
+        <v>-6.699190628043065e-6</v>
       </c>
       <c r="J31">
-        <v>0.001970105841878357</v>
+        <v>0.001968243782607815</v>
       </c>
       <c r="K31">
-        <v>4.841550708373318e-5</v>
+        <v>4.839874758579014e-5</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1505,34 +1505,34 @@
         <v>-0.019500000000000003</v>
       </c>
       <c r="B32">
-        <v>7.617049251474763</v>
+        <v>7.594898903632347</v>
       </c>
       <c r="C32">
-        <v>0.0001116904209345293</v>
+        <v>0.0001119656665942591</v>
       </c>
       <c r="D32">
-        <v>-1.1338160559224477e-5</v>
+        <v>-6.9210727193541e-6</v>
       </c>
       <c r="E32">
-        <v>0.0019688774497013143</v>
+        <v>0.0019669373297273966</v>
       </c>
       <c r="F32">
-        <v>4.840575372090655e-5</v>
+        <v>4.838929902986248e-5</v>
       </c>
       <c r="G32">
-        <v>7.617044105557885</v>
+        <v>7.594892855214576</v>
       </c>
       <c r="H32">
-        <v>0.00011169039622655367</v>
+        <v>0.00011196564054584463</v>
       </c>
       <c r="I32">
-        <v>-1.1338235660856376e-5</v>
+        <v>-6.921141681358743e-6</v>
       </c>
       <c r="J32">
-        <v>0.001968876175840544</v>
+        <v>0.0019669358435392636</v>
       </c>
       <c r="K32">
-        <v>4.840567065970393e-5</v>
+        <v>4.838920123039821e-5</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1540,34 +1540,34 @@
         <v>-0.018500000000000003</v>
       </c>
       <c r="B33">
-        <v>7.599099834895026</v>
+        <v>7.576541134435758</v>
       </c>
       <c r="C33">
-        <v>0.00010715718591631213</v>
+        <v>0.0001074414518883202</v>
       </c>
       <c r="D33">
-        <v>-1.1720787043325706e-5</v>
+        <v>-7.1421998969937344e-6</v>
       </c>
       <c r="E33">
-        <v>0.0019676342160199495</v>
+        <v>0.001965615610140049</v>
       </c>
       <c r="F33">
-        <v>4.839659855481318e-5</v>
+        <v>4.8380460525362264e-5</v>
       </c>
       <c r="G33">
-        <v>7.599093774714636</v>
+        <v>7.576534147794885</v>
       </c>
       <c r="H33">
-        <v>0.000107157129502382</v>
+        <v>0.00010744139417917318</v>
       </c>
       <c r="I33">
-        <v>-1.1720886978846825e-5</v>
+        <v>-7.14229164392327e-6</v>
       </c>
       <c r="J33">
-        <v>0.001967632743994528</v>
+        <v>0.0019656139246009108</v>
       </c>
       <c r="K33">
-        <v>4.839650254647788e-5</v>
+        <v>4.838034934160129e-5</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1575,34 +1575,34 @@
         <v>-0.0175</v>
       </c>
       <c r="B34">
-        <v>7.581375733225842</v>
+        <v>7.558448518472456</v>
       </c>
       <c r="C34">
-        <v>0.00010262498948931253</v>
+        <v>0.00010291827292018841</v>
       </c>
       <c r="D34">
-        <v>-1.210371931465881e-5</v>
+        <v>-7.3622598131186156e-6</v>
       </c>
       <c r="E34">
-        <v>0.0019663778239699787</v>
+        <v>0.001964280625221402</v>
       </c>
       <c r="F34">
-        <v>4.8388091215298686e-5</v>
+        <v>4.837229050521853e-5</v>
       </c>
       <c r="G34">
-        <v>7.581368684741908</v>
+        <v>7.558440539471673</v>
       </c>
       <c r="H34">
-        <v>0.00010262488417525897</v>
+        <v>0.00010291816640344611</v>
       </c>
       <c r="I34">
-        <v>-1.2103856237452792e-5</v>
+        <v>-7.362385701784196e-6</v>
       </c>
       <c r="J34">
-        <v>0.0019663761489537575</v>
+        <v>0.001964278741356781</v>
       </c>
       <c r="K34">
-        <v>4.8387982048509464e-5</v>
+        <v>4.83721660681966e-5</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1610,34 +1610,34 @@
         <v>-0.0165</v>
       </c>
       <c r="B35">
-        <v>7.563893477577573</v>
+        <v>7.540635982721588</v>
       </c>
       <c r="C35">
-        <v>9.809443576156232e-5</v>
+        <v>9.839673213817795e-5</v>
       </c>
       <c r="D35">
-        <v>-1.248654516892272e-5</v>
+        <v>-7.580858839596397e-6</v>
       </c>
       <c r="E35">
-        <v>0.001965108979728068</v>
+        <v>0.0019629331916154263</v>
       </c>
       <c r="F35">
-        <v>4.838020948782839e-5</v>
+        <v>4.836476196811077e-5</v>
       </c>
       <c r="G35">
-        <v>7.563885354412265</v>
+        <v>7.540626943542866</v>
       </c>
       <c r="H35">
-        <v>9.809425683250822e-5</v>
+        <v>9.839655216693943e-5</v>
       </c>
       <c r="I35">
-        <v>-1.2486736491505161e-5</v>
+        <v>-7.581035133690423e-6</v>
       </c>
       <c r="J35">
-        <v>0.001965107098236226</v>
+        <v>0.0019629311114039653</v>
       </c>
       <c r="K35">
-        <v>4.838008718264033e-5</v>
+        <v>4.836462463565696e-5</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1645,34 +1645,34 @@
         <v>-0.0155</v>
       </c>
       <c r="B36">
-        <v>7.546668328833189</v>
+        <v>7.523116947186363</v>
       </c>
       <c r="C36">
-        <v>9.356642894721595e-5</v>
+        <v>9.387773127221834e-5</v>
       </c>
       <c r="D36">
-        <v>-1.2868639989215431e-5</v>
+        <v>-7.797409146093965e-6</v>
       </c>
       <c r="E36">
-        <v>0.001963828525376929</v>
+        <v>0.001961574261067066</v>
       </c>
       <c r="F36">
-        <v>4.83729304542837e-5</v>
+        <v>4.8357847631373746e-5</v>
       </c>
       <c r="G36">
-        <v>7.546659022895344</v>
+        <v>7.523106755798847</v>
       </c>
       <c r="H36">
-        <v>9.356614176079866e-5</v>
+        <v>9.387744329938339e-5</v>
       </c>
       <c r="I36">
-        <v>-1.2868910075641727e-5</v>
+        <v>-7.797658571144965e-6</v>
       </c>
       <c r="J36">
-        <v>0.0019638264338526367</v>
+        <v>0.0019615719856627208</v>
       </c>
       <c r="K36">
-        <v>4.837279523976649e-5</v>
+        <v>4.835769794916012e-5</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1680,34 +1680,34 @@
         <v>-0.014500000000000002</v>
       </c>
       <c r="B37">
-        <v>7.529714751233279</v>
+        <v>7.505903881816573</v>
       </c>
       <c r="C37">
-        <v>8.904229304249266e-5</v>
+        <v>8.93625906810008e-5</v>
       </c>
       <c r="D37">
-        <v>-1.3249082419759873e-5</v>
+        <v>-8.011051183726968e-6</v>
       </c>
       <c r="E37">
-        <v>0.001962537481952108</v>
+        <v>0.0019602049663403997</v>
       </c>
       <c r="F37">
-        <v>4.836623105476111e-5</v>
+        <v>4.835152050847365e-5</v>
       </c>
       <c r="G37">
-        <v>7.5297041221949055</v>
+        <v>7.505892410564558</v>
       </c>
       <c r="H37">
-        <v>8.90418502832229e-5</v>
+        <v>8.936214752117751e-5</v>
       </c>
       <c r="I37">
-        <v>-1.3249464524614576e-5</v>
+        <v>-8.011404696739824e-6</v>
       </c>
       <c r="J37">
-        <v>0.0019625351750343248</v>
+        <v>0.0019602024940348476</v>
       </c>
       <c r="K37">
-        <v>4.836608333805501e-5</v>
+        <v>4.83513591662534e-5</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1715,34 +1715,34 @@
         <v>-0.013500000000000005</v>
       </c>
       <c r="B38">
-        <v>7.513047006964221</v>
+        <v>7.489008979617384</v>
       </c>
       <c r="C38">
-        <v>8.452392420003444e-5</v>
+        <v>8.485320130770519e-5</v>
       </c>
       <c r="D38">
-        <v>-1.3626546630480983e-5</v>
+        <v>-8.220555197142305e-6</v>
       </c>
       <c r="E38">
-        <v>0.001961237107703301</v>
+        <v>0.001958826683684312</v>
       </c>
       <c r="F38">
-        <v>4.8360088625314286e-5</v>
+        <v>4.8345754443426364e-5</v>
       </c>
       <c r="G38">
-        <v>7.513034871524176</v>
+        <v>7.488996053879004</v>
       </c>
       <c r="H38">
-        <v>8.452326295118352e-5</v>
+        <v>8.485254021714898e-5</v>
       </c>
       <c r="I38">
-        <v>-1.3627084977563079e-5</v>
+        <v>-8.2210538679193e-6</v>
       </c>
       <c r="J38">
-        <v>0.001961234576291531</v>
+        <v>0.001958824007735014</v>
       </c>
       <c r="K38">
-        <v>4.835992895585592e-5</v>
+        <v>4.834558223058958e-5</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1750,34 +1750,34 @@
         <v>-0.012500000000000004</v>
       </c>
       <c r="B39">
-        <v>7.496679858705238</v>
+        <v>7.47244493157546</v>
       </c>
       <c r="C39">
-        <v>8.001397781894866e-5</v>
+        <v>8.035221125603372e-5</v>
       </c>
       <c r="D39">
-        <v>-1.3999169547209867e-5</v>
+        <v>-8.424200566193596e-6</v>
       </c>
       <c r="E39">
-        <v>0.0019599289729816402</v>
+        <v>0.001957441113336803</v>
       </c>
       <c r="F39">
-        <v>4.8354481399297566e-5</v>
+        <v>4.834052459417826e-5</v>
       </c>
       <c r="G39">
-        <v>7.49666598087624</v>
+        <v>7.472430319717401</v>
       </c>
       <c r="H39">
-        <v>8.001301671583035e-5</v>
+        <v>8.035125109376045e-5</v>
       </c>
       <c r="I39">
-        <v>-1.3999921364890938e-5</v>
+        <v>-8.424897397855073e-6</v>
       </c>
       <c r="J39">
-        <v>0.001959926202254506</v>
+        <v>0.001957438219820981</v>
       </c>
       <c r="K39">
-        <v>4.83543104318075e-5</v>
+        <v>4.834034235809045e-5</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1785,34 +1785,34 @@
         <v>-0.011500000000000003</v>
       </c>
       <c r="B40">
-        <v>7.480629356252792</v>
+        <v>7.456225778876</v>
       </c>
       <c r="C40">
-        <v>7.551608918621247e-5</v>
+        <v>7.586324582542889e-5</v>
       </c>
       <c r="D40">
-        <v>-1.436439363629816e-5</v>
+        <v>-8.61963385210503e-6</v>
       </c>
       <c r="E40">
-        <v>0.001958615051861668</v>
+        <v>0.001956050378176235</v>
       </c>
       <c r="F40">
-        <v>4.834938895872432e-5</v>
+        <v>4.833580785578474e-5</v>
       </c>
       <c r="G40">
-        <v>7.480613440175969</v>
+        <v>7.456209184984668</v>
       </c>
       <c r="H40">
-        <v>7.551472603149543e-5</v>
+        <v>7.586188467509128e-5</v>
       </c>
       <c r="I40">
-        <v>-1.4365430882948805e-5</v>
+        <v>-8.620595293322425e-6</v>
       </c>
       <c r="J40">
-        <v>0.001958612019448916</v>
+        <v>0.0019560472440708562</v>
       </c>
       <c r="K40">
-        <v>4.8349207418089995e-5</v>
+        <v>4.833561646556073e-5</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1820,34 +1820,34 @@
         <v>-0.010500000000000002</v>
       </c>
       <c r="B41">
-        <v>7.4649136698409695</v>
+        <v>7.440367804774224</v>
       </c>
       <c r="C41">
-        <v>7.103512195085026e-5</v>
+        <v>7.139115530259627e-5</v>
       </c>
       <c r="D41">
-        <v>-1.4718789042057526e-5</v>
+        <v>-8.803709369654592e-6</v>
       </c>
       <c r="E41">
-        <v>0.0019572978286656736</v>
+        <v>0.0019546571385588877</v>
       </c>
       <c r="F41">
-        <v>4.834479262022111e-5</v>
+        <v>4.833158321215453e-5</v>
       </c>
       <c r="G41">
-        <v>7.464895356810682</v>
+        <v>7.440348865821564</v>
       </c>
       <c r="H41">
-        <v>7.103323228077827e-5</v>
+        <v>7.138926904265918e-5</v>
       </c>
       <c r="I41">
-        <v>-1.4720199476256203e-5</v>
+        <v>-8.805016202243965e-6</v>
       </c>
       <c r="J41">
-        <v>0.001957294503213167</v>
+        <v>0.001954653730286946</v>
       </c>
       <c r="K41">
-        <v>4.8344601270760316e-5</v>
+        <v>4.833138352967197e-5</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1855,34 +1855,34 @@
         <v>-0.009500000000000001</v>
       </c>
       <c r="B42">
-        <v>7.449553917564121</v>
+        <v>7.424890413346964</v>
       </c>
       <c r="C42">
-        <v>6.65774328982247e-5</v>
+        <v>6.694227900835865e-5</v>
       </c>
       <c r="D42">
-        <v>-1.5057863019400315e-5</v>
+        <v>-8.972319843557413e-6</v>
       </c>
       <c r="E42">
-        <v>0.001955980414985368</v>
+        <v>0.0019532647186278787</v>
       </c>
       <c r="F42">
-        <v>4.834067573844113e-5</v>
+        <v>4.832783200296552e-5</v>
       </c>
       <c r="G42">
-        <v>7.449532788965358</v>
+        <v>7.424868702475995</v>
       </c>
       <c r="H42">
-        <v>6.657487006397241e-5</v>
+        <v>6.69397213932506e-5</v>
       </c>
       <c r="I42">
-        <v>-1.5059750212996815e-5</v>
+        <v>-8.974067082166127e-6</v>
       </c>
       <c r="J42">
-        <v>0.0019559767553816334</v>
+        <v>0.001953260991342562</v>
       </c>
       <c r="K42">
-        <v>4.834047535928202e-5</v>
+        <v>4.832762486210435e-5</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1890,34 +1890,34 @@
         <v>-0.0085</v>
       </c>
       <c r="B43">
-        <v>7.434574919162924</v>
+        <v>7.409816926983628</v>
       </c>
       <c r="C43">
-        <v>6.215113481880935e-5</v>
+        <v>6.252470744422661e-5</v>
       </c>
       <c r="D43">
-        <v>-1.5375869417616115e-5</v>
+        <v>-9.120228965029268e-6</v>
       </c>
       <c r="E43">
-        <v>0.0019546666697220143</v>
+        <v>0.0019518772360719338</v>
       </c>
       <c r="F43">
-        <v>4.8337023909072315e-5</v>
+        <v>4.832453809103579e-5</v>
       </c>
       <c r="G43">
-        <v>7.434550506814774</v>
+        <v>7.409791964400004</v>
       </c>
       <c r="H43">
-        <v>6.214773216148744e-5</v>
+        <v>6.252131227339221e-5</v>
       </c>
       <c r="I43">
-        <v>-1.5378351295257716e-5</v>
+        <v>-9.122524398775026e-6</v>
       </c>
       <c r="J43">
-        <v>0.0019546626252619063</v>
+        <v>0.001951873133960044</v>
       </c>
       <c r="K43">
-        <v>4.8336815276604e-5</v>
+        <v>4.832432428537838e-5</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1925,34 +1925,34 @@
         <v>-0.007500000000000003</v>
       </c>
       <c r="B44">
-        <v>7.420005795881313</v>
+        <v>7.395175221470379</v>
       </c>
       <c r="C44">
-        <v>5.7766332464972784e-5</v>
+        <v>5.8148517600918635e-5</v>
       </c>
       <c r="D44">
-        <v>-1.5665635951134466e-5</v>
+        <v>-9.240921964361692e-6</v>
       </c>
       <c r="E44">
-        <v>0.001953361311375082</v>
+        <v>0.0019504997237533039</v>
       </c>
       <c r="F44">
-        <v>4.8333825054699703e-5</v>
+        <v>4.8321687915858026e-5</v>
       </c>
       <c r="G44">
-        <v>7.419977600791999</v>
+        <v>7.395146493945844</v>
       </c>
       <c r="H44">
-        <v>5.776190808897386e-5</v>
+        <v>5.814410347907577e-5</v>
       </c>
       <c r="I44">
-        <v>-1.5668841487321955e-5</v>
+        <v>-9.243883020594717e-6</v>
       </c>
       <c r="J44">
-        <v>0.0019533568231088587</v>
+        <v>0.0019504951816135972</v>
       </c>
       <c r="K44">
-        <v>4.8333608932286416e-5</v>
+        <v>4.832146819441507e-5</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1960,34 +1960,34 @@
         <v>-0.006500000000000006</v>
       </c>
       <c r="B45">
-        <v>7.40588032911545</v>
+        <v>7.380998109966203</v>
       </c>
       <c r="C45">
-        <v>5.343530070548765e-5</v>
+        <v>5.3825950623410936e-5</v>
       </c>
       <c r="D45">
-        <v>-1.5918431402032613e-5</v>
+        <v>-9.326493982329376e-6</v>
       </c>
       <c r="E45">
-        <v>0.0019520700087472776</v>
+        <v>0.0019491382282899505</v>
       </c>
       <c r="F45">
-        <v>4.833106938040732e-5</v>
+        <v>4.8319270421863385e-5</v>
       </c>
       <c r="G45">
-        <v>7.405847848874981</v>
+        <v>7.380965099180736</v>
       </c>
       <c r="H45">
-        <v>5.34296651736738e-5</v>
+        <v>5.38203286346249e-5</v>
       </c>
       <c r="I45">
-        <v>-1.592249523084335e-5</v>
+        <v>-9.330242712051346e-6</v>
       </c>
       <c r="J45">
-        <v>0.0019520650121913976</v>
+        <v>0.0019491331745687345</v>
       </c>
       <c r="K45">
-        <v>4.8330846514860175e-5</v>
+        <v>4.831904549181241e-5</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1995,34 +1995,34 @@
         <v>-0.005500000000000005</v>
       </c>
       <c r="B46">
-        <v>7.392236992095506</v>
+        <v>7.367323388158623</v>
       </c>
       <c r="C46">
-        <v>4.917257028492605e-5</v>
+        <v>4.9571497334718584e-5</v>
       </c>
       <c r="D46">
-        <v>-1.612389782478931e-5</v>
+        <v>-9.367598251649387e-6</v>
       </c>
       <c r="E46">
-        <v>0.001950799433982588</v>
+        <v>0.0019477998681981647</v>
       </c>
       <c r="F46">
-        <v>4.8328749192355407e-5</v>
+        <v>4.831727685553675e-5</v>
       </c>
       <c r="G46">
-        <v>7.392199756103823</v>
+        <v>7.36728560706971</v>
       </c>
       <c r="H46">
-        <v>4.916553726640767e-5</v>
+        <v>4.9564481660956645e-5</v>
       </c>
       <c r="I46">
-        <v>-1.6128952722442447e-5</v>
+        <v>-9.372254426498972e-6</v>
       </c>
       <c r="J46">
-        <v>0.0019507938632466598</v>
+        <v>0.0019477942295371632</v>
       </c>
       <c r="K46">
-        <v>4.832852031606036e-5</v>
+        <v>4.831704739048981e-5</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2030,34 +2030,34 @@
         <v>-0.004500000000000004</v>
       </c>
       <c r="B47">
-        <v>7.379118581147498</v>
+        <v>7.354193464883278</v>
       </c>
       <c r="C47">
-        <v>4.4994886378522815e-5</v>
+        <v>4.540185690462495e-5</v>
       </c>
       <c r="D47">
-        <v>-1.62700733003903e-5</v>
+        <v>-9.353476071275328e-6</v>
       </c>
       <c r="E47">
-        <v>0.0019495572610653273</v>
+        <v>0.0019464928332908022</v>
       </c>
       <c r="F47">
-        <v>4.832685858132113e-5</v>
+        <v>4.831570043348812e-5</v>
       </c>
       <c r="G47">
-        <v>7.37907619170346</v>
+        <v>7.354150500116772</v>
       </c>
       <c r="H47">
-        <v>4.4986285892455664e-5</v>
+        <v>4.5393278033195944e-5</v>
       </c>
       <c r="I47">
-        <v>-1.6276240776267828e-5</v>
+        <v>-9.35914863163321e-6</v>
       </c>
       <c r="J47">
-        <v>0.00194955105428139</v>
+        <v>0.0019464865404640692</v>
       </c>
       <c r="K47">
-        <v>4.832662441846502e-5</v>
+        <v>4.831546708546187e-5</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2065,34 +2065,34 @@
         <v>-0.003500000000000003</v>
       </c>
       <c r="B48">
-        <v>7.366571397170926</v>
+        <v>7.3416545266717</v>
       </c>
       <c r="C48">
-        <v>4.0921009498514324e-5</v>
+        <v>4.133573830300703e-5</v>
       </c>
       <c r="D48">
-        <v>-1.6343527970606415e-5</v>
+        <v>-9.272087600854256e-6</v>
       </c>
       <c r="E48">
-        <v>0.0019483520941938374</v>
+        <v>0.00194522630836059</v>
       </c>
       <c r="F48">
-        <v>4.832539298345245e-5</v>
+        <v>4.831453589316297e-5</v>
       </c>
       <c r="G48">
-        <v>7.366523573289864</v>
+        <v>7.3416060837403645</v>
       </c>
       <c r="H48">
-        <v>4.091070295656514e-5</v>
+        <v>4.132545802772587e-5</v>
       </c>
       <c r="I48">
-        <v>-1.63509075201366e-5</v>
+        <v>-9.278864976426574e-6</v>
       </c>
       <c r="J48">
-        <v>0.0019483451999341807</v>
+        <v>0.0019452193032635065</v>
       </c>
       <c r="K48">
-        <v>4.832515425850581e-5</v>
+        <v>4.8314299306233815e-5</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2100,34 +2100,34 @@
         <v>-0.0025000000000000022</v>
       </c>
       <c r="B49">
-        <v>7.354643963066748</v>
+        <v>7.329755220422711</v>
       </c>
       <c r="C49">
-        <v>3.69713378611592e-5</v>
+        <v>3.739348370435997e-5</v>
       </c>
       <c r="D49">
-        <v>-1.6329629459865916e-5</v>
+        <v>-9.110356274984757e-6</v>
       </c>
       <c r="E49">
-        <v>0.0019471933142350209</v>
+        <v>0.001944010308246199</v>
       </c>
       <c r="F49">
-        <v>4.832434864093747e-5</v>
+        <v>4.831377894778802e-5</v>
       </c>
       <c r="G49">
-        <v>7.354590582944502</v>
+        <v>7.329701167593766</v>
       </c>
       <c r="H49">
-        <v>3.695923368029212e-5</v>
+        <v>3.738141069546066e-5</v>
       </c>
       <c r="I49">
-        <v>-1.6338287348211697e-5</v>
+        <v>-9.118296372311153e-6</v>
       </c>
       <c r="J49">
-        <v>0.0019471856983992362</v>
+        <v>0.0019440025513782972</v>
       </c>
       <c r="K49">
-        <v>4.832410608746306e-5</v>
+        <v>4.8313539771396114e-5</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2135,34 +2135,34 @@
         <v>-0.0015000000000000013</v>
       </c>
       <c r="B50">
-        <v>7.3433853062306325</v>
+        <v>7.31854488299834</v>
       </c>
       <c r="C50">
-        <v>3.316734492436976e-5</v>
+        <v>3.3596507570729135e-5</v>
       </c>
       <c r="D50">
-        <v>-1.6212943375886208e-5</v>
+        <v>-8.854530271706823e-6</v>
       </c>
       <c r="E50">
-        <v>0.0019460908378715266</v>
+        <v>0.0019428554183158848</v>
       </c>
       <c r="F50">
-        <v>4.8323721994452307e-5</v>
+        <v>4.831342567596008e-5</v>
       </c>
       <c r="G50">
-        <v>7.34332644372195</v>
+        <v>7.318485289050214</v>
       </c>
       <c r="H50">
-        <v>3.315341313780219e-5</v>
+        <v>3.358261194569267e-5</v>
       </c>
       <c r="I50">
-        <v>-1.6222902078653134e-5</v>
+        <v>-8.863651138069297e-6</v>
       </c>
       <c r="J50">
-        <v>0.001946082490347473</v>
+        <v>0.0019428468960086527</v>
       </c>
       <c r="K50">
-        <v>4.832347636241663e-5</v>
+        <v>4.83131845759853e-5</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2170,34 +2170,34 @@
         <v>-0.0005000000000000004</v>
       </c>
       <c r="B51">
-        <v>7.332842882385734</v>
+        <v>7.308071395452947</v>
       </c>
       <c r="C51">
-        <v>2.953084440616015e-5</v>
+        <v>2.996656368943619e-5</v>
       </c>
       <c r="D51">
-        <v>-1.5977761054217154e-5</v>
+        <v>-8.490652671776843e-6</v>
       </c>
       <c r="E51">
-        <v>0.001945054792731697</v>
+        <v>0.001941772443853285</v>
       </c>
       <c r="F51">
-        <v>4.83235090457959e-5</v>
+        <v>4.831347188268959e-5</v>
       </c>
       <c r="G51">
-        <v>7.3327788328677075</v>
+        <v>7.308006556545572</v>
       </c>
       <c r="H51">
-        <v>2.951512852205261e-5</v>
+        <v>2.9950888839104074e-5</v>
       </c>
       <c r="I51">
-        <v>-1.5988990622290856e-5</v>
+        <v>-8.500924952785953e-6</v>
       </c>
       <c r="J51">
-        <v>0.0019450457330272915</v>
+        <v>0.0019417631743764694</v>
       </c>
       <c r="K51">
-        <v>4.8323261105851246e-5</v>
+        <v>4.831322954874902e-5</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2205,34 +2205,34 @@
         <v>0.000499999999999997</v>
       </c>
       <c r="B52">
-        <v>7.323060262248371</v>
+        <v>7.29837878688886</v>
       </c>
       <c r="C52">
-        <v>2.6083115732808066e-5</v>
+        <v>2.6524873023971605e-5</v>
       </c>
       <c r="D52">
-        <v>-1.5608731459730754e-5</v>
+        <v>-8.005118978660068e-6</v>
       </c>
       <c r="E52">
-        <v>0.0019440951219025797</v>
+        <v>0.0019407719828789774</v>
       </c>
       <c r="F52">
-        <v>4.832370473218295e-5</v>
+        <v>4.831391247182959e-5</v>
       </c>
       <c r="G52">
-        <v>7.322991553872949</v>
+        <v>7.2983092384073585</v>
       </c>
       <c r="H52">
-        <v>2.606574014014245e-5</v>
+        <v>2.6507542998070236e-5</v>
       </c>
       <c r="I52">
-        <v>-1.5621144051768498e-5</v>
+        <v>-8.016461248814338e-6</v>
       </c>
       <c r="J52">
-        <v>0.001944085402939949</v>
+        <v>0.0019407620205520882</v>
       </c>
       <c r="K52">
-        <v>4.8323455275821666e-5</v>
+        <v>4.8313669619706604e-5</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2240,34 +2240,34 @@
         <v>0.0014999999999999944</v>
       </c>
       <c r="B53">
-        <v>7.314074739693157</v>
+        <v>7.289504752166547</v>
       </c>
       <c r="C53">
-        <v>2.2843942855982184e-5</v>
+        <v>2.3291165171862154e-5</v>
       </c>
       <c r="D53">
-        <v>-1.509155915133112e-5</v>
+        <v>-7.3852882259755696e-6</v>
       </c>
       <c r="E53">
-        <v>0.0019432211414729117</v>
+        <v>0.00193986394816549</v>
       </c>
       <c r="F53">
-        <v>4.832430235299596e-5</v>
+        <v>4.8314740869364574e-5</v>
       </c>
       <c r="G53">
-        <v>7.314002127276405</v>
+        <v>7.28943126266941</v>
       </c>
       <c r="H53">
-        <v>2.2825114385831945e-5</v>
+        <v>2.327238623596379e-5</v>
       </c>
       <c r="I53">
-        <v>-1.5105007763727327e-5</v>
+        <v>-7.397566069836785e-6</v>
       </c>
       <c r="J53">
-        <v>0.0019432108508544179</v>
+        <v>0.0019398533847285872</v>
       </c>
       <c r="K53">
-        <v>4.8324052188006114e-5</v>
+        <v>4.8314498238029005e-5</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2275,34 +2275,34 @@
         <v>0.0024999999999999953</v>
       </c>
       <c r="B54">
-        <v>7.305915043664164</v>
+        <v>7.2814782729530325</v>
       </c>
       <c r="C54">
-        <v>1.983063568437156e-5</v>
+        <v>2.0282702484804773e-5</v>
       </c>
       <c r="D54">
-        <v>-1.441371774921708e-5</v>
+        <v>-6.620103857236324e-6</v>
       </c>
       <c r="E54">
-        <v>0.001942441083549165</v>
+        <v>0.0019390570738465236</v>
       </c>
       <c r="F54">
-        <v>4.832529308575524e-5</v>
+        <v>4.831594853331337e-5</v>
       </c>
       <c r="G54">
-        <v>7.305839484190547</v>
+        <v>7.281401819139031</v>
       </c>
       <c r="H54">
-        <v>1.9810638489187755e-5</v>
+        <v>2.0262758013649716e-5</v>
       </c>
       <c r="I54">
-        <v>-1.442799977605533e-5</v>
+        <v>-6.633133223339796e-6</v>
       </c>
       <c r="J54">
-        <v>0.0019424303418462832</v>
+        <v>0.0019390460366065251</v>
       </c>
       <c r="K54">
-        <v>4.832504302696802e-5</v>
+        <v>4.83157068765733e-5</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2310,34 +2310,34 @@
         <v>0.003499999999999996</v>
       </c>
       <c r="B55">
-        <v>7.298599341960124</v>
+        <v>7.274317538398601</v>
       </c>
       <c r="C55">
-        <v>1.7057113126137814e-5</v>
+        <v>1.751336563035466e-5</v>
       </c>
       <c r="D55">
-        <v>-1.3565120647882633e-5</v>
+        <v>-5.700674668354281e-6</v>
       </c>
       <c r="E55">
-        <v>0.0019417616629228542</v>
+        <v>0.001938358448294869</v>
       </c>
       <c r="F55">
-        <v>4.832666562144757e-5</v>
+        <v>4.831752457975433e-5</v>
       </c>
       <c r="G55">
-        <v>7.298521952684854</v>
+        <v>7.274239262083063</v>
       </c>
       <c r="H55">
-        <v>1.7036296778966732e-5</v>
+        <v>1.7492604239720482e-5</v>
       </c>
       <c r="I55">
-        <v>-1.357998636499254e-5</v>
+        <v>-5.71422954793247e-6</v>
       </c>
       <c r="J55">
-        <v>0.0019417506188791518</v>
+        <v>0.0019383470949337277</v>
       </c>
       <c r="K55">
-        <v>4.8326416477304884e-5</v>
+        <v>4.8317284653137506e-5</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2345,34 +2345,34 @@
         <v>0.004499999999999997</v>
       </c>
       <c r="B56">
-        <v>7.292133711208488</v>
+        <v>7.268028347830045</v>
       </c>
       <c r="C56">
-        <v>1.4533127781608514e-5</v>
+        <v>1.4992880414686623e-5</v>
       </c>
       <c r="D56">
-        <v>-1.2538689520641843e-5</v>
+        <v>-4.6207656388522066e-6</v>
       </c>
       <c r="E56">
-        <v>0.0019411877069343097</v>
+        <v>0.0019377731163957846</v>
       </c>
       <c r="F56">
-        <v>4.832840594112261e-5</v>
+        <v>4.8319455546628356e-5</v>
       </c>
       <c r="G56">
-        <v>7.292055713350386</v>
+        <v>7.267949498009553</v>
       </c>
       <c r="H56">
-        <v>1.4511889319403958e-5</v>
+        <v>1.4971698053979938e-5</v>
       </c>
       <c r="I56">
-        <v>-1.255385498296322e-5</v>
+        <v>-4.63458960135019e-6</v>
       </c>
       <c r="J56">
-        <v>0.0019411765298651942</v>
+        <v>0.0019377616267526475</v>
       </c>
       <c r="K56">
-        <v>4.832815849705983e-5</v>
+        <v>4.831921809057554e-5</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2380,34 +2380,34 @@
         <v>0.005499999999999998</v>
       </c>
       <c r="B57">
-        <v>7.28651121431355</v>
+        <v>7.2626031436194305</v>
       </c>
       <c r="C57">
-        <v>1.2263703705252031e-5</v>
+        <v>1.2726257089254663e-5</v>
       </c>
       <c r="D57">
-        <v>-1.133076729112737e-5</v>
+        <v>-3.377153984849654e-6</v>
       </c>
       <c r="E57">
-        <v>0.001940721884386991</v>
+        <v>0.001937303790211372</v>
       </c>
       <c r="F57">
-        <v>4.833049724668584e-5</v>
+        <v>4.8321725308348375e-5</v>
       </c>
       <c r="G57">
-        <v>7.286433867060335</v>
+        <v>7.26252500850594</v>
       </c>
       <c r="H57">
-        <v>1.224246511911562e-5</v>
+        <v>1.2705074593532598e-5</v>
       </c>
       <c r="I57">
-        <v>-1.1345930555776008e-5</v>
+        <v>-3.3909746111957914e-6</v>
       </c>
       <c r="J57">
-        <v>0.001940710754438223</v>
+        <v>0.0019372923557627619</v>
       </c>
       <c r="K57">
-        <v>4.8330252246678995e-5</v>
+        <v>4.832149102917051e-5</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2415,34 +2415,34 @@
         <v>0.006499999999999999</v>
       </c>
       <c r="B58">
-        <v>7.281711677389048</v>
+        <v>7.258020770903391</v>
       </c>
       <c r="C58">
-        <v>1.024884089706841e-5</v>
+        <v>1.0713495654058826e-5</v>
       </c>
       <c r="D58">
-        <v>-9.941335379161487e-6</v>
+        <v>-1.9698168900001743e-6</v>
       </c>
       <c r="E58">
-        <v>0.0019403645607599545</v>
+        <v>0.0019369506974871319</v>
       </c>
       <c r="F58">
-        <v>4.8332920049685144e-5</v>
+        <v>4.832431514541908e-5</v>
       </c>
       <c r="G58">
-        <v>7.281636208132839</v>
+        <v>7.25794460605679</v>
       </c>
       <c r="H58">
-        <v>1.0228024179630311e-5</v>
+        <v>1.069273385989867e-5</v>
       </c>
       <c r="I58">
-        <v>-9.956194514707705e-6</v>
+        <v>-1.9833617620629815e-6</v>
       </c>
       <c r="J58">
-        <v>0.0019403536579879767</v>
+        <v>0.0019369395095745962</v>
       </c>
       <c r="K58">
-        <v>4.8332678177529654e-5</v>
+        <v>4.832408469569598e-5</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2450,34 +2450,34 @@
         <v>0.0075</v>
       </c>
       <c r="B59">
-        <v>7.277702197815066</v>
+        <v>7.254246997527668</v>
       </c>
       <c r="C59">
-        <v>8.483515302589146e-6</v>
+        <v>8.949585857645022e-6</v>
       </c>
       <c r="D59">
-        <v>-8.374013651490586e-6</v>
+        <v>-4.019328611370691e-7</v>
       </c>
       <c r="E59">
-        <v>0.0019401137944680298</v>
+        <v>0.001936711583648759</v>
       </c>
       <c r="F59">
-        <v>4.8335652412909074e-5</v>
+        <v>4.832720396454154e-5</v>
       </c>
       <c r="G59">
-        <v>7.277629735018252</v>
+        <v>7.254173956719215</v>
       </c>
       <c r="H59">
-        <v>8.46351749535876e-6</v>
+        <v>8.929640718983949e-6</v>
       </c>
       <c r="I59">
-        <v>-8.38828474608563e-6</v>
+        <v>-4.1494555591693727e-7</v>
       </c>
       <c r="J59">
-        <v>0.0019401032878730482</v>
+        <v>0.0019367008216823404</v>
       </c>
       <c r="K59">
-        <v>4.8335414274859755e-5</v>
+        <v>4.832697792470428e-5</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2485,34 +2485,34 @@
         <v>0.008499999999999997</v>
       </c>
       <c r="B60">
-        <v>7.274438350313501</v>
+        <v>7.25123575962276</v>
       </c>
       <c r="C60">
-        <v>6.9579743214868055e-6</v>
+        <v>7.424801893838488e-6</v>
       </c>
       <c r="D60">
-        <v>-6.635843139029884e-6</v>
+        <v>1.3203034537048072e-6</v>
       </c>
       <c r="E60">
-        <v>0.001939965474284971</v>
+        <v>0.0019365818668413257</v>
       </c>
       <c r="F60">
-        <v>4.8338670330914336e-5</v>
+        <v>4.833036865616006e-5</v>
       </c>
       <c r="G60">
-        <v>7.274369865097054</v>
+        <v>7.251166834739477</v>
       </c>
       <c r="H60">
-        <v>6.939145005003793e-6</v>
+        <v>7.4060220339063605e-6</v>
       </c>
       <c r="I60">
-        <v>-6.649276520488032e-6</v>
+        <v>1.3080489178423225e-6</v>
       </c>
       <c r="J60">
-        <v>0.0019399555119314095</v>
+        <v>0.001936571687706249</v>
       </c>
       <c r="K60">
-        <v>4.833843644121824e-5</v>
+        <v>4.833014751889348e-5</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2520,34 +2520,34 @@
         <v>0.009499999999999995</v>
       </c>
       <c r="B61">
-        <v>7.271865996266381</v>
+        <v>7.248931033518106</v>
       </c>
       <c r="C61">
-        <v>5.658299045599722e-6</v>
+        <v>6.125263095084021e-6</v>
       </c>
       <c r="D61">
-        <v>-4.736873194461238e-6</v>
+        <v>3.1880352265036046e-6</v>
       </c>
       <c r="E61">
-        <v>0.0019399135834379992</v>
+        <v>0.0019365549295837902</v>
       </c>
       <c r="F61">
-        <v>4.8341948227308756e-5</v>
+        <v>4.833378456822918e-5</v>
       </c>
       <c r="G61">
-        <v>7.271802257755787</v>
+        <v>7.248867008713713</v>
       </c>
       <c r="H61">
-        <v>5.640922382603871e-6</v>
+        <v>6.107931898853414e-6</v>
       </c>
       <c r="I61">
-        <v>-4.7492663240317195e-6</v>
+        <v>3.1767228364838937e-6</v>
       </c>
       <c r="J61">
-        <v>0.0019399042846364285</v>
+        <v>0.0019365454592979432</v>
       </c>
       <c r="K61">
-        <v>4.8341718997910394e-5</v>
+        <v>4.8333568727063504e-5</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2555,34 +2555,34 @@
         <v>0.010499999999999995</v>
       </c>
       <c r="B62">
-        <v>7.2699235501096435</v>
+        <v>7.247269180934418</v>
       </c>
       <c r="C62">
-        <v>4.567179566238864e-6</v>
+        <v>5.0337071096847305e-6</v>
       </c>
       <c r="D62">
-        <v>-2.6895933364397838e-6</v>
+        <v>5.1902328586656335e-6</v>
       </c>
       <c r="E62">
-        <v>0.0019399505634522364</v>
+        <v>0.0019366225171252153</v>
       </c>
       <c r="F62">
-        <v>4.834545953906445e-5</v>
+        <v>4.833742606746361e-5</v>
       </c>
       <c r="G62">
-        <v>7.26986509792204</v>
+        <v>7.247210604509072</v>
       </c>
       <c r="H62">
-        <v>4.551462400699573e-6</v>
+        <v>5.018030855553076e-6</v>
       </c>
       <c r="I62">
-        <v>-2.700799290154795e-6</v>
+        <v>5.17999690981002e-6</v>
       </c>
       <c r="J62">
-        <v>0.001939942013683057</v>
+        <v>0.0019366138454712937</v>
       </c>
       <c r="K62">
-        <v>4.8345235274375515e-5</v>
+        <v>4.833721581051632e-5</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2590,34 +2590,34 @@
         <v>0.011499999999999996</v>
       </c>
       <c r="B63">
-        <v>7.268544521473035</v>
+        <v>7.246181577851102</v>
       </c>
       <c r="C63">
-        <v>3.664831931735467e-6</v>
+        <v>4.13040434011371e-6</v>
       </c>
       <c r="D63">
-        <v>-5.082630925827246e-7</v>
+        <v>7.314274269986971e-6</v>
       </c>
       <c r="E63">
-        <v>0.0019400677422889347</v>
+        <v>0.001936775203471809</v>
       </c>
       <c r="F63">
-        <v>4.834917735192985e-5</v>
+        <v>4.834126715309269e-5</v>
       </c>
       <c r="G63">
-        <v>7.268491656725987</v>
+        <v>7.2461287532563095</v>
       </c>
       <c r="H63">
-        <v>3.6508986679145923e-6</v>
+        <v>4.116507093003547e-6</v>
       </c>
       <c r="I63">
-        <v>-5.18194120555279e-7</v>
+        <v>7.30519599804276e-6</v>
       </c>
       <c r="J63">
-        <v>0.0019400599911753413</v>
+        <v>0.0019367673819208832</v>
       </c>
       <c r="K63">
-        <v>4.834895824906934e-5</v>
+        <v>4.834106266241278e-5</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2625,34 +2625,34 @@
         <v>0.012499999999999997</v>
       </c>
       <c r="B64">
-        <v>7.267660136633466</v>
+        <v>7.245597322119703</v>
       </c>
       <c r="C64">
-        <v>2.9299767158119148e-6</v>
+        <v>3.394133822880611e-6</v>
       </c>
       <c r="D64">
-        <v>1.7918007778592642e-6</v>
+        <v>9.546565870698287e-6</v>
       </c>
       <c r="E64">
-        <v>0.0019402557876606994</v>
+        <v>0.0019370028823434225</v>
       </c>
       <c r="F64">
-        <v>4.835307504698853e-5</v>
+        <v>4.834528208401909e-5</v>
       </c>
       <c r="G64">
-        <v>7.267612930791974</v>
+        <v>7.245550317342335</v>
       </c>
       <c r="H64">
-        <v>2.9178708792866147e-6</v>
+        <v>3.3820589909545022e-6</v>
       </c>
       <c r="I64">
-        <v>1.7831745196667472e-6</v>
+        <v>9.538674363992087e-6</v>
       </c>
       <c r="J64">
-        <v>0.001940248849912091</v>
+        <v>0.001936995925167934</v>
       </c>
       <c r="K64">
-        <v>4.835286120136799e-5</v>
+        <v>4.83450834404324e-5</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2660,34 +2660,34 @@
         <v>0.013499999999999998</v>
       </c>
       <c r="B65">
-        <v>7.26720184891731</v>
+        <v>7.245445821855931</v>
       </c>
       <c r="C65">
-        <v>2.340800200454137e-6</v>
+        <v>2.8031417706638426e-6</v>
       </c>
       <c r="D65">
-        <v>4.194921536515916e-6</v>
+        <v>1.1873154382952397e-5</v>
       </c>
       <c r="E65">
-        <v>0.0019405051477267656</v>
+        <v>0.0019372952420764063</v>
       </c>
       <c r="F65">
-        <v>4.835712691744458e-5</v>
+        <v>4.834944597916102e-5</v>
       </c>
       <c r="G65">
-        <v>7.267160167961384</v>
+        <v>7.245404494539455</v>
       </c>
       <c r="H65">
-        <v>2.3304918437358956e-6</v>
+        <v>2.7928594905909764e-6</v>
       </c>
       <c r="I65">
-        <v>4.187577450063745e-6</v>
+        <v>1.18664312539804e-5</v>
       </c>
       <c r="J65">
-        <v>0.00194049900663598</v>
+        <v>0.0019372891301879297</v>
       </c>
       <c r="K65">
-        <v>4.835691833305978e-5</v>
+        <v>4.834925317198382e-5</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2695,34 +2695,34 @@
         <v>0.014499999999999999</v>
       </c>
       <c r="B66">
-        <v>7.267103573152227</v>
+        <v>7.24565909388499</v>
       </c>
       <c r="C66">
-        <v>1.8758289277496006e-6</v>
+        <v>2.3360137214177946e-6</v>
       </c>
       <c r="D66">
-        <v>6.68569375144541e-6</v>
+        <v>1.428028550736351e-5</v>
       </c>
       <c r="E66">
-        <v>0.0019408064469690633</v>
+        <v>0.0019376421898856218</v>
       </c>
       <c r="F66">
-        <v>4.836130871742062e-5</v>
+        <v>4.8353735353270086e-5</v>
       </c>
       <c r="G66">
-        <v>7.267067113181799</v>
+        <v>7.245623128144803</v>
       </c>
       <c r="H66">
-        <v>1.8672264887140406e-6</v>
+        <v>2.3274326842289373e-6</v>
       </c>
       <c r="I66">
-        <v>6.679565427376591e-6</v>
+        <v>1.4274672445662723e-5</v>
       </c>
       <c r="J66">
-        <v>0.0019408010598046253</v>
+        <v>0.0019376368766763</v>
       </c>
       <c r="K66">
-        <v>4.836110532078304e-5</v>
+        <v>4.835354829381705e-5</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2730,34 +2730,34 @@
         <v>0.0155</v>
       </c>
       <c r="B67">
-        <v>7.267303519773128</v>
+        <v>7.24617364431693</v>
       </c>
       <c r="C67">
-        <v>1.5146646814398693e-6</v>
+        <v>1.972407500647515e-6</v>
       </c>
       <c r="D67">
-        <v>9.249510617164791e-6</v>
+        <v>1.6754875450124864e-5</v>
       </c>
       <c r="E67">
-        <v>0.0019411508136336969</v>
+        <v>0.001938034200465621</v>
       </c>
       <c r="F67">
-        <v>4.8365598111037845e-5</v>
+        <v>4.835812855678438e-5</v>
       </c>
       <c r="G67">
-        <v>7.26727184942026</v>
+        <v>7.246142594452775</v>
       </c>
       <c r="H67">
-        <v>1.5076295940305505e-6</v>
+        <v>1.965389522312169e-6</v>
       </c>
       <c r="I67">
-        <v>9.244498390615126e-6</v>
+        <v>1.6750283575071804e-5</v>
       </c>
       <c r="J67">
-        <v>0.0019411461181461417</v>
+        <v>0.0019380296188072884</v>
       </c>
       <c r="K67">
-        <v>4.8365399767394124e-5</v>
+        <v>4.835794709430328e-5</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2765,34 +2765,34 @@
         <v>0.0165</v>
       </c>
       <c r="B68">
-        <v>7.26774555355085</v>
+        <v>7.246931855099583</v>
       </c>
       <c r="C68">
-        <v>1.2385469492885272e-6</v>
+        <v>1.6936141384759449e-6</v>
       </c>
       <c r="D68">
-        <v>1.1872964273680182e-5</v>
+        <v>1.9284873786398475e-5</v>
       </c>
       <c r="E68">
-        <v>0.001941530125120868</v>
+        <v>0.0019384625748995808</v>
       </c>
       <c r="F68">
-        <v>4.836997499975042e-5</v>
+        <v>4.836260609775061e-5</v>
       </c>
       <c r="G68">
-        <v>7.267718158480793</v>
+        <v>7.246905191337773</v>
       </c>
       <c r="H68">
-        <v>1.2329092560683801e-6</v>
+        <v>1.68798972958171e-6</v>
       </c>
       <c r="I68">
-        <v>1.1868946439443405e-5</v>
+        <v>1.9281193679759138e-5</v>
       </c>
       <c r="J68">
-        <v>0.0019415260463807808</v>
+        <v>0.001938458644460127</v>
       </c>
       <c r="K68">
-        <v>4.836978153013019e-5</v>
+        <v>4.836243003630536e-5</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2800,34 +2800,34 @@
         <v>0.0175</v>
       </c>
       <c r="B69">
-        <v>7.268380053206396</v>
+        <v>7.247882853833105</v>
       </c>
       <c r="C69">
-        <v>1.0307305560606688e-6</v>
+        <v>1.482934465119728e-6</v>
       </c>
       <c r="D69">
-        <v>1.4544111291020013e-5</v>
+        <v>2.1859509146442006e-5</v>
       </c>
       <c r="E69">
-        <v>0.001941937167582354</v>
+        <v>0.0019389196065711413</v>
       </c>
       <c r="F69">
-        <v>4.8374421717637964e-5</v>
+        <v>4.836715083535712e-5</v>
       </c>
       <c r="G69">
-        <v>7.268356378490461</v>
+        <v>7.247860005768988</v>
       </c>
       <c r="H69">
-        <v>1.0263039504645033e-6</v>
+        <v>1.4785178318247377e-6</v>
       </c>
       <c r="I69">
-        <v>1.4540954852697186e-5</v>
+        <v>2.1856620552199062e-5</v>
       </c>
       <c r="J69">
-        <v>0.0019419336244672406</v>
+        <v>0.0019389162407208837</v>
       </c>
       <c r="K69">
-        <v>4.837423291534655e-5</v>
+        <v>4.8366979950255596e-5</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2835,34 +2835,34 @@
         <v>0.018500000000000003</v>
       </c>
       <c r="B70">
-        <v>7.269164294885043</v>
+        <v>7.248982892452194</v>
       </c>
       <c r="C70">
-        <v>8.766847571842716e-7</v>
+        <v>1.3258776575638102e-6</v>
       </c>
       <c r="D70">
-        <v>1.7252608968315783e-5</v>
+        <v>2.4469421065363287e-5</v>
       </c>
       <c r="E70">
-        <v>0.001942365714489965</v>
+        <v>0.0019393986598971046</v>
       </c>
       <c r="F70">
-        <v>4.837892309652271e-5</v>
+        <v>4.837174804657783e-5</v>
       </c>
       <c r="G70">
-        <v>7.269143781965985</v>
+        <v>7.248963286845683</v>
       </c>
       <c r="H70">
-        <v>8.732798271280458e-7</v>
+        <v>1.3224799088497555e-6</v>
       </c>
       <c r="I70">
-        <v>1.7250179052594257e-5</v>
+        <v>2.4467201459877197e-5</v>
       </c>
       <c r="J70">
-        <v>0.0019423626253047858</v>
+        <v>0.0019393957716623998</v>
       </c>
       <c r="K70">
-        <v>4.8378738741928866e-5</v>
+        <v>4.837158209917594e-5</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2870,34 +2870,34 @@
         <v>0.019500000000000003</v>
       </c>
       <c r="B71">
-        <v>7.270062419509477</v>
+        <v>7.25019529837848</v>
       </c>
       <c r="C71">
-        <v>7.641346838866951e-7</v>
+        <v>1.2102025708319508e-6</v>
       </c>
       <c r="D71">
-        <v>1.9989738484683203e-5</v>
+        <v>2.7106690758052836e-5</v>
       </c>
       <c r="E71">
-        <v>0.0019428105352598736</v>
+        <v>0.001939894174373255</v>
       </c>
       <c r="F71">
-        <v>4.8383466413704677e-5</v>
+        <v>4.8376385378187545e-5</v>
       </c>
       <c r="G71">
-        <v>7.270044535653533</v>
+        <v>7.250178389172995</v>
       </c>
       <c r="H71">
-        <v>7.615695593857551e-7</v>
+        <v>1.2076423368989505e-6</v>
       </c>
       <c r="I71">
-        <v>1.9987905866712266e-5</v>
+        <v>2.7105022267535765e-5</v>
       </c>
       <c r="J71">
-        <v>0.0019428078221745899</v>
+        <v>0.0019398916811096127</v>
       </c>
       <c r="K71">
-        <v>4.838328628651483e-5</v>
+        <v>4.8376224128243484e-5</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2905,34 +2905,34 @@
         <v>0.020499999999999997</v>
       </c>
       <c r="B72">
-        <v>7.2710450684111425</v>
+        <v>7.251490086427626</v>
       </c>
       <c r="C72">
-        <v>6.829755837992066e-7</v>
+        <v>1.1258322142056323e-6</v>
       </c>
       <c r="D72">
-        <v>2.274833755292105e-5</v>
+        <v>2.976478985340952e-5</v>
       </c>
       <c r="E72">
-        <v>0.0019432673488236239</v>
+        <v>0.0019404016103357485</v>
       </c>
       <c r="F72">
-        <v>4.8388041243423205e-5</v>
+        <v>4.8381052704609994e-5</v>
       </c>
       <c r="G72">
-        <v>7.271029327744362</v>
+        <v>7.2514753761029365</v>
       </c>
       <c r="H72">
-        <v>6.810836320220222e-7</v>
+        <v>1.1239433204129804e-6</v>
       </c>
       <c r="I72">
-        <v>2.2746984056049475e-5</v>
+        <v>2.9763564278405366e-5</v>
       </c>
       <c r="J72">
-        <v>0.001943264941005899</v>
+        <v>0.0019403994370013138</v>
       </c>
       <c r="K72">
-        <v>4.838786513201935e-5</v>
+        <v>4.838089591974942e-5</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2940,34 +2940,34 @@
         <v>0.02149999999999999</v>
       </c>
       <c r="B73">
-        <v>7.272088782631773</v>
+        <v>7.252843330515005</v>
       </c>
       <c r="C73">
-        <v>6.25094666448512e-7</v>
+        <v>1.0646760861743958e-6</v>
       </c>
       <c r="D73">
-        <v>2.5522668050014868e-5</v>
+        <v>3.243846910722099e-5</v>
       </c>
       <c r="E73">
-        <v>0.0019437327384196233</v>
+        <v>0.0019409173541303018</v>
       </c>
       <c r="F73">
-        <v>4.839263923803591e-5</v>
+        <v>4.8385741916890863e-5</v>
       </c>
       <c r="G73">
-        <v>7.27207475891918</v>
+        <v>7.2528303829707195</v>
       </c>
       <c r="H73">
-        <v>6.237292649531074e-7</v>
+        <v>1.0633123131892874e-6</v>
       </c>
       <c r="I73">
-        <v>2.552168985839584e-5</v>
+        <v>3.2437591064205183e-5</v>
       </c>
       <c r="J73">
-        <v>0.0019437305739056828</v>
+        <v>0.0019409154352151882</v>
       </c>
       <c r="K73">
-        <v>4.839246694582177e-5</v>
+        <v>4.838558937911301e-5</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2975,34 +2975,34 @@
         <v>0.022499999999999992</v>
       </c>
       <c r="B74">
-        <v>7.273175260189889</v>
+        <v>7.254236392508955</v>
       </c>
       <c r="C74">
-        <v>5.841351464717011e-7</v>
+        <v>1.0203948659153001e-6</v>
       </c>
       <c r="D74">
-        <v>2.830824363954505e-5</v>
+        <v>3.512360915604742e-5</v>
       </c>
       <c r="E74">
-        <v>0.0019442040432437854</v>
+        <v>0.001941438599522143</v>
       </c>
       <c r="F74">
-        <v>4.839725386619587e-5</v>
+        <v>4.8390446669393674e-5</v>
       </c>
       <c r="G74">
-        <v>7.2731625923185526</v>
+        <v>7.254224838491118</v>
       </c>
       <c r="H74">
-        <v>5.83171858124824e-7</v>
+        <v>1.0194321186794822e-6</v>
       </c>
       <c r="I74">
-        <v>2.8307552767244902e-5</v>
+        <v>3.512299753717773e-5</v>
       </c>
       <c r="J74">
-        <v>0.00194420206970985</v>
+        <v>0.0019414368798139822</v>
       </c>
       <c r="K74">
-        <v>4.8397085215197384e-5</v>
+        <v>4.8390298178849974e-5</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3010,34 +3010,34 @@
         <v>0.023499999999999993</v>
       </c>
       <c r="B75">
-        <v>7.274290555150579</v>
+        <v>7.2556550943439015</v>
       </c>
       <c r="C75">
-        <v>5.552333748445647e-7</v>
+        <v>9.881382667228709e-7</v>
       </c>
       <c r="D75">
-        <v>3.1101639497903456e-5</v>
+        <v>3.7817053148134494e-5</v>
       </c>
       <c r="E75">
-        <v>0.001944679240523439</v>
+        <v>0.0019419632198164837</v>
       </c>
       <c r="F75">
-        <v>4.840188013345187e-5</v>
+        <v>4.839516210903085e-5</v>
       </c>
       <c r="G75">
-        <v>7.274278946771773</v>
+        <v>7.255644630923916</v>
       </c>
       <c r="H75">
-        <v>5.545700291100382e-7</v>
+        <v>9.874746555372435e-7</v>
       </c>
       <c r="I75">
-        <v>3.11011637825124e-5</v>
+        <v>3.781664121983132e-5</v>
       </c>
       <c r="J75">
-        <v>0.001944677415189408</v>
+        <v>0.0019419616542534223</v>
       </c>
       <c r="K75">
-        <v>4.840171496562289e-5</v>
+        <v>4.8395017485514853e-5</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3045,34 +3045,34 @@
         <v>0.024499999999999994</v>
       </c>
       <c r="B76">
-        <v>7.275424285951084</v>
+        <v>7.257088902314573</v>
       </c>
       <c r="C76">
-        <v>5.347540645897917e-7</v>
+        <v>9.6428098915461e-7</v>
       </c>
       <c r="D76">
-        <v>3.390030186926489e-5</v>
+        <v>4.0516437414060115e-5</v>
       </c>
       <c r="E76">
-        <v>0.0019451568286862474</v>
+        <v>0.0019424896419690026</v>
       </c>
       <c r="F76">
-        <v>4.8406514306548904e-5</v>
+        <v>4.8399884607810806e-5</v>
       </c>
       <c r="G76">
-        <v>7.275413500931871</v>
+        <v>7.257079288119614</v>
       </c>
       <c r="H76">
-        <v>5.343093236983963e-7</v>
+        <v>9.638353998042296e-7</v>
       </c>
       <c r="I76">
-        <v>3.389998390586506e-5</v>
+        <v>4.0516171925475006e-5</v>
       </c>
       <c r="J76">
-        <v>0.0019451551176064958</v>
+        <v>0.0019424881948533026</v>
       </c>
       <c r="K76">
-        <v>4.840635248333668e-5</v>
+        <v>4.839974369050295e-5</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3080,34 +3080,34 @@
         <v>0.025499999999999995</v>
       </c>
       <c r="B77">
-        <v>7.276568901546354</v>
+        <v>7.258530172866043</v>
       </c>
       <c r="C77">
-        <v>5.200418166001126e-7</v>
+        <v>9.461749295081832e-7</v>
       </c>
       <c r="D77">
-        <v>3.670237021212707e-5</v>
+        <v>4.3220032029290444e-5</v>
       </c>
       <c r="E77">
-        <v>0.0019456357191471147</v>
+        <v>0.0019430167305490836</v>
       </c>
       <c r="F77">
-        <v>4.841115365730247e-5</v>
+        <v>4.840461151421513e-5</v>
       </c>
       <c r="G77">
-        <v>7.276558756829945</v>
+        <v>7.258521220699531</v>
       </c>
       <c r="H77">
-        <v>5.19752790824212e-7</v>
+        <v>9.458846451015387e-7</v>
       </c>
       <c r="I77">
-        <v>3.670216562940337e-5</v>
+        <v>4.321987169477518e-5</v>
       </c>
       <c r="J77">
-        <v>0.0019456340961301554</v>
+        <v>0.0019430153743782885</v>
       </c>
       <c r="K77">
-        <v>4.8410995058039274e-5</v>
+        <v>4.840447416024025e-5</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3115,34 +3115,34 @@
         <v>0.026499999999999996</v>
       </c>
       <c r="B78">
-        <v>7.277719035435</v>
+        <v>7.259973490123545</v>
       </c>
       <c r="C78">
-        <v>5.092004782334971e-7</v>
+        <v>9.319291446038762e-7</v>
       </c>
       <c r="D78">
-        <v>3.9506519898672986e-5</v>
+        <v>4.5926598851270466e-5</v>
       </c>
       <c r="E78">
-        <v>0.0019461151412668738</v>
+        <v>0.0019435436862335446</v>
       </c>
       <c r="F78">
-        <v>4.841579623624056e-5</v>
+        <v>4.8409340933380984e-5</v>
       </c>
       <c r="G78">
-        <v>7.277709392688049</v>
+        <v>7.259965058381647</v>
       </c>
       <c r="H78">
-        <v>5.090198791420843e-7</v>
+        <v>9.31747006658784e-7</v>
       </c>
       <c r="I78">
-        <v>3.95063953226392e-5</v>
+        <v>4.592651252389797e-5</v>
       </c>
       <c r="J78">
-        <v>0.0019461135866285883</v>
+        <v>0.0019435424003652337</v>
       </c>
       <c r="K78">
-        <v>4.841564075587144e-5</v>
+        <v>4.840920701568273e-5</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3150,34 +3150,34 @@
         <v>0.027499999999999997</v>
       </c>
       <c r="B79">
-        <v>7.278870961551259</v>
+        <v>7.261415108935189</v>
       </c>
       <c r="C79">
-        <v>5.009060532707694e-7</v>
+        <v>9.202232757504605e-7</v>
       </c>
       <c r="D79">
-        <v>4.231182929052148e-5</v>
+        <v>4.863527086634924e-5</v>
       </c>
       <c r="E79">
-        <v>0.001946594562531249</v>
+        <v>0.0019440699608474286</v>
       </c>
       <c r="F79">
-        <v>4.842044068102468e-5</v>
+        <v>4.841407154100787e-5</v>
       </c>
       <c r="G79">
-        <v>7.278861718664199</v>
+        <v>7.261407092902534</v>
       </c>
       <c r="H79">
-        <v>5.007992655973693e-7</v>
+        <v>9.20114764114197e-7</v>
       </c>
       <c r="I79">
-        <v>4.23117602628782e-5</v>
+        <v>4.8635235650515666e-5</v>
       </c>
       <c r="J79">
-        <v>0.001946593061837494</v>
+        <v>0.001944068730160824</v>
       </c>
       <c r="K79">
-        <v>4.8420288227584073e-5</v>
+        <v>4.841394094594916e-5</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3185,34 +3185,34 @@
         <v>0.028499999999999998</v>
       </c>
       <c r="B80">
-        <v>7.280022153488711</v>
+        <v>7.262852504445289</v>
       </c>
       <c r="C80">
-        <v>4.942543275573816e-7</v>
+        <v>9.101555930183322e-7</v>
       </c>
       <c r="D80">
-        <v>4.511767180642291e-5</v>
+        <v>5.134545372670593e-5</v>
       </c>
       <c r="E80">
-        <v>0.001947073624094548</v>
+        <v>0.0019445951889658114</v>
       </c>
       <c r="F80">
-        <v>4.842508606046454e-5</v>
+        <v>4.841880243181312e-5</v>
       </c>
       <c r="G80">
-        <v>7.280013236661638</v>
+        <v>7.26284482821037</v>
       </c>
       <c r="H80">
-        <v>4.941966635459246e-7</v>
+        <v>9.10096087762154e-7</v>
       </c>
       <c r="I80">
-        <v>4.511764084110535e-5</v>
+        <v>5.1345453202699914e-5</v>
       </c>
       <c r="J80">
-        <v>0.0019470721669983561</v>
+        <v>0.0019445940026294956</v>
       </c>
       <c r="K80">
-        <v>4.842493655260088e-5</v>
+        <v>4.841867505680082e-5</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3220,34 +3220,34 @@
         <v>0.0295</v>
       </c>
       <c r="B81">
-        <v>7.281170939869992</v>
+        <v>7.264284020459736</v>
       </c>
       <c r="C81">
-        <v>4.886411930615687e-7</v>
+        <v>9.011236480933065e-7</v>
       </c>
       <c r="D81">
-        <v>4.792363138193302e-5</v>
+        <v>5.4056748277660183e-5</v>
       </c>
       <c r="E81">
-        <v>0.0019475520905470175</v>
+        <v>0.0019451191347545289</v>
       </c>
       <c r="F81">
-        <v>4.842973175193553e-5</v>
+        <v>4.842353300042692e-5</v>
       </c>
       <c r="G81">
-        <v>7.281162296711286</v>
+        <v>7.264276629878732</v>
       </c>
       <c r="H81">
-        <v>4.886154856799527e-7</v>
+        <v>9.01096029342412e-7</v>
       </c>
       <c r="I81">
-        <v>4.79236262673063e-5</v>
+        <v>5.405677094150404e-5</v>
       </c>
       <c r="J81">
-        <v>0.0019475506697802702</v>
+        <v>0.0019451179851615948</v>
       </c>
       <c r="K81">
-        <v>4.842958511667422e-5</v>
+        <v>4.842340875175161e-5</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3255,34 +3255,34 @@
         <v>0.0305</v>
       </c>
       <c r="B82">
-        <v>7.282316243601215</v>
+        <v>7.2657086037796885</v>
       </c>
       <c r="C82">
-        <v>4.836717443448847e-7</v>
+        <v>8.927336204944563e-7</v>
       </c>
       <c r="D82">
-        <v>5.0729438413814057e-5</v>
+        <v>5.676889161485274e-5</v>
       </c>
       <c r="E82">
-        <v>0.0019480298120311882</v>
+        <v>0.001945641651979805</v>
       </c>
       <c r="F82">
-        <v>4.8434377348171086e-5</v>
+        <v>4.842826285082375e-5</v>
       </c>
       <c r="G82">
-        <v>7.282307837418885</v>
+        <v>7.265701460665866</v>
       </c>
       <c r="H82">
-        <v>4.836663481269742e-7</v>
+        <v>8.927262747650305e-7</v>
       </c>
       <c r="I82">
-        <v>5.0729450806406705e-5</v>
+        <v>5.676892957970266e-5</v>
       </c>
       <c r="J82">
-        <v>0.001948028422574576</v>
+        <v>0.0019456405338738642</v>
       </c>
       <c r="K82">
-        <v>4.843423351901349e-5</v>
+        <v>4.842814164181472e-5</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3290,34 +3290,34 @@
         <v>0.0315</v>
       </c>
       <c r="B83">
-        <v>7.283457390595703</v>
+        <v>7.267125609575426</v>
       </c>
       <c r="C83">
-        <v>4.790933578265466e-7</v>
+        <v>8.847335806952949e-7</v>
       </c>
       <c r="D83">
-        <v>5.35349227124795e-5</v>
+        <v>5.948171362695688e-5</v>
       </c>
       <c r="E83">
-        <v>0.0019485066965382208</v>
+        <v>0.001946162654832198</v>
       </c>
       <c r="F83">
-        <v>4.8439022588558934e-5</v>
+        <v>4.843299172956271e-5</v>
       </c>
       <c r="G83">
-        <v>7.28344919588314</v>
+        <v>7.267118687110841</v>
       </c>
       <c r="H83">
-        <v>4.791005623926249e-7</v>
+        <v>8.847388187755722e-7</v>
       </c>
       <c r="I83">
-        <v>5.353494702373191e-5</v>
+        <v>5.948176159068705e-5</v>
       </c>
       <c r="J83">
-        <v>0.0019485053349676674</v>
+        <v>0.0019461615646209998</v>
       </c>
       <c r="K83">
-        <v>4.84388815039458e-5</v>
+        <v>4.8432873479089066e-5</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3325,34 +3325,34 @@
         <v>0.0325</v>
       </c>
       <c r="B84">
-        <v>7.284593973520199</v>
+        <v>7.268534662921058</v>
       </c>
       <c r="C84">
-        <v>4.7474786642719347e-7</v>
+        <v>8.769657961624901e-7</v>
       </c>
       <c r="D84">
-        <v>5.6339979951445535e-5</v>
+        <v>6.219510589523088e-5</v>
       </c>
       <c r="E84">
-        <v>0.001948982690232968</v>
+        <v>0.0019466820972515535</v>
       </c>
       <c r="F84">
-        <v>4.84436673099747e-5</v>
+        <v>4.843771947801217e-5</v>
       </c>
       <c r="G84">
-        <v>7.284585972525785</v>
+        <v>7.268527942174296</v>
       </c>
       <c r="H84">
-        <v>4.747626871818199e-7</v>
+        <v>8.769786471340906e-7</v>
       </c>
       <c r="I84">
-        <v>5.6340012500956704e-5</v>
+        <v>6.219516035214027e-5</v>
       </c>
       <c r="J84">
-        <v>0.0019489813542249183</v>
+        <v>0.0019466810324886702</v>
       </c>
       <c r="K84">
-        <v>4.8443528912095657e-5</v>
+        <v>4.8437604109315324e-5</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3360,34 +3360,34 @@
         <v>0.0335</v>
       </c>
       <c r="B85">
-        <v>7.285725757430793</v>
+        <v>7.269935563014032</v>
       </c>
       <c r="C85">
-        <v>4.7053833702418716e-7</v>
+        <v>8.693336000859928e-7</v>
       </c>
       <c r="D85">
-        <v>5.914454840826998e-5</v>
+        <v>6.490900006077567e-5</v>
       </c>
       <c r="E85">
-        <v>0.0019494577638674616</v>
+        <v>0.0019471999586798232</v>
       </c>
       <c r="F85">
-        <v>4.844831141258014e-5</v>
+        <v>4.844244599911664e-5</v>
       </c>
       <c r="G85">
-        <v>7.285717937643795</v>
+        <v>7.269929030390942</v>
       </c>
       <c r="H85">
-        <v>4.705576264202536e-7</v>
+        <v>8.693509250306182e-7</v>
       </c>
       <c r="I85">
-        <v>5.914458680269859e-5</v>
+        <v>6.49090587213114e-5</v>
       </c>
       <c r="J85">
-        <v>0.0019494564518376225</v>
+        <v>0.0019471989176870106</v>
       </c>
       <c r="K85">
-        <v>4.844817564648506e-5</v>
+        <v>4.844233343893268e-5</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3395,34 +3395,34 @@
         <v>0.0345</v>
       </c>
       <c r="B86">
-        <v>7.286852616172229</v>
+        <v>7.27132821869423</v>
       </c>
       <c r="C86">
-        <v>4.664066143659636e-7</v>
+        <v>8.61778996989178e-7</v>
       </c>
       <c r="D86">
-        <v>6.194859327343142e-5</v>
+        <v>6.762335318408552e-5</v>
       </c>
       <c r="E86">
-        <v>0.0019499319036493828</v>
+        <v>0.0019477162345049432</v>
       </c>
       <c r="F86">
-        <v>4.8452954836673476e-5</v>
+        <v>4.8447171234902856e-5</v>
       </c>
       <c r="G86">
-        <v>7.286844968540934</v>
+        <v>7.2713218641329105</v>
       </c>
       <c r="H86">
-        <v>4.6642843046554783e-7</v>
+        <v>8.617988592846581e-7</v>
       </c>
       <c r="I86">
-        <v>6.19486359659608e-5</v>
+        <v>6.76234145618765e-5</v>
       </c>
       <c r="J86">
-        <v>0.0019499306144975755</v>
+        <v>0.0019477152161059982</v>
       </c>
       <c r="K86">
-        <v>4.8452821649630396e-5</v>
+        <v>4.8447061412822716e-5</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3430,34 +3430,34 @@
         <v>0.0355</v>
       </c>
       <c r="B87">
-        <v>7.287974490627177</v>
+        <v>7.272712606162598</v>
       </c>
       <c r="C87">
-        <v>4.6231853921987103e-7</v>
+        <v>8.542679214879081e-7</v>
       </c>
       <c r="D87">
-        <v>6.475209634069639e-5</v>
+        <v>7.033813809633212e-5</v>
       </c>
       <c r="E87">
-        <v>0.001950405105263966</v>
+        <v>0.0019482309298172779</v>
       </c>
       <c r="F87">
-        <v>4.845759754743021e-5</v>
+        <v>4.845189515165333e-5</v>
       </c>
       <c r="G87">
-        <v>7.2879670083350945</v>
+        <v>7.272706421894715</v>
       </c>
       <c r="H87">
-        <v>4.6234171108164334e-7</v>
+        <v>8.542891533900724e-7</v>
       </c>
       <c r="I87">
-        <v>6.47521423282649e-5</v>
+        <v>7.033820122344066e-5</v>
       </c>
       <c r="J87">
-        <v>0.0019504038381994969</v>
+        <v>0.0019482299331562683</v>
       </c>
       <c r="K87">
-        <v>4.845746688847451e-5</v>
+        <v>4.8451787999667756e-5</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3465,34 +3465,34 @@
         <v>0.03649999999999999</v>
       </c>
       <c r="B88">
-        <v>7.2890913620043465</v>
+        <v>7.274088741959199</v>
       </c>
       <c r="C88">
-        <v>4.5825446589767484e-7</v>
+        <v>8.46780781868316e-7</v>
       </c>
       <c r="D88">
-        <v>6.755504940542662e-5</v>
+        <v>7.305333720254027e-5</v>
       </c>
       <c r="E88">
-        <v>0.0019508773700594455</v>
+        <v>0.001948744055433691</v>
       </c>
       <c r="F88">
-        <v>4.846223952510157e-5</v>
+        <v>4.8456617730382646e-5</v>
       </c>
       <c r="G88">
-        <v>7.28908403965437</v>
+        <v>7.274082721684712</v>
       </c>
       <c r="H88">
-        <v>4.582783033231419e-7</v>
+        <v>8.468026950547068e-7</v>
       </c>
       <c r="I88">
-        <v>6.7555098026765e-5</v>
+        <v>7.305340143890253e-5</v>
       </c>
       <c r="J88">
-        <v>0.0019508761244850998</v>
+        <v>0.001948743079854485</v>
       </c>
       <c r="K88">
-        <v>4.846211134472706e-5</v>
+        <v>4.845651318256447e-5</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3500,34 +3500,34 @@
         <v>0.03749999999999999</v>
       </c>
       <c r="B89">
-        <v>7.290203235172771</v>
+        <v>7.275456666122094</v>
       </c>
       <c r="C89">
-        <v>4.5420333070412175e-7</v>
+        <v>8.393065448313178e-7</v>
       </c>
       <c r="D89">
-        <v>7.035745014231526e-5</v>
+        <v>7.576893860080364e-5</v>
       </c>
       <c r="E89">
-        <v>0.0019513487026734146</v>
+        <v>0.001949255625428712</v>
       </c>
       <c r="F89">
-        <v>4.8466880758875364e-5</v>
+        <v>4.846133896087197e-5</v>
       </c>
       <c r="G89">
-        <v>7.2901960682585</v>
+        <v>7.275450804474617</v>
       </c>
       <c r="H89">
-        <v>4.5422743591267675e-7</v>
+        <v>8.393287425939055e-7</v>
       </c>
       <c r="I89">
-        <v>7.035750094701335e-5</v>
+        <v>7.576900351027447e-5</v>
       </c>
       <c r="J89">
-        <v>0.0019513474781105776</v>
+        <v>0.0019492546703973924</v>
       </c>
       <c r="K89">
-        <v>4.8466755008826495e-5</v>
+        <v>4.846123695315653e-5</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3535,34 +3535,34 @@
         <v>0.03849999999999999</v>
       </c>
       <c r="B90">
-        <v>7.291310128517402</v>
+        <v>7.276816431947182</v>
       </c>
       <c r="C90">
-        <v>4.5015903212562254e-7</v>
+        <v>8.318391256265564e-7</v>
       </c>
       <c r="D90">
-        <v>7.315929959415089e-5</v>
+        <v>7.848493371117115e-5</v>
       </c>
       <c r="E90">
-        <v>0.0019518191095918825</v>
+        <v>0.001949765655639264</v>
       </c>
       <c r="F90">
-        <v>4.847152124312472e-5</v>
+        <v>4.846605883802339e-5</v>
       </c>
       <c r="G90">
-        <v>7.291303113089709</v>
+        <v>7.2768107241567295</v>
       </c>
       <c r="H90">
-        <v>4.5018318092128615e-7</v>
+        <v>8.318613843649357e-7</v>
       </c>
       <c r="I90">
-        <v>7.315935226005706e-5</v>
+        <v>7.848499898304105e-5</v>
       </c>
       <c r="J90">
-        <v>0.0019518179056335285</v>
+        <v>0.0019497647206955541</v>
       </c>
       <c r="K90">
-        <v>4.8471397876258244e-5</v>
+        <v>4.8465959308056465e-5</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3570,34 +3570,34 @@
         <v>0.03949999999999999</v>
       </c>
       <c r="B91">
-        <v>7.292412067912494</v>
+        <v>7.278168099911432</v>
       </c>
       <c r="C91">
-        <v>4.4611827476925686e-7</v>
+        <v>8.243752379148261e-7</v>
       </c>
       <c r="D91">
-        <v>7.596060067876431e-5</v>
+        <v>8.1201315861549e-5</v>
       </c>
       <c r="E91">
-        <v>0.0019522885982956497</v>
+        <v>0.0019502741627812987</v>
       </c>
       <c r="F91">
-        <v>4.847616097517074e-5</v>
+        <v>4.847077735968477e-5</v>
       </c>
       <c r="G91">
-        <v>7.292405200374574</v>
+        <v>7.278162541596891</v>
       </c>
       <c r="H91">
-        <v>4.461423435558251e-7</v>
+        <v>8.243974343519392e-7</v>
       </c>
       <c r="I91">
-        <v>7.596065496121776e-5</v>
+        <v>8.120138126210495e-5</v>
       </c>
       <c r="J91">
-        <v>0.0019522874145776116</v>
+        <v>0.0019502732475089734</v>
       </c>
       <c r="K91">
-        <v>4.847603994536368e-5</v>
+        <v>4.847068024671577e-5</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3605,34 +3605,34 @@
         <v>0.040499999999999994</v>
       </c>
       <c r="B92">
-        <v>7.293509083226248</v>
+        <v>7.2795117341526225</v>
       </c>
       <c r="C92">
-        <v>4.420793154870486e-7</v>
+        <v>8.169131433372726e-7</v>
       </c>
       <c r="D92">
-        <v>7.876135732242192e-5</v>
+        <v>8.391807946412153e-5</v>
       </c>
       <c r="E92">
-        <v>0.00195275717676678</v>
+        <v>0.0019507811639408942</v>
       </c>
       <c r="F92">
-        <v>4.848079995397964e-5</v>
+        <v>4.847549452538228e-5</v>
       </c>
       <c r="G92">
-        <v>7.293502360210637</v>
+        <v>7.279506321196922</v>
       </c>
       <c r="H92">
-        <v>4.421032376057919e-7</v>
+        <v>8.169352109770628e-7</v>
       </c>
       <c r="I92">
-        <v>7.876141302381224e-5</v>
+        <v>8.391814480745145e-5</v>
       </c>
       <c r="J92">
-        <v>0.0019527560129506474</v>
+        <v>0.0019507802679502452</v>
       </c>
       <c r="K92">
-        <v>4.848068121606708e-5</v>
+        <v>4.8475399770186585e-5</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3640,34 +3640,34 @@
         <v>0.041499999999999995</v>
       </c>
       <c r="B93">
-        <v>7.294601206341327</v>
+        <v>7.280847400478484</v>
       </c>
       <c r="C93">
-        <v>4.3804125116628533e-7</v>
+        <v>8.094519412623378e-7</v>
       </c>
       <c r="D93">
-        <v>8.156157396869119e-5</v>
+        <v>8.663521954669777e-5</v>
       </c>
       <c r="E93">
-        <v>0.0019532248532101682</v>
+        <v>0.00195128667628864</v>
       </c>
       <c r="F93">
-        <v>4.848543817942154e-5</v>
+        <v>4.848021033559843e-5</v>
       </c>
       <c r="G93">
-        <v>7.294594624637696</v>
+        <v>7.280842128954952</v>
       </c>
       <c r="H93">
-        <v>4.380649914390302e-7</v>
+        <v>8.09473845002848e-7</v>
       </c>
       <c r="I93">
-        <v>8.156163092062068e-5</v>
+        <v>8.663528467746265e-5</v>
       </c>
       <c r="J93">
-        <v>0.001953223708973365</v>
+        <v>0.001951285799206365</v>
       </c>
       <c r="K93">
-        <v>4.848532168915314e-5</v>
+        <v>4.848011788041829e-5</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3675,34 +3675,34 @@
         <v>0.042499999999999996</v>
       </c>
       <c r="B94">
-        <v>7.295688470060237</v>
+        <v>7.282175165267729</v>
       </c>
       <c r="C94">
-        <v>4.3400362350546983e-7</v>
+        <v>8.019911746476777e-7</v>
       </c>
       <c r="D94">
-        <v>8.436125530667001e-5</v>
+        <v>8.935273149198032e-5</v>
       </c>
       <c r="E94">
-        <v>0.001953691635900354</v>
+        <v>0.0019517907169238028</v>
       </c>
       <c r="F94">
-        <v>4.849007565185843e-5</v>
+        <v>4.8484924791369655e-5</v>
       </c>
       <c r="G94">
-        <v>7.295682026573771</v>
+        <v>7.28217003139725</v>
       </c>
       <c r="H94">
-        <v>4.3402716376129305e-7</v>
+        <v>8.020128963474477e-7</v>
       </c>
       <c r="I94">
-        <v>8.436131335971101e-5</v>
+        <v>8.935279627542129e-5</v>
       </c>
       <c r="J94">
-        <v>0.001953690510930529</v>
+        <v>0.001951789858387341</v>
       </c>
       <c r="K94">
-        <v>4.848996136586648e-5</v>
+        <v>4.848483457986659e-5</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3710,34 +3710,34 @@
         <v>0.0435</v>
       </c>
       <c r="B95">
-        <v>7.296770907514473</v>
+        <v>7.283495094878369</v>
       </c>
       <c r="C95">
-        <v>4.2996620468998597e-7</v>
+        <v>7.945306163045706e-7</v>
       </c>
       <c r="D95">
-        <v>8.716040612420017e-5</v>
+        <v>9.207061089561399e-5</v>
       </c>
       <c r="E95">
-        <v>0.0019541575330994723</v>
+        <v>0.00195229330279206</v>
       </c>
       <c r="F95">
-        <v>4.8494712371920195e-5</v>
+        <v>4.8489637894066625e-5</v>
       </c>
       <c r="G95">
-        <v>7.296764599242165</v>
+        <v>7.283490095004579</v>
       </c>
       <c r="H95">
-        <v>4.2998953573783686e-7</v>
+        <v>7.945521467773393e-7</v>
       </c>
       <c r="I95">
-        <v>8.71604651421072e-5</v>
+        <v>9.207067521181761e-5</v>
       </c>
       <c r="J95">
-        <v>0.001954156427091405</v>
+        <v>0.00195229246244652</v>
       </c>
       <c r="K95">
-        <v>4.849460024769443e-5</v>
+        <v>4.848954987128084e-5</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3745,34 +3745,34 @@
         <v>0.0445</v>
       </c>
       <c r="B96">
-        <v>7.297848551853479</v>
+        <v>7.284807255337551</v>
       </c>
       <c r="C96">
-        <v>4.2592888378918714e-7</v>
+        <v>7.87070155607161e-7</v>
       </c>
       <c r="D96">
-        <v>8.995903123055858e-5</v>
+        <v>9.478885349043932e-5</v>
       </c>
       <c r="E96">
-        <v>0.0019546225530146116</v>
+        <v>0.0019527944506439244</v>
       </c>
       <c r="F96">
-        <v>4.849934834038538e-5</v>
+        <v>4.849434964527624e-5</v>
       </c>
       <c r="G96">
-        <v>7.2978423758706485</v>
+        <v>7.2848023859123225</v>
       </c>
       <c r="H96">
-        <v>4.259520010731002e-7</v>
+        <v>7.870914902889944e-7</v>
       </c>
       <c r="I96">
-        <v>8.995909108702465e-5</v>
+        <v>9.478891723104538e-5</v>
       </c>
       <c r="J96">
-        <v>0.0019546214656685464</v>
+        <v>0.0019527936281404697</v>
       </c>
       <c r="K96">
-        <v>4.849923833625199e-5</v>
+        <v>4.849426375759033e-5</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3780,34 +3780,34 @@
         <v>0.0455</v>
       </c>
       <c r="B97">
-        <v>7.298921436085303</v>
+        <v>7.286111712183861</v>
       </c>
       <c r="C97">
-        <v>4.2189160788857735e-7</v>
+        <v>7.796097397862636e-7</v>
       </c>
       <c r="D97">
-        <v>9.2757135416841e-5</v>
+        <v>9.750745510676197e-5</v>
       </c>
       <c r="E97">
-        <v>0.0019550867037764832</v>
+        <v>0.0019532941770151096</v>
       </c>
       <c r="F97">
-        <v>4.850398355811909e-5</v>
+        <v>4.8499060046739077e-5</v>
       </c>
       <c r="G97">
-        <v>7.2989153895378145</v>
+        <v>7.286106969758551</v>
       </c>
       <c r="H97">
-        <v>4.2191450919145295e-7</v>
+        <v>7.79630876445733e-7</v>
       </c>
       <c r="I97">
-        <v>9.275719599367196e-5</v>
+        <v>9.750751817303914e-5</v>
       </c>
       <c r="J97">
-        <v>0.001955085634797254</v>
+        <v>0.0019532933720101523</v>
       </c>
       <c r="K97">
-        <v>4.8503875633222146e-5</v>
+        <v>4.8498976241844493e-5</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3815,34 +3815,34 @@
         <v>0.0465</v>
       </c>
       <c r="B98">
-        <v>7.299989592997532</v>
+        <v>7.287408530390349</v>
       </c>
       <c r="C98">
-        <v>4.178543522610234e-7</v>
+        <v>7.721493441827683e-7</v>
       </c>
       <c r="D98">
-        <v>9.555472343630961e-5</v>
+        <v>0.00010022641165175524</v>
       </c>
       <c r="E98">
-        <v>0.0019555499934293353</v>
+        <v>0.00195379249821845</v>
       </c>
       <c r="F98">
-        <v>4.850861802604117e-5</v>
+        <v>4.850376910031634e-5</v>
       </c>
       <c r="G98">
-        <v>7.2999836730971035</v>
+        <v>7.287403911610149</v>
       </c>
       <c r="H98">
-        <v>4.1787703652015836e-7</v>
+        <v>7.721702817395815e-7</v>
       </c>
       <c r="I98">
-        <v>9.555478462237013e-5</v>
+        <v>0.00010022647395342711</v>
       </c>
       <c r="J98">
-        <v>0.0019555489425259177</v>
+        <v>0.0019537917103732744</v>
       </c>
       <c r="K98">
-        <v>4.850851214032538e-5</v>
+        <v>4.850368732718151e-5</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3850,34 +3850,34 @@
         <v>0.0475</v>
       </c>
       <c r="B99">
-        <v>7.301053055119733</v>
+        <v>7.2886977743291865</v>
       </c>
       <c r="C99">
-        <v>4.1381710558663333e-7</v>
+        <v>7.646889575078169e-7</v>
       </c>
       <c r="D99">
-        <v>9.835179999506468e-5</v>
+        <v>0.00010294571909879156</v>
       </c>
       <c r="E99">
-        <v>0.001956012429926663</v>
+        <v>0.001954289430341744</v>
       </c>
       <c r="F99">
-        <v>4.851325174511002e-5</v>
+        <v>4.8508476807971995e-5</v>
       </c>
       <c r="G99">
-        <v>7.301047259140894</v>
+        <v>7.288693275929161</v>
       </c>
       <c r="H99">
-        <v>4.1383957229616723e-7</v>
+        <v>7.647096954370608e-7</v>
       </c>
       <c r="I99">
-        <v>9.83518616856354e-5</v>
+        <v>0.0001029457805532669</v>
       </c>
       <c r="J99">
-        <v>0.001956011396811949</v>
+        <v>0.0019542886593223474</v>
       </c>
       <c r="K99">
-        <v>4.851314785930454e-5</v>
+        <v>4.85083970168118e-5</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3885,34 +3885,34 @@
         <v>0.0485</v>
       </c>
       <c r="B100">
-        <v>7.302111854706836</v>
+        <v>7.289979507757384</v>
       </c>
       <c r="C100">
-        <v>4.097798627880065e-7</v>
+        <v>7.572285746980027e-7</v>
       </c>
       <c r="D100">
-        <v>0.000101148369747928</v>
+        <v>0.0001056653734818105</v>
       </c>
       <c r="E100">
-        <v>0.001956474021129821</v>
+        <v>0.001954784989248546</v>
       </c>
       <c r="F100">
-        <v>4.851788471631455e-5</v>
+        <v>4.85131831717628e-5</v>
       </c>
       <c r="G100">
-        <v>7.302106179984745</v>
+        <v>7.289975126559398</v>
       </c>
       <c r="H100">
-        <v>4.09802111705211e-7</v>
+        <v>7.572491127371287e-7</v>
       </c>
       <c r="I100">
-        <v>0.00010114843184427859</v>
+        <v>0.00010566543401363086</v>
       </c>
       <c r="J100">
-        <v>0.0019564730055205044</v>
+        <v>0.001954784234725595</v>
       </c>
       <c r="K100">
-        <v>4.851778279191727e-5</v>
+        <v>4.851310531400888e-5</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3920,34 +3920,34 @@
         <v>0.0495</v>
       </c>
       <c r="B101">
-        <v>7.30316602373282</v>
+        <v>7.2912537938129</v>
       </c>
       <c r="C101">
-        <v>4.057426216341724e-7</v>
+        <v>7.497681935284183e-7</v>
       </c>
       <c r="D101">
-        <v>0.00010394443729689559</v>
+        <v>0.0001083853708921885</v>
       </c>
       <c r="E101">
-        <v>0.001956934774808067</v>
+        <v>0.0019552791905803925</v>
       </c>
       <c r="F101">
-        <v>4.8522516940669857e-5</v>
+        <v>4.8517888193832145e-5</v>
       </c>
       <c r="G101">
-        <v>7.303160467661542</v>
+        <v>7.29124952672301</v>
       </c>
       <c r="H101">
-        <v>4.0576465263765534e-7</v>
+        <v>7.497885315359472e-7</v>
       </c>
       <c r="I101">
-        <v>0.00010394449970596998</v>
+        <v>0.00010838543043259141</v>
       </c>
       <c r="J101">
-        <v>0.0019569337764245858</v>
+        <v>0.001955278452229223</v>
       </c>
       <c r="K101">
-        <v>4.8522416939932274e-5</v>
+        <v>4.8517812222104024e-5</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -3955,34 +3955,34 @@
         <v>0.0505</v>
       </c>
       <c r="B102">
-        <v>7.3042155938893885</v>
+        <v>7.292520695015746</v>
       </c>
       <c r="C102">
-        <v>4.0170538116444117e-7</v>
+        <v>7.423078130411012e-7</v>
       </c>
       <c r="D102">
-        <v>0.00010674000719082377</v>
+        <v>0.00011110570747682425</v>
       </c>
       <c r="E102">
-        <v>0.0019573946986392683</v>
+        <v>0.001955772049759677</v>
       </c>
       <c r="F102">
-        <v>4.852714841921508e-5</v>
+        <v>4.852259187640583e-5</v>
       </c>
       <c r="G102">
-        <v>7.3042101539204</v>
+        <v>7.292516539021859</v>
       </c>
       <c r="H102">
-        <v>4.017271941878155e-7</v>
+        <v>7.423279509303196e-7</v>
       </c>
       <c r="I102">
-        <v>0.00010674006982498421</v>
+        <v>0.00011110576596337162</v>
       </c>
       <c r="J102">
-        <v>0.0019573937172057752</v>
+        <v>0.0019557713272603163</v>
       </c>
       <c r="K102">
-        <v>4.85270503051274e-5</v>
+        <v>4.8522517744482765e-5</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -3990,34 +3990,34 @@
         <v>0.0515</v>
       </c>
       <c r="B103">
-        <v>7.305260596586962</v>
+        <v>7.293780273271464</v>
       </c>
       <c r="C103">
-        <v>3.976681409737778e-7</v>
+        <v>7.348474328320853e-7</v>
       </c>
       <c r="D103">
-        <v>0.00010953508392569185</v>
+        <v>0.00011382637943680727</v>
       </c>
       <c r="E103">
-        <v>0.0019578538002109225</v>
+        <v>0.00195626358199281</v>
       </c>
       <c r="F103">
-        <v>4.853177915301194e-5</v>
+        <v>4.852729422178879e-5</v>
       </c>
       <c r="G103">
-        <v>7.305255270227779</v>
+        <v>7.293776225441146</v>
       </c>
       <c r="H103">
-        <v>3.976897359747568e-7</v>
+        <v>7.348673705403577e-7</v>
       </c>
       <c r="I103">
-        <v>0.00010953514670249481</v>
+        <v>0.00011382643681305155</v>
       </c>
       <c r="J103">
-        <v>0.0019578528354552652</v>
+        <v>0.0019562628750300053</v>
       </c>
       <c r="K103">
-        <v>4.8531682889288635e-5</v>
+        <v>4.852722188458218e-5</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4025,34 +4025,34 @@
         <v>0.05249999999999999</v>
       </c>
       <c r="B104">
-        <v>7.306301062956701</v>
+        <v>7.2950325898757065</v>
       </c>
       <c r="C104">
-        <v>3.936309008946175e-7</v>
+        <v>7.273870527342221e-7</v>
       </c>
       <c r="D104">
-        <v>0.00011232967194512382</v>
+        <v>0.00011654738302636228</v>
       </c>
       <c r="E104">
-        <v>0.0019583120870213097</v>
+        <v>0.0019567538022734784</v>
       </c>
       <c r="F104">
-        <v>4.8536409143143895e-5</v>
+        <v>4.853199523236224e-5</v>
       </c>
       <c r="G104">
-        <v>7.306295847769595</v>
+        <v>7.295028647354082</v>
       </c>
       <c r="H104">
-        <v>3.936522778415015e-7</v>
+        <v>7.274067902095153e-7</v>
       </c>
       <c r="I104">
-        <v>0.00011232973478711465</v>
+        <v>0.00011654743924153824</v>
       </c>
       <c r="J104">
-        <v>0.0019583111386750124</v>
+        <v>0.001956753110536722</v>
       </c>
       <c r="K104">
-        <v>4.85363146942094e-5</v>
+        <v>4.8531924645888725e-5</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4060,34 +4060,34 @@
         <v>0.05349999999999999</v>
       </c>
       <c r="B105">
-        <v>7.307337023853029</v>
+        <v>7.296277705519302</v>
       </c>
       <c r="C105">
-        <v>3.8959366085909276e-7</v>
+        <v>7.199266726799186e-7</v>
       </c>
       <c r="D105">
-        <v>0.00011512377564102153</v>
+        <v>0.00011926871455192689</v>
       </c>
       <c r="E105">
-        <v>0.001958769566480682</v>
+        <v>0.001957242725385918</v>
       </c>
       <c r="F105">
-        <v>4.854103839071532e-5</v>
+        <v>4.853669491058112e-5</v>
       </c>
       <c r="G105">
-        <v>7.3073319174537845</v>
+        <v>7.296273865527027</v>
       </c>
       <c r="H105">
-        <v>3.896148197246703e-7</v>
+        <v>7.199462098745871e-7</v>
       </c>
       <c r="I105">
-        <v>0.00011512383847554117</v>
+        <v>0.00011926876956066108</v>
       </c>
       <c r="J105">
-        <v>0.001958768634278934</v>
+        <v>0.001957242048569471</v>
       </c>
       <c r="K105">
-        <v>4.8540945721690195e-5</v>
+        <v>4.8536626031936235e-5</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4095,34 +4095,34 @@
         <v>0.05449999999999999</v>
       </c>
       <c r="B106">
-        <v>7.308368509856317</v>
+        <v>7.29751568029354</v>
       </c>
       <c r="C106">
-        <v>3.855564208404242e-7</v>
+        <v>7.12466292642403e-7</v>
       </c>
       <c r="D106">
-        <v>0.00011791739935424048</v>
+        <v>0.00012199037037129376</v>
       </c>
       <c r="E106">
-        <v>0.001959226245912479</v>
+        <v>0.001957730365908172</v>
       </c>
       <c r="F106">
-        <v>4.8545666896850965e-5</v>
+        <v>4.854139325897161e-5</v>
       </c>
       <c r="G106">
-        <v>7.308363509913019</v>
+        <v>7.297511940124841</v>
       </c>
       <c r="H106">
-        <v>3.855773615991912e-7</v>
+        <v>7.124856295105699e-7</v>
       </c>
       <c r="I106">
-        <v>0.00011791746211324135</v>
+        <v>0.00012199042413332968</v>
       </c>
       <c r="J106">
-        <v>0.001959225329594116</v>
+        <v>0.001957729703711081</v>
       </c>
       <c r="K106">
-        <v>4.854557597353816e-5</v>
+        <v>4.854132604630405e-5</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4130,34 +4130,34 @@
         <v>0.055499999999999994</v>
       </c>
       <c r="B107">
-        <v>7.30939555127563</v>
+        <v>7.298746573695562</v>
       </c>
       <c r="C107">
-        <v>3.8151918082806834e-7</v>
+        <v>7.050059126112048e-7</v>
       </c>
       <c r="D107">
-        <v>0.00012071054737527777</v>
+        <v>0.0001247123468927898</v>
       </c>
       <c r="E107">
-        <v>0.0019596821325545194</v>
+        <v>0.0019582167382153023</v>
       </c>
       <c r="F107">
-        <v>4.855029466269532e-5</v>
+        <v>4.854609028012878e-5</v>
       </c>
       <c r="G107">
-        <v>7.309390655507497</v>
+        <v>7.29874293071631</v>
       </c>
       <c r="H107">
-        <v>3.8153990345534636e-7</v>
+        <v>7.050250491077725e-7</v>
       </c>
       <c r="I107">
-        <v>0.00012071060999514707</v>
+        <v>0.0001247123993727256</v>
       </c>
       <c r="J107">
-        <v>0.0019596812318620096</v>
+        <v>0.001958216090341408</v>
       </c>
       <c r="K107">
-        <v>4.855020545156679e-5</v>
+        <v>4.854602469261522e-5</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -4165,34 +4165,34 @@
         <v>0.056499999999999995</v>
       </c>
       <c r="B108">
-        <v>7.31041817815149</v>
+        <v>7.299970444633761</v>
       </c>
       <c r="C108">
-        <v>3.7748194081803823e-7</v>
+        <v>6.975455325822818e-7</v>
       </c>
       <c r="D108">
-        <v>0.00012350322394495965</v>
+        <v>0.0001274346405744769</v>
       </c>
       <c r="E108">
-        <v>0.0019601372335601957</v>
+        <v>0.001958701856482561</v>
       </c>
       <c r="F108">
-        <v>4.8554921689412024e-5</v>
+        <v>4.8550785976714364e-5</v>
       </c>
       <c r="G108">
-        <v>7.310413384327729</v>
+        <v>7.299966896279621</v>
       </c>
       <c r="H108">
-        <v>3.7750244528944515e-7</v>
+        <v>6.975644686625146e-7</v>
       </c>
       <c r="I108">
-        <v>0.00012350328636634891</v>
+        <v>0.0001274346917415158</v>
       </c>
       <c r="J108">
-        <v>0.00196013634823962</v>
+        <v>0.0019587012226405065</v>
       </c>
       <c r="K108">
-        <v>4.8554834157595634e-5</v>
+        <v>4.855072197453473e-5</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -4200,34 +4200,34 @@
         <v>0.057499999999999996</v>
       </c>
       <c r="B109">
-        <v>7.31143642025863</v>
+        <v>7.301187351433235</v>
       </c>
       <c r="C109">
-        <v>3.7344470080880555e-7</v>
+        <v>6.900851525541981e-7</v>
       </c>
       <c r="D109">
-        <v>0.0001262954332551213</v>
+        <v>0.00013015724792336976</v>
       </c>
       <c r="E109">
-        <v>0.001960591555999638</v>
+        <v>0.0019591857346885127</v>
       </c>
       <c r="F109">
-        <v>4.8559547978183426e-5</v>
+        <v>4.85554803514544e-5</v>
       </c>
       <c r="G109">
-        <v>7.311431726197317</v>
+        <v>7.301183895207831</v>
       </c>
       <c r="H109">
-        <v>3.734649871001142e-7</v>
+        <v>6.901038881734265e-7</v>
       </c>
       <c r="I109">
-        <v>0.0001262954954227828</v>
+        <v>0.00013015729775108152</v>
       </c>
       <c r="J109">
-        <v>0.0019605906858006714</v>
+        <v>0.0019591851145917376</v>
       </c>
       <c r="K109">
-        <v>4.855946209344998e-5</v>
+        <v>4.85554178957679e-5</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -4235,34 +4235,34 @@
         <v>0.058499999999999996</v>
       </c>
       <c r="B110">
-        <v>7.312450307108719</v>
+        <v>7.302397351841204</v>
       </c>
       <c r="C110">
-        <v>3.6940746079990506e-7</v>
+        <v>6.826247725264237e-7</v>
       </c>
       <c r="D110">
-        <v>0.00012908717944927893</v>
+        <v>0.00013288016549466793</v>
       </c>
       <c r="E110">
-        <v>0.001961045106860872</v>
+        <v>0.001959668386618106</v>
       </c>
       <c r="F110">
-        <v>4.856417353020993e-5</v>
+        <v>4.856017340713718e-5</v>
       </c>
       <c r="G110">
-        <v>7.312445710675707</v>
+        <v>7.3023939853143585</v>
       </c>
       <c r="H110">
-        <v>3.694275288868528e-7</v>
+        <v>6.82643307640009e-7</v>
       </c>
       <c r="I110">
-        <v>0.00012908724131190753</v>
+        <v>0.00013288021396076115</v>
       </c>
       <c r="J110">
-        <v>0.0019610442515367614</v>
+        <v>0.0019596677799848462</v>
       </c>
       <c r="K110">
-        <v>4.85640892609606e-5</v>
+        <v>4.8560112460058704e-5</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -4270,34 +4270,34 @@
         <v>0.0595</v>
       </c>
       <c r="B111">
-        <v>7.313459867953069</v>
+        <v>7.303600503032443</v>
       </c>
       <c r="C111">
-        <v>3.653702207911154e-7</v>
+        <v>6.751643924987818e-7</v>
       </c>
       <c r="D111">
-        <v>0.0001318784666232914</v>
+        <v>0.0001356033898910006</v>
       </c>
       <c r="E111">
-        <v>0.0019614978930509513</v>
+        <v>0.0019601498258657022</v>
       </c>
       <c r="F111">
-        <v>4.856879834670957e-5</v>
+        <v>4.856486514661107e-5</v>
       </c>
       <c r="G111">
-        <v>7.313455367060913</v>
+        <v>7.303597223838434</v>
       </c>
       <c r="H111">
-        <v>3.65390070649482e-7</v>
+        <v>6.751827270620835e-7</v>
       </c>
       <c r="I111">
-        <v>0.00013187852813337217</v>
+        <v>0.00013560343697710555</v>
       </c>
       <c r="J111">
-        <v>0.0019614970523584956</v>
+        <v>0.001960149232418974</v>
       </c>
       <c r="K111">
-        <v>4.856871566196348e-5</v>
+        <v>4.856480567118818e-5</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -4305,34 +4305,34 @@
         <v>0.0605</v>
       </c>
       <c r="B112">
-        <v>7.314465131785295</v>
+        <v>7.304796861614683</v>
       </c>
       <c r="C112">
-        <v>3.6133298078236995e-7</v>
+        <v>6.6770401247114e-7</v>
       </c>
       <c r="D112">
-        <v>0.00013466929882601257</v>
+        <v>0.00013832691776168374</v>
       </c>
       <c r="E112">
-        <v>0.0019619499213970786</v>
+        <v>0.0019606300658380465</v>
       </c>
       <c r="F112">
-        <v>4.857342242891746e-5</v>
+        <v>4.856955557278242e-5</v>
       </c>
       <c r="G112">
-        <v>7.314460724392217</v>
+        <v>7.304793667450575</v>
       </c>
       <c r="H112">
-        <v>3.613526123879393e-7</v>
+        <v>6.677221464395877e-7</v>
       </c>
       <c r="I112">
-        <v>0.0001346693599396737</v>
+        <v>0.00013832696345314507</v>
       </c>
       <c r="J112">
-        <v>0.0019619490950966013</v>
+        <v>0.001960629485305635</v>
       </c>
       <c r="K112">
-        <v>4.8573341298299556e-5</v>
+        <v>4.856949753297286e-5</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -4340,34 +4340,34 @@
         <v>0.0615</v>
       </c>
       <c r="B113">
-        <v>7.315466127343974</v>
+        <v>7.305986483634037</v>
       </c>
       <c r="C113">
-        <v>3.572957407736246e-7</v>
+        <v>6.602436324435424e-7</v>
       </c>
       <c r="D113">
-        <v>0.00013745968005993283</v>
+        <v>0.00014105074580199014</v>
       </c>
       <c r="E113">
-        <v>0.0019624011986477</v>
+        <v>0.0019611091197572015</v>
       </c>
       <c r="F113">
-        <v>4.857804577808534e-5</v>
+        <v>4.857424468861359e-5</v>
       </c>
       <c r="G113">
-        <v>7.315461811452839</v>
+        <v>7.305983372258019</v>
       </c>
       <c r="H113">
-        <v>3.57315154102203e-7</v>
+        <v>6.602615657725002e-7</v>
       </c>
       <c r="I113">
-        <v>0.00013745974073680416</v>
+        <v>0.00014105079008766862</v>
       </c>
       <c r="J113">
-        <v>0.0019624003865030292</v>
+        <v>0.0019611085518716387</v>
       </c>
       <c r="K113">
-        <v>4.8577966171814435e-5</v>
+        <v>4.857418804926329e-5</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -4375,34 +4375,34 @@
         <v>0.0625</v>
       </c>
       <c r="B114">
-        <v>7.316462883115258</v>
+        <v>7.307169424580361</v>
       </c>
       <c r="C114">
-        <v>3.5325850076485703e-7</v>
+        <v>6.527832524159005e-7</v>
       </c>
       <c r="D114">
-        <v>0.00014024961428181216</v>
+        <v>0.0001437748707524302</v>
       </c>
       <c r="E114">
-        <v>0.0019628517314735977</v>
+        <v>0.0019615870006634267</v>
       </c>
       <c r="F114">
-        <v>4.8582668395481036e-5</v>
+        <v>4.8578932497120964e-5</v>
       </c>
       <c r="G114">
-        <v>7.316458656772576</v>
+        <v>7.307166393810159</v>
       </c>
       <c r="H114">
-        <v>3.53277695792266e-7</v>
+        <v>6.528009850608135e-7</v>
       </c>
       <c r="I114">
-        <v>0.00014024967448488792</v>
+        <v>0.00014377491362451417</v>
       </c>
       <c r="J114">
-        <v>0.0019628509332520368</v>
+        <v>0.0019615864451619698</v>
       </c>
       <c r="K114">
-        <v>4.858259028435816e-5</v>
+        <v>4.857887722394253e-5</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -4410,34 +4410,34 @@
         <v>0.0635</v>
       </c>
       <c r="B115">
-        <v>7.317455427335463</v>
+        <v>7.308345739392647</v>
       </c>
       <c r="C115">
-        <v>3.492212607561338e-7</v>
+        <v>6.45322872388325e-7</v>
       </c>
       <c r="D115">
-        <v>0.00014303910540330219</v>
+        <v>0.00014649928939804537</v>
       </c>
       <c r="E115">
-        <v>0.0019633015264689463</v>
+        <v>0.0019620637214180147</v>
       </c>
       <c r="F115">
-        <v>4.8587290282388026e-5</v>
+        <v>4.8583619001373026e-5</v>
       </c>
       <c r="G115">
-        <v>7.3174512886304175</v>
+        <v>7.308342787103949</v>
       </c>
       <c r="H115">
-        <v>3.49240237458126e-7</v>
+        <v>6.453404043045255e-7</v>
       </c>
       <c r="I115">
-        <v>0.0001430391650988096</v>
+        <v>0.0001464993308518703</v>
       </c>
       <c r="J115">
-        <v>0.0019633007419412487</v>
+        <v>0.0019620631780426184</v>
       </c>
       <c r="K115">
-        <v>4.8587213637784974e-5</v>
+        <v>4.858356506092473e-5</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -4445,34 +4445,34 @@
         <v>0.0645</v>
       </c>
       <c r="B116">
-        <v>7.318443787993636</v>
+        <v>7.309515482464358</v>
       </c>
       <c r="C116">
-        <v>3.4518402074741054e-7</v>
+        <v>6.378624923607051e-7</v>
       </c>
       <c r="D116">
-        <v>0.00014582815729155915</v>
+        <v>0.00014922399856771254</v>
       </c>
       <c r="E116">
-        <v>0.0019637505901523703</v>
+        <v>0.0019625392947060834</v>
       </c>
       <c r="F116">
-        <v>4.859191144010496e-5</v>
+        <v>4.858830420448842e-5</v>
       </c>
       <c r="G116">
-        <v>7.3184397350571295</v>
+        <v>7.3095126065893</v>
       </c>
       <c r="H116">
-        <v>3.452027790997821e-7</v>
+        <v>6.378798235036355e-7</v>
       </c>
       <c r="I116">
-        <v>0.00014582821644883138</v>
+        <v>0.00014922403860158937</v>
       </c>
       <c r="J116">
-        <v>0.001963749819092711</v>
+        <v>0.0019625387632033666</v>
       </c>
       <c r="K116">
-        <v>4.859183623395302e-5</v>
+        <v>4.858825156415377e-5</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -4480,34 +4480,34 @@
         <v>0.0655</v>
       </c>
       <c r="B117">
-        <v>7.319427992834084</v>
+        <v>7.31067870764877</v>
       </c>
       <c r="C117">
-        <v>3.41146780738643e-7</v>
+        <v>6.304021123330854e-7</v>
       </c>
       <c r="D117">
-        <v>0.00014861677376984858</v>
+        <v>0.00015194899513346015</v>
       </c>
       <c r="E117">
-        <v>0.001964198928967975</v>
+        <v>0.0019630137330393163</v>
       </c>
       <c r="F117">
-        <v>4.85965318699452e-5</v>
+        <v>4.8592988109634254e-5</v>
       </c>
       <c r="G117">
-        <v>7.319424023837809</v>
+        <v>7.31067590617445</v>
       </c>
       <c r="H117">
-        <v>3.4116532071723414e-7</v>
+        <v>6.304192426581431e-7</v>
       </c>
       <c r="I117">
-        <v>0.00014861683236120154</v>
+        <v>0.00015194903374851106</v>
       </c>
       <c r="J117">
-        <v>0.0019641981711539225</v>
+        <v>0.0019630132131605326</v>
       </c>
       <c r="K117">
-        <v>4.859645807472416e-5</v>
+        <v>4.859293673760181e-5</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -4515,34 +4515,34 @@
         <v>0.0665</v>
       </c>
       <c r="B118">
-        <v>7.320408069358896</v>
+        <v>7.311835468264283</v>
       </c>
       <c r="C118">
-        <v>3.3710954072989756e-7</v>
+        <v>6.229417323054657e-7</v>
       </c>
       <c r="D118">
-        <v>0.00015140495861813862</v>
+        <v>0.00015467427600979511</v>
       </c>
       <c r="E118">
-        <v>0.0019646465492863642</v>
+        <v>0.0019634870487586675</v>
       </c>
       <c r="F118">
-        <v>4.8601151573236416e-5</v>
+        <v>4.859767072002417e-5</v>
       </c>
       <c r="G118">
-        <v>7.3204041825144195</v>
+        <v>7.311832739231305</v>
       </c>
       <c r="H118">
-        <v>3.3712786231048197e-7</v>
+        <v>6.22958661768048e-7</v>
       </c>
       <c r="I118">
-        <v>0.00015140501661875356</v>
+        <v>0.00015467431320979752</v>
       </c>
       <c r="J118">
-        <v>0.001964645804498851</v>
+        <v>0.0019634865402596664</v>
       </c>
       <c r="K118">
-        <v>4.860107916196377e-5</v>
+        <v>4.859762058526806e-5</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -4550,34 +4550,34 @@
         <v>0.0675</v>
       </c>
       <c r="B119">
-        <v>7.321384044830407</v>
+        <v>7.312985817099695</v>
       </c>
       <c r="C119">
-        <v>3.3307230072113e-7</v>
+        <v>6.154813522778458e-7</v>
       </c>
       <c r="D119">
-        <v>0.00015419271557368645</v>
+        <v>0.0001573998381530413</v>
       </c>
       <c r="E119">
-        <v>0.001965093457405643</v>
+        <v>0.001963959254037015</v>
       </c>
       <c r="F119">
-        <v>4.8605770551320084e-5</v>
+        <v>4.86023520389167e-5</v>
       </c>
       <c r="G119">
-        <v>7.321380238388288</v>
+        <v>7.3129831586007725</v>
       </c>
       <c r="H119">
-        <v>3.3309040387952567e-7</v>
+        <v>6.154980808333505e-7</v>
       </c>
       <c r="I119">
-        <v>0.0001541927729614954</v>
+        <v>0.00015739987394427861</v>
       </c>
       <c r="J119">
-        <v>0.001965092725428934</v>
+        <v>0.001963958756678203</v>
       </c>
       <c r="K119">
-        <v>4.860569949754043e-5</v>
+        <v>4.860230311117742e-5</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -4585,34 +4585,34 @@
         <v>0.06849999999999999</v>
       </c>
       <c r="B120">
-        <v>7.322355946273666</v>
+        <v>7.314129806419476</v>
       </c>
       <c r="C120">
-        <v>3.2903506071242894e-7</v>
+        <v>6.080209722502483e-7</v>
       </c>
       <c r="D120">
-        <v>0.00015698004833161438</v>
+        <v>0.00016012567856068822</v>
       </c>
       <c r="E120">
-        <v>0.0019655396595524037</v>
+        <v>0.0019644303608817764</v>
       </c>
       <c r="F120">
-        <v>4.861038880555109e-5</v>
+        <v>4.860703206961351e-5</v>
       </c>
       <c r="G120">
-        <v>7.322352218522582</v>
+        <v>7.314127216598049</v>
       </c>
       <c r="H120">
-        <v>3.2905294542436514e-7</v>
+        <v>6.080374998540506e-7</v>
       </c>
       <c r="I120">
-        <v>0.0001569801050871906</v>
+        <v>0.00016012571295180792</v>
       </c>
       <c r="J120">
-        <v>0.0019655389401740664</v>
+        <v>0.001964429874428077</v>
       </c>
       <c r="K120">
-        <v>4.8610319083325744e-5</v>
+        <v>4.860698431937927e-5</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -4620,34 +4620,34 @@
         <v>0.06949999999999999</v>
       </c>
       <c r="B121">
-        <v>7.323323800478851</v>
+        <v>7.315267487968999</v>
       </c>
       <c r="C121">
-        <v>3.249978207036614e-7</v>
+        <v>6.005605922226284e-7</v>
       </c>
       <c r="D121">
-        <v>0.00015976696054547794</v>
+        <v>0.0001628517942707513</v>
       </c>
       <c r="E121">
-        <v>0.001965985161882697</v>
+        <v>0.0019649003811374787</v>
       </c>
       <c r="F121">
-        <v>4.8615006337297326e-5</v>
+        <v>4.8611710815457776e-5</v>
       </c>
       <c r="G121">
-        <v>7.3233201497447595</v>
+        <v>7.315264965017898</v>
       </c>
       <c r="H121">
-        <v>3.250154869450004e-7</v>
+        <v>6.005769188301484e-7</v>
       </c>
       <c r="I121">
-        <v>0.00015976701665192954</v>
+        <v>0.00016285182727262921</v>
       </c>
       <c r="J121">
-        <v>0.0019659844548935708</v>
+        <v>0.0019648999053582853</v>
       </c>
       <c r="K121">
-        <v>4.861493792119419e-5</v>
+        <v>4.861166421394622e-5</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -4655,34 +4655,34 @@
         <v>0.0705</v>
       </c>
       <c r="B122">
-        <v>7.324287634003698</v>
+        <v>7.316398912979749</v>
       </c>
       <c r="C122">
-        <v>3.2096058069492703e-7</v>
+        <v>5.931002121950197e-7</v>
       </c>
       <c r="D122">
-        <v>0.00016255345582782477</v>
+        <v>0.00016557818236114137</v>
       </c>
       <c r="E122">
-        <v>0.0019664299704829882</v>
+        <v>0.001965369326488286</v>
       </c>
       <c r="F122">
-        <v>4.861962314793928e-5</v>
+        <v>4.8616388279832565e-5</v>
       </c>
       <c r="G122">
-        <v>7.324284058648988</v>
+        <v>7.316396455139888</v>
       </c>
       <c r="H122">
-        <v>3.209780284414315e-7</v>
+        <v>5.931163377616437e-7</v>
       </c>
       <c r="I122">
-        <v>0.00016255351127069303</v>
+        <v>0.0001655782139867532</v>
       </c>
       <c r="J122">
-        <v>0.0019664292756771526</v>
+        <v>0.0019653688611574204</v>
       </c>
       <c r="K122">
-        <v>4.861955601302278e-5</v>
+        <v>4.861634279897295e-5</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -4690,34 +4690,34 @@
         <v>0.0715</v>
       </c>
       <c r="B123">
-        <v>7.32524747317585</v>
+        <v>7.317524132174503</v>
       </c>
       <c r="C123">
-        <v>3.169233406861927e-7</v>
+        <v>5.856398321674221e-7</v>
       </c>
       <c r="D123">
-        <v>0.00016533953775074522</v>
+        <v>0.00016830483994904617</v>
       </c>
       <c r="E123">
-        <v>0.001966874091371101</v>
+        <v>0.0019658372084604913</v>
       </c>
       <c r="F123">
-        <v>4.862423923886959e-5</v>
+        <v>4.862106446615924e-5</v>
       </c>
       <c r="G123">
-        <v>7.325243971598543</v>
+        <v>7.31752173773361</v>
       </c>
       <c r="H123">
-        <v>3.1694056991365837e-7</v>
+        <v>5.856557566485366e-7</v>
       </c>
       <c r="I123">
-        <v>0.00016533959251790597</v>
+        <v>0.0001683048702133441</v>
       </c>
       <c r="J123">
-        <v>0.00196687340854584</v>
+        <v>0.0019658367533561534</v>
       </c>
       <c r="K123">
-        <v>4.862417336069098e-5</v>
+        <v>4.8621020078575014e-5</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -4725,34 +4725,34 @@
         <v>0.0725</v>
       </c>
       <c r="B124">
-        <v>7.326203344095218</v>
+        <v>7.318643195772478</v>
       </c>
       <c r="C124">
-        <v>3.128861006774584e-7</v>
+        <v>5.781794521398134e-7</v>
       </c>
       <c r="D124">
-        <v>0.00016812520984641486</v>
+        <v>0.00017103176419032035</v>
       </c>
       <c r="E124">
-        <v>0.0019673175304971424</v>
+        <v>0.0019663040384249584</v>
       </c>
       <c r="F124">
-        <v>4.86288546114927e-5</v>
+        <v>4.8625739377895914e-5</v>
       </c>
       <c r="G124">
-        <v>7.326199914728174</v>
+        <v>7.318640863063856</v>
       </c>
       <c r="H124">
-        <v>3.12903111361681e-7</v>
+        <v>5.781951754908269e-7</v>
       </c>
       <c r="I124">
-        <v>0.00016812526392798372</v>
+        <v>0.00017103179311011644</v>
       </c>
       <c r="J124">
-        <v>0.0019673168594529144</v>
+        <v>0.0019663035933296788</v>
       </c>
       <c r="K124">
-        <v>4.8628789966080413e-5</v>
+        <v>4.8625696056887756e-5</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -4760,34 +4760,34 @@
         <v>0.0735</v>
       </c>
       <c r="B125">
-        <v>7.327155272636309</v>
+        <v>7.319756153494456</v>
       </c>
       <c r="C125">
-        <v>3.088488606686798e-7</v>
+        <v>5.707190721121716e-7</v>
       </c>
       <c r="D125">
-        <v>0.00017091047560762878</v>
+        <v>0.00017375895227888721</v>
       </c>
       <c r="E125">
-        <v>0.0019677602937444153</v>
+        <v>0.0019667698275995325</v>
       </c>
       <c r="F125">
-        <v>4.8633469267224485e-5</v>
+        <v>4.863041301853602e-5</v>
       </c>
       <c r="G125">
-        <v>7.327151913946452</v>
+        <v>7.319753880895772</v>
       </c>
       <c r="H125">
-        <v>3.0886565278549954e-7</v>
+        <v>5.707345942885147e-7</v>
       </c>
       <c r="I125">
-        <v>0.0001709105289958695</v>
+        <v>0.00017375897987274172</v>
       </c>
       <c r="J125">
-        <v>0.00196775963428482</v>
+        <v>0.001966769392300119</v>
       </c>
       <c r="K125">
-        <v>4.863340583107473e-5</v>
+        <v>4.863037073806516e-5</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -4795,34 +4795,34 @@
         <v>0.0745</v>
       </c>
       <c r="B126">
-        <v>7.32810328445053</v>
+        <v>7.320863054567865</v>
       </c>
       <c r="C126">
-        <v>3.048116206599676e-7</v>
+        <v>5.632586920845849e-7</v>
       </c>
       <c r="D126">
-        <v>0.00017369533848832734</v>
+        <v>0.00017648640144614906</v>
       </c>
       <c r="E126">
-        <v>0.0019682023869303186</v>
+        <v>0.0019672345870514044</v>
       </c>
       <c r="F126">
-        <v>4.863808320749181e-5</v>
+        <v>4.8635085391606754e-5</v>
       </c>
       <c r="G126">
-        <v>7.328099994938083</v>
+        <v>7.320860840499979</v>
       </c>
       <c r="H126">
-        <v>3.0482819418511383e-7</v>
+        <v>5.632740130416002e-7</v>
       </c>
       <c r="I126">
-        <v>0.00017369539117756356</v>
+        <v>0.0001764864277342642</v>
       </c>
       <c r="J126">
-        <v>0.001968201738862061</v>
+        <v>0.0019672341613388945</v>
       </c>
       <c r="K126">
-        <v>4.86380209575594e-5</v>
+        <v>4.863504412627883e-5</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -4830,34 +4830,34 @@
         <v>0.0755</v>
       </c>
       <c r="B127">
-        <v>7.329047404968451</v>
+        <v>7.3219639477318355</v>
       </c>
       <c r="C127">
-        <v>3.0077438065124437e-7</v>
+        <v>5.557983120569983e-7</v>
       </c>
       <c r="D127">
-        <v>0.00017647980190411391</v>
+        <v>0.00017921410896040767</v>
       </c>
       <c r="E127">
-        <v>0.0019686438158072347</v>
+        <v>0.0019676983276994435</v>
       </c>
       <c r="F127">
-        <v>4.8642696433732237e-5</v>
+        <v>4.8639756500667766e-5</v>
       </c>
       <c r="G127">
-        <v>7.3290441831662045</v>
+        <v>7.321961790657656</v>
       </c>
       <c r="H127">
-        <v>3.007907355605239e-7</v>
+        <v>5.558134317500831e-7</v>
       </c>
       <c r="I127">
-        <v>0.00017647985389064472</v>
+        <v>0.00017921413396452689</v>
       </c>
       <c r="J127">
-        <v>0.0019686431789400923</v>
+        <v>0.0019676979113690475</v>
       </c>
       <c r="K127">
-        <v>4.86426353474215e-5</v>
+        <v>4.863971622571694e-5</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -4865,34 +4865,34 @@
         <v>0.0765</v>
       </c>
       <c r="B128">
-        <v>7.329987659402065</v>
+        <v>7.323058881242234</v>
       </c>
       <c r="C128">
-        <v>2.9673714064251e-7</v>
+        <v>5.483379320293896e-7</v>
       </c>
       <c r="D128">
-        <v>0.00017926386923276623</v>
+        <v>0.0001819420721262949</v>
       </c>
       <c r="E128">
-        <v>0.001969084586063395</v>
+        <v>0.0019681610603164827</v>
       </c>
       <c r="F128">
-        <v>4.8647308947393605e-5</v>
+        <v>4.864442634930965e-5</v>
       </c>
       <c r="G128">
-        <v>7.329984503874653</v>
+        <v>7.3230567796655945</v>
       </c>
       <c r="H128">
-        <v>2.967532769117298e-7</v>
+        <v>5.483528504139636e-7</v>
       </c>
       <c r="I128">
-        <v>0.00017926392051478355</v>
+        <v>0.0001819420958696067</v>
       </c>
       <c r="J128">
-        <v>0.001969083960210184</v>
+        <v>0.0019681606531675323</v>
       </c>
       <c r="K128">
-        <v>4.864724900254954e-5</v>
+        <v>4.86443870405832e-5</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -4900,34 +4900,34 @@
         <v>0.0775</v>
       </c>
       <c r="B129">
-        <v>7.330924072747016</v>
+        <v>7.324147902876635</v>
       </c>
       <c r="C129">
-        <v>2.9269990063372033e-7</v>
+        <v>5.408775520017367e-7</v>
       </c>
       <c r="D129">
-        <v>0.00018204754381473756</v>
+        <v>0.00018467028828421194</v>
       </c>
       <c r="E129">
-        <v>0.001969524703323745</v>
+        <v>0.0019686227955315765</v>
       </c>
       <c r="F129">
-        <v>4.8651920749933734e-5</v>
+        <v>4.8649094941152706e-5</v>
       </c>
       <c r="G129">
-        <v>7.330920982090202</v>
+        <v>7.324145855341215</v>
       </c>
       <c r="H129">
-        <v>2.9271581823873154e-7</v>
+        <v>5.408922690332416e-7</v>
       </c>
       <c r="I129">
-        <v>0.0001820475943922479</v>
+        <v>0.00018467031079125843</v>
       </c>
       <c r="J129">
-        <v>0.0019695240883002845</v>
+        <v>0.0019686223973674677</v>
       </c>
       <c r="K129">
-        <v>4.865186192483334e-5</v>
+        <v>4.86490565750959e-5</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -4935,34 +4935,34 @@
         <v>0.0785</v>
       </c>
       <c r="B130">
-        <v>7.331856669784796</v>
+        <v>7.325231059939286</v>
       </c>
       <c r="C130">
-        <v>2.88662660624986e-7</v>
+        <v>5.33417171974128e-7</v>
       </c>
       <c r="D130">
-        <v>0.00018483082895365277</v>
+        <v>0.00018739875480977832</v>
       </c>
       <c r="E130">
-        <v>0.001969964173150786</v>
+        <v>0.0019690835438322123</v>
       </c>
       <c r="F130">
-        <v>4.8656531842820004e-5</v>
+        <v>4.8653762279845545e-5</v>
       </c>
       <c r="G130">
-        <v>7.331853642624785</v>
+        <v>7.325229065027549</v>
       </c>
       <c r="H130">
-        <v>2.886783595415291e-7</v>
+        <v>5.334316876079171e-7</v>
       </c>
       <c r="I130">
-        <v>0.00018483087882840082</v>
+        <v>0.00018739877610636827</v>
       </c>
       <c r="J130">
-        <v>0.001969963568775864</v>
+        <v>0.0019690831544603507</v>
       </c>
       <c r="K130">
-        <v>4.865647411616377e-5</v>
+        <v>4.865372483348694e-5</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -4970,34 +4970,34 @@
         <v>0.0795</v>
       </c>
       <c r="B131">
-        <v>7.332785475084919</v>
+        <v>7.326308399266022</v>
       </c>
       <c r="C131">
-        <v>2.8462542061625166e-7</v>
+        <v>5.259567919465303e-7</v>
       </c>
       <c r="D131">
-        <v>0.0001876137279167953</v>
+        <v>0.00019012746911328994</v>
       </c>
       <c r="E131">
-        <v>0.001970403001045408</v>
+        <v>0.001969543315566491</v>
       </c>
       <c r="F131">
-        <v>4.866114222752912e-5</v>
+        <v>4.8658428369063875e-5</v>
       </c>
       <c r="G131">
-        <v>7.332782510077688</v>
+        <v>7.326306455598183</v>
       </c>
       <c r="H131">
-        <v>2.8464090082012247e-7</v>
+        <v>5.259711061379903e-7</v>
       </c>
       <c r="I131">
-        <v>0.00018761377709219083</v>
+        <v>0.00019012748922641606</v>
       </c>
       <c r="J131">
-        <v>0.001970402407140746</v>
+        <v>0.0019695429347982357</v>
       </c>
       <c r="K131">
-        <v>4.866108557843263e-5</v>
+        <v>4.865839182000092e-5</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -5005,34 +5005,34 @@
         <v>0.0805</v>
       </c>
       <c r="B132">
-        <v>7.333710513007088</v>
+        <v>7.327379967229143</v>
       </c>
       <c r="C132">
-        <v>2.805881806075284e-7</v>
+        <v>5.184964119189326e-7</v>
       </c>
       <c r="D132">
-        <v>0.00019039624393558762</v>
+        <v>0.00019285642863918617</v>
       </c>
       <c r="E132">
-        <v>0.0019708411924477098</v>
+        <v>0.001970002120945271</v>
       </c>
       <c r="F132">
-        <v>4.866575190554668e-5</v>
+        <v>4.866309321250919e-5</v>
       </c>
       <c r="G132">
-        <v>7.3337076088377176</v>
+        <v>7.327378073462167</v>
       </c>
       <c r="H132">
-        <v>2.8060344207451164e-7</v>
+        <v>5.185105246234609e-7</v>
       </c>
       <c r="I132">
-        <v>0.0001903962924166349</v>
+        <v>0.00019285644759694647</v>
       </c>
       <c r="J132">
-        <v>0.0019708406088379286</v>
+        <v>0.0019700017485958766</v>
       </c>
       <c r="K132">
-        <v>4.866569631353251e-5</v>
+        <v>4.866305753889421e-5</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -5040,34 +5040,34 @@
         <v>0.0815</v>
       </c>
       <c r="B133">
-        <v>7.334631807703315</v>
+        <v>7.328445809742272</v>
       </c>
       <c r="C133">
-        <v>2.7655094059876086e-7</v>
+        <v>5.110360318913019e-7</v>
       </c>
       <c r="D133">
-        <v>0.00019317838020606424</v>
+        <v>0.00019558563086552558</v>
       </c>
       <c r="E133">
-        <v>0.0019712787527378065</v>
+        <v>0.001970459970044275</v>
       </c>
       <c r="F133">
-        <v>4.867036087836694e-5</v>
+        <v>4.866775681390756e-5</v>
       </c>
       <c r="G133">
-        <v>7.334628963085346</v>
+        <v>7.328443964568892</v>
       </c>
       <c r="H133">
-        <v>2.7656598330469663e-7</v>
+        <v>5.11049943064329e-7</v>
       </c>
       <c r="I133">
-        <v>0.00019317842799929395</v>
+        <v>0.00019558564869704881</v>
       </c>
       <c r="J133">
-        <v>0.0019712781792503896</v>
+        <v>0.0019704596059328333</v>
       </c>
       <c r="K133">
-        <v>4.867030632335654e-5</v>
+        <v>4.866772199443409e-5</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -5075,34 +5075,34 @@
         <v>0.0825</v>
       </c>
       <c r="B134">
-        <v>7.335549383120032</v>
+        <v>7.3295059722651486</v>
       </c>
       <c r="C134">
-        <v>2.725137005900155e-7</v>
+        <v>5.03575651863682e-7</v>
       </c>
       <c r="D134">
-        <v>0.00019596013988933732</v>
+        <v>0.00019831507330347076</v>
       </c>
       <c r="E134">
-        <v>0.001971715687236625</v>
+        <v>0.0019709168728061616</v>
       </c>
       <c r="F134">
-        <v>4.86749691474924e-5</v>
+        <v>4.8672419177008524e-5</v>
       </c>
       <c r="G134">
-        <v>7.335546596794836</v>
+        <v>7.329504174412916</v>
       </c>
       <c r="H134">
-        <v>2.7252852451067734e-7</v>
+        <v>5.035893614605947e-7</v>
       </c>
       <c r="I134">
-        <v>0.0001959601870027415</v>
+        <v>0.00019831509003884516</v>
       </c>
       <c r="J134">
-        <v>0.0019717151237018844</v>
+        <v>0.001970916516755548</v>
       </c>
       <c r="K134">
-        <v>4.867491560979832e-5</v>
+        <v>4.86723851908979e-5</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -5110,34 +5110,34 @@
         <v>0.0835</v>
       </c>
       <c r="B135">
-        <v>7.336463263000175</v>
+        <v>7.330560499808413</v>
       </c>
       <c r="C135">
-        <v>2.6847646058131437e-7</v>
+        <v>4.961152718361065e-7</v>
       </c>
       <c r="D135">
-        <v>0.00019874152611205645</v>
+        <v>0.00020104475349678113</v>
       </c>
       <c r="E135">
-        <v>0.0019721520012066854</v>
+        <v>0.0019713728390425675</v>
       </c>
       <c r="F135">
-        <v>4.867957671443361e-5</v>
+        <v>4.8677080305583846e-5</v>
       </c>
       <c r="G135">
-        <v>7.336460533736337</v>
+        <v>7.330558748038766</v>
       </c>
       <c r="H135">
-        <v>2.6849106569245387e-7</v>
+        <v>4.961287798122578e-7</v>
       </c>
       <c r="I135">
-        <v>0.0001987415725550247</v>
+        <v>0.00020104476916698734</v>
       </c>
       <c r="J135">
-        <v>0.001972151447457727</v>
+        <v>0.0019713724908793787</v>
       </c>
       <c r="K135">
-        <v>4.867952417475174e-5</v>
+        <v>4.867704713257217e-5</v>
       </c>
     </row>
     <row r="136" spans="1:11">
@@ -5145,34 +5145,34 @@
         <v>0.0845</v>
       </c>
       <c r="B136">
-        <v>7.337373470885244</v>
+        <v>7.33160943693832</v>
       </c>
       <c r="C136">
-        <v>2.644392205725579e-7</v>
+        <v>4.886548918084867e-7</v>
       </c>
       <c r="D136">
-        <v>0.0002015225419668597</v>
+        <v>0.00020377466902131474</v>
       </c>
       <c r="E136">
-        <v>0.001972587699852875</v>
+        <v>0.00197182787843611</v>
       </c>
       <c r="F136">
-        <v>4.8684183580708764e-5</v>
+        <v>4.868174020342645e-5</v>
       </c>
       <c r="G136">
-        <v>7.337370797477963</v>
+        <v>7.3316077300456906</v>
       </c>
       <c r="H136">
-        <v>2.6445360685002617e-7</v>
+        <v>4.886681981193185e-7</v>
       </c>
       <c r="I136">
-        <v>0.00020152258775011896</v>
+        <v>0.00020377468365816146</v>
       </c>
       <c r="J136">
-        <v>0.001972587155725562</v>
+        <v>0.0019718275379906076</v>
       </c>
       <c r="K136">
-        <v>4.8684132020110816e-5</v>
+        <v>4.868170782375186e-5</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -5180,34 +5180,34 @@
         <v>0.0855</v>
       </c>
       <c r="B137">
-        <v>7.338280030117347</v>
+        <v>7.33265282778146</v>
       </c>
       <c r="C137">
-        <v>2.604019805638125e-7</v>
+        <v>4.81194511780867e-7</v>
       </c>
       <c r="D137">
-        <v>0.0002043031905128196</v>
+        <v>0.00020650481748453833</v>
       </c>
       <c r="E137">
-        <v>0.0019730227883232062</v>
+        <v>0.0019722820005423592</v>
       </c>
       <c r="F137">
-        <v>4.868878974784348e-5</v>
+        <v>4.868639887434927e-5</v>
       </c>
       <c r="G137">
-        <v>7.338277411387841</v>
+        <v>7.332651164592379</v>
       </c>
       <c r="H137">
-        <v>2.6041614798339424e-7</v>
+        <v>4.812076163817767e-7</v>
       </c>
       <c r="I137">
-        <v>0.00020430323564837557</v>
+        <v>0.00020650483112060166</v>
       </c>
       <c r="J137">
-        <v>0.0019730222536561226</v>
+        <v>0.0019722816676484103</v>
       </c>
       <c r="K137">
-        <v>4.8688739147769546e-5</v>
+        <v>4.8686367268739564e-5</v>
       </c>
     </row>
     <row r="138" spans="1:11">
@@ -5215,34 +5215,34 @@
         <v>0.08650000000000001</v>
       </c>
       <c r="B138">
-        <v>7.33918296384121</v>
+        <v>7.333690716029393</v>
       </c>
       <c r="C138">
-        <v>2.56364740555056e-7</v>
+        <v>4.737341317532472e-7</v>
       </c>
       <c r="D138">
-        <v>0.0002070834747758818</v>
+        <v>0.00020923519652504477</v>
       </c>
       <c r="E138">
-        <v>0.001973457271709563</v>
+        <v>0.001972735214791777</v>
       </c>
       <c r="F138">
-        <v>4.8693395217370464e-5</v>
+        <v>4.8691056322184274e-5</v>
       </c>
       <c r="G138">
-        <v>7.339180398636144</v>
+        <v>7.3336890954016445</v>
       </c>
       <c r="H138">
-        <v>2.5637868909255813e-7</v>
+        <v>4.7374703459963247e-7</v>
       </c>
       <c r="I138">
-        <v>0.00020708351927696235</v>
+        <v>0.00020923520919361057</v>
       </c>
       <c r="J138">
-        <v>0.001973456746343983</v>
+        <v>0.001972734889286799</v>
       </c>
       <c r="K138">
-        <v>4.869334555962176e-5</v>
+        <v>4.869102547184472e-5</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -5250,34 +5250,34 @@
         <v>0.08750000000000001</v>
       </c>
       <c r="B139">
-        <v>7.340082295006174</v>
+        <v>7.334723144943272</v>
       </c>
       <c r="C139">
-        <v>2.523275005463217e-7</v>
+        <v>4.6627375172563847e-7</v>
       </c>
       <c r="D139">
-        <v>0.0002098633977492968</v>
+        <v>0.00021196580381207972</v>
       </c>
       <c r="E139">
-        <v>0.0019738911550484426</v>
+        <v>0.001973187530491627</v>
       </c>
       <c r="F139">
-        <v>4.869799999082923e-5</v>
+        <v>4.869571255078133e-5</v>
       </c>
       <c r="G139">
-        <v>7.3400797821970984</v>
+        <v>7.334721565765055</v>
       </c>
       <c r="H139">
-        <v>2.5234123017751773e-7</v>
+        <v>4.662864527728856e-7</v>
       </c>
       <c r="I139">
-        <v>0.00020986344163029827</v>
+        <v>0.0002119658155470887</v>
       </c>
       <c r="J139">
-        <v>0.001973890638828291</v>
+        <v>0.0019731872122165242</v>
       </c>
       <c r="K139">
-        <v>4.869795125756103e-5</v>
+        <v>4.86956824373829e-5</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -5285,34 +5285,34 @@
         <v>0.08850000000000001</v>
       </c>
       <c r="B140">
-        <v>7.34097804636817</v>
+        <v>7.3357501573584205</v>
       </c>
       <c r="C140">
-        <v>2.4829026053760953e-7</v>
+        <v>4.588133716980629e-7</v>
       </c>
       <c r="D140">
-        <v>0.00021264296239404656</v>
+        <v>0.0002146966370450749</v>
       </c>
       <c r="E140">
-        <v>0.001974324443321677</v>
+        <v>0.001973638956827845</v>
       </c>
       <c r="F140">
-        <v>4.870260406976584e-5</v>
+        <v>4.8700367564007285e-5</v>
       </c>
       <c r="G140">
-        <v>7.340975584850967</v>
+        <v>7.33574861854754</v>
       </c>
       <c r="H140">
-        <v>2.4830377123827316e-7</v>
+        <v>4.588258709015363e-7</v>
       </c>
       <c r="I140">
-        <v>0.0002126430056704808</v>
+        <v>0.000214696647881071</v>
       </c>
       <c r="J140">
-        <v>0.0019743239360934957</v>
+        <v>0.0019736386456269553</v>
       </c>
       <c r="K140">
-        <v>4.870255624348045e-5</v>
+        <v>4.870033816967506e-5</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -5320,34 +5320,34 @@
         <v>0.08950000000000001</v>
       </c>
       <c r="B141">
-        <v>7.341870240491665</v>
+        <v>7.336771795688874</v>
       </c>
       <c r="C141">
-        <v>2.442530205288641e-7</v>
+        <v>4.5135299167044317e-7</v>
       </c>
       <c r="D141">
-        <v>0.000215422171639263</v>
+        <v>0.00021742769395319012</v>
       </c>
       <c r="E141">
-        <v>0.00197475714145715</v>
+        <v>0.001974089502866889</v>
       </c>
       <c r="F141">
-        <v>4.870720745573267e-5</v>
+        <v>4.8705021365744916e-5</v>
       </c>
       <c r="G141">
-        <v>7.341867829186013</v>
+        <v>7.336770296191943</v>
       </c>
       <c r="H141">
-        <v>2.442663122748244e-7</v>
+        <v>4.5136528898558446e-7</v>
       </c>
       <c r="I141">
-        <v>0.00021542221432770765</v>
+        <v>0.00021742770392527125</v>
       </c>
       <c r="J141">
-        <v>0.001974756643070064</v>
+        <v>0.0019740891985879235</v>
       </c>
       <c r="K141">
-        <v>4.870716051927258e-5</v>
+        <v>4.870499267304688e-5</v>
       </c>
     </row>
     <row r="142" spans="1:11">
@@ -5355,34 +5355,34 @@
         <v>0.0905</v>
       </c>
       <c r="B142">
-        <v>7.342758899751592</v>
+        <v>7.337788101931868</v>
       </c>
       <c r="C142">
-        <v>2.402157805200855e-7</v>
+        <v>4.4389261164279026e-7</v>
       </c>
       <c r="D142">
-        <v>0.00021820102838264176</v>
+        <v>0.0002201589722948626</v>
       </c>
       <c r="E142">
-        <v>0.0019751892543295006</v>
+        <v>0.0019745391775575507</v>
       </c>
       <c r="F142">
-        <v>4.8711810150288044e-5</v>
+        <v>4.8709673959892015e-5</v>
       </c>
       <c r="G142">
-        <v>7.342756537600441</v>
+        <v>7.3377866407235475</v>
       </c>
       <c r="H142">
-        <v>2.4022885328717154e-7</v>
+        <v>4.4390470702503017e-7</v>
       </c>
       <c r="I142">
-        <v>0.00021820107050069158</v>
+        <v>0.00022015898143863373</v>
       </c>
       <c r="J142">
-        <v>0.0019751887646351825</v>
+        <v>0.0019745388800515356</v>
       </c>
       <c r="K142">
-        <v>4.8711764086829285e-5</v>
+        <v>4.8709645951828055e-5</v>
       </c>
     </row>
     <row r="143" spans="1:11">
@@ -5390,34 +5390,34 @@
         <v>0.09149999999999998</v>
       </c>
       <c r="B143">
-        <v>7.343644046335262</v>
+        <v>7.3387991176723055</v>
       </c>
       <c r="C143">
-        <v>2.3617854051135118e-7</v>
+        <v>4.364322316151926e-7</v>
       </c>
       <c r="D143">
-        <v>0.0002209795354908492</v>
+        <v>0.00022289046985736344</v>
       </c>
       <c r="E143">
-        <v>0.0019756207867608175</v>
+        <v>0.0019749879897327403</v>
       </c>
       <c r="F143">
-        <v>4.871641215499606e-5</v>
+        <v>4.871432535036046e-5</v>
       </c>
       <c r="G143">
-        <v>7.34364173230432</v>
+        <v>7.338797693754548</v>
       </c>
       <c r="H143">
-        <v>2.3619139427531453e-7</v>
+        <v>4.364441250198734e-7</v>
       </c>
       <c r="I143">
-        <v>0.0002209795770570694</v>
+        <v>0.0002228904782088928</v>
       </c>
       <c r="J143">
-        <v>0.001975620305613452</v>
+        <v>0.001974987698853959</v>
       </c>
       <c r="K143">
-        <v>4.871636694804159e-5</v>
+        <v>4.8714298010351607e-5</v>
       </c>
     </row>
     <row r="144" spans="1:11">
@@ -5425,34 +5425,34 @@
         <v>0.09249999999999999</v>
       </c>
       <c r="B144">
-        <v>7.344525702244248</v>
+        <v>7.3398048840871715</v>
       </c>
       <c r="C144">
-        <v>2.32141300502639e-7</v>
+        <v>4.2897185158760597e-7</v>
       </c>
       <c r="D144">
-        <v>0.0002237576957999233</v>
+        <v>0.00022562218445636194</v>
       </c>
       <c r="E144">
-        <v>0.0019760517435213234</v>
+        <v>0.001975435948111239</v>
       </c>
       <c r="F144">
-        <v>4.87210134714263e-5</v>
+        <v>4.871897554107528e-5</v>
       </c>
       <c r="G144">
-        <v>7.3445234353214754</v>
+        <v>7.33980349648849</v>
       </c>
       <c r="H144">
-        <v>2.3215393523925333e-7</v>
+        <v>4.289835429701141e-7</v>
       </c>
       <c r="I144">
-        <v>0.0002237577368338049</v>
+        <v>0.0002256221920521388</v>
       </c>
       <c r="J144">
-        <v>0.0019760512707775735</v>
+        <v>0.001975435663717178</v>
       </c>
       <c r="K144">
-        <v>4.872096910479959e-5</v>
+        <v>4.871894885295334e-5</v>
       </c>
     </row>
     <row r="145" spans="1:11">
@@ -5460,34 +5460,34 @@
         <v>0.09349999999999999</v>
       </c>
       <c r="B145">
-        <v>7.345403889296251</v>
+        <v>7.340805441949904</v>
       </c>
       <c r="C145">
-        <v>2.281040604938936e-7</v>
+        <v>4.215114715599862e-7</v>
       </c>
       <c r="D145">
-        <v>0.00022653551211566895</v>
+        <v>0.00022835411393549692</v>
       </c>
       <c r="E145">
-        <v>0.0019764821293300444</v>
+        <v>0.0019758830612994285</v>
       </c>
       <c r="F145">
-        <v>4.872561410115363e-5</v>
+        <v>4.872362453597382e-5</v>
       </c>
       <c r="G145">
-        <v>7.345401668491373</v>
+        <v>7.340804089724672</v>
       </c>
       <c r="H145">
-        <v>2.28116476178988e-7</v>
+        <v>4.215229608757523e-7</v>
       </c>
       <c r="I145">
-        <v>0.0002265355526375854</v>
+        <v>0.0002283541208123921</v>
       </c>
       <c r="J145">
-        <v>0.0019764816648490174</v>
+        <v>0.0019758827832507177</v>
       </c>
       <c r="K145">
-        <v>4.872557055899234e-5</v>
+        <v>4.872359848397112e-5</v>
       </c>
     </row>
     <row r="146" spans="1:11">
@@ -5495,34 +5495,34 @@
         <v>0.09449999999999999</v>
       </c>
       <c r="B146">
-        <v>7.346278629126944</v>
+        <v>7.341800831634745</v>
       </c>
       <c r="C146">
-        <v>2.2406682048515927e-7</v>
+        <v>4.1405109153238855e-7</v>
       </c>
       <c r="D146">
-        <v>0.00022931298721404715</v>
+        <v>0.0002310862561659551</v>
       </c>
       <c r="E146">
-        <v>0.001976911948855478</v>
+        <v>0.001976329337792984</v>
       </c>
       <c r="F146">
-        <v>4.873021404575785e-5</v>
+        <v>4.8728272339004855e-5</v>
       </c>
       <c r="G146">
-        <v>7.346276453470972</v>
+        <v>7.341799513862491</v>
       </c>
       <c r="H146">
-        <v>2.2407901709451851e-7</v>
+        <v>4.140623787367881e-7</v>
       </c>
       <c r="I146">
-        <v>0.0002293130272452129</v>
+        <v>0.0002310862623611837</v>
       </c>
       <c r="J146">
-        <v>0.0019769114924986907</v>
+        <v>0.001976329065953341</v>
       </c>
       <c r="K146">
-        <v>4.8730171312507667e-5</v>
+        <v>4.872824690774433e-5</v>
       </c>
     </row>
     <row r="147" spans="1:11">
@@ -5530,34 +5530,34 @@
         <v>0.09549999999999999</v>
       </c>
       <c r="B147">
-        <v>7.347149943191804</v>
+        <v>7.342791093121021</v>
       </c>
       <c r="C147">
-        <v>2.200295804764028e-7</v>
+        <v>4.065907115047577e-7</v>
       </c>
       <c r="D147">
-        <v>0.00023209012384155868</v>
+        <v>0.00023381860904605657</v>
       </c>
       <c r="E147">
-        <v>0.0019773412067162436</v>
+        <v>0.001976774785978547</v>
       </c>
       <c r="F147">
-        <v>4.873481330682362e-5</v>
+        <v>4.8732918954127786e-5</v>
       </c>
       <c r="G147">
-        <v>7.347147811736562</v>
+        <v>7.342789808905767</v>
       </c>
       <c r="H147">
-        <v>2.2004155798584483e-7</v>
+        <v>4.066017965532214e-7</v>
       </c>
       <c r="I147">
-        <v>0.00023209016340398932</v>
+        <v>0.00023381861459714228</v>
       </c>
       <c r="J147">
-        <v>0.0019773407583475876</v>
+        <v>0.001976774520214721</v>
       </c>
       <c r="K147">
-        <v>4.873477136723216e-5</v>
+        <v>4.8732894128613204e-5</v>
       </c>
     </row>
     <row r="148" spans="1:11">
@@ -5565,34 +5565,34 @@
         <v>0.09649999999999999</v>
       </c>
       <c r="B148">
-        <v>7.3480178527679065</v>
+        <v>7.343776265997415</v>
       </c>
       <c r="C148">
-        <v>2.1599234046766847e-7</v>
+        <v>3.9913033147716006e-7</v>
       </c>
       <c r="D148">
-        <v>0.0002348669247156219</v>
+        <v>0.00023655117050084727</v>
       </c>
       <c r="E148">
-        <v>0.0019777699074817255</v>
+        <v>0.0019772194141353633</v>
       </c>
       <c r="F148">
-        <v>4.873941188594003e-5</v>
+        <v>4.873756438531177e-5</v>
       </c>
       <c r="G148">
-        <v>7.348015764585576</v>
+        <v>7.343775014467013</v>
       </c>
       <c r="H148">
-        <v>2.160040988529669e-7</v>
+        <v>3.9914121432505225e-7</v>
       </c>
       <c r="I148">
-        <v>0.0002348669638320957</v>
+        <v>0.00023655117544558912</v>
       </c>
       <c r="J148">
-        <v>0.0019777694669674355</v>
+        <v>0.0019772191543170788</v>
       </c>
       <c r="K148">
-        <v>4.873937072505094e-5</v>
+        <v>4.873754015091837e-5</v>
       </c>
     </row>
     <row r="149" spans="1:11">
@@ -5600,34 +5600,34 @@
         <v>0.09749999999999999</v>
       </c>
       <c r="B149">
-        <v>7.348882378955719</v>
+        <v>7.344756389466169</v>
       </c>
       <c r="C149">
-        <v>2.119551004589563e-7</v>
+        <v>3.916699514495734e-7</v>
       </c>
       <c r="D149">
-        <v>0.0002376433925249457</v>
+        <v>0.00023928393848169808</v>
       </c>
       <c r="E149">
-        <v>0.00197819805567271</v>
+        <v>0.0019776632304368976</v>
       </c>
       <c r="F149">
-        <v>4.874400978470056e-5</v>
+        <v>4.874220863653503e-5</v>
       </c>
       <c r="G149">
-        <v>7.348880333138394</v>
+        <v>7.344755169771668</v>
       </c>
       <c r="H149">
-        <v>2.1196663969588486e-7</v>
+        <v>3.916806320522805e-7</v>
       </c>
       <c r="I149">
-        <v>0.0002376434312189662</v>
+        <v>0.00023928394285813837</v>
       </c>
       <c r="J149">
-        <v>0.0019781976228813287</v>
+        <v>0.0019776629764367997</v>
       </c>
       <c r="K149">
-        <v>4.8743969387847647e-5</v>
+        <v>4.874218497900019e-5</v>
       </c>
     </row>
     <row r="150" spans="1:11">
@@ -5635,34 +5635,34 @@
         <v>0.09849999999999999</v>
       </c>
       <c r="B150">
-        <v>7.349743542680862</v>
+        <v>7.345731502347265</v>
       </c>
       <c r="C150">
-        <v>2.0791786045019983e-7</v>
+        <v>3.842095714219537e-7</v>
       </c>
       <c r="D150">
-        <v>0.00024041952992989534</v>
+        <v>0.0002420169109659104</v>
       </c>
       <c r="E150">
-        <v>0.001978625655762007</v>
+        <v>0.001978106242952425</v>
       </c>
       <c r="F150">
-        <v>4.8748607004702756e-5</v>
+        <v>4.874685171178402e-5</v>
       </c>
       <c r="G150">
-        <v>7.349741538340105</v>
+        <v>7.34573031366229</v>
       </c>
       <c r="H150">
-        <v>2.079291805145986e-7</v>
+        <v>3.842200497349063e-7</v>
       </c>
       <c r="I150">
-        <v>0.00024041956822565638</v>
+        <v>0.00024201691481230534</v>
       </c>
       <c r="J150">
-        <v>0.0019786252305643522</v>
+        <v>0.0019781059946460252</v>
       </c>
       <c r="K150">
-        <v>4.8748567357504295e-5</v>
+        <v>4.874682861719832e-5</v>
       </c>
     </row>
     <row r="151" spans="1:11">
@@ -5670,34 +5670,34 @@
         <v>0.09949999999999999</v>
       </c>
       <c r="B151">
-        <v>7.350601364695862</v>
+        <v>7.3467016430825645</v>
       </c>
       <c r="C151">
-        <v>2.0388062044145443e-7</v>
+        <v>3.767491913943339e-7</v>
       </c>
       <c r="D151">
-        <v>0.00024319533956285503</v>
+        <v>0.0002447500859563287</v>
       </c>
       <c r="E151">
-        <v>0.0019790527121750687</v>
+        <v>0.0019785484596485867</v>
       </c>
       <c r="F151">
-        <v>4.8753203547548024e-5</v>
+        <v>4.875149361505269e-5</v>
       </c>
       <c r="G151">
-        <v>7.350599400962277</v>
+        <v>7.3467004846027075</v>
       </c>
       <c r="H151">
-        <v>2.0389172130910821e-7</v>
+        <v>3.767594673729296e-7</v>
       </c>
       <c r="I151">
-        <v>0.00024319537748520605</v>
+        <v>0.00024475008931111977</v>
       </c>
       <c r="J151">
-        <v>0.001979052294444199</v>
+        <v>0.001978548216914209</v>
       </c>
       <c r="K151">
-        <v>4.875316463590118e-5</v>
+        <v>4.875147106985112e-5</v>
       </c>
     </row>
     <row r="152" spans="1:11">
@@ -5705,34 +5705,34 @@
         <v>0.10049999999999999</v>
       </c>
       <c r="B152">
-        <v>7.351455865581865</v>
+        <v>7.347666849739893</v>
       </c>
       <c r="C152">
-        <v>1.9984338043270903e-7</v>
+        <v>3.692888113667252e-7</v>
       </c>
       <c r="D152">
-        <v>0.0002459708240285836</v>
+        <v>0.00024748346148095913</v>
       </c>
       <c r="E152">
-        <v>0.001979479229290591</v>
+        <v>0.0019789898883909285</v>
       </c>
       <c r="F152">
-        <v>4.875779941484143e-5</v>
+        <v>4.87561343503418e-5</v>
       </c>
       <c r="G152">
-        <v>7.3514539416046825</v>
+        <v>7.34766572068213</v>
       </c>
       <c r="H152">
-        <v>1.9985426207941364e-7</v>
+        <v>3.6929888496635054e-7</v>
       </c>
       <c r="I152">
-        <v>0.0002459708616029971</v>
+        <v>0.00024748346438274645</v>
       </c>
       <c r="J152">
-        <v>0.001979478818901777</v>
+        <v>0.001978989651109657</v>
       </c>
       <c r="K152">
-        <v>4.8757761224916754e-5</v>
+        <v>4.875611234129514e-5</v>
       </c>
     </row>
     <row r="153" spans="1:11">
@@ -5740,34 +5740,34 @@
         <v>0.10149999999999999</v>
       </c>
       <c r="B153">
-        <v>7.3523070657503595</v>
+        <v>7.348627160017101</v>
       </c>
       <c r="C153">
-        <v>1.9580614042396363e-7</v>
+        <v>3.6182843133910544e-7</v>
       </c>
       <c r="D153">
-        <v>0.00024874598590456597</v>
+        <v>0.00025021703559259425</v>
       </c>
       <c r="E153">
-        <v>0.0019799052114411173</v>
+        <v>0.0019794305369454116</v>
       </c>
       <c r="F153">
-        <v>4.876239460819151e-5</v>
+        <v>4.876077392165816e-5</v>
       </c>
       <c r="G153">
-        <v>7.352305180697023</v>
+        <v>7.348626059619217</v>
       </c>
       <c r="H153">
-        <v>1.9581680282551488e-7</v>
+        <v>3.61838302515169e-7</v>
       </c>
       <c r="I153">
-        <v>0.00024874602315710546</v>
+        <v>0.00025021703808011177</v>
       </c>
       <c r="J153">
-        <v>0.001979904808271805</v>
+        <v>0.001979430305001035</v>
       </c>
       <c r="K153">
-        <v>4.876235712642757e-5</v>
+        <v>4.8760752435864735e-5</v>
       </c>
     </row>
     <row r="154" spans="1:11">
@@ -5775,34 +5775,34 @@
         <v>0.1025</v>
       </c>
       <c r="B154">
-        <v>7.353154985444846</v>
+        <v>7.349582611246079</v>
       </c>
       <c r="C154">
-        <v>1.9176890041525145e-7</v>
+        <v>3.5436805131152986e-7</v>
       </c>
       <c r="D154">
-        <v>0.0002515208277413589</v>
+        <v>0.0002529508063684448</v>
       </c>
       <c r="E154">
-        <v>0.001980330662913623</v>
+        <v>0.0019798704129798967</v>
       </c>
       <c r="F154">
-        <v>4.876698912921002e-5</v>
+        <v>4.8765412333014024e-5</v>
       </c>
       <c r="G154">
-        <v>7.353153138500621</v>
+        <v>7.3495815387661105</v>
       </c>
       <c r="H154">
-        <v>1.9177934354741197e-7</v>
+        <v>3.543777200193849e-7</v>
       </c>
       <c r="I154">
-        <v>0.0002515208646986489</v>
+        <v>0.00025295080848053653</v>
       </c>
       <c r="J154">
-        <v>0.0019803302668434035</v>
+        <v>0.0019798701862588576</v>
       </c>
       <c r="K154">
-        <v>4.876695234230816e-5</v>
+        <v>4.876539135789144e-5</v>
       </c>
     </row>
     <row r="155" spans="1:11">
@@ -5810,34 +5810,34 @@
         <v>0.1035</v>
       </c>
       <c r="B155">
-        <v>7.353999644742534</v>
+        <v>7.350533240396726</v>
       </c>
       <c r="C155">
-        <v>1.8773166040645068e-7</v>
+        <v>3.4690767128385487e-7</v>
       </c>
       <c r="D155">
-        <v>0.0002542953520629314</v>
+        <v>0.00025568477190977666</v>
       </c>
       <c r="E155">
-        <v>0.001980755587950095</v>
+        <v>0.001980309524065604</v>
       </c>
       <c r="F155">
-        <v>4.8771582979511824e-5</v>
+        <v>4.877004958842636e-5</v>
       </c>
       <c r="G155">
-        <v>7.353997835110101</v>
+        <v>7.350532195112418</v>
       </c>
       <c r="H155">
-        <v>1.8774188424510488e-7</v>
+        <v>3.469171374789984e-7</v>
       </c>
       <c r="I155">
-        <v>0.0002542953887521281</v>
+        <v>0.00025568477368537423</v>
       </c>
       <c r="J155">
-        <v>0.0019807551988606726</v>
+        <v>0.001980309302456947</v>
       </c>
       <c r="K155">
-        <v>4.877154687443093e-5</v>
+        <v>4.877002911170361e-5</v>
       </c>
     </row>
     <row r="156" spans="1:11">
@@ -5845,34 +5845,34 @@
         <v>0.1045</v>
       </c>
       <c r="B156">
-        <v>7.354841063555963</v>
+        <v>7.351479084080884</v>
       </c>
       <c r="C156">
-        <v>1.8369442039774956e-7</v>
+        <v>3.3944729125629036e-7</v>
       </c>
       <c r="D156">
-        <v>0.00025706956136700156</v>
+        <v>0.0002584189303415541</v>
       </c>
       <c r="E156">
-        <v>0.001981179990748108</v>
+        <v>0.001980747877678552</v>
       </c>
       <c r="F156">
-        <v>4.877617616071458e-5</v>
+        <v>4.877468569191625e-5</v>
       </c>
       <c r="G156">
-        <v>7.354839290455053</v>
+        <v>7.351478065289164</v>
       </c>
       <c r="H156">
-        <v>1.837044249185936e-7</v>
+        <v>3.3945655489400944e-7</v>
       </c>
       <c r="I156">
-        <v>0.0002570695978157646</v>
+        <v>0.00025841893181965616</v>
       </c>
       <c r="J156">
-        <v>0.001981179608523267</v>
+        <v>0.001980747661073873</v>
       </c>
       <c r="K156">
-        <v>4.877614072466609e-5</v>
+        <v>4.877466570162596e-5</v>
       </c>
     </row>
     <row r="157" spans="1:11">
@@ -5880,34 +5880,34 @@
         <v>0.1055</v>
       </c>
       <c r="B157">
-        <v>7.355679261634658</v>
+        <v>7.3524201785562315</v>
       </c>
       <c r="C157">
-        <v>1.796571803889931e-7</v>
+        <v>3.319869112286596e-7</v>
       </c>
       <c r="D157">
-        <v>0.00025984345812536745</v>
+        <v>0.0002611532798120892</v>
       </c>
       <c r="E157">
-        <v>0.0019816038754613815</v>
+        <v>0.0019811854812009696</v>
       </c>
       <c r="F157">
-        <v>4.878076867443865e-5</v>
+        <v>4.877932064750823e-5</v>
       </c>
       <c r="G157">
-        <v>7.355677524301669</v>
+        <v>7.352419185572696</v>
       </c>
       <c r="H157">
-        <v>1.7966696556787812e-7</v>
+        <v>3.31995972264418e-7</v>
       </c>
       <c r="I157">
-        <v>0.00025984349436183266</v>
+        <v>0.0002611532810317413</v>
       </c>
       <c r="J157">
-        <v>0.0019816034999869565</v>
+        <v>0.001981185269494364</v>
       </c>
       <c r="K157">
-        <v>4.878073389488157e-5</v>
+        <v>4.877930113197911e-5</v>
       </c>
     </row>
     <row r="158" spans="1:11">
@@ -5915,34 +5915,34 @@
         <v>0.1065</v>
       </c>
       <c r="B158">
-        <v>7.35651425856674</v>
+        <v>7.353356559730145</v>
       </c>
       <c r="C158">
-        <v>1.7561994038025877e-7</v>
+        <v>3.245265312010619e-7</v>
       </c>
       <c r="D158">
-        <v>0.00026261704478423257</v>
+        <v>0.00026388781849269715</v>
       </c>
       <c r="E158">
-        <v>0.001982027246200339</v>
+        <v>0.001981622341922683</v>
       </c>
       <c r="F158">
-        <v>4.8785360522306895e-5</v>
+        <v>4.8783954459229714e-5</v>
       </c>
       <c r="G158">
-        <v>7.356512556254369</v>
+        <v>7.3533555918885565</v>
       </c>
       <c r="H158">
-        <v>1.756295061929585e-7</v>
+        <v>3.2453538959022417e-7</v>
       </c>
       <c r="I158">
-        <v>0.00026261708083698666</v>
+        <v>0.00026388781949297335</v>
       </c>
       <c r="J158">
-        <v>0.0019820268773641835</v>
+        <v>0.0019816221350106994</v>
       </c>
       <c r="K158">
-        <v>4.8785326386942905e-5</v>
+        <v>4.878393540707917e-5</v>
       </c>
     </row>
     <row r="159" spans="1:11">
@@ -5950,34 +5950,34 @@
         <v>0.1075</v>
       </c>
       <c r="B159">
-        <v>7.357346073780514</v>
+        <v>7.354288263163501</v>
       </c>
       <c r="C159">
-        <v>1.7158270037151337e-7</v>
+        <v>3.170661511734421e-7</v>
       </c>
       <c r="D159">
-        <v>0.00026539032376452843</v>
+        <v>0.00026662254457735565</v>
       </c>
       <c r="E159">
-        <v>0.001982450107032654</v>
+        <v>0.0019820584670424894</v>
       </c>
       <c r="F159">
-        <v>4.8789951705944456e-5</v>
+        <v>4.878858713111039e-5</v>
       </c>
       <c r="G159">
-        <v>7.35734440575741</v>
+        <v>7.354287319815304</v>
       </c>
       <c r="H159">
-        <v>1.715920467938347e-7</v>
+        <v>3.1707480687142785e-7</v>
       </c>
       <c r="I159">
-        <v>0.0002653903596625834</v>
+        <v>0.0002666225453973415</v>
       </c>
       <c r="J159">
-        <v>0.001982449744724609</v>
+        <v>0.0019820582648240772</v>
       </c>
       <c r="K159">
-        <v>4.8789918202713186e-5</v>
+        <v>4.878856853123734e-5</v>
       </c>
     </row>
     <row r="160" spans="1:11">
@@ -5985,34 +5985,34 @@
         <v>0.1085</v>
       </c>
       <c r="B160">
-        <v>7.358174726546059</v>
+        <v>7.355215324074461</v>
       </c>
       <c r="C160">
-        <v>1.6754546036277906e-7</v>
+        <v>3.0960577114584445e-7</v>
       </c>
       <c r="D160">
-        <v>0.0002681632974622308</v>
+        <v>0.00026935745628237274</v>
       </c>
       <c r="E160">
-        <v>0.001982872461983789</v>
+        <v>0.0019824938636694932</v>
       </c>
       <c r="F160">
-        <v>4.879454222697862e-5</v>
+        <v>4.879321866718166e-5</v>
       </c>
       <c r="G160">
-        <v>7.358173092096467</v>
+        <v>7.355214404588306</v>
       </c>
       <c r="H160">
-        <v>1.6755458737050672e-7</v>
+        <v>3.096142241080291e-7</v>
       </c>
       <c r="I160">
-        <v>0.0002681633332350005</v>
+        <v>0.0002693574569611485</v>
       </c>
       <c r="J160">
-        <v>0.001982872106095653</v>
+        <v>0.0019824936660459568</v>
       </c>
       <c r="K160">
-        <v>4.879450934405298e-5</v>
+        <v>4.879320050875953e-5</v>
       </c>
     </row>
     <row r="161" spans="1:11">
@@ -6020,34 +6020,34 @@
         <v>0.1095</v>
       </c>
       <c r="B161">
-        <v>7.359000235976786</v>
+        <v>7.356137777342197</v>
       </c>
       <c r="C161">
-        <v>1.635082203540558e-7</v>
+        <v>3.021453911182468e-7</v>
       </c>
       <c r="D161">
-        <v>0.0002709359682486725</v>
+        <v>0.000272092551846058</v>
       </c>
       <c r="E161">
-        <v>0.0019832943150375256</v>
+        <v>0.0019829285388244357</v>
       </c>
       <c r="F161">
-        <v>4.8799132087038625e-5</v>
+        <v>4.8797849071476024e-5</v>
       </c>
       <c r="G161">
-        <v>7.3589986344002085</v>
+        <v>7.356136881103484</v>
       </c>
       <c r="H161">
-        <v>1.635171279229746e-7</v>
+        <v>3.021536413000279e-7</v>
       </c>
       <c r="I161">
-        <v>0.0002709360039259491</v>
+        <v>0.00027209255242268353</v>
       </c>
       <c r="J161">
-        <v>0.001983293965463024</v>
+        <v>0.001982928345699384</v>
       </c>
       <c r="K161">
-        <v>4.87990998128202e-5</v>
+        <v>4.879783134394595e-5</v>
       </c>
     </row>
     <row r="162" spans="1:11">
@@ -6055,34 +6055,34 @@
         <v>0.1105</v>
       </c>
       <c r="B162">
-        <v>7.359822621030989</v>
+        <v>7.3570556575106</v>
       </c>
       <c r="C162">
-        <v>1.5947098034530486e-7</v>
+        <v>2.9468501109063253e-7</v>
       </c>
       <c r="D162">
-        <v>0.00027370833847085047</v>
+        <v>0.0002748278295283988</v>
       </c>
       <c r="E162">
-        <v>0.001983715670136488</v>
+        <v>0.00198336249944099</v>
       </c>
       <c r="F162">
-        <v>4.880372128775551e-5</v>
+        <v>4.880247834802665e-5</v>
       </c>
       <c r="G162">
-        <v>7.359821051641846</v>
+        <v>7.357054783921022</v>
       </c>
       <c r="H162">
-        <v>1.5947966845123834e-7</v>
+        <v>2.946930584474242e-7</v>
       </c>
       <c r="I162">
-        <v>0.0002737083740827832</v>
+        <v>0.0002748278300418995</v>
       </c>
       <c r="J162">
-        <v>0.001983715326771245</v>
+        <v>0.001983362310720294</v>
       </c>
       <c r="K162">
-        <v>4.880368961087009e-5</v>
+        <v>4.8802461041090746e-5</v>
       </c>
     </row>
     <row r="163" spans="1:11">
@@ -6090,34 +6090,34 @@
         <v>0.1115</v>
       </c>
       <c r="B163">
-        <v>7.360641900513355</v>
+        <v>7.357968998791923</v>
       </c>
       <c r="C163">
-        <v>1.5543374033655946e-7</v>
+        <v>2.872246310630183e-7</v>
       </c>
       <c r="D163">
-        <v>0.00027648041045173045</v>
+        <v>0.00027756328761074407</v>
       </c>
       <c r="E163">
-        <v>0.00198413653118266</v>
+        <v>0.0019837957523670445</v>
       </c>
       <c r="F163">
-        <v>4.880830983076192e-5</v>
+        <v>4.880710650086678e-5</v>
       </c>
       <c r="G163">
-        <v>7.360640362640671</v>
+        <v>7.357968147269038</v>
       </c>
       <c r="H163">
-        <v>1.5544220895529793e-7</v>
+        <v>2.872324755502181e-7</v>
       </c>
       <c r="I163">
-        <v>0.00027648044602880336</v>
+        <v>0.00027756328810009737</v>
       </c>
       <c r="J163">
-        <v>0.0019841361939241663</v>
+        <v>0.001983795567958786</v>
       </c>
       <c r="K163">
-        <v>4.880827874005509e-5</v>
+        <v>4.880708960448169e-5</v>
       </c>
     </row>
     <row r="164" spans="1:11">
@@ -6125,34 +6125,34 @@
         <v>0.1125</v>
       </c>
       <c r="B164">
-        <v>7.361458093076503</v>
+        <v>7.3588778350704125</v>
       </c>
       <c r="C164">
-        <v>1.51396500327803e-7</v>
+        <v>2.7976425103539303e-7</v>
       </c>
       <c r="D164">
-        <v>0.00027925218649054465</v>
+        <v>0.0002802989243954917</v>
       </c>
       <c r="E164">
-        <v>0.001984556902037892</v>
+        <v>0.001984228304365959</v>
       </c>
       <c r="F164">
-        <v>4.8812897717692e-5</v>
+        <v>4.881173353402921e-5</v>
       </c>
       <c r="G164">
-        <v>7.361456586063575</v>
+        <v>7.358877005047214</v>
       </c>
       <c r="H164">
-        <v>1.5140474943515337e-7</v>
+        <v>2.7977189260840953e-7</v>
       </c>
       <c r="I164">
-        <v>0.000279252222063557</v>
+        <v>0.000280298924899614</v>
       </c>
       <c r="J164">
-        <v>0.001984556570785479</v>
+        <v>0.0019842281241803875</v>
       </c>
       <c r="K164">
-        <v>4.881286720222485e-5</v>
+        <v>4.881171703839975e-5</v>
       </c>
     </row>
     <row r="165" spans="1:11">
@@ -6160,34 +6160,34 @@
         <v>0.1135</v>
       </c>
       <c r="B165">
-        <v>7.362271217222451</v>
+        <v>7.359782199905881</v>
       </c>
       <c r="C165">
-        <v>1.473592603190576e-7</v>
+        <v>2.723038710077788e-7</v>
       </c>
       <c r="D165">
-        <v>0.00028202366886308754</v>
+        <v>0.0002830347382057804</v>
       </c>
       <c r="E165">
-        <v>0.0019849767865244036</v>
+        <v>0.0019846601621178015</v>
       </c>
       <c r="F165">
-        <v>4.881748495018116e-5</v>
+        <v>4.881635945154582e-5</v>
       </c>
       <c r="G165">
-        <v>7.362269740426545</v>
+        <v>7.359781390830384</v>
       </c>
       <c r="H165">
-        <v>1.4736728989080463e-7</v>
+        <v>2.723113096219985e-7</v>
       </c>
       <c r="I165">
-        <v>0.0002820237044631339</v>
+        <v>0.00028303473876351644</v>
       </c>
       <c r="J165">
-        <v>0.001984976461179212</v>
+        <v>0.0019846599860672914</v>
       </c>
       <c r="K165">
-        <v>4.881745499922606e-5</v>
+        <v>4.881634334711882e-5</v>
       </c>
     </row>
     <row r="166" spans="1:11">
@@ -6195,34 +6195,34 @@
         <v>0.1145</v>
       </c>
       <c r="B166">
-        <v>7.363081291304114</v>
+        <v>7.36068212653725</v>
       </c>
       <c r="C166">
-        <v>1.4332202031035095e-7</v>
+        <v>2.648434909802032e-7</v>
       </c>
       <c r="D166">
-        <v>0.00028479485982200575</v>
+        <v>0.00028577072738518845</v>
       </c>
       <c r="E166">
-        <v>0.0019853961884252753</v>
+        <v>0.001985091332220569</v>
       </c>
       <c r="F166">
-        <v>4.8822071529866016e-5</v>
+        <v>4.88209842574471e-5</v>
       </c>
       <c r="G166">
-        <v>7.363079844096157</v>
+        <v>7.360681337872092</v>
       </c>
       <c r="H166">
-        <v>1.4332983032225177e-7</v>
+        <v>2.64850726590985e-7</v>
       </c>
       <c r="I166">
-        <v>0.0002847948954804573</v>
+        <v>0.0002857707280352999</v>
       </c>
       <c r="J166">
-        <v>0.0019853958688902276</v>
+        <v>0.001985091160219573</v>
       </c>
       <c r="K166">
-        <v>4.882204213290241e-5</v>
+        <v>4.8820968534905356e-5</v>
       </c>
     </row>
     <row r="167" spans="1:11">
@@ -6230,34 +6230,34 @@
         <v>0.1155</v>
       </c>
       <c r="B167">
-        <v>7.363888333526755</v>
+        <v>7.361577647886054</v>
       </c>
       <c r="C167">
-        <v>1.3928478030160555e-7</v>
+        <v>2.5738311095258897e-7</v>
       </c>
       <c r="D167">
-        <v>0.00028756576159708454</v>
+        <v>0.0002885068902974362</v>
       </c>
       <c r="E167">
-        <v>0.0019858151114849373</v>
+        <v>0.001985521821191382</v>
       </c>
       <c r="F167">
-        <v>4.882665745838413e-5</v>
+        <v>4.8825607955761696e-5</v>
       </c>
       <c r="G167">
-        <v>7.363886915291038</v>
+        <v>7.361576879108101</v>
       </c>
       <c r="H167">
-        <v>1.3929237072949473e-7</v>
+        <v>2.5739014351536904e-7</v>
       </c>
       <c r="I167">
-        <v>0.00028756579734557134</v>
+        <v>0.0002885068910785913</v>
       </c>
       <c r="J167">
-        <v>0.001985814797664709</v>
+        <v>0.001985521653156387</v>
       </c>
       <c r="K167">
-        <v>4.882662860509461e-5</v>
+        <v>4.8825592606018125e-5</v>
       </c>
     </row>
     <row r="168" spans="1:11">
@@ -6265,34 +6265,34 @@
         <v>0.1165</v>
       </c>
       <c r="B168">
-        <v>7.364692361949431</v>
+        <v>7.362468796559909</v>
       </c>
       <c r="C168">
-        <v>1.352475402928214e-7</v>
+        <v>2.499227309249361e-7</v>
       </c>
       <c r="D168">
-        <v>0.0002903363763955305</v>
+        <v>0.0002912432253260936</v>
       </c>
       <c r="E168">
-        <v>0.001986233559409647</v>
+        <v>0.0019859516354676643</v>
       </c>
       <c r="F168">
-        <v>4.8831242737374e-5</v>
+        <v>4.883023055051594e-5</v>
       </c>
       <c r="G168">
-        <v>7.3646909720833165</v>
+        <v>7.362468047159876</v>
       </c>
       <c r="H168">
-        <v>1.352549111125336e-7</v>
+        <v>2.4992956039515067e-7</v>
       </c>
       <c r="I168">
-        <v>0.00029033641226592396</v>
+        <v>0.0002912432262768584</v>
       </c>
       <c r="J168">
-        <v>0.0019862332512106395</v>
+        <v>0.001985951471317152</v>
       </c>
       <c r="K168">
-        <v>4.883121441764017e-5</v>
+        <v>4.8830215564707806e-5</v>
       </c>
     </row>
     <row r="169" spans="1:11">
@@ -6300,34 +6300,34 @@
         <v>0.11750000000000001</v>
       </c>
       <c r="B169">
-        <v>7.36549339448643</v>
+        <v>7.363355604855938</v>
       </c>
       <c r="C169">
-        <v>1.3121030028410922e-7</v>
+        <v>2.42462350897355e-7</v>
       </c>
       <c r="D169">
-        <v>0.00029310670640224953</v>
+        <v>0.0002939797308742929</v>
       </c>
       <c r="E169">
-        <v>0.0019866515358679636</v>
+        <v>0.0019863807814083016</v>
       </c>
       <c r="F169">
-        <v>4.883582736847476e-5</v>
+        <v>4.8834852045733394e-5</v>
       </c>
       <c r="G169">
-        <v>7.365492032400067</v>
+        <v>7.3633548743380155</v>
       </c>
       <c r="H169">
-        <v>1.3121745147136827e-7</v>
+        <v>2.424689772303298e-7</v>
       </c>
       <c r="I169">
-        <v>0.00029310674242664583</v>
+        <v>0.00029397973203312204</v>
       </c>
       <c r="J169">
-        <v>0.001986651233198277</v>
+        <v>0.001986380621062703</v>
       </c>
       <c r="K169">
-        <v>4.8835799572373496e-5</v>
+        <v>4.883483741521678e-5</v>
       </c>
     </row>
     <row r="170" spans="1:11">
@@ -6335,34 +6335,34 @@
         <v>0.11850000000000001</v>
       </c>
       <c r="B170">
-        <v>7.366291448908674</v>
+        <v>7.364238104764163</v>
       </c>
       <c r="C170">
-        <v>1.2717306027536382e-7</v>
+        <v>2.3500197086974076e-7</v>
       </c>
       <c r="D170">
-        <v>0.00029587675378012093</v>
+        <v>0.00029671640536444506</v>
       </c>
       <c r="E170">
-        <v>0.001987069044491212</v>
+        <v>0.001986809265294778</v>
       </c>
       <c r="F170">
-        <v>4.8840411353326185e-5</v>
+        <v>4.883947244543449e-5</v>
       </c>
       <c r="G170">
-        <v>7.366290114024723</v>
+        <v>7.3642373926456575</v>
       </c>
       <c r="H170">
-        <v>1.271799918059988e-7</v>
+        <v>2.3500839402090656e-7</v>
       </c>
       <c r="I170">
-        <v>0.0002958767899908254</v>
+        <v>0.000296716406769674</v>
       </c>
       <c r="J170">
-        <v>0.0019870687472606182</v>
+        <v>0.0019868091086764354</v>
       </c>
       <c r="K170">
-        <v>4.884038407112568e-5</v>
+        <v>4.883945816177881e-5</v>
       </c>
     </row>
     <row r="171" spans="1:11">
@@ -6370,34 +6370,34 @@
         <v>0.11950000000000001</v>
       </c>
       <c r="B171">
-        <v>7.367086542845121</v>
+        <v>7.365116327970854</v>
       </c>
       <c r="C171">
-        <v>1.231358202666461e-7</v>
+        <v>2.2754159084215413e-7</v>
       </c>
       <c r="D171">
-        <v>0.00029864652067026863</v>
+        <v>0.0002994532472379624</v>
       </c>
       <c r="E171">
-        <v>0.001987486088873947</v>
+        <v>0.0019872370933323035</v>
       </c>
       <c r="F171">
-        <v>4.8844994693568474e-5</v>
+        <v>4.884409175363606e-5</v>
       </c>
       <c r="G171">
-        <v>7.367085234598483</v>
+        <v>7.3651156337818415</v>
       </c>
       <c r="H171">
-        <v>1.2314253211642518e-7</v>
+        <v>2.2754781076688083e-7</v>
       </c>
       <c r="I171">
-        <v>0.00029864655709977984</v>
+        <v>0.0002994532489277999</v>
       </c>
       <c r="J171">
-        <v>0.0019874857969938587</v>
+        <v>0.001987236940365428</v>
       </c>
       <c r="K171">
-        <v>4.8844967915724555e-5</v>
+        <v>4.884407780861878e-5</v>
       </c>
     </row>
     <row r="172" spans="1:11">
@@ -6405,34 +6405,34 @@
         <v>0.12050000000000001</v>
       </c>
       <c r="B172">
-        <v>7.367878693784161</v>
+        <v>7.3659903058618585</v>
       </c>
       <c r="C172">
-        <v>1.1909858025786748e-7</v>
+        <v>2.2008121081450677e-7</v>
       </c>
       <c r="D172">
-        <v>0.0003014160091923263</v>
+        <v>0.0003021902549549839</v>
       </c>
       <c r="E172">
-        <v>0.0019879026725743982</v>
+        <v>0.001987664271650913</v>
       </c>
       <c r="F172">
-        <v>4.884957739084212e-5</v>
+        <v>4.8848709974350974e-5</v>
       </c>
       <c r="G172">
-        <v>7.367877411621701</v>
+        <v>7.365989629144837</v>
       </c>
       <c r="H172">
-        <v>1.1910507240264742e-7</v>
+        <v>2.200872274682527e-7</v>
       </c>
       <c r="I172">
-        <v>0.00030141604587332254</v>
+        <v>0.00030219025696750525</v>
       </c>
       <c r="J172">
-        <v>0.0019879023859578487</v>
+        <v>0.0019876641222615443</v>
       </c>
       <c r="K172">
-        <v>4.884955110799461e-5</v>
+        <v>4.884869635995241e-5</v>
       </c>
     </row>
     <row r="173" spans="1:11">
@@ -6440,34 +6440,34 @@
         <v>0.1215</v>
       </c>
       <c r="B173">
-        <v>7.368667919074959</v>
+        <v>7.3668600695258695</v>
       </c>
       <c r="C173">
-        <v>1.1506134024917191e-7</v>
+        <v>2.126208307869367e-7</v>
       </c>
       <c r="D173">
-        <v>0.0003041852214447019</v>
+        <v>0.0003049274269941065</v>
       </c>
       <c r="E173">
-        <v>0.001988318799114923</v>
+        <v>0.0019880908063065507</v>
       </c>
       <c r="F173">
-        <v>4.885415944678785e-5</v>
+        <v>4.885332711158771e-5</v>
       </c>
       <c r="G173">
-        <v>7.368666662455258</v>
+        <v>7.366859409835428</v>
       </c>
       <c r="H173">
-        <v>1.1506761266466553e-7</v>
+        <v>2.1262664412502214e-7</v>
       </c>
       <c r="I173">
-        <v>0.00030418525841002645</v>
+        <v>0.0003049274293672471</v>
       </c>
       <c r="J173">
-        <v>0.0019883185176765373</v>
+        <v>0.001988090660422521</v>
       </c>
       <c r="K173">
-        <v>4.885413364975687e-5</v>
+        <v>4.8853313819986024e-5</v>
       </c>
     </row>
     <row r="174" spans="1:11">
@@ -6475,34 +6475,34 @@
         <v>0.12249999999999998</v>
       </c>
       <c r="B174">
-        <v>7.369454235928827</v>
+        <v>7.367725649757677</v>
       </c>
       <c r="C174">
-        <v>1.1102410024039329e-7</v>
+        <v>2.0516045075928932e-7</v>
       </c>
       <c r="D174">
-        <v>0.00030695415950483514</v>
+        <v>0.00030766476185212</v>
       </c>
       <c r="E174">
-        <v>0.0019887344719824447</v>
+        <v>0.0019885167032821405</v>
       </c>
       <c r="F174">
-        <v>4.885874086304636e-5</v>
+        <v>4.885794316935006e-5</v>
       </c>
       <c r="G174">
-        <v>7.36945300432192</v>
+        <v>7.367725006660173</v>
       </c>
       <c r="H174">
-        <v>1.1103015290247952e-7</v>
+        <v>2.0516606073718908e-7</v>
       </c>
       <c r="I174">
-        <v>0.00030695419678748346</v>
+        <v>0.0003076647646236694</v>
       </c>
       <c r="J174">
-        <v>0.001988734195638412</v>
+        <v>0.001988516560833033</v>
       </c>
       <c r="K174">
-        <v>4.8858715542828906e-5</v>
+        <v>4.8857930192916274e-5</v>
       </c>
     </row>
     <row r="175" spans="1:11">
@@ -6510,34 +6510,34 @@
         <v>0.12349999999999998</v>
       </c>
       <c r="B175">
-        <v>7.370237661420551</v>
+        <v>7.368587077061376</v>
       </c>
       <c r="C175">
-        <v>1.0698686023168664e-7</v>
+        <v>1.9770007073171375e-7</v>
       </c>
       <c r="D175">
-        <v>0.00030972282542945446</v>
+        <v>0.00031040225804374624</v>
       </c>
       <c r="E175">
-        <v>0.001989149694628886</v>
+        <v>0.001988941968488636</v>
       </c>
       <c r="F175">
-        <v>4.8863321641258355e-5</v>
+        <v>4.8862558151636686e-5</v>
       </c>
       <c r="G175">
-        <v>7.370236454307684</v>
+        <v>7.368586450134619</v>
       </c>
       <c r="H175">
-        <v>1.0699269311608937e-7</v>
+        <v>1.9770547730475363e-7</v>
       </c>
       <c r="I175">
-        <v>0.0003097228630625605</v>
+        <v>0.0003104022612513434</v>
       </c>
       <c r="J175">
-        <v>0.001989149423296936</v>
+        <v>0.001988941829405747</v>
       </c>
       <c r="K175">
-        <v>4.886329678902481e-5</v>
+        <v>4.886254548292995e-5</v>
       </c>
     </row>
     <row r="176" spans="1:11">
@@ -6545,34 +6545,34 @@
         <v>0.12449999999999999</v>
       </c>
       <c r="B176">
-        <v>7.371018212489724</v>
+        <v>7.369444381653533</v>
       </c>
       <c r="C176">
-        <v>1.0294962022293571e-7</v>
+        <v>1.90239690704094e-7</v>
       </c>
       <c r="D176">
-        <v>0.00031249122125482753</v>
+        <v>0.00031313991410138284</v>
       </c>
       <c r="E176">
-        <v>0.001989564470471595</v>
+        <v>0.0019893666077660495</v>
       </c>
       <c r="F176">
-        <v>4.8867901783064324e-5</v>
+        <v>4.886717206244084e-5</v>
       </c>
       <c r="G176">
-        <v>7.371017029363105</v>
+        <v>7.369443770486484</v>
       </c>
       <c r="H176">
-        <v>1.0295523330549507e-7</v>
+        <v>1.9024489382771578e-7</v>
       </c>
       <c r="I176">
-        <v>0.0003124912592716522</v>
+        <v>0.0003131399177825107</v>
       </c>
       <c r="J176">
-        <v>0.0019895642040709738</v>
+        <v>0.0019893664719823545</v>
       </c>
       <c r="K176">
-        <v>4.886787739015503e-5</v>
+        <v>4.886715969420372e-5</v>
       </c>
     </row>
     <row r="177" spans="1:11">
@@ -6580,34 +6580,34 @@
         <v>0.1255</v>
       </c>
       <c r="B177">
-        <v>7.3717959059420455</v>
+        <v>7.370297593466336</v>
       </c>
       <c r="C177">
-        <v>9.891238021417924e-8</v>
+        <v>1.827793106764687e-7</v>
       </c>
       <c r="D177">
-        <v>0.00031525934899701014</v>
+        <v>0.000315877728574851</v>
       </c>
       <c r="E177">
-        <v>0.0019899788028937687</v>
+        <v>0.0019897906268844744</v>
       </c>
       <c r="F177">
-        <v>4.887248129010443e-5</v>
+        <v>4.887178490574996e-5</v>
       </c>
       <c r="G177">
-        <v>7.371794746304609</v>
+        <v>7.3702969976588015</v>
       </c>
       <c r="H177">
-        <v>9.891777347069666e-8</v>
+        <v>1.827843103060755e-7</v>
       </c>
       <c r="I177">
-        <v>0.0003152593874309295</v>
+        <v>0.0003158777327668324</v>
       </c>
       <c r="J177">
-        <v>0.0019899785413452125</v>
+        <v>0.0019897904943345893</v>
       </c>
       <c r="K177">
-        <v>4.887245734802641e-5</v>
+        <v>4.8871772830903894e-5</v>
       </c>
     </row>
     <row r="178" spans="1:11">
@@ -6615,34 +6615,34 @@
         <v>0.1265</v>
       </c>
       <c r="B178">
-        <v>7.372570758450613</v>
+        <v>7.371146742150686</v>
       </c>
       <c r="C178">
-        <v>9.487514020547814e-8</v>
+        <v>1.7531893064889865e-7</v>
       </c>
       <c r="D178">
-        <v>0.00031802721065209117</v>
+        <v>0.000318615700031147</v>
       </c>
       <c r="E178">
-        <v>0.0019903926952448696</v>
+        <v>0.001990214031545082</v>
       </c>
       <c r="F178">
-        <v>4.8877060164018454e-5</v>
+        <v>4.8876396685545405e-5</v>
       </c>
       <c r="G178">
-        <v>7.372569621815791</v>
+        <v>7.371146161313031</v>
       </c>
       <c r="H178">
-        <v>9.488031361169414e-8</v>
+        <v>1.7532372673983283e-7</v>
       </c>
       <c r="I178">
-        <v>0.00031802724953658483</v>
+        <v>0.0003186157047711406</v>
       </c>
       <c r="J178">
-        <v>0.00199039243847058</v>
+        <v>0.0019902139021652273</v>
       </c>
       <c r="K178">
-        <v>4.887703666444216e-5</v>
+        <v>4.887638489718624e-5</v>
       </c>
     </row>
     <row r="179" spans="1:11">
@@ -6650,34 +6650,34 @@
         <v>0.1275</v>
       </c>
       <c r="B179">
-        <v>7.373342786557217</v>
+        <v>7.3719918570792675</v>
       </c>
       <c r="C179">
-        <v>9.08379001967272e-8</v>
+        <v>1.678585506212789e-7</v>
       </c>
       <c r="D179">
-        <v>0.00032079480819643345</v>
+        <v>0.00032135382705419805</v>
       </c>
       <c r="E179">
-        <v>0.001990806150841032</v>
+        <v>0.001990636827381103</v>
       </c>
       <c r="F179">
-        <v>4.888163840644561e-5</v>
+        <v>4.8881007405802075e-5</v>
       </c>
       <c r="G179">
-        <v>7.3733416724487055</v>
+        <v>7.371991290832134</v>
       </c>
       <c r="H179">
-        <v>9.084285372848752e-8</v>
+        <v>1.6786314312898778e-7</v>
       </c>
       <c r="I179">
-        <v>0.0003207948475650742</v>
+        <v>0.00032135383237919516</v>
       </c>
       <c r="J179">
-        <v>0.0019908058987646517</v>
+        <v>0.0019906367011090715</v>
       </c>
       <c r="K179">
-        <v>4.8881615341201714e-5</v>
+        <v>4.8880995897195764e-5</v>
       </c>
     </row>
     <row r="180" spans="1:11">
@@ -6685,34 +6685,34 @@
         <v>0.1285</v>
       </c>
       <c r="B180">
-        <v>7.374112006673588</v>
+        <v>7.372832967349582</v>
       </c>
       <c r="C180">
-        <v>8.680066018797626e-8</v>
+        <v>1.6039817059365915e-7</v>
       </c>
       <c r="D180">
-        <v>0.0003235621435869125</v>
+        <v>0.0003240921082446227</v>
       </c>
       <c r="E180">
-        <v>0.0019912191729654673</v>
+        <v>0.0019910590199588027</v>
       </c>
       <c r="F180">
-        <v>4.8886216019024485e-5</v>
+        <v>4.8885617070488176e-5</v>
       </c>
       <c r="G180">
-        <v>7.37411091462513</v>
+        <v>7.372832415323617</v>
       </c>
       <c r="H180">
-        <v>8.680539382107676e-8</v>
+        <v>1.604025594735403e-7</v>
       </c>
       <c r="I180">
-        <v>0.00032356218347335544</v>
+        <v>0.0003240921141914434</v>
       </c>
       <c r="J180">
-        <v>0.0019912189255120597</v>
+        <v>0.0019910588967339215</v>
       </c>
       <c r="K180">
-        <v>4.888619338010076e-5</v>
+        <v>4.888560583506651e-5</v>
       </c>
     </row>
     <row r="181" spans="1:11">
@@ -6720,34 +6720,34 @@
         <v>0.1295</v>
       </c>
       <c r="B181">
-        <v>7.374878435082665</v>
+        <v>7.37367010178695</v>
       </c>
       <c r="C181">
-        <v>8.276342017923086e-8</v>
+        <v>1.529377905660449e-7</v>
       </c>
       <c r="D181">
-        <v>0.00032632921876114975</v>
+        <v>0.00032683054221949333</v>
       </c>
       <c r="E181">
-        <v>0.0019916317648688677</v>
+        <v>0.0019914806147784273</v>
       </c>
       <c r="F181">
-        <v>4.8890793003392926e-5</v>
+        <v>4.8890225683564855e-5</v>
       </c>
       <c r="G181">
-        <v>7.374877364637829</v>
+        <v>7.373669563622535</v>
       </c>
       <c r="H181">
-        <v>8.276793388946189e-8</v>
+        <v>1.5294197577349038e-7</v>
       </c>
       <c r="I181">
-        <v>0.0003263292591991235</v>
+        <v>0.0003268305488247842</v>
       </c>
       <c r="J181">
-        <v>0.0019916315219648865</v>
+        <v>0.001991480494541525</v>
       </c>
       <c r="K181">
-        <v>4.889077078293117e-5</v>
+        <v>4.8890214714921395e-5</v>
       </c>
     </row>
     <row r="182" spans="1:11">
@@ -6755,34 +6755,34 @@
         <v>0.1305</v>
       </c>
       <c r="B182">
-        <v>7.375642087939816</v>
+        <v>7.374503288947473</v>
       </c>
       <c r="C182">
-        <v>7.872618017047715e-8</v>
+        <v>1.4547741053842515e-7</v>
       </c>
       <c r="D182">
-        <v>0.0003290960356377458</v>
+        <v>0.00032956912761210436</v>
       </c>
       <c r="E182">
-        <v>0.0019920439297697865</v>
+        <v>0.001991901617275141</v>
       </c>
       <c r="F182">
-        <v>4.8895369361187915e-5</v>
+        <v>4.889483324898594e-5</v>
       </c>
       <c r="G182">
-        <v>7.37564103865179</v>
+        <v>7.374502764294464</v>
       </c>
       <c r="H182">
-        <v>7.873047393364289e-8</v>
+        <v>1.4548139202883805e-7</v>
       </c>
       <c r="I182">
-        <v>0.0003290960766610421</v>
+        <v>0.00032956913491233596</v>
       </c>
       <c r="J182">
-        <v>0.0019920436913430607</v>
+        <v>0.0019919014999685183</v>
       </c>
       <c r="K182">
-        <v>4.889534755148096e-5</v>
+        <v>4.889482254087196e-5</v>
       </c>
     </row>
     <row r="183" spans="1:11">
@@ -6790,34 +6790,34 @@
         <v>0.1315</v>
       </c>
       <c r="B183">
-        <v>7.376402981274087</v>
+        <v>7.3753325571209665</v>
       </c>
       <c r="C183">
-        <v>7.468894016177328e-8</v>
+        <v>1.3801703051085233e-7</v>
       </c>
       <c r="D183">
-        <v>0.0003318625961165072</v>
+        <v>0.00033230786307174336</v>
       </c>
       <c r="E183">
-        <v>0.001992455670855038</v>
+        <v>0.001992322032819953</v>
       </c>
       <c r="F183">
-        <v>4.889994509404547e-5</v>
+        <v>4.889943977069769e-5</v>
       </c>
       <c r="G183">
-        <v>7.376401952705458</v>
+        <v>7.375332045638439</v>
       </c>
       <c r="H183">
-        <v>7.469301395361977e-8</v>
+        <v>1.380208082395833e-7</v>
       </c>
       <c r="I183">
-        <v>0.00033186263775897236</v>
+        <v>0.0003323078711032076</v>
       </c>
       <c r="J183">
-        <v>0.0019924554368347443</v>
+        <v>0.0019923219183873454</v>
       </c>
       <c r="K183">
-        <v>4.889992368753425e-5</v>
+        <v>4.889942931701826e-5</v>
       </c>
     </row>
     <row r="184" spans="1:11">
@@ -6825,34 +6825,34 @@
         <v>0.1325</v>
       </c>
       <c r="B184">
-        <v>7.377161130989383</v>
+        <v>7.376157934333853</v>
       </c>
       <c r="C184">
-        <v>7.065170015302235e-8</v>
+        <v>1.3055665048323256e-7</v>
       </c>
       <c r="D184">
-        <v>0.00033462890207867175</v>
+        <v>0.0003350467472634652</v>
       </c>
       <c r="E184">
-        <v>0.001992866991280074</v>
+        <v>0.0019927418667206208</v>
       </c>
       <c r="F184">
-        <v>4.89045202036006e-5</v>
+        <v>4.89040452526385e-5</v>
       </c>
       <c r="G184">
-        <v>7.37716012271195</v>
+        <v>7.376157435689865</v>
       </c>
       <c r="H184">
-        <v>7.065555394939256e-8</v>
+        <v>1.3056022440572607e-7</v>
       </c>
       <c r="I184">
-        <v>0.00033462894437419815</v>
+        <v>0.0003350467560622742</v>
       </c>
       <c r="J184">
-        <v>0.001992866761596713</v>
+        <v>0.0019927417551071683</v>
       </c>
       <c r="K184">
-        <v>4.890449919287125e-5</v>
+        <v>4.890403504744871e-5</v>
       </c>
     </row>
     <row r="185" spans="1:11">
@@ -6860,34 +6860,34 @@
         <v>0.1335</v>
       </c>
       <c r="B185">
-        <v>7.377916552865692</v>
+        <v>7.376979448352039</v>
       </c>
       <c r="C185">
-        <v>6.661446014423819e-8</v>
+        <v>1.2309627045557967e-7</v>
       </c>
       <c r="D185">
-        <v>0.0003373949553871309</v>
+        <v>0.0003377857788678715</v>
       </c>
       <c r="E185">
-        <v>0.0019932778941693574</v>
+        <v>0.001993161124222542</v>
       </c>
       <c r="F185">
-        <v>4.890909469148712e-5</v>
+        <v>4.890864969873863e-5</v>
       </c>
       <c r="G185">
-        <v>7.377915564460254</v>
+        <v>7.3769789622233795</v>
       </c>
       <c r="H185">
-        <v>6.661809392096124e-8</v>
+        <v>1.2309964052726642e-7</v>
       </c>
       <c r="I185">
-        <v>0.00033739499836964854</v>
+        <v>0.0003377857884699553</v>
       </c>
       <c r="J185">
-        <v>0.001993277668754736</v>
+        <v>0.0019931610153747603</v>
       </c>
       <c r="K185">
-        <v>4.890907406926814e-5</v>
+        <v>4.890863973623982e-5</v>
       </c>
     </row>
     <row r="186" spans="1:11">
@@ -6895,34 +6895,34 @@
         <v>0.1345</v>
       </c>
       <c r="B186">
-        <v>7.378669262560255</v>
+        <v>7.377797126683733</v>
       </c>
       <c r="C186">
-        <v>6.257722013552879e-8</v>
+        <v>1.1563589042799856e-7</v>
       </c>
       <c r="D186">
-        <v>0.0003401607578866478</v>
+        <v>0.00034052495658089174</v>
       </c>
       <c r="E186">
-        <v>0.001993688382616738</v>
+        <v>0.001993579810509638</v>
       </c>
       <c r="F186">
-        <v>4.8913668559337636e-5</v>
+        <v>4.8913253112919964e-5</v>
       </c>
       <c r="G186">
-        <v>7.378668293616426</v>
+        <v>7.377796652755699</v>
       </c>
       <c r="H186">
-        <v>6.25806338683258e-8</v>
+        <v>1.1563905660420434e-7</v>
       </c>
       <c r="I186">
-        <v>0.00034016080159011655</v>
+        <v>0.0003405249670219971</v>
       </c>
       <c r="J186">
-        <v>0.0019936881614039436</v>
+        <v>0.0019935797043753845</v>
       </c>
       <c r="K186">
-        <v>4.891364831849712e-5</v>
+        <v>4.891324338745614e-5</v>
       </c>
     </row>
     <row r="187" spans="1:11">
@@ -6930,34 +6930,34 @@
         <v>0.1355</v>
       </c>
       <c r="B187">
-        <v>7.3794192756087424</v>
+        <v>7.3786109965822595</v>
       </c>
       <c r="C187">
-        <v>5.853998012678338e-8</v>
+        <v>1.0817551040038433e-7</v>
       </c>
       <c r="D187">
-        <v>0.00034292631140407333</v>
+        <v>0.00034326427911356914</v>
       </c>
       <c r="E187">
-        <v>0.001994098459685817</v>
+        <v>0.001993997930705211</v>
       </c>
       <c r="F187">
-        <v>4.891824180878339e-5</v>
+        <v>4.891785549909579e-5</v>
       </c>
       <c r="G187">
-        <v>7.379418325724757</v>
+        <v>7.3786105345484225</v>
       </c>
       <c r="H187">
-        <v>5.854317379148624e-8</v>
+        <v>1.0817847263653984e-7</v>
       </c>
       <c r="I187">
-        <v>0.0003429263558624758</v>
+        <v>0.00034326429042925863</v>
       </c>
       <c r="J187">
-        <v>0.001994098242609197</v>
+        <v>0.001993997827233658</v>
       </c>
       <c r="K187">
-        <v>4.891822194232633e-5</v>
+        <v>4.891784600515007e-5</v>
       </c>
     </row>
     <row r="188" spans="1:11">
@@ -6965,34 +6965,34 @@
         <v>0.1365</v>
       </c>
       <c r="B188">
-        <v>7.380166607426417</v>
+        <v>7.379421085048822</v>
       </c>
       <c r="C188">
-        <v>5.4502740118073976e-8</v>
+        <v>1.00715130372806e-7</v>
       </c>
       <c r="D188">
-        <v>0.0003456916177485589</v>
+        <v>0.000346003745191849</v>
       </c>
       <c r="E188">
-        <v>0.0019945081284103066</v>
+        <v>0.001994415489872802</v>
       </c>
       <c r="F188">
-        <v>4.892281444145423e-5</v>
+        <v>4.8922456861170575e-5</v>
       </c>
       <c r="G188">
-        <v>7.380165676208941</v>
+        <v>7.379420634610807</v>
       </c>
       <c r="H188">
-        <v>5.4505713690442585e-8</v>
+        <v>1.0071788862427291e-7</v>
       </c>
       <c r="I188">
-        <v>0.00034569166299589285</v>
+        <v>0.0003460037574175004</v>
       </c>
       <c r="J188">
-        <v>0.0019945079154054493</v>
+        <v>0.0019944153890144056</v>
       </c>
       <c r="K188">
-        <v>4.8922794942519834e-5</v>
+        <v>4.8922447593361704e-5</v>
       </c>
     </row>
     <row r="189" spans="1:11">
@@ -7000,34 +7000,34 @@
         <v>0.1375</v>
       </c>
       <c r="B189">
-        <v>7.380911273309271</v>
+        <v>7.38022741883523</v>
       </c>
       <c r="C189">
-        <v>5.0465500109325804e-8</v>
+        <v>9.3254750345189e-8</v>
       </c>
       <c r="D189">
-        <v>0.0003484566787117665</v>
+        <v>0.00034874335355637183</v>
       </c>
       <c r="E189">
-        <v>0.001994917391794387</v>
+        <v>0.0019948324930170237</v>
       </c>
       <c r="F189">
-        <v>4.892738645897847e-5</v>
+        <v>4.892705720303966e-5</v>
       </c>
       <c r="G189">
-        <v>7.380910360373229</v>
+        <v>7.380226979702509</v>
       </c>
       <c r="H189">
-        <v>5.046825356519482e-8</v>
+        <v>9.325730456740355e-8</v>
       </c>
       <c r="I189">
-        <v>0.00034845672478203845</v>
+        <v>0.0003487433667271769</v>
       </c>
       <c r="J189">
-        <v>0.0019949171827980984</v>
+        <v>0.001994832394723496</v>
       </c>
       <c r="K189">
-        <v>4.892736732083758e-5</v>
+        <v>4.89270481561187e-5</v>
       </c>
     </row>
     <row r="190" spans="1:11">
@@ -7035,34 +7035,34 @@
         <v>0.1385</v>
       </c>
       <c r="B190">
-        <v>7.381653288435172</v>
+        <v>7.381030024446622</v>
       </c>
       <c r="C190">
-        <v>4.6428260100538874e-8</v>
+        <v>8.579437031753334e-8</v>
       </c>
       <c r="D190">
-        <v>0.0003512214960680747</v>
+        <v>0.00035148310296226825</v>
       </c>
       <c r="E190">
-        <v>0.001995326252813058</v>
+        <v>0.001995248945084383</v>
       </c>
       <c r="F190">
-        <v>4.893195786298285e-5</v>
+        <v>4.893165652858914e-5</v>
       </c>
       <c r="G190">
-        <v>7.3816523934035585</v>
+        <v>7.381029596336297</v>
       </c>
       <c r="H190">
-        <v>4.643079341574295e-8</v>
+        <v>8.579672046593178e-8</v>
       </c>
       <c r="I190">
-        <v>0.0003512215429952937</v>
+        <v>0.0003514831171132326</v>
       </c>
       <c r="J190">
-        <v>0.0019953260477633405</v>
+        <v>0.0019952488493086636</v>
       </c>
       <c r="K190">
-        <v>4.8931939079035335e-5</v>
+        <v>4.8931647697436174e-5</v>
       </c>
     </row>
     <row r="191" spans="1:11">
@@ -7070,34 +7070,34 @@
         <v>0.1395</v>
       </c>
       <c r="B191">
-        <v>7.382392667864969</v>
+        <v>7.381828928144125</v>
       </c>
       <c r="C191">
-        <v>4.239102009182947e-8</v>
+        <v>7.8333990289955e-8</v>
       </c>
       <c r="D191">
-        <v>0.0003539860715747845</v>
+        <v>0.00035422299217895766</v>
       </c>
       <c r="E191">
-        <v>0.0019957347144124856</v>
+        <v>0.001995664850964097</v>
       </c>
       <c r="F191">
-        <v>4.893652865509241e-5</v>
+        <v>4.893625484169561e-5</v>
       </c>
       <c r="G191">
-        <v>7.382391790368687</v>
+        <v>7.381828510780727</v>
       </c>
       <c r="H191">
-        <v>4.239333324208697e-8</v>
+        <v>7.833613631985757e-8</v>
       </c>
       <c r="I191">
-        <v>0.00035398611939295514</v>
+        <v>0.00035422300734490054</v>
       </c>
       <c r="J191">
-        <v>0.001995734513248519</v>
+        <v>0.0019956647576603245</v>
       </c>
       <c r="K191">
-        <v>4.893651021886472e-5</v>
+        <v>4.8936246221316536e-5</v>
       </c>
     </row>
     <row r="192" spans="1:11">
@@ -7105,34 +7105,34 @@
         <v>0.1405</v>
       </c>
       <c r="B192">
-        <v>7.383129426543619</v>
+        <v>7.382624155947507</v>
       </c>
       <c r="C192">
-        <v>3.835378008308407e-8</v>
+        <v>7.087361026233938e-8</v>
       </c>
       <c r="D192">
-        <v>0.00035675040697231877</v>
+        <v>0.0003569630199899507</v>
       </c>
       <c r="E192">
-        <v>0.0019961427795103393</v>
+        <v>0.001996080215488884</v>
       </c>
       <c r="F192">
-        <v>4.894109883693047e-5</v>
+        <v>4.8940852146225954e-5</v>
       </c>
       <c r="G192">
-        <v>7.383128566221301</v>
+        <v>7.382623749062799</v>
       </c>
       <c r="H192">
-        <v>3.8355873044226904e-8</v>
+        <v>7.087555212918096e-8</v>
       </c>
       <c r="I192">
-        <v>0.00035675045571543606</v>
+        <v>0.0003569630362055051</v>
       </c>
       <c r="J192">
-        <v>0.001996142582172463</v>
+        <v>0.00199608012461237</v>
       </c>
       <c r="K192">
-        <v>4.894108074207308e-5</v>
+        <v>4.8940843731749413e-5</v>
       </c>
     </row>
     <row r="193" spans="1:11">
@@ -7140,34 +7140,34 @@
         <v>0.14150000000000001</v>
       </c>
       <c r="B193">
-        <v>7.383863579301272</v>
+        <v>7.383415733637784</v>
       </c>
       <c r="C193">
-        <v>3.4316540074376045e-8</v>
+        <v>6.341323023476242e-8</v>
       </c>
       <c r="D193">
-        <v>0.0003595145039844219</v>
+        <v>0.0003597031851926538</v>
       </c>
       <c r="E193">
-        <v>0.001996550450996134</v>
+        <v>0.0019964950434357546</v>
       </c>
       <c r="F193">
-        <v>4.8945668410118486e-5</v>
+        <v>4.8945448446037174e-5</v>
       </c>
       <c r="G193">
-        <v>7.3838627357991165</v>
+        <v>7.383415336970568</v>
       </c>
       <c r="H193">
-        <v>3.431841282216274e-8</v>
+        <v>6.341496789390193e-8</v>
       </c>
       <c r="I193">
-        <v>0.00035951455368646556</v>
+        <v>0.0003597032024922666</v>
       </c>
       <c r="J193">
-        <v>0.001996550257425822</v>
+        <v>0.0019964949549429564</v>
       </c>
       <c r="K193">
-        <v>4.8945650650403604e-5</v>
+        <v>4.894544023271146e-5</v>
       </c>
     </row>
     <row r="194" spans="1:11">
@@ -7175,34 +7175,34 @@
         <v>0.14250000000000002</v>
       </c>
       <c r="B194">
-        <v>7.384595140854364</v>
+        <v>7.384203686759805</v>
       </c>
       <c r="C194">
-        <v>3.02793000655905e-8</v>
+        <v>5.595285020710815e-8</v>
       </c>
       <c r="D194">
-        <v>0.00036227836431835506</v>
+        <v>0.00036244348659817825</v>
       </c>
       <c r="E194">
-        <v>0.0019969577317315588</v>
+        <v>0.0019969093395267802</v>
       </c>
       <c r="F194">
-        <v>4.8950237376276e-5</v>
+        <v>4.89500437449762e-5</v>
       </c>
       <c r="G194">
-        <v>7.384594313825971</v>
+        <v>7.384203300055735</v>
       </c>
       <c r="H194">
-        <v>3.028095257589447e-8</v>
+        <v>5.595438361402048e-8</v>
       </c>
       <c r="I194">
-        <v>0.00036227841501328427</v>
+        <v>0.00036244350501610977</v>
       </c>
       <c r="J194">
-        <v>0.001996957541871406</v>
+        <v>0.0019969092533752763</v>
       </c>
       <c r="K194">
-        <v>4.8950219945595134e-5</v>
+        <v>4.8950035728166306e-5</v>
       </c>
     </row>
     <row r="195" spans="1:11">
@@ -7210,34 +7210,34 @@
         <v>0.14350000000000002</v>
       </c>
       <c r="B195">
-        <v>7.38532412580668</v>
+        <v>7.384988040624805</v>
       </c>
       <c r="C195">
-        <v>2.624206005684233e-8</v>
+        <v>4.849247017949115e-8</v>
       </c>
       <c r="D195">
-        <v>0.00036504198966508987</v>
+        <v>0.00036518392303115004</v>
       </c>
       <c r="E195">
-        <v>0.001997364624550806</v>
+        <v>0.001997323108429856</v>
       </c>
       <c r="F195">
-        <v>4.895480573702058e-5</v>
+        <v>4.8954638046879694e-5</v>
       </c>
       <c r="G195">
-        <v>7.385323314912901</v>
+        <v>7.384987663636205</v>
       </c>
       <c r="H195">
-        <v>2.6243492305422115e-8</v>
+        <v>4.849379928953662e-8</v>
       </c>
       <c r="I195">
-        <v>0.0003650420413868381</v>
+        <v>0.0003651839426014756</v>
       </c>
       <c r="J195">
-        <v>0.001997364438344505</v>
+        <v>0.00199732302457832</v>
       </c>
       <c r="K195">
-        <v>4.8954788629382215e-5</v>
+        <v>4.895463022206447e-5</v>
       </c>
     </row>
     <row r="196" spans="1:11">
@@ -7245,34 +7245,34 @@
         <v>0.14450000000000002</v>
       </c>
       <c r="B196">
-        <v>7.3860505486504335</v>
+        <v>7.385768820312926</v>
       </c>
       <c r="C196">
-        <v>2.2204820048132927e-8</v>
+        <v>4.1032090151912813e-8</v>
       </c>
       <c r="D196">
-        <v>0.00036780538169949847</v>
+        <v>0.0003679244933295257</v>
       </c>
       <c r="E196">
-        <v>0.0019977711322608943</v>
+        <v>0.0019977363547594475</v>
       </c>
       <c r="F196">
-        <v>4.8959373493967745e-5</v>
+        <v>4.895923135557388e-5</v>
       </c>
       <c r="G196">
-        <v>7.386049753559201</v>
+        <v>7.3857684527986125</v>
       </c>
       <c r="H196">
-        <v>2.220603201074567e-8</v>
+        <v>4.1033214920450345e-8</v>
       </c>
       <c r="I196">
-        <v>0.0003678054344819686</v>
+        <v>0.00036792451408613526</v>
       </c>
       <c r="J196">
-        <v>0.001997770949653218</v>
+        <v>0.0019977362731676217</v>
       </c>
       <c r="K196">
-        <v>4.895935670349512e-5</v>
+        <v>4.8959223718343164e-5</v>
       </c>
     </row>
     <row r="197" spans="1:11">
@@ -7280,34 +7280,34 @@
         <v>0.14550000000000002</v>
       </c>
       <c r="B197">
-        <v>7.386774423767299</v>
+        <v>7.386546050675716</v>
       </c>
       <c r="C197">
-        <v>1.8167580039386833e-8</v>
+        <v>3.357171012429719e-8</v>
       </c>
       <c r="D197">
-        <v>0.00037056854208054147</v>
+        <v>0.0003706651963444079</v>
       </c>
       <c r="E197">
-        <v>0.001998177257641984</v>
+        <v>0.001998149083077329</v>
       </c>
       <c r="F197">
-        <v>4.896394064873084e-5</v>
+        <v>4.896382367487441e-5</v>
       </c>
       <c r="G197">
-        <v>7.386773644153486</v>
+        <v>7.386545692400823</v>
       </c>
       <c r="H197">
-        <v>1.816857169186514e-8</v>
+        <v>3.357263050676165e-8</v>
       </c>
       <c r="I197">
-        <v>0.00037056859595760184</v>
+        <v>0.00037066521832100727</v>
       </c>
       <c r="J197">
-        <v>0.0019981770785787683</v>
+        <v>0.001998149003706002</v>
       </c>
       <c r="K197">
-        <v>4.896392416965971e-5</v>
+        <v>4.8963816220926316e-5</v>
       </c>
     </row>
     <row r="198" spans="1:11">
@@ -7315,34 +7315,34 @@
         <v>0.14650000000000002</v>
       </c>
       <c r="B198">
-        <v>7.387495765429461</v>
+        <v>7.387319756338587</v>
       </c>
       <c r="C198">
-        <v>1.4130340030637971e-8</v>
+        <v>2.6111330096679507e-8</v>
       </c>
       <c r="D198">
-        <v>0.0003733314724514538</v>
+        <v>0.0003734060309398663</v>
       </c>
       <c r="E198">
-        <v>0.0019985830034476956</v>
+        <v>0.001998561297893308</v>
       </c>
       <c r="F198">
-        <v>4.8968507202921084e-5</v>
+        <v>4.896841500858615e-5</v>
       </c>
       <c r="G198">
-        <v>7.387495000974731</v>
+        <v>7.387319407074404</v>
       </c>
       <c r="H198">
-        <v>1.413111134878053e-8</v>
+        <v>2.6112046048470544e-8</v>
       </c>
       <c r="I198">
-        <v>0.00037333152745693313</v>
+        <v>0.00037340605416997803</v>
       </c>
       <c r="J198">
-        <v>0.0019985828278758205</v>
+        <v>0.00199856122070429</v>
       </c>
       <c r="K198">
-        <v>4.896849102959749e-5</v>
+        <v>4.8968407733724404e-5</v>
       </c>
     </row>
     <row r="199" spans="1:11">
@@ -7350,34 +7350,34 @@
         <v>0.14750000000000002</v>
       </c>
       <c r="B199">
-        <v>7.388214587800635</v>
+        <v>7.388089961703257</v>
       </c>
       <c r="C199">
-        <v>1.0093100021890842e-8</v>
+        <v>1.8650950069062858e-8</v>
       </c>
       <c r="D199">
-        <v>0.0003760941744399266</v>
+        <v>0.00037614699599276027</v>
       </c>
       <c r="E199">
-        <v>0.001998988372405419</v>
+        <v>0.0019989730036659367</v>
       </c>
       <c r="F199">
-        <v>4.897307315814736e-5</v>
+        <v>4.897300536050306e-5</v>
       </c>
       <c r="G199">
-        <v>7.3882138381932965</v>
+        <v>7.38808962122706</v>
       </c>
       <c r="H199">
-        <v>1.0093650981491831e-8</v>
+        <v>1.8651461545577032e-8</v>
       </c>
       <c r="I199">
-        <v>0.0003760942306076106</v>
+        <v>0.0003761470205097244</v>
       </c>
       <c r="J199">
-        <v>0.0019989882002727877</v>
+        <v>0.0019989729286220385</v>
       </c>
       <c r="K199">
-        <v>4.897305728502559e-5</v>
+        <v>4.897299826063436e-5</v>
       </c>
     </row>
     <row r="200" spans="1:11">
@@ -7385,34 +7385,34 @@
         <v>0.14850000000000002</v>
       </c>
       <c r="B200">
-        <v>7.3889309049371015</v>
+        <v>7.388856690950159</v>
       </c>
       <c r="C200">
-        <v>6.0558600131433646e-9</v>
+        <v>1.1190570041446549e-8</v>
       </c>
       <c r="D200">
-        <v>0.00037885664965828854</v>
+        <v>0.00037888809039256433</v>
       </c>
       <c r="E200">
-        <v>0.0019993933672166155</v>
+        <v>0.001999384204803219</v>
       </c>
       <c r="F200">
-        <v>4.897763851601627e-5</v>
+        <v>4.8977594734408045e-5</v>
       </c>
       <c r="G200">
-        <v>7.388930169871957</v>
+        <v>7.388856359045052</v>
       </c>
       <c r="H200">
-        <v>6.056190589999052e-9</v>
+        <v>1.119087699808111e-8</v>
       </c>
       <c r="I200">
-        <v>0.00037885670702191574</v>
+        <v>0.0003788881162295395</v>
       </c>
       <c r="J200">
-        <v>0.0019993931984721414</v>
+        <v>0.0019993841318682254</v>
       </c>
       <c r="K200">
-        <v>4.897762293765666e-5</v>
+        <v>4.8977587805539535e-5</v>
       </c>
     </row>
     <row r="201" spans="1:11">
@@ -7420,34 +7420,34 @@
         <v>0.14950000000000002</v>
       </c>
       <c r="B201">
-        <v>7.389644730788685</v>
+        <v>7.3896199680408134</v>
       </c>
       <c r="C201">
-        <v>2.018620004434997e-9</v>
+        <v>3.730190013869243e-9</v>
       </c>
       <c r="D201">
-        <v>0.00038161889970368315</v>
+        <v>0.00038162931304119656</v>
       </c>
       <c r="E201">
-        <v>0.001999797990557124</v>
+        <v>0.001999794905663298</v>
       </c>
       <c r="F201">
-        <v>4.898220327813199e-5</v>
+        <v>4.8982183134072814e-5</v>
       </c>
       <c r="G201">
-        <v>7.389644009966905</v>
+        <v>7.3896196444955775</v>
       </c>
       <c r="H201">
-        <v>2.0187301743021947e-9</v>
+        <v>3.730292405982779e-9</v>
       </c>
       <c r="I201">
-        <v>0.00038161895829694144</v>
+        <v>0.0003816293402311611</v>
       </c>
       <c r="J201">
-        <v>0.0019997978251507097</v>
+        <v>0.0019997948348019485</v>
       </c>
       <c r="K201">
-        <v>4.8982187989198955e-5</v>
+        <v>4.8982176372309606e-5</v>
       </c>
     </row>
   </sheetData>

--- a/examples/analytical/pHBB1991/pHBB1991.uniform2x_analytical.solution.xlsx
+++ b/examples/analytical/pHBB1991/pHBB1991.uniform2x_analytical.solution.xlsx
@@ -473,16 +473,16 @@
         <v>8.14258526678637</v>
       </c>
       <c r="H2">
-        <v>0.0002477371074365166</v>
+        <v>0.00024773710743651643</v>
       </c>
       <c r="I2">
-        <v>-1.1488416805375859e-7</v>
+        <v>-1.1488416805373905e-7</v>
       </c>
       <c r="J2">
-        <v>0.0019995475243203362</v>
+        <v>0.001999547524320331</v>
       </c>
       <c r="K2">
-        <v>4.8971471010311926e-5</v>
+        <v>4.89714710103119e-5</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -505,19 +505,19 @@
         <v>4.894556247095243e-5</v>
       </c>
       <c r="G3">
-        <v>8.127532877625281</v>
+        <v>8.12753287762528</v>
       </c>
       <c r="H3">
-        <v>0.00024321132240234152</v>
+        <v>0.00024321132240234106</v>
       </c>
       <c r="I3">
-        <v>-3.4458816550236545e-7</v>
+        <v>-3.4458816550230695e-7</v>
       </c>
       <c r="J3">
-        <v>0.0019986372693818646</v>
+        <v>0.0019986372693818494</v>
       </c>
       <c r="K3">
-        <v>4.8945562499191736e-5</v>
+        <v>4.8945562499191634e-5</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -540,19 +540,19 @@
         <v>4.891979596420215e-5</v>
       </c>
       <c r="G4">
-        <v>8.112179604153821</v>
+        <v>8.11217960415382</v>
       </c>
       <c r="H4">
-        <v>0.0002386855373411095</v>
+        <v>0.00023868553734110874</v>
       </c>
       <c r="I4">
-        <v>-5.742006612639394e-7</v>
+        <v>-5.742006612638419e-7</v>
       </c>
       <c r="J4">
-        <v>0.0019977195689154827</v>
+        <v>0.0019977195689154584</v>
       </c>
       <c r="K4">
-        <v>4.891979601011908e-5</v>
+        <v>4.8919796010118914e-5</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -575,19 +575,19 @@
         <v>4.8894199426474496e-5</v>
       </c>
       <c r="G5">
-        <v>8.096521820498184</v>
+        <v>8.096521820498182</v>
       </c>
       <c r="H5">
-        <v>0.00023415975225282072</v>
+        <v>0.0002341597522528196</v>
       </c>
       <c r="I5">
-        <v>-8.037143046543751e-7</v>
+        <v>-8.037143046542387e-7</v>
       </c>
       <c r="J5">
-        <v>0.0019967939506632115</v>
+        <v>0.001996793950663178</v>
       </c>
       <c r="K5">
-        <v>4.889419948916164e-5</v>
+        <v>4.889419948916141e-5</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -610,19 +610,19 @@
         <v>4.8868802641427e-5</v>
       </c>
       <c r="G6">
-        <v>8.080556924711601</v>
+        <v>8.0805569247116</v>
       </c>
       <c r="H6">
-        <v>0.00022963396713747568</v>
+        <v>0.00022963396713747417</v>
       </c>
       <c r="I6">
-        <v>-1.0331211560356772e-6</v>
+        <v>-1.0331211560355019e-6</v>
       </c>
       <c r="J6">
-        <v>0.001995859916034875</v>
+        <v>0.0019958599160348313</v>
       </c>
       <c r="K6">
-        <v>4.886880271994314e-5</v>
+        <v>4.886880271994286e-5</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -645,19 +645,19 @@
         <v>4.8843637216125155e-5</v>
       </c>
       <c r="G7">
-        <v>8.064283526982496</v>
+        <v>8.064283526982491</v>
       </c>
       <c r="H7">
-        <v>0.00022510818199507568</v>
+        <v>0.00022510818199507386</v>
       </c>
       <c r="I7">
-        <v>-1.262412658957653e-6</v>
+        <v>-1.2624126589574388e-6</v>
       </c>
       <c r="J7">
-        <v>0.001994916940872431</v>
+        <v>0.0019949169408723785</v>
       </c>
       <c r="K7">
-        <v>4.88436373094945e-5</v>
+        <v>4.8843637309494166e-5</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -680,19 +680,19 @@
         <v>4.881873653057958e-5</v>
       </c>
       <c r="G8">
-        <v>8.047701651568959</v>
+        <v>8.047701651568952</v>
       </c>
       <c r="H8">
-        <v>0.00022058239682562445</v>
+        <v>0.00022058239682562234</v>
       </c>
       <c r="I8">
-        <v>-1.4915796170223938e-6</v>
+        <v>-1.4915796170221405e-6</v>
       </c>
       <c r="J8">
-        <v>0.0019939644768498014</v>
+        <v>0.00199396447684974</v>
       </c>
       <c r="K8">
-        <v>4.881873663778879e-5</v>
+        <v>4.881873663778841e-5</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -715,19 +715,19 @@
         <v>4.879413564364214e-5</v>
       </c>
       <c r="G9">
-        <v>8.030812949265071</v>
+        <v>8.030812949265064</v>
       </c>
       <c r="H9">
-        <v>0.0002160566116291317</v>
+        <v>0.00021605661162912935</v>
       </c>
       <c r="I9">
-        <v>-1.7206121772983594e-6</v>
+        <v>-1.7206121772980672e-6</v>
       </c>
       <c r="J9">
-        <v>0.0019930019536232003</v>
+        <v>0.001993001953623131</v>
       </c>
       <c r="K9">
-        <v>4.879413576362156e-5</v>
+        <v>4.8794135763621144e-5</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -750,19 +750,19 @@
         <v>4.8769871147863034e-5</v>
       </c>
       <c r="G10">
-        <v>8.013620915730247</v>
+        <v>8.013620915730236</v>
       </c>
       <c r="H10">
-        <v>0.0002115308264056224</v>
+        <v>0.00021153082640561988</v>
       </c>
       <c r="I10">
-        <v>-1.9494998223524844e-6</v>
+        <v>-1.9494998223521532e-6</v>
       </c>
       <c r="J10">
-        <v>0.001992028781845526</v>
+        <v>0.001992028781845449</v>
       </c>
       <c r="K10">
-        <v>4.8769871279399025e-5</v>
+        <v>4.8769871279398564e-5</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -785,19 +785,19 @@
         <v>4.8745980966345855e-5</v>
       </c>
       <c r="G11">
-        <v>7.996131109350044</v>
+        <v>7.996131109350029</v>
       </c>
       <c r="H11">
-        <v>0.00020700504115515975</v>
+        <v>0.00020700504115515718</v>
       </c>
       <c r="I11">
-        <v>-2.1782313731574176e-6</v>
+        <v>-2.178231373157047e-6</v>
       </c>
       <c r="J11">
-        <v>0.0019910443571487125</v>
+        <v>0.001991044357148628</v>
       </c>
       <c r="K11">
-        <v>4.8745981107765486e-5</v>
+        <v>4.8745981107765005e-5</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -820,19 +820,19 @@
         <v>4.8722504085735554e-5</v>
       </c>
       <c r="G12">
-        <v>7.9783513605276735</v>
+        <v>7.978351360527655</v>
       </c>
       <c r="H12">
-        <v>0.00020247925587790037</v>
+        <v>0.00020247925587789768</v>
       </c>
       <c r="I12">
-        <v>-2.406795005227566e-6</v>
+        <v>-2.4067950052271556e-6</v>
       </c>
       <c r="J12">
-        <v>0.0019900480651777663</v>
+        <v>0.0019900480651776752</v>
       </c>
       <c r="K12">
-        <v>4.8722504233988065e-5</v>
+        <v>4.872250423398754e-5</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -855,19 +855,19 @@
         <v>4.869948022135482e-5</v>
       </c>
       <c r="G13">
-        <v>7.960291962560388</v>
+        <v>7.960291962560365</v>
       </c>
       <c r="H13">
-        <v>0.00019795347057422413</v>
+        <v>0.0001979534705742213</v>
       </c>
       <c r="I13">
-        <v>-2.6351782802945127e-6</v>
+        <v>-2.6351782802940638e-6</v>
       </c>
       <c r="J13">
-        <v>0.00198903928772734</v>
+        <v>0.0019890392877272424</v>
       </c>
       <c r="K13">
-        <v>4.8699480369761414e-5</v>
+        <v>4.869948036976087e-5</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -890,19 +890,19 @@
         <v>4.867694941320262e-5</v>
       </c>
       <c r="G14">
-        <v>7.941965832717854</v>
+        <v>7.941965832717829</v>
       </c>
       <c r="H14">
-        <v>0.0001934276852450342</v>
+        <v>0.00019342768524503127</v>
       </c>
       <c r="I14">
-        <v>-2.8633681955945565e-6</v>
+        <v>-2.863368195594068e-6</v>
       </c>
       <c r="J14">
-        <v>0.001988017409984773</v>
+        <v>0.0019880174099846685</v>
       </c>
       <c r="K14">
-        <v>4.8676949546705356e-5</v>
+        <v>4.8676949546704794e-5</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -925,19 +925,19 @@
         <v>4.8654951554976536e-5</v>
       </c>
       <c r="G15">
-        <v>7.923388631042061</v>
+        <v>7.923388631042031</v>
       </c>
       <c r="H15">
-        <v>0.00018890189989243447</v>
+        <v>0.0001889018998924314</v>
       </c>
       <c r="I15">
-        <v>-3.091351252346948e-6</v>
+        <v>-3.09135125234642e-6</v>
       </c>
       <c r="J15">
-        <v>0.00198698182882234</v>
+        <v>0.0019869818288222284</v>
       </c>
       <c r="K15">
-        <v>4.8654951641339494e-5</v>
+        <v>4.865495164133891e-5</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -960,19 +960,19 @@
         <v>4.8633525862316535e-5</v>
       </c>
       <c r="G16">
-        <v>7.9045788239928685</v>
+        <v>7.904578823992833</v>
       </c>
       <c r="H16">
-        <v>0.00018437611452122596</v>
+        <v>0.00018437611452122276</v>
       </c>
       <c r="I16">
-        <v>-3.319113544180823e-6</v>
+        <v>-3.3191135441802555e-6</v>
       </c>
       <c r="J16">
-        <v>0.0019859319620076582</v>
+        <v>0.0019859319620075407</v>
       </c>
       <c r="K16">
-        <v>4.863352583766819e-5</v>
+        <v>4.8633525837667585e-5</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -995,19 +995,19 @@
         <v>4.8612710290874337e-5</v>
       </c>
       <c r="G17">
-        <v>7.885557680632663</v>
+        <v>7.885557680632623</v>
       </c>
       <c r="H17">
-        <v>0.0001798503291421421</v>
+        <v>0.0001798503291421388</v>
       </c>
       <c r="I17">
-        <v>-3.546640865034989e-6</v>
+        <v>-3.546640865034383e-6</v>
       </c>
       <c r="J17">
-        <v>0.001984867258118759</v>
+        <v>0.0019848672581186345</v>
       </c>
       <c r="K17">
-        <v>4.861271003849144e-5</v>
+        <v>4.86127100384908e-5</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1030,19 +1030,19 @@
         <v>4.8592540919348137e-5</v>
       </c>
       <c r="G18">
-        <v>7.866349190794852</v>
+        <v>7.866349190794807</v>
       </c>
       <c r="H18">
-        <v>0.00017532454377869092</v>
+        <v>0.0001753245437786875</v>
       </c>
       <c r="I18">
-        <v>-3.7739188342818895e-6</v>
+        <v>-3.7739188342812445e-6</v>
       </c>
       <c r="J18">
-        <v>0.0019837872068657375</v>
+        <v>0.001983787206865607</v>
       </c>
       <c r="K18">
-        <v>4.859254024181589e-5</v>
+        <v>4.85925402418152e-5</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1065,19 +1065,19 @@
         <v>4.857305131702979e-5</v>
       </c>
       <c r="G19">
-        <v>7.8469798977319005</v>
+        <v>7.846979897731851</v>
       </c>
       <c r="H19">
-        <v>0.0001707987584813091</v>
+        <v>0.00017079875848130557</v>
       </c>
       <c r="I19">
-        <v>-4.000933034303554e-6</v>
+        <v>-4.00093303430287e-6</v>
       </c>
       <c r="J19">
-        <v>0.001982691349443211</v>
+        <v>0.0019826913494430743</v>
       </c>
       <c r="K19">
-        <v>4.8573049903767226e-5</v>
+        <v>4.857304990376652e-5</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1100,19 +1100,19 @@
         <v>4.8554271919368095e-5</v>
       </c>
       <c r="G20">
-        <v>7.827478642053833</v>
+        <v>7.827478642053779</v>
       </c>
       <c r="H20">
-        <v>0.00016627297335600015</v>
+        <v>0.00016627297335599652</v>
       </c>
       <c r="I20">
-        <v>-4.227669152089419e-6</v>
+        <v>-4.2276691520886955e-6</v>
       </c>
       <c r="J20">
-        <v>0.001981579288477477</v>
+        <v>0.001981579288477335</v>
       </c>
       <c r="K20">
-        <v>4.8554269313585765e-5</v>
+        <v>4.855426931358505e-5</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1135,19 +1135,19 @@
         <v>4.853622943812965e-5</v>
       </c>
       <c r="G21">
-        <v>7.807876219121313</v>
+        <v>7.807876219121254</v>
       </c>
       <c r="H21">
-        <v>0.00016174718862099765</v>
+        <v>0.00016174718862099394</v>
       </c>
       <c r="I21">
-        <v>-4.4541131109343135e-6</v>
+        <v>-4.454113110933549e-6</v>
       </c>
       <c r="J21">
-        <v>0.0019804506971004884</v>
+        <v>0.001980450697100342</v>
       </c>
       <c r="K21">
-        <v>4.853622500897388e-5</v>
+        <v>4.853622500897314e-5</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1170,19 +1170,19 @@
         <v>4.8518946334388455e-5</v>
       </c>
       <c r="G22">
-        <v>7.788204958023479</v>
+        <v>7.788204958023414</v>
       </c>
       <c r="H22">
-        <v>0.00015722140471638343</v>
+        <v>0.00015722140471637966</v>
       </c>
       <c r="I22">
-        <v>-4.680251169757011e-6</v>
+        <v>-4.680251169756204e-6</v>
       </c>
       <c r="J22">
-        <v>0.0019793053266890567</v>
+        <v>0.001979305326688906</v>
       </c>
       <c r="K22">
-        <v>4.851893926068999e-5</v>
+        <v>4.851893926068922e-5</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1205,19 +1205,19 @@
         <v>4.8502440382205655e-5</v>
       </c>
       <c r="G23">
-        <v>7.768498236261931</v>
+        <v>7.768498236261863</v>
       </c>
       <c r="H23">
-        <v>0.00015269562251139497</v>
+        <v>0.00015269562251139112</v>
       </c>
       <c r="I23">
-        <v>-4.906069953863008e-6</v>
+        <v>-4.906069953862164e-6</v>
       </c>
       <c r="J23">
-        <v>0.0019781430128587366</v>
+        <v>0.0019781430128585826</v>
       </c>
       <c r="K23">
-        <v>4.850242965347974e-5</v>
+        <v>4.850242965347898e-5</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1240,19 +1240,19 @@
         <v>4.8486724348003856e-5</v>
       </c>
       <c r="G24">
-        <v>7.7487899496074535</v>
+        <v>7.74878994960738</v>
       </c>
       <c r="H24">
-        <v>0.00014816984368761014</v>
+        <v>0.00014816984368760624</v>
       </c>
       <c r="I24">
-        <v>-5.131556358834163e-6</v>
+        <v>-5.131556358833275e-6</v>
       </c>
       <c r="J24">
-        <v>0.001976963679399712</v>
+        <v>0.0019769636793995535</v>
       </c>
       <c r="K24">
-        <v>4.848670878613613e-5</v>
+        <v>4.848670878613538e-5</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1275,19 +1275,19 @@
         <v>4.8471805805153964e-5</v>
       </c>
       <c r="G25">
-        <v>7.729113960655669</v>
+        <v>7.7291139606555905</v>
       </c>
       <c r="H25">
-        <v>0.00014364407143104487</v>
+        <v>0.00014364407143104091</v>
       </c>
       <c r="I25">
-        <v>-5.356697233652055e-6</v>
+        <v>-5.356697233651125e-6</v>
       </c>
       <c r="J25">
-        <v>0.0019757673399838902</v>
+        <v>0.0019757673399837285</v>
       </c>
       <c r="K25">
-        <v>4.847178410698122e-5</v>
+        <v>4.8471784106980466e-5</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1310,19 +1310,19 @@
         <v>4.8457687095508846e-5</v>
       </c>
       <c r="G26">
-        <v>7.709503551897794</v>
+        <v>7.709503551897711</v>
       </c>
       <c r="H26">
-        <v>0.000139118311653342</v>
+        <v>0.000139118311653338</v>
       </c>
       <c r="I26">
-        <v>-5.581478693039814e-6</v>
+        <v>-5.581478693038844e-6</v>
       </c>
       <c r="J26">
-        <v>0.001974554097651418</v>
+        <v>0.001974554097651253</v>
       </c>
       <c r="K26">
-        <v>4.8457657893006905e-5</v>
+        <v>4.845765789300616e-5</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1345,19 +1345,19 @@
         <v>4.844436544036421e-5</v>
       </c>
       <c r="G27">
-        <v>7.689990909417488</v>
+        <v>7.689990909417402</v>
       </c>
       <c r="H27">
-        <v>0.00013459257509618636</v>
+        <v>0.00013459257509618232</v>
       </c>
       <c r="I27">
-        <v>-5.805884822827269e-6</v>
+        <v>-5.805884822826257e-6</v>
       </c>
       <c r="J27">
-        <v>0.0019733241422918765</v>
+        <v>0.001973324142291708</v>
       </c>
       <c r="K27">
-        <v>4.844432737220152e-5</v>
+        <v>4.844432737220079e-5</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1380,19 +1380,19 @@
         <v>4.843183319378547e-5</v>
       </c>
       <c r="G28">
-        <v>7.670606661710923</v>
+        <v>7.670606661710832</v>
       </c>
       <c r="H28">
-        <v>0.00013006688087187061</v>
+        <v>0.00013006688087186652</v>
       </c>
       <c r="I28">
-        <v>-6.029895414106499e-6</v>
+        <v>-6.0298954141054464e-6</v>
       </c>
       <c r="J28">
-        <v>0.001972077746562053</v>
+        <v>0.0019720777465618822</v>
       </c>
       <c r="K28">
-        <v>4.843178498023066e-5</v>
+        <v>4.8431784980229965e-5</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1415,19 +1415,19 @@
         <v>4.8420078222691224e-5</v>
       </c>
       <c r="G29">
-        <v>7.651379494987541</v>
+        <v>7.651379494987448</v>
       </c>
       <c r="H29">
-        <v>0.00012554126227690154</v>
+        <v>0.0001255412622768974</v>
       </c>
       <c r="I29">
-        <v>-6.2534821787879285e-6</v>
+        <v>-6.253482178786837e-6</v>
       </c>
       <c r="J29">
-        <v>0.0019708152609230036</v>
+        <v>0.00197081526092283</v>
       </c>
       <c r="K29">
-        <v>4.8420018735574805e-5</v>
+        <v>4.8420018735574135e-5</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1450,19 +1450,19 @@
         <v>4.840908439161665e-5</v>
       </c>
       <c r="G30">
-        <v>7.632335862240882</v>
+        <v>7.632335862240785</v>
       </c>
       <c r="H30">
-        <v>0.00012101577610446086</v>
+        <v>0.0001210157761044567</v>
       </c>
       <c r="I30">
-        <v>-6.4766026481223245e-6</v>
+        <v>-6.476602648121195e-6</v>
       </c>
       <c r="J30">
-        <v>0.0019695371087334558</v>
+        <v>0.0019695371087332806</v>
       </c>
       <c r="K30">
-        <v>4.840901271215738e-5</v>
+        <v>4.8409012712156736e-5</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1485,19 +1485,19 @@
         <v>4.8398832126358934e-5</v>
       </c>
       <c r="G31">
-        <v>7.6134997990621605</v>
+        <v>7.61349979906206</v>
       </c>
       <c r="H31">
-        <v>0.00011649051718936066</v>
+        <v>0.00011649051718935648</v>
       </c>
       <c r="I31">
-        <v>-6.699190628043065e-6</v>
+        <v>-6.699190628041898e-6</v>
       </c>
       <c r="J31">
-        <v>0.001968243782607815</v>
+        <v>0.0019682437826076386</v>
       </c>
       <c r="K31">
-        <v>4.839874758579014e-5</v>
+        <v>4.8398747585789504e-5</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1520,19 +1520,19 @@
         <v>4.838929902986248e-5</v>
       </c>
       <c r="G32">
-        <v>7.594892855214576</v>
+        <v>7.594892855214474</v>
       </c>
       <c r="H32">
-        <v>0.00011196564054584463</v>
+        <v>0.00011196564054584044</v>
       </c>
       <c r="I32">
-        <v>-6.921141681358743e-6</v>
+        <v>-6.9211416813575356e-6</v>
       </c>
       <c r="J32">
-        <v>0.0019669358435392636</v>
+        <v>0.0019669358435390858</v>
       </c>
       <c r="K32">
-        <v>4.838920123039821e-5</v>
+        <v>4.838920123039759e-5</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1555,19 +1555,19 @@
         <v>4.8380460525362264e-5</v>
       </c>
       <c r="G33">
-        <v>7.576534147794885</v>
+        <v>7.5765341477947805</v>
       </c>
       <c r="H33">
-        <v>0.00010744139417917318</v>
+        <v>0.00010744139417916899</v>
       </c>
       <c r="I33">
-        <v>-7.14229164392327e-6</v>
+        <v>-7.142291643922024e-6</v>
       </c>
       <c r="J33">
-        <v>0.0019656139246009108</v>
+        <v>0.001965613924600732</v>
       </c>
       <c r="K33">
-        <v>4.838034934160129e-5</v>
+        <v>4.838034934160067e-5</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1590,19 +1590,19 @@
         <v>4.837229050521853e-5</v>
       </c>
       <c r="G34">
-        <v>7.558440539471673</v>
+        <v>7.558440539471566</v>
       </c>
       <c r="H34">
-        <v>0.00010291816640344611</v>
+        <v>0.00010291816640344194</v>
       </c>
       <c r="I34">
-        <v>-7.362385701784196e-6</v>
+        <v>-7.362385701782914e-6</v>
       </c>
       <c r="J34">
-        <v>0.001964278741356781</v>
+        <v>0.0019642787413566014</v>
       </c>
       <c r="K34">
-        <v>4.83721660681966e-5</v>
+        <v>4.8372166068196e-5</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1625,19 +1625,19 @@
         <v>4.836476196811077e-5</v>
       </c>
       <c r="G35">
-        <v>7.540626943542866</v>
+        <v>7.540626943542757</v>
       </c>
       <c r="H35">
-        <v>9.839655216693943e-5</v>
+        <v>9.83965521669353e-5</v>
       </c>
       <c r="I35">
-        <v>-7.581035133690423e-6</v>
+        <v>-7.581035133689102e-6</v>
       </c>
       <c r="J35">
-        <v>0.0019629311114039653</v>
+        <v>0.0019629311114037857</v>
       </c>
       <c r="K35">
-        <v>4.836462463565696e-5</v>
+        <v>4.836462463565637e-5</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1660,19 +1660,19 @@
         <v>4.8357847631373746e-5</v>
       </c>
       <c r="G36">
-        <v>7.523106755798847</v>
+        <v>7.523106755798738</v>
       </c>
       <c r="H36">
-        <v>9.387744329938339e-5</v>
+        <v>9.387744329937927e-5</v>
       </c>
       <c r="I36">
-        <v>-7.797658571144965e-6</v>
+        <v>-7.79765857114361e-6</v>
       </c>
       <c r="J36">
-        <v>0.0019615719856627208</v>
+        <v>0.0019615719856625417</v>
       </c>
       <c r="K36">
-        <v>4.835769794916012e-5</v>
+        <v>4.835769794915957e-5</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1695,19 +1695,19 @@
         <v>4.835152050847365e-5</v>
       </c>
       <c r="G37">
-        <v>7.505892410564558</v>
+        <v>7.505892410564447</v>
       </c>
       <c r="H37">
-        <v>8.936214752117751e-5</v>
+        <v>8.936214752117341e-5</v>
       </c>
       <c r="I37">
-        <v>-8.011404696739824e-6</v>
+        <v>-8.011404696738432e-6</v>
       </c>
       <c r="J37">
-        <v>0.0019602024940348476</v>
+        <v>0.0019602024940346685</v>
       </c>
       <c r="K37">
-        <v>4.83513591662534e-5</v>
+        <v>4.8351359166252876e-5</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1730,19 +1730,19 @@
         <v>4.8345754443426364e-5</v>
       </c>
       <c r="G38">
-        <v>7.488996053879004</v>
+        <v>7.488996053878892</v>
       </c>
       <c r="H38">
-        <v>8.485254021714898e-5</v>
+        <v>8.485254021714488e-5</v>
       </c>
       <c r="I38">
-        <v>-8.2210538679193e-6</v>
+        <v>-8.22105386791787e-6</v>
       </c>
       <c r="J38">
-        <v>0.001958824007735014</v>
+        <v>0.001958824007734837</v>
       </c>
       <c r="K38">
-        <v>4.834558223058958e-5</v>
+        <v>4.8345582230589085e-5</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1765,19 +1765,19 @@
         <v>4.834052459417826e-5</v>
       </c>
       <c r="G39">
-        <v>7.472430319717401</v>
+        <v>7.472430319717289</v>
       </c>
       <c r="H39">
-        <v>8.035125109376045e-5</v>
+        <v>8.035125109375637e-5</v>
       </c>
       <c r="I39">
-        <v>-8.424897397855073e-6</v>
+        <v>-8.424897397853608e-6</v>
       </c>
       <c r="J39">
-        <v>0.001957438219820981</v>
+        <v>0.0019574382198208062</v>
       </c>
       <c r="K39">
-        <v>4.834034235809045e-5</v>
+        <v>4.834034235808997e-5</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1800,19 +1800,19 @@
         <v>4.833580785578474e-5</v>
       </c>
       <c r="G40">
-        <v>7.456209184984668</v>
+        <v>7.456209184984556</v>
       </c>
       <c r="H40">
-        <v>7.586188467509128e-5</v>
+        <v>7.586188467508719e-5</v>
       </c>
       <c r="I40">
-        <v>-8.620595293322425e-6</v>
+        <v>-8.620595293320923e-6</v>
       </c>
       <c r="J40">
-        <v>0.0019560472440708562</v>
+        <v>0.001956047244070684</v>
       </c>
       <c r="K40">
-        <v>4.833561646556073e-5</v>
+        <v>4.8335616465560264e-5</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1835,19 +1835,19 @@
         <v>4.833158321215453e-5</v>
       </c>
       <c r="G41">
-        <v>7.440348865821564</v>
+        <v>7.440348865821451</v>
       </c>
       <c r="H41">
-        <v>7.138926904265918e-5</v>
+        <v>7.13892690426551e-5</v>
       </c>
       <c r="I41">
-        <v>-8.805016202243965e-6</v>
+        <v>-8.805016202242423e-6</v>
       </c>
       <c r="J41">
-        <v>0.001954653730286946</v>
+        <v>0.0019546537302867766</v>
       </c>
       <c r="K41">
-        <v>4.833138352967197e-5</v>
+        <v>4.833138352967152e-5</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1870,19 +1870,19 @@
         <v>4.832783200296552e-5</v>
       </c>
       <c r="G42">
-        <v>7.424868702475995</v>
+        <v>7.424868702475882</v>
       </c>
       <c r="H42">
-        <v>6.69397213932506e-5</v>
+        <v>6.693972139324653e-5</v>
       </c>
       <c r="I42">
-        <v>-8.974067082166127e-6</v>
+        <v>-8.974067082164548e-6</v>
       </c>
       <c r="J42">
-        <v>0.001953260991342562</v>
+        <v>0.0019532609913423967</v>
       </c>
       <c r="K42">
-        <v>4.832762486210435e-5</v>
+        <v>4.8327624862103907e-5</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1905,19 +1905,19 @@
         <v>4.832453809103579e-5</v>
       </c>
       <c r="G43">
-        <v>7.409791964400004</v>
+        <v>7.409791964399891</v>
       </c>
       <c r="H43">
-        <v>6.252131227339221e-5</v>
+        <v>6.252131227338814e-5</v>
       </c>
       <c r="I43">
-        <v>-9.122524398775026e-6</v>
+        <v>-9.122524398773408e-6</v>
       </c>
       <c r="J43">
-        <v>0.001951873133960044</v>
+        <v>0.0019518731339598825</v>
       </c>
       <c r="K43">
-        <v>4.832432428537838e-5</v>
+        <v>4.832432428537796e-5</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1940,19 +1940,19 @@
         <v>4.8321687915858026e-5</v>
       </c>
       <c r="G44">
-        <v>7.395146493945844</v>
+        <v>7.395146493945732</v>
       </c>
       <c r="H44">
-        <v>5.814410347907577e-5</v>
+        <v>5.814410347907173e-5</v>
       </c>
       <c r="I44">
-        <v>-9.243883020594717e-6</v>
+        <v>-9.243883020593063e-6</v>
       </c>
       <c r="J44">
-        <v>0.0019504951816135972</v>
+        <v>0.0019504951816134402</v>
       </c>
       <c r="K44">
-        <v>4.832146819441507e-5</v>
+        <v>4.832146819441466e-5</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1975,19 +1975,19 @@
         <v>4.8319270421863385e-5</v>
       </c>
       <c r="G45">
-        <v>7.380965099180736</v>
+        <v>7.380965099180624</v>
       </c>
       <c r="H45">
-        <v>5.38203286346249e-5</v>
+        <v>5.382032863462089e-5</v>
       </c>
       <c r="I45">
-        <v>-9.330242712051346e-6</v>
+        <v>-9.330242712049657e-6</v>
       </c>
       <c r="J45">
-        <v>0.0019491331745687345</v>
+        <v>0.0019491331745685818</v>
       </c>
       <c r="K45">
-        <v>4.831904549181241e-5</v>
+        <v>4.831904549181202e-5</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2010,19 +2010,19 @@
         <v>4.831727685553675e-5</v>
       </c>
       <c r="G46">
-        <v>7.36728560706971</v>
+        <v>7.367285607069599</v>
       </c>
       <c r="H46">
-        <v>4.9564481660956645e-5</v>
+        <v>4.956448166095266e-5</v>
       </c>
       <c r="I46">
-        <v>-9.372254426498972e-6</v>
+        <v>-9.372254426497246e-6</v>
       </c>
       <c r="J46">
-        <v>0.0019477942295371632</v>
+        <v>0.0019477942295370164</v>
       </c>
       <c r="K46">
-        <v>4.831704739048981e-5</v>
+        <v>4.831704739048943e-5</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2045,19 +2045,19 @@
         <v>4.831570043348812e-5</v>
       </c>
       <c r="G47">
-        <v>7.354150500116772</v>
+        <v>7.3541505001166625</v>
       </c>
       <c r="H47">
-        <v>4.5393278033195944e-5</v>
+        <v>4.539327803319197e-5</v>
       </c>
       <c r="I47">
-        <v>-9.35914863163321e-6</v>
+        <v>-9.359148631631447e-6</v>
       </c>
       <c r="J47">
-        <v>0.0019464865404640692</v>
+        <v>0.0019464865404639283</v>
       </c>
       <c r="K47">
-        <v>4.831546708546187e-5</v>
+        <v>4.831546708546153e-5</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2080,19 +2080,19 @@
         <v>4.831453589316297e-5</v>
       </c>
       <c r="G48">
-        <v>7.3416060837403645</v>
+        <v>7.341606083740256</v>
       </c>
       <c r="H48">
-        <v>4.132545802772587e-5</v>
+        <v>4.132545802772192e-5</v>
       </c>
       <c r="I48">
-        <v>-9.278864976426574e-6</v>
+        <v>-9.278864976424774e-6</v>
       </c>
       <c r="J48">
-        <v>0.0019452193032635065</v>
+        <v>0.0019452193032633714</v>
       </c>
       <c r="K48">
-        <v>4.8314299306233815e-5</v>
+        <v>4.831429930623349e-5</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2115,19 +2115,19 @@
         <v>4.831377894778802e-5</v>
       </c>
       <c r="G49">
-        <v>7.329701167593766</v>
+        <v>7.329701167593659</v>
       </c>
       <c r="H49">
-        <v>3.738141069546066e-5</v>
+        <v>3.738141069545674e-5</v>
       </c>
       <c r="I49">
-        <v>-9.118296372311153e-6</v>
+        <v>-9.118296372309315e-6</v>
       </c>
       <c r="J49">
-        <v>0.0019440025513782972</v>
+        <v>0.0019440025513781682</v>
       </c>
       <c r="K49">
-        <v>4.8313539771396114e-5</v>
+        <v>4.8313539771395816e-5</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2150,19 +2150,19 @@
         <v>4.831342567596008e-5</v>
       </c>
       <c r="G50">
-        <v>7.318485289050214</v>
+        <v>7.318485289050108</v>
       </c>
       <c r="H50">
-        <v>3.358261194569267e-5</v>
+        <v>3.358261194568879e-5</v>
       </c>
       <c r="I50">
-        <v>-8.863651138069297e-6</v>
+        <v>-8.863651138067426e-6</v>
       </c>
       <c r="J50">
-        <v>0.0019428468960086527</v>
+        <v>0.0019428468960085298</v>
       </c>
       <c r="K50">
-        <v>4.83131845759853e-5</v>
+        <v>4.831318457598502e-5</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2185,19 +2185,19 @@
         <v>4.831347188268959e-5</v>
       </c>
       <c r="G51">
-        <v>7.308006556545572</v>
+        <v>7.308006556545467</v>
       </c>
       <c r="H51">
-        <v>2.9950888839104074e-5</v>
+        <v>2.9950888839100225e-5</v>
       </c>
       <c r="I51">
-        <v>-8.500924952785953e-6</v>
+        <v>-8.500924952784046e-6</v>
       </c>
       <c r="J51">
-        <v>0.0019417631743764694</v>
+        <v>0.0019417631743763523</v>
       </c>
       <c r="K51">
-        <v>4.831322954874902e-5</v>
+        <v>4.831322954874875e-5</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2220,19 +2220,19 @@
         <v>4.831391247182959e-5</v>
       </c>
       <c r="G52">
-        <v>7.2983092384073585</v>
+        <v>7.2983092384072545</v>
       </c>
       <c r="H52">
-        <v>2.6507542998070236e-5</v>
+        <v>2.6507542998066418e-5</v>
       </c>
       <c r="I52">
-        <v>-8.016461248814338e-6</v>
+        <v>-8.016461248812398e-6</v>
       </c>
       <c r="J52">
-        <v>0.0019407620205520882</v>
+        <v>0.001940762020551976</v>
       </c>
       <c r="K52">
-        <v>4.8313669619706604e-5</v>
+        <v>4.831366961970634e-5</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2255,19 +2255,19 @@
         <v>4.8314740869364574e-5</v>
       </c>
       <c r="G53">
-        <v>7.28943126266941</v>
+        <v>7.289431262669307</v>
       </c>
       <c r="H53">
-        <v>2.327238623596379e-5</v>
+        <v>2.327238623596001e-5</v>
       </c>
       <c r="I53">
-        <v>-7.397566069836785e-6</v>
+        <v>-7.3975660698348126e-6</v>
       </c>
       <c r="J53">
-        <v>0.0019398533847285872</v>
+        <v>0.0019398533847284803</v>
       </c>
       <c r="K53">
-        <v>4.8314498238029005e-5</v>
+        <v>4.831449823802877e-5</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2290,19 +2290,19 @@
         <v>4.831594853331337e-5</v>
       </c>
       <c r="G54">
-        <v>7.281401819139031</v>
+        <v>7.28140181913893</v>
       </c>
       <c r="H54">
-        <v>2.0262758013649716e-5</v>
+        <v>2.0262758013645965e-5</v>
       </c>
       <c r="I54">
-        <v>-6.633133223339796e-6</v>
+        <v>-6.63313322333779e-6</v>
       </c>
       <c r="J54">
-        <v>0.0019390460366065251</v>
+        <v>0.0019390460366064234</v>
       </c>
       <c r="K54">
-        <v>4.83157068765733e-5</v>
+        <v>4.831570687657308e-5</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2325,19 +2325,19 @@
         <v>4.831752457975433e-5</v>
       </c>
       <c r="G55">
-        <v>7.274239262083063</v>
+        <v>7.274239262082963</v>
       </c>
       <c r="H55">
-        <v>1.7492604239720482e-5</v>
+        <v>1.7492604239716758e-5</v>
       </c>
       <c r="I55">
-        <v>-5.71422954793247e-6</v>
+        <v>-5.714229547930437e-6</v>
       </c>
       <c r="J55">
-        <v>0.0019383470949337277</v>
+        <v>0.0019383470949336304</v>
       </c>
       <c r="K55">
-        <v>4.8317284653137506e-5</v>
+        <v>4.831728465313729e-5</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2360,19 +2360,19 @@
         <v>4.8319455546628356e-5</v>
       </c>
       <c r="G56">
-        <v>7.267949498009553</v>
+        <v>7.267949498009454</v>
       </c>
       <c r="H56">
-        <v>1.4971698053979938e-5</v>
+        <v>1.4971698053976247e-5</v>
       </c>
       <c r="I56">
-        <v>-4.63458960135019e-6</v>
+        <v>-4.63458960134813e-6</v>
       </c>
       <c r="J56">
-        <v>0.0019377616267526475</v>
+        <v>0.0019377616267525542</v>
       </c>
       <c r="K56">
-        <v>4.831921809057554e-5</v>
+        <v>4.8319218090575346e-5</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2395,19 +2395,19 @@
         <v>4.8321725308348375e-5</v>
       </c>
       <c r="G57">
-        <v>7.26252500850594</v>
+        <v>7.262525008505842</v>
       </c>
       <c r="H57">
-        <v>1.2705074593532598e-5</v>
+        <v>1.2705074593528932e-5</v>
       </c>
       <c r="I57">
-        <v>-3.3909746111957914e-6</v>
+        <v>-3.390974611193707e-6</v>
       </c>
       <c r="J57">
-        <v>0.0019372923557627619</v>
+        <v>0.001937292355762672</v>
       </c>
       <c r="K57">
-        <v>4.832149102917051e-5</v>
+        <v>4.832149102917033e-5</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2430,19 +2430,19 @@
         <v>4.832431514541908e-5</v>
       </c>
       <c r="G58">
-        <v>7.25794460605679</v>
+        <v>7.257944606056692</v>
       </c>
       <c r="H58">
-        <v>1.069273385989867e-5</v>
+        <v>1.0692733859895028e-5</v>
       </c>
       <c r="I58">
-        <v>-1.9833617620629815e-6</v>
+        <v>-1.9833617620608715e-6</v>
       </c>
       <c r="J58">
-        <v>0.0019369395095745962</v>
+        <v>0.0019369395095745093</v>
       </c>
       <c r="K58">
-        <v>4.832408469569598e-5</v>
+        <v>4.832408469569581e-5</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2465,19 +2465,19 @@
         <v>4.832720396454154e-5</v>
       </c>
       <c r="G59">
-        <v>7.254173956719215</v>
+        <v>7.254173956719118</v>
       </c>
       <c r="H59">
-        <v>8.929640718983949e-6</v>
+        <v>8.929640718980332e-6</v>
       </c>
       <c r="I59">
-        <v>-4.1494555591693727e-7</v>
+        <v>-4.1494555591480285e-7</v>
       </c>
       <c r="J59">
-        <v>0.0019367008216823404</v>
+        <v>0.0019367008216822545</v>
       </c>
       <c r="K59">
-        <v>4.832697792470428e-5</v>
+        <v>4.832697792470413e-5</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2500,19 +2500,19 @@
         <v>4.833036865616006e-5</v>
       </c>
       <c r="G60">
-        <v>7.251166834739477</v>
+        <v>7.251166834739382</v>
       </c>
       <c r="H60">
-        <v>7.4060220339063605e-6</v>
+        <v>7.406022033902771e-6</v>
       </c>
       <c r="I60">
-        <v>1.3080489178423225e-6</v>
+        <v>1.3080489178444803e-6</v>
       </c>
       <c r="J60">
-        <v>0.001936571687706249</v>
+        <v>0.0019365716877061641</v>
       </c>
       <c r="K60">
-        <v>4.833014751889348e-5</v>
+        <v>4.833014751889334e-5</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2535,19 +2535,19 @@
         <v>4.833378456822918e-5</v>
       </c>
       <c r="G61">
-        <v>7.248867008713713</v>
+        <v>7.248867008713618</v>
       </c>
       <c r="H61">
-        <v>6.107931898853414e-6</v>
+        <v>6.107931898849852e-6</v>
       </c>
       <c r="I61">
-        <v>3.1767228364838937e-6</v>
+        <v>3.1767228364860748e-6</v>
       </c>
       <c r="J61">
-        <v>0.0019365454592979432</v>
+        <v>0.0019365454592978582</v>
       </c>
       <c r="K61">
-        <v>4.8333568727063504e-5</v>
+        <v>4.833356872706337e-5</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2570,19 +2570,19 @@
         <v>4.833742606746361e-5</v>
       </c>
       <c r="G62">
-        <v>7.247210604509072</v>
+        <v>7.247210604508978</v>
       </c>
       <c r="H62">
-        <v>5.018030855553076e-6</v>
+        <v>5.018030855549541e-6</v>
       </c>
       <c r="I62">
-        <v>5.17999690981002e-6</v>
+        <v>5.179996909812223e-6</v>
       </c>
       <c r="J62">
-        <v>0.0019366138454712937</v>
+        <v>0.0019366138454712087</v>
       </c>
       <c r="K62">
-        <v>4.833721581051632e-5</v>
+        <v>4.8337215810516194e-5</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2605,19 +2605,19 @@
         <v>4.834126715309269e-5</v>
       </c>
       <c r="G63">
-        <v>7.2461287532563095</v>
+        <v>7.246128753256216</v>
       </c>
       <c r="H63">
-        <v>4.116507093003547e-6</v>
+        <v>4.11650709300004e-6</v>
       </c>
       <c r="I63">
-        <v>7.30519599804276e-6</v>
+        <v>7.305195998044985e-6</v>
       </c>
       <c r="J63">
-        <v>0.0019367673819208832</v>
+        <v>0.0019367673819207978</v>
       </c>
       <c r="K63">
-        <v>4.834106266241278e-5</v>
+        <v>4.834106266241265e-5</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2640,19 +2640,19 @@
         <v>4.834528208401909e-5</v>
       </c>
       <c r="G64">
-        <v>7.245550317342335</v>
+        <v>7.245550317342243</v>
       </c>
       <c r="H64">
-        <v>3.3820589909545022e-6</v>
+        <v>3.3820589909510214e-6</v>
       </c>
       <c r="I64">
-        <v>9.538674363992087e-6</v>
+        <v>9.538674363994335e-6</v>
       </c>
       <c r="J64">
-        <v>0.001936995925167934</v>
+        <v>0.0019369959251678474</v>
       </c>
       <c r="K64">
-        <v>4.83450834404324e-5</v>
+        <v>4.834508344043226e-5</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2675,19 +2675,19 @@
         <v>4.834944597916102e-5</v>
       </c>
       <c r="G65">
-        <v>7.245404494539455</v>
+        <v>7.245404494539363</v>
       </c>
       <c r="H65">
-        <v>2.7928594905909764e-6</v>
+        <v>2.7928594905875226e-6</v>
       </c>
       <c r="I65">
-        <v>1.18664312539804e-5</v>
+        <v>1.1866431253982672e-5</v>
       </c>
       <c r="J65">
-        <v>0.0019372891301879297</v>
+        <v>0.0019372891301878414</v>
       </c>
       <c r="K65">
-        <v>4.834925317198382e-5</v>
+        <v>4.83492531719837e-5</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2710,19 +2710,19 @@
         <v>4.8353735353270086e-5</v>
       </c>
       <c r="G66">
-        <v>7.245623128144803</v>
+        <v>7.245623128144712</v>
       </c>
       <c r="H66">
-        <v>2.3274326842289373e-6</v>
+        <v>2.3274326842255097e-6</v>
       </c>
       <c r="I66">
-        <v>1.4274672445662723e-5</v>
+        <v>1.4274672445665017e-5</v>
       </c>
       <c r="J66">
-        <v>0.0019376368766763</v>
+        <v>0.0019376368766762095</v>
       </c>
       <c r="K66">
-        <v>4.835354829381705e-5</v>
+        <v>4.8353548293816914e-5</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2745,19 +2745,19 @@
         <v>4.835812855678438e-5</v>
       </c>
       <c r="G67">
-        <v>7.246142594452775</v>
+        <v>7.246142594452683</v>
       </c>
       <c r="H67">
-        <v>1.965389522312169e-6</v>
+        <v>1.9653895223087682e-6</v>
       </c>
       <c r="I67">
-        <v>1.6750283575071804e-5</v>
+        <v>1.6750283575074122e-5</v>
       </c>
       <c r="J67">
-        <v>0.0019380296188072884</v>
+        <v>0.001938029618807195</v>
       </c>
       <c r="K67">
-        <v>4.835794709430328e-5</v>
+        <v>4.835794709430314e-5</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2780,19 +2780,19 @@
         <v>4.836260609775061e-5</v>
       </c>
       <c r="G68">
-        <v>7.246905191337773</v>
+        <v>7.246905191337682</v>
       </c>
       <c r="H68">
-        <v>1.68798972958171e-6</v>
+        <v>1.6879897295783358e-6</v>
       </c>
       <c r="I68">
-        <v>1.9281193679759138e-5</v>
+        <v>1.9281193679761472e-5</v>
       </c>
       <c r="J68">
-        <v>0.001938458644460127</v>
+        <v>0.0019384586444600312</v>
       </c>
       <c r="K68">
-        <v>4.836243003630536e-5</v>
+        <v>4.8362430036305206e-5</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2815,19 +2815,19 @@
         <v>4.836715083535712e-5</v>
       </c>
       <c r="G69">
-        <v>7.247860005768988</v>
+        <v>7.2478600057688976</v>
       </c>
       <c r="H69">
-        <v>1.4785178318247377e-6</v>
+        <v>1.4785178318213902e-6</v>
       </c>
       <c r="I69">
-        <v>2.1856620552199062e-5</v>
+        <v>2.185662055220142e-5</v>
       </c>
       <c r="J69">
-        <v>0.0019389162407208837</v>
+        <v>0.001938916240720785</v>
       </c>
       <c r="K69">
-        <v>4.8366979950255596e-5</v>
+        <v>4.836697995025541e-5</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2850,19 +2850,19 @@
         <v>4.837174804657783e-5</v>
       </c>
       <c r="G70">
-        <v>7.248963286845683</v>
+        <v>7.248963286845593</v>
       </c>
       <c r="H70">
-        <v>1.3224799088497555e-6</v>
+        <v>1.3224799088464347e-6</v>
       </c>
       <c r="I70">
-        <v>2.4467201459877197e-5</v>
+        <v>2.446720145987957e-5</v>
       </c>
       <c r="J70">
-        <v>0.0019393957716623998</v>
+        <v>0.0019393957716622974</v>
       </c>
       <c r="K70">
-        <v>4.837158209917594e-5</v>
+        <v>4.8371582099175734e-5</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2885,19 +2885,19 @@
         <v>4.8376385378187545e-5</v>
       </c>
       <c r="G71">
-        <v>7.250178389172995</v>
+        <v>7.2501783891729055</v>
       </c>
       <c r="H71">
-        <v>1.2076423368989505e-6</v>
+        <v>1.2076423368956564e-6</v>
       </c>
       <c r="I71">
-        <v>2.7105022267535765e-5</v>
+        <v>2.7105022267538164e-5</v>
       </c>
       <c r="J71">
-        <v>0.0019398916811096127</v>
+        <v>0.001939891681109507</v>
       </c>
       <c r="K71">
-        <v>4.8376224128243484e-5</v>
+        <v>4.8376224128243246e-5</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2920,19 +2920,19 @@
         <v>4.8381052704609994e-5</v>
       </c>
       <c r="G72">
-        <v>7.2514753761029365</v>
+        <v>7.251475376102847</v>
       </c>
       <c r="H72">
-        <v>1.1239433204129804e-6</v>
+        <v>1.123943320409713e-6</v>
       </c>
       <c r="I72">
-        <v>2.9763564278405366e-5</v>
+        <v>2.9763564278407806e-5</v>
       </c>
       <c r="J72">
-        <v>0.0019403994370013138</v>
+        <v>0.0019403994370012039</v>
       </c>
       <c r="K72">
-        <v>4.838089591974942e-5</v>
+        <v>4.8380895919749156e-5</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2955,19 +2955,19 @@
         <v>4.8385741916890863e-5</v>
       </c>
       <c r="G73">
-        <v>7.2528303829707195</v>
+        <v>7.25283038297063</v>
       </c>
       <c r="H73">
-        <v>1.0633123131892874e-6</v>
+        <v>1.0633123131860471e-6</v>
       </c>
       <c r="I73">
-        <v>3.2437591064205183e-5</v>
+        <v>3.243759106420765e-5</v>
       </c>
       <c r="J73">
-        <v>0.0019409154352151882</v>
+        <v>0.0019409154352150737</v>
       </c>
       <c r="K73">
-        <v>4.838558937911301e-5</v>
+        <v>4.83855893791127e-5</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2990,19 +2990,19 @@
         <v>4.8390446669393674e-5</v>
       </c>
       <c r="G74">
-        <v>7.254224838491118</v>
+        <v>7.254224838491029</v>
       </c>
       <c r="H74">
-        <v>1.0194321186794822e-6</v>
+        <v>1.019432118676269e-6</v>
       </c>
       <c r="I74">
-        <v>3.512299753717773e-5</v>
+        <v>3.5122997537180225e-5</v>
       </c>
       <c r="J74">
-        <v>0.0019414368798139822</v>
+        <v>0.0019414368798138632</v>
       </c>
       <c r="K74">
-        <v>4.8390298178849974e-5</v>
+        <v>4.839029817884962e-5</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3025,19 +3025,19 @@
         <v>4.839516210903085e-5</v>
       </c>
       <c r="G75">
-        <v>7.255644630923916</v>
+        <v>7.255644630923827</v>
       </c>
       <c r="H75">
-        <v>9.874746555372435e-7</v>
+        <v>9.874746555340572e-7</v>
       </c>
       <c r="I75">
-        <v>3.781664121983132e-5</v>
+        <v>3.7816641219833854e-5</v>
       </c>
       <c r="J75">
-        <v>0.0019419616542534223</v>
+        <v>0.0019419616542532985</v>
       </c>
       <c r="K75">
-        <v>4.8395017485514853e-5</v>
+        <v>4.839501748551447e-5</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3060,19 +3060,19 @@
         <v>4.8399884607810806e-5</v>
       </c>
       <c r="G76">
-        <v>7.257079288119614</v>
+        <v>7.2570792881195265</v>
       </c>
       <c r="H76">
-        <v>9.638353998042296e-7</v>
+        <v>9.638353998010702e-7</v>
       </c>
       <c r="I76">
-        <v>4.0516171925475006e-5</v>
+        <v>4.051617192547758e-5</v>
       </c>
       <c r="J76">
-        <v>0.0019424881948533026</v>
+        <v>0.0019424881948531744</v>
       </c>
       <c r="K76">
-        <v>4.839974369050295e-5</v>
+        <v>4.839974369050252e-5</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3095,19 +3095,19 @@
         <v>4.840461151421513e-5</v>
       </c>
       <c r="G77">
-        <v>7.258521220699531</v>
+        <v>7.258521220699443</v>
       </c>
       <c r="H77">
-        <v>9.458846451015387e-7</v>
+        <v>9.458846450984061e-7</v>
       </c>
       <c r="I77">
-        <v>4.321987169477518e-5</v>
+        <v>4.321987169477779e-5</v>
       </c>
       <c r="J77">
-        <v>0.0019430153743782885</v>
+        <v>0.0019430153743781563</v>
       </c>
       <c r="K77">
-        <v>4.840447416024025e-5</v>
+        <v>4.840447416023978e-5</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3130,19 +3130,19 @@
         <v>4.8409340933380984e-5</v>
       </c>
       <c r="G78">
-        <v>7.259965058381647</v>
+        <v>7.25996505838156</v>
       </c>
       <c r="H78">
-        <v>9.31747006658784e-7</v>
+        <v>9.317470066556783e-7</v>
       </c>
       <c r="I78">
-        <v>4.592651252389797e-5</v>
+        <v>4.592651252390062e-5</v>
       </c>
       <c r="J78">
-        <v>0.0019435424003652337</v>
+        <v>0.0019435424003650976</v>
       </c>
       <c r="K78">
-        <v>4.840920701568273e-5</v>
+        <v>4.8409207015682215e-5</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3165,19 +3165,19 @@
         <v>4.841407154100787e-5</v>
       </c>
       <c r="G79">
-        <v>7.261407092902534</v>
+        <v>7.261407092902448</v>
       </c>
       <c r="H79">
-        <v>9.20114764114197e-7</v>
+        <v>9.201147641111183e-7</v>
       </c>
       <c r="I79">
-        <v>4.8635235650515666e-5</v>
+        <v>4.863523565051838e-5</v>
       </c>
       <c r="J79">
-        <v>0.001944068730160824</v>
+        <v>0.001944068730160684</v>
       </c>
       <c r="K79">
-        <v>4.841394094594916e-5</v>
+        <v>4.841394094594861e-5</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3200,19 +3200,19 @@
         <v>4.841880243181312e-5</v>
       </c>
       <c r="G80">
-        <v>7.26284482821037</v>
+        <v>7.262844828210285</v>
       </c>
       <c r="H80">
-        <v>9.10096087762154e-7</v>
+        <v>9.100960877591023e-7</v>
       </c>
       <c r="I80">
-        <v>5.1345453202699914e-5</v>
+        <v>5.134545320270267e-5</v>
       </c>
       <c r="J80">
-        <v>0.0019445940026294956</v>
+        <v>0.001944594002629352</v>
       </c>
       <c r="K80">
-        <v>4.841867505680082e-5</v>
+        <v>4.841867505680023e-5</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3235,19 +3235,19 @@
         <v>4.842353300042692e-5</v>
       </c>
       <c r="G81">
-        <v>7.264276629878732</v>
+        <v>7.264276629878647</v>
       </c>
       <c r="H81">
-        <v>9.01096029342412e-7</v>
+        <v>9.010960293393875e-7</v>
       </c>
       <c r="I81">
-        <v>5.405677094150404e-5</v>
+        <v>5.405677094150684e-5</v>
       </c>
       <c r="J81">
-        <v>0.0019451179851615948</v>
+        <v>0.0019451179851614482</v>
       </c>
       <c r="K81">
-        <v>4.842340875175161e-5</v>
+        <v>4.8423408751750993e-5</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3270,19 +3270,19 @@
         <v>4.842826285082375e-5</v>
       </c>
       <c r="G82">
-        <v>7.265701460665866</v>
+        <v>7.265701460665781</v>
       </c>
       <c r="H82">
-        <v>8.927262747650305e-7</v>
+        <v>8.927262747620327e-7</v>
       </c>
       <c r="I82">
-        <v>5.676892957970266e-5</v>
+        <v>5.67689295797055e-5</v>
       </c>
       <c r="J82">
-        <v>0.0019456405338738642</v>
+        <v>0.0019456405338737143</v>
       </c>
       <c r="K82">
-        <v>4.842814164181472e-5</v>
+        <v>4.842814164181407e-5</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3305,19 +3305,19 @@
         <v>4.843299172956271e-5</v>
       </c>
       <c r="G83">
-        <v>7.267118687110841</v>
+        <v>7.267118687110757</v>
       </c>
       <c r="H83">
-        <v>8.847388187755722e-7</v>
+        <v>8.847388187726011e-7</v>
       </c>
       <c r="I83">
-        <v>5.948176159068705e-5</v>
+        <v>5.948176159068994e-5</v>
       </c>
       <c r="J83">
-        <v>0.0019461615646209998</v>
+        <v>0.0019461615646208475</v>
       </c>
       <c r="K83">
-        <v>4.8432873479089066e-5</v>
+        <v>4.8432873479088396e-5</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3340,19 +3340,19 @@
         <v>4.843771947801217e-5</v>
       </c>
       <c r="G84">
-        <v>7.268527942174296</v>
+        <v>7.268527942174212</v>
       </c>
       <c r="H84">
-        <v>8.769786471340906e-7</v>
+        <v>8.76978647131146e-7</v>
       </c>
       <c r="I84">
-        <v>6.219516035214027e-5</v>
+        <v>6.21951603521432e-5</v>
       </c>
       <c r="J84">
-        <v>0.0019466810324886702</v>
+        <v>0.001946681032488515</v>
       </c>
       <c r="K84">
-        <v>4.8437604109315324e-5</v>
+        <v>4.843760410931463e-5</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3375,19 +3375,19 @@
         <v>4.844244599911664e-5</v>
       </c>
       <c r="G85">
-        <v>7.269929030390942</v>
+        <v>7.269929030390859</v>
       </c>
       <c r="H85">
-        <v>8.693509250306182e-7</v>
+        <v>8.693509250277e-7</v>
       </c>
       <c r="I85">
-        <v>6.49090587213114e-5</v>
+        <v>6.49090587213144e-5</v>
       </c>
       <c r="J85">
-        <v>0.0019471989176870106</v>
+        <v>0.0019471989176868525</v>
       </c>
       <c r="K85">
-        <v>4.844233343893268e-5</v>
+        <v>4.8442333438931984e-5</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3410,19 +3410,19 @@
         <v>4.8447171234902856e-5</v>
       </c>
       <c r="G86">
-        <v>7.2713218641329105</v>
+        <v>7.271321864132828</v>
       </c>
       <c r="H86">
-        <v>8.617988592846581e-7</v>
+        <v>8.617988592817663e-7</v>
       </c>
       <c r="I86">
-        <v>6.76234145618765e-5</v>
+        <v>6.762341456187956e-5</v>
       </c>
       <c r="J86">
-        <v>0.0019477152161059982</v>
+        <v>0.0019477152161058375</v>
       </c>
       <c r="K86">
-        <v>4.8447061412822716e-5</v>
+        <v>4.844706141282199e-5</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3445,19 +3445,19 @@
         <v>4.845189515165333e-5</v>
       </c>
       <c r="G87">
-        <v>7.272706421894715</v>
+        <v>7.272706421894634</v>
       </c>
       <c r="H87">
-        <v>8.542891533900724e-7</v>
+        <v>8.542891533872068e-7</v>
       </c>
       <c r="I87">
-        <v>7.033820122344066e-5</v>
+        <v>7.033820122344377e-5</v>
       </c>
       <c r="J87">
-        <v>0.0019482299331562683</v>
+        <v>0.0019482299331561054</v>
       </c>
       <c r="K87">
-        <v>4.8451787999667756e-5</v>
+        <v>4.8451787999667024e-5</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3480,19 +3480,19 @@
         <v>4.8456617730382646e-5</v>
       </c>
       <c r="G88">
-        <v>7.274082721684712</v>
+        <v>7.274082721684631</v>
       </c>
       <c r="H88">
-        <v>8.468026950547068e-7</v>
+        <v>8.468026950518676e-7</v>
       </c>
       <c r="I88">
-        <v>7.305340143890253e-5</v>
+        <v>7.30534014389057e-5</v>
       </c>
       <c r="J88">
-        <v>0.001948743079854485</v>
+        <v>0.0019487430798543197</v>
       </c>
       <c r="K88">
-        <v>4.845651318256447e-5</v>
+        <v>4.845651318256373e-5</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3515,19 +3515,19 @@
         <v>4.846133896087197e-5</v>
       </c>
       <c r="G89">
-        <v>7.275450804474617</v>
+        <v>7.275450804474537</v>
       </c>
       <c r="H89">
-        <v>8.393287425939055e-7</v>
+        <v>8.393287425910928e-7</v>
       </c>
       <c r="I89">
-        <v>7.576900351027447e-5</v>
+        <v>7.57690035102777e-5</v>
       </c>
       <c r="J89">
-        <v>0.0019492546703973924</v>
+        <v>0.001949254670397225</v>
       </c>
       <c r="K89">
-        <v>4.846123695315653e-5</v>
+        <v>4.846123695315578e-5</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3550,19 +3550,19 @@
         <v>4.846605883802339e-5</v>
       </c>
       <c r="G90">
-        <v>7.2768107241567295</v>
+        <v>7.27681072415665</v>
       </c>
       <c r="H90">
-        <v>8.318613843649357e-7</v>
+        <v>8.318613843621493e-7</v>
       </c>
       <c r="I90">
-        <v>7.848499898304105e-5</v>
+        <v>7.848499898304433e-5</v>
       </c>
       <c r="J90">
-        <v>0.0019497647206955541</v>
+        <v>0.0019497647206953845</v>
       </c>
       <c r="K90">
-        <v>4.8465959308056465e-5</v>
+        <v>4.84659593080557e-5</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3585,19 +3585,19 @@
         <v>4.847077735968477e-5</v>
       </c>
       <c r="G91">
-        <v>7.278162541596891</v>
+        <v>7.278162541596813</v>
       </c>
       <c r="H91">
-        <v>8.243974343519392e-7</v>
+        <v>8.243974343491791e-7</v>
       </c>
       <c r="I91">
-        <v>8.120138126210495e-5</v>
+        <v>8.12013812621083e-5</v>
       </c>
       <c r="J91">
-        <v>0.0019502732475089734</v>
+        <v>0.0019502732475088018</v>
       </c>
       <c r="K91">
-        <v>4.847068024671577e-5</v>
+        <v>4.8470680246715e-5</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3620,19 +3620,19 @@
         <v>4.847549452538228e-5</v>
       </c>
       <c r="G92">
-        <v>7.279506321196922</v>
+        <v>7.279506321196845</v>
       </c>
       <c r="H92">
-        <v>8.169352109770628e-7</v>
+        <v>8.169352109743284e-7</v>
       </c>
       <c r="I92">
-        <v>8.391814480745145e-5</v>
+        <v>8.391814480745484e-5</v>
       </c>
       <c r="J92">
-        <v>0.0019507802679502452</v>
+        <v>0.0019507802679500713</v>
       </c>
       <c r="K92">
-        <v>4.8475399770186585e-5</v>
+        <v>4.8475399770185806e-5</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3655,19 +3655,19 @@
         <v>4.848021033559843e-5</v>
       </c>
       <c r="G93">
-        <v>7.280842128954952</v>
+        <v>7.280842128954876</v>
       </c>
       <c r="H93">
-        <v>8.09473845002848e-7</v>
+        <v>8.094738450001398e-7</v>
       </c>
       <c r="I93">
-        <v>8.663528467746265e-5</v>
+        <v>8.663528467746612e-5</v>
       </c>
       <c r="J93">
-        <v>0.001951285799206365</v>
+        <v>0.0019512857992061883</v>
       </c>
       <c r="K93">
-        <v>4.848011788041829e-5</v>
+        <v>4.84801178804175e-5</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3690,19 +3690,19 @@
         <v>4.8484924791369655e-5</v>
       </c>
       <c r="G94">
-        <v>7.28217003139725</v>
+        <v>7.2821700313971744</v>
       </c>
       <c r="H94">
-        <v>8.020128963474477e-7</v>
+        <v>8.020128963447655e-7</v>
       </c>
       <c r="I94">
-        <v>8.935279627542129e-5</v>
+        <v>8.93527962754248e-5</v>
       </c>
       <c r="J94">
-        <v>0.001951789858387341</v>
+        <v>0.0019517898583871613</v>
       </c>
       <c r="K94">
-        <v>4.848483457986659e-5</v>
+        <v>4.8484834579865806e-5</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3725,19 +3725,19 @@
         <v>4.8489637894066625e-5</v>
       </c>
       <c r="G95">
-        <v>7.283490095004579</v>
+        <v>7.283490095004503</v>
       </c>
       <c r="H95">
-        <v>7.945521467773393e-7</v>
+        <v>7.945521467746825e-7</v>
       </c>
       <c r="I95">
-        <v>9.207067521181761e-5</v>
+        <v>9.207067521182119e-5</v>
       </c>
       <c r="J95">
-        <v>0.00195229246244652</v>
+        <v>0.001952292462446337</v>
       </c>
       <c r="K95">
-        <v>4.848954987128084e-5</v>
+        <v>4.848954987128005e-5</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3760,19 +3760,19 @@
         <v>4.849434964527624e-5</v>
       </c>
       <c r="G96">
-        <v>7.2848023859123225</v>
+        <v>7.284802385912247</v>
       </c>
       <c r="H96">
-        <v>7.870914902889944e-7</v>
+        <v>7.87091490286363e-7</v>
       </c>
       <c r="I96">
-        <v>9.478891723104538e-5</v>
+        <v>9.478891723104898e-5</v>
       </c>
       <c r="J96">
-        <v>0.0019527936281404697</v>
+        <v>0.0019527936281402824</v>
       </c>
       <c r="K96">
-        <v>4.849426375759033e-5</v>
+        <v>4.8494263757589534e-5</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3795,19 +3795,19 @@
         <v>4.8499060046739077e-5</v>
       </c>
       <c r="G97">
-        <v>7.286106969758551</v>
+        <v>7.286106969758476</v>
       </c>
       <c r="H97">
-        <v>7.79630876445733e-7</v>
+        <v>7.79630876443127e-7</v>
       </c>
       <c r="I97">
-        <v>9.750751817303914e-5</v>
+        <v>9.75075181730428e-5</v>
       </c>
       <c r="J97">
-        <v>0.0019532933720101523</v>
+        <v>0.001953293372009961</v>
       </c>
       <c r="K97">
-        <v>4.8498976241844493e-5</v>
+        <v>4.8498976241843694e-5</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3830,19 +3830,19 @@
         <v>4.850376910031634e-5</v>
       </c>
       <c r="G98">
-        <v>7.287403911610149</v>
+        <v>7.287403911610075</v>
       </c>
       <c r="H98">
-        <v>7.721702817395815e-7</v>
+        <v>7.721702817370008e-7</v>
       </c>
       <c r="I98">
-        <v>0.00010022647395342711</v>
+        <v>0.00010022647395343082</v>
       </c>
       <c r="J98">
-        <v>0.0019537917103732744</v>
+        <v>0.0019537917103730792</v>
       </c>
       <c r="K98">
-        <v>4.850368732718151e-5</v>
+        <v>4.850368732718071e-5</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3865,19 +3865,19 @@
         <v>4.8508476807971995e-5</v>
       </c>
       <c r="G99">
-        <v>7.288693275929161</v>
+        <v>7.288693275929087</v>
       </c>
       <c r="H99">
-        <v>7.647096954370608e-7</v>
+        <v>7.647096954345055e-7</v>
       </c>
       <c r="I99">
-        <v>0.0001029457805532669</v>
+        <v>0.00010294578055327067</v>
       </c>
       <c r="J99">
-        <v>0.0019542886593223474</v>
+        <v>0.0019542886593221474</v>
       </c>
       <c r="K99">
-        <v>4.85083970168118e-5</v>
+        <v>4.8508397016811005e-5</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3900,19 +3900,19 @@
         <v>4.85131831717628e-5</v>
       </c>
       <c r="G100">
-        <v>7.289975126559398</v>
+        <v>7.289975126559324</v>
       </c>
       <c r="H100">
-        <v>7.572491127371287e-7</v>
+        <v>7.57249112734599e-7</v>
       </c>
       <c r="I100">
-        <v>0.00010566543401363086</v>
+        <v>0.00010566543401363461</v>
       </c>
       <c r="J100">
-        <v>0.001954784234725595</v>
+        <v>0.001954784234725391</v>
       </c>
       <c r="K100">
-        <v>4.851310531400888e-5</v>
+        <v>4.8513105314008085e-5</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3935,19 +3935,19 @@
         <v>4.8517888193832145e-5</v>
       </c>
       <c r="G101">
-        <v>7.29124952672301</v>
+        <v>7.291249526722937</v>
       </c>
       <c r="H101">
-        <v>7.497885315359472e-7</v>
+        <v>7.497885315334429e-7</v>
       </c>
       <c r="I101">
-        <v>0.00010838543043259141</v>
+        <v>0.00010838543043259522</v>
       </c>
       <c r="J101">
-        <v>0.001955278452229223</v>
+        <v>0.001955278452229014</v>
       </c>
       <c r="K101">
-        <v>4.8517812222104024e-5</v>
+        <v>4.851781222210325e-5</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -3970,19 +3970,19 @@
         <v>4.852259187640583e-5</v>
       </c>
       <c r="G102">
-        <v>7.292516539021859</v>
+        <v>7.292516539021786</v>
       </c>
       <c r="H102">
-        <v>7.423279509303196e-7</v>
+        <v>7.42327950927841e-7</v>
       </c>
       <c r="I102">
-        <v>0.00011110576596337162</v>
+        <v>0.00011110576596337548</v>
       </c>
       <c r="J102">
-        <v>0.0019557713272603163</v>
+        <v>0.001955771327260103</v>
       </c>
       <c r="K102">
-        <v>4.8522517744482765e-5</v>
+        <v>4.8522517744482e-5</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4005,19 +4005,19 @@
         <v>4.852729422178879e-5</v>
       </c>
       <c r="G103">
-        <v>7.293776225441146</v>
+        <v>7.293776225441073</v>
       </c>
       <c r="H103">
-        <v>7.348673705403577e-7</v>
+        <v>7.348673705379046e-7</v>
       </c>
       <c r="I103">
-        <v>0.00011382643681305155</v>
+        <v>0.00011382643681305547</v>
       </c>
       <c r="J103">
-        <v>0.0019562628750300053</v>
+        <v>0.0019562628750297876</v>
       </c>
       <c r="K103">
-        <v>4.852722188458218e-5</v>
+        <v>4.852722188458144e-5</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4040,19 +4040,19 @@
         <v>4.853199523236224e-5</v>
       </c>
       <c r="G104">
-        <v>7.295028647354082</v>
+        <v>7.295028647354009</v>
       </c>
       <c r="H104">
-        <v>7.274067902095153e-7</v>
+        <v>7.274067902070878e-7</v>
       </c>
       <c r="I104">
-        <v>0.00011654743924153824</v>
+        <v>0.00011654743924154222</v>
       </c>
       <c r="J104">
-        <v>0.001956753110536722</v>
+        <v>0.001956753110536499</v>
       </c>
       <c r="K104">
-        <v>4.8531924645888725e-5</v>
+        <v>4.8531924645888014e-5</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4075,19 +4075,19 @@
         <v>4.853669491058112e-5</v>
       </c>
       <c r="G105">
-        <v>7.296273865527027</v>
+        <v>7.296273865526956</v>
       </c>
       <c r="H105">
-        <v>7.199462098745871e-7</v>
+        <v>7.199462098721852e-7</v>
       </c>
       <c r="I105">
-        <v>0.00011926876956066108</v>
+        <v>0.00011926876956066511</v>
       </c>
       <c r="J105">
-        <v>0.001957242048569471</v>
+        <v>0.001957242048569245</v>
       </c>
       <c r="K105">
-        <v>4.8536626031936235e-5</v>
+        <v>4.853662603193555e-5</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4110,19 +4110,19 @@
         <v>4.854139325897161e-5</v>
       </c>
       <c r="G106">
-        <v>7.297511940124841</v>
+        <v>7.29751194012477</v>
       </c>
       <c r="H106">
-        <v>7.124856295105699e-7</v>
+        <v>7.124856295081935e-7</v>
       </c>
       <c r="I106">
-        <v>0.00012199042413332968</v>
+        <v>0.00012199042413333372</v>
       </c>
       <c r="J106">
-        <v>0.001957729703711081</v>
+        <v>0.0019577297037108505</v>
       </c>
       <c r="K106">
-        <v>4.854132604630405e-5</v>
+        <v>4.854132604630341e-5</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4145,19 +4145,19 @@
         <v>4.854609028012878e-5</v>
       </c>
       <c r="G107">
-        <v>7.29874293071631</v>
+        <v>7.29874293071624</v>
       </c>
       <c r="H107">
-        <v>7.050250491077725e-7</v>
+        <v>7.050250491054218e-7</v>
       </c>
       <c r="I107">
-        <v>0.0001247123993727256</v>
+        <v>0.0001247123993727297</v>
       </c>
       <c r="J107">
-        <v>0.001958216090341408</v>
+        <v>0.001958216090341174</v>
       </c>
       <c r="K107">
-        <v>4.854602469261522e-5</v>
+        <v>4.8546024692614583e-5</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -4180,19 +4180,19 @@
         <v>4.8550785976714364e-5</v>
       </c>
       <c r="G108">
-        <v>7.299966896279621</v>
+        <v>7.29996689627955</v>
       </c>
       <c r="H108">
-        <v>6.975644686625146e-7</v>
+        <v>6.975644686601893e-7</v>
       </c>
       <c r="I108">
-        <v>0.0001274346917415158</v>
+        <v>0.00012743469174151997</v>
       </c>
       <c r="J108">
-        <v>0.0019587012226405065</v>
+        <v>0.0019587012226402675</v>
       </c>
       <c r="K108">
-        <v>4.855072197453473e-5</v>
+        <v>4.855072197453412e-5</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -4215,19 +4215,19 @@
         <v>4.85554803514544e-5</v>
       </c>
       <c r="G109">
-        <v>7.301183895207831</v>
+        <v>7.301183895207761</v>
       </c>
       <c r="H109">
-        <v>6.901038881734265e-7</v>
+        <v>6.901038881711267e-7</v>
       </c>
       <c r="I109">
-        <v>0.00013015729775108152</v>
+        <v>0.00013015729775108572</v>
       </c>
       <c r="J109">
-        <v>0.0019591851145917376</v>
+        <v>0.001959185114591495</v>
       </c>
       <c r="K109">
-        <v>4.85554178957679e-5</v>
+        <v>4.855541789576733e-5</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -4250,19 +4250,19 @@
         <v>4.856017340713718e-5</v>
       </c>
       <c r="G110">
-        <v>7.3023939853143585</v>
+        <v>7.302393985314288</v>
       </c>
       <c r="H110">
-        <v>6.82643307640009e-7</v>
+        <v>6.826433076377346e-7</v>
       </c>
       <c r="I110">
-        <v>0.00013288021396076115</v>
+        <v>0.00013288021396076543</v>
       </c>
       <c r="J110">
-        <v>0.0019596677799848462</v>
+        <v>0.0019596677799846004</v>
       </c>
       <c r="K110">
-        <v>4.8560112460058704e-5</v>
+        <v>4.8560112460058175e-5</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -4285,19 +4285,19 @@
         <v>4.856486514661107e-5</v>
       </c>
       <c r="G111">
-        <v>7.303597223838434</v>
+        <v>7.3035972238383655</v>
       </c>
       <c r="H111">
-        <v>6.751827270620835e-7</v>
+        <v>6.751827270598343e-7</v>
       </c>
       <c r="I111">
-        <v>0.00013560343697710555</v>
+        <v>0.00013560343697710983</v>
       </c>
       <c r="J111">
-        <v>0.001960149232418974</v>
+        <v>0.0019601492324187245</v>
       </c>
       <c r="K111">
-        <v>4.856480567118818e-5</v>
+        <v>4.8564805671187674e-5</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -4320,19 +4320,19 @@
         <v>4.856955557278242e-5</v>
       </c>
       <c r="G112">
-        <v>7.304793667450575</v>
+        <v>7.3047936674505065</v>
       </c>
       <c r="H112">
-        <v>6.677221464395877e-7</v>
+        <v>6.677221464373637e-7</v>
       </c>
       <c r="I112">
-        <v>0.00013832696345314507</v>
+        <v>0.00013832696345314943</v>
       </c>
       <c r="J112">
-        <v>0.001960629485305635</v>
+        <v>0.001960629485305382</v>
       </c>
       <c r="K112">
-        <v>4.856949753297286e-5</v>
+        <v>4.856949753297238e-5</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -4355,19 +4355,19 @@
         <v>4.857424468861359e-5</v>
       </c>
       <c r="G113">
-        <v>7.305983372258019</v>
+        <v>7.305983372257951</v>
       </c>
       <c r="H113">
-        <v>6.602615657725002e-7</v>
+        <v>6.602615657703013e-7</v>
       </c>
       <c r="I113">
-        <v>0.00014105079008766862</v>
+        <v>0.00014105079008767306</v>
       </c>
       <c r="J113">
-        <v>0.0019611085518716387</v>
+        <v>0.0019611085518713833</v>
       </c>
       <c r="K113">
-        <v>4.857418804926329e-5</v>
+        <v>4.857418804926284e-5</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -4390,19 +4390,19 @@
         <v>4.8578932497120964e-5</v>
       </c>
       <c r="G114">
-        <v>7.307166393810159</v>
+        <v>7.307166393810092</v>
       </c>
       <c r="H114">
-        <v>6.528009850608135e-7</v>
+        <v>6.528009850586398e-7</v>
       </c>
       <c r="I114">
-        <v>0.00014377491362451417</v>
+        <v>0.00014377491362451867</v>
       </c>
       <c r="J114">
-        <v>0.0019615864451619698</v>
+        <v>0.001961586445161711</v>
       </c>
       <c r="K114">
-        <v>4.857887722394253e-5</v>
+        <v>4.85788772239421e-5</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -4425,19 +4425,19 @@
         <v>4.8583619001373026e-5</v>
       </c>
       <c r="G115">
-        <v>7.308342787103949</v>
+        <v>7.308342787103882</v>
       </c>
       <c r="H115">
-        <v>6.453404043045255e-7</v>
+        <v>6.453404043023769e-7</v>
       </c>
       <c r="I115">
-        <v>0.0001464993308518703</v>
+        <v>0.00014649933085187492</v>
       </c>
       <c r="J115">
-        <v>0.0019620631780426184</v>
+        <v>0.0019620631780423556</v>
       </c>
       <c r="K115">
-        <v>4.858356506092473e-5</v>
+        <v>4.858356506092435e-5</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -4460,19 +4460,19 @@
         <v>4.858830420448842e-5</v>
       </c>
       <c r="G116">
-        <v>7.3095126065893</v>
+        <v>7.309512606589234</v>
       </c>
       <c r="H116">
-        <v>6.378798235036355e-7</v>
+        <v>6.378798235015118e-7</v>
       </c>
       <c r="I116">
-        <v>0.00014922403860158937</v>
+        <v>0.000149224038601594</v>
       </c>
       <c r="J116">
-        <v>0.0019625387632033666</v>
+        <v>0.0019625387632031003</v>
       </c>
       <c r="K116">
-        <v>4.858825156415377e-5</v>
+        <v>4.8588251564153416e-5</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -4495,19 +4495,19 @@
         <v>4.8592988109634254e-5</v>
       </c>
       <c r="G117">
-        <v>7.31067590617445</v>
+        <v>7.310675906174383</v>
       </c>
       <c r="H117">
-        <v>6.304192426581431e-7</v>
+        <v>6.304192426560444e-7</v>
       </c>
       <c r="I117">
-        <v>0.00015194903374851106</v>
+        <v>0.0001519490337485158</v>
       </c>
       <c r="J117">
-        <v>0.0019630132131605326</v>
+        <v>0.0019630132131602637</v>
       </c>
       <c r="K117">
-        <v>4.859293673760181e-5</v>
+        <v>4.85929367376015e-5</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -4530,19 +4530,19 @@
         <v>4.859767072002417e-5</v>
       </c>
       <c r="G118">
-        <v>7.311832739231305</v>
+        <v>7.31183273923124</v>
       </c>
       <c r="H118">
-        <v>6.22958661768048e-7</v>
+        <v>6.229586617659746e-7</v>
       </c>
       <c r="I118">
-        <v>0.00015467431320979752</v>
+        <v>0.00015467431320980227</v>
       </c>
       <c r="J118">
-        <v>0.0019634865402596664</v>
+        <v>0.001963486540259395</v>
       </c>
       <c r="K118">
-        <v>4.859762058526806e-5</v>
+        <v>4.859762058526778e-5</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -4565,19 +4565,19 @@
         <v>4.86023520389167e-5</v>
       </c>
       <c r="G119">
-        <v>7.3129831586007725</v>
+        <v>7.312983158600708</v>
       </c>
       <c r="H119">
-        <v>6.154980808333505e-7</v>
+        <v>6.154980808313024e-7</v>
       </c>
       <c r="I119">
-        <v>0.00015739987394427861</v>
+        <v>0.0001573998739442834</v>
       </c>
       <c r="J119">
-        <v>0.001963958756678203</v>
+        <v>0.00196395875667793</v>
       </c>
       <c r="K119">
-        <v>4.860230311117742e-5</v>
+        <v>4.860230311117716e-5</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -4600,19 +4600,19 @@
         <v>4.860703206961351e-5</v>
       </c>
       <c r="G120">
-        <v>7.314127216598049</v>
+        <v>7.314127216597985</v>
       </c>
       <c r="H120">
-        <v>6.080374998540506e-7</v>
+        <v>6.080374998520278e-7</v>
       </c>
       <c r="I120">
-        <v>0.00016012571295180792</v>
+        <v>0.00016012571295181272</v>
       </c>
       <c r="J120">
-        <v>0.001964429874428077</v>
+        <v>0.0019644298744278025</v>
       </c>
       <c r="K120">
-        <v>4.860698431937927e-5</v>
+        <v>4.860698431937904e-5</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -4635,19 +4635,19 @@
         <v>4.8611710815457776e-5</v>
       </c>
       <c r="G121">
-        <v>7.315264965017898</v>
+        <v>7.3152649650178345</v>
       </c>
       <c r="H121">
-        <v>6.005769188301484e-7</v>
+        <v>6.005769188281506e-7</v>
       </c>
       <c r="I121">
-        <v>0.00016285182727262921</v>
+        <v>0.00016285182727263415</v>
       </c>
       <c r="J121">
-        <v>0.0019648999053582853</v>
+        <v>0.0019648999053580103</v>
       </c>
       <c r="K121">
-        <v>4.861166421394622e-5</v>
+        <v>4.8611664213946024e-5</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -4670,19 +4670,19 @@
         <v>4.8616388279832565e-5</v>
       </c>
       <c r="G122">
-        <v>7.316396455139888</v>
+        <v>7.316396455139826</v>
       </c>
       <c r="H122">
-        <v>5.931163377616437e-7</v>
+        <v>5.931163377596709e-7</v>
       </c>
       <c r="I122">
-        <v>0.0001655782139867532</v>
+        <v>0.00016557821398675813</v>
       </c>
       <c r="J122">
-        <v>0.0019653688611574204</v>
+        <v>0.001965368861157146</v>
       </c>
       <c r="K122">
-        <v>4.861634279897295e-5</v>
+        <v>4.8616342798972785e-5</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -4705,19 +4705,19 @@
         <v>4.862106446615924e-5</v>
       </c>
       <c r="G123">
-        <v>7.31752173773361</v>
+        <v>7.317521737733549</v>
       </c>
       <c r="H123">
-        <v>5.856557566485366e-7</v>
+        <v>5.856557566465888e-7</v>
       </c>
       <c r="I123">
-        <v>0.0001683048702133441</v>
+        <v>0.00016830487021334903</v>
       </c>
       <c r="J123">
-        <v>0.0019658367533561534</v>
+        <v>0.001965836753355879</v>
       </c>
       <c r="K123">
-        <v>4.8621020078575014e-5</v>
+        <v>4.862102007857488e-5</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -4740,19 +4740,19 @@
         <v>4.8625739377895914e-5</v>
       </c>
       <c r="G124">
-        <v>7.318640863063856</v>
+        <v>7.318640863063796</v>
       </c>
       <c r="H124">
-        <v>5.781951754908269e-7</v>
+        <v>5.781951754889042e-7</v>
       </c>
       <c r="I124">
-        <v>0.00017103179311011644</v>
+        <v>0.00017103179311012145</v>
       </c>
       <c r="J124">
-        <v>0.0019663035933296788</v>
+        <v>0.0019663035933294047</v>
       </c>
       <c r="K124">
-        <v>4.8625696056887756e-5</v>
+        <v>4.862569605688764e-5</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -4775,19 +4775,19 @@
         <v>4.863041301853602e-5</v>
       </c>
       <c r="G125">
-        <v>7.319753880895772</v>
+        <v>7.319753880895712</v>
       </c>
       <c r="H125">
-        <v>5.707345942885147e-7</v>
+        <v>5.707345942866173e-7</v>
       </c>
       <c r="I125">
-        <v>0.00017375897987274172</v>
+        <v>0.00017375897987274668</v>
       </c>
       <c r="J125">
-        <v>0.001966769392300119</v>
+        <v>0.0019667693922998455</v>
       </c>
       <c r="K125">
-        <v>4.863037073806516e-5</v>
+        <v>4.863037073806508e-5</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -4810,19 +4810,19 @@
         <v>4.8635085391606754e-5</v>
       </c>
       <c r="G126">
-        <v>7.320860840499979</v>
+        <v>7.32086084049992</v>
       </c>
       <c r="H126">
-        <v>5.632740130416002e-7</v>
+        <v>5.63274013039728e-7</v>
       </c>
       <c r="I126">
-        <v>0.0001764864277342642</v>
+        <v>0.00017648642773426915</v>
       </c>
       <c r="J126">
-        <v>0.0019672341613388945</v>
+        <v>0.0019672341613386226</v>
       </c>
       <c r="K126">
-        <v>4.863504412627883e-5</v>
+        <v>4.863504412627876e-5</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -4845,19 +4845,19 @@
         <v>4.8639756500667766e-5</v>
       </c>
       <c r="G127">
-        <v>7.321961790657656</v>
+        <v>7.321961790657599</v>
       </c>
       <c r="H127">
-        <v>5.558134317500831e-7</v>
+        <v>5.55813431748236e-7</v>
       </c>
       <c r="I127">
-        <v>0.00017921413396452689</v>
+        <v>0.00017921413396453193</v>
       </c>
       <c r="J127">
-        <v>0.0019676979113690475</v>
+        <v>0.001967697911368777</v>
       </c>
       <c r="K127">
-        <v>4.863971622571694e-5</v>
+        <v>4.863971622571689e-5</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -4880,19 +4880,19 @@
         <v>4.864442634930965e-5</v>
       </c>
       <c r="G128">
-        <v>7.3230567796655945</v>
+        <v>7.323056779665539</v>
       </c>
       <c r="H128">
-        <v>5.483528504139636e-7</v>
+        <v>5.483528504121416e-7</v>
       </c>
       <c r="I128">
-        <v>0.0001819420958696067</v>
+        <v>0.00018194209586961177</v>
       </c>
       <c r="J128">
-        <v>0.0019681606531675323</v>
+        <v>0.0019681606531672634</v>
       </c>
       <c r="K128">
-        <v>4.86443870405832e-5</v>
+        <v>4.864438704058316e-5</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -4915,19 +4915,19 @@
         <v>4.8649094941152706e-5</v>
       </c>
       <c r="G129">
-        <v>7.324145855341215</v>
+        <v>7.32414585534116</v>
       </c>
       <c r="H129">
-        <v>5.408922690332416e-7</v>
+        <v>5.408922690314446e-7</v>
       </c>
       <c r="I129">
-        <v>0.00018467031079125843</v>
+        <v>0.00018467031079126347</v>
       </c>
       <c r="J129">
-        <v>0.0019686223973674677</v>
+        <v>0.0019686223973672005</v>
       </c>
       <c r="K129">
-        <v>4.86490565750959e-5</v>
+        <v>4.864905657509588e-5</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -4950,16 +4950,16 @@
         <v>4.8653762279845545e-5</v>
       </c>
       <c r="G130">
-        <v>7.325229065027549</v>
+        <v>7.325229065027496</v>
       </c>
       <c r="H130">
-        <v>5.334316876079171e-7</v>
+        <v>5.334316876061452e-7</v>
       </c>
       <c r="I130">
-        <v>0.00018739877610636827</v>
+        <v>0.00018739877610637328</v>
       </c>
       <c r="J130">
-        <v>0.0019690831544603507</v>
+        <v>0.001969083154460085</v>
       </c>
       <c r="K130">
         <v>4.865372483348694e-5</v>
@@ -4985,19 +4985,19 @@
         <v>4.8658428369063875e-5</v>
       </c>
       <c r="G131">
-        <v>7.326306455598183</v>
+        <v>7.32630645559813</v>
       </c>
       <c r="H131">
-        <v>5.259711061379903e-7</v>
+        <v>5.259711061362433e-7</v>
       </c>
       <c r="I131">
-        <v>0.00019012748922641606</v>
+        <v>0.00019012748922642104</v>
       </c>
       <c r="J131">
-        <v>0.0019695429347982357</v>
+        <v>0.001969542934797971</v>
       </c>
       <c r="K131">
-        <v>4.865839182000092e-5</v>
+        <v>4.865839182000094e-5</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -5020,19 +5020,19 @@
         <v>4.866309321250919e-5</v>
       </c>
       <c r="G132">
-        <v>7.327378073462167</v>
+        <v>7.327378073462115</v>
       </c>
       <c r="H132">
-        <v>5.185105246234609e-7</v>
+        <v>5.185105246217388e-7</v>
       </c>
       <c r="I132">
-        <v>0.00019285644759694647</v>
+        <v>0.0001928564475969515</v>
       </c>
       <c r="J132">
-        <v>0.0019700017485958766</v>
+        <v>0.0019700017485956138</v>
       </c>
       <c r="K132">
-        <v>4.866305753889421e-5</v>
+        <v>4.866305753889424e-5</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -5055,19 +5055,19 @@
         <v>4.866775681390756e-5</v>
       </c>
       <c r="G133">
-        <v>7.328443964568892</v>
+        <v>7.328443964568841</v>
       </c>
       <c r="H133">
-        <v>5.11049943064329e-7</v>
+        <v>5.110499430626319e-7</v>
       </c>
       <c r="I133">
-        <v>0.00019558564869704881</v>
+        <v>0.00019558564869705383</v>
       </c>
       <c r="J133">
-        <v>0.0019704596059328333</v>
+        <v>0.0019704596059325727</v>
       </c>
       <c r="K133">
-        <v>4.866772199443409e-5</v>
+        <v>4.866772199443412e-5</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -5090,19 +5090,19 @@
         <v>4.8672419177008524e-5</v>
       </c>
       <c r="G134">
-        <v>7.329504174412916</v>
+        <v>7.329504174412866</v>
       </c>
       <c r="H134">
-        <v>5.035893614605947e-7</v>
+        <v>5.035893614589224e-7</v>
       </c>
       <c r="I134">
-        <v>0.00019831509003884516</v>
+        <v>0.00019831509003885022</v>
       </c>
       <c r="J134">
-        <v>0.001970916516755548</v>
+        <v>0.001970916516755289</v>
       </c>
       <c r="K134">
-        <v>4.86723851908979e-5</v>
+        <v>4.867238519089793e-5</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -5125,19 +5125,19 @@
         <v>4.8677080305583846e-5</v>
       </c>
       <c r="G135">
-        <v>7.330558748038766</v>
+        <v>7.330558748038717</v>
       </c>
       <c r="H135">
-        <v>4.961287798122578e-7</v>
+        <v>4.961287798106105e-7</v>
       </c>
       <c r="I135">
-        <v>0.00020104476916698734</v>
+        <v>0.00020104476916699233</v>
       </c>
       <c r="J135">
-        <v>0.0019713724908793787</v>
+        <v>0.001971372490879122</v>
       </c>
       <c r="K135">
-        <v>4.867704713257217e-5</v>
+        <v>4.8677047132572186e-5</v>
       </c>
     </row>
     <row r="136" spans="1:11">
@@ -5160,19 +5160,19 @@
         <v>4.868174020342645e-5</v>
       </c>
       <c r="G136">
-        <v>7.3316077300456906</v>
+        <v>7.331607730045643</v>
       </c>
       <c r="H136">
-        <v>4.886681981193185e-7</v>
+        <v>4.886681981176962e-7</v>
       </c>
       <c r="I136">
-        <v>0.00020377468365816146</v>
+        <v>0.00020377468365816653</v>
       </c>
       <c r="J136">
-        <v>0.0019718275379906076</v>
+        <v>0.0019718275379903534</v>
       </c>
       <c r="K136">
-        <v>4.868170782375186e-5</v>
+        <v>4.868170782375187e-5</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -5195,19 +5195,19 @@
         <v>4.868639887434927e-5</v>
       </c>
       <c r="G137">
-        <v>7.332651164592379</v>
+        <v>7.332651164592333</v>
       </c>
       <c r="H137">
-        <v>4.812076163817767e-7</v>
+        <v>4.812076163801793e-7</v>
       </c>
       <c r="I137">
-        <v>0.00020650483112060166</v>
+        <v>0.00020650483112060668</v>
       </c>
       <c r="J137">
-        <v>0.0019722816676484103</v>
+        <v>0.0019722816676481596</v>
       </c>
       <c r="K137">
-        <v>4.8686367268739564e-5</v>
+        <v>4.868636726873957e-5</v>
       </c>
     </row>
     <row r="138" spans="1:11">
@@ -5230,19 +5230,19 @@
         <v>4.8691056322184274e-5</v>
       </c>
       <c r="G138">
-        <v>7.3336890954016445</v>
+        <v>7.333689095401599</v>
       </c>
       <c r="H138">
-        <v>4.7374703459963247e-7</v>
+        <v>4.737470345980599e-7</v>
       </c>
       <c r="I138">
-        <v>0.00020923520919361057</v>
+        <v>0.00020923520919361563</v>
       </c>
       <c r="J138">
-        <v>0.001972734889286799</v>
+        <v>0.001972734889286551</v>
       </c>
       <c r="K138">
-        <v>4.869102547184472e-5</v>
+        <v>4.869102547184473e-5</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -5265,19 +5265,19 @@
         <v>4.869571255078133e-5</v>
       </c>
       <c r="G139">
-        <v>7.334721565765055</v>
+        <v>7.334721565765011</v>
       </c>
       <c r="H139">
-        <v>4.662864527728856e-7</v>
+        <v>4.66286452771338e-7</v>
       </c>
       <c r="I139">
-        <v>0.0002119658155470887</v>
+        <v>0.00021196581554709372</v>
       </c>
       <c r="J139">
-        <v>0.0019731872122165242</v>
+        <v>0.001973187212216279</v>
       </c>
       <c r="K139">
-        <v>4.86956824373829e-5</v>
+        <v>4.869568243738289e-5</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -5300,19 +5300,19 @@
         <v>4.8700367564007285e-5</v>
       </c>
       <c r="G140">
-        <v>7.33574861854754</v>
+        <v>7.3357486185474965</v>
       </c>
       <c r="H140">
-        <v>4.588258709015363e-7</v>
+        <v>4.588258709000136e-7</v>
       </c>
       <c r="I140">
-        <v>0.000214696647881071</v>
+        <v>0.00021469664788107597</v>
       </c>
       <c r="J140">
-        <v>0.0019736386456269553</v>
+        <v>0.0019736386456267138</v>
       </c>
       <c r="K140">
-        <v>4.870033816967506e-5</v>
+        <v>4.870033816967507e-5</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -5335,16 +5335,16 @@
         <v>4.8705021365744916e-5</v>
       </c>
       <c r="G141">
-        <v>7.336770296191943</v>
+        <v>7.336770296191902</v>
       </c>
       <c r="H141">
-        <v>4.5136528898558446e-7</v>
+        <v>4.5136528898408664e-7</v>
       </c>
       <c r="I141">
-        <v>0.00021742770392527125</v>
+        <v>0.00021742770392527613</v>
       </c>
       <c r="J141">
-        <v>0.0019740891985879235</v>
+        <v>0.0019740891985876854</v>
       </c>
       <c r="K141">
         <v>4.870499267304688e-5</v>
@@ -5370,19 +5370,19 @@
         <v>4.8709673959892015e-5</v>
       </c>
       <c r="G142">
-        <v>7.3377866407235475</v>
+        <v>7.337786640723507</v>
       </c>
       <c r="H142">
-        <v>4.4390470702503017e-7</v>
+        <v>4.4390470702355723e-7</v>
       </c>
       <c r="I142">
-        <v>0.00022015898143863373</v>
+        <v>0.0002201589814386385</v>
       </c>
       <c r="J142">
-        <v>0.0019745388800515356</v>
+        <v>0.001974538880051301</v>
       </c>
       <c r="K142">
-        <v>4.8709645951828055e-5</v>
+        <v>4.870964595182805e-5</v>
       </c>
     </row>
     <row r="143" spans="1:11">
@@ -5405,16 +5405,16 @@
         <v>4.871432535036046e-5</v>
       </c>
       <c r="G143">
-        <v>7.338797693754548</v>
+        <v>7.338797693754508</v>
       </c>
       <c r="H143">
-        <v>4.364441250198734e-7</v>
+        <v>4.3644412501842534e-7</v>
       </c>
       <c r="I143">
-        <v>0.0002228904782088928</v>
+        <v>0.0002228904782088974</v>
       </c>
       <c r="J143">
-        <v>0.001974987698853959</v>
+        <v>0.001974987698853728</v>
       </c>
       <c r="K143">
         <v>4.8714298010351607e-5</v>
@@ -5440,19 +5440,19 @@
         <v>4.871897554107528e-5</v>
       </c>
       <c r="G144">
-        <v>7.33980349648849</v>
+        <v>7.339803496488452</v>
       </c>
       <c r="H144">
-        <v>4.289835429701141e-7</v>
+        <v>4.28983542968691e-7</v>
       </c>
       <c r="I144">
-        <v>0.0002256221920521388</v>
+        <v>0.00022562219205214326</v>
       </c>
       <c r="J144">
-        <v>0.001975435663717178</v>
+        <v>0.001975435663716951</v>
       </c>
       <c r="K144">
-        <v>4.871894885295334e-5</v>
+        <v>4.8718948852953345e-5</v>
       </c>
     </row>
     <row r="145" spans="1:11">
@@ -5475,16 +5475,16 @@
         <v>4.872362453597382e-5</v>
       </c>
       <c r="G145">
-        <v>7.340804089724672</v>
+        <v>7.340804089724634</v>
       </c>
       <c r="H145">
-        <v>4.215229608757523e-7</v>
+        <v>4.215229608743543e-7</v>
       </c>
       <c r="I145">
-        <v>0.0002283541208123921</v>
+        <v>0.00022835412081239647</v>
       </c>
       <c r="J145">
-        <v>0.0019758827832507177</v>
+        <v>0.0019758827832504944</v>
       </c>
       <c r="K145">
         <v>4.872359848397112e-5</v>
@@ -5510,16 +5510,16 @@
         <v>4.8728272339004855e-5</v>
       </c>
       <c r="G146">
-        <v>7.341799513862491</v>
+        <v>7.341799513862455</v>
       </c>
       <c r="H146">
-        <v>4.140623787367881e-7</v>
+        <v>4.1406237873541496e-7</v>
       </c>
       <c r="I146">
-        <v>0.0002310862623611837</v>
+        <v>0.00023108626236118785</v>
       </c>
       <c r="J146">
-        <v>0.001976329065953341</v>
+        <v>0.001976329065953122</v>
       </c>
       <c r="K146">
         <v>4.872824690774433e-5</v>
@@ -5545,19 +5545,19 @@
         <v>4.8732918954127786e-5</v>
       </c>
       <c r="G147">
-        <v>7.342789808905767</v>
+        <v>7.342789808905732</v>
       </c>
       <c r="H147">
-        <v>4.066017965532214e-7</v>
+        <v>4.066017965518731e-7</v>
       </c>
       <c r="I147">
-        <v>0.00023381861459714228</v>
+        <v>0.0002338186145971463</v>
       </c>
       <c r="J147">
-        <v>0.001976774520214721</v>
+        <v>0.001976774520214505</v>
       </c>
       <c r="K147">
-        <v>4.8732894128613204e-5</v>
+        <v>4.87328941286132e-5</v>
       </c>
     </row>
     <row r="148" spans="1:11">
@@ -5580,19 +5580,19 @@
         <v>4.873756438531177e-5</v>
       </c>
       <c r="G148">
-        <v>7.343775014467013</v>
+        <v>7.343775014466979</v>
       </c>
       <c r="H148">
-        <v>3.9914121432505225e-7</v>
+        <v>3.9914121432372866e-7</v>
       </c>
       <c r="I148">
-        <v>0.00023655117544558912</v>
+        <v>0.00023655117544559286</v>
       </c>
       <c r="J148">
-        <v>0.0019772191543170788</v>
+        <v>0.001977219154316866</v>
       </c>
       <c r="K148">
-        <v>4.873754015091837e-5</v>
+        <v>4.8737540150918355e-5</v>
       </c>
     </row>
     <row r="149" spans="1:11">
@@ -5615,19 +5615,19 @@
         <v>4.874220863653503e-5</v>
       </c>
       <c r="G149">
-        <v>7.344755169771668</v>
+        <v>7.344755169771635</v>
       </c>
       <c r="H149">
-        <v>3.916806320522805e-7</v>
+        <v>3.9168063205098174e-7</v>
       </c>
       <c r="I149">
-        <v>0.00023928394285813837</v>
+        <v>0.00023928394285814198</v>
       </c>
       <c r="J149">
-        <v>0.0019776629764367997</v>
+        <v>0.001977662976436591</v>
       </c>
       <c r="K149">
-        <v>4.874218497900019e-5</v>
+        <v>4.874218497900018e-5</v>
       </c>
     </row>
     <row r="150" spans="1:11">
@@ -5650,19 +5650,19 @@
         <v>4.874685171178402e-5</v>
       </c>
       <c r="G150">
-        <v>7.34573031366229</v>
+        <v>7.345730313662258</v>
       </c>
       <c r="H150">
-        <v>3.842200497349063e-7</v>
+        <v>3.8422004973363223e-7</v>
       </c>
       <c r="I150">
-        <v>0.00024201691481230534</v>
+        <v>0.0002420169148123087</v>
       </c>
       <c r="J150">
-        <v>0.0019781059946460252</v>
+        <v>0.00197810599464582</v>
       </c>
       <c r="K150">
-        <v>4.874682861719832e-5</v>
+        <v>4.874682861719831e-5</v>
       </c>
     </row>
     <row r="151" spans="1:11">
@@ -5685,19 +5685,19 @@
         <v>4.875149361505269e-5</v>
       </c>
       <c r="G151">
-        <v>7.3467004846027075</v>
+        <v>7.3467004846026756</v>
       </c>
       <c r="H151">
-        <v>3.767594673729296e-7</v>
+        <v>3.7675946737168035e-7</v>
       </c>
       <c r="I151">
-        <v>0.00024475008931111977</v>
+        <v>0.00024475008931112286</v>
       </c>
       <c r="J151">
-        <v>0.001978548216914209</v>
+        <v>0.0019785482169140073</v>
       </c>
       <c r="K151">
-        <v>4.875147106985112e-5</v>
+        <v>4.875147106985111e-5</v>
       </c>
     </row>
     <row r="152" spans="1:11">
@@ -5720,16 +5720,16 @@
         <v>4.87561343503418e-5</v>
       </c>
       <c r="G152">
-        <v>7.34766572068213</v>
+        <v>7.347665720682099</v>
       </c>
       <c r="H152">
-        <v>3.6929888496635054e-7</v>
+        <v>3.69298884965126e-7</v>
       </c>
       <c r="I152">
-        <v>0.00024748346438274645</v>
+        <v>0.00024748346438274927</v>
       </c>
       <c r="J152">
-        <v>0.001978989651109657</v>
+        <v>0.0019789896511094576</v>
       </c>
       <c r="K152">
         <v>4.875611234129514e-5</v>
@@ -5755,19 +5755,19 @@
         <v>4.876077392165816e-5</v>
       </c>
       <c r="G153">
-        <v>7.348626059619217</v>
+        <v>7.348626059619188</v>
       </c>
       <c r="H153">
-        <v>3.61838302515169e-7</v>
+        <v>3.618383025139692e-7</v>
       </c>
       <c r="I153">
-        <v>0.00025021703808011177</v>
+        <v>0.0002502170380801145</v>
       </c>
       <c r="J153">
-        <v>0.001979430305001035</v>
+        <v>0.001979430305000838</v>
       </c>
       <c r="K153">
-        <v>4.8760752435864735e-5</v>
+        <v>4.876075243586472e-5</v>
       </c>
     </row>
     <row r="154" spans="1:11">
@@ -5790,19 +5790,19 @@
         <v>4.8765412333014024e-5</v>
       </c>
       <c r="G154">
-        <v>7.3495815387661105</v>
+        <v>7.349581538766082</v>
       </c>
       <c r="H154">
-        <v>3.543777200193849e-7</v>
+        <v>3.5437772001821e-7</v>
       </c>
       <c r="I154">
-        <v>0.00025295080848053653</v>
+        <v>0.00025295080848053897</v>
       </c>
       <c r="J154">
-        <v>0.0019798701862588576</v>
+        <v>0.0019798701862586625</v>
       </c>
       <c r="K154">
-        <v>4.876539135789144e-5</v>
+        <v>4.876539135789141e-5</v>
       </c>
     </row>
     <row r="155" spans="1:11">
@@ -5825,19 +5825,19 @@
         <v>4.877004958842636e-5</v>
       </c>
       <c r="G155">
-        <v>7.350532195112418</v>
+        <v>7.35053219511239</v>
       </c>
       <c r="H155">
-        <v>3.469171374789984e-7</v>
+        <v>3.469171374778483e-7</v>
       </c>
       <c r="I155">
-        <v>0.00025568477368537423</v>
+        <v>0.00025568477368537645</v>
       </c>
       <c r="J155">
-        <v>0.001980309302456947</v>
+        <v>0.001980309302456755</v>
       </c>
       <c r="K155">
-        <v>4.877002911170361e-5</v>
+        <v>4.8770029111703576e-5</v>
       </c>
     </row>
     <row r="156" spans="1:11">
@@ -5860,19 +5860,19 @@
         <v>4.877468569191625e-5</v>
       </c>
       <c r="G156">
-        <v>7.351478065289164</v>
+        <v>7.351478065289136</v>
       </c>
       <c r="H156">
-        <v>3.3945655489400944e-7</v>
+        <v>3.3945655489288415e-7</v>
       </c>
       <c r="I156">
-        <v>0.00025841893181965616</v>
+        <v>0.00025841893181965806</v>
       </c>
       <c r="J156">
-        <v>0.001980747661073873</v>
+        <v>0.0019807476610736834</v>
       </c>
       <c r="K156">
-        <v>4.877466570162596e-5</v>
+        <v>4.8774665701625895e-5</v>
       </c>
     </row>
     <row r="157" spans="1:11">
@@ -5895,19 +5895,19 @@
         <v>4.877932064750823e-5</v>
       </c>
       <c r="G157">
-        <v>7.352419185572696</v>
+        <v>7.3524191855726695</v>
       </c>
       <c r="H157">
-        <v>3.31995972264418e-7</v>
+        <v>3.319959722633175e-7</v>
       </c>
       <c r="I157">
-        <v>0.0002611532810317413</v>
+        <v>0.00026115328103174304</v>
       </c>
       <c r="J157">
-        <v>0.001981185269494364</v>
+        <v>0.0019811852694941777</v>
       </c>
       <c r="K157">
-        <v>4.877930113197911e-5</v>
+        <v>4.8779301131979014e-5</v>
       </c>
     </row>
     <row r="158" spans="1:11">
@@ -5930,19 +5930,19 @@
         <v>4.8783954459229714e-5</v>
       </c>
       <c r="G158">
-        <v>7.3533555918885565</v>
+        <v>7.353355591888531</v>
       </c>
       <c r="H158">
-        <v>3.2453538959022417e-7</v>
+        <v>3.2453538958914844e-7</v>
       </c>
       <c r="I158">
-        <v>0.00026388781949297335</v>
+        <v>0.00026388781949297476</v>
       </c>
       <c r="J158">
-        <v>0.0019816221350106994</v>
+        <v>0.0019816221350105164</v>
       </c>
       <c r="K158">
-        <v>4.878393540707917e-5</v>
+        <v>4.8783935407079055e-5</v>
       </c>
     </row>
     <row r="159" spans="1:11">
@@ -5965,19 +5965,19 @@
         <v>4.878858713111039e-5</v>
       </c>
       <c r="G159">
-        <v>7.354287319815304</v>
+        <v>7.354287319815279</v>
       </c>
       <c r="H159">
-        <v>3.1707480687142785e-7</v>
+        <v>3.1707480687037684e-7</v>
       </c>
       <c r="I159">
-        <v>0.0002666225453973415</v>
+        <v>0.0002666225453973427</v>
       </c>
       <c r="J159">
-        <v>0.0019820582648240772</v>
+        <v>0.001982058264823897</v>
       </c>
       <c r="K159">
-        <v>4.878856853123734e-5</v>
+        <v>4.878856853123722e-5</v>
       </c>
     </row>
     <row r="160" spans="1:11">
@@ -6000,19 +6000,19 @@
         <v>4.879321866718166e-5</v>
       </c>
       <c r="G160">
-        <v>7.355214404588306</v>
+        <v>7.355214404588281</v>
       </c>
       <c r="H160">
-        <v>3.096142241080291e-7</v>
+        <v>3.0961422410700287e-7</v>
       </c>
       <c r="I160">
-        <v>0.0002693574569611485</v>
+        <v>0.00026935745696114965</v>
       </c>
       <c r="J160">
-        <v>0.0019824936660459568</v>
+        <v>0.0019824936660457794</v>
       </c>
       <c r="K160">
-        <v>4.879320050875953e-5</v>
+        <v>4.879320050875939e-5</v>
       </c>
     </row>
     <row r="161" spans="1:11">
@@ -6035,19 +6035,19 @@
         <v>4.8797849071476024e-5</v>
       </c>
       <c r="G161">
-        <v>7.356136881103484</v>
+        <v>7.35613688110346</v>
       </c>
       <c r="H161">
-        <v>3.021536413000279e-7</v>
+        <v>3.021536412990264e-7</v>
       </c>
       <c r="I161">
-        <v>0.00027209255242268353</v>
+        <v>0.0002720925524226844</v>
       </c>
       <c r="J161">
-        <v>0.001982928345699384</v>
+        <v>0.00198292834569921</v>
       </c>
       <c r="K161">
-        <v>4.879783134394595e-5</v>
+        <v>4.87978313439458e-5</v>
       </c>
     </row>
     <row r="162" spans="1:11">
@@ -6070,19 +6070,19 @@
         <v>4.880247834802665e-5</v>
       </c>
       <c r="G162">
-        <v>7.357054783921022</v>
+        <v>7.357054783920998</v>
       </c>
       <c r="H162">
-        <v>2.946930584474242e-7</v>
+        <v>2.9469305844644754e-7</v>
       </c>
       <c r="I162">
-        <v>0.0002748278300418995</v>
+        <v>0.0002748278300419003</v>
       </c>
       <c r="J162">
-        <v>0.001983362310720294</v>
+        <v>0.001983362310720122</v>
       </c>
       <c r="K162">
-        <v>4.8802461041090746e-5</v>
+        <v>4.8802461041090604e-5</v>
       </c>
     </row>
     <row r="163" spans="1:11">
@@ -6105,19 +6105,19 @@
         <v>4.880710650086678e-5</v>
       </c>
       <c r="G163">
-        <v>7.357968147269038</v>
+        <v>7.357968147269015</v>
       </c>
       <c r="H163">
-        <v>2.872324755502181e-7</v>
+        <v>2.872324755492662e-7</v>
       </c>
       <c r="I163">
-        <v>0.00027756328810009737</v>
+        <v>0.000277563288100098</v>
       </c>
       <c r="J163">
-        <v>0.001983795567958786</v>
+        <v>0.0019837955679586168</v>
       </c>
       <c r="K163">
-        <v>4.880708960448169e-5</v>
+        <v>4.8807089604481545e-5</v>
       </c>
     </row>
     <row r="164" spans="1:11">
@@ -6140,19 +6140,19 @@
         <v>4.881173353402921e-5</v>
       </c>
       <c r="G164">
-        <v>7.358877005047214</v>
+        <v>7.358877005047192</v>
       </c>
       <c r="H164">
-        <v>2.7977189260840953e-7</v>
+        <v>2.797718926074824e-7</v>
       </c>
       <c r="I164">
-        <v>0.000280298924899614</v>
+        <v>0.00028029892489961464</v>
       </c>
       <c r="J164">
-        <v>0.0019842281241803875</v>
+        <v>0.0019842281241802214</v>
       </c>
       <c r="K164">
-        <v>4.881171703839975e-5</v>
+        <v>4.8811717038399594e-5</v>
       </c>
     </row>
     <row r="165" spans="1:11">
@@ -6175,19 +6175,19 @@
         <v>4.881635945154582e-5</v>
       </c>
       <c r="G165">
-        <v>7.359781390830384</v>
+        <v>7.359781390830362</v>
       </c>
       <c r="H165">
-        <v>2.723113096219985e-7</v>
+        <v>2.723113096210961e-7</v>
       </c>
       <c r="I165">
-        <v>0.00028303473876351644</v>
+        <v>0.000283034738763517</v>
       </c>
       <c r="J165">
-        <v>0.0019846599860672914</v>
+        <v>0.001984659986067128</v>
       </c>
       <c r="K165">
-        <v>4.881634334711882e-5</v>
+        <v>4.8816343347118655e-5</v>
       </c>
     </row>
     <row r="166" spans="1:11">
@@ -6210,19 +6210,19 @@
         <v>4.88209842574471e-5</v>
       </c>
       <c r="G166">
-        <v>7.360681337872092</v>
+        <v>7.36068133787207</v>
       </c>
       <c r="H166">
-        <v>2.64850726590985e-7</v>
+        <v>2.648507265901073e-7</v>
       </c>
       <c r="I166">
-        <v>0.0002857707280352999</v>
+        <v>0.00028577072803530026</v>
       </c>
       <c r="J166">
-        <v>0.001985091160219573</v>
+        <v>0.001985091160219412</v>
       </c>
       <c r="K166">
-        <v>4.8820968534905356e-5</v>
+        <v>4.8820968534905194e-5</v>
       </c>
     </row>
     <row r="167" spans="1:11">
@@ -6245,19 +6245,19 @@
         <v>4.8825607955761696e-5</v>
       </c>
       <c r="G167">
-        <v>7.361576879108101</v>
+        <v>7.36157687910808</v>
       </c>
       <c r="H167">
-        <v>2.5739014351536904e-7</v>
+        <v>2.573901435145161e-7</v>
       </c>
       <c r="I167">
-        <v>0.0002885068910785913</v>
+        <v>0.0002885068910785916</v>
       </c>
       <c r="J167">
-        <v>0.001985521653156387</v>
+        <v>0.00198552165315623</v>
       </c>
       <c r="K167">
-        <v>4.8825592606018125e-5</v>
+        <v>4.8825592606017956e-5</v>
       </c>
     </row>
     <row r="168" spans="1:11">
@@ -6280,19 +6280,19 @@
         <v>4.883023055051594e-5</v>
       </c>
       <c r="G168">
-        <v>7.362468047159876</v>
+        <v>7.362468047159855</v>
       </c>
       <c r="H168">
-        <v>2.4992956039515067e-7</v>
+        <v>2.4992956039432243e-7</v>
       </c>
       <c r="I168">
-        <v>0.0002912432262768584</v>
+        <v>0.00029124322627685874</v>
       </c>
       <c r="J168">
-        <v>0.001985951471317152</v>
+        <v>0.0019859514713169973</v>
       </c>
       <c r="K168">
-        <v>4.8830215564707806e-5</v>
+        <v>4.8830215564707637e-5</v>
       </c>
     </row>
     <row r="169" spans="1:11">
@@ -6315,19 +6315,19 @@
         <v>4.8834852045733394e-5</v>
       </c>
       <c r="G169">
-        <v>7.3633548743380155</v>
+        <v>7.363354874337995</v>
       </c>
       <c r="H169">
-        <v>2.424689772303298e-7</v>
+        <v>2.424689772295263e-7</v>
       </c>
       <c r="I169">
-        <v>0.00029397973203312204</v>
+        <v>0.0002939797320331223</v>
       </c>
       <c r="J169">
-        <v>0.001986380621062703</v>
+        <v>0.0019863806210625515</v>
       </c>
       <c r="K169">
-        <v>4.883483741521678e-5</v>
+        <v>4.883483741521661e-5</v>
       </c>
     </row>
     <row r="170" spans="1:11">
@@ -6350,19 +6350,19 @@
         <v>4.883947244543449e-5</v>
       </c>
       <c r="G170">
-        <v>7.3642373926456575</v>
+        <v>7.364237392645638</v>
       </c>
       <c r="H170">
-        <v>2.3500839402090656e-7</v>
+        <v>2.3500839402012774e-7</v>
       </c>
       <c r="I170">
-        <v>0.000296716406769674</v>
+        <v>0.00029671640676967424</v>
       </c>
       <c r="J170">
-        <v>0.0019868091086764354</v>
+        <v>0.001986809108676288</v>
       </c>
       <c r="K170">
-        <v>4.883945816177881e-5</v>
+        <v>4.883945816177866e-5</v>
       </c>
     </row>
     <row r="171" spans="1:11">
@@ -6385,19 +6385,19 @@
         <v>4.884409175363606e-5</v>
       </c>
       <c r="G171">
-        <v>7.3651156337818415</v>
+        <v>7.365115633781823</v>
       </c>
       <c r="H171">
-        <v>2.2754781076688083e-7</v>
+        <v>2.275478107661267e-7</v>
       </c>
       <c r="I171">
-        <v>0.0002994532489277999</v>
+        <v>0.0002994532489278</v>
       </c>
       <c r="J171">
-        <v>0.001987236940365428</v>
+        <v>0.0019872369403652838</v>
       </c>
       <c r="K171">
-        <v>4.884407780861878e-5</v>
+        <v>4.884407780861863e-5</v>
       </c>
     </row>
     <row r="172" spans="1:11">
@@ -6420,19 +6420,19 @@
         <v>4.8848709974350974e-5</v>
       </c>
       <c r="G172">
-        <v>7.365989629144837</v>
+        <v>7.365989629144818</v>
       </c>
       <c r="H172">
-        <v>2.200872274682527e-7</v>
+        <v>2.2008722746752328e-7</v>
       </c>
       <c r="I172">
-        <v>0.00030219025696750525</v>
+        <v>0.0003021902569675053</v>
       </c>
       <c r="J172">
-        <v>0.0019876641222615443</v>
+        <v>0.0019876641222614042</v>
       </c>
       <c r="K172">
-        <v>4.884869635995241e-5</v>
+        <v>4.884869635995226e-5</v>
       </c>
     </row>
     <row r="173" spans="1:11">
@@ -6455,19 +6455,19 @@
         <v>4.885332711158771e-5</v>
       </c>
       <c r="G173">
-        <v>7.366859409835428</v>
+        <v>7.366859409835409</v>
       </c>
       <c r="H173">
-        <v>2.1262664412502214e-7</v>
+        <v>2.1262664412431743e-7</v>
       </c>
       <c r="I173">
         <v>0.0003049274293672471</v>
       </c>
       <c r="J173">
-        <v>0.001988090660422521</v>
+        <v>0.0019880906604223844</v>
       </c>
       <c r="K173">
-        <v>4.8853313819986024e-5</v>
+        <v>4.8853313819985875e-5</v>
       </c>
     </row>
     <row r="174" spans="1:11">
@@ -6490,19 +6490,19 @@
         <v>4.885794316935006e-5</v>
       </c>
       <c r="G174">
-        <v>7.367725006660173</v>
+        <v>7.367725006660155</v>
       </c>
       <c r="H174">
-        <v>2.0516606073718908e-7</v>
+        <v>2.0516606073650913e-7</v>
       </c>
       <c r="I174">
-        <v>0.0003076647646236694</v>
+        <v>0.00030766476462366937</v>
       </c>
       <c r="J174">
-        <v>0.001988516560833033</v>
+        <v>0.0019885165608328997</v>
       </c>
       <c r="K174">
-        <v>4.8857930192916274e-5</v>
+        <v>4.8857930192916125e-5</v>
       </c>
     </row>
     <row r="175" spans="1:11">
@@ -6525,19 +6525,19 @@
         <v>4.8862558151636686e-5</v>
       </c>
       <c r="G175">
-        <v>7.368586450134619</v>
+        <v>7.368586450134602</v>
       </c>
       <c r="H175">
-        <v>1.9770547730475363e-7</v>
+        <v>1.9770547730409843e-7</v>
       </c>
       <c r="I175">
-        <v>0.0003104022612513434</v>
+        <v>0.0003104022612513432</v>
       </c>
       <c r="J175">
-        <v>0.001988941829405747</v>
+        <v>0.0019889418294056172</v>
       </c>
       <c r="K175">
-        <v>4.886254548292995e-5</v>
+        <v>4.886254548292981e-5</v>
       </c>
     </row>
     <row r="176" spans="1:11">
@@ -6560,19 +6560,19 @@
         <v>4.886717206244084e-5</v>
       </c>
       <c r="G176">
-        <v>7.369443770486484</v>
+        <v>7.369443770486467</v>
       </c>
       <c r="H176">
-        <v>1.9024489382771578e-7</v>
+        <v>1.902448938270853e-7</v>
       </c>
       <c r="I176">
-        <v>0.0003131399177825107</v>
+        <v>0.0003131399177825104</v>
       </c>
       <c r="J176">
-        <v>0.0019893664719823545</v>
+        <v>0.0019893664719822287</v>
       </c>
       <c r="K176">
-        <v>4.886715969420372e-5</v>
+        <v>4.8867159694203585e-5</v>
       </c>
     </row>
     <row r="177" spans="1:11">
@@ -6595,19 +6595,19 @@
         <v>4.887178490574996e-5</v>
       </c>
       <c r="G177">
-        <v>7.3702969976588015</v>
+        <v>7.370296997658785</v>
       </c>
       <c r="H177">
-        <v>1.827843103060755e-7</v>
+        <v>1.8278431030546972e-7</v>
       </c>
       <c r="I177">
-        <v>0.0003158777327668324</v>
+        <v>0.0003158777327668321</v>
       </c>
       <c r="J177">
-        <v>0.0019897904943345893</v>
+        <v>0.0019897904943344666</v>
       </c>
       <c r="K177">
-        <v>4.8871772830903894e-5</v>
+        <v>4.887177283090378e-5</v>
       </c>
     </row>
     <row r="178" spans="1:11">
@@ -6630,19 +6630,19 @@
         <v>4.8876396685545405e-5</v>
       </c>
       <c r="G178">
-        <v>7.371146161313031</v>
+        <v>7.371146161313014</v>
       </c>
       <c r="H178">
-        <v>1.7532372673983283e-7</v>
+        <v>1.753237267392518e-7</v>
       </c>
       <c r="I178">
-        <v>0.0003186157047711406</v>
+        <v>0.00031861570477114017</v>
       </c>
       <c r="J178">
-        <v>0.0019902139021652273</v>
+        <v>0.001990213902165108</v>
       </c>
       <c r="K178">
-        <v>4.887638489718624e-5</v>
+        <v>4.887638489718612e-5</v>
       </c>
     </row>
     <row r="179" spans="1:11">
@@ -6665,19 +6665,19 @@
         <v>4.8881007405802075e-5</v>
       </c>
       <c r="G179">
-        <v>7.371991290832134</v>
+        <v>7.371991290832118</v>
       </c>
       <c r="H179">
-        <v>1.6786314312898778e-7</v>
+        <v>1.6786314312843144e-7</v>
       </c>
       <c r="I179">
-        <v>0.00032135383237919516</v>
+        <v>0.0003213538323791947</v>
       </c>
       <c r="J179">
-        <v>0.0019906367011090715</v>
+        <v>0.0019906367011089557</v>
       </c>
       <c r="K179">
-        <v>4.8880995897195764e-5</v>
+        <v>4.888099589719566e-5</v>
       </c>
     </row>
     <row r="180" spans="1:11">
@@ -6700,19 +6700,19 @@
         <v>4.8885617070488176e-5</v>
       </c>
       <c r="G180">
-        <v>7.372832415323617</v>
+        <v>7.372832415323601</v>
       </c>
       <c r="H180">
-        <v>1.604025594735403e-7</v>
+        <v>1.604025594730087e-7</v>
       </c>
       <c r="I180">
-        <v>0.0003240921141914434</v>
+        <v>0.00032409211419144287</v>
       </c>
       <c r="J180">
-        <v>0.0019910588967339215</v>
+        <v>0.0019910588967338096</v>
       </c>
       <c r="K180">
-        <v>4.888560583506651e-5</v>
+        <v>4.888560583506641e-5</v>
       </c>
     </row>
     <row r="181" spans="1:11">
@@ -6735,19 +6735,19 @@
         <v>4.8890225683564855e-5</v>
       </c>
       <c r="G181">
-        <v>7.373669563622535</v>
+        <v>7.37366956362252</v>
       </c>
       <c r="H181">
-        <v>1.5294197577349038e-7</v>
+        <v>1.5294197577298348e-7</v>
       </c>
       <c r="I181">
-        <v>0.0003268305488247842</v>
+        <v>0.00032683054882478376</v>
       </c>
       <c r="J181">
-        <v>0.001991480494541525</v>
+        <v>0.0019914804945414173</v>
       </c>
       <c r="K181">
-        <v>4.8890214714921395e-5</v>
+        <v>4.8890214714921286e-5</v>
       </c>
     </row>
     <row r="182" spans="1:11">
@@ -6770,19 +6770,19 @@
         <v>4.889483324898594e-5</v>
       </c>
       <c r="G182">
-        <v>7.374502764294464</v>
+        <v>7.374502764294449</v>
       </c>
       <c r="H182">
-        <v>1.4548139202883805e-7</v>
+        <v>1.4548139202835585e-7</v>
       </c>
       <c r="I182">
-        <v>0.00032956913491233596</v>
+        <v>0.00032956913491233547</v>
       </c>
       <c r="J182">
-        <v>0.0019919014999685183</v>
+        <v>0.0019919014999684147</v>
       </c>
       <c r="K182">
-        <v>4.889482254087196e-5</v>
+        <v>4.889482254087186e-5</v>
       </c>
     </row>
     <row r="183" spans="1:11">
@@ -6805,19 +6805,19 @@
         <v>4.889943977069769e-5</v>
       </c>
       <c r="G183">
-        <v>7.375332045638439</v>
+        <v>7.375332045638426</v>
       </c>
       <c r="H183">
-        <v>1.380208082395833e-7</v>
+        <v>1.3802080823912577e-7</v>
       </c>
       <c r="I183">
-        <v>0.0003323078711032076</v>
+        <v>0.0003323078711032072</v>
       </c>
       <c r="J183">
-        <v>0.0019923219183873454</v>
+        <v>0.001992321918387246</v>
       </c>
       <c r="K183">
-        <v>4.889942931701826e-5</v>
+        <v>4.889942931701818e-5</v>
       </c>
     </row>
     <row r="184" spans="1:11">
@@ -6840,19 +6840,19 @@
         <v>4.89040452526385e-5</v>
       </c>
       <c r="G184">
-        <v>7.376157435689865</v>
+        <v>7.376157435689851</v>
       </c>
       <c r="H184">
-        <v>1.3056022440572607e-7</v>
+        <v>1.3056022440529327e-7</v>
       </c>
       <c r="I184">
-        <v>0.0003350467560622742</v>
+        <v>0.00033504675606227385</v>
       </c>
       <c r="J184">
-        <v>0.0019927417551071683</v>
+        <v>0.001992741755107074</v>
       </c>
       <c r="K184">
-        <v>4.890403504744871e-5</v>
+        <v>4.890403504744862e-5</v>
       </c>
     </row>
     <row r="185" spans="1:11">
@@ -6875,19 +6875,19 @@
         <v>4.890864969873863e-5</v>
       </c>
       <c r="G185">
-        <v>7.3769789622233795</v>
+        <v>7.376978962223367</v>
       </c>
       <c r="H185">
-        <v>1.2309964052726642e-7</v>
+        <v>1.2309964052685828e-7</v>
       </c>
       <c r="I185">
-        <v>0.0003377857884699553</v>
+        <v>0.00033778578846995486</v>
       </c>
       <c r="J185">
-        <v>0.0019931610153747603</v>
+        <v>0.001993161015374671</v>
       </c>
       <c r="K185">
-        <v>4.890863973623982e-5</v>
+        <v>4.890863973623974e-5</v>
       </c>
     </row>
     <row r="186" spans="1:11">
@@ -6910,19 +6910,19 @@
         <v>4.8913253112919964e-5</v>
       </c>
       <c r="G186">
-        <v>7.377796652755699</v>
+        <v>7.377796652755687</v>
       </c>
       <c r="H186">
-        <v>1.1563905660420434e-7</v>
+        <v>1.156390566038209e-7</v>
       </c>
       <c r="I186">
-        <v>0.0003405249670219971</v>
+        <v>0.00034052496702199664</v>
       </c>
       <c r="J186">
-        <v>0.0019935797043753845</v>
+        <v>0.0019935797043753004</v>
       </c>
       <c r="K186">
-        <v>4.891324338745614e-5</v>
+        <v>4.891324338745607e-5</v>
       </c>
     </row>
     <row r="187" spans="1:11">
@@ -6945,19 +6945,19 @@
         <v>4.891785549909579e-5</v>
       </c>
       <c r="G187">
-        <v>7.3786105345484225</v>
+        <v>7.378610534548412</v>
       </c>
       <c r="H187">
-        <v>1.0817847263653984e-7</v>
+        <v>1.0817847263618111e-7</v>
       </c>
       <c r="I187">
-        <v>0.00034326429042925863</v>
+        <v>0.0003432642904292581</v>
       </c>
       <c r="J187">
-        <v>0.001993997827233658</v>
+        <v>0.0019939978272335798</v>
       </c>
       <c r="K187">
-        <v>4.891784600515007e-5</v>
+        <v>4.8917846005149994e-5</v>
       </c>
     </row>
     <row r="188" spans="1:11">
@@ -6980,19 +6980,19 @@
         <v>4.8922456861170575e-5</v>
       </c>
       <c r="G188">
-        <v>7.379420634610807</v>
+        <v>7.3794206346107964</v>
       </c>
       <c r="H188">
-        <v>1.0071788862427291e-7</v>
+        <v>1.007178886239389e-7</v>
       </c>
       <c r="I188">
-        <v>0.0003460037574175004</v>
+        <v>0.00034600375741749976</v>
       </c>
       <c r="J188">
-        <v>0.0019944153890144056</v>
+        <v>0.001994415389014333</v>
       </c>
       <c r="K188">
-        <v>4.8922447593361704e-5</v>
+        <v>4.8922447593361616e-5</v>
       </c>
     </row>
     <row r="189" spans="1:11">
@@ -7015,19 +7015,19 @@
         <v>4.892705720303966e-5</v>
       </c>
       <c r="G189">
-        <v>7.380226979702509</v>
+        <v>7.380226979702499</v>
       </c>
       <c r="H189">
-        <v>9.325730456740355e-8</v>
+        <v>9.325730456709429e-8</v>
       </c>
       <c r="I189">
-        <v>0.0003487433667271769</v>
+        <v>0.0003487433667271762</v>
       </c>
       <c r="J189">
-        <v>0.001994832394723496</v>
+        <v>0.001994832394723428</v>
       </c>
       <c r="K189">
-        <v>4.89270481561187e-5</v>
+        <v>4.892704815611863e-5</v>
       </c>
     </row>
     <row r="190" spans="1:11">
@@ -7050,19 +7050,19 @@
         <v>4.893165652858914e-5</v>
       </c>
       <c r="G190">
-        <v>7.381029596336297</v>
+        <v>7.381029596336287</v>
       </c>
       <c r="H190">
-        <v>8.579672046593178e-8</v>
+        <v>8.579672046564724e-8</v>
       </c>
       <c r="I190">
-        <v>0.0003514831171132326</v>
+        <v>0.00035148311711323175</v>
       </c>
       <c r="J190">
-        <v>0.0019952488493086636</v>
+        <v>0.001995248849308601</v>
       </c>
       <c r="K190">
-        <v>4.8931647697436174e-5</v>
+        <v>4.8931647697436107e-5</v>
       </c>
     </row>
     <row r="191" spans="1:11">
@@ -7085,19 +7085,19 @@
         <v>4.893625484169561e-5</v>
       </c>
       <c r="G191">
-        <v>7.381828510780727</v>
+        <v>7.381828510780719</v>
       </c>
       <c r="H191">
-        <v>7.833613631985757e-8</v>
+        <v>7.833613631959778e-8</v>
       </c>
       <c r="I191">
-        <v>0.00035422300734490054</v>
+        <v>0.0003542230073448997</v>
       </c>
       <c r="J191">
-        <v>0.0019956647576603245</v>
+        <v>0.0019956647576602664</v>
       </c>
       <c r="K191">
-        <v>4.8936246221316536e-5</v>
+        <v>4.8936246221316475e-5</v>
       </c>
     </row>
     <row r="192" spans="1:11">
@@ -7120,19 +7120,19 @@
         <v>4.8940852146225954e-5</v>
       </c>
       <c r="G192">
-        <v>7.382623749062799</v>
+        <v>7.382623749062791</v>
       </c>
       <c r="H192">
-        <v>7.087555212918096e-8</v>
+        <v>7.087555212894591e-8</v>
       </c>
       <c r="I192">
-        <v>0.0003569630362055051</v>
+        <v>0.0003569630362055042</v>
       </c>
       <c r="J192">
-        <v>0.00199608012461237</v>
+        <v>0.0019960801246123165</v>
       </c>
       <c r="K192">
-        <v>4.8940843731749413e-5</v>
+        <v>4.894084373174935e-5</v>
       </c>
     </row>
     <row r="193" spans="1:11">
@@ -7155,19 +7155,19 @@
         <v>4.8945448446037174e-5</v>
       </c>
       <c r="G193">
-        <v>7.383415336970568</v>
+        <v>7.383415336970561</v>
       </c>
       <c r="H193">
-        <v>6.341496789390193e-8</v>
+        <v>6.341496789369161e-8</v>
       </c>
       <c r="I193">
-        <v>0.0003597032024922666</v>
+        <v>0.0003597032024922657</v>
       </c>
       <c r="J193">
-        <v>0.0019964949549429564</v>
+        <v>0.0019964949549429083</v>
       </c>
       <c r="K193">
-        <v>4.894544023271146e-5</v>
+        <v>4.8945440232711396e-5</v>
       </c>
     </row>
     <row r="194" spans="1:11">
@@ -7190,19 +7190,19 @@
         <v>4.89500437449762e-5</v>
       </c>
       <c r="G194">
-        <v>7.384203300055735</v>
+        <v>7.384203300055729</v>
       </c>
       <c r="H194">
-        <v>5.595438361402048e-8</v>
+        <v>5.59543836138349e-8</v>
       </c>
       <c r="I194">
-        <v>0.00036244350501610977</v>
+        <v>0.00036244350501610885</v>
       </c>
       <c r="J194">
-        <v>0.0019969092533752763</v>
+        <v>0.0019969092533752325</v>
       </c>
       <c r="K194">
-        <v>4.8950035728166306e-5</v>
+        <v>4.895003572816626e-5</v>
       </c>
     </row>
     <row r="195" spans="1:11">
@@ -7225,19 +7225,19 @@
         <v>4.8954638046879694e-5</v>
       </c>
       <c r="G195">
-        <v>7.384987663636205</v>
+        <v>7.384987663636199</v>
       </c>
       <c r="H195">
-        <v>4.849379928953662e-8</v>
+        <v>4.849379928937578e-8</v>
       </c>
       <c r="I195">
-        <v>0.0003651839426014756</v>
+        <v>0.00036518394260147473</v>
       </c>
       <c r="J195">
-        <v>0.00199732302457832</v>
+        <v>0.0019973230245782805</v>
       </c>
       <c r="K195">
-        <v>4.895463022206447e-5</v>
+        <v>4.8954630222064415e-5</v>
       </c>
     </row>
     <row r="196" spans="1:11">
@@ -7260,19 +7260,19 @@
         <v>4.895923135557388e-5</v>
       </c>
       <c r="G196">
-        <v>7.3857684527986125</v>
+        <v>7.385768452798607</v>
       </c>
       <c r="H196">
-        <v>4.1033214920450345e-8</v>
+        <v>4.103321492031424e-8</v>
       </c>
       <c r="I196">
-        <v>0.00036792451408613526</v>
+        <v>0.00036792451408613444</v>
       </c>
       <c r="J196">
-        <v>0.0019977362731676217</v>
+        <v>0.0019977362731675875</v>
       </c>
       <c r="K196">
-        <v>4.8959223718343164e-5</v>
+        <v>4.895922371834313e-5</v>
       </c>
     </row>
     <row r="197" spans="1:11">
@@ -7295,19 +7295,19 @@
         <v>4.896382367487441e-5</v>
       </c>
       <c r="G197">
-        <v>7.386545692400823</v>
+        <v>7.386545692400819</v>
       </c>
       <c r="H197">
-        <v>3.357263050676165e-8</v>
+        <v>3.357263050665029e-8</v>
       </c>
       <c r="I197">
-        <v>0.00037066521832100727</v>
+        <v>0.0003706652183210066</v>
       </c>
       <c r="J197">
-        <v>0.001998149003706002</v>
+        <v>0.0019981490037059733</v>
       </c>
       <c r="K197">
-        <v>4.8963816220926316e-5</v>
+        <v>4.8963816220926295e-5</v>
       </c>
     </row>
     <row r="198" spans="1:11">
@@ -7330,19 +7330,19 @@
         <v>4.896841500858615e-5</v>
       </c>
       <c r="G198">
-        <v>7.387319407074404</v>
+        <v>7.387319407074401</v>
       </c>
       <c r="H198">
-        <v>2.6112046048470544e-8</v>
+        <v>2.611204604838393e-8</v>
       </c>
       <c r="I198">
-        <v>0.00037340605416997803</v>
+        <v>0.0003734060541699775</v>
       </c>
       <c r="J198">
-        <v>0.00199856122070429</v>
+        <v>0.0019985612207042676</v>
       </c>
       <c r="K198">
-        <v>4.8968407733724404e-5</v>
+        <v>4.8968407733724384e-5</v>
       </c>
     </row>
     <row r="199" spans="1:11">
@@ -7365,19 +7365,19 @@
         <v>4.897300536050306e-5</v>
       </c>
       <c r="G199">
-        <v>7.38808962122706</v>
+        <v>7.388089621227057</v>
       </c>
       <c r="H199">
-        <v>1.8651461545577032e-8</v>
+        <v>1.8651461545515162e-8</v>
       </c>
       <c r="I199">
-        <v>0.0003761470205097244</v>
+        <v>0.00037614702050972403</v>
       </c>
       <c r="J199">
-        <v>0.0019989729286220385</v>
+        <v>0.001998972928622022</v>
       </c>
       <c r="K199">
-        <v>4.897299826063436e-5</v>
+        <v>4.897299826063434e-5</v>
       </c>
     </row>
     <row r="200" spans="1:11">
@@ -7400,16 +7400,16 @@
         <v>4.8977594734408045e-5</v>
       </c>
       <c r="G200">
-        <v>7.388856359045052</v>
+        <v>7.388856359045051</v>
       </c>
       <c r="H200">
-        <v>1.119087699808111e-8</v>
+        <v>1.1190876998043989e-8</v>
       </c>
       <c r="I200">
-        <v>0.0003788881162295395</v>
+        <v>0.00037888811622953925</v>
       </c>
       <c r="J200">
-        <v>0.0019993841318682254</v>
+        <v>0.0019993841318682154</v>
       </c>
       <c r="K200">
         <v>4.8977587805539535e-5</v>
@@ -7438,16 +7438,16 @@
         <v>7.3896196444955775</v>
       </c>
       <c r="H201">
-        <v>3.730292405982779e-9</v>
+        <v>3.730292405970406e-9</v>
       </c>
       <c r="I201">
-        <v>0.0003816293402311611</v>
+        <v>0.000381629340231161</v>
       </c>
       <c r="J201">
-        <v>0.0019997948348019485</v>
+        <v>0.001999794834801945</v>
       </c>
       <c r="K201">
-        <v>4.8982176372309606e-5</v>
+        <v>4.898217637230961e-5</v>
       </c>
     </row>
   </sheetData>

--- a/examples/analytical/pHBB1991/pHBB1991.uniform2x_analytical.solution.xlsx
+++ b/examples/analytical/pHBB1991/pHBB1991.uniform2x_analytical.solution.xlsx
@@ -461,28 +461,28 @@
         <v>0.0002477371068645818</v>
       </c>
       <c r="D2">
-        <v>-1.1488363384859497e-7</v>
+        <v>-1.14883633848593e-7</v>
       </c>
       <c r="E2">
-        <v>0.0019995475238025074</v>
+        <v>0.001999547523802508</v>
       </c>
       <c r="F2">
-        <v>4.8971471000624606e-5</v>
+        <v>4.897147100062461e-5</v>
       </c>
       <c r="G2">
-        <v>8.14258526678637</v>
+        <v>8.142585266786552</v>
       </c>
       <c r="H2">
-        <v>0.00024773710743651643</v>
+        <v>0.00024773710743651654</v>
       </c>
       <c r="I2">
-        <v>-1.1488416805373905e-7</v>
+        <v>-1.1488416805414948e-7</v>
       </c>
       <c r="J2">
-        <v>0.001999547524320331</v>
+        <v>0.0019995475243202894</v>
       </c>
       <c r="K2">
-        <v>4.89714710103119e-5</v>
+        <v>4.897147101031182e-5</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -490,34 +490,34 @@
         <v>-0.0485</v>
       </c>
       <c r="B3">
-        <v>8.12753286664363</v>
+        <v>8.127532866643628</v>
       </c>
       <c r="C3">
         <v>0.00024321132059374557</v>
       </c>
       <c r="D3">
-        <v>-3.445865614469404e-7</v>
+        <v>-3.445865614469556e-7</v>
       </c>
       <c r="E3">
-        <v>0.001998637267901857</v>
+        <v>0.001998637267901858</v>
       </c>
       <c r="F3">
-        <v>4.894556247095243e-5</v>
+        <v>4.894556247095242e-5</v>
       </c>
       <c r="G3">
-        <v>8.12753287762528</v>
+        <v>8.127532877625839</v>
       </c>
       <c r="H3">
-        <v>0.00024321132240234106</v>
+        <v>0.00024321132240234136</v>
       </c>
       <c r="I3">
-        <v>-3.4458816550230695e-7</v>
+        <v>-3.4458816550353965e-7</v>
       </c>
       <c r="J3">
-        <v>0.0019986372693818494</v>
+        <v>0.0019986372693817245</v>
       </c>
       <c r="K3">
-        <v>4.8945562499191634e-5</v>
+        <v>4.894556249919139e-5</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -531,28 +531,28 @@
         <v>0.00023868553432290944</v>
       </c>
       <c r="D4">
-        <v>-5.741979859055905e-7</v>
+        <v>-5.741979859056034e-7</v>
       </c>
       <c r="E4">
-        <v>0.001997719566493645</v>
+        <v>0.0019977195664936456</v>
       </c>
       <c r="F4">
         <v>4.891979596420215e-5</v>
       </c>
       <c r="G4">
-        <v>8.11217960415382</v>
+        <v>8.11217960415477</v>
       </c>
       <c r="H4">
-        <v>0.00023868553734110874</v>
+        <v>0.00023868553734110925</v>
       </c>
       <c r="I4">
-        <v>-5.742006612638419e-7</v>
+        <v>-5.74200661265899e-7</v>
       </c>
       <c r="J4">
-        <v>0.0019977195689154584</v>
+        <v>0.001997719568915251</v>
       </c>
       <c r="K4">
-        <v>4.8919796010118914e-5</v>
+        <v>4.89197960101185e-5</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -560,34 +560,34 @@
         <v>-0.0465</v>
       </c>
       <c r="B5">
-        <v>8.09652179459532</v>
+        <v>8.096521794595322</v>
       </c>
       <c r="C5">
         <v>0.0002341597480520736</v>
       </c>
       <c r="D5">
-        <v>-8.037105565711472e-7</v>
+        <v>-8.037105565711513e-7</v>
       </c>
       <c r="E5">
         <v>0.001996793947319617</v>
       </c>
       <c r="F5">
-        <v>4.8894199426474496e-5</v>
+        <v>4.88941994264745e-5</v>
       </c>
       <c r="G5">
-        <v>8.096521820498182</v>
+        <v>8.096521820499527</v>
       </c>
       <c r="H5">
-        <v>0.0002341597522528196</v>
+        <v>0.00023415975225282032</v>
       </c>
       <c r="I5">
-        <v>-8.037143046542387e-7</v>
+        <v>-8.037143046571232e-7</v>
       </c>
       <c r="J5">
-        <v>0.001996793950663178</v>
+        <v>0.0019967939506628876</v>
       </c>
       <c r="K5">
-        <v>4.889419948916141e-5</v>
+        <v>4.88941994891608e-5</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -595,34 +595,34 @@
         <v>-0.0455</v>
       </c>
       <c r="B6">
-        <v>8.08055689123941</v>
+        <v>8.080556891239409</v>
       </c>
       <c r="C6">
         <v>0.0002296339617812386</v>
       </c>
       <c r="D6">
-        <v>-1.0331163338387316e-6</v>
+        <v>-1.0331163338387311e-6</v>
       </c>
       <c r="E6">
-        <v>0.0019958599117893246</v>
+        <v>0.001995859911789324</v>
       </c>
       <c r="F6">
-        <v>4.8868802641427e-5</v>
+        <v>4.886880264142698e-5</v>
       </c>
       <c r="G6">
-        <v>8.0805569247116</v>
+        <v>8.080556924713337</v>
       </c>
       <c r="H6">
-        <v>0.00022963396713747417</v>
+        <v>0.00022963396713747511</v>
       </c>
       <c r="I6">
-        <v>-1.0331211560355019e-6</v>
+        <v>-1.0331211560392163e-6</v>
       </c>
       <c r="J6">
-        <v>0.0019958599160348313</v>
+        <v>0.0019958599160344592</v>
       </c>
       <c r="K6">
-        <v>4.886880271994286e-5</v>
+        <v>4.886880271994202e-5</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -630,34 +630,34 @@
         <v>-0.044500000000000005</v>
       </c>
       <c r="B7">
-        <v>8.064283485885682</v>
+        <v>8.064283485885664</v>
       </c>
       <c r="C7">
         <v>0.00022510817551040592</v>
       </c>
       <c r="D7">
-        <v>-1.2624067612940175e-6</v>
+        <v>-1.262406761294022e-6</v>
       </c>
       <c r="E7">
-        <v>0.0019949169357444648</v>
+        <v>0.0019949169357444583</v>
       </c>
       <c r="F7">
-        <v>4.8843637216125155e-5</v>
+        <v>4.884363721612476e-5</v>
       </c>
       <c r="G7">
-        <v>8.064283526982491</v>
+        <v>8.064283526984626</v>
       </c>
       <c r="H7">
-        <v>0.00022510818199507386</v>
+        <v>0.00022510818199507508</v>
       </c>
       <c r="I7">
-        <v>-1.2624126589574388e-6</v>
+        <v>-1.2624126589619865e-6</v>
       </c>
       <c r="J7">
-        <v>0.0019949169408723785</v>
+        <v>0.001994916940871923</v>
       </c>
       <c r="K7">
-        <v>4.8843637309494166e-5</v>
+        <v>4.8843637309493054e-5</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -665,34 +665,34 @@
         <v>-0.043500000000000004</v>
       </c>
       <c r="B8">
-        <v>8.047701602808981</v>
+        <v>8.047701602808761</v>
       </c>
       <c r="C8">
         <v>0.00022058238923957954</v>
       </c>
       <c r="D8">
-        <v>-1.4915726425775392e-6</v>
+        <v>-1.49157264257753e-6</v>
       </c>
       <c r="E8">
-        <v>0.0019939644708587617</v>
+        <v>0.0019939644708586893</v>
       </c>
       <c r="F8">
-        <v>4.881873653057958e-5</v>
+        <v>4.8818736530575095e-5</v>
       </c>
       <c r="G8">
-        <v>8.047701651568952</v>
+        <v>8.047701651571483</v>
       </c>
       <c r="H8">
-        <v>0.00022058239682562234</v>
+        <v>0.00022058239682562386</v>
       </c>
       <c r="I8">
-        <v>-1.4915796170221405e-6</v>
+        <v>-1.491579617027525e-6</v>
       </c>
       <c r="J8">
-        <v>0.00199396447684974</v>
+        <v>0.0019939644768492003</v>
       </c>
       <c r="K8">
-        <v>4.881873663778841e-5</v>
+        <v>4.881873663778698e-5</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -700,34 +700,34 @@
         <v>-0.0425</v>
       </c>
       <c r="B9">
-        <v>8.030812892824443</v>
+        <v>8.030812892822684</v>
       </c>
       <c r="C9">
         <v>0.00021605660296876995</v>
       </c>
       <c r="D9">
-        <v>-1.7206041247990123e-6</v>
+        <v>-1.720604124798992e-6</v>
       </c>
       <c r="E9">
-        <v>0.001993001946788572</v>
+        <v>0.001993001946788007</v>
       </c>
       <c r="F9">
-        <v>4.879413564364214e-5</v>
+        <v>4.879413564360708e-5</v>
       </c>
       <c r="G9">
-        <v>8.030812949265064</v>
+        <v>8.030812949267986</v>
       </c>
       <c r="H9">
-        <v>0.00021605661162912935</v>
+        <v>0.0002160566116291311</v>
       </c>
       <c r="I9">
-        <v>-1.7206121772980672e-6</v>
+        <v>-1.7206121773042927e-6</v>
       </c>
       <c r="J9">
-        <v>0.001993001953623131</v>
+        <v>0.0019930019536225077</v>
       </c>
       <c r="K9">
-        <v>4.8794135763621144e-5</v>
+        <v>4.8794135763619355e-5</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -735,34 +735,34 @@
         <v>-0.0415</v>
       </c>
       <c r="B10">
-        <v>8.013620851620702</v>
+        <v>8.01362085161027</v>
       </c>
       <c r="C10">
         <v>0.00021153081669800385</v>
       </c>
       <c r="D10">
-        <v>-1.9494906905690097e-6</v>
+        <v>-1.9494906905688614e-6</v>
       </c>
       <c r="E10">
-        <v>0.0019920287741884003</v>
+        <v>0.0019920287741851195</v>
       </c>
       <c r="F10">
-        <v>4.8769871147863034e-5</v>
+        <v>4.876987114765917e-5</v>
       </c>
       <c r="G10">
-        <v>8.013620915730236</v>
+        <v>8.01362091573355</v>
       </c>
       <c r="H10">
-        <v>0.00021153082640561988</v>
+        <v>0.00021153082640562183</v>
       </c>
       <c r="I10">
-        <v>-1.9494998223521532e-6</v>
+        <v>-1.9494998223592247e-6</v>
       </c>
       <c r="J10">
-        <v>0.001992028781845449</v>
+        <v>0.0019920287818447416</v>
       </c>
       <c r="K10">
-        <v>4.8769871279398564e-5</v>
+        <v>4.876987127939638e-5</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -770,34 +770,34 @@
         <v>-0.0405</v>
       </c>
       <c r="B11">
-        <v>7.996131037633176</v>
+        <v>7.996131037584213</v>
       </c>
       <c r="C11">
         <v>0.00020700503042734902</v>
       </c>
       <c r="D11">
-        <v>-2.1782211609057614e-6</v>
+        <v>-2.178221160904914e-6</v>
       </c>
       <c r="E11">
-        <v>0.001991044348696937</v>
+        <v>0.0019910443486818234</v>
       </c>
       <c r="F11">
-        <v>4.8745980966345855e-5</v>
+        <v>4.874598096540581e-5</v>
       </c>
       <c r="G11">
-        <v>7.996131109350029</v>
+        <v>7.996131109353729</v>
       </c>
       <c r="H11">
-        <v>0.00020700504115515718</v>
+        <v>0.0002070050411551593</v>
       </c>
       <c r="I11">
-        <v>-2.178231373157047e-6</v>
+        <v>-2.178231373164969e-6</v>
       </c>
       <c r="J11">
-        <v>0.001991044357148628</v>
+        <v>0.001991044357147837</v>
       </c>
       <c r="K11">
-        <v>4.8745981107765005e-5</v>
+        <v>4.874598110776239e-5</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -805,34 +805,34 @@
         <v>-0.03950000000000001</v>
       </c>
       <c r="B12">
-        <v>7.978351281369085</v>
+        <v>7.978351281178638</v>
       </c>
       <c r="C12">
         <v>0.00020247924415697243</v>
       </c>
       <c r="D12">
-        <v>-2.406783711369528e-6</v>
+        <v>-2.4067837113659757e-6</v>
       </c>
       <c r="E12">
-        <v>0.0019900480559807907</v>
+        <v>0.00199004805592306</v>
       </c>
       <c r="F12">
-        <v>4.8722504085735554e-5</v>
+        <v>4.872250408214115e-5</v>
       </c>
       <c r="G12">
-        <v>7.978351360527655</v>
+        <v>7.978351360531736</v>
       </c>
       <c r="H12">
-        <v>0.00020247925587789768</v>
+        <v>0.00020247925587789996</v>
       </c>
       <c r="I12">
-        <v>-2.4067950052271556e-6</v>
+        <v>-2.406795005235934e-6</v>
       </c>
       <c r="J12">
-        <v>0.0019900480651776752</v>
+        <v>0.0019900480651768</v>
       </c>
       <c r="K12">
-        <v>4.872250423398754e-5</v>
+        <v>4.872250423398447e-5</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -840,34 +840,34 @@
         <v>-0.038500000000000006</v>
       </c>
       <c r="B13">
-        <v>7.96029187635955</v>
+        <v>7.960291875725441</v>
       </c>
       <c r="C13">
         <v>0.00019795345788727807</v>
       </c>
       <c r="D13">
-        <v>-2.6351659037347937e-6</v>
+        <v>-2.635165903722301e-6</v>
       </c>
       <c r="E13">
-        <v>0.0019890392778924033</v>
+        <v>0.0019890392777035</v>
       </c>
       <c r="F13">
-        <v>4.869948022135482e-5</v>
+        <v>4.869948020958286e-5</v>
       </c>
       <c r="G13">
-        <v>7.960291962560365</v>
+        <v>7.9602919625648205</v>
       </c>
       <c r="H13">
-        <v>0.0001979534705742213</v>
+        <v>0.00019795347057422377</v>
       </c>
       <c r="I13">
-        <v>-2.6351782802940638e-6</v>
+        <v>-2.6351782803037034e-6</v>
       </c>
       <c r="J13">
-        <v>0.0019890392877272424</v>
+        <v>0.001989039287726283</v>
       </c>
       <c r="K13">
-        <v>4.869948036976087e-5</v>
+        <v>4.869948036975728e-5</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -875,34 +875,34 @@
         <v>-0.037500000000000006</v>
       </c>
       <c r="B14">
-        <v>7.941965740384049</v>
+        <v>7.941965738532529</v>
       </c>
       <c r="C14">
         <v>0.00019342767161922392</v>
       </c>
       <c r="D14">
-        <v>-2.8633547352696324e-6</v>
+        <v>-2.8633547352319797e-6</v>
       </c>
       <c r="E14">
-        <v>0.001988017399753091</v>
+        <v>0.001988017399210614</v>
       </c>
       <c r="F14">
-        <v>4.867694941320262e-5</v>
+        <v>4.8676949379368536e-5</v>
       </c>
       <c r="G14">
-        <v>7.941965832717829</v>
+        <v>7.941965832722648</v>
       </c>
       <c r="H14">
-        <v>0.00019342768524503127</v>
+        <v>0.0001934276852450339</v>
       </c>
       <c r="I14">
-        <v>-2.863368195594068e-6</v>
+        <v>-2.863368195604575e-6</v>
       </c>
       <c r="J14">
-        <v>0.0019880174099846685</v>
+        <v>0.0019880174099836255</v>
       </c>
       <c r="K14">
-        <v>4.8676949546704794e-5</v>
+        <v>4.867694954670066e-5</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -910,34 +910,34 @@
         <v>-0.036500000000000005</v>
       </c>
       <c r="B15">
-        <v>7.923388534513388</v>
+        <v>7.923388529683466</v>
       </c>
       <c r="C15">
         <v>0.00018890188535503505</v>
       </c>
       <c r="D15">
-        <v>-3.0913367071940178e-6</v>
+        <v>-3.0913367070951627e-6</v>
       </c>
       <c r="E15">
-        <v>0.001986981818709909</v>
+        <v>0.001986981817316944</v>
       </c>
       <c r="F15">
-        <v>4.8654951554976536e-5</v>
+        <v>4.86549514680295e-5</v>
       </c>
       <c r="G15">
-        <v>7.923388631042031</v>
+        <v>7.923388631047204</v>
       </c>
       <c r="H15">
-        <v>0.0001889018998924314</v>
+        <v>0.00018890189989243422</v>
       </c>
       <c r="I15">
-        <v>-3.09135125234642e-6</v>
+        <v>-3.091351252357802e-6</v>
       </c>
       <c r="J15">
-        <v>0.0019869818288222284</v>
+        <v>0.001986981828821102</v>
       </c>
       <c r="K15">
-        <v>4.865495164133891e-5</v>
+        <v>4.8654951641334195e-5</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -945,34 +945,34 @@
         <v>-0.035500000000000004</v>
       </c>
       <c r="B16">
-        <v>7.904578727105117</v>
+        <v>7.904578715682752</v>
       </c>
       <c r="C16">
         <v>0.00018437609909977457</v>
       </c>
       <c r="D16">
-        <v>-3.319097913059961e-6</v>
+        <v>-3.319097912831641e-6</v>
       </c>
       <c r="E16">
-        <v>0.0019859319530361606</v>
+        <v>0.0019859319497905576</v>
       </c>
       <c r="F16">
-        <v>4.8633525862316535e-5</v>
+        <v>4.863352565957486e-5</v>
       </c>
       <c r="G16">
-        <v>7.904578823992833</v>
+        <v>7.9045788239983485</v>
       </c>
       <c r="H16">
-        <v>0.00018437611452122276</v>
+        <v>0.00018437611452122577</v>
       </c>
       <c r="I16">
-        <v>-3.3191135441802555e-6</v>
+        <v>-3.3191135441925184e-6</v>
       </c>
       <c r="J16">
-        <v>0.0019859319620075407</v>
+        <v>0.0019859319620063316</v>
       </c>
       <c r="K16">
-        <v>4.8633525837667585e-5</v>
+        <v>4.863352583766223e-5</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -980,34 +980,34 @@
         <v>-0.0345</v>
       </c>
       <c r="B17">
-        <v>7.885557590419435</v>
+        <v>7.8855575656403225</v>
       </c>
       <c r="C17">
         <v>0.00017985031286473153</v>
       </c>
       <c r="D17">
-        <v>-3.546624146543699e-6</v>
+        <v>-3.546624146079242e-6</v>
       </c>
       <c r="E17">
-        <v>0.0019848672521536265</v>
+        <v>0.0019848672452101746</v>
       </c>
       <c r="F17">
-        <v>4.8612710290874337e-5</v>
+        <v>4.8612709856802206e-5</v>
       </c>
       <c r="G17">
-        <v>7.885557680632623</v>
+        <v>7.885557680638465</v>
       </c>
       <c r="H17">
-        <v>0.0001798503291421388</v>
+        <v>0.00017985032914214202</v>
       </c>
       <c r="I17">
-        <v>-3.546640865034383e-6</v>
+        <v>-3.5466408650475355e-6</v>
       </c>
       <c r="J17">
-        <v>0.0019848672581186345</v>
+        <v>0.0019848672581173426</v>
       </c>
       <c r="K17">
-        <v>4.86127100384908e-5</v>
+        <v>4.861271003848477e-5</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1015,34 +1015,34 @@
         <v>-0.0335</v>
       </c>
       <c r="B18">
-        <v>7.866349119227083</v>
+        <v>7.866349069440381</v>
       </c>
       <c r="C18">
         <v>0.00017532452667456505</v>
       </c>
       <c r="D18">
-        <v>-3.7739010263416657e-6</v>
+        <v>-3.773901025517345e-6</v>
       </c>
       <c r="E18">
-        <v>0.001983787207058307</v>
+        <v>0.0019837871932869336</v>
       </c>
       <c r="F18">
-        <v>4.8592540919348137e-5</v>
+        <v>4.8592540057708946e-5</v>
       </c>
       <c r="G18">
-        <v>7.866349190794807</v>
+        <v>7.866349190800965</v>
       </c>
       <c r="H18">
-        <v>0.0001753245437786875</v>
+        <v>0.0001753245437786909</v>
       </c>
       <c r="I18">
-        <v>-3.7739188342812445e-6</v>
+        <v>-3.7739188342952947e-6</v>
       </c>
       <c r="J18">
-        <v>0.001983787206865607</v>
+        <v>0.001983787206864233</v>
       </c>
       <c r="K18">
-        <v>4.85925402418152e-5</v>
+        <v>4.8592540241808474e-5</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1050,34 +1050,34 @@
         <v>-0.0325</v>
       </c>
       <c r="B19">
-        <v>7.846979863786364</v>
+        <v>7.8469797703908455</v>
       </c>
       <c r="C19">
         <v>0.00017079874058204428</v>
       </c>
       <c r="D19">
-        <v>-4.0009141332898526e-6</v>
+        <v>-4.000914132054965e-6</v>
       </c>
       <c r="E19">
-        <v>0.0019826913607436988</v>
+        <v>0.001982691335217047</v>
       </c>
       <c r="F19">
-        <v>4.857305131702979e-5</v>
+        <v>4.857304971840674e-5</v>
       </c>
       <c r="G19">
-        <v>7.846979897731851</v>
+        <v>7.846979897738308</v>
       </c>
       <c r="H19">
-        <v>0.00017079875848130557</v>
+        <v>0.0001707987584813091</v>
       </c>
       <c r="I19">
-        <v>-4.00093303430287e-6</v>
+        <v>-4.000933034317826e-6</v>
       </c>
       <c r="J19">
-        <v>0.0019826913494430743</v>
+        <v>0.0019826913494416184</v>
       </c>
       <c r="K19">
-        <v>4.857304990376652e-5</v>
+        <v>4.857304990375905e-5</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1085,34 +1085,34 @@
         <v>-0.0315</v>
       </c>
       <c r="B20">
-        <v>7.8274786738598126</v>
+        <v>7.827478509165468</v>
       </c>
       <c r="C20">
         <v>0.000166272954697795</v>
       </c>
       <c r="D20">
-        <v>-4.2276491510953734e-6</v>
+        <v>-4.22764914969505e-6</v>
       </c>
       <c r="E20">
-        <v>0.0019815793181516667</v>
+        <v>0.001981579273629338</v>
       </c>
       <c r="F20">
-        <v>4.8554271919368095e-5</v>
+        <v>4.855426912812126e-5</v>
       </c>
       <c r="G20">
-        <v>7.827478642053779</v>
+        <v>7.8274786420605205</v>
       </c>
       <c r="H20">
-        <v>0.00016627297335599652</v>
+        <v>0.00016627297335600015</v>
       </c>
       <c r="I20">
-        <v>-4.2276691520886955e-6</v>
+        <v>-4.2276691521045655e-6</v>
       </c>
       <c r="J20">
-        <v>0.001981579288477335</v>
+        <v>0.001981579288475798</v>
       </c>
       <c r="K20">
-        <v>4.855426931358505e-5</v>
+        <v>4.855426931357679e-5</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1120,34 +1120,34 @@
         <v>-0.030500000000000003</v>
       </c>
       <c r="B21">
-        <v>7.807876355813619</v>
+        <v>7.807876081204587</v>
       </c>
       <c r="C21">
         <v>0.00016174716924900604</v>
       </c>
       <c r="D21">
-        <v>-4.4540919964663954e-6</v>
+        <v>-4.454091995881928e-6</v>
       </c>
       <c r="E21">
-        <v>0.001980450755155533</v>
+        <v>0.0019804506816599203</v>
       </c>
       <c r="F21">
-        <v>4.853622943812965e-5</v>
+        <v>4.8536224824547784e-5</v>
       </c>
       <c r="G21">
-        <v>7.807876219121254</v>
+        <v>7.807876219128261</v>
       </c>
       <c r="H21">
-        <v>0.00016174718862099394</v>
+        <v>0.00016174718862099768</v>
       </c>
       <c r="I21">
-        <v>-4.454113110933549e-6</v>
+        <v>-4.454113110950341e-6</v>
       </c>
       <c r="J21">
-        <v>0.001980450697100342</v>
+        <v>0.0019804506970987237</v>
       </c>
       <c r="K21">
-        <v>4.853622500897314e-5</v>
+        <v>4.853622500896407e-5</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1155,34 +1155,34 @@
         <v>-0.029500000000000002</v>
       </c>
       <c r="B22">
-        <v>7.788205250875121</v>
+        <v>7.788204815707793</v>
       </c>
       <c r="C22">
         <v>0.0001572213846927197</v>
       </c>
       <c r="D22">
-        <v>-4.6802289156950495e-6</v>
+        <v>-4.680228918395454e-6</v>
       </c>
       <c r="E22">
-        <v>0.001979305426103195</v>
+        <v>0.00197930531069268</v>
       </c>
       <c r="F22">
-        <v>4.8518946334388455e-5</v>
+        <v>4.8518939078459185e-5</v>
       </c>
       <c r="G22">
-        <v>7.788204958023414</v>
+        <v>7.788204958030665</v>
       </c>
       <c r="H22">
-        <v>0.00015722140471637966</v>
+        <v>0.00015722140471638349</v>
       </c>
       <c r="I22">
-        <v>-4.680251169756204e-6</v>
+        <v>-4.680251169773928e-6</v>
       </c>
       <c r="J22">
-        <v>0.001979305326688906</v>
+        <v>0.001979305326687208</v>
       </c>
       <c r="K22">
-        <v>4.851893926068922e-5</v>
+        <v>4.851893926067932e-5</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1190,34 +1190,34 @@
         <v>-0.028500000000000004</v>
       </c>
       <c r="B23">
-        <v>7.768498748715326</v>
+        <v>7.768498090344823</v>
       </c>
       <c r="C23">
         <v>0.00015269560192956747</v>
       </c>
       <c r="D23">
-        <v>-4.906046510787163e-6</v>
+        <v>-4.906046521873762e-6</v>
       </c>
       <c r="E23">
-        <v>0.0019781431695229217</v>
+        <v>0.0019781429963554586</v>
       </c>
       <c r="F23">
-        <v>4.8502440382205655e-5</v>
+        <v>4.8502429474660436e-5</v>
       </c>
       <c r="G23">
-        <v>7.768498236261863</v>
+        <v>7.768498236269334</v>
       </c>
       <c r="H23">
-        <v>0.00015269562251139112</v>
+        <v>0.00015269562251139505</v>
       </c>
       <c r="I23">
-        <v>-4.906069953862164e-6</v>
+        <v>-4.906069953880821e-6</v>
       </c>
       <c r="J23">
-        <v>0.0019781430128585826</v>
+        <v>0.0019781430128568036</v>
       </c>
       <c r="K23">
-        <v>4.850242965347898e-5</v>
+        <v>4.850242965346821e-5</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1225,34 +1225,34 @@
         <v>-0.027500000000000004</v>
       </c>
       <c r="B24">
-        <v>7.748790755976054</v>
+        <v>7.748789801158633</v>
       </c>
       <c r="C24">
         <v>0.00014816982269790838</v>
       </c>
       <c r="D24">
-        <v>-5.1315316356990466e-6</v>
+        <v>-5.131531664485882e-6</v>
       </c>
       <c r="E24">
-        <v>0.0019769639117166926</v>
+        <v>0.0019769636624599315</v>
       </c>
       <c r="F24">
-        <v>4.8486724348003856e-5</v>
+        <v>4.848670861208554e-5</v>
       </c>
       <c r="G24">
-        <v>7.74878994960738</v>
+        <v>7.748789949615047</v>
       </c>
       <c r="H24">
-        <v>0.00014816984368760624</v>
+        <v>0.0001481698436876103</v>
       </c>
       <c r="I24">
-        <v>-5.131556358833275e-6</v>
+        <v>-5.131556358852878e-6</v>
       </c>
       <c r="J24">
-        <v>0.0019769636793995535</v>
+        <v>0.0019769636793976956</v>
       </c>
       <c r="K24">
-        <v>4.848670878613538e-5</v>
+        <v>4.8486708786123716e-5</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1260,34 +1260,34 @@
         <v>-0.026500000000000003</v>
       </c>
       <c r="B25">
-        <v>7.729115143501913</v>
+        <v>7.7291138111979505</v>
       </c>
       <c r="C25">
         <v>0.0001436440502840814</v>
       </c>
       <c r="D25">
-        <v>-5.3566710670975385e-6</v>
+        <v>-5.356671129106585e-6</v>
       </c>
       <c r="E25">
-        <v>0.001975767668125357</v>
+        <v>0.001975767322715462</v>
       </c>
       <c r="F25">
-        <v>4.8471805805153964e-5</v>
+        <v>4.8471783939335746e-5</v>
       </c>
       <c r="G25">
-        <v>7.7291139606555905</v>
+        <v>7.729113960663427</v>
       </c>
       <c r="H25">
-        <v>0.00014364407143104091</v>
+        <v>0.00014364407143104512</v>
       </c>
       <c r="I25">
-        <v>-5.356697233651125e-6</v>
+        <v>-5.356697233671675e-6</v>
       </c>
       <c r="J25">
-        <v>0.0019757673399837285</v>
+        <v>0.0019757673399817912</v>
       </c>
       <c r="K25">
-        <v>4.8471784106980466e-5</v>
+        <v>4.8471784106967896e-5</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1295,34 +1295,34 @@
         <v>-0.025500000000000002</v>
       </c>
       <c r="B26">
-        <v>7.709505198356259</v>
+        <v>7.709503403710753</v>
       </c>
       <c r="C26">
         <v>0.00013911829077283716</v>
       </c>
       <c r="D26">
-        <v>-5.581450797164073e-6</v>
+        <v>-5.581450916433792e-6</v>
       </c>
       <c r="E26">
-        <v>0.0019745545425343897</v>
+        <v>0.001974554080226716</v>
       </c>
       <c r="F26">
-        <v>4.8457687095508846e-5</v>
+        <v>4.8457657733904146e-5</v>
       </c>
       <c r="G26">
-        <v>7.709503551897711</v>
+        <v>7.709503551905693</v>
       </c>
       <c r="H26">
-        <v>0.000139118311653338</v>
+        <v>0.0001391183116533423</v>
       </c>
       <c r="I26">
-        <v>-5.581478693038844e-6</v>
+        <v>-5.581478693060342e-6</v>
       </c>
       <c r="J26">
-        <v>0.001974554097651253</v>
+        <v>0.001974554097649237</v>
       </c>
       <c r="K26">
-        <v>4.845765789300616e-5</v>
+        <v>4.8457657892992654e-5</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1330,34 +1330,34 @@
         <v>-0.0245</v>
       </c>
       <c r="B27">
-        <v>7.68999310696349</v>
+        <v>7.689990766030166</v>
       </c>
       <c r="C27">
         <v>0.0001345925551974745</v>
       </c>
       <c r="D27">
-        <v>-5.805854708805855e-6</v>
+        <v>-5.805854920332406e-6</v>
       </c>
       <c r="E27">
-        <v>0.001973324724387943</v>
+        <v>0.00197332412499257</v>
       </c>
       <c r="F27">
-        <v>4.844436544036421e-5</v>
+        <v>4.844432722462207e-5</v>
       </c>
       <c r="G27">
-        <v>7.689990909417402</v>
+        <v>7.689990909425506</v>
       </c>
       <c r="H27">
-        <v>0.00013459257509618232</v>
+        <v>0.00013459257509618677</v>
       </c>
       <c r="I27">
-        <v>-5.805884822826257e-6</v>
+        <v>-5.805884822848709e-6</v>
       </c>
       <c r="J27">
-        <v>0.001973324142291708</v>
+        <v>0.0019733241422896135</v>
       </c>
       <c r="K27">
-        <v>4.844432737220079e-5</v>
+        <v>4.8444327372186345e-5</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1365,34 +1365,34 @@
         <v>-0.023500000000000004</v>
       </c>
       <c r="B28">
-        <v>7.670609494024761</v>
+        <v>7.670606528675637</v>
       </c>
       <c r="C28">
         <v>0.00013006686314970744</v>
       </c>
       <c r="D28">
-        <v>-6.029862264473893e-6</v>
+        <v>-6.0298626165439675e-6</v>
       </c>
       <c r="E28">
-        <v>0.0019720784846864983</v>
+        <v>0.001972077729851239</v>
       </c>
       <c r="F28">
-        <v>4.843183319378547e-5</v>
+        <v>4.843178484850564e-5</v>
       </c>
       <c r="G28">
-        <v>7.670606661710832</v>
+        <v>7.670606661719037</v>
       </c>
       <c r="H28">
-        <v>0.00013006688087186652</v>
+        <v>0.00013006688087187108</v>
       </c>
       <c r="I28">
-        <v>-6.0298954141054464e-6</v>
+        <v>-6.029895414128852e-6</v>
       </c>
       <c r="J28">
-        <v>0.0019720777465618822</v>
+        <v>0.00197207774655971</v>
       </c>
       <c r="K28">
-        <v>4.8431784980229965e-5</v>
+        <v>4.843178498021455e-5</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1400,34 +1400,34 @@
         <v>-0.022500000000000003</v>
       </c>
       <c r="B29">
-        <v>7.6513830386084285</v>
+        <v>7.651379381056356</v>
       </c>
       <c r="C29">
         <v>0.00012554124869492</v>
       </c>
       <c r="D29">
-        <v>-6.253444655526972e-6</v>
+        <v>-6.253445211676147e-6</v>
       </c>
       <c r="E29">
-        <v>0.0019708161711597884</v>
+        <v>0.0019708152455582455</v>
       </c>
       <c r="F29">
-        <v>4.8420078222691224e-5</v>
+        <v>4.842001862611322e-5</v>
       </c>
       <c r="G29">
-        <v>7.651379494987448</v>
+        <v>7.651379494995731</v>
       </c>
       <c r="H29">
-        <v>0.0001255412622768974</v>
+        <v>0.000125541262276902</v>
       </c>
       <c r="I29">
-        <v>-6.253482178786837e-6</v>
+        <v>-6.253482178811195e-6</v>
       </c>
       <c r="J29">
-        <v>0.00197081526092283</v>
+        <v>0.0019708152609205806</v>
       </c>
       <c r="K29">
-        <v>4.8420018735574135e-5</v>
+        <v>4.842001873555774e-5</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1435,34 +1435,34 @@
         <v>-0.021500000000000002</v>
       </c>
       <c r="B30">
-        <v>7.6323401846459635</v>
+        <v>7.632335781096997</v>
       </c>
       <c r="C30">
         <v>0.00012101576982858889</v>
       </c>
       <c r="D30">
-        <v>-6.476558607240892e-6</v>
+        <v>-6.476559447589047e-6</v>
       </c>
       <c r="E30">
-        <v>0.0019695382036375333</v>
+        <v>0.0019695370959388926</v>
       </c>
       <c r="F30">
-        <v>4.840908439161665e-5</v>
+        <v>4.840901263445295e-5</v>
       </c>
       <c r="G30">
-        <v>7.632335862240785</v>
+        <v>7.632335862249127</v>
       </c>
       <c r="H30">
-        <v>0.0001210157761044567</v>
+        <v>0.0001210157761044613</v>
       </c>
       <c r="I30">
-        <v>-6.476602648121195e-6</v>
+        <v>-6.476602648146504e-6</v>
       </c>
       <c r="J30">
-        <v>0.0019695371087332806</v>
+        <v>0.0019695371087309543</v>
       </c>
       <c r="K30">
-        <v>4.8409012712156736e-5</v>
+        <v>4.840901271213936e-5</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1470,34 +1470,34 @@
         <v>-0.020500000000000004</v>
       </c>
       <c r="B31">
-        <v>7.6135049586699175</v>
+        <v>7.613499771784109</v>
       </c>
       <c r="C31">
         <v>0.00011649052321752413</v>
       </c>
       <c r="D31">
-        <v>-6.6991367068273105e-6</v>
+        <v>-6.699137928599852e-6</v>
       </c>
       <c r="E31">
-        <v>0.0019682450707942316</v>
+        <v>0.0019682437743284167</v>
       </c>
       <c r="F31">
-        <v>4.8398832126358934e-5</v>
+        <v>4.8398747553765485e-5</v>
       </c>
       <c r="G31">
-        <v>7.61349979906206</v>
+        <v>7.613499799070441</v>
       </c>
       <c r="H31">
-        <v>0.00011649051718935648</v>
+        <v>0.00011649051718936111</v>
       </c>
       <c r="I31">
-        <v>-6.699190628041898e-6</v>
+        <v>-6.6991906280681595e-6</v>
       </c>
       <c r="J31">
-        <v>0.0019682437826076386</v>
+        <v>0.0019682437826052356</v>
       </c>
       <c r="K31">
-        <v>4.8398747585789504e-5</v>
+        <v>4.839874758577118e-5</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1505,34 +1505,34 @@
         <v>-0.019500000000000003</v>
       </c>
       <c r="B32">
-        <v>7.594898903632347</v>
+        <v>7.594892913663296</v>
       </c>
       <c r="C32">
         <v>0.0001119656665942591</v>
       </c>
       <c r="D32">
-        <v>-6.9210727193541e-6</v>
+        <v>-6.921074436483558e-6</v>
       </c>
       <c r="E32">
-        <v>0.0019669373297273966</v>
+        <v>0.0019669358428047456</v>
       </c>
       <c r="F32">
-        <v>4.838929902986248e-5</v>
+        <v>4.8389201264132015e-5</v>
       </c>
       <c r="G32">
-        <v>7.594892855214474</v>
+        <v>7.5948928552228745</v>
       </c>
       <c r="H32">
-        <v>0.00011196564054584044</v>
+        <v>0.00011196564054584506</v>
       </c>
       <c r="I32">
-        <v>-6.9211416813575356e-6</v>
+        <v>-6.921141681384752e-6</v>
       </c>
       <c r="J32">
-        <v>0.0019669358435390858</v>
+        <v>0.0019669358435366055</v>
       </c>
       <c r="K32">
-        <v>4.838920123039759e-5</v>
+        <v>4.8389201230378295e-5</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1540,34 +1540,34 @@
         <v>-0.018500000000000003</v>
       </c>
       <c r="B33">
-        <v>7.576541134435758</v>
+        <v>7.576534339100005</v>
       </c>
       <c r="C33">
         <v>0.0001074414518883202</v>
       </c>
       <c r="D33">
-        <v>-7.1421998969937344e-6</v>
+        <v>-7.142202238791036e-6</v>
       </c>
       <c r="E33">
-        <v>0.001965615610140049</v>
+        <v>0.0019656139360294195</v>
       </c>
       <c r="F33">
-        <v>4.8380460525362264e-5</v>
+        <v>4.8380349469456114e-5</v>
       </c>
       <c r="G33">
-        <v>7.5765341477947805</v>
+        <v>7.576534147803184</v>
       </c>
       <c r="H33">
-        <v>0.00010744139417916899</v>
+        <v>0.00010744139417917364</v>
       </c>
       <c r="I33">
-        <v>-7.142291643922024e-6</v>
+        <v>-7.1422916439501885e-6</v>
       </c>
       <c r="J33">
-        <v>0.001965613924600732</v>
+        <v>0.001965613924598176</v>
       </c>
       <c r="K33">
-        <v>4.838034934160067e-5</v>
+        <v>4.8380349341580445e-5</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1575,34 +1575,34 @@
         <v>-0.0175</v>
       </c>
       <c r="B34">
-        <v>7.558448518472456</v>
+        <v>7.558440931739576</v>
       </c>
       <c r="C34">
         <v>0.00010291827292018841</v>
       </c>
       <c r="D34">
-        <v>-7.3622598131186156e-6</v>
+        <v>-7.3622629220894075e-6</v>
       </c>
       <c r="E34">
-        <v>0.001964280625221402</v>
+        <v>0.0019642787718273692</v>
       </c>
       <c r="F34">
-        <v>4.837229050521853e-5</v>
+        <v>4.8372166329318e-5</v>
       </c>
       <c r="G34">
-        <v>7.558440539471566</v>
+        <v>7.558440539479955</v>
       </c>
       <c r="H34">
-        <v>0.00010291816640344194</v>
+        <v>0.00010291816640344658</v>
       </c>
       <c r="I34">
-        <v>-7.362385701782914e-6</v>
+        <v>-7.362385701812025e-6</v>
       </c>
       <c r="J34">
-        <v>0.0019642787413566014</v>
+        <v>0.001964278741353969</v>
       </c>
       <c r="K34">
-        <v>4.8372166068196e-5</v>
+        <v>4.837216606817484e-5</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1610,34 +1610,34 @@
         <v>-0.0165</v>
       </c>
       <c r="B35">
-        <v>7.540635982721588</v>
+        <v>7.540627632800635</v>
       </c>
       <c r="C35">
         <v>9.839673213817795e-5</v>
       </c>
       <c r="D35">
-        <v>-7.580858839596397e-6</v>
+        <v>-7.5808628685374484e-6</v>
       </c>
       <c r="E35">
-        <v>0.0019629331916154263</v>
+        <v>0.001962931170919773</v>
       </c>
       <c r="F35">
-        <v>4.836476196811077e-5</v>
+        <v>4.8364625082746746e-5</v>
       </c>
       <c r="G35">
-        <v>7.540626943542757</v>
+        <v>7.540626943551119</v>
       </c>
       <c r="H35">
-        <v>9.83965521669353e-5</v>
+        <v>9.839655216693991e-5</v>
       </c>
       <c r="I35">
-        <v>-7.581035133689102e-6</v>
+        <v>-7.581035133719158e-6</v>
       </c>
       <c r="J35">
-        <v>0.0019629311114037857</v>
+        <v>0.001962931111401077</v>
       </c>
       <c r="K35">
-        <v>4.836462463565637e-5</v>
+        <v>4.836462463563429e-5</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1645,34 +1645,34 @@
         <v>-0.0155</v>
       </c>
       <c r="B36">
-        <v>7.523116947186363</v>
+        <v>7.523107874013398</v>
       </c>
       <c r="C36">
         <v>9.387773127221834e-5</v>
       </c>
       <c r="D36">
-        <v>-7.797409146093965e-6</v>
+        <v>-7.797414254628952e-6</v>
       </c>
       <c r="E36">
-        <v>0.001961574261067066</v>
+        <v>0.0019615720884111425</v>
       </c>
       <c r="F36">
-        <v>4.8357847631373746e-5</v>
+        <v>4.8357698651338894e-5</v>
       </c>
       <c r="G36">
-        <v>7.523106755798738</v>
+        <v>7.523106755807059</v>
       </c>
       <c r="H36">
-        <v>9.387744329937927e-5</v>
+        <v>9.387744329938386e-5</v>
       </c>
       <c r="I36">
-        <v>-7.79765857114361e-6</v>
+        <v>-7.797658571174606e-6</v>
       </c>
       <c r="J36">
-        <v>0.0019615719856625417</v>
+        <v>0.001961571985659758</v>
       </c>
       <c r="K36">
-        <v>4.835769794915957e-5</v>
+        <v>4.8357697949136594e-5</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1680,34 +1680,34 @@
         <v>-0.014500000000000002</v>
       </c>
       <c r="B37">
-        <v>7.505903881816573</v>
+        <v>7.505894134332133</v>
       </c>
       <c r="C37">
         <v>8.93625906810008e-5</v>
       </c>
       <c r="D37">
-        <v>-8.011051183726968e-6</v>
+        <v>-8.011057534425715e-6</v>
       </c>
       <c r="E37">
-        <v>0.0019602049663403997</v>
+        <v>0.0019602026596246373</v>
       </c>
       <c r="F37">
-        <v>4.835152050847365e-5</v>
+        <v>4.8351360211727205e-5</v>
       </c>
       <c r="G37">
-        <v>7.505892410564447</v>
+        <v>7.50589241057272</v>
       </c>
       <c r="H37">
-        <v>8.936214752117341e-5</v>
+        <v>8.936214752117796e-5</v>
       </c>
       <c r="I37">
-        <v>-8.011404696738432e-6</v>
+        <v>-8.01140469677037e-6</v>
       </c>
       <c r="J37">
-        <v>0.0019602024940346685</v>
+        <v>0.00196020249403181</v>
       </c>
       <c r="K37">
-        <v>4.8351359166252876e-5</v>
+        <v>4.8351359166228997e-5</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1715,34 +1715,34 @@
         <v>-0.013500000000000005</v>
       </c>
       <c r="B38">
-        <v>7.489008979617384</v>
+        <v>7.488998613076165</v>
       </c>
       <c r="C38">
         <v>8.485320130770519e-5</v>
       </c>
       <c r="D38">
-        <v>-8.220555197142305e-6</v>
+        <v>-8.220562951317863e-6</v>
       </c>
       <c r="E38">
-        <v>0.001958826683684312</v>
+        <v>0.001958824262552214</v>
       </c>
       <c r="F38">
-        <v>4.8345754443426364e-5</v>
+        <v>4.8345583728735384e-5</v>
       </c>
       <c r="G38">
-        <v>7.488996053878892</v>
+        <v>7.48899605388711</v>
       </c>
       <c r="H38">
-        <v>8.485254021714488e-5</v>
+        <v>8.485254021714942e-5</v>
       </c>
       <c r="I38">
-        <v>-8.22105386791787e-6</v>
+        <v>-8.22105386795074e-6</v>
       </c>
       <c r="J38">
-        <v>0.001958824007734837</v>
+        <v>0.0019588240077319046</v>
       </c>
       <c r="K38">
-        <v>4.8345582230589085e-5</v>
+        <v>4.834558223056433e-5</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1750,34 +1750,34 @@
         <v>-0.012500000000000004</v>
       </c>
       <c r="B39">
-        <v>7.47244493157546</v>
+        <v>7.472434005068939</v>
       </c>
       <c r="C39">
         <v>8.035221125603372e-5</v>
       </c>
       <c r="D39">
-        <v>-8.424200566193596e-6</v>
+        <v>-8.424209879395892e-6</v>
       </c>
       <c r="E39">
-        <v>0.001957441113336803</v>
+        <v>0.0019574385983966306</v>
       </c>
       <c r="F39">
-        <v>4.834052459417826e-5</v>
+        <v>4.834034444049204e-5</v>
       </c>
       <c r="G39">
-        <v>7.472430319717289</v>
+        <v>7.472430319725447</v>
       </c>
       <c r="H39">
-        <v>8.035125109375637e-5</v>
+        <v>8.035125109376089e-5</v>
       </c>
       <c r="I39">
-        <v>-8.424897397853608e-6</v>
+        <v>-8.424897397887408e-6</v>
       </c>
       <c r="J39">
-        <v>0.0019574382198208062</v>
+        <v>0.0019574382198177995</v>
       </c>
       <c r="K39">
-        <v>4.834034235808997e-5</v>
+        <v>4.834034235806435e-5</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1785,34 +1785,34 @@
         <v>-0.011500000000000003</v>
       </c>
       <c r="B40">
-        <v>7.456225778876</v>
+        <v>7.456214353184824</v>
       </c>
       <c r="C40">
         <v>7.586324582542889e-5</v>
       </c>
       <c r="D40">
-        <v>-8.61963385210503e-6</v>
+        <v>-8.619644869242415e-6</v>
       </c>
       <c r="E40">
-        <v>0.001956050378176235</v>
+        <v>0.0019560477902975794</v>
       </c>
       <c r="F40">
-        <v>4.833580785578474e-5</v>
+        <v>4.8335619285486306e-5</v>
       </c>
       <c r="G40">
-        <v>7.456209184984556</v>
+        <v>7.456209184992652</v>
       </c>
       <c r="H40">
-        <v>7.586188467508719e-5</v>
+        <v>7.58618846750917e-5</v>
       </c>
       <c r="I40">
-        <v>-8.620595293320923e-6</v>
+        <v>-8.620595293355651e-6</v>
       </c>
       <c r="J40">
-        <v>0.001956047244070684</v>
+        <v>0.001956047244067605</v>
       </c>
       <c r="K40">
-        <v>4.8335616465560264e-5</v>
+        <v>4.83356164655338e-5</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1820,34 +1820,34 @@
         <v>-0.010500000000000002</v>
       </c>
       <c r="B41">
-        <v>7.440367804774224</v>
+        <v>7.440355940609577</v>
       </c>
       <c r="C41">
         <v>7.139115530259627e-5</v>
       </c>
       <c r="D41">
-        <v>-8.803709369654592e-6</v>
+        <v>-8.8037222195893e-6</v>
       </c>
       <c r="E41">
-        <v>0.0019546571385588877</v>
+        <v>0.001954654498265957</v>
       </c>
       <c r="F41">
-        <v>4.833158321215453e-5</v>
+        <v>4.833138725950651e-5</v>
       </c>
       <c r="G41">
-        <v>7.440348865821451</v>
+        <v>7.440348865829486</v>
       </c>
       <c r="H41">
-        <v>7.13892690426551e-5</v>
+        <v>7.138926904265961e-5</v>
       </c>
       <c r="I41">
-        <v>-8.805016202242423e-6</v>
+        <v>-8.805016202278073e-6</v>
       </c>
       <c r="J41">
-        <v>0.0019546537302867766</v>
+        <v>0.001954653730283626</v>
       </c>
       <c r="K41">
-        <v>4.833138352967152e-5</v>
+        <v>4.8331383529644216e-5</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1855,34 +1855,34 @@
         <v>-0.009500000000000001</v>
       </c>
       <c r="B42">
-        <v>7.424890413346964</v>
+        <v>7.424878169994056</v>
       </c>
       <c r="C42">
         <v>6.694227900835865e-5</v>
       </c>
       <c r="D42">
-        <v>-8.972319843557413e-6</v>
+        <v>-8.972334632956119e-6</v>
       </c>
       <c r="E42">
-        <v>0.0019532647186278787</v>
+        <v>0.0019532620455983193</v>
       </c>
       <c r="F42">
-        <v>4.832783200296552e-5</v>
+        <v>4.8327629688356145e-5</v>
       </c>
       <c r="G42">
-        <v>7.424868702475882</v>
+        <v>7.424868702483857</v>
       </c>
       <c r="H42">
-        <v>6.693972139324653e-5</v>
+        <v>6.693972139325106e-5</v>
       </c>
       <c r="I42">
-        <v>-8.974067082164548e-6</v>
+        <v>-8.974067082201108e-6</v>
       </c>
       <c r="J42">
-        <v>0.0019532609913423967</v>
+        <v>0.0019532609913391757</v>
       </c>
       <c r="K42">
-        <v>4.8327624862103907e-5</v>
+        <v>4.832762486207577e-5</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1890,34 +1890,34 @@
         <v>-0.0085</v>
       </c>
       <c r="B43">
-        <v>7.409816926983628</v>
+        <v>7.409804361326825</v>
       </c>
       <c r="C43">
         <v>6.252470744422661e-5</v>
       </c>
       <c r="D43">
-        <v>-9.120228965029268e-6</v>
+        <v>-9.120245771218189e-6</v>
       </c>
       <c r="E43">
-        <v>0.0019518772360719338</v>
+        <v>0.0019518745487402012</v>
       </c>
       <c r="F43">
-        <v>4.832453809103579e-5</v>
+        <v>4.832433040107497e-5</v>
       </c>
       <c r="G43">
-        <v>7.409791964399891</v>
+        <v>7.409791964407805</v>
       </c>
       <c r="H43">
-        <v>6.252131227338814e-5</v>
+        <v>6.252131227339267e-5</v>
       </c>
       <c r="I43">
-        <v>-9.122524398773408e-6</v>
+        <v>-9.122524398810872e-6</v>
       </c>
       <c r="J43">
-        <v>0.0019518731339598825</v>
+        <v>0.0019518731339565917</v>
       </c>
       <c r="K43">
-        <v>4.832432428537796e-5</v>
+        <v>4.832432428534901e-5</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1925,34 +1925,34 @@
         <v>-0.007500000000000003</v>
       </c>
       <c r="B44">
-        <v>7.395175221470379</v>
+        <v>7.39516238735815</v>
       </c>
       <c r="C44">
         <v>5.8148517600918635e-5</v>
       </c>
       <c r="D44">
-        <v>-9.240921964361692e-6</v>
+        <v>-9.24094082695466e-6</v>
       </c>
       <c r="E44">
-        <v>0.0019504997237533039</v>
+        <v>0.001950497039011185</v>
       </c>
       <c r="F44">
-        <v>4.8321687915858026e-5</v>
+        <v>4.8321475788982486e-5</v>
       </c>
       <c r="G44">
-        <v>7.395146493945732</v>
+        <v>7.395146493953589</v>
       </c>
       <c r="H44">
-        <v>5.814410347907173e-5</v>
+        <v>5.814410347907625e-5</v>
       </c>
       <c r="I44">
-        <v>-9.243883020593063e-6</v>
+        <v>-9.243883020631417e-6</v>
       </c>
       <c r="J44">
-        <v>0.0019504951816134402</v>
+        <v>0.0019504951816100811</v>
       </c>
       <c r="K44">
-        <v>4.832146819441466e-5</v>
+        <v>4.8321468194384894e-5</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1960,34 +1960,34 @@
         <v>-0.006500000000000006</v>
       </c>
       <c r="B45">
-        <v>7.380998109966203</v>
+        <v>7.380985057862496</v>
       </c>
       <c r="C45">
         <v>5.3825950623410936e-5</v>
       </c>
       <c r="D45">
-        <v>-9.326493982329376e-6</v>
+        <v>-9.326514893478296e-6</v>
       </c>
       <c r="E45">
-        <v>0.0019491382282899505</v>
+        <v>0.0019491355612734817</v>
       </c>
       <c r="F45">
-        <v>4.8319270421863385e-5</v>
+        <v>4.8319054738865414e-5</v>
       </c>
       <c r="G45">
-        <v>7.380965099180624</v>
+        <v>7.380965099188425</v>
       </c>
       <c r="H45">
-        <v>5.382032863462089e-5</v>
+        <v>5.382032863462538e-5</v>
       </c>
       <c r="I45">
-        <v>-9.330242712049657e-6</v>
+        <v>-9.330242712088883e-6</v>
       </c>
       <c r="J45">
-        <v>0.0019491331745685818</v>
+        <v>0.0019491331745651566</v>
       </c>
       <c r="K45">
-        <v>4.831904549181202e-5</v>
+        <v>4.831904549178145e-5</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1995,34 +1995,34 @@
         <v>-0.005500000000000005</v>
       </c>
       <c r="B46">
-        <v>7.367323388158623</v>
+        <v>7.367310165023262</v>
       </c>
       <c r="C46">
         <v>4.9571497334718584e-5</v>
       </c>
       <c r="D46">
-        <v>-9.367598251649387e-6</v>
+        <v>-9.367621144921958e-6</v>
       </c>
       <c r="E46">
-        <v>0.0019477998681981647</v>
+        <v>0.0019477972321492896</v>
       </c>
       <c r="F46">
-        <v>4.831727685553675e-5</v>
+        <v>4.8317058434304465e-5</v>
       </c>
       <c r="G46">
-        <v>7.367285607069599</v>
+        <v>7.367285607077348</v>
       </c>
       <c r="H46">
-        <v>4.956448166095266e-5</v>
+        <v>4.956448166095712e-5</v>
       </c>
       <c r="I46">
-        <v>-9.372254426497246e-6</v>
+        <v>-9.37225442653733e-6</v>
       </c>
       <c r="J46">
-        <v>0.0019477942295370164</v>
+        <v>0.001947794229533525</v>
       </c>
       <c r="K46">
-        <v>4.831704739048943e-5</v>
+        <v>4.831704739045809e-5</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2030,34 +2030,34 @@
         <v>-0.004500000000000004</v>
       </c>
       <c r="B47">
-        <v>7.354193464883278</v>
+        <v>7.354180114224782</v>
       </c>
       <c r="C47">
         <v>4.540185690462495e-5</v>
       </c>
       <c r="D47">
-        <v>-9.353476071275328e-6</v>
+        <v>-9.353500809400859e-6</v>
       </c>
       <c r="E47">
-        <v>0.0019464928332908022</v>
+        <v>0.0019464902394828777</v>
       </c>
       <c r="F47">
-        <v>4.831570043348812e-5</v>
+        <v>4.831548002720117e-5</v>
       </c>
       <c r="G47">
-        <v>7.3541505001166625</v>
+        <v>7.354150500124364</v>
       </c>
       <c r="H47">
-        <v>4.539327803319197e-5</v>
+        <v>4.539327803319641e-5</v>
       </c>
       <c r="I47">
-        <v>-9.359148631631447e-6</v>
+        <v>-9.359148631672355e-6</v>
       </c>
       <c r="J47">
-        <v>0.0019464865404639283</v>
+        <v>0.0019464865404603736</v>
       </c>
       <c r="K47">
-        <v>4.831546708546153e-5</v>
+        <v>4.831546708542941e-5</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2065,34 +2065,34 @@
         <v>-0.003500000000000003</v>
       </c>
       <c r="B48">
-        <v>7.3416545266717</v>
+        <v>7.341641088719923</v>
       </c>
       <c r="C48">
         <v>4.133573830300703e-5</v>
       </c>
       <c r="D48">
-        <v>-9.272087600854256e-6</v>
+        <v>-9.27211396289656e-6</v>
       </c>
       <c r="E48">
-        <v>0.00194522630836059</v>
+        <v>0.0019452237660785813</v>
       </c>
       <c r="F48">
-        <v>4.831453589316297e-5</v>
+        <v>4.831431419119431e-5</v>
       </c>
       <c r="G48">
-        <v>7.341606083740256</v>
+        <v>7.341606083747915</v>
       </c>
       <c r="H48">
-        <v>4.132545802772192e-5</v>
+        <v>4.1325458027726324e-5</v>
       </c>
       <c r="I48">
-        <v>-9.278864976424774e-6</v>
+        <v>-9.278864976466483e-6</v>
       </c>
       <c r="J48">
-        <v>0.0019452193032633714</v>
+        <v>0.0019452193032597539</v>
       </c>
       <c r="K48">
-        <v>4.831429930623349e-5</v>
+        <v>4.831429930620064e-5</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2100,34 +2100,34 @@
         <v>-0.0025000000000000022</v>
       </c>
       <c r="B49">
-        <v>7.329755220422711</v>
+        <v>7.329741732374097</v>
       </c>
       <c r="C49">
         <v>3.739348370435997e-5</v>
       </c>
       <c r="D49">
-        <v>-9.110356274984757e-6</v>
+        <v>-9.110383943885534e-6</v>
       </c>
       <c r="E49">
-        <v>0.001944010308246199</v>
+        <v>0.001944007824814379</v>
       </c>
       <c r="F49">
-        <v>4.831377894778802e-5</v>
+        <v>4.831355657859696e-5</v>
       </c>
       <c r="G49">
-        <v>7.329701167593659</v>
+        <v>7.3297011676012795</v>
       </c>
       <c r="H49">
-        <v>3.738141069545674e-5</v>
+        <v>3.7381410695461106e-5</v>
       </c>
       <c r="I49">
-        <v>-9.118296372309315e-6</v>
+        <v>-9.118296372351788e-6</v>
       </c>
       <c r="J49">
-        <v>0.0019440025513781682</v>
+        <v>0.001944002551374489</v>
       </c>
       <c r="K49">
-        <v>4.8313539771395816e-5</v>
+        <v>4.831353977136225e-5</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2135,34 +2135,34 @@
         <v>-0.0015000000000000013</v>
       </c>
       <c r="B50">
-        <v>7.31854488299834</v>
+        <v>7.318531379293011</v>
       </c>
       <c r="C50">
         <v>3.3596507570729135e-5</v>
       </c>
       <c r="D50">
-        <v>-8.854530271706823e-6</v>
+        <v>-8.854558823557522e-6</v>
       </c>
       <c r="E50">
-        <v>0.0019428554183158848</v>
+        <v>0.0019428529991676526</v>
       </c>
       <c r="F50">
-        <v>4.831342567596008e-5</v>
+        <v>4.831320321130851e-5</v>
       </c>
       <c r="G50">
-        <v>7.318485289050108</v>
+        <v>7.318485289057696</v>
       </c>
       <c r="H50">
-        <v>3.358261194568879e-5</v>
+        <v>3.358261194569312e-5</v>
       </c>
       <c r="I50">
-        <v>-8.863651138067426e-6</v>
+        <v>-8.863651138110622e-6</v>
       </c>
       <c r="J50">
-        <v>0.0019428468960085298</v>
+        <v>0.0019428468960047908</v>
       </c>
       <c r="K50">
-        <v>4.831318457598502e-5</v>
+        <v>4.831318457595074e-5</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2170,34 +2170,34 @@
         <v>-0.0005000000000000004</v>
       </c>
       <c r="B51">
-        <v>7.308071395452947</v>
+        <v>7.308057908049579</v>
       </c>
       <c r="C51">
         <v>2.996656368943619e-5</v>
       </c>
       <c r="D51">
-        <v>-8.490652671776843e-6</v>
+        <v>-8.490681568549664e-6</v>
       </c>
       <c r="E51">
-        <v>0.001941772443853285</v>
+        <v>0.001941770092638928</v>
       </c>
       <c r="F51">
-        <v>4.831347188268959e-5</v>
+        <v>4.831324984256905e-5</v>
       </c>
       <c r="G51">
-        <v>7.308006556545467</v>
+        <v>7.308006556553027</v>
       </c>
       <c r="H51">
-        <v>2.9950888839100225e-5</v>
+        <v>2.9950888839104524e-5</v>
       </c>
       <c r="I51">
-        <v>-8.500924952784046e-6</v>
+        <v>-8.500924952827916e-6</v>
       </c>
       <c r="J51">
-        <v>0.0019417631743763523</v>
+        <v>0.0019417631743725535</v>
       </c>
       <c r="K51">
-        <v>4.831322954874875e-5</v>
+        <v>4.831322954871378e-5</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2205,34 +2205,34 @@
         <v>0.000499999999999997</v>
       </c>
       <c r="B52">
-        <v>7.29837878688886</v>
+        <v>7.298365345510584</v>
       </c>
       <c r="C52">
         <v>2.6524873023971605e-5</v>
       </c>
       <c r="D52">
-        <v>-8.005118978660068e-6</v>
+        <v>-8.005147566357453e-6</v>
       </c>
       <c r="E52">
-        <v>0.0019407719828789774</v>
+        <v>0.0019407697016077274</v>
       </c>
       <c r="F52">
-        <v>4.831391247182959e-5</v>
+        <v>4.831369132955279e-5</v>
       </c>
       <c r="G52">
-        <v>7.2983092384072545</v>
+        <v>7.2983092384147925</v>
       </c>
       <c r="H52">
-        <v>2.6507542998066418e-5</v>
+        <v>2.650754299807068e-5</v>
       </c>
       <c r="I52">
-        <v>-8.016461248812398e-6</v>
+        <v>-8.01646124885688e-6</v>
       </c>
       <c r="J52">
-        <v>0.001940762020551976</v>
+        <v>0.001940762020548118</v>
       </c>
       <c r="K52">
-        <v>4.831366961970634e-5</v>
+        <v>4.831366961967071e-5</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2240,34 +2240,34 @@
         <v>0.0014999999999999944</v>
       </c>
       <c r="B53">
-        <v>7.289504752166547</v>
+        <v>7.289491384498725</v>
       </c>
       <c r="C53">
         <v>2.3291165171862154e-5</v>
       </c>
       <c r="D53">
-        <v>-7.3852882259755696e-6</v>
+        <v>-7.38531574010838e-6</v>
       </c>
       <c r="E53">
-        <v>0.00193986394816549</v>
+        <v>0.0019398617373779395</v>
       </c>
       <c r="F53">
-        <v>4.8314740869364574e-5</v>
+        <v>4.8314521056358154e-5</v>
       </c>
       <c r="G53">
-        <v>7.289431262669307</v>
+        <v>7.289431262676827</v>
       </c>
       <c r="H53">
-        <v>2.327238623596001e-5</v>
+        <v>2.3272386235964232e-5</v>
       </c>
       <c r="I53">
-        <v>-7.3975660698348126e-6</v>
+        <v>-7.397566069879849e-6</v>
       </c>
       <c r="J53">
-        <v>0.0019398533847284803</v>
+        <v>0.0019398533847245637</v>
       </c>
       <c r="K53">
-        <v>4.831449823802877e-5</v>
+        <v>4.8314498237992474e-5</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2275,34 +2275,34 @@
         <v>0.0024999999999999953</v>
       </c>
       <c r="B54">
-        <v>7.2814782729530325</v>
+        <v>7.281465004781658</v>
       </c>
       <c r="C54">
         <v>2.0282702484804773e-5</v>
       </c>
       <c r="D54">
-        <v>-6.620103857236324e-6</v>
+        <v>-6.620129437104408e-6</v>
       </c>
       <c r="E54">
-        <v>0.0019390570738465236</v>
+        <v>0.0019390549328125643</v>
       </c>
       <c r="F54">
-        <v>4.831594853331337e-5</v>
+        <v>4.831573044325217e-5</v>
       </c>
       <c r="G54">
-        <v>7.28140181913893</v>
+        <v>7.281401819146434</v>
       </c>
       <c r="H54">
-        <v>2.0262758013645965e-5</v>
+        <v>2.0262758013650156e-5</v>
       </c>
       <c r="I54">
-        <v>-6.63313322333779e-6</v>
+        <v>-6.633133223383306e-6</v>
       </c>
       <c r="J54">
-        <v>0.0019390460366064234</v>
+        <v>0.0019390460366024481</v>
       </c>
       <c r="K54">
-        <v>4.831570687657308e-5</v>
+        <v>4.831570687653615e-5</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2310,34 +2310,34 @@
         <v>0.003499999999999996</v>
       </c>
       <c r="B55">
-        <v>7.274317538398601</v>
+        <v>7.2743043936859735</v>
       </c>
       <c r="C55">
         <v>1.751336563035466e-5</v>
       </c>
       <c r="D55">
-        <v>-5.700674668354281e-6</v>
+        <v>-5.7006973807225425e-6</v>
       </c>
       <c r="E55">
-        <v>0.001938358448294869</v>
+        <v>0.0019383563752308692</v>
       </c>
       <c r="F55">
-        <v>4.831752457975433e-5</v>
+        <v>4.8317308571801674e-5</v>
       </c>
       <c r="G55">
-        <v>7.274239262082963</v>
+        <v>7.274239262090454</v>
       </c>
       <c r="H55">
-        <v>1.7492604239716758e-5</v>
+        <v>1.7492604239720916e-5</v>
       </c>
       <c r="I55">
-        <v>-5.714229547930437e-6</v>
+        <v>-5.714229547976359e-6</v>
       </c>
       <c r="J55">
-        <v>0.0019383470949336304</v>
+        <v>0.001938347094929597</v>
       </c>
       <c r="K55">
-        <v>4.831728465313729e-5</v>
+        <v>4.831728465309974e-5</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2345,34 +2345,34 @@
         <v>0.004499999999999997</v>
       </c>
       <c r="B56">
-        <v>7.268028347830045</v>
+        <v>7.268015348731682</v>
       </c>
       <c r="C56">
         <v>1.4992880414686623e-5</v>
       </c>
       <c r="D56">
-        <v>-4.6207656388522066e-6</v>
+        <v>-4.620784510354977e-6</v>
       </c>
       <c r="E56">
-        <v>0.0019377731163957846</v>
+        <v>0.0019377711086931194</v>
       </c>
       <c r="F56">
-        <v>4.8319455546628356e-5</v>
+        <v>4.8319241947683665e-5</v>
       </c>
       <c r="G56">
-        <v>7.267949498009454</v>
+        <v>7.267949498016932</v>
       </c>
       <c r="H56">
-        <v>1.4971698053976247e-5</v>
+        <v>1.4971698053980365e-5</v>
       </c>
       <c r="I56">
-        <v>-4.63458960134813e-6</v>
+        <v>-4.634589601394378e-6</v>
       </c>
       <c r="J56">
-        <v>0.0019377616267525542</v>
+        <v>0.0019377616267484625</v>
       </c>
       <c r="K56">
-        <v>4.8319218090575346e-5</v>
+        <v>4.83192180905372e-5</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2380,34 +2380,34 @@
         <v>0.005499999999999998</v>
       </c>
       <c r="B57">
-        <v>7.2626031436194305</v>
+        <v>7.262590310452455</v>
       </c>
       <c r="C57">
         <v>1.2726257089254663e-5</v>
       </c>
       <c r="D57">
-        <v>-3.377153984849654e-6</v>
+        <v>-3.3771680410233087e-6</v>
       </c>
       <c r="E57">
-        <v>0.001937303790211372</v>
+        <v>0.0019373018446669737</v>
       </c>
       <c r="F57">
-        <v>4.8321725308348375e-5</v>
+        <v>4.832151441434018e-5</v>
       </c>
       <c r="G57">
-        <v>7.262525008505842</v>
+        <v>7.2625250085133075</v>
       </c>
       <c r="H57">
-        <v>1.2705074593528932e-5</v>
+        <v>1.2705074593533019e-5</v>
       </c>
       <c r="I57">
-        <v>-3.390974611193707e-6</v>
+        <v>-3.3909746112401996e-6</v>
       </c>
       <c r="J57">
-        <v>0.001937292355762672</v>
+        <v>0.001937292355758522</v>
       </c>
       <c r="K57">
-        <v>4.832149102917033e-5</v>
+        <v>4.832149102913161e-5</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2415,34 +2415,34 @@
         <v>0.006499999999999999</v>
       </c>
       <c r="B58">
-        <v>7.258020770903391</v>
+        <v>7.258008122081364</v>
       </c>
       <c r="C58">
         <v>1.0713495654058826e-5</v>
       </c>
       <c r="D58">
-        <v>-1.9698168900001743e-6</v>
+        <v>-1.969825197549196e-6</v>
       </c>
       <c r="E58">
-        <v>0.0019369506974871319</v>
+        <v>0.0019369488105258977</v>
       </c>
       <c r="F58">
-        <v>4.832431514541908e-5</v>
+        <v>4.8324107221801486e-5</v>
       </c>
       <c r="G58">
-        <v>7.257944606056692</v>
+        <v>7.257944606064144</v>
       </c>
       <c r="H58">
-        <v>1.0692733859895028e-5</v>
+        <v>1.069273385989908e-5</v>
       </c>
       <c r="I58">
-        <v>-1.9833617620608715e-6</v>
+        <v>-1.9833617621075308e-6</v>
       </c>
       <c r="J58">
-        <v>0.0019369395095745093</v>
+        <v>0.0019369395095702997</v>
       </c>
       <c r="K58">
-        <v>4.832408469569581e-5</v>
+        <v>4.832408469565651e-5</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2450,34 +2450,34 @@
         <v>0.0075</v>
       </c>
       <c r="B59">
-        <v>7.254246997527668</v>
+        <v>7.254234549479516</v>
       </c>
       <c r="C59">
         <v>8.949585857645022e-6</v>
       </c>
       <c r="D59">
-        <v>-4.019328611370691e-7</v>
+        <v>-4.0193456922472886e-7</v>
       </c>
       <c r="E59">
-        <v>0.001936711583648759</v>
+        <v>0.001936709751527726</v>
       </c>
       <c r="F59">
-        <v>4.832720396454154e-5</v>
+        <v>4.832699924624141e-5</v>
       </c>
       <c r="G59">
-        <v>7.254173956719118</v>
+        <v>7.254173956726554</v>
       </c>
       <c r="H59">
-        <v>8.929640718980332e-6</v>
+        <v>8.929640718984349e-6</v>
       </c>
       <c r="I59">
-        <v>-4.1494555591480285e-7</v>
+        <v>-4.1494555596154425e-7</v>
       </c>
       <c r="J59">
-        <v>0.0019367008216822545</v>
+        <v>0.0019367008216779854</v>
       </c>
       <c r="K59">
-        <v>4.832697792470413e-5</v>
+        <v>4.832697792466427e-5</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2485,34 +2485,34 @@
         <v>0.008499999999999997</v>
       </c>
       <c r="B60">
-        <v>7.25123575962276</v>
+        <v>7.25122352671418</v>
       </c>
       <c r="C60">
         <v>7.424801893838488e-6</v>
       </c>
       <c r="D60">
-        <v>1.3203034537048072e-6</v>
+        <v>1.3203090774375856e-6</v>
       </c>
       <c r="E60">
-        <v>0.0019365818668413257</v>
+        <v>0.0019365800858267633</v>
       </c>
       <c r="F60">
-        <v>4.833036865616006e-5</v>
+        <v>4.8330167347267994e-5</v>
       </c>
       <c r="G60">
-        <v>7.251166834739382</v>
+        <v>7.2511668347467975</v>
       </c>
       <c r="H60">
-        <v>7.406022033902771e-6</v>
+        <v>7.406022033906751e-6</v>
       </c>
       <c r="I60">
-        <v>1.3080489178444803e-6</v>
+        <v>1.308048917797705e-6</v>
       </c>
       <c r="J60">
-        <v>0.0019365716877061641</v>
+        <v>0.0019365716877018356</v>
       </c>
       <c r="K60">
-        <v>4.833014751889334e-5</v>
+        <v>4.8330147518852914e-5</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2520,34 +2520,34 @@
         <v>0.009499999999999995</v>
       </c>
       <c r="B61">
-        <v>7.248931033518106</v>
+        <v>7.248919027992431</v>
       </c>
       <c r="C61">
         <v>6.125263095084021e-6</v>
       </c>
       <c r="D61">
-        <v>3.1880352265036046e-6</v>
+        <v>3.1880487687879953e-6</v>
       </c>
       <c r="E61">
-        <v>0.0019365549295837902</v>
+        <v>0.0019365531960946233</v>
       </c>
       <c r="F61">
-        <v>4.833378456822918e-5</v>
+        <v>4.8333586841729365e-5</v>
       </c>
       <c r="G61">
-        <v>7.248867008713618</v>
+        <v>7.24886700872101</v>
       </c>
       <c r="H61">
-        <v>6.107931898849852e-6</v>
+        <v>6.107931898853794e-6</v>
       </c>
       <c r="I61">
-        <v>3.1767228364860748e-6</v>
+        <v>3.176722836439314e-6</v>
       </c>
       <c r="J61">
-        <v>0.0019365454592978582</v>
+        <v>0.001936545459293469</v>
       </c>
       <c r="K61">
-        <v>4.833356872706337e-5</v>
+        <v>4.83335687270224e-5</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2555,34 +2555,34 @@
         <v>0.010499999999999995</v>
       </c>
       <c r="B62">
-        <v>7.247269180934418</v>
+        <v>7.247257412886859</v>
       </c>
       <c r="C62">
         <v>5.0337071096847305e-6</v>
       </c>
       <c r="D62">
-        <v>5.1902328586656335e-6</v>
+        <v>5.1902547445883375e-6</v>
       </c>
       <c r="E62">
-        <v>0.0019366225171252153</v>
+        <v>0.0019366208278392347</v>
       </c>
       <c r="F62">
-        <v>4.833742606746361e-5</v>
+        <v>4.8337232065258525e-5</v>
       </c>
       <c r="G62">
-        <v>7.247210604508978</v>
+        <v>7.247210604516341</v>
       </c>
       <c r="H62">
-        <v>5.018030855549541e-6</v>
+        <v>5.018030855553445e-6</v>
       </c>
       <c r="I62">
-        <v>5.179996909812223e-6</v>
+        <v>5.179996909765522e-6</v>
       </c>
       <c r="J62">
-        <v>0.0019366138454712087</v>
+        <v>0.0019366138454667587</v>
       </c>
       <c r="K62">
-        <v>4.8337215810516194e-5</v>
+        <v>4.83372158104747e-5</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2590,34 +2590,34 @@
         <v>0.011499999999999996</v>
       </c>
       <c r="B63">
-        <v>7.246181577851102</v>
+        <v>7.246170055245895</v>
       </c>
       <c r="C63">
         <v>4.13040434011371e-6</v>
       </c>
       <c r="D63">
-        <v>7.314274269986971e-6</v>
+        <v>7.314304758728796e-6</v>
       </c>
       <c r="E63">
-        <v>0.001936775203471809</v>
+        <v>0.0019367735553944684</v>
       </c>
       <c r="F63">
-        <v>4.834126715309269e-5</v>
+        <v>4.834107698650936e-5</v>
       </c>
       <c r="G63">
-        <v>7.246128753256216</v>
+        <v>7.246128753263546</v>
       </c>
       <c r="H63">
-        <v>4.11650709300004e-6</v>
+        <v>4.116507093003907e-6</v>
       </c>
       <c r="I63">
-        <v>7.305195998044985e-6</v>
+        <v>7.305195997998384e-6</v>
       </c>
       <c r="J63">
-        <v>0.0019367673819207978</v>
+        <v>0.001936767381916286</v>
       </c>
       <c r="K63">
-        <v>4.834106266241265e-5</v>
+        <v>4.8341062662370596e-5</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2625,34 +2625,34 @@
         <v>0.012499999999999997</v>
       </c>
       <c r="B64">
-        <v>7.245597322119703</v>
+        <v>7.245586050854565</v>
       </c>
       <c r="C64">
         <v>3.394133822880611e-6</v>
       </c>
       <c r="D64">
-        <v>9.546565870698287e-6</v>
+        <v>9.546605062069185e-6</v>
       </c>
       <c r="E64">
-        <v>0.0019370028823434225</v>
+        <v>0.0019370012728420704</v>
       </c>
       <c r="F64">
-        <v>4.834528208401909e-5</v>
+        <v>4.834509583489927e-5</v>
       </c>
       <c r="G64">
-        <v>7.245550317342243</v>
+        <v>7.245550317349535</v>
       </c>
       <c r="H64">
-        <v>3.3820589909510214e-6</v>
+        <v>3.3820589909548516e-6</v>
       </c>
       <c r="I64">
-        <v>9.538674363994335e-6</v>
+        <v>9.538674363947875e-6</v>
       </c>
       <c r="J64">
-        <v>0.0019369959251678474</v>
+        <v>0.001936995925163273</v>
       </c>
       <c r="K64">
-        <v>4.834508344043226e-5</v>
+        <v>4.834508344038968e-5</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2660,34 +2660,34 @@
         <v>0.013499999999999998</v>
       </c>
       <c r="B65">
-        <v>7.245445821855931</v>
+        <v>7.24543480587311</v>
       </c>
       <c r="C65">
         <v>2.8031417706638426e-6</v>
       </c>
       <c r="D65">
-        <v>1.1873154382952397e-5</v>
+        <v>1.1873202232559439e-5</v>
       </c>
       <c r="E65">
-        <v>0.0019372952420764063</v>
+        <v>0.0019372936688852127</v>
       </c>
       <c r="F65">
-        <v>4.834944597916102e-5</v>
+        <v>4.834926370155124e-5</v>
       </c>
       <c r="G65">
-        <v>7.245404494539363</v>
+        <v>7.245404494546612</v>
       </c>
       <c r="H65">
-        <v>2.7928594905875226e-6</v>
+        <v>2.792859490591316e-6</v>
       </c>
       <c r="I65">
-        <v>1.1866431253982672e-5</v>
+        <v>1.186643125393639e-5</v>
       </c>
       <c r="J65">
-        <v>0.0019372891301878414</v>
+        <v>0.0019372891301832047</v>
       </c>
       <c r="K65">
-        <v>4.83492531719837e-5</v>
+        <v>4.8349253171940607e-5</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2695,34 +2695,34 @@
         <v>0.014499999999999999</v>
       </c>
       <c r="B66">
-        <v>7.24565909388499</v>
+        <v>7.245648335323539</v>
       </c>
       <c r="C66">
         <v>2.3360137214177946e-6</v>
       </c>
       <c r="D66">
-        <v>1.428028550736351e-5</v>
+        <v>1.4280341847588948e-5</v>
       </c>
       <c r="E66">
-        <v>0.0019376421898856218</v>
+        <v>0.0019376406510878714</v>
       </c>
       <c r="F66">
-        <v>4.8353735353270086e-5</v>
+        <v>4.835355707565237e-5</v>
       </c>
       <c r="G66">
-        <v>7.245623128144712</v>
+        <v>7.245623128151915</v>
       </c>
       <c r="H66">
-        <v>2.3274326842255097e-6</v>
+        <v>2.3274326842292668e-6</v>
       </c>
       <c r="I66">
-        <v>1.4274672445665017e-5</v>
+        <v>1.4274672445618949e-5</v>
       </c>
       <c r="J66">
-        <v>0.0019376368766762095</v>
+        <v>0.0019376368766715105</v>
       </c>
       <c r="K66">
-        <v>4.8353548293816914e-5</v>
+        <v>4.835354829377335e-5</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2730,34 +2730,34 @@
         <v>0.0155</v>
       </c>
       <c r="B67">
-        <v>7.24617364431693</v>
+        <v>7.246163143697308</v>
       </c>
       <c r="C67">
         <v>1.972407500647515e-6</v>
       </c>
       <c r="D67">
-        <v>1.6754875450124864e-5</v>
+        <v>1.6754940013991176e-5</v>
       </c>
       <c r="E67">
-        <v>0.001938034200465621</v>
+        <v>0.0019380326944604819</v>
       </c>
       <c r="F67">
-        <v>4.835812855678438e-5</v>
+        <v>4.835795428473176e-5</v>
       </c>
       <c r="G67">
-        <v>7.246142594452683</v>
+        <v>7.246142594459835</v>
       </c>
       <c r="H67">
-        <v>1.9653895223087682e-6</v>
+        <v>1.965389522312489e-6</v>
       </c>
       <c r="I67">
-        <v>1.6750283575074122e-5</v>
+        <v>1.6750283575028294e-5</v>
       </c>
       <c r="J67">
-        <v>0.001938029618807195</v>
+        <v>0.0019380296188024346</v>
       </c>
       <c r="K67">
-        <v>4.835794709430314e-5</v>
+        <v>4.835794709425911e-5</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2765,34 +2765,34 @@
         <v>0.0165</v>
       </c>
       <c r="B68">
-        <v>7.246931855099583</v>
+        <v>7.246921611529512</v>
       </c>
       <c r="C68">
         <v>1.6936141384759449e-6</v>
       </c>
       <c r="D68">
-        <v>1.9284873786398475e-5</v>
+        <v>1.928494623174159e-5</v>
       </c>
       <c r="E68">
-        <v>0.0019384625748995808</v>
+        <v>0.0019384611003600194</v>
       </c>
       <c r="F68">
-        <v>4.836260609775061e-5</v>
+        <v>4.836243581685834e-5</v>
       </c>
       <c r="G68">
-        <v>7.246905191337682</v>
+        <v>7.246905191344779</v>
       </c>
       <c r="H68">
-        <v>1.6879897295783358e-6</v>
+        <v>1.6879897295820197e-6</v>
       </c>
       <c r="I68">
-        <v>1.9281193679761472e-5</v>
+        <v>1.9281193679715902e-5</v>
       </c>
       <c r="J68">
-        <v>0.0019384586444600312</v>
+        <v>0.0019384586444552087</v>
       </c>
       <c r="K68">
-        <v>4.8362430036305206e-5</v>
+        <v>4.836243003626073e-5</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2800,34 +2800,34 @@
         <v>0.0175</v>
       </c>
       <c r="B69">
-        <v>7.247882853833105</v>
+        <v>7.247872865222937</v>
       </c>
       <c r="C69">
         <v>1.482934465119728e-6</v>
       </c>
       <c r="D69">
-        <v>2.1859509146442006e-5</v>
+        <v>2.1859589078427797e-5</v>
       </c>
       <c r="E69">
-        <v>0.0019389196065711413</v>
+        <v>0.0019389181623986152</v>
       </c>
       <c r="F69">
-        <v>4.836715083535712e-5</v>
+        <v>4.836698451428948e-5</v>
       </c>
       <c r="G69">
-        <v>7.2478600057688976</v>
+        <v>7.247860005775937</v>
       </c>
       <c r="H69">
-        <v>1.4785178318213902e-6</v>
+        <v>1.4785178318250381e-6</v>
       </c>
       <c r="I69">
-        <v>2.185662055220142e-5</v>
+        <v>2.1856620552156135e-5</v>
       </c>
       <c r="J69">
-        <v>0.001938916240720785</v>
+        <v>0.0019389162407159003</v>
       </c>
       <c r="K69">
-        <v>4.836697995025541e-5</v>
+        <v>4.83669799502105e-5</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2835,34 +2835,34 @@
         <v>0.018500000000000003</v>
       </c>
       <c r="B70">
-        <v>7.248982892452194</v>
+        <v>7.248973155728674</v>
       </c>
       <c r="C70">
         <v>1.3258776575638102e-6</v>
       </c>
       <c r="D70">
-        <v>2.4469421065363287e-5</v>
+        <v>2.446950805608784e-5</v>
       </c>
       <c r="E70">
-        <v>0.0019393986598971046</v>
+        <v>0.0019393972451773097</v>
       </c>
       <c r="F70">
-        <v>4.837174804657783e-5</v>
+        <v>4.837158564007961e-5</v>
       </c>
       <c r="G70">
-        <v>7.248963286845593</v>
+        <v>7.248963286852573</v>
       </c>
       <c r="H70">
-        <v>1.3224799088464347e-6</v>
+        <v>1.3224799088500467e-6</v>
       </c>
       <c r="I70">
-        <v>2.446720145987957e-5</v>
+        <v>2.4467201459834588e-5</v>
       </c>
       <c r="J70">
-        <v>0.0019393957716622974</v>
+        <v>0.0019393957716573517</v>
       </c>
       <c r="K70">
-        <v>4.8371582099175734e-5</v>
+        <v>4.8371582099130414e-5</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2870,34 +2870,34 @@
         <v>0.019500000000000003</v>
       </c>
       <c r="B71">
-        <v>7.25019529837848</v>
+        <v>7.2501858096874825</v>
       </c>
       <c r="C71">
         <v>1.2102025708319508e-6</v>
       </c>
       <c r="D71">
-        <v>2.7106690758052836e-5</v>
+        <v>2.7106784362624107e-5</v>
       </c>
       <c r="E71">
-        <v>0.001939894174373255</v>
+        <v>0.0019398927883358035</v>
       </c>
       <c r="F71">
-        <v>4.8376385378187545e-5</v>
+        <v>4.837622682993255e-5</v>
       </c>
       <c r="G71">
-        <v>7.2501783891729055</v>
+        <v>7.250178389179823</v>
       </c>
       <c r="H71">
-        <v>1.2076423368956564e-6</v>
+        <v>1.2076423368992323e-6</v>
       </c>
       <c r="I71">
-        <v>2.7105022267538164e-5</v>
+        <v>2.7105022267493485e-5</v>
       </c>
       <c r="J71">
-        <v>0.001939891681109507</v>
+        <v>0.001939891681104501</v>
       </c>
       <c r="K71">
-        <v>4.8376224128243246e-5</v>
+        <v>4.837622412819752e-5</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2905,34 +2905,34 @@
         <v>0.020499999999999997</v>
       </c>
       <c r="B72">
-        <v>7.251490086427626</v>
+        <v>7.25148084131876</v>
       </c>
       <c r="C72">
         <v>1.1258322142056323e-6</v>
       </c>
       <c r="D72">
-        <v>2.976478985340952e-5</v>
+        <v>2.9764889622432742e-5</v>
       </c>
       <c r="E72">
-        <v>0.0019404016103357485</v>
+        <v>0.0019404002523193747</v>
       </c>
       <c r="F72">
-        <v>4.8381052704609994e-5</v>
+        <v>4.8380897949790805e-5</v>
       </c>
       <c r="G72">
-        <v>7.251475376102847</v>
+        <v>7.251475376109701</v>
       </c>
       <c r="H72">
-        <v>1.123943320409713e-6</v>
+        <v>1.1239433204132534e-6</v>
       </c>
       <c r="I72">
-        <v>2.9763564278407806e-5</v>
+        <v>2.9763564278363438e-5</v>
       </c>
       <c r="J72">
-        <v>0.0019403994370012039</v>
+        <v>0.0019403994369961396</v>
       </c>
       <c r="K72">
-        <v>4.8380895919749156e-5</v>
+        <v>4.838089591970303e-5</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2940,34 +2940,34 @@
         <v>0.02149999999999999</v>
       </c>
       <c r="B73">
-        <v>7.252843330515005</v>
+        <v>7.252834324103563</v>
       </c>
       <c r="C73">
         <v>1.0646760861743958e-6</v>
       </c>
       <c r="D73">
-        <v>3.243846910722099e-5</v>
+        <v>3.243857459597122e-5</v>
       </c>
       <c r="E73">
-        <v>0.0019409173541303018</v>
+        <v>0.001940916023554183</v>
       </c>
       <c r="F73">
-        <v>4.8385741916890863e-5</v>
+        <v>4.838559088448948e-5</v>
       </c>
       <c r="G73">
-        <v>7.25283038297063</v>
+        <v>7.252830382977419</v>
       </c>
       <c r="H73">
-        <v>1.0633123131860471e-6</v>
+        <v>1.0633123131895515e-6</v>
       </c>
       <c r="I73">
-        <v>3.243759106420765e-5</v>
+        <v>3.24375910641636e-5</v>
       </c>
       <c r="J73">
-        <v>0.0019409154352150737</v>
+        <v>0.001940915435209952</v>
       </c>
       <c r="K73">
-        <v>4.83855893791127e-5</v>
+        <v>4.8385589379066214e-5</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2975,34 +2975,34 @@
         <v>0.022499999999999992</v>
       </c>
       <c r="B74">
-        <v>7.254236392508955</v>
+        <v>7.254227619613074</v>
       </c>
       <c r="C74">
         <v>1.0203948659153001e-6</v>
       </c>
       <c r="D74">
-        <v>3.512360915604742e-5</v>
+        <v>3.512371993081615e-5</v>
       </c>
       <c r="E74">
-        <v>0.001941438599522143</v>
+        <v>0.0019414372958632036</v>
       </c>
       <c r="F74">
-        <v>4.8390446669393674e-5</v>
+        <v>4.83902992841052e-5</v>
       </c>
       <c r="G74">
-        <v>7.254224838491029</v>
+        <v>7.254224838497752</v>
       </c>
       <c r="H74">
-        <v>1.019432118676269e-6</v>
+        <v>1.0194321186797378e-6</v>
       </c>
       <c r="I74">
-        <v>3.5122997537180225e-5</v>
+        <v>3.51229975371365e-5</v>
       </c>
       <c r="J74">
-        <v>0.0019414368798138632</v>
+        <v>0.001941436879808685</v>
       </c>
       <c r="K74">
-        <v>4.839029817884962e-5</v>
+        <v>4.8390298178802785e-5</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3010,34 +3010,34 @@
         <v>0.023499999999999993</v>
       </c>
       <c r="B75">
-        <v>7.2556550943439015</v>
+        <v>7.255646549596952</v>
       </c>
       <c r="C75">
         <v>9.881382667228709e-7</v>
       </c>
       <c r="D75">
-        <v>3.7817053148134494e-5</v>
+        <v>3.781716879031416e-5</v>
       </c>
       <c r="E75">
-        <v>0.0019419632198164837</v>
+        <v>0.0019419619425920737</v>
       </c>
       <c r="F75">
-        <v>4.839516210903085e-5</v>
+        <v>4.8395018292841214e-5</v>
       </c>
       <c r="G75">
-        <v>7.255644630923827</v>
+        <v>7.255644630930483</v>
       </c>
       <c r="H75">
-        <v>9.874746555340572e-7</v>
+        <v>9.874746555374904e-7</v>
       </c>
       <c r="I75">
-        <v>3.7816641219833854e-5</v>
+        <v>3.781664121979044e-5</v>
       </c>
       <c r="J75">
-        <v>0.0019419616542532985</v>
+        <v>0.0019419616542480647</v>
       </c>
       <c r="K75">
-        <v>4.839501748551447e-5</v>
+        <v>4.8395017485467284e-5</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3045,34 +3045,34 @@
         <v>0.024499999999999994</v>
       </c>
       <c r="B76">
-        <v>7.257088902314573</v>
+        <v>7.257080580254276</v>
       </c>
       <c r="C76">
         <v>9.6428098915461e-7</v>
       </c>
       <c r="D76">
-        <v>4.0516437414060115e-5</v>
+        <v>4.051655752251765e-5</v>
       </c>
       <c r="E76">
-        <v>0.0019424896419690026</v>
+        <v>0.0019424883907241414</v>
       </c>
       <c r="F76">
-        <v>4.8399884607810806e-5</v>
+        <v>4.839974428125018e-5</v>
       </c>
       <c r="G76">
-        <v>7.2570792881195265</v>
+        <v>7.257079288126114</v>
       </c>
       <c r="H76">
-        <v>9.638353998010702e-7</v>
+        <v>9.638353998044682e-7</v>
       </c>
       <c r="I76">
-        <v>4.051617192547758e-5</v>
+        <v>4.051617192543449e-5</v>
       </c>
       <c r="J76">
-        <v>0.0019424881948531744</v>
+        <v>0.001942488194847887</v>
       </c>
       <c r="K76">
-        <v>4.839974369050252e-5</v>
+        <v>4.8399743690455005e-5</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3080,34 +3080,34 @@
         <v>0.025499999999999995</v>
       </c>
       <c r="B77">
-        <v>7.258530172866043</v>
+        <v>7.258522068002907</v>
       </c>
       <c r="C77">
         <v>9.461749295081832e-7</v>
       </c>
       <c r="D77">
-        <v>4.3220032029290444e-5</v>
+        <v>4.3220156221515145e-5</v>
       </c>
       <c r="E77">
-        <v>0.0019430167305490836</v>
+        <v>0.0019430155048473783</v>
       </c>
       <c r="F77">
-        <v>4.840461151421513e-5</v>
+        <v>4.8404474597323056e-5</v>
       </c>
       <c r="G77">
-        <v>7.258521220699443</v>
+        <v>7.258521220705964</v>
       </c>
       <c r="H77">
-        <v>9.458846450984061e-7</v>
+        <v>9.458846451017691e-7</v>
       </c>
       <c r="I77">
-        <v>4.321987169477779e-5</v>
+        <v>4.321987169473503e-5</v>
       </c>
       <c r="J77">
-        <v>0.0019430153743781563</v>
+        <v>0.0019430153743728166</v>
       </c>
       <c r="K77">
-        <v>4.840447416023978e-5</v>
+        <v>4.8404474160191944e-5</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3115,34 +3115,34 @@
         <v>0.026499999999999996</v>
       </c>
       <c r="B78">
-        <v>7.259973490123545</v>
+        <v>7.259965596991739</v>
       </c>
       <c r="C78">
         <v>9.319291446038762e-7</v>
       </c>
       <c r="D78">
-        <v>4.5926598851270466e-5</v>
+        <v>4.5926726763690936e-5</v>
       </c>
       <c r="E78">
-        <v>0.0019435436862335446</v>
+        <v>0.0019435424856509423</v>
       </c>
       <c r="F78">
-        <v>4.8409340933380984e-5</v>
+        <v>4.840920734642619e-5</v>
       </c>
       <c r="G78">
-        <v>7.25996505838156</v>
+        <v>7.259965058388014</v>
       </c>
       <c r="H78">
-        <v>9.317470066556783e-7</v>
+        <v>9.317470066590061e-7</v>
       </c>
       <c r="I78">
-        <v>4.592651252390062e-5</v>
+        <v>4.592651252385817e-5</v>
       </c>
       <c r="J78">
-        <v>0.0019435424003650976</v>
+        <v>0.001943542400359707</v>
       </c>
       <c r="K78">
-        <v>4.8409207015682215e-5</v>
+        <v>4.8409207015634076e-5</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3150,34 +3150,34 @@
         <v>0.027499999999999997</v>
       </c>
       <c r="B79">
-        <v>7.261415108935189</v>
+        <v>7.261407422129049</v>
       </c>
       <c r="C79">
         <v>9.202232757504605e-7</v>
       </c>
       <c r="D79">
-        <v>4.863527086634924e-5</v>
+        <v>4.8635402154121234e-5</v>
       </c>
       <c r="E79">
-        <v>0.0019440699608474286</v>
+        <v>0.0019440687849680816</v>
       </c>
       <c r="F79">
-        <v>4.841407154100787e-5</v>
+        <v>4.8413941205007614e-5</v>
       </c>
       <c r="G79">
-        <v>7.261407092902448</v>
+        <v>7.261407092908833</v>
       </c>
       <c r="H79">
-        <v>9.201147641111183e-7</v>
+        <v>9.201147641144108e-7</v>
       </c>
       <c r="I79">
-        <v>4.863523565051838e-5</v>
+        <v>4.863523565047624e-5</v>
       </c>
       <c r="J79">
-        <v>0.001944068730160684</v>
+        <v>0.001944068730155244</v>
       </c>
       <c r="K79">
-        <v>4.841394094594861e-5</v>
+        <v>4.841394094590019e-5</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3185,34 +3185,34 @@
         <v>0.028499999999999998</v>
       </c>
       <c r="B80">
-        <v>7.262852504445289</v>
+        <v>7.262845018644519</v>
       </c>
       <c r="C80">
         <v>9.101555930183322e-7</v>
       </c>
       <c r="D80">
-        <v>5.134545372670593e-5</v>
+        <v>5.134558806318752e-5</v>
       </c>
       <c r="E80">
-        <v>0.0019445951889658114</v>
+        <v>0.001944594037379451</v>
       </c>
       <c r="F80">
-        <v>4.841880243181312e-5</v>
+        <v>4.841867526889428e-5</v>
       </c>
       <c r="G80">
-        <v>7.262844828210285</v>
+        <v>7.262844828216602</v>
       </c>
       <c r="H80">
-        <v>9.100960877591023e-7</v>
+        <v>9.100960877623599e-7</v>
       </c>
       <c r="I80">
-        <v>5.134545320270267e-5</v>
+        <v>5.1345453202660855e-5</v>
       </c>
       <c r="J80">
-        <v>0.001944594002629352</v>
+        <v>0.0019445940026238634</v>
       </c>
       <c r="K80">
-        <v>4.841867505680023e-5</v>
+        <v>4.841867505675152e-5</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3220,34 +3220,34 @@
         <v>0.0295</v>
       </c>
       <c r="B81">
-        <v>7.264284020459736</v>
+        <v>7.264276730446022</v>
       </c>
       <c r="C81">
         <v>9.011236480933065e-7</v>
       </c>
       <c r="D81">
-        <v>5.4056748277660183e-5</v>
+        <v>5.405688535372191e-5</v>
       </c>
       <c r="E81">
-        <v>0.0019451191347545289</v>
+        <v>0.0019451180070548916</v>
       </c>
       <c r="F81">
-        <v>4.842353300042692e-5</v>
+        <v>4.842340893406654e-5</v>
       </c>
       <c r="G81">
-        <v>7.264276629878647</v>
+        <v>7.264276629884896</v>
       </c>
       <c r="H81">
-        <v>9.010960293393875e-7</v>
+        <v>9.010960293426105e-7</v>
       </c>
       <c r="I81">
-        <v>5.405677094150684e-5</v>
+        <v>5.405677094146535e-5</v>
       </c>
       <c r="J81">
-        <v>0.0019451179851614482</v>
+        <v>0.0019451179851559127</v>
       </c>
       <c r="K81">
-        <v>4.8423408751750993e-5</v>
+        <v>4.842340875170201e-5</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3255,34 +3255,34 @@
         <v>0.0305</v>
       </c>
       <c r="B82">
-        <v>7.2657086037796885</v>
+        <v>7.2657015044469695</v>
       </c>
       <c r="C82">
         <v>8.927336204944563e-7</v>
       </c>
       <c r="D82">
-        <v>5.676889161485274e-5</v>
+        <v>5.676903113811682e-5</v>
       </c>
       <c r="E82">
-        <v>0.001945641651979805</v>
+        <v>0.0019456405477637595</v>
       </c>
       <c r="F82">
-        <v>4.842826285082375e-5</v>
+        <v>4.842814180600059e-5</v>
       </c>
       <c r="G82">
-        <v>7.265701460665781</v>
+        <v>7.265701460671964</v>
       </c>
       <c r="H82">
-        <v>8.927262747620327e-7</v>
+        <v>8.927262747652214e-7</v>
       </c>
       <c r="I82">
-        <v>5.67689295797055e-5</v>
+        <v>5.676892957966434e-5</v>
       </c>
       <c r="J82">
-        <v>0.0019456405338737143</v>
+        <v>0.0019456405338681337</v>
       </c>
       <c r="K82">
-        <v>4.842814164181407e-5</v>
+        <v>4.8428141641764836e-5</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3290,34 +3290,34 @@
         <v>0.0315</v>
       </c>
       <c r="B83">
-        <v>7.267125609575426</v>
+        <v>7.267118695935651</v>
       </c>
       <c r="C83">
         <v>8.847335806952949e-7</v>
       </c>
       <c r="D83">
-        <v>5.948171362695688e-5</v>
+        <v>5.94818553210217e-5</v>
       </c>
       <c r="E83">
-        <v>0.001946162654832198</v>
+        <v>0.0019461615736993227</v>
       </c>
       <c r="F83">
-        <v>4.843299172956271e-5</v>
+        <v>4.843287363284496e-5</v>
       </c>
       <c r="G83">
-        <v>7.267118687110757</v>
+        <v>7.267118687116871</v>
       </c>
       <c r="H83">
-        <v>8.847388187726011e-7</v>
+        <v>8.847388187757556e-7</v>
       </c>
       <c r="I83">
-        <v>5.948176159068994e-5</v>
+        <v>5.948176159064912e-5</v>
       </c>
       <c r="J83">
-        <v>0.0019461615646208475</v>
+        <v>0.0019461615646152223</v>
       </c>
       <c r="K83">
-        <v>4.8432873479088396e-5</v>
+        <v>4.843287347903892e-5</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3325,34 +3325,34 @@
         <v>0.0325</v>
       </c>
       <c r="B84">
-        <v>7.268534662921058</v>
+        <v>7.268527930106819</v>
       </c>
       <c r="C84">
         <v>8.769657961624901e-7</v>
       </c>
       <c r="D84">
-        <v>6.219510589523088e-5</v>
+        <v>6.219524949891114e-5</v>
       </c>
       <c r="E84">
-        <v>0.0019466820972515535</v>
+        <v>0.0019466810388040002</v>
       </c>
       <c r="F84">
-        <v>4.843771947801217e-5</v>
+        <v>4.843760425760104e-5</v>
       </c>
       <c r="G84">
-        <v>7.268527942174212</v>
+        <v>7.268527942180258</v>
       </c>
       <c r="H84">
-        <v>8.76978647131146e-7</v>
+        <v>8.769786471342666e-7</v>
       </c>
       <c r="I84">
-        <v>6.21951603521432e-5</v>
+        <v>6.219516035210271e-5</v>
       </c>
       <c r="J84">
-        <v>0.001946681032488515</v>
+        <v>0.001946681032482847</v>
       </c>
       <c r="K84">
-        <v>4.843760410931463e-5</v>
+        <v>4.8437604109264936e-5</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3360,34 +3360,34 @@
         <v>0.0335</v>
       </c>
       <c r="B85">
-        <v>7.269935563014032</v>
+        <v>7.26992900627909</v>
       </c>
       <c r="C85">
         <v>8.693336000859928e-7</v>
       </c>
       <c r="D85">
-        <v>6.490900006077567e-5</v>
+        <v>6.490914532737336e-5</v>
       </c>
       <c r="E85">
-        <v>0.0019471999586798232</v>
+        <v>0.0019471989225223444</v>
       </c>
       <c r="F85">
-        <v>4.844244599911664e-5</v>
+        <v>4.844233358485993e-5</v>
       </c>
       <c r="G85">
-        <v>7.269929030390859</v>
+        <v>7.269929030396837</v>
       </c>
       <c r="H85">
-        <v>8.693509250277e-7</v>
+        <v>8.69350925030787e-7</v>
       </c>
       <c r="I85">
-        <v>6.49090587213144e-5</v>
+        <v>6.490905872127423e-5</v>
       </c>
       <c r="J85">
-        <v>0.0019471989176868525</v>
+        <v>0.0019471989176811431</v>
       </c>
       <c r="K85">
-        <v>4.8442333438931984e-5</v>
+        <v>4.844233343888205e-5</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3395,34 +3395,34 @@
         <v>0.0345</v>
       </c>
       <c r="B86">
-        <v>7.27132821869423</v>
+        <v>7.271321833412688</v>
       </c>
       <c r="C86">
         <v>8.61778996989178e-7</v>
       </c>
       <c r="D86">
-        <v>6.762335318408552e-5</v>
+        <v>6.762349988069645e-5</v>
       </c>
       <c r="E86">
-        <v>0.0019477162345049432</v>
+        <v>0.0019477152202450176</v>
       </c>
       <c r="F86">
-        <v>4.8447171234902856e-5</v>
+        <v>4.844706155828918e-5</v>
       </c>
       <c r="G86">
-        <v>7.271321864132828</v>
+        <v>7.27132186413874</v>
       </c>
       <c r="H86">
-        <v>8.617988592817663e-7</v>
+        <v>8.617988592848197e-7</v>
       </c>
       <c r="I86">
-        <v>6.762341456187956e-5</v>
+        <v>6.762341456183974e-5</v>
       </c>
       <c r="J86">
-        <v>0.0019477152161058375</v>
+        <v>0.0019477152161000882</v>
       </c>
       <c r="K86">
-        <v>4.844706141282199e-5</v>
+        <v>4.844706141277187e-5</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3430,34 +3430,34 @@
         <v>0.0355</v>
       </c>
       <c r="B87">
-        <v>7.272712606162598</v>
+        <v>7.2727063878272205</v>
       </c>
       <c r="C87">
         <v>8.542679214879081e-7</v>
       </c>
       <c r="D87">
-        <v>7.033813809633212e-5</v>
+        <v>7.033828600318858e-5</v>
       </c>
       <c r="E87">
-        <v>0.0019482309298172779</v>
+        <v>0.0019482299370652749</v>
       </c>
       <c r="F87">
-        <v>4.845189515165333e-5</v>
+        <v>4.845178814579399e-5</v>
       </c>
       <c r="G87">
-        <v>7.272706421894634</v>
+        <v>7.272706421900478</v>
       </c>
       <c r="H87">
-        <v>8.542891533872068e-7</v>
+        <v>8.54289153390227e-7</v>
       </c>
       <c r="I87">
-        <v>7.033820122344377e-5</v>
+        <v>7.033820122340426e-5</v>
       </c>
       <c r="J87">
-        <v>0.0019482299331561054</v>
+        <v>0.0019482299331503182</v>
       </c>
       <c r="K87">
-        <v>4.8451787999667024e-5</v>
+        <v>4.845178799961672e-5</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3465,34 +3465,34 @@
         <v>0.03649999999999999</v>
       </c>
       <c r="B88">
-        <v>7.274088741959199</v>
+        <v>7.274082686179229</v>
       </c>
       <c r="C88">
         <v>8.46780781868316e-7</v>
       </c>
       <c r="D88">
-        <v>7.305333720254027e-5</v>
+        <v>7.305348611238778e-5</v>
       </c>
       <c r="E88">
-        <v>0.001948744055433691</v>
+        <v>0.001948743083803064</v>
       </c>
       <c r="F88">
-        <v>4.8456617730382646e-5</v>
+        <v>4.845651332998603e-5</v>
       </c>
       <c r="G88">
-        <v>7.274082721684631</v>
+        <v>7.274082721690408</v>
       </c>
       <c r="H88">
-        <v>8.468026950518676e-7</v>
+        <v>8.468026950548545e-7</v>
       </c>
       <c r="I88">
-        <v>7.30534014389057e-5</v>
+        <v>7.30534014388665e-5</v>
       </c>
       <c r="J88">
-        <v>0.0019487430798543197</v>
+        <v>0.0019487430798484963</v>
       </c>
       <c r="K88">
-        <v>4.845651318256373e-5</v>
+        <v>4.845651318251324e-5</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3500,34 +3500,34 @@
         <v>0.03749999999999999</v>
       </c>
       <c r="B89">
-        <v>7.275456666122094</v>
+        <v>7.275450768620779</v>
       </c>
       <c r="C89">
         <v>8.393065448313178e-7</v>
       </c>
       <c r="D89">
-        <v>7.576893860080364e-5</v>
+        <v>7.576908831830932e-5</v>
       </c>
       <c r="E89">
-        <v>0.001949255625428712</v>
+        <v>0.0019492546745361872</v>
       </c>
       <c r="F89">
-        <v>4.846133896087197e-5</v>
+        <v>4.8461237102213726e-5</v>
       </c>
       <c r="G89">
-        <v>7.275450804474537</v>
+        <v>7.275450804480247</v>
       </c>
       <c r="H89">
-        <v>8.393287425910928e-7</v>
+        <v>8.393287425940465e-7</v>
       </c>
       <c r="I89">
-        <v>7.57690035102777e-5</v>
+        <v>7.576900351023881e-5</v>
       </c>
       <c r="J89">
-        <v>0.001949254670397225</v>
+        <v>0.0019492546703913666</v>
       </c>
       <c r="K89">
-        <v>4.846123695315578e-5</v>
+        <v>4.846123695310512e-5</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3535,34 +3535,34 @@
         <v>0.03849999999999999</v>
       </c>
       <c r="B90">
-        <v>7.276816431947182</v>
+        <v>7.276810688559161</v>
       </c>
       <c r="C90">
         <v>8.318391256265564e-7</v>
       </c>
       <c r="D90">
-        <v>7.848493371117115e-5</v>
+        <v>7.848508405236071e-5</v>
       </c>
       <c r="E90">
-        <v>0.001949765655639264</v>
+        <v>0.001949764725105025</v>
       </c>
       <c r="F90">
-        <v>4.846605883802339e-5</v>
+        <v>4.84659594589142e-5</v>
       </c>
       <c r="G90">
-        <v>7.27681072415665</v>
+        <v>7.276810724162294</v>
       </c>
       <c r="H90">
-        <v>8.318613843621493e-7</v>
+        <v>8.3186138436507e-7</v>
       </c>
       <c r="I90">
-        <v>7.848499898304433e-5</v>
+        <v>7.848499898300576e-5</v>
       </c>
       <c r="J90">
-        <v>0.0019497647206953845</v>
+        <v>0.0019497647206894932</v>
       </c>
       <c r="K90">
-        <v>4.84659593080557e-5</v>
+        <v>4.8465959308004904e-5</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3570,34 +3570,34 @@
         <v>0.03949999999999999</v>
       </c>
       <c r="B91">
-        <v>7.278168099911432</v>
+        <v>7.278162506580067</v>
       </c>
       <c r="C91">
         <v>8.243752379148261e-7</v>
       </c>
       <c r="D91">
-        <v>8.1201315861549e-5</v>
+        <v>8.120146665327011e-5</v>
       </c>
       <c r="E91">
-        <v>0.0019502741627812987</v>
+        <v>0.0019502732522291607</v>
       </c>
       <c r="F91">
-        <v>4.847077735968477e-5</v>
+        <v>4.8470680399437206e-5</v>
       </c>
       <c r="G91">
-        <v>7.278162541596813</v>
+        <v>7.27816254160239</v>
       </c>
       <c r="H91">
-        <v>8.243974343491791e-7</v>
+        <v>8.243974343520667e-7</v>
       </c>
       <c r="I91">
-        <v>8.12013812621083e-5</v>
+        <v>8.120138126207006e-5</v>
       </c>
       <c r="J91">
-        <v>0.0019502732475088018</v>
+        <v>0.001950273247502879</v>
       </c>
       <c r="K91">
-        <v>4.8470680246715e-5</v>
+        <v>4.8470680246664046e-5</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3605,34 +3605,34 @@
         <v>0.040499999999999994</v>
       </c>
       <c r="B92">
-        <v>7.2795117341526225</v>
+        <v>7.2795062869273215</v>
       </c>
       <c r="C92">
         <v>8.169131433372726e-7</v>
       </c>
       <c r="D92">
-        <v>8.391807946412153e-5</v>
+        <v>8.391823054353182e-5</v>
       </c>
       <c r="E92">
-        <v>0.0019507811639408942</v>
+        <v>0.001950780272998468</v>
       </c>
       <c r="F92">
-        <v>4.847549452538228e-5</v>
+        <v>4.847539992477731e-5</v>
       </c>
       <c r="G92">
-        <v>7.279506321196845</v>
+        <v>7.279506321202356</v>
       </c>
       <c r="H92">
-        <v>8.169352109743284e-7</v>
+        <v>8.169352109771837e-7</v>
       </c>
       <c r="I92">
-        <v>8.391814480745484e-5</v>
+        <v>8.39181448074169e-5</v>
       </c>
       <c r="J92">
-        <v>0.0019507802679500713</v>
+        <v>0.0019507802679441196</v>
       </c>
       <c r="K92">
-        <v>4.8475399770185806e-5</v>
+        <v>4.847539977013472e-5</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3640,34 +3640,34 @@
         <v>0.041499999999999995</v>
       </c>
       <c r="B93">
-        <v>7.280847400478484</v>
+        <v>7.280842095512052</v>
       </c>
       <c r="C93">
         <v>8.094519412623378e-7</v>
       </c>
       <c r="D93">
-        <v>8.663521954669777e-5</v>
+        <v>8.663537076077562e-5</v>
       </c>
       <c r="E93">
-        <v>0.00195128667628864</v>
+        <v>0.0019512858045874783</v>
       </c>
       <c r="F93">
-        <v>4.848021033559843e-5</v>
+        <v>4.8480118036852e-5</v>
       </c>
       <c r="G93">
-        <v>7.280842128954876</v>
+        <v>7.2808421289603205</v>
       </c>
       <c r="H93">
-        <v>8.094738450001398e-7</v>
+        <v>8.094738450029628e-7</v>
       </c>
       <c r="I93">
-        <v>8.663528467746612e-5</v>
+        <v>8.663528467742848e-5</v>
       </c>
       <c r="J93">
-        <v>0.0019512857992061883</v>
+        <v>0.0019512857992002098</v>
       </c>
       <c r="K93">
-        <v>4.84801178804175e-5</v>
+        <v>4.8480117880366306e-5</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3675,34 +3675,34 @@
         <v>0.042499999999999996</v>
       </c>
       <c r="B94">
-        <v>7.282175165267729</v>
+        <v>7.282169998813772</v>
       </c>
       <c r="C94">
         <v>8.019911746476777e-7</v>
       </c>
       <c r="D94">
-        <v>8.935273149198032e-5</v>
+        <v>8.9352882697057e-5</v>
       </c>
       <c r="E94">
-        <v>0.0019517907169238028</v>
+        <v>0.0019517898640995343</v>
       </c>
       <c r="F94">
-        <v>4.8484924791369655e-5</v>
+        <v>4.8484834738099835e-5</v>
       </c>
       <c r="G94">
-        <v>7.2821700313971744</v>
+        <v>7.282170031402554</v>
       </c>
       <c r="H94">
-        <v>8.020128963447655e-7</v>
+        <v>8.020128963475563e-7</v>
       </c>
       <c r="I94">
-        <v>8.93527962754248e-5</v>
+        <v>8.935279627538749e-5</v>
       </c>
       <c r="J94">
-        <v>0.0019517898583871613</v>
+        <v>0.0019517898583811583</v>
       </c>
       <c r="K94">
-        <v>4.8484834579865806e-5</v>
+        <v>4.8484834579814496e-5</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3710,34 +3710,34 @@
         <v>0.0435</v>
       </c>
       <c r="B95">
-        <v>7.283495094878369</v>
+        <v>7.283490063288727</v>
       </c>
       <c r="C95">
         <v>7.945306163045706e-7</v>
       </c>
       <c r="D95">
-        <v>9.207061089561399e-5</v>
+        <v>9.207076195692635e-5</v>
       </c>
       <c r="E95">
-        <v>0.00195229330279206</v>
+        <v>0.001952292468484513</v>
       </c>
       <c r="F95">
-        <v>4.8489637894066625e-5</v>
+        <v>4.848955003126102e-5</v>
       </c>
       <c r="G95">
-        <v>7.283490095004503</v>
+        <v>7.283490095009818</v>
       </c>
       <c r="H95">
-        <v>7.945521467746825e-7</v>
+        <v>7.945521467774414e-7</v>
       </c>
       <c r="I95">
-        <v>9.207067521182119e-5</v>
+        <v>9.207067521178417e-5</v>
       </c>
       <c r="J95">
-        <v>0.001952292462446337</v>
+        <v>0.0019522924624403109</v>
       </c>
       <c r="K95">
-        <v>4.848954987128005e-5</v>
+        <v>4.848954987122865e-5</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3745,34 +3745,34 @@
         <v>0.0445</v>
       </c>
       <c r="B96">
-        <v>7.284807255337551</v>
+        <v>7.284802355059795</v>
       </c>
       <c r="C96">
         <v>7.87070155607161e-7</v>
       </c>
       <c r="D96">
-        <v>9.478885349043932e-5</v>
+        <v>9.47890042817018e-5</v>
       </c>
       <c r="E96">
-        <v>0.0019527944506439244</v>
+        <v>0.001952793634497233</v>
       </c>
       <c r="F96">
-        <v>4.849434964527624e-5</v>
+        <v>4.8494263919260226e-5</v>
       </c>
       <c r="G96">
-        <v>7.284802385912247</v>
+        <v>7.284802385917497</v>
       </c>
       <c r="H96">
-        <v>7.87091490286363e-7</v>
+        <v>7.870914902890901e-7</v>
       </c>
       <c r="I96">
-        <v>9.478891723104898e-5</v>
+        <v>9.478891723101223e-5</v>
       </c>
       <c r="J96">
-        <v>0.0019527936281402824</v>
+        <v>0.001952793628134236</v>
       </c>
       <c r="K96">
-        <v>4.8494263757589534e-5</v>
+        <v>4.849426375753805e-5</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3780,34 +3780,34 @@
         <v>0.0455</v>
       </c>
       <c r="B97">
-        <v>7.286111712183861</v>
+        <v>7.286106939758864</v>
       </c>
       <c r="C97">
         <v>7.796097397862636e-7</v>
       </c>
       <c r="D97">
-        <v>9.750745510676197e-5</v>
+        <v>9.750760550975747e-5</v>
       </c>
       <c r="E97">
-        <v>0.0019532941770151096</v>
+        <v>0.0019532933786778127</v>
       </c>
       <c r="F97">
-        <v>4.8499060046739077e-5</v>
+        <v>4.8498976405144524e-5</v>
       </c>
       <c r="G97">
-        <v>7.286106969758476</v>
+        <v>7.286106969763662</v>
       </c>
       <c r="H97">
-        <v>7.79630876443127e-7</v>
+        <v>7.796308764458223e-7</v>
       </c>
       <c r="I97">
-        <v>9.75075181730428e-5</v>
+        <v>9.750751817300633e-5</v>
       </c>
       <c r="J97">
-        <v>0.001953293372009961</v>
+        <v>0.001953293372003896</v>
       </c>
       <c r="K97">
-        <v>4.8498976241843694e-5</v>
+        <v>4.849897624179213e-5</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3815,34 +3815,34 @@
         <v>0.0465</v>
       </c>
       <c r="B98">
-        <v>7.287408530390349</v>
+        <v>7.287403882449884</v>
       </c>
       <c r="C98">
         <v>7.721493441827683e-7</v>
       </c>
       <c r="D98">
-        <v>0.00010022641165175524</v>
+        <v>0.00010022656155594348</v>
       </c>
       <c r="E98">
-        <v>0.00195379249821845</v>
+        <v>0.0019537917173435785</v>
       </c>
       <c r="F98">
-        <v>4.850376910031634e-5</v>
+        <v>4.850368749205098e-5</v>
       </c>
       <c r="G98">
-        <v>7.287403911610075</v>
+        <v>7.287403911615196</v>
       </c>
       <c r="H98">
-        <v>7.721702817370008e-7</v>
+        <v>7.721702817396647e-7</v>
       </c>
       <c r="I98">
-        <v>0.00010022647395343082</v>
+        <v>0.00010022647395339461</v>
       </c>
       <c r="J98">
-        <v>0.0019537917103730792</v>
+        <v>0.0019537917103669964</v>
       </c>
       <c r="K98">
-        <v>4.850368732718071e-5</v>
+        <v>4.850368732712909e-5</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3850,34 +3850,34 @@
         <v>0.0475</v>
       </c>
       <c r="B99">
-        <v>7.2886977743291865</v>
+        <v>7.2886932475936</v>
       </c>
       <c r="C99">
         <v>7.646889575078169e-7</v>
       </c>
       <c r="D99">
-        <v>0.00010294571909879156</v>
+        <v>0.00010294586840093426</v>
       </c>
       <c r="E99">
-        <v>0.001954289430341744</v>
+        <v>0.00195428866658689</v>
       </c>
       <c r="F99">
-        <v>4.8508476807971995e-5</v>
+        <v>4.850839718318945e-5</v>
       </c>
       <c r="G99">
-        <v>7.288693275929087</v>
+        <v>7.288693275934144</v>
       </c>
       <c r="H99">
-        <v>7.647096954345055e-7</v>
+        <v>7.647096954371379e-7</v>
       </c>
       <c r="I99">
-        <v>0.00010294578055327067</v>
+        <v>0.00010294578055323472</v>
       </c>
       <c r="J99">
-        <v>0.0019542886593221474</v>
+        <v>0.0019542886593160507</v>
       </c>
       <c r="K99">
-        <v>4.8508397016811005e-5</v>
+        <v>4.850839701675932e-5</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3885,34 +3885,34 @@
         <v>0.0485</v>
       </c>
       <c r="B100">
-        <v>7.289979507757384</v>
+        <v>7.289975099033328</v>
       </c>
       <c r="C100">
         <v>7.572285746980027e-7</v>
       </c>
       <c r="D100">
-        <v>0.0001056653734818105</v>
+        <v>0.00010566552208561363</v>
       </c>
       <c r="E100">
-        <v>0.001954784989248546</v>
+        <v>0.001954784242275936</v>
       </c>
       <c r="F100">
-        <v>4.85131831717628e-5</v>
+        <v>4.8513105481833244e-5</v>
       </c>
       <c r="G100">
-        <v>7.289975126559324</v>
+        <v>7.289975126564317</v>
       </c>
       <c r="H100">
-        <v>7.57249112734599e-7</v>
+        <v>7.572491127372e-7</v>
       </c>
       <c r="I100">
-        <v>0.00010566543401363461</v>
+        <v>0.00010566543401359897</v>
       </c>
       <c r="J100">
-        <v>0.001954784234725391</v>
+        <v>0.0019547842347192807</v>
       </c>
       <c r="K100">
-        <v>4.8513105314008085e-5</v>
+        <v>4.8513105313956355e-5</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3920,34 +3920,34 @@
         <v>0.0495</v>
       </c>
       <c r="B101">
-        <v>7.2912537938129</v>
+        <v>7.291249499991097</v>
       </c>
       <c r="C101">
         <v>7.497681935284183e-7</v>
       </c>
       <c r="D101">
-        <v>0.0001083853708921885</v>
+        <v>0.00010838551870795952</v>
       </c>
       <c r="E101">
-        <v>0.0019552791905803925</v>
+        <v>0.0019552784600569383</v>
       </c>
       <c r="F101">
-        <v>4.8517888193832145e-5</v>
+        <v>4.8517812391313546e-5</v>
       </c>
       <c r="G101">
-        <v>7.291249526722937</v>
+        <v>7.291249526727866</v>
       </c>
       <c r="H101">
-        <v>7.497885315334429e-7</v>
+        <v>7.497885315360127e-7</v>
       </c>
       <c r="I101">
-        <v>0.00010838543043259522</v>
+        <v>0.00010838543043255987</v>
       </c>
       <c r="J101">
-        <v>0.001955278452229014</v>
+        <v>0.001955278452222892</v>
       </c>
       <c r="K101">
-        <v>4.851781222210325e-5</v>
+        <v>4.8517812222051474e-5</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -3955,34 +3955,34 @@
         <v>0.0505</v>
       </c>
       <c r="B102">
-        <v>7.292520695015746</v>
+        <v>7.2925165130688345</v>
       </c>
       <c r="C102">
         <v>7.423078130411012e-7</v>
       </c>
       <c r="D102">
-        <v>0.00011110570747682425</v>
+        <v>0.00011110585442114464</v>
       </c>
       <c r="E102">
-        <v>0.001955772049759677</v>
+        <v>0.0019557713353570228</v>
       </c>
       <c r="F102">
-        <v>4.852259187640583e-5</v>
+        <v>4.8522517915015854e-5</v>
       </c>
       <c r="G102">
-        <v>7.292516539021786</v>
+        <v>7.292516539026653</v>
       </c>
       <c r="H102">
-        <v>7.42327950927841e-7</v>
+        <v>7.423279509303793e-7</v>
       </c>
       <c r="I102">
-        <v>0.00011110576596337548</v>
+        <v>0.0001111057659633404</v>
       </c>
       <c r="J102">
-        <v>0.001955771327260103</v>
+        <v>0.0019557713272539707</v>
       </c>
       <c r="K102">
-        <v>4.8522517744482e-5</v>
+        <v>4.852251774443021e-5</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -3990,34 +3990,34 @@
         <v>0.0515</v>
       </c>
       <c r="B103">
-        <v>7.293780273271464</v>
+        <v>7.293776200251882</v>
       </c>
       <c r="C103">
         <v>7.348474328320853e-7</v>
       </c>
       <c r="D103">
-        <v>0.00011382637943680727</v>
+        <v>0.00011382652543221957</v>
       </c>
       <c r="E103">
-        <v>0.00195626358199281</v>
+        <v>0.0019562628833873718</v>
       </c>
       <c r="F103">
-        <v>4.852729422178879e-5</v>
+        <v>4.852722205637728e-5</v>
       </c>
       <c r="G103">
-        <v>7.293776225441073</v>
+        <v>7.2937762254458764</v>
       </c>
       <c r="H103">
-        <v>7.348673705379046e-7</v>
+        <v>7.34867370540412e-7</v>
       </c>
       <c r="I103">
-        <v>0.00011382643681305547</v>
+        <v>0.0001138264368130207</v>
       </c>
       <c r="J103">
-        <v>0.0019562628750297876</v>
+        <v>0.001956262875023647</v>
       </c>
       <c r="K103">
-        <v>4.852722188458144e-5</v>
+        <v>4.8527221884529635e-5</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4025,34 +4025,34 @@
         <v>0.05249999999999999</v>
       </c>
       <c r="B104">
-        <v>7.2950325898757065</v>
+        <v>7.295028622913623</v>
       </c>
       <c r="C104">
         <v>7.273870527342221e-7</v>
       </c>
       <c r="D104">
-        <v>0.00011654738302636228</v>
+        <v>0.00011654752800107092</v>
       </c>
       <c r="E104">
-        <v>0.0019567538022734784</v>
+        <v>0.0019567531191464725</v>
       </c>
       <c r="F104">
-        <v>4.853199523236224e-5</v>
+        <v>4.85319248188843e-5</v>
       </c>
       <c r="G104">
-        <v>7.295028647354009</v>
+        <v>7.29502864735875</v>
       </c>
       <c r="H104">
-        <v>7.274067902070878e-7</v>
+        <v>7.274067902095641e-7</v>
       </c>
       <c r="I104">
-        <v>0.00011654743924154222</v>
+        <v>0.00011654743924150774</v>
       </c>
       <c r="J104">
-        <v>0.001956753110536499</v>
+        <v>0.0019567531105303525</v>
       </c>
       <c r="K104">
-        <v>4.8531924645888014e-5</v>
+        <v>4.853192464583621e-5</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4060,34 +4060,34 @@
         <v>0.05349999999999999</v>
       </c>
       <c r="B105">
-        <v>7.296277705519302</v>
+        <v>7.296273841820612</v>
       </c>
       <c r="C105">
         <v>7.199266726799186e-7</v>
       </c>
       <c r="D105">
-        <v>0.00011926871455192689</v>
+        <v>0.00011926885843951209</v>
       </c>
       <c r="E105">
-        <v>0.001957242725385918</v>
+        <v>0.0019572420574233895</v>
       </c>
       <c r="F105">
-        <v>4.853669491058112e-5</v>
+        <v>4.853662620607078e-5</v>
       </c>
       <c r="G105">
-        <v>7.296273865526956</v>
+        <v>7.296273865531634</v>
       </c>
       <c r="H105">
-        <v>7.199462098721852e-7</v>
+        <v>7.199462098746305e-7</v>
       </c>
       <c r="I105">
-        <v>0.00011926876956066511</v>
+        <v>0.00011926876956063094</v>
       </c>
       <c r="J105">
-        <v>0.001957242048569245</v>
+        <v>0.0019572420485630933</v>
       </c>
       <c r="K105">
-        <v>4.853662603193555e-5</v>
+        <v>4.853662603188376e-5</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4095,34 +4095,34 @@
         <v>0.05449999999999999</v>
       </c>
       <c r="B106">
-        <v>7.29751568029354</v>
+        <v>7.2975119171378955</v>
       </c>
       <c r="C106">
         <v>7.12466292642403e-7</v>
       </c>
       <c r="D106">
-        <v>0.00012199037037129376</v>
+        <v>0.00012199051311043846</v>
       </c>
       <c r="E106">
-        <v>0.001957730365908172</v>
+        <v>0.0019577297128010054</v>
       </c>
       <c r="F106">
-        <v>4.854139325897161e-5</v>
+        <v>4.854132622151609e-5</v>
       </c>
       <c r="G106">
-        <v>7.29751194012477</v>
+        <v>7.297511940129387</v>
       </c>
       <c r="H106">
-        <v>7.124856295081935e-7</v>
+        <v>7.124856295106083e-7</v>
       </c>
       <c r="I106">
-        <v>0.00012199042413333372</v>
+        <v>0.00012199042413329988</v>
       </c>
       <c r="J106">
-        <v>0.0019577297037108505</v>
+        <v>0.0019577297037046957</v>
       </c>
       <c r="K106">
-        <v>4.854132604630341e-5</v>
+        <v>4.854132604625163e-5</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4130,34 +4130,34 @@
         <v>0.055499999999999994</v>
       </c>
       <c r="B107">
-        <v>7.298746573695562</v>
+        <v>7.298742908434457</v>
       </c>
       <c r="C107">
         <v>7.050059126112048e-7</v>
       </c>
       <c r="D107">
-        <v>0.0001247123468927898</v>
+        <v>0.00012471248842701858</v>
       </c>
       <c r="E107">
-        <v>0.0019582167382153023</v>
+        <v>0.0019582160996592353</v>
       </c>
       <c r="F107">
-        <v>4.854609028012878e-5</v>
+        <v>4.85460248688433e-5</v>
       </c>
       <c r="G107">
-        <v>7.29874293071624</v>
+        <v>7.2987429307207945</v>
       </c>
       <c r="H107">
-        <v>7.050250491054218e-7</v>
+        <v>7.050250491078061e-7</v>
       </c>
       <c r="I107">
-        <v>0.0001247123993727297</v>
+        <v>0.00012471239937269623</v>
       </c>
       <c r="J107">
-        <v>0.001958216090341174</v>
+        <v>0.0019582160903350186</v>
       </c>
       <c r="K107">
-        <v>4.8546024692614583e-5</v>
+        <v>4.854602469256284e-5</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -4165,34 +4165,34 @@
         <v>0.056499999999999995</v>
       </c>
       <c r="B108">
-        <v>7.299970444633761</v>
+        <v>7.299966874688674</v>
       </c>
       <c r="C108">
         <v>6.975455325822818e-7</v>
       </c>
       <c r="D108">
-        <v>0.0001274346405744769</v>
+        <v>0.00012743478085190682</v>
       </c>
       <c r="E108">
-        <v>0.001958701856482561</v>
+        <v>0.001958701232178186</v>
       </c>
       <c r="F108">
-        <v>4.8550785976714364e-5</v>
+        <v>4.855072215171744e-5</v>
       </c>
       <c r="G108">
-        <v>7.29996689627955</v>
+        <v>7.299966896284044</v>
       </c>
       <c r="H108">
-        <v>6.975644686601893e-7</v>
+        <v>6.975644686625433e-7</v>
       </c>
       <c r="I108">
-        <v>0.00012743469174151997</v>
+        <v>0.0001274346917414868</v>
       </c>
       <c r="J108">
-        <v>0.0019587012226402675</v>
+        <v>0.0019587012226341136</v>
       </c>
       <c r="K108">
-        <v>4.855072197453412e-5</v>
+        <v>4.8550721974482424e-5</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -4200,34 +4200,34 @@
         <v>0.057499999999999996</v>
       </c>
       <c r="B109">
-        <v>7.301187351433235</v>
+        <v>7.301183874293794</v>
       </c>
       <c r="C109">
         <v>6.900851525541981e-7</v>
       </c>
       <c r="D109">
-        <v>0.00013015724792336976</v>
+        <v>0.0001301573868964721</v>
       </c>
       <c r="E109">
-        <v>0.0019591857346885127</v>
+        <v>0.0019591851243412773</v>
       </c>
       <c r="F109">
-        <v>4.85554803514544e-5</v>
+        <v>4.8555418073843894e-5</v>
       </c>
       <c r="G109">
-        <v>7.301183895207761</v>
+        <v>7.301183895212194</v>
       </c>
       <c r="H109">
-        <v>6.901038881711267e-7</v>
+        <v>6.901038881734506e-7</v>
       </c>
       <c r="I109">
-        <v>0.00013015729775108572</v>
+        <v>0.00013015729775105292</v>
       </c>
       <c r="J109">
-        <v>0.001959185114591495</v>
+        <v>0.001959185114585345</v>
       </c>
       <c r="K109">
-        <v>4.855541789576733e-5</v>
+        <v>4.8555417895715684e-5</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -4235,34 +4235,34 @@
         <v>0.058499999999999996</v>
       </c>
       <c r="B110">
-        <v>7.302397351841204</v>
+        <v>7.302393965063416</v>
       </c>
       <c r="C110">
         <v>6.826247725264237e-7</v>
       </c>
       <c r="D110">
-        <v>0.00013288016549466793</v>
+        <v>0.00013288030312004088</v>
       </c>
       <c r="E110">
-        <v>0.001959668386618106</v>
+        <v>0.0019596677899383053</v>
       </c>
       <c r="F110">
-        <v>4.856017340713718e-5</v>
+        <v>4.8560112638966645e-5</v>
       </c>
       <c r="G110">
-        <v>7.302393985314288</v>
+        <v>7.302393985318661</v>
       </c>
       <c r="H110">
-        <v>6.826433076377346e-7</v>
+        <v>6.826433076400285e-7</v>
       </c>
       <c r="I110">
-        <v>0.00013288021396076543</v>
+        <v>0.0001328802139607329</v>
       </c>
       <c r="J110">
-        <v>0.0019596677799846004</v>
+        <v>0.0019596677799784547</v>
       </c>
       <c r="K110">
-        <v>4.8560112460058175e-5</v>
+        <v>4.85601124600066e-5</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -4270,34 +4270,34 @@
         <v>0.0595</v>
       </c>
       <c r="B111">
-        <v>7.303600503032443</v>
+        <v>7.3035972042369615</v>
       </c>
       <c r="C111">
         <v>6.751643924987818e-7</v>
       </c>
       <c r="D111">
-        <v>0.0001356033898910006</v>
+        <v>0.00013560352612915233</v>
       </c>
       <c r="E111">
-        <v>0.0019601498258657022</v>
+        <v>0.0019601492425684666</v>
       </c>
       <c r="F111">
-        <v>4.856486514661107e-5</v>
+        <v>4.856480585086677e-5</v>
       </c>
       <c r="G111">
-        <v>7.3035972238383655</v>
+        <v>7.303597223842677</v>
       </c>
       <c r="H111">
-        <v>6.751827270598343e-7</v>
+        <v>6.751827270620987e-7</v>
       </c>
       <c r="I111">
-        <v>0.00013560343697710983</v>
+        <v>0.00013560343697707766</v>
       </c>
       <c r="J111">
-        <v>0.0019601492324187245</v>
+        <v>0.0019601492324125857</v>
       </c>
       <c r="K111">
-        <v>4.8564805671187674e-5</v>
+        <v>4.8564805671136195e-5</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -4305,34 +4305,34 @@
         <v>0.0605</v>
       </c>
       <c r="B112">
-        <v>7.304796861614683</v>
+        <v>7.3047936484851235</v>
       </c>
       <c r="C112">
         <v>6.6770401247114e-7</v>
       </c>
       <c r="D112">
-        <v>0.00013832691776168374</v>
+        <v>0.000138327052576825</v>
       </c>
       <c r="E112">
-        <v>0.0019606300658380465</v>
+        <v>0.0019606294956433256</v>
       </c>
       <c r="F112">
-        <v>4.856955557278242e-5</v>
+        <v>4.856949771336083e-5</v>
       </c>
       <c r="G112">
-        <v>7.3047936674505065</v>
+        <v>7.304793667454758</v>
       </c>
       <c r="H112">
-        <v>6.677221464373637e-7</v>
+        <v>6.677221464395986e-7</v>
       </c>
       <c r="I112">
-        <v>0.00013832696345314943</v>
+        <v>0.00013832696345311747</v>
       </c>
       <c r="J112">
-        <v>0.001960629485305382</v>
+        <v>0.001960629485299252</v>
       </c>
       <c r="K112">
-        <v>4.856949753297238e-5</v>
+        <v>4.856949753292101e-5</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -4340,34 +4340,34 @@
         <v>0.0615</v>
       </c>
       <c r="B113">
-        <v>7.305986483634037</v>
+        <v>7.305983353915324</v>
       </c>
       <c r="C113">
         <v>6.602436324435424e-7</v>
       </c>
       <c r="D113">
-        <v>0.00014105074580199014</v>
+        <v>0.0001410508791618368</v>
       </c>
       <c r="E113">
-        <v>0.0019611091197572015</v>
+        <v>0.0019611085623897446</v>
       </c>
       <c r="F113">
-        <v>4.857424468861359e-5</v>
+        <v>4.857418823029943e-5</v>
       </c>
       <c r="G113">
-        <v>7.305983372257951</v>
+        <v>7.305983372262143</v>
       </c>
       <c r="H113">
-        <v>6.602615657703013e-7</v>
+        <v>6.602615657725068e-7</v>
       </c>
       <c r="I113">
-        <v>0.00014105079008767306</v>
+        <v>0.0001410507900876414</v>
       </c>
       <c r="J113">
-        <v>0.0019611085518713833</v>
+        <v>0.0019611085518652636</v>
       </c>
       <c r="K113">
-        <v>4.857418804926284e-5</v>
+        <v>4.857418804921159e-5</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -4375,34 +4375,34 @@
         <v>0.0625</v>
       </c>
       <c r="B114">
-        <v>7.307169424580361</v>
+        <v>7.307166376077126</v>
       </c>
       <c r="C114">
         <v>6.527832524159005e-7</v>
       </c>
       <c r="D114">
-        <v>0.0001437748707524302</v>
+        <v>0.00014377500262801435</v>
       </c>
       <c r="E114">
-        <v>0.0019615870006634267</v>
+        <v>0.001961586455852756</v>
       </c>
       <c r="F114">
-        <v>4.8578932497120964e-5</v>
+        <v>4.8578877405565644e-5</v>
       </c>
       <c r="G114">
-        <v>7.307166393810092</v>
+        <v>7.3071663938142235</v>
       </c>
       <c r="H114">
-        <v>6.528009850586398e-7</v>
+        <v>6.528009850608159e-7</v>
       </c>
       <c r="I114">
-        <v>0.00014377491362451867</v>
+        <v>0.0001437749136244873</v>
       </c>
       <c r="J114">
-        <v>0.001961586445161711</v>
+        <v>0.0019615864451556038</v>
       </c>
       <c r="K114">
-        <v>4.85788772239421e-5</v>
+        <v>4.8578877223891e-5</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -4410,34 +4410,34 @@
         <v>0.0635</v>
       </c>
       <c r="B115">
-        <v>7.308345739392647</v>
+        <v>7.308342769967662</v>
       </c>
       <c r="C115">
         <v>6.45322872388325e-7</v>
       </c>
       <c r="D115">
-        <v>0.00014649928939804537</v>
+        <v>0.00014649941976353542</v>
       </c>
       <c r="E115">
-        <v>0.0019620637214180147</v>
+        <v>0.001962063188898401</v>
       </c>
       <c r="F115">
-        <v>4.8583619001373026e-5</v>
+        <v>4.8583565243073686e-5</v>
       </c>
       <c r="G115">
-        <v>7.308342787103882</v>
+        <v>7.308342787107955</v>
       </c>
       <c r="H115">
-        <v>6.453404043023769e-7</v>
+        <v>6.453404043045239e-7</v>
       </c>
       <c r="I115">
-        <v>0.00014649933085187492</v>
+        <v>0.0001464993308518438</v>
       </c>
       <c r="J115">
-        <v>0.0019620631780423556</v>
+        <v>0.001962063178036263</v>
       </c>
       <c r="K115">
-        <v>4.858356506092435e-5</v>
+        <v>4.858356506087341e-5</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -4445,34 +4445,34 @@
         <v>0.0645</v>
       </c>
       <c r="B116">
-        <v>7.309515482464358</v>
+        <v>7.309512590037008</v>
       </c>
       <c r="C116">
         <v>6.378624923607051e-7</v>
       </c>
       <c r="D116">
-        <v>0.00014922399856771254</v>
+        <v>0.0001492241274002416</v>
       </c>
       <c r="E116">
-        <v>0.0019625392947060834</v>
+        <v>0.001962538774216511</v>
       </c>
       <c r="F116">
-        <v>4.858830420448842e-5</v>
+        <v>4.858825174676743e-5</v>
       </c>
       <c r="G116">
-        <v>7.309512606589234</v>
+        <v>7.309512606593248</v>
       </c>
       <c r="H116">
-        <v>6.378798235015118e-7</v>
+        <v>6.378798235036298e-7</v>
       </c>
       <c r="I116">
-        <v>0.000149224038601594</v>
+        <v>0.0001492240386015632</v>
       </c>
       <c r="J116">
-        <v>0.0019625387632031003</v>
+        <v>0.0019625387631970236</v>
       </c>
       <c r="K116">
-        <v>4.8588251564153416e-5</v>
+        <v>4.8588251564102655e-5</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -4480,34 +4480,34 @@
         <v>0.0655</v>
       </c>
       <c r="B117">
-        <v>7.31067870764877</v>
+        <v>7.3106758901935756</v>
       </c>
       <c r="C117">
         <v>6.304021123330854e-7</v>
       </c>
       <c r="D117">
-        <v>0.00015194899513346015</v>
+        <v>0.00015194912241296214</v>
       </c>
       <c r="E117">
-        <v>0.0019630137330393163</v>
+        <v>0.0019630132243234513</v>
       </c>
       <c r="F117">
-        <v>4.8592988109634254e-5</v>
+        <v>4.8592936920619116e-5</v>
       </c>
       <c r="G117">
-        <v>7.310675906174383</v>
+        <v>7.310675906178339</v>
       </c>
       <c r="H117">
-        <v>6.304192426560444e-7</v>
+        <v>6.304192426581334e-7</v>
       </c>
       <c r="I117">
-        <v>0.0001519490337485158</v>
+        <v>0.00015194903374848525</v>
       </c>
       <c r="J117">
-        <v>0.0019630132131602637</v>
+        <v>0.0019630132131542044</v>
       </c>
       <c r="K117">
-        <v>4.85929367376015e-5</v>
+        <v>4.8592936737550915e-5</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -4515,34 +4515,34 @@
         <v>0.0665</v>
       </c>
       <c r="B118">
-        <v>7.311835468264283</v>
+        <v>7.311832723809435</v>
       </c>
       <c r="C118">
         <v>6.229417323054657e-7</v>
       </c>
       <c r="D118">
-        <v>0.00015467427600979511</v>
+        <v>0.00015467440171884863</v>
       </c>
       <c r="E118">
-        <v>0.0019634870487586675</v>
+        <v>0.001963486551564818</v>
       </c>
       <c r="F118">
-        <v>4.859767072002417e-5</v>
+        <v>4.859762076862795e-5</v>
       </c>
       <c r="G118">
-        <v>7.31183273923124</v>
+        <v>7.311832739235137</v>
       </c>
       <c r="H118">
-        <v>6.229586617659746e-7</v>
+        <v>6.229586617680347e-7</v>
       </c>
       <c r="I118">
-        <v>0.00015467431320980227</v>
+        <v>0.00015467431320977205</v>
       </c>
       <c r="J118">
-        <v>0.001963486540259395</v>
+        <v>0.0019634865402533546</v>
       </c>
       <c r="K118">
-        <v>4.859762058526778e-5</v>
+        <v>4.859762058521739e-5</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -4550,34 +4550,34 @@
         <v>0.0675</v>
       </c>
       <c r="B119">
-        <v>7.312985817099695</v>
+        <v>7.312983143725656</v>
       </c>
       <c r="C119">
         <v>6.154813522778458e-7</v>
       </c>
       <c r="D119">
-        <v>0.0001573998381530413</v>
+        <v>0.00015739996227672086</v>
       </c>
       <c r="E119">
-        <v>0.001963959254037015</v>
+        <v>0.0019639587681180935</v>
       </c>
       <c r="F119">
-        <v>4.86023520389167e-5</v>
+        <v>4.8602303294818906e-5</v>
       </c>
       <c r="G119">
-        <v>7.312983158600708</v>
+        <v>7.312983158604546</v>
       </c>
       <c r="H119">
-        <v>6.154980808313024e-7</v>
+        <v>6.154980808333336e-7</v>
       </c>
       <c r="I119">
-        <v>0.0001573998739442834</v>
+        <v>0.00015739987394425346</v>
       </c>
       <c r="J119">
-        <v>0.00196395875667793</v>
+        <v>0.00196395875667191</v>
       </c>
       <c r="K119">
-        <v>4.860230311117716e-5</v>
+        <v>4.8602303111127e-5</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -4585,34 +4585,34 @@
         <v>0.06849999999999999</v>
       </c>
       <c r="B120">
-        <v>7.314129806419476</v>
+        <v>7.314127202257598</v>
       </c>
       <c r="C120">
         <v>6.080209722502483e-7</v>
       </c>
       <c r="D120">
-        <v>0.00016012567856068822</v>
+        <v>0.00016012580108642238</v>
       </c>
       <c r="E120">
-        <v>0.0019644303608817764</v>
+        <v>0.001964429885995257</v>
       </c>
       <c r="F120">
-        <v>4.860703206961351e-5</v>
+        <v>4.860698450324138e-5</v>
       </c>
       <c r="G120">
-        <v>7.314127216597985</v>
+        <v>7.314127216601766</v>
       </c>
       <c r="H120">
-        <v>6.080374998520278e-7</v>
+        <v>6.080374998540302e-7</v>
       </c>
       <c r="I120">
-        <v>0.00016012571295181272</v>
+        <v>0.00016012571295178304</v>
       </c>
       <c r="J120">
-        <v>0.0019644298744278025</v>
+        <v>0.001964429874421804</v>
       </c>
       <c r="K120">
-        <v>4.860698431937904e-5</v>
+        <v>4.86069843193291e-5</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -4620,34 +4620,34 @@
         <v>0.06949999999999999</v>
       </c>
       <c r="B121">
-        <v>7.315267487968999</v>
+        <v>7.315264951200183</v>
       </c>
       <c r="C121">
         <v>6.005605922226284e-7</v>
       </c>
       <c r="D121">
-        <v>0.0001628517942707513</v>
+        <v>0.00016285191518818727</v>
       </c>
       <c r="E121">
-        <v>0.0019649003811374787</v>
+        <v>0.00196489991704535</v>
       </c>
       <c r="F121">
-        <v>4.8611710815457776e-5</v>
+        <v>4.861166439796802e-5</v>
       </c>
       <c r="G121">
-        <v>7.3152649650178345</v>
+        <v>7.315264965021558</v>
       </c>
       <c r="H121">
-        <v>6.005769188281506e-7</v>
+        <v>6.005769188301245e-7</v>
       </c>
       <c r="I121">
-        <v>0.00016285182727263415</v>
+        <v>0.0001628518272726047</v>
       </c>
       <c r="J121">
-        <v>0.0019648999053580103</v>
+        <v>0.0019648999053520346</v>
       </c>
       <c r="K121">
-        <v>4.8611664213946024e-5</v>
+        <v>4.861166421389633e-5</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -4655,34 +4655,34 @@
         <v>0.0705</v>
       </c>
       <c r="B122">
-        <v>7.316398912979749</v>
+        <v>7.3163964418331355</v>
       </c>
       <c r="C122">
         <v>5.931002121950197e-7</v>
       </c>
       <c r="D122">
-        <v>0.00016557818236114137</v>
+        <v>0.00016557830166201654</v>
       </c>
       <c r="E122">
-        <v>0.001965369326488286</v>
+        <v>0.0019653688729570104</v>
       </c>
       <c r="F122">
-        <v>4.8616388279832565e-5</v>
+        <v>4.861634298309354e-5</v>
       </c>
       <c r="G122">
-        <v>7.316396455139826</v>
+        <v>7.316396455143493</v>
       </c>
       <c r="H122">
-        <v>5.931163377596709e-7</v>
+        <v>5.931163377616163e-7</v>
       </c>
       <c r="I122">
-        <v>0.00016557821398675813</v>
+        <v>0.00016557821398672907</v>
       </c>
       <c r="J122">
-        <v>0.001965368861157146</v>
+        <v>0.001965368861151194</v>
       </c>
       <c r="K122">
-        <v>4.8616342798972785e-5</v>
+        <v>4.8616342798923345e-5</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -4690,34 +4690,34 @@
         <v>0.0715</v>
       </c>
       <c r="B123">
-        <v>7.317524132174503</v>
+        <v>7.317521724926201</v>
       </c>
       <c r="C123">
         <v>5.856398321674221e-7</v>
       </c>
       <c r="D123">
-        <v>0.00016830483994904617</v>
+        <v>0.00016830495762706497</v>
       </c>
       <c r="E123">
-        <v>0.0019658372084604913</v>
+        <v>0.0019658367652609495</v>
       </c>
       <c r="F123">
-        <v>4.862106446615924e-5</v>
+        <v>4.862102026273355e-5</v>
       </c>
       <c r="G123">
-        <v>7.317521737733549</v>
+        <v>7.317521737737159</v>
       </c>
       <c r="H123">
-        <v>5.856557566465888e-7</v>
+        <v>5.856557566485058e-7</v>
       </c>
       <c r="I123">
-        <v>0.00016830487021334903</v>
+        <v>0.00016830487021332025</v>
       </c>
       <c r="J123">
-        <v>0.001965836753355879</v>
+        <v>0.001965836753349953</v>
       </c>
       <c r="K123">
-        <v>4.862102007857488e-5</v>
+        <v>4.8621020078525716e-5</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -4725,34 +4725,34 @@
         <v>0.0725</v>
       </c>
       <c r="B124">
-        <v>7.318643195772478</v>
+        <v>7.318640850744321</v>
       </c>
       <c r="C124">
         <v>5.781794521398134e-7</v>
       </c>
       <c r="D124">
-        <v>0.00017103176419032035</v>
+        <v>0.0001710318802410377</v>
       </c>
       <c r="E124">
-        <v>0.0019663040384249584</v>
+        <v>0.0019663036053324066</v>
       </c>
       <c r="F124">
-        <v>4.8625739377895914e-5</v>
+        <v>4.862569624102339e-5</v>
       </c>
       <c r="G124">
-        <v>7.318640863063796</v>
+        <v>7.3186408630673485</v>
       </c>
       <c r="H124">
-        <v>5.781951754889042e-7</v>
+        <v>5.781951754907928e-7</v>
       </c>
       <c r="I124">
-        <v>0.00017103179311012145</v>
+        <v>0.00017103179311009296</v>
       </c>
       <c r="J124">
-        <v>0.0019663035933294047</v>
+        <v>0.0019663035933235058</v>
       </c>
       <c r="K124">
-        <v>4.862569605688764e-5</v>
+        <v>4.8625696056838764e-5</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -4760,34 +4760,34 @@
         <v>0.0735</v>
       </c>
       <c r="B125">
-        <v>7.319756153494456</v>
+        <v>7.3197538690527955</v>
       </c>
       <c r="C125">
         <v>5.707190721121716e-7</v>
       </c>
       <c r="D125">
-        <v>0.00017375895227888721</v>
+        <v>0.00017375906669959696</v>
       </c>
       <c r="E125">
-        <v>0.0019667698275995325</v>
+        <v>0.001966769404393545</v>
       </c>
       <c r="F125">
-        <v>4.863041301853602e-5</v>
+        <v>4.86303709221171e-5</v>
       </c>
       <c r="G125">
-        <v>7.319753880895712</v>
+        <v>7.319753880899209</v>
       </c>
       <c r="H125">
-        <v>5.707345942866173e-7</v>
+        <v>5.707345942884775e-7</v>
       </c>
       <c r="I125">
-        <v>0.00017375897987274668</v>
+        <v>0.00017375897987271843</v>
       </c>
       <c r="J125">
-        <v>0.0019667693922998455</v>
+        <v>0.001966769392293976</v>
       </c>
       <c r="K125">
-        <v>4.863037073806508e-5</v>
+        <v>4.863037073801648e-5</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -4795,34 +4795,34 @@
         <v>0.0745</v>
       </c>
       <c r="B126">
-        <v>7.320863054567865</v>
+        <v>7.320860829122391</v>
       </c>
       <c r="C126">
         <v>5.632586920845849e-7</v>
       </c>
       <c r="D126">
-        <v>0.00017648640144614906</v>
+        <v>0.0001764865142357782</v>
       </c>
       <c r="E126">
-        <v>0.0019672345870514044</v>
+        <v>0.001967234173515826</v>
       </c>
       <c r="F126">
-        <v>4.8635085391606754e-5</v>
+        <v>4.8635044310186316e-5</v>
       </c>
       <c r="G126">
-        <v>7.32086084049992</v>
+        <v>7.320860840503361</v>
       </c>
       <c r="H126">
-        <v>5.63274013039728e-7</v>
+        <v>5.632740130415599e-7</v>
       </c>
       <c r="I126">
-        <v>0.00017648642773426915</v>
+        <v>0.00017648642773424115</v>
       </c>
       <c r="J126">
-        <v>0.0019672341613386226</v>
+        <v>0.0019672341613327835</v>
       </c>
       <c r="K126">
-        <v>4.863504412627876e-5</v>
+        <v>4.8635044126230465e-5</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -4830,34 +4830,34 @@
         <v>0.0755</v>
       </c>
       <c r="B127">
-        <v>7.3219639477318355</v>
+        <v>7.321961779734433</v>
       </c>
       <c r="C127">
         <v>5.557983120569983e-7</v>
       </c>
       <c r="D127">
-        <v>0.00017921410896040767</v>
+        <v>0.0001792142201194157</v>
       </c>
       <c r="E127">
-        <v>0.0019676983276994435</v>
+        <v>0.0019676979236223305</v>
       </c>
       <c r="F127">
-        <v>4.8639756500667766e-5</v>
+        <v>4.863971640941925e-5</v>
       </c>
       <c r="G127">
-        <v>7.321961790657599</v>
+        <v>7.321961790660983</v>
       </c>
       <c r="H127">
-        <v>5.55813431748236e-7</v>
+        <v>5.558134317500398e-7</v>
       </c>
       <c r="I127">
-        <v>0.00017921413396453193</v>
+        <v>0.0001792141339645042</v>
       </c>
       <c r="J127">
-        <v>0.001967697911368777</v>
+        <v>0.0019676979113629695</v>
       </c>
       <c r="K127">
-        <v>4.863971622571689e-5</v>
+        <v>4.863971622566891e-5</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -4865,34 +4865,34 @@
         <v>0.0765</v>
       </c>
       <c r="B128">
-        <v>7.323058881242234</v>
+        <v>7.323056769185856</v>
       </c>
       <c r="C128">
         <v>5.483379320293896e-7</v>
       </c>
       <c r="D128">
-        <v>0.0001819420721262949</v>
+        <v>0.00018194218165657746</v>
       </c>
       <c r="E128">
-        <v>0.0019681610603164827</v>
+        <v>0.0019681606654900555</v>
       </c>
       <c r="F128">
-        <v>4.864442634930965e-5</v>
+        <v>4.864438722401964e-5</v>
       </c>
       <c r="G128">
-        <v>7.323056779665539</v>
+        <v>7.3230567796688675</v>
       </c>
       <c r="H128">
-        <v>5.483528504121416e-7</v>
+        <v>5.483528504139173e-7</v>
       </c>
       <c r="I128">
-        <v>0.00018194209586961177</v>
+        <v>0.0001819420958695843</v>
       </c>
       <c r="J128">
-        <v>0.0019681606531672634</v>
+        <v>0.0019681606531614894</v>
       </c>
       <c r="K128">
-        <v>4.864438704058316e-5</v>
+        <v>4.8644387040535496e-5</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -4900,34 +4900,34 @@
         <v>0.0775</v>
       </c>
       <c r="B129">
-        <v>7.324147902876635</v>
+        <v>7.324145845294218</v>
       </c>
       <c r="C129">
         <v>5.408775520017367e-7</v>
       </c>
       <c r="D129">
-        <v>0.00018467028828421194</v>
+        <v>0.00018467039618900983</v>
       </c>
       <c r="E129">
-        <v>0.0019686227955315765</v>
+        <v>0.0019686224097521564</v>
       </c>
       <c r="F129">
-        <v>4.8649094941152706e-5</v>
+        <v>4.864905675820581e-5</v>
       </c>
       <c r="G129">
-        <v>7.32414585534116</v>
+        <v>7.324145855344434</v>
       </c>
       <c r="H129">
-        <v>5.408922690314446e-7</v>
+        <v>5.408922690331925e-7</v>
       </c>
       <c r="I129">
-        <v>0.00018467031079126347</v>
+        <v>0.00018467031079123637</v>
       </c>
       <c r="J129">
-        <v>0.0019686223973672005</v>
+        <v>0.001968622397361462</v>
       </c>
       <c r="K129">
-        <v>4.864905657509588e-5</v>
+        <v>4.864905657504855e-5</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -4935,34 +4935,34 @@
         <v>0.0785</v>
       </c>
       <c r="B130">
-        <v>7.325231059939286</v>
+        <v>7.325229055402697</v>
       </c>
       <c r="C130">
         <v>5.33417171974128e-7</v>
       </c>
       <c r="D130">
-        <v>0.00018739875480977832</v>
+        <v>0.00018739886109359066</v>
       </c>
       <c r="E130">
-        <v>0.0019690835438322123</v>
+        <v>0.0019690831669001685</v>
       </c>
       <c r="F130">
-        <v>4.8653762279845545e-5</v>
+        <v>4.86537250162097e-5</v>
       </c>
       <c r="G130">
-        <v>7.325229065027496</v>
+        <v>7.325229065030714</v>
       </c>
       <c r="H130">
-        <v>5.334316876061452e-7</v>
+        <v>5.334316876078654e-7</v>
       </c>
       <c r="I130">
-        <v>0.00018739877610637328</v>
+        <v>0.00018739877610634648</v>
       </c>
       <c r="J130">
-        <v>0.001969083154460085</v>
+        <v>0.0019690831544543833</v>
       </c>
       <c r="K130">
-        <v>4.865372483348694e-5</v>
+        <v>4.865372483343996e-5</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -4970,34 +4970,34 @@
         <v>0.0795</v>
       </c>
       <c r="B131">
-        <v>7.326308399266022</v>
+        <v>7.326306446385009</v>
       </c>
       <c r="C131">
         <v>5.259567919465303e-7</v>
       </c>
       <c r="D131">
-        <v>0.00019012746911328994</v>
+        <v>0.00019012757378179148</v>
       </c>
       <c r="E131">
-        <v>0.001969543315566491</v>
+        <v>0.0019695429472861847</v>
       </c>
       <c r="F131">
-        <v>4.8658428369063875e-5</v>
+        <v>4.865839200227596e-5</v>
       </c>
       <c r="G131">
-        <v>7.32630645559813</v>
+        <v>7.326306455601293</v>
       </c>
       <c r="H131">
-        <v>5.259711061362433e-7</v>
+        <v>5.259711061379359e-7</v>
       </c>
       <c r="I131">
-        <v>0.00019012748922642104</v>
+        <v>0.0001901274892263946</v>
       </c>
       <c r="J131">
-        <v>0.001969542934797971</v>
+        <v>0.0019695429347923077</v>
       </c>
       <c r="K131">
-        <v>4.865839182000094e-5</v>
+        <v>4.865839181995431e-5</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -5005,34 +5005,34 @@
         <v>0.0805</v>
       </c>
       <c r="B132">
-        <v>7.327379967229143</v>
+        <v>7.327378064650343</v>
       </c>
       <c r="C132">
         <v>5.184964119189326e-7</v>
       </c>
       <c r="D132">
-        <v>0.00019285642863918617</v>
+        <v>0.00019285653169914878</v>
       </c>
       <c r="E132">
-        <v>0.001970002120945271</v>
+        <v>0.0019700017611249962</v>
       </c>
       <c r="F132">
-        <v>4.866309321250919e-5</v>
+        <v>4.866305772066098e-5</v>
       </c>
       <c r="G132">
-        <v>7.327378073462115</v>
+        <v>7.327378073465225</v>
       </c>
       <c r="H132">
-        <v>5.185105246217388e-7</v>
+        <v>5.185105246234038e-7</v>
       </c>
       <c r="I132">
-        <v>0.0001928564475969515</v>
+        <v>0.0001928564475969253</v>
       </c>
       <c r="J132">
-        <v>0.0019700017485956138</v>
+        <v>0.0019700017485899898</v>
       </c>
       <c r="K132">
-        <v>4.866305753889424e-5</v>
+        <v>4.8663057538847986e-5</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -5040,34 +5040,34 @@
         <v>0.0815</v>
       </c>
       <c r="B133">
-        <v>7.328445809742272</v>
+        <v>7.3284439561482255</v>
       </c>
       <c r="C133">
         <v>5.110360318913019e-7</v>
       </c>
       <c r="D133">
-        <v>0.00019558563086552558</v>
+        <v>0.00019558573232474408</v>
       </c>
       <c r="E133">
-        <v>0.001970459970044275</v>
+        <v>0.0019704596184962004</v>
       </c>
       <c r="F133">
-        <v>4.866775681390756e-5</v>
+        <v>4.866772217563207e-5</v>
       </c>
       <c r="G133">
-        <v>7.328443964568841</v>
+        <v>7.328443964571897</v>
       </c>
       <c r="H133">
-        <v>5.110499430626319e-7</v>
+        <v>5.110499430642695e-7</v>
       </c>
       <c r="I133">
-        <v>0.00019558564869705383</v>
+        <v>0.00019558564869702792</v>
       </c>
       <c r="J133">
-        <v>0.0019704596059325727</v>
+        <v>0.0019704596059269904</v>
       </c>
       <c r="K133">
-        <v>4.866772199443412e-5</v>
+        <v>4.8667721994388266e-5</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -5075,34 +5075,34 @@
         <v>0.0825</v>
       </c>
       <c r="B134">
-        <v>7.3295059722651486</v>
+        <v>7.329504166373342</v>
       </c>
       <c r="C134">
         <v>5.03575651863682e-7</v>
       </c>
       <c r="D134">
-        <v>0.00019831507330347076</v>
+        <v>0.00019831517317069167</v>
       </c>
       <c r="E134">
-        <v>0.0019709168728061616</v>
+        <v>0.0019709165293462735</v>
       </c>
       <c r="F134">
-        <v>4.8672419177008524e-5</v>
+        <v>4.86723853714666e-5</v>
       </c>
       <c r="G134">
-        <v>7.329504174412866</v>
+        <v>7.329504174415869</v>
       </c>
       <c r="H134">
-        <v>5.035893614589224e-7</v>
+        <v>5.035893614605329e-7</v>
       </c>
       <c r="I134">
-        <v>0.00019831509003885022</v>
+        <v>0.00019831509003882453</v>
       </c>
       <c r="J134">
-        <v>0.001970916516755289</v>
+        <v>0.0019709165167497494</v>
       </c>
       <c r="K134">
-        <v>4.867238519089793e-5</v>
+        <v>4.867238519085248e-5</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -5110,34 +5110,34 @@
         <v>0.0835</v>
       </c>
       <c r="B135">
-        <v>7.330560499808413</v>
+        <v>7.330558740370353</v>
       </c>
       <c r="C135">
         <v>4.961152718361065e-7</v>
       </c>
       <c r="D135">
-        <v>0.00020104475349678113</v>
+        <v>0.0002010448517816354</v>
       </c>
       <c r="E135">
-        <v>0.0019713728390425675</v>
+        <v>0.001971372503490609</v>
       </c>
       <c r="F135">
-        <v>4.8677080305583846e-5</v>
+        <v>4.867704731245116e-5</v>
       </c>
       <c r="G135">
-        <v>7.330558748038717</v>
+        <v>7.330558748041667</v>
       </c>
       <c r="H135">
-        <v>4.961287798106105e-7</v>
+        <v>4.96128779812194e-7</v>
       </c>
       <c r="I135">
-        <v>0.00020104476916699233</v>
+        <v>0.0002010447691669669</v>
       </c>
       <c r="J135">
-        <v>0.001971372490879122</v>
+        <v>0.0019713724908736263</v>
       </c>
       <c r="K135">
-        <v>4.8677047132572186e-5</v>
+        <v>4.867704713252715e-5</v>
       </c>
     </row>
     <row r="136" spans="1:11">
@@ -5145,34 +5145,34 @@
         <v>0.0845</v>
       </c>
       <c r="B136">
-        <v>7.33160943693832</v>
+        <v>7.33160772273863</v>
       </c>
       <c r="C136">
         <v>4.886548918084867e-7</v>
       </c>
       <c r="D136">
-        <v>0.00020377466902131474</v>
+        <v>0.00020377476573425415</v>
       </c>
       <c r="E136">
-        <v>0.00197182787843611</v>
+        <v>0.0019718275506155247</v>
       </c>
       <c r="F136">
-        <v>4.868174020342645e-5</v>
+        <v>4.868170800288073e-5</v>
       </c>
       <c r="G136">
-        <v>7.331607730045643</v>
+        <v>7.331607730048539</v>
       </c>
       <c r="H136">
-        <v>4.886681981176962e-7</v>
+        <v>4.886681981192527e-7</v>
       </c>
       <c r="I136">
-        <v>0.00020377468365816653</v>
+        <v>0.0002037746836581414</v>
       </c>
       <c r="J136">
-        <v>0.0019718275379903534</v>
+        <v>0.001971827537984903</v>
       </c>
       <c r="K136">
-        <v>4.868170782375187e-5</v>
+        <v>4.868170782370726e-5</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -5180,34 +5180,34 @@
         <v>0.0855</v>
       </c>
       <c r="B137">
-        <v>7.33265282778146</v>
+        <v>7.332651157636994</v>
       </c>
       <c r="C137">
         <v>4.81194511780867e-7</v>
       </c>
       <c r="D137">
-        <v>0.00020650481748453833</v>
+        <v>0.00020650491263677446</v>
       </c>
       <c r="E137">
-        <v>0.0019722820005423592</v>
+        <v>0.0019722816802802304</v>
       </c>
       <c r="F137">
-        <v>4.868639887434927e-5</v>
+        <v>4.868636744705794e-5</v>
       </c>
       <c r="G137">
-        <v>7.332651164592333</v>
+        <v>7.332651164595177</v>
       </c>
       <c r="H137">
-        <v>4.812076163801793e-7</v>
+        <v>4.812076163817092e-7</v>
       </c>
       <c r="I137">
-        <v>0.00020650483112060668</v>
+        <v>0.0002065048311205819</v>
       </c>
       <c r="J137">
-        <v>0.0019722816676481596</v>
+        <v>0.001972281667642755</v>
       </c>
       <c r="K137">
-        <v>4.868636726873957e-5</v>
+        <v>4.868636726869538e-5</v>
       </c>
     </row>
     <row r="138" spans="1:11">
@@ -5215,34 +5215,34 @@
         <v>0.08650000000000001</v>
       </c>
       <c r="B138">
-        <v>7.333690716029393</v>
+        <v>7.333689088788375</v>
       </c>
       <c r="C138">
         <v>4.737341317532472e-7</v>
       </c>
       <c r="D138">
-        <v>0.00020923519652504477</v>
+        <v>0.00020923529012849157</v>
       </c>
       <c r="E138">
-        <v>0.001972735214791777</v>
+        <v>0.0019727349019187713</v>
       </c>
       <c r="F138">
-        <v>4.8691056322184274e-5</v>
+        <v>4.8691025649292245e-5</v>
       </c>
       <c r="G138">
-        <v>7.333689095401599</v>
+        <v>7.333689095404392</v>
       </c>
       <c r="H138">
-        <v>4.737470345980599e-7</v>
+        <v>4.7374703459956333e-7</v>
       </c>
       <c r="I138">
-        <v>0.00020923520919361563</v>
+        <v>0.00020923520919359116</v>
       </c>
       <c r="J138">
-        <v>0.001972734889286551</v>
+        <v>0.0019727348892811937</v>
       </c>
       <c r="K138">
-        <v>4.869102547184473e-5</v>
+        <v>4.8691025471800964e-5</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -5250,34 +5250,34 @@
         <v>0.08750000000000001</v>
       </c>
       <c r="B139">
-        <v>7.334723144943272</v>
+        <v>7.3347215594844695</v>
       </c>
       <c r="C139">
         <v>4.6627375172563847e-7</v>
       </c>
       <c r="D139">
-        <v>0.00021196580381207972</v>
+        <v>0.000211965895879299</v>
       </c>
       <c r="E139">
-        <v>0.001973187530491627</v>
+        <v>0.001973187224841931</v>
       </c>
       <c r="F139">
-        <v>4.869571255078133e-5</v>
+        <v>4.869568261389927e-5</v>
       </c>
       <c r="G139">
-        <v>7.334721565765011</v>
+        <v>7.334721565767751</v>
       </c>
       <c r="H139">
-        <v>4.66286452771338e-7</v>
+        <v>4.6628645277281515e-7</v>
       </c>
       <c r="I139">
-        <v>0.00021196581554709372</v>
+        <v>0.00021196581554706965</v>
       </c>
       <c r="J139">
-        <v>0.001973187212216279</v>
+        <v>0.001973187212210971</v>
       </c>
       <c r="K139">
-        <v>4.869568243738289e-5</v>
+        <v>4.869568243733958e-5</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -5285,34 +5285,34 @@
         <v>0.08850000000000001</v>
       </c>
       <c r="B140">
-        <v>7.3357501573584205</v>
+        <v>7.335748612590325</v>
       </c>
       <c r="C140">
         <v>4.588133716980629e-7</v>
       </c>
       <c r="D140">
-        <v>0.0002146966370450749</v>
+        <v>0.00021469672758922458</v>
       </c>
       <c r="E140">
-        <v>0.001973638956827845</v>
+        <v>0.0019736386582391123</v>
       </c>
       <c r="F140">
-        <v>4.8700367564007285e-5</v>
+        <v>4.870033834520001e-5</v>
       </c>
       <c r="G140">
-        <v>7.3357486185474965</v>
+        <v>7.335748618550185</v>
       </c>
       <c r="H140">
-        <v>4.588258709000136e-7</v>
+        <v>4.588258709014646e-7</v>
       </c>
       <c r="I140">
-        <v>0.00021469664788107597</v>
+        <v>0.00021469664788105233</v>
       </c>
       <c r="J140">
-        <v>0.0019736386456267138</v>
+        <v>0.0019736386456214563</v>
       </c>
       <c r="K140">
-        <v>4.870033816967507e-5</v>
+        <v>4.87003381696322e-5</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -5320,34 +5320,34 @@
         <v>0.08950000000000001</v>
       </c>
       <c r="B141">
-        <v>7.336771795688874</v>
+        <v>7.336770290548904</v>
       </c>
       <c r="C141">
         <v>4.5135299167044317e-7</v>
       </c>
       <c r="D141">
-        <v>0.00021742769395319012</v>
+        <v>0.00021742778298797504</v>
       </c>
       <c r="E141">
-        <v>0.001974089502866889</v>
+        <v>0.0019740892111801776</v>
       </c>
       <c r="F141">
-        <v>4.8705021365744916e-5</v>
+        <v>4.870499284752017e-5</v>
       </c>
       <c r="G141">
-        <v>7.336770296191902</v>
+        <v>7.336770296194538</v>
       </c>
       <c r="H141">
-        <v>4.5136528898408664e-7</v>
+        <v>4.513652889855116e-7</v>
       </c>
       <c r="I141">
-        <v>0.00021742770392527613</v>
+        <v>0.00021742770392525293</v>
       </c>
       <c r="J141">
-        <v>0.0019740891985876854</v>
+        <v>0.001974089198582479</v>
       </c>
       <c r="K141">
-        <v>4.870499267304688e-5</v>
+        <v>4.87049926730045e-5</v>
       </c>
     </row>
     <row r="142" spans="1:11">
@@ -5355,34 +5355,34 @@
         <v>0.0905</v>
       </c>
       <c r="B142">
-        <v>7.337788101931868</v>
+        <v>7.337786635385603</v>
       </c>
       <c r="C142">
         <v>4.4389261164279026e-7</v>
       </c>
       <c r="D142">
-        <v>0.0002201589722948626</v>
+        <v>0.0002201590598344878</v>
       </c>
       <c r="E142">
-        <v>0.0019745391775575507</v>
+        <v>0.0019745388926172666</v>
       </c>
       <c r="F142">
-        <v>4.8709673959892015e-5</v>
+        <v>4.8709646125189475e-5</v>
       </c>
       <c r="G142">
-        <v>7.337786640723507</v>
+        <v>7.337786640726092</v>
       </c>
       <c r="H142">
-        <v>4.4390470702355723e-7</v>
+        <v>4.439047070249563e-7</v>
       </c>
       <c r="I142">
-        <v>0.0002201589814386385</v>
+        <v>0.00022015898143861576</v>
       </c>
       <c r="J142">
-        <v>0.001974538880051301</v>
+        <v>0.001974538880046149</v>
       </c>
       <c r="K142">
-        <v>4.870964595182805e-5</v>
+        <v>4.8709645951786144e-5</v>
       </c>
     </row>
     <row r="143" spans="1:11">
@@ -5390,34 +5390,34 @@
         <v>0.09149999999999998</v>
       </c>
       <c r="B143">
-        <v>7.3387991176723055</v>
+        <v>7.33879768871274</v>
       </c>
       <c r="C143">
         <v>4.364322316151926e-7</v>
       </c>
       <c r="D143">
-        <v>0.00022289046985736344</v>
+        <v>0.00022289055591649047</v>
       </c>
       <c r="E143">
-        <v>0.0019749879897327403</v>
+        <v>0.001974987711386577</v>
       </c>
       <c r="F143">
-        <v>4.871432535036046e-5</v>
+        <v>4.871429818254101e-5</v>
       </c>
       <c r="G143">
-        <v>7.338797693754508</v>
+        <v>7.338797693757043</v>
       </c>
       <c r="H143">
-        <v>4.3644412501842534e-7</v>
+        <v>4.364441250197986e-7</v>
       </c>
       <c r="I143">
-        <v>0.0002228904782088974</v>
+        <v>0.0002228904782088751</v>
       </c>
       <c r="J143">
-        <v>0.001974987698853728</v>
+        <v>0.0019749876988486314</v>
       </c>
       <c r="K143">
-        <v>4.8714298010351607e-5</v>
+        <v>4.871429801031018e-5</v>
       </c>
     </row>
     <row r="144" spans="1:11">
@@ -5425,34 +5425,34 @@
         <v>0.09249999999999999</v>
       </c>
       <c r="B144">
-        <v>7.3398048840871715</v>
+        <v>7.339803491733972</v>
       </c>
       <c r="C144">
         <v>4.2897185158760597e-7</v>
       </c>
       <c r="D144">
-        <v>0.00022562218445636194</v>
+        <v>0.000225622269050067</v>
       </c>
       <c r="E144">
-        <v>0.001975435948111239</v>
+        <v>0.001975435676210123</v>
       </c>
       <c r="F144">
-        <v>4.871897554107528e-5</v>
+        <v>4.871894902391058e-5</v>
       </c>
       <c r="G144">
-        <v>7.339803496488452</v>
+        <v>7.339803496490937</v>
       </c>
       <c r="H144">
-        <v>4.28983542968691e-7</v>
+        <v>4.289835429700385e-7</v>
       </c>
       <c r="I144">
-        <v>0.00022562219205214326</v>
+        <v>0.0002256221920521213</v>
       </c>
       <c r="J144">
-        <v>0.001975435663716951</v>
+        <v>0.0019754356637119107</v>
       </c>
       <c r="K144">
-        <v>4.8718948852953345e-5</v>
+        <v>4.87189488529124e-5</v>
       </c>
     </row>
     <row r="145" spans="1:11">
@@ -5460,34 +5460,34 @@
         <v>0.09349999999999999</v>
       </c>
       <c r="B145">
-        <v>7.340805441949904</v>
+        <v>7.340804085248702</v>
       </c>
       <c r="C145">
         <v>4.215114715599862e-7</v>
       </c>
       <c r="D145">
-        <v>0.00022835411393549692</v>
+        <v>0.00022835419707923108</v>
       </c>
       <c r="E145">
-        <v>0.0019758830612994285</v>
+        <v>0.0019758827956974597</v>
       </c>
       <c r="F145">
-        <v>4.872362453597382e-5</v>
+        <v>4.872359865363609e-5</v>
       </c>
       <c r="G145">
-        <v>7.340804089724634</v>
+        <v>7.3408040897270705</v>
       </c>
       <c r="H145">
-        <v>4.215229608743543e-7</v>
+        <v>4.215229608756761e-7</v>
       </c>
       <c r="I145">
-        <v>0.00022835412081239647</v>
+        <v>0.00022835412081237492</v>
       </c>
       <c r="J145">
-        <v>0.0019758827832504944</v>
+        <v>0.0019758827832455114</v>
       </c>
       <c r="K145">
-        <v>4.872359848397112e-5</v>
+        <v>4.872359848393068e-5</v>
       </c>
     </row>
     <row r="146" spans="1:11">
@@ -5495,34 +5495,34 @@
         <v>0.09449999999999999</v>
       </c>
       <c r="B146">
-        <v>7.341800831634745</v>
+        <v>7.341799509656448</v>
       </c>
       <c r="C146">
         <v>4.1405109153238855e-7</v>
       </c>
       <c r="D146">
-        <v>0.0002310862561659551</v>
+        <v>0.00023108633787550741</v>
       </c>
       <c r="E146">
-        <v>0.001976329337792984</v>
+        <v>0.001976329078347381</v>
       </c>
       <c r="F146">
-        <v>4.8728272339004855e-5</v>
+        <v>4.8728247076056946e-5</v>
       </c>
       <c r="G146">
-        <v>7.341799513862455</v>
+        <v>7.341799513864843</v>
       </c>
       <c r="H146">
-        <v>4.1406237873541496e-7</v>
+        <v>4.1406237873671134e-7</v>
       </c>
       <c r="I146">
-        <v>0.00023108626236118785</v>
+        <v>0.00023108626236116676</v>
       </c>
       <c r="J146">
-        <v>0.001976329065953122</v>
+        <v>0.0019763290659481985</v>
       </c>
       <c r="K146">
-        <v>4.872824690774433e-5</v>
+        <v>4.8728246907704384e-5</v>
       </c>
     </row>
     <row r="147" spans="1:11">
@@ -5530,34 +5530,34 @@
         <v>0.09549999999999999</v>
       </c>
       <c r="B147">
-        <v>7.342791093121021</v>
+        <v>7.342789804961131</v>
       </c>
       <c r="C147">
         <v>4.065907115047577e-7</v>
       </c>
       <c r="D147">
-        <v>0.00023381860904605657</v>
+        <v>0.00023381868933751839</v>
       </c>
       <c r="E147">
-        <v>0.001976774785978547</v>
+        <v>0.001976774532549587</v>
       </c>
       <c r="F147">
-        <v>4.8732918954127786e-5</v>
+        <v>4.873289429551343e-5</v>
       </c>
       <c r="G147">
-        <v>7.342789808905732</v>
+        <v>7.342789808908073</v>
       </c>
       <c r="H147">
-        <v>4.066017965518731e-7</v>
+        <v>4.066017965531441e-7</v>
       </c>
       <c r="I147">
-        <v>0.0002338186145971463</v>
+        <v>0.00023381861459712566</v>
       </c>
       <c r="J147">
-        <v>0.001976774520214505</v>
+        <v>0.001976774520209643</v>
       </c>
       <c r="K147">
-        <v>4.87328941286132e-5</v>
+        <v>4.873289412857377e-5</v>
       </c>
     </row>
     <row r="148" spans="1:11">
@@ -5565,34 +5565,34 @@
         <v>0.09649999999999999</v>
       </c>
       <c r="B148">
-        <v>7.343776265997415</v>
+        <v>7.343775010775377</v>
       </c>
       <c r="C148">
         <v>3.9913033147716006e-7</v>
       </c>
       <c r="D148">
-        <v>0.00023655117050084727</v>
+        <v>0.0002365512493905789</v>
       </c>
       <c r="E148">
-        <v>0.0019772194141353633</v>
+        <v>0.001977219166586328</v>
       </c>
       <c r="F148">
-        <v>4.873756438531177e-5</v>
+        <v>4.8737540316346194e-5</v>
       </c>
       <c r="G148">
-        <v>7.343775014466979</v>
+        <v>7.343775014469273</v>
       </c>
       <c r="H148">
-        <v>3.9914121432372866e-7</v>
+        <v>3.9914121432497464e-7</v>
       </c>
       <c r="I148">
-        <v>0.00023655117544559286</v>
+        <v>0.0002365511754455727</v>
       </c>
       <c r="J148">
-        <v>0.001977219154316866</v>
+        <v>0.0019772191543120667</v>
       </c>
       <c r="K148">
-        <v>4.8737540150918355e-5</v>
+        <v>4.873754015087945e-5</v>
       </c>
     </row>
     <row r="149" spans="1:11">
@@ -5600,34 +5600,34 @@
         <v>0.09749999999999999</v>
       </c>
       <c r="B149">
-        <v>7.344756389466169</v>
+        <v>7.3447551663247275</v>
       </c>
       <c r="C149">
         <v>3.916699514495734e-7</v>
       </c>
       <c r="D149">
-        <v>0.00023928393848169808</v>
+        <v>0.0002392840159862974</v>
       </c>
       <c r="E149">
-        <v>0.0019776632304368976</v>
+        <v>0.001977662988634021</v>
       </c>
       <c r="F149">
-        <v>4.874220863653503e-5</v>
+        <v>4.8742185142895645e-5</v>
       </c>
       <c r="G149">
-        <v>7.344755169771635</v>
+        <v>7.344755169773883</v>
       </c>
       <c r="H149">
-        <v>3.9168063205098174e-7</v>
+        <v>3.916806320522028e-7</v>
       </c>
       <c r="I149">
-        <v>0.00023928394285814198</v>
+        <v>0.0002392839428581223</v>
       </c>
       <c r="J149">
-        <v>0.001977662976436591</v>
+        <v>0.0019776629764318566</v>
       </c>
       <c r="K149">
-        <v>4.874218497900018e-5</v>
+        <v>4.874218497896181e-5</v>
       </c>
     </row>
     <row r="150" spans="1:11">
@@ -5635,34 +5635,34 @@
         <v>0.09849999999999999</v>
       </c>
       <c r="B150">
-        <v>7.345731502347265</v>
+        <v>7.345730310451847</v>
       </c>
       <c r="C150">
         <v>3.842095714219537e-7</v>
       </c>
       <c r="D150">
-        <v>0.0002420169109659104</v>
+        <v>0.00024201698710218288</v>
       </c>
       <c r="E150">
-        <v>0.001978106242952425</v>
+        <v>0.001978106006764831</v>
       </c>
       <c r="F150">
-        <v>4.874685171178402e-5</v>
+        <v>4.8746828779501466e-5</v>
       </c>
       <c r="G150">
-        <v>7.345730313662258</v>
+        <v>7.34573031366446</v>
       </c>
       <c r="H150">
-        <v>3.8422004973363223e-7</v>
+        <v>3.842200497348286e-7</v>
       </c>
       <c r="I150">
-        <v>0.0002420169148123087</v>
+        <v>0.00024201691481228954</v>
       </c>
       <c r="J150">
-        <v>0.00197810599464582</v>
+        <v>0.0019781059946411524</v>
       </c>
       <c r="K150">
-        <v>4.874682861719831e-5</v>
+        <v>4.874682861716047e-5</v>
       </c>
     </row>
     <row r="151" spans="1:11">
@@ -5670,34 +5670,34 @@
         <v>0.09949999999999999</v>
       </c>
       <c r="B151">
-        <v>7.3467016430825645</v>
+        <v>7.346700481620666</v>
       </c>
       <c r="C151">
         <v>3.767491913943339e-7</v>
       </c>
       <c r="D151">
-        <v>0.0002447500859563287</v>
+        <v>0.0002447501607412592</v>
       </c>
       <c r="E151">
-        <v>0.0019785484596485867</v>
+        <v>0.0019785482289482416</v>
       </c>
       <c r="F151">
-        <v>4.875149361505269e-5</v>
+        <v>4.875147123050203e-5</v>
       </c>
       <c r="G151">
-        <v>7.3467004846026756</v>
+        <v>7.346700484604834</v>
       </c>
       <c r="H151">
-        <v>3.7675946737168035e-7</v>
+        <v>3.767594673728521e-7</v>
       </c>
       <c r="I151">
-        <v>0.00024475008931112286</v>
+        <v>0.00024475008931110426</v>
       </c>
       <c r="J151">
-        <v>0.0019785482169140073</v>
+        <v>0.001978548216909408</v>
       </c>
       <c r="K151">
-        <v>4.875147106985111e-5</v>
+        <v>4.8751471069813814e-5</v>
       </c>
     </row>
     <row r="152" spans="1:11">
@@ -5705,34 +5705,34 @@
         <v>0.10049999999999999</v>
       </c>
       <c r="B152">
-        <v>7.347666849739893</v>
+        <v>7.3476657179204965</v>
       </c>
       <c r="C152">
         <v>3.692888113667252e-7</v>
       </c>
       <c r="D152">
-        <v>0.00024748346148095913</v>
+        <v>0.0002474835349316856</v>
       </c>
       <c r="E152">
-        <v>0.0019789898883909285</v>
+        <v>0.0019789896630525833</v>
       </c>
       <c r="F152">
-        <v>4.87561343503418e-5</v>
+        <v>4.875611250023395e-5</v>
       </c>
       <c r="G152">
-        <v>7.347665720682099</v>
+        <v>7.347665720684213</v>
       </c>
       <c r="H152">
-        <v>3.69298884965126e-7</v>
+        <v>3.692988849662732e-7</v>
       </c>
       <c r="I152">
-        <v>0.00024748346438274927</v>
+        <v>0.00024748346438273127</v>
       </c>
       <c r="J152">
-        <v>0.0019789896511094576</v>
+        <v>0.0019789896511049282</v>
       </c>
       <c r="K152">
-        <v>4.875611234129514e-5</v>
+        <v>4.87561123412584e-5</v>
       </c>
     </row>
     <row r="153" spans="1:11">
@@ -5740,34 +5740,34 @@
         <v>0.10149999999999999</v>
       </c>
       <c r="B153">
-        <v>7.348627160017101</v>
+        <v>7.348626057070097</v>
       </c>
       <c r="C153">
         <v>3.6182843133910544e-7</v>
       </c>
       <c r="D153">
-        <v>0.00025021703559259425</v>
+        <v>0.0002502171077263826</v>
       </c>
       <c r="E153">
-        <v>0.0019794305369454116</v>
+        <v>0.001979430316846551</v>
       </c>
       <c r="F153">
-        <v>4.876077392165816e-5</v>
+        <v>4.8760752593031576e-5</v>
       </c>
       <c r="G153">
-        <v>7.348626059619188</v>
+        <v>7.3486260596212585</v>
       </c>
       <c r="H153">
-        <v>3.618383025139692e-7</v>
+        <v>3.618383025150919e-7</v>
       </c>
       <c r="I153">
-        <v>0.0002502170380801145</v>
+        <v>0.000250217038080097</v>
       </c>
       <c r="J153">
-        <v>0.001979430305000838</v>
+        <v>0.00197943030499638</v>
       </c>
       <c r="K153">
-        <v>4.876075243586472e-5</v>
+        <v>4.876075243582853e-5</v>
       </c>
     </row>
     <row r="154" spans="1:11">
@@ -5775,34 +5775,34 @@
         <v>0.1025</v>
       </c>
       <c r="B154">
-        <v>7.349582611246079</v>
+        <v>7.349581536421709</v>
       </c>
       <c r="C154">
         <v>3.5436805131152986e-7</v>
       </c>
       <c r="D154">
-        <v>0.0002529508063684448</v>
+        <v>0.00025295087720266543</v>
       </c>
       <c r="E154">
-        <v>0.0019798704129798967</v>
+        <v>0.001979870198000683</v>
       </c>
       <c r="F154">
-        <v>4.8765412333014024e-5</v>
+        <v>4.87653915132265e-5</v>
       </c>
       <c r="G154">
-        <v>7.349581538766082</v>
+        <v>7.349581538768109</v>
       </c>
       <c r="H154">
-        <v>3.5437772001821e-7</v>
+        <v>3.543777200193083e-7</v>
       </c>
       <c r="I154">
-        <v>0.00025295080848053897</v>
+        <v>0.00025295080848052205</v>
       </c>
       <c r="J154">
-        <v>0.0019798701862586625</v>
+        <v>0.0019798701862542775</v>
       </c>
       <c r="K154">
-        <v>4.876539135789141e-5</v>
+        <v>4.876539135785579e-5</v>
       </c>
     </row>
     <row r="155" spans="1:11">
@@ -5810,34 +5810,34 @@
         <v>0.1035</v>
       </c>
       <c r="B155">
-        <v>7.350533240396726</v>
+        <v>7.350532192965036</v>
       </c>
       <c r="C155">
         <v>3.4690767128385487e-7</v>
       </c>
       <c r="D155">
-        <v>0.00025568477190977666</v>
+        <v>0.000255684841461882</v>
       </c>
       <c r="E155">
-        <v>0.001980309524065604</v>
+        <v>0.0019803093140888296</v>
       </c>
       <c r="F155">
-        <v>4.877004958842636e-5</v>
+        <v>4.877002926514711e-5</v>
       </c>
       <c r="G155">
-        <v>7.35053219511239</v>
+        <v>7.350532195114373</v>
       </c>
       <c r="H155">
-        <v>3.469171374778483e-7</v>
+        <v>3.4691713747892225e-7</v>
       </c>
       <c r="I155">
-        <v>0.00025568477368537645</v>
+        <v>0.00025568477368536003</v>
       </c>
       <c r="J155">
-        <v>0.001980309302456755</v>
+        <v>0.001980309302452443</v>
       </c>
       <c r="K155">
-        <v>4.8770029111703576e-5</v>
+        <v>4.877002911166853e-5</v>
       </c>
     </row>
     <row r="156" spans="1:11">
@@ -5845,34 +5845,34 @@
         <v>0.1045</v>
       </c>
       <c r="B156">
-        <v>7.351479084080884</v>
+        <v>7.351478063331199</v>
       </c>
       <c r="C156">
         <v>3.3944729125629036e-7</v>
       </c>
       <c r="D156">
-        <v>0.0002584189303415541</v>
+        <v>0.0002584189986290582</v>
       </c>
       <c r="E156">
-        <v>0.001980747877678552</v>
+        <v>0.0019807476725895844</v>
       </c>
       <c r="F156">
-        <v>4.877468569191625e-5</v>
+        <v>4.8774665853118144e-5</v>
       </c>
       <c r="G156">
-        <v>7.351478065289136</v>
+        <v>7.351478065291077</v>
       </c>
       <c r="H156">
-        <v>3.3945655489288415e-7</v>
+        <v>3.394565548939339e-7</v>
       </c>
       <c r="I156">
-        <v>0.00025841893181965806</v>
+        <v>0.00025841893181964223</v>
       </c>
       <c r="J156">
-        <v>0.0019807476610736834</v>
+        <v>0.0019807476610694454</v>
       </c>
       <c r="K156">
-        <v>4.8774665701625895e-5</v>
+        <v>4.877466570159144e-5</v>
       </c>
     </row>
     <row r="157" spans="1:11">
@@ -5880,34 +5880,34 @@
         <v>0.1055</v>
       </c>
       <c r="B157">
-        <v>7.3524201785562315</v>
+        <v>7.352419183796642</v>
       </c>
       <c r="C157">
         <v>3.319869112286596e-7</v>
       </c>
       <c r="D157">
-        <v>0.0002611532798120892</v>
+        <v>0.00026115334685254774</v>
       </c>
       <c r="E157">
-        <v>0.0019811854812009696</v>
+        <v>0.0019811852808877023</v>
       </c>
       <c r="F157">
-        <v>4.877932064750823e-5</v>
+        <v>4.8779301281460265e-5</v>
       </c>
       <c r="G157">
-        <v>7.3524191855726695</v>
+        <v>7.352419185574567</v>
       </c>
       <c r="H157">
-        <v>3.319959722633175e-7</v>
+        <v>3.319959722643431e-7</v>
       </c>
       <c r="I157">
-        <v>0.00026115328103174304</v>
+        <v>0.0002611532810317278</v>
       </c>
       <c r="J157">
-        <v>0.0019811852694941777</v>
+        <v>0.001981185269490015</v>
       </c>
       <c r="K157">
-        <v>4.8779301131979014e-5</v>
+        <v>4.877930113194518e-5</v>
       </c>
     </row>
     <row r="158" spans="1:11">
@@ -5915,34 +5915,34 @@
         <v>0.1065</v>
       </c>
       <c r="B158">
-        <v>7.353356559730145</v>
+        <v>7.353355590286998</v>
       </c>
       <c r="C158">
         <v>3.245265312010619e-7</v>
       </c>
       <c r="D158">
-        <v>0.00026388781849269715</v>
+        <v>0.00026388788430368895</v>
       </c>
       <c r="E158">
-        <v>0.001981622341922683</v>
+        <v>0.001981622146275486</v>
       </c>
       <c r="F158">
-        <v>4.8783954459229714e-5</v>
+        <v>4.87839355544896e-5</v>
       </c>
       <c r="G158">
-        <v>7.353355591888531</v>
+        <v>7.353355591890385</v>
       </c>
       <c r="H158">
-        <v>3.2453538958914844e-7</v>
+        <v>3.2453538959014995e-7</v>
       </c>
       <c r="I158">
-        <v>0.00026388781949297476</v>
+        <v>0.00026388781949296</v>
       </c>
       <c r="J158">
-        <v>0.0019816221350105164</v>
+        <v>0.0019816221350064302</v>
       </c>
       <c r="K158">
-        <v>4.8783935407079055e-5</v>
+        <v>4.8783935407045824e-5</v>
       </c>
     </row>
     <row r="159" spans="1:11">
@@ -5950,34 +5950,34 @@
         <v>0.1075</v>
       </c>
       <c r="B159">
-        <v>7.354288263163501</v>
+        <v>7.354287318380918</v>
       </c>
       <c r="C159">
         <v>3.170661511734421e-7</v>
       </c>
       <c r="D159">
-        <v>0.00026662254457735565</v>
+        <v>0.000266622609176466</v>
       </c>
       <c r="E159">
-        <v>0.0019820584670424894</v>
+        <v>0.0019820582759541576</v>
       </c>
       <c r="F159">
-        <v>4.878858713111039e-5</v>
+        <v>4.8788568676517403e-5</v>
       </c>
       <c r="G159">
-        <v>7.354287319815279</v>
+        <v>7.35428731981709</v>
       </c>
       <c r="H159">
-        <v>3.1707480687037684e-7</v>
+        <v>3.170748068713544e-7</v>
       </c>
       <c r="I159">
-        <v>0.0002666225453973427</v>
+        <v>0.0002666225453973285</v>
       </c>
       <c r="J159">
-        <v>0.001982058264823897</v>
+        <v>0.0019820582648198883</v>
       </c>
       <c r="K159">
-        <v>4.878856853123722e-5</v>
+        <v>4.878856853120461e-5</v>
       </c>
     </row>
     <row r="160" spans="1:11">
@@ -5985,34 +5985,34 @@
         <v>0.1085</v>
       </c>
       <c r="B160">
-        <v>7.355215324074461</v>
+        <v>7.3552144033138624</v>
       </c>
       <c r="C160">
         <v>3.0960577114584445e-7</v>
       </c>
       <c r="D160">
-        <v>0.00026935745628237274</v>
+        <v>0.0002693575196871765</v>
       </c>
       <c r="E160">
-        <v>0.0019824938636694932</v>
+        <v>0.001982493677035201</v>
       </c>
       <c r="F160">
-        <v>4.879321866718166e-5</v>
+        <v>4.87932006518496e-5</v>
       </c>
       <c r="G160">
-        <v>7.355214404588281</v>
+        <v>7.3552144045900505</v>
       </c>
       <c r="H160">
-        <v>3.0961422410700287e-7</v>
+        <v>3.0961422410795647e-7</v>
       </c>
       <c r="I160">
-        <v>0.00026935745696114965</v>
+        <v>0.0002693574569611358</v>
       </c>
       <c r="J160">
-        <v>0.0019824936660457794</v>
+        <v>0.0019824936660418494</v>
       </c>
       <c r="K160">
-        <v>4.879320050875939e-5</v>
+        <v>4.879320050872741e-5</v>
       </c>
     </row>
     <row r="161" spans="1:11">
@@ -6020,34 +6020,34 @@
         <v>0.1095</v>
       </c>
       <c r="B161">
-        <v>7.356137777342197</v>
+        <v>7.3561368799818405</v>
       </c>
       <c r="C161">
         <v>3.021453911182468e-7</v>
       </c>
       <c r="D161">
-        <v>0.000272092551846058</v>
+        <v>0.0002720926140741045</v>
       </c>
       <c r="E161">
-        <v>0.0019829285388244357</v>
+        <v>0.0019829283565416856</v>
       </c>
       <c r="F161">
-        <v>4.8797849071476024e-5</v>
+        <v>4.879783148478644e-5</v>
       </c>
       <c r="G161">
-        <v>7.35613688110346</v>
+        <v>7.3561368811051855</v>
       </c>
       <c r="H161">
-        <v>3.021536412990264e-7</v>
+        <v>3.021536412999561e-7</v>
       </c>
       <c r="I161">
-        <v>0.0002720925524226844</v>
+        <v>0.0002720925524226711</v>
       </c>
       <c r="J161">
-        <v>0.00198292834569921</v>
+        <v>0.001982928345695359</v>
       </c>
       <c r="K161">
-        <v>4.87978313439458e-5</v>
+        <v>4.8797831343914466e-5</v>
       </c>
     </row>
     <row r="162" spans="1:11">
@@ -6055,34 +6055,34 @@
         <v>0.1105</v>
       </c>
       <c r="B162">
-        <v>7.3570556575106</v>
+        <v>7.357054782945125</v>
       </c>
       <c r="C162">
         <v>2.9468501109063253e-7</v>
       </c>
       <c r="D162">
-        <v>0.0002748278295283988</v>
+        <v>0.000274827890597198</v>
       </c>
       <c r="E162">
-        <v>0.00198336249944099</v>
+        <v>0.001983362321409569</v>
       </c>
       <c r="F162">
-        <v>4.880247834802665e-5</v>
+        <v>4.8802461179622104e-5</v>
       </c>
       <c r="G162">
-        <v>7.357054783920998</v>
+        <v>7.357054783922681</v>
       </c>
       <c r="H162">
-        <v>2.9469305844644754e-7</v>
+        <v>2.9469305844735333e-7</v>
       </c>
       <c r="I162">
-        <v>0.0002748278300419003</v>
+        <v>0.00027482783004188733</v>
       </c>
       <c r="J162">
-        <v>0.001983362310720122</v>
+        <v>0.001983362310716352</v>
       </c>
       <c r="K162">
-        <v>4.8802461041090604e-5</v>
+        <v>4.880246104105991e-5</v>
       </c>
     </row>
     <row r="163" spans="1:11">
@@ -6090,34 +6090,34 @@
         <v>0.1115</v>
       </c>
       <c r="B163">
-        <v>7.357968998791923</v>
+        <v>7.3579681464319195</v>
       </c>
       <c r="C163">
         <v>2.872246310630183e-7</v>
       </c>
       <c r="D163">
-        <v>0.00027756328761074407</v>
+        <v>0.00027756334753775317</v>
       </c>
       <c r="E163">
-        <v>0.0019837957523670445</v>
+        <v>0.0019837955784889733</v>
       </c>
       <c r="F163">
-        <v>4.880710650086678e-5</v>
+        <v>4.880708974064438e-5</v>
       </c>
       <c r="G163">
-        <v>7.357968147269015</v>
+        <v>7.357968147270655</v>
       </c>
       <c r="H163">
-        <v>2.872324755492662e-7</v>
+        <v>2.8723247555014815e-7</v>
       </c>
       <c r="I163">
-        <v>0.000277563288100098</v>
+        <v>0.0002775632881000855</v>
       </c>
       <c r="J163">
-        <v>0.0019837955679586168</v>
+        <v>0.001983795567954929</v>
       </c>
       <c r="K163">
-        <v>4.8807089604481545e-5</v>
+        <v>4.8807089604451506e-5</v>
       </c>
     </row>
     <row r="164" spans="1:11">
@@ -6125,34 +6125,34 @@
         <v>0.1125</v>
       </c>
       <c r="B164">
-        <v>7.3588778350704125</v>
+        <v>7.358877004341994</v>
       </c>
       <c r="C164">
         <v>2.7976425103539303e-7</v>
       </c>
       <c r="D164">
-        <v>0.0002802989243954917</v>
+        <v>0.00028029898319810226</v>
       </c>
       <c r="E164">
-        <v>0.001984228304365959</v>
+        <v>0.00198422813454545</v>
       </c>
       <c r="F164">
-        <v>4.881173353402921e-5</v>
+        <v>4.881171717213427e-5</v>
       </c>
       <c r="G164">
-        <v>7.358877005047192</v>
+        <v>7.358877005048789</v>
       </c>
       <c r="H164">
-        <v>2.797718926074824e-7</v>
+        <v>2.797718926083406e-7</v>
       </c>
       <c r="I164">
-        <v>0.00028029892489961464</v>
+        <v>0.0002802989248996025</v>
       </c>
       <c r="J164">
-        <v>0.0019842281241802214</v>
+        <v>0.0019842281241766167</v>
       </c>
       <c r="K164">
-        <v>4.8811717038399594e-5</v>
+        <v>4.881171703837021e-5</v>
       </c>
     </row>
     <row r="165" spans="1:11">
@@ -6160,34 +6160,34 @@
         <v>0.1135</v>
       </c>
       <c r="B165">
-        <v>7.359782199905881</v>
+        <v>7.359781390250264</v>
       </c>
       <c r="C165">
         <v>2.723038710077788e-7</v>
       </c>
       <c r="D165">
-        <v>0.0002830347382057804</v>
+        <v>0.0002830347959013072</v>
       </c>
       <c r="E165">
-        <v>0.0019846601621178015</v>
+        <v>0.001984659996261213</v>
       </c>
       <c r="F165">
-        <v>4.881635945154582e-5</v>
+        <v>4.88163434783657e-5</v>
       </c>
       <c r="G165">
-        <v>7.359781390830362</v>
+        <v>7.359781390831916</v>
       </c>
       <c r="H165">
-        <v>2.723113096210961e-7</v>
+        <v>2.723113096219306e-7</v>
       </c>
       <c r="I165">
-        <v>0.000283034738763517</v>
+        <v>0.00028303473876350516</v>
       </c>
       <c r="J165">
-        <v>0.001984659986067128</v>
+        <v>0.0019846599860636077</v>
       </c>
       <c r="K165">
-        <v>4.8816343347118655e-5</v>
+        <v>4.8816343347089965e-5</v>
       </c>
     </row>
     <row r="166" spans="1:11">
@@ -6195,34 +6195,34 @@
         <v>0.1145</v>
       </c>
       <c r="B166">
-        <v>7.36068212653725</v>
+        <v>7.360681337410361</v>
       </c>
       <c r="C166">
         <v>2.648434909802032e-7</v>
       </c>
       <c r="D166">
-        <v>0.00028577072738518845</v>
+        <v>0.0002857707839908588</v>
       </c>
       <c r="E166">
-        <v>0.001985091332220569</v>
+        <v>0.001985091170236359</v>
       </c>
       <c r="F166">
-        <v>4.88209842574471e-5</v>
+        <v>4.882096866360517e-5</v>
       </c>
       <c r="G166">
-        <v>7.36068133787207</v>
+        <v>7.36068133787358</v>
       </c>
       <c r="H166">
-        <v>2.648507265901073e-7</v>
+        <v>2.648507265909183e-7</v>
       </c>
       <c r="I166">
-        <v>0.00028577072803530026</v>
+        <v>0.00028577072803528876</v>
       </c>
       <c r="J166">
-        <v>0.001985091160219412</v>
+        <v>0.0019850911602159764</v>
       </c>
       <c r="K166">
-        <v>4.8820968534905194e-5</v>
+        <v>4.8820968534877194e-5</v>
       </c>
     </row>
     <row r="167" spans="1:11">
@@ -6230,34 +6230,34 @@
         <v>0.1155</v>
       </c>
       <c r="B167">
-        <v>7.361577647886054</v>
+        <v>7.361576878758128</v>
       </c>
       <c r="C167">
         <v>2.5738311095258897e-7</v>
       </c>
       <c r="D167">
-        <v>0.0002885068902974362</v>
+        <v>0.00028850694583037946</v>
       </c>
       <c r="E167">
-        <v>0.001985521821191382</v>
+        <v>0.0019855216629900653</v>
       </c>
       <c r="F167">
-        <v>4.8825607955761696e-5</v>
+        <v>4.882559273211144e-5</v>
       </c>
       <c r="G167">
-        <v>7.36157687910808</v>
+        <v>7.361576879109547</v>
       </c>
       <c r="H167">
-        <v>2.573901435145161e-7</v>
+        <v>2.573901435153035e-7</v>
       </c>
       <c r="I167">
-        <v>0.0002885068910785916</v>
+        <v>0.0002885068910785805</v>
       </c>
       <c r="J167">
-        <v>0.00198552165315623</v>
+        <v>0.0019855216531528804</v>
       </c>
       <c r="K167">
-        <v>4.8825592606017956e-5</v>
+        <v>4.8825592605990654e-5</v>
       </c>
     </row>
     <row r="168" spans="1:11">
@@ -6265,34 +6265,34 @@
         <v>0.1165</v>
       </c>
       <c r="B168">
-        <v>7.362468796559909</v>
+        <v>7.362468046915109</v>
       </c>
       <c r="C168">
         <v>2.499227309249361e-7</v>
       </c>
       <c r="D168">
-        <v>0.0002912432253260936</v>
+        <v>0.00029124327980333247</v>
       </c>
       <c r="E168">
-        <v>0.0019859516354676643</v>
+        <v>0.001985951480961771</v>
       </c>
       <c r="F168">
-        <v>4.883023055051594e-5</v>
+        <v>4.883021568813526e-5</v>
       </c>
       <c r="G168">
-        <v>7.362468047159855</v>
+        <v>7.362468047161279</v>
       </c>
       <c r="H168">
-        <v>2.4992956039432243e-7</v>
+        <v>2.499295603950863e-7</v>
       </c>
       <c r="I168">
-        <v>0.00029124322627685874</v>
+        <v>0.00029124322627684796</v>
       </c>
       <c r="J168">
-        <v>0.0019859514713169973</v>
+        <v>0.001985951471313735</v>
       </c>
       <c r="K168">
-        <v>4.8830215564707637e-5</v>
+        <v>4.883021556468105e-5</v>
       </c>
     </row>
     <row r="169" spans="1:11">
@@ -6300,34 +6300,34 @@
         <v>0.11750000000000001</v>
       </c>
       <c r="B169">
-        <v>7.363355604855938</v>
+        <v>7.363354874191987</v>
       </c>
       <c r="C169">
         <v>2.42462350897355e-7</v>
       </c>
       <c r="D169">
-        <v>0.0002939797308742929</v>
+        <v>0.0002939797843127341</v>
       </c>
       <c r="E169">
-        <v>0.0019863807814083016</v>
+        <v>0.001986380630512332</v>
       </c>
       <c r="F169">
-        <v>4.8834852045733394e-5</v>
+        <v>4.8834837535919037e-5</v>
       </c>
       <c r="G169">
-        <v>7.363354874337995</v>
+        <v>7.363354874339375</v>
       </c>
       <c r="H169">
-        <v>2.424689772295263e-7</v>
+        <v>2.424689772302668e-7</v>
       </c>
       <c r="I169">
-        <v>0.0002939797320331223</v>
+        <v>0.0002939797320331119</v>
       </c>
       <c r="J169">
-        <v>0.0019863806210625515</v>
+        <v>0.001986380621059376</v>
       </c>
       <c r="K169">
-        <v>4.883483741521661e-5</v>
+        <v>4.883483741519075e-5</v>
       </c>
     </row>
     <row r="170" spans="1:11">
@@ -6335,34 +6335,34 @@
         <v>0.11850000000000001</v>
       </c>
       <c r="B170">
-        <v>7.364238104764163</v>
+        <v>7.364237392591977</v>
       </c>
       <c r="C170">
         <v>2.3500197086974076e-7</v>
       </c>
       <c r="D170">
-        <v>0.00029671640536444506</v>
+        <v>0.000296716457780872</v>
       </c>
       <c r="E170">
-        <v>0.001986809265294778</v>
+        <v>0.001986809117925165</v>
       </c>
       <c r="F170">
-        <v>4.883947244543449e-5</v>
+        <v>4.883945827969653e-5</v>
       </c>
       <c r="G170">
-        <v>7.364237392645638</v>
+        <v>7.364237392646974</v>
       </c>
       <c r="H170">
-        <v>2.3500839402012774e-7</v>
+        <v>2.3500839402084483e-7</v>
       </c>
       <c r="I170">
-        <v>0.00029671640676967424</v>
+        <v>0.00029671640676966427</v>
       </c>
       <c r="J170">
-        <v>0.001986809108676288</v>
+        <v>0.001986809108673201</v>
       </c>
       <c r="K170">
-        <v>4.883945816177866e-5</v>
+        <v>4.883945816175352e-5</v>
       </c>
     </row>
     <row r="171" spans="1:11">
@@ -6370,34 +6370,34 @@
         <v>0.11950000000000001</v>
       </c>
       <c r="B171">
-        <v>7.365116327970854</v>
+        <v>7.365115633814195</v>
       </c>
       <c r="C171">
         <v>2.2754159084215413e-7</v>
       </c>
       <c r="D171">
-        <v>0.0002994532472379624</v>
+        <v>0.00029945329864902726</v>
       </c>
       <c r="E171">
-        <v>0.0019872370933323035</v>
+        <v>0.001987236949407368</v>
       </c>
       <c r="F171">
-        <v>4.884409175363606e-5</v>
+        <v>4.8844077923692674e-5</v>
       </c>
       <c r="G171">
-        <v>7.365115633781823</v>
+        <v>7.365115633783115</v>
       </c>
       <c r="H171">
-        <v>2.275478107661267e-7</v>
+        <v>2.2754781076682048e-7</v>
       </c>
       <c r="I171">
-        <v>0.0002994532489278</v>
+        <v>0.0002994532489277904</v>
       </c>
       <c r="J171">
-        <v>0.0019872369403652838</v>
+        <v>0.0019872369403622857</v>
       </c>
       <c r="K171">
-        <v>4.884407780861863e-5</v>
+        <v>4.884407780859424e-5</v>
       </c>
     </row>
     <row r="172" spans="1:11">
@@ -6405,34 +6405,34 @@
         <v>0.12050000000000001</v>
       </c>
       <c r="B172">
-        <v>7.3659903058618585</v>
+        <v>7.365989629256989</v>
       </c>
       <c r="C172">
         <v>2.2008121081450677e-7</v>
       </c>
       <c r="D172">
-        <v>0.0003021902549549839</v>
+        <v>0.00030219030537720126</v>
       </c>
       <c r="E172">
-        <v>0.001987664271650913</v>
+        <v>0.001987664131090825</v>
       </c>
       <c r="F172">
-        <v>4.8848709974350974e-5</v>
+        <v>4.8848696472123216e-5</v>
       </c>
       <c r="G172">
-        <v>7.365989629144818</v>
+        <v>7.365989629146067</v>
       </c>
       <c r="H172">
-        <v>2.2008722746752328e-7</v>
+        <v>2.2008722746819376e-7</v>
       </c>
       <c r="I172">
-        <v>0.0003021902569675053</v>
+        <v>0.000302190256967496</v>
       </c>
       <c r="J172">
-        <v>0.0019876641222614042</v>
+        <v>0.0019876641222584964</v>
       </c>
       <c r="K172">
-        <v>4.884869635995226e-5</v>
+        <v>4.8848696359928614e-5</v>
       </c>
     </row>
     <row r="173" spans="1:11">
@@ -6440,34 +6440,34 @@
         <v>0.1215</v>
       </c>
       <c r="B173">
-        <v>7.3668600695258695</v>
+        <v>7.366859410021219</v>
       </c>
       <c r="C173">
         <v>2.126208307869367e-7</v>
       </c>
       <c r="D173">
-        <v>0.0003049274269941065</v>
+        <v>0.0003049274764438468</v>
       </c>
       <c r="E173">
-        <v>0.0019880908063065507</v>
+        <v>0.0019880906690332924</v>
       </c>
       <c r="F173">
-        <v>4.885332711158771e-5</v>
+        <v>4.885331392919451e-5</v>
       </c>
       <c r="G173">
-        <v>7.366859409835409</v>
+        <v>7.366859409836615</v>
       </c>
       <c r="H173">
-        <v>2.1262664412431743e-7</v>
+        <v>2.1262664412496464e-7</v>
       </c>
       <c r="I173">
-        <v>0.0003049274293672471</v>
+        <v>0.0003049274293672381</v>
       </c>
       <c r="J173">
-        <v>0.0019880906604223844</v>
+        <v>0.0019880906604195676</v>
       </c>
       <c r="K173">
-        <v>4.8853313819985875e-5</v>
+        <v>4.8853313819962985e-5</v>
       </c>
     </row>
     <row r="174" spans="1:11">
@@ -6475,34 +6475,34 @@
         <v>0.12249999999999998</v>
       </c>
       <c r="B174">
-        <v>7.367725649757677</v>
+        <v>7.367725006913515</v>
       </c>
       <c r="C174">
         <v>2.0516045075928932e-7</v>
       </c>
       <c r="D174">
-        <v>0.00030766476185212</v>
+        <v>0.000307664810345604</v>
       </c>
       <c r="E174">
-        <v>0.0019885167032821405</v>
+        <v>0.001988516569219465</v>
       </c>
       <c r="F174">
-        <v>4.885794316935006e-5</v>
+        <v>4.885793029910325e-5</v>
       </c>
       <c r="G174">
-        <v>7.367725006660155</v>
+        <v>7.367725006661318</v>
       </c>
       <c r="H174">
-        <v>2.0516606073650913e-7</v>
+        <v>2.051660607371331e-7</v>
       </c>
       <c r="I174">
-        <v>0.00030766476462366937</v>
+        <v>0.00030766476462366096</v>
       </c>
       <c r="J174">
-        <v>0.0019885165608328997</v>
+        <v>0.0019885165608301753</v>
       </c>
       <c r="K174">
-        <v>4.8857930192916125e-5</v>
+        <v>4.885793019289399e-5</v>
       </c>
     </row>
     <row r="175" spans="1:11">
@@ -6510,34 +6510,34 @@
         <v>0.12349999999999998</v>
       </c>
       <c r="B175">
-        <v>7.368587077061376</v>
+        <v>7.368586450449503</v>
       </c>
       <c r="C175">
         <v>1.9770007073171375e-7</v>
       </c>
       <c r="D175">
-        <v>0.00031040225804374624</v>
+        <v>0.00031040230559703974</v>
       </c>
       <c r="E175">
-        <v>0.001988941968488636</v>
+        <v>0.001988941837562028</v>
       </c>
       <c r="F175">
-        <v>4.8862558151636686e-5</v>
+        <v>4.8862545586036257e-5</v>
       </c>
       <c r="G175">
-        <v>7.368586450134602</v>
+        <v>7.368586450135721</v>
       </c>
       <c r="H175">
-        <v>1.9770547730409843e-7</v>
+        <v>1.9770547730469918e-7</v>
       </c>
       <c r="I175">
-        <v>0.0003104022612513432</v>
+        <v>0.00031040226125133517</v>
       </c>
       <c r="J175">
-        <v>0.0019889418294056172</v>
+        <v>0.0019889418294029865</v>
       </c>
       <c r="K175">
-        <v>4.886254548292981e-5</v>
+        <v>4.886254548290842e-5</v>
       </c>
     </row>
     <row r="176" spans="1:11">
@@ -6545,34 +6545,34 @@
         <v>0.12449999999999999</v>
       </c>
       <c r="B176">
-        <v>7.369444381653533</v>
+        <v>7.369443770856969</v>
       </c>
       <c r="C176">
         <v>1.90239690704094e-7</v>
       </c>
       <c r="D176">
-        <v>0.00031313991410138284</v>
+        <v>0.0003131399607303921</v>
       </c>
       <c r="E176">
-        <v>0.0019893666077660495</v>
+        <v>0.0019893664799026925</v>
       </c>
       <c r="F176">
-        <v>4.886717206244084e-5</v>
+        <v>4.886715979417019e-5</v>
       </c>
       <c r="G176">
-        <v>7.369443770486467</v>
+        <v>7.369443770487543</v>
       </c>
       <c r="H176">
-        <v>1.902448938270853e-7</v>
+        <v>1.902448938276629e-7</v>
       </c>
       <c r="I176">
-        <v>0.0003131399177825104</v>
+        <v>0.0003131399177825028</v>
       </c>
       <c r="J176">
-        <v>0.0019893664719822287</v>
+        <v>0.0019893664719796917</v>
       </c>
       <c r="K176">
-        <v>4.8867159694203585e-5</v>
+        <v>4.8867159694182945e-5</v>
       </c>
     </row>
     <row r="177" spans="1:11">
@@ -6580,34 +6580,34 @@
         <v>0.1255</v>
       </c>
       <c r="B177">
-        <v>7.370297593466336</v>
+        <v>7.37029699807902</v>
       </c>
       <c r="C177">
         <v>1.827793106764687e-7</v>
       </c>
       <c r="D177">
-        <v>0.000315877728574851</v>
+        <v>0.0003158777742953177</v>
       </c>
       <c r="E177">
-        <v>0.0019897906268844744</v>
+        <v>0.00198979050201321</v>
       </c>
       <c r="F177">
-        <v>4.887178490574996e-5</v>
+        <v>4.887177292767142e-5</v>
       </c>
       <c r="G177">
-        <v>7.370296997658785</v>
+        <v>7.370296997659817</v>
       </c>
       <c r="H177">
-        <v>1.8278431030546972e-7</v>
+        <v>1.827843103060242e-7</v>
       </c>
       <c r="I177">
-        <v>0.0003158777327668321</v>
+        <v>0.00031587773276682486</v>
       </c>
       <c r="J177">
-        <v>0.0019897904943344666</v>
+        <v>0.001989790494332025</v>
       </c>
       <c r="K177">
-        <v>4.887177283090378e-5</v>
+        <v>4.88717728308839e-5</v>
       </c>
     </row>
     <row r="178" spans="1:11">
@@ -6615,34 +6615,34 @@
         <v>0.1265</v>
       </c>
       <c r="B178">
-        <v>7.371146742150686</v>
+        <v>7.371146161777186</v>
       </c>
       <c r="C178">
         <v>1.7531893064889865e-7</v>
       </c>
       <c r="D178">
-        <v>0.000318615700031147</v>
+        <v>0.0003186157448586453</v>
       </c>
       <c r="E178">
-        <v>0.001990214031545082</v>
+        <v>0.0019902139095963754</v>
       </c>
       <c r="F178">
-        <v>4.8876396685545405e-5</v>
+        <v>4.887638499069574e-5</v>
       </c>
       <c r="G178">
-        <v>7.371146161313014</v>
+        <v>7.371146161314002</v>
       </c>
       <c r="H178">
-        <v>1.753237267392518e-7</v>
+        <v>1.7532372673978322e-7</v>
       </c>
       <c r="I178">
-        <v>0.00031861570477114017</v>
+        <v>0.0003186157047711333</v>
       </c>
       <c r="J178">
-        <v>0.001990213902165108</v>
+        <v>0.0019902139021627614</v>
       </c>
       <c r="K178">
-        <v>4.887638489718612e-5</v>
+        <v>4.8876384897167006e-5</v>
       </c>
     </row>
     <row r="179" spans="1:11">
@@ -6650,34 +6650,34 @@
         <v>0.1275</v>
       </c>
       <c r="B179">
-        <v>7.3719918570792675</v>
+        <v>7.3719912913345</v>
       </c>
       <c r="C179">
         <v>1.678585506212789e-7</v>
       </c>
       <c r="D179">
-        <v>0.00032135382705419805</v>
+        <v>0.0003213538710041308</v>
       </c>
       <c r="E179">
-        <v>0.001990636827381103</v>
+        <v>0.001990636708287009</v>
       </c>
       <c r="F179">
-        <v>4.8881007405802075e-5</v>
+        <v>4.8880995987388165e-5</v>
       </c>
       <c r="G179">
-        <v>7.371991290832118</v>
+        <v>7.371991290833062</v>
       </c>
       <c r="H179">
-        <v>1.6786314312843144e-7</v>
+        <v>1.6786314312893987e-7</v>
       </c>
       <c r="I179">
-        <v>0.0003213538323791947</v>
+        <v>0.00032135383237918817</v>
       </c>
       <c r="J179">
-        <v>0.0019906367011089557</v>
+        <v>0.001990636701106705</v>
       </c>
       <c r="K179">
-        <v>4.888099589719566e-5</v>
+        <v>4.888099589717731e-5</v>
       </c>
     </row>
     <row r="180" spans="1:11">
@@ -6685,34 +6685,34 @@
         <v>0.1285</v>
       </c>
       <c r="B180">
-        <v>7.372832967349582</v>
+        <v>7.372832415858536</v>
       </c>
       <c r="C180">
         <v>1.6039817059365915e-7</v>
       </c>
       <c r="D180">
-        <v>0.0003240921082446227</v>
+        <v>0.00032409215133221754</v>
       </c>
       <c r="E180">
-        <v>0.0019910590199588027</v>
+        <v>0.001991058903652929</v>
       </c>
       <c r="F180">
-        <v>4.8885617070488176e-5</v>
+        <v>4.888560592188279e-5</v>
       </c>
       <c r="G180">
-        <v>7.372832415323601</v>
+        <v>7.372832415324502</v>
       </c>
       <c r="H180">
-        <v>1.604025594730087e-7</v>
+        <v>1.6040255947349414e-7</v>
       </c>
       <c r="I180">
-        <v>0.00032409211419144287</v>
+        <v>0.0003240921141914367</v>
       </c>
       <c r="J180">
-        <v>0.0019910588967338096</v>
+        <v>0.001991058896731656</v>
       </c>
       <c r="K180">
-        <v>4.888560583506641e-5</v>
+        <v>4.888560583504883e-5</v>
       </c>
     </row>
     <row r="181" spans="1:11">
@@ -6720,34 +6720,34 @@
         <v>0.1295</v>
       </c>
       <c r="B181">
-        <v>7.37367010178695</v>
+        <v>7.373669564184415</v>
       </c>
       <c r="C181">
         <v>1.529377905660449e-7</v>
       </c>
       <c r="D181">
-        <v>0.00032683054221949333</v>
+        <v>0.0003268305844598012</v>
       </c>
       <c r="E181">
-        <v>0.0019914806147784273</v>
+        <v>0.0019914805011959007</v>
       </c>
       <c r="F181">
-        <v>4.8890225683564855e-5</v>
+        <v>4.889021479830253e-5</v>
       </c>
       <c r="G181">
-        <v>7.37366956362252</v>
+        <v>7.373669563623375</v>
       </c>
       <c r="H181">
-        <v>1.5294197577298348e-7</v>
+        <v>1.5294197577344604e-7</v>
       </c>
       <c r="I181">
-        <v>0.00032683054882478376</v>
+        <v>0.0003268305488247779</v>
       </c>
       <c r="J181">
-        <v>0.0019914804945414173</v>
+        <v>0.001991480494539362</v>
       </c>
       <c r="K181">
-        <v>4.8890214714921286e-5</v>
+        <v>4.889021471490449e-5</v>
       </c>
     </row>
     <row r="182" spans="1:11">
@@ -6755,34 +6755,34 @@
         <v>0.1305</v>
       </c>
       <c r="B182">
-        <v>7.374503288947473</v>
+        <v>7.374502764877782</v>
       </c>
       <c r="C182">
         <v>1.4547741053842515e-7</v>
       </c>
       <c r="D182">
-        <v>0.00032956912761210436</v>
+        <v>0.00032956916901999607</v>
       </c>
       <c r="E182">
-        <v>0.001991901617275141</v>
+        <v>0.0019919015063525765</v>
       </c>
       <c r="F182">
-        <v>4.889483324898594e-5</v>
+        <v>4.889482262075899e-5</v>
       </c>
       <c r="G182">
-        <v>7.374502764294449</v>
+        <v>7.3745027642952605</v>
       </c>
       <c r="H182">
-        <v>1.4548139202835585e-7</v>
+        <v>1.4548139202879557e-7</v>
       </c>
       <c r="I182">
-        <v>0.00032956913491233547</v>
+        <v>0.00032956913491233005</v>
       </c>
       <c r="J182">
-        <v>0.0019919014999684147</v>
+        <v>0.001991901499966457</v>
       </c>
       <c r="K182">
-        <v>4.889482254087186e-5</v>
+        <v>4.889482254085584e-5</v>
       </c>
     </row>
     <row r="183" spans="1:11">
@@ -6790,34 +6790,34 @@
         <v>0.1315</v>
       </c>
       <c r="B183">
-        <v>7.3753325571209665</v>
+        <v>7.375332046237739</v>
       </c>
       <c r="C183">
         <v>1.3801703051085233e-7</v>
       </c>
       <c r="D183">
-        <v>0.00033230786307174336</v>
+        <v>0.0003323079036619078</v>
       </c>
       <c r="E183">
-        <v>0.001992322032819953</v>
+        <v>0.0019923219244954186</v>
       </c>
       <c r="F183">
-        <v>4.889943977069769e-5</v>
+        <v>4.889942939335225e-5</v>
       </c>
       <c r="G183">
-        <v>7.375332045638426</v>
+        <v>7.375332045639192</v>
       </c>
       <c r="H183">
-        <v>1.3802080823912577e-7</v>
+        <v>1.380208082395427e-7</v>
       </c>
       <c r="I183">
-        <v>0.0003323078711032072</v>
+        <v>0.0003323078711032021</v>
       </c>
       <c r="J183">
-        <v>0.001992321918387246</v>
+        <v>0.0019923219183853873</v>
       </c>
       <c r="K183">
-        <v>4.889942931701818e-5</v>
+        <v>4.8899429317002935e-5</v>
       </c>
     </row>
     <row r="184" spans="1:11">
@@ -6825,34 +6825,34 @@
         <v>0.1325</v>
       </c>
       <c r="B184">
-        <v>7.376157934333853</v>
+        <v>7.376157436299755</v>
       </c>
       <c r="C184">
         <v>1.3055665048323256e-7</v>
       </c>
       <c r="D184">
-        <v>0.0003350467472634652</v>
+        <v>0.00033504678705040773</v>
       </c>
       <c r="E184">
-        <v>0.0019927418667206208</v>
+        <v>0.001992741760933606</v>
       </c>
       <c r="F184">
-        <v>4.89040452526385e-5</v>
+        <v>4.890403512017071e-5</v>
       </c>
       <c r="G184">
-        <v>7.376157435689851</v>
+        <v>7.376157435690574</v>
       </c>
       <c r="H184">
-        <v>1.3056022440529327e-7</v>
+        <v>1.3056022440568745e-7</v>
       </c>
       <c r="I184">
-        <v>0.00033504675606227385</v>
+        <v>0.000335046756062269</v>
       </c>
       <c r="J184">
-        <v>0.001992741755107074</v>
+        <v>0.0019927417551053135</v>
       </c>
       <c r="K184">
-        <v>4.890403504744862e-5</v>
+        <v>4.8904035047434184e-5</v>
       </c>
     </row>
     <row r="185" spans="1:11">
@@ -6860,34 +6860,34 @@
         <v>0.1335</v>
       </c>
       <c r="B185">
-        <v>7.376979448352039</v>
+        <v>7.376978962838531</v>
       </c>
       <c r="C185">
         <v>1.2309627045557967e-7</v>
       </c>
       <c r="D185">
-        <v>0.0003377857788678715</v>
+        <v>0.00033778581786591205</v>
       </c>
       <c r="E185">
-        <v>0.001993161124222542</v>
+        <v>0.001993161020913929</v>
       </c>
       <c r="F185">
-        <v>4.890864969873863e-5</v>
+        <v>4.8908639805290955e-5</v>
       </c>
       <c r="G185">
-        <v>7.376978962223367</v>
+        <v>7.376978962224046</v>
       </c>
       <c r="H185">
-        <v>1.2309964052685828e-7</v>
+        <v>1.230996405272298e-7</v>
       </c>
       <c r="I185">
-        <v>0.00033778578846995486</v>
+        <v>0.0003377857884699503</v>
       </c>
       <c r="J185">
-        <v>0.001993161015374671</v>
+        <v>0.001993161015373009</v>
       </c>
       <c r="K185">
-        <v>4.890863973623974e-5</v>
+        <v>4.8908639736226084e-5</v>
       </c>
     </row>
     <row r="186" spans="1:11">
@@ -6895,34 +6895,34 @@
         <v>0.1345</v>
       </c>
       <c r="B186">
-        <v>7.377797126683733</v>
+        <v>7.377796653370848</v>
       </c>
       <c r="C186">
         <v>1.1563589042799856e-7</v>
       </c>
       <c r="D186">
-        <v>0.00034052495658089174</v>
+        <v>0.00034052499480416345</v>
       </c>
       <c r="E186">
-        <v>0.001993579810509638</v>
+        <v>0.0019935797096216653</v>
       </c>
       <c r="F186">
-        <v>4.8913253112919964e-5</v>
+        <v>4.891324345277754e-5</v>
       </c>
       <c r="G186">
-        <v>7.377796652755687</v>
+        <v>7.377796652756322</v>
       </c>
       <c r="H186">
-        <v>1.156390566038209e-7</v>
+        <v>1.1563905660416979e-7</v>
       </c>
       <c r="I186">
-        <v>0.00034052496702199664</v>
+        <v>0.00034052496702199246</v>
       </c>
       <c r="J186">
-        <v>0.0019935797043753004</v>
+        <v>0.001993579704373738</v>
       </c>
       <c r="K186">
-        <v>4.891324338745607e-5</v>
+        <v>4.8913243387443206e-5</v>
       </c>
     </row>
     <row r="187" spans="1:11">
@@ -6930,34 +6930,34 @@
         <v>0.1355</v>
       </c>
       <c r="B187">
-        <v>7.3786109965822595</v>
+        <v>7.3786105351583675</v>
       </c>
       <c r="C187">
         <v>1.0817551040038433e-7</v>
       </c>
       <c r="D187">
-        <v>0.00034326427911356914</v>
+        <v>0.00034326431657601776</v>
       </c>
       <c r="E187">
-        <v>0.001993997930705211</v>
+        <v>0.0019939978321814504</v>
       </c>
       <c r="F187">
-        <v>4.891785549909579e-5</v>
+        <v>4.89178460666829e-5</v>
       </c>
       <c r="G187">
-        <v>7.378610534548412</v>
+        <v>7.3786105345490025</v>
       </c>
       <c r="H187">
-        <v>1.0817847263618111e-7</v>
+        <v>1.0817847263650736e-7</v>
       </c>
       <c r="I187">
-        <v>0.0003432642904292581</v>
+        <v>0.0003432642904292543</v>
       </c>
       <c r="J187">
-        <v>0.0019939978272335798</v>
+        <v>0.001993997827232118</v>
       </c>
       <c r="K187">
-        <v>4.8917846005149994e-5</v>
+        <v>4.8917846005137926e-5</v>
       </c>
     </row>
     <row r="188" spans="1:11">
@@ -6965,34 +6965,34 @@
         <v>0.1365</v>
       </c>
       <c r="B188">
-        <v>7.379421085048822</v>
+        <v>7.379420635210409</v>
       </c>
       <c r="C188">
         <v>1.00715130372806e-7</v>
       </c>
       <c r="D188">
-        <v>0.000346003745191849</v>
+        <v>0.000346003781907232</v>
       </c>
       <c r="E188">
-        <v>0.001994415489872802</v>
+        <v>0.0019944153936581237</v>
       </c>
       <c r="F188">
-        <v>4.8922456861170575e-5</v>
+        <v>4.892244765104714e-5</v>
       </c>
       <c r="G188">
-        <v>7.3794206346107964</v>
+        <v>7.379420634611345</v>
       </c>
       <c r="H188">
-        <v>1.007178886239389e-7</v>
+        <v>1.0071788862424254e-7</v>
       </c>
       <c r="I188">
-        <v>0.00034600375741749976</v>
+        <v>0.00034600375741749634</v>
       </c>
       <c r="J188">
-        <v>0.001994415389014333</v>
+        <v>0.0019944153890129714</v>
       </c>
       <c r="K188">
-        <v>4.8922447593361616e-5</v>
+        <v>4.892244759335037e-5</v>
       </c>
     </row>
     <row r="189" spans="1:11">
@@ -7000,34 +7000,34 @@
         <v>0.1375</v>
       </c>
       <c r="B189">
-        <v>7.38022741883523</v>
+        <v>7.38022698028669</v>
       </c>
       <c r="C189">
         <v>9.3254750345189e-8</v>
       </c>
       <c r="D189">
-        <v>0.00034874335355637183</v>
+        <v>0.00034874338953825744</v>
       </c>
       <c r="E189">
-        <v>0.0019948324930170237</v>
+        <v>0.001994832399057569</v>
       </c>
       <c r="F189">
-        <v>4.892705720303966e-5</v>
+        <v>4.892704820989797e-5</v>
       </c>
       <c r="G189">
-        <v>7.380226979702499</v>
+        <v>7.3802269797030045</v>
       </c>
       <c r="H189">
-        <v>9.325730456709429e-8</v>
+        <v>9.325730456737534e-8</v>
       </c>
       <c r="I189">
-        <v>0.0003487433667271762</v>
+        <v>0.00034874336672717303</v>
       </c>
       <c r="J189">
-        <v>0.001994832394723428</v>
+        <v>0.001994832394722166</v>
       </c>
       <c r="K189">
-        <v>4.892704815611863e-5</v>
+        <v>4.8927048156108185e-5</v>
       </c>
     </row>
     <row r="190" spans="1:11">
@@ -7035,34 +7035,34 @@
         <v>0.1385</v>
       </c>
       <c r="B190">
-        <v>7.381030024446622</v>
+        <v>7.381029596900036</v>
       </c>
       <c r="C190">
         <v>8.579437031753334e-8</v>
       </c>
       <c r="D190">
-        <v>0.00035148310296226825</v>
+        <v>0.0003514831382240354</v>
       </c>
       <c r="E190">
-        <v>0.001995248945084383</v>
+        <v>0.001995248853327536</v>
       </c>
       <c r="F190">
-        <v>4.893165652858914e-5</v>
+        <v>4.8931647747250534e-5</v>
       </c>
       <c r="G190">
-        <v>7.381029596336287</v>
+        <v>7.38102959633675</v>
       </c>
       <c r="H190">
-        <v>8.579672046564724e-8</v>
+        <v>8.579672046590574e-8</v>
       </c>
       <c r="I190">
-        <v>0.00035148311711323175</v>
+        <v>0.00035148311711322893</v>
       </c>
       <c r="J190">
-        <v>0.001995248849308601</v>
+        <v>0.0019952488493074393</v>
       </c>
       <c r="K190">
-        <v>4.8931647697436107e-5</v>
+        <v>4.89316476974265e-5</v>
       </c>
     </row>
     <row r="191" spans="1:11">
@@ -7070,34 +7070,34 @@
         <v>0.1395</v>
       </c>
       <c r="B191">
-        <v>7.381828928144125</v>
+        <v>7.381828511319068</v>
       </c>
       <c r="C191">
         <v>7.8333990289955e-8</v>
       </c>
       <c r="D191">
-        <v>0.00035422299217895766</v>
+        <v>0.0003542230267337958</v>
       </c>
       <c r="E191">
-        <v>0.001995664850964097</v>
+        <v>0.0019956647613584575</v>
       </c>
       <c r="F191">
-        <v>4.893625484169561e-5</v>
+        <v>4.893624626710724e-5</v>
       </c>
       <c r="G191">
-        <v>7.381828510780719</v>
+        <v>7.381828510781139</v>
       </c>
       <c r="H191">
-        <v>7.833613631959778e-8</v>
+        <v>7.833613631983374e-8</v>
       </c>
       <c r="I191">
-        <v>0.0003542230073448997</v>
+        <v>0.0003542230073448973</v>
       </c>
       <c r="J191">
-        <v>0.0019956647576602664</v>
+        <v>0.0019956647576592048</v>
       </c>
       <c r="K191">
-        <v>4.8936246221316475e-5</v>
+        <v>4.8936246221307707e-5</v>
       </c>
     </row>
     <row r="192" spans="1:11">
@@ -7105,34 +7105,34 @@
         <v>0.1405</v>
       </c>
       <c r="B192">
-        <v>7.382624155947507</v>
+        <v>7.382623749570839</v>
       </c>
       <c r="C192">
         <v>7.087361026233938e-8</v>
       </c>
       <c r="D192">
-        <v>0.0003569630199899507</v>
+        <v>0.00035696305385085966</v>
       </c>
       <c r="E192">
-        <v>0.001996080215488884</v>
+        <v>0.001996080127984239</v>
       </c>
       <c r="F192">
-        <v>4.8940852146225954e-5</v>
+        <v>4.894084377345774e-5</v>
       </c>
       <c r="G192">
-        <v>7.382623749062791</v>
+        <v>7.382623749063169</v>
       </c>
       <c r="H192">
-        <v>7.087555212894591e-8</v>
+        <v>7.087555212915934e-8</v>
       </c>
       <c r="I192">
-        <v>0.0003569630362055042</v>
+        <v>0.0003569630362055021</v>
       </c>
       <c r="J192">
-        <v>0.0019960801246123165</v>
+        <v>0.0019960801246113554</v>
       </c>
       <c r="K192">
-        <v>4.894084373174935e-5</v>
+        <v>4.894084373174141e-5</v>
       </c>
     </row>
     <row r="193" spans="1:11">
@@ -7140,34 +7140,34 @@
         <v>0.14150000000000001</v>
       </c>
       <c r="B193">
-        <v>7.383415733637784</v>
+        <v>7.383415337443466</v>
       </c>
       <c r="C193">
         <v>6.341323023476242e-8</v>
       </c>
       <c r="D193">
-        <v>0.0003597031851926538</v>
+        <v>0.0003597032183724441</v>
       </c>
       <c r="E193">
-        <v>0.0019964950434357546</v>
+        <v>0.0019964949579830524</v>
       </c>
       <c r="F193">
-        <v>4.8945448446037174e-5</v>
+        <v>4.894544027027875e-5</v>
       </c>
       <c r="G193">
-        <v>7.383415336970561</v>
+        <v>7.383415336970898</v>
       </c>
       <c r="H193">
-        <v>6.341496789369161e-8</v>
+        <v>6.341496789388254e-8</v>
       </c>
       <c r="I193">
-        <v>0.0003597032024922657</v>
+        <v>0.00035970320249226374</v>
       </c>
       <c r="J193">
-        <v>0.0019964949549429083</v>
+        <v>0.0019964949549420474</v>
       </c>
       <c r="K193">
-        <v>4.8945440232711396e-5</v>
+        <v>4.8945440232704294e-5</v>
       </c>
     </row>
     <row r="194" spans="1:11">
@@ -7175,34 +7175,34 @@
         <v>0.14250000000000002</v>
       </c>
       <c r="B194">
-        <v>7.384203686759805</v>
+        <v>7.384203300488705</v>
       </c>
       <c r="C194">
         <v>5.595285020710815e-8</v>
       </c>
       <c r="D194">
-        <v>0.00036244348659817825</v>
+        <v>0.00036244351910947134</v>
       </c>
       <c r="E194">
-        <v>0.0019969093395267802</v>
+        <v>0.0019969092560781043</v>
       </c>
       <c r="F194">
-        <v>4.89500437449762e-5</v>
+        <v>4.895003576153391e-5</v>
       </c>
       <c r="G194">
-        <v>7.384203300055729</v>
+        <v>7.384203300056025</v>
       </c>
       <c r="H194">
-        <v>5.59543836138349e-8</v>
+        <v>5.5954383614003336e-8</v>
       </c>
       <c r="I194">
-        <v>0.00036244350501610885</v>
+        <v>0.0003624435050161071</v>
       </c>
       <c r="J194">
-        <v>0.0019969092533752325</v>
+        <v>0.0019969092533744727</v>
       </c>
       <c r="K194">
-        <v>4.895003572816626e-5</v>
+        <v>4.895003572815999e-5</v>
       </c>
     </row>
     <row r="195" spans="1:11">
@@ -7210,34 +7210,34 @@
         <v>0.14350000000000002</v>
       </c>
       <c r="B195">
-        <v>7.384988040624805</v>
+        <v>7.384987664024515</v>
       </c>
       <c r="C195">
         <v>4.849247017949115e-8</v>
       </c>
       <c r="D195">
-        <v>0.00036518392303115004</v>
+        <v>0.00036518395488637883</v>
       </c>
       <c r="E195">
-        <v>0.001997323108429856</v>
+        <v>0.0019973230269383995</v>
       </c>
       <c r="F195">
-        <v>4.8954638046879694e-5</v>
+        <v>4.8954630251173745e-5</v>
       </c>
       <c r="G195">
-        <v>7.384987663636199</v>
+        <v>7.384987663636455</v>
       </c>
       <c r="H195">
-        <v>4.849379928937578e-8</v>
+        <v>4.849379928952173e-8</v>
       </c>
       <c r="I195">
-        <v>0.00036518394260147473</v>
+        <v>0.00036518394260147326</v>
       </c>
       <c r="J195">
-        <v>0.0019973230245782805</v>
+        <v>0.001997323024577622</v>
       </c>
       <c r="K195">
-        <v>4.8954630222064415e-5</v>
+        <v>4.8954630222059e-5</v>
       </c>
     </row>
     <row r="196" spans="1:11">
@@ -7245,34 +7245,34 @@
         <v>0.14450000000000002</v>
       </c>
       <c r="B196">
-        <v>7.385768820312926</v>
+        <v>7.385768453137591</v>
       </c>
       <c r="C196">
         <v>4.1032090151912813e-8</v>
       </c>
       <c r="D196">
-        <v>0.0003679244933295257</v>
+        <v>0.00036792452454093526</v>
       </c>
       <c r="E196">
-        <v>0.0019977363547594475</v>
+        <v>0.0019977362751794877</v>
       </c>
       <c r="F196">
-        <v>4.895923135557388e-5</v>
+        <v>4.895922374313552e-5</v>
       </c>
       <c r="G196">
-        <v>7.385768452798607</v>
+        <v>7.385768452798822</v>
       </c>
       <c r="H196">
-        <v>4.103321492031424e-8</v>
+        <v>4.103321492043772e-8</v>
       </c>
       <c r="I196">
-        <v>0.00036792451408613444</v>
+        <v>0.000367924514086133</v>
       </c>
       <c r="J196">
-        <v>0.0019977362731675875</v>
+        <v>0.00199773627316703</v>
       </c>
       <c r="K196">
-        <v>4.895922371834313e-5</v>
+        <v>4.895922371833855e-5</v>
       </c>
     </row>
     <row r="197" spans="1:11">
@@ -7280,34 +7280,34 @@
         <v>0.14550000000000002</v>
       </c>
       <c r="B197">
-        <v>7.386546050675716</v>
+        <v>7.3865456926858535</v>
       </c>
       <c r="C197">
         <v>3.357171012429719e-8</v>
       </c>
       <c r="D197">
-        <v>0.0003706651963444079</v>
+        <v>0.00037066522692405605</v>
       </c>
       <c r="E197">
-        <v>0.001998149083077329</v>
+        <v>0.0019981490053642033</v>
       </c>
       <c r="F197">
-        <v>4.896382367487441e-5</v>
+        <v>4.896381624134318e-5</v>
       </c>
       <c r="G197">
-        <v>7.386545692400819</v>
+        <v>7.386545692400994</v>
       </c>
       <c r="H197">
-        <v>3.357263050665029e-8</v>
+        <v>3.357263050675131e-8</v>
       </c>
       <c r="I197">
-        <v>0.0003706652183210066</v>
+        <v>0.0003706652183210054</v>
       </c>
       <c r="J197">
-        <v>0.0019981490037059733</v>
+        <v>0.001998149003705518</v>
       </c>
       <c r="K197">
-        <v>4.8963816220926295e-5</v>
+        <v>4.8963816220922555e-5</v>
       </c>
     </row>
     <row r="198" spans="1:11">
@@ -7315,34 +7315,34 @@
         <v>0.14650000000000002</v>
       </c>
       <c r="B198">
-        <v>7.387319756338587</v>
+        <v>7.387319407300919</v>
       </c>
       <c r="C198">
         <v>2.6111330096679507e-8</v>
       </c>
       <c r="D198">
-        <v>0.0003734060309398663</v>
+        <v>0.0003734060608996244</v>
       </c>
       <c r="E198">
-        <v>0.001998561297893308</v>
+        <v>0.00199856122200339</v>
       </c>
       <c r="F198">
-        <v>4.896841500858615e-5</v>
+        <v>4.89684077497072e-5</v>
       </c>
       <c r="G198">
-        <v>7.387319407074401</v>
+        <v>7.3873194070745365</v>
       </c>
       <c r="H198">
-        <v>2.611204604838393e-8</v>
+        <v>2.6112046048462494e-8</v>
       </c>
       <c r="I198">
-        <v>0.0003734060541699775</v>
+        <v>0.00037340605416997656</v>
       </c>
       <c r="J198">
-        <v>0.0019985612207042676</v>
+        <v>0.0019985612207039137</v>
       </c>
       <c r="K198">
-        <v>4.8968407733724384e-5</v>
+        <v>4.896840773372147e-5</v>
       </c>
     </row>
     <row r="199" spans="1:11">
@@ -7350,34 +7350,34 @@
         <v>0.14750000000000002</v>
       </c>
       <c r="B199">
-        <v>7.388089961703257</v>
+        <v>7.388089621390549</v>
       </c>
       <c r="C199">
         <v>1.8650950069062858e-8</v>
       </c>
       <c r="D199">
-        <v>0.00037614699599276027</v>
+        <v>0.0003761470253443148</v>
       </c>
       <c r="E199">
-        <v>0.0019989730036659367</v>
+        <v>0.0019989729295566117</v>
       </c>
       <c r="F199">
-        <v>4.897300536050306e-5</v>
+        <v>4.8972998272124576e-5</v>
       </c>
       <c r="G199">
-        <v>7.388089621227057</v>
+        <v>7.388089621227155</v>
       </c>
       <c r="H199">
-        <v>1.8651461545515162e-8</v>
+        <v>1.8651461545571275e-8</v>
       </c>
       <c r="I199">
-        <v>0.00037614702050972403</v>
+        <v>0.00037614702050972344</v>
       </c>
       <c r="J199">
-        <v>0.001998972928622022</v>
+        <v>0.0019989729286217692</v>
       </c>
       <c r="K199">
-        <v>4.897299826063434e-5</v>
+        <v>4.8972998260632276e-5</v>
       </c>
     </row>
     <row r="200" spans="1:11">
@@ -7385,34 +7385,34 @@
         <v>0.14850000000000002</v>
       </c>
       <c r="B200">
-        <v>7.388856690950159</v>
+        <v>7.388856359141055</v>
       </c>
       <c r="C200">
         <v>1.1190570041446549e-8</v>
       </c>
       <c r="D200">
-        <v>0.00037888809039256433</v>
+        <v>0.00037888811914741727</v>
       </c>
       <c r="E200">
-        <v>0.001999384204803219</v>
+        <v>0.0019993841324328627</v>
       </c>
       <c r="F200">
-        <v>4.8977594734408045e-5</v>
+        <v>4.8977587812478666e-5</v>
       </c>
       <c r="G200">
-        <v>7.388856359045051</v>
+        <v>7.388856359045109</v>
       </c>
       <c r="H200">
-        <v>1.1190876998043989e-8</v>
+        <v>1.1190876998077655e-8</v>
       </c>
       <c r="I200">
-        <v>0.00037888811622953925</v>
+        <v>0.000378888116229539</v>
       </c>
       <c r="J200">
-        <v>0.0019993841318682154</v>
+        <v>0.001999384131868064</v>
       </c>
       <c r="K200">
-        <v>4.8977587805539535e-5</v>
+        <v>4.897758780553829e-5</v>
       </c>
     </row>
     <row r="201" spans="1:11">
@@ -7420,34 +7420,34 @@
         <v>0.14950000000000002</v>
       </c>
       <c r="B201">
-        <v>7.3896199680408134</v>
+        <v>7.38961964451969</v>
       </c>
       <c r="C201">
         <v>3.730190013869243e-9</v>
       </c>
       <c r="D201">
-        <v>0.00038162931304119656</v>
+        <v>0.0003816293412106668</v>
       </c>
       <c r="E201">
-        <v>0.001999794905663298</v>
+        <v>0.001999794834991253</v>
       </c>
       <c r="F201">
-        <v>4.8982183134072814e-5</v>
+        <v>4.8982176374639184e-5</v>
       </c>
       <c r="G201">
-        <v>7.3896196444955775</v>
+        <v>7.389619644495596</v>
       </c>
       <c r="H201">
-        <v>3.730292405970406e-9</v>
+        <v>3.7302924059816274e-9</v>
       </c>
       <c r="I201">
-        <v>0.000381629340231161</v>
+        <v>0.0003816293402311609</v>
       </c>
       <c r="J201">
-        <v>0.001999794834801945</v>
+        <v>0.0019997948348018943</v>
       </c>
       <c r="K201">
-        <v>4.898217637230961e-5</v>
+        <v>4.898217637230919e-5</v>
       </c>
     </row>
   </sheetData>

--- a/examples/analytical/pHBB1991/pHBB1991.uniform2x_analytical.solution.xlsx
+++ b/examples/analytical/pHBB1991/pHBB1991.uniform2x_analytical.solution.xlsx
@@ -461,28 +461,28 @@
         <v>0.0002477371068645818</v>
       </c>
       <c r="D2">
-        <v>-1.14883633848593e-7</v>
+        <v>-1.1488363384858805e-7</v>
       </c>
       <c r="E2">
-        <v>0.001999547523802508</v>
+        <v>0.001999547523802507</v>
       </c>
       <c r="F2">
         <v>4.897147100062461e-5</v>
       </c>
       <c r="G2">
-        <v>8.142585266786552</v>
+        <v>8.14258526678637</v>
       </c>
       <c r="H2">
-        <v>0.00024773710743651654</v>
+        <v>0.00024773710743651643</v>
       </c>
       <c r="I2">
-        <v>-1.1488416805414948e-7</v>
+        <v>-1.1488416805373905e-7</v>
       </c>
       <c r="J2">
-        <v>0.0019995475243202894</v>
+        <v>0.001999547524320331</v>
       </c>
       <c r="K2">
-        <v>4.897147101031182e-5</v>
+        <v>4.89714710103119e-5</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -496,28 +496,28 @@
         <v>0.00024321132059374557</v>
       </c>
       <c r="D3">
-        <v>-3.445865614469556e-7</v>
+        <v>-3.445865614469403e-7</v>
       </c>
       <c r="E3">
-        <v>0.001998637267901858</v>
+        <v>0.0019986372679018575</v>
       </c>
       <c r="F3">
         <v>4.894556247095242e-5</v>
       </c>
       <c r="G3">
-        <v>8.127532877625839</v>
+        <v>8.12753287762528</v>
       </c>
       <c r="H3">
-        <v>0.00024321132240234136</v>
+        <v>0.00024321132240234106</v>
       </c>
       <c r="I3">
-        <v>-3.4458816550353965e-7</v>
+        <v>-3.4458816550230695e-7</v>
       </c>
       <c r="J3">
-        <v>0.0019986372693817245</v>
+        <v>0.0019986372693818494</v>
       </c>
       <c r="K3">
-        <v>4.894556249919139e-5</v>
+        <v>4.8945562499191634e-5</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -531,28 +531,28 @@
         <v>0.00023868553432290944</v>
       </c>
       <c r="D4">
-        <v>-5.741979859056034e-7</v>
+        <v>-5.741979859056071e-7</v>
       </c>
       <c r="E4">
-        <v>0.0019977195664936456</v>
+        <v>0.001997719566493645</v>
       </c>
       <c r="F4">
         <v>4.891979596420215e-5</v>
       </c>
       <c r="G4">
-        <v>8.11217960415477</v>
+        <v>8.11217960415382</v>
       </c>
       <c r="H4">
-        <v>0.00023868553734110925</v>
+        <v>0.00023868553734110874</v>
       </c>
       <c r="I4">
-        <v>-5.74200661265899e-7</v>
+        <v>-5.742006612638419e-7</v>
       </c>
       <c r="J4">
-        <v>0.001997719568915251</v>
+        <v>0.0019977195689154584</v>
       </c>
       <c r="K4">
-        <v>4.89197960101185e-5</v>
+        <v>4.8919796010118914e-5</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -560,34 +560,34 @@
         <v>-0.0465</v>
       </c>
       <c r="B5">
-        <v>8.096521794595322</v>
+        <v>8.096521794595319</v>
       </c>
       <c r="C5">
         <v>0.0002341597480520736</v>
       </c>
       <c r="D5">
-        <v>-8.037105565711513e-7</v>
+        <v>-8.037105565711459e-7</v>
       </c>
       <c r="E5">
-        <v>0.001996793947319617</v>
+        <v>0.0019967939473196166</v>
       </c>
       <c r="F5">
-        <v>4.88941994264745e-5</v>
+        <v>4.889419942647449e-5</v>
       </c>
       <c r="G5">
-        <v>8.096521820499527</v>
+        <v>8.096521820498182</v>
       </c>
       <c r="H5">
-        <v>0.00023415975225282032</v>
+        <v>0.0002341597522528196</v>
       </c>
       <c r="I5">
-        <v>-8.037143046571232e-7</v>
+        <v>-8.037143046542387e-7</v>
       </c>
       <c r="J5">
-        <v>0.0019967939506628876</v>
+        <v>0.001996793950663178</v>
       </c>
       <c r="K5">
-        <v>4.88941994891608e-5</v>
+        <v>4.889419948916141e-5</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -601,7 +601,7 @@
         <v>0.0002296339617812386</v>
       </c>
       <c r="D6">
-        <v>-1.0331163338387311e-6</v>
+        <v>-1.0331163338387438e-6</v>
       </c>
       <c r="E6">
         <v>0.001995859911789324</v>
@@ -610,19 +610,19 @@
         <v>4.886880264142698e-5</v>
       </c>
       <c r="G6">
-        <v>8.080556924713337</v>
+        <v>8.0805569247116</v>
       </c>
       <c r="H6">
-        <v>0.00022963396713747511</v>
+        <v>0.00022963396713747417</v>
       </c>
       <c r="I6">
-        <v>-1.0331211560392163e-6</v>
+        <v>-1.0331211560355019e-6</v>
       </c>
       <c r="J6">
-        <v>0.0019958599160344592</v>
+        <v>0.0019958599160348313</v>
       </c>
       <c r="K6">
-        <v>4.886880271994202e-5</v>
+        <v>4.886880271994286e-5</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -636,28 +636,28 @@
         <v>0.00022510817551040592</v>
       </c>
       <c r="D7">
-        <v>-1.262406761294022e-6</v>
+        <v>-1.2624067612940147e-6</v>
       </c>
       <c r="E7">
-        <v>0.0019949169357444583</v>
+        <v>0.0019949169357444587</v>
       </c>
       <c r="F7">
         <v>4.884363721612476e-5</v>
       </c>
       <c r="G7">
-        <v>8.064283526984626</v>
+        <v>8.064283526982491</v>
       </c>
       <c r="H7">
-        <v>0.00022510818199507508</v>
+        <v>0.00022510818199507386</v>
       </c>
       <c r="I7">
-        <v>-1.2624126589619865e-6</v>
+        <v>-1.2624126589574388e-6</v>
       </c>
       <c r="J7">
-        <v>0.001994916940871923</v>
+        <v>0.0019949169408723785</v>
       </c>
       <c r="K7">
-        <v>4.8843637309493054e-5</v>
+        <v>4.8843637309494166e-5</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -671,28 +671,28 @@
         <v>0.00022058238923957954</v>
       </c>
       <c r="D8">
-        <v>-1.49157264257753e-6</v>
+        <v>-1.4915726425775408e-6</v>
       </c>
       <c r="E8">
-        <v>0.0019939644708586893</v>
+        <v>0.001993964470858689</v>
       </c>
       <c r="F8">
-        <v>4.8818736530575095e-5</v>
+        <v>4.881873653057509e-5</v>
       </c>
       <c r="G8">
-        <v>8.047701651571483</v>
+        <v>8.047701651568952</v>
       </c>
       <c r="H8">
-        <v>0.00022058239682562386</v>
+        <v>0.00022058239682562234</v>
       </c>
       <c r="I8">
-        <v>-1.491579617027525e-6</v>
+        <v>-1.4915796170221405e-6</v>
       </c>
       <c r="J8">
-        <v>0.0019939644768492003</v>
+        <v>0.00199396447684974</v>
       </c>
       <c r="K8">
-        <v>4.881873663778698e-5</v>
+        <v>4.881873663778841e-5</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -700,34 +700,34 @@
         <v>-0.0425</v>
       </c>
       <c r="B9">
-        <v>8.030812892822684</v>
+        <v>8.030812892822683</v>
       </c>
       <c r="C9">
         <v>0.00021605660296876995</v>
       </c>
       <c r="D9">
-        <v>-1.720604124798992e-6</v>
+        <v>-1.7206041247989956e-6</v>
       </c>
       <c r="E9">
         <v>0.001993001946788007</v>
       </c>
       <c r="F9">
-        <v>4.879413564360708e-5</v>
+        <v>4.879413564360707e-5</v>
       </c>
       <c r="G9">
-        <v>8.030812949267986</v>
+        <v>8.030812949265064</v>
       </c>
       <c r="H9">
-        <v>0.0002160566116291311</v>
+        <v>0.00021605661162912935</v>
       </c>
       <c r="I9">
-        <v>-1.7206121773042927e-6</v>
+        <v>-1.7206121772980672e-6</v>
       </c>
       <c r="J9">
-        <v>0.0019930019536225077</v>
+        <v>0.001993001953623131</v>
       </c>
       <c r="K9">
-        <v>4.8794135763619355e-5</v>
+        <v>4.8794135763621144e-5</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -741,28 +741,28 @@
         <v>0.00021153081669800385</v>
       </c>
       <c r="D10">
-        <v>-1.9494906905688614e-6</v>
+        <v>-1.9494906905688542e-6</v>
       </c>
       <c r="E10">
-        <v>0.0019920287741851195</v>
+        <v>0.001992028774185119</v>
       </c>
       <c r="F10">
         <v>4.876987114765917e-5</v>
       </c>
       <c r="G10">
-        <v>8.01362091573355</v>
+        <v>8.013620915730236</v>
       </c>
       <c r="H10">
-        <v>0.00021153082640562183</v>
+        <v>0.00021153082640561988</v>
       </c>
       <c r="I10">
-        <v>-1.9494998223592247e-6</v>
+        <v>-1.9494998223521532e-6</v>
       </c>
       <c r="J10">
-        <v>0.0019920287818447416</v>
+        <v>0.001992028781845449</v>
       </c>
       <c r="K10">
-        <v>4.876987127939638e-5</v>
+        <v>4.8769871279398564e-5</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -770,34 +770,34 @@
         <v>-0.0405</v>
       </c>
       <c r="B11">
-        <v>7.996131037584213</v>
+        <v>7.996131037584214</v>
       </c>
       <c r="C11">
         <v>0.00020700503042734902</v>
       </c>
       <c r="D11">
-        <v>-2.178221160904914e-6</v>
+        <v>-2.1782211609048957e-6</v>
       </c>
       <c r="E11">
         <v>0.0019910443486818234</v>
       </c>
       <c r="F11">
-        <v>4.874598096540581e-5</v>
+        <v>4.874598096540582e-5</v>
       </c>
       <c r="G11">
-        <v>7.996131109353729</v>
+        <v>7.996131109350029</v>
       </c>
       <c r="H11">
-        <v>0.0002070050411551593</v>
+        <v>0.00020700504115515718</v>
       </c>
       <c r="I11">
-        <v>-2.178231373164969e-6</v>
+        <v>-2.178231373157047e-6</v>
       </c>
       <c r="J11">
-        <v>0.001991044357147837</v>
+        <v>0.001991044357148628</v>
       </c>
       <c r="K11">
-        <v>4.874598110776239e-5</v>
+        <v>4.8745981107765005e-5</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -811,28 +811,28 @@
         <v>0.00020247924415697243</v>
       </c>
       <c r="D12">
-        <v>-2.4067837113659757e-6</v>
+        <v>-2.4067837113659685e-6</v>
       </c>
       <c r="E12">
         <v>0.00199004805592306</v>
       </c>
       <c r="F12">
-        <v>4.872250408214115e-5</v>
+        <v>4.8722504082141167e-5</v>
       </c>
       <c r="G12">
-        <v>7.978351360531736</v>
+        <v>7.978351360527655</v>
       </c>
       <c r="H12">
-        <v>0.00020247925587789996</v>
+        <v>0.00020247925587789768</v>
       </c>
       <c r="I12">
-        <v>-2.406795005235934e-6</v>
+        <v>-2.4067950052271556e-6</v>
       </c>
       <c r="J12">
-        <v>0.0019900480651768</v>
+        <v>0.0019900480651776752</v>
       </c>
       <c r="K12">
-        <v>4.872250423398447e-5</v>
+        <v>4.872250423398754e-5</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -840,34 +840,34 @@
         <v>-0.038500000000000006</v>
       </c>
       <c r="B13">
-        <v>7.960291875725441</v>
+        <v>7.96029187572544</v>
       </c>
       <c r="C13">
         <v>0.00019795345788727807</v>
       </c>
       <c r="D13">
-        <v>-2.635165903722301e-6</v>
+        <v>-2.635165903722312e-6</v>
       </c>
       <c r="E13">
-        <v>0.0019890392777035</v>
+        <v>0.0019890392777035006</v>
       </c>
       <c r="F13">
         <v>4.869948020958286e-5</v>
       </c>
       <c r="G13">
-        <v>7.9602919625648205</v>
+        <v>7.960291962560365</v>
       </c>
       <c r="H13">
-        <v>0.00019795347057422377</v>
+        <v>0.0001979534705742213</v>
       </c>
       <c r="I13">
-        <v>-2.6351782803037034e-6</v>
+        <v>-2.6351782802940638e-6</v>
       </c>
       <c r="J13">
-        <v>0.001989039287726283</v>
+        <v>0.0019890392877272424</v>
       </c>
       <c r="K13">
-        <v>4.869948036975728e-5</v>
+        <v>4.869948036976087e-5</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -887,22 +887,22 @@
         <v>0.001988017399210614</v>
       </c>
       <c r="F14">
-        <v>4.8676949379368536e-5</v>
+        <v>4.867694937936854e-5</v>
       </c>
       <c r="G14">
-        <v>7.941965832722648</v>
+        <v>7.941965832717829</v>
       </c>
       <c r="H14">
-        <v>0.0001934276852450339</v>
+        <v>0.00019342768524503127</v>
       </c>
       <c r="I14">
-        <v>-2.863368195604575e-6</v>
+        <v>-2.863368195594068e-6</v>
       </c>
       <c r="J14">
-        <v>0.0019880174099836255</v>
+        <v>0.0019880174099846685</v>
       </c>
       <c r="K14">
-        <v>4.867694954670066e-5</v>
+        <v>4.8676949546704794e-5</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -910,34 +910,34 @@
         <v>-0.036500000000000005</v>
       </c>
       <c r="B15">
-        <v>7.923388529683466</v>
+        <v>7.923388529683465</v>
       </c>
       <c r="C15">
         <v>0.00018890188535503505</v>
       </c>
       <c r="D15">
-        <v>-3.0913367070951627e-6</v>
+        <v>-3.0913367070951555e-6</v>
       </c>
       <c r="E15">
         <v>0.001986981817316944</v>
       </c>
       <c r="F15">
-        <v>4.86549514680295e-5</v>
+        <v>4.865495146802949e-5</v>
       </c>
       <c r="G15">
-        <v>7.923388631047204</v>
+        <v>7.923388631042031</v>
       </c>
       <c r="H15">
-        <v>0.00018890189989243422</v>
+        <v>0.0001889018998924314</v>
       </c>
       <c r="I15">
-        <v>-3.091351252357802e-6</v>
+        <v>-3.09135125234642e-6</v>
       </c>
       <c r="J15">
-        <v>0.001986981828821102</v>
+        <v>0.0019869818288222284</v>
       </c>
       <c r="K15">
-        <v>4.8654951641334195e-5</v>
+        <v>4.865495164133891e-5</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -945,34 +945,34 @@
         <v>-0.035500000000000004</v>
       </c>
       <c r="B16">
-        <v>7.904578715682752</v>
+        <v>7.904578715682754</v>
       </c>
       <c r="C16">
         <v>0.00018437609909977457</v>
       </c>
       <c r="D16">
-        <v>-3.319097912831641e-6</v>
+        <v>-3.319097912831648e-6</v>
       </c>
       <c r="E16">
-        <v>0.0019859319497905576</v>
+        <v>0.001985931949790557</v>
       </c>
       <c r="F16">
-        <v>4.863352565957486e-5</v>
+        <v>4.863352565957487e-5</v>
       </c>
       <c r="G16">
-        <v>7.9045788239983485</v>
+        <v>7.904578823992833</v>
       </c>
       <c r="H16">
-        <v>0.00018437611452122577</v>
+        <v>0.00018437611452122276</v>
       </c>
       <c r="I16">
-        <v>-3.3191135441925184e-6</v>
+        <v>-3.3191135441802555e-6</v>
       </c>
       <c r="J16">
-        <v>0.0019859319620063316</v>
+        <v>0.0019859319620075407</v>
       </c>
       <c r="K16">
-        <v>4.863352583766223e-5</v>
+        <v>4.8633525837667585e-5</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -980,13 +980,13 @@
         <v>-0.0345</v>
       </c>
       <c r="B17">
-        <v>7.8855575656403225</v>
+        <v>7.885557565640323</v>
       </c>
       <c r="C17">
         <v>0.00017985031286473153</v>
       </c>
       <c r="D17">
-        <v>-3.546624146079242e-6</v>
+        <v>-3.5466241460792422e-6</v>
       </c>
       <c r="E17">
         <v>0.0019848672452101746</v>
@@ -995,19 +995,19 @@
         <v>4.8612709856802206e-5</v>
       </c>
       <c r="G17">
-        <v>7.885557680638465</v>
+        <v>7.885557680632623</v>
       </c>
       <c r="H17">
-        <v>0.00017985032914214202</v>
+        <v>0.0001798503291421388</v>
       </c>
       <c r="I17">
-        <v>-3.5466408650475355e-6</v>
+        <v>-3.546640865034383e-6</v>
       </c>
       <c r="J17">
-        <v>0.0019848672581173426</v>
+        <v>0.0019848672581186345</v>
       </c>
       <c r="K17">
-        <v>4.861271003848477e-5</v>
+        <v>4.86127100384908e-5</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1015,34 +1015,34 @@
         <v>-0.0335</v>
       </c>
       <c r="B18">
-        <v>7.866349069440381</v>
+        <v>7.866349069440384</v>
       </c>
       <c r="C18">
         <v>0.00017532452667456505</v>
       </c>
       <c r="D18">
-        <v>-3.773901025517345e-6</v>
+        <v>-3.7739010255173527e-6</v>
       </c>
       <c r="E18">
         <v>0.0019837871932869336</v>
       </c>
       <c r="F18">
-        <v>4.8592540057708946e-5</v>
+        <v>4.859254005770895e-5</v>
       </c>
       <c r="G18">
-        <v>7.866349190800965</v>
+        <v>7.866349190794807</v>
       </c>
       <c r="H18">
-        <v>0.0001753245437786909</v>
+        <v>0.0001753245437786875</v>
       </c>
       <c r="I18">
-        <v>-3.7739188342952947e-6</v>
+        <v>-3.7739188342812445e-6</v>
       </c>
       <c r="J18">
-        <v>0.001983787206864233</v>
+        <v>0.001983787206865607</v>
       </c>
       <c r="K18">
-        <v>4.8592540241808474e-5</v>
+        <v>4.85925402418152e-5</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1050,34 +1050,34 @@
         <v>-0.0325</v>
       </c>
       <c r="B19">
-        <v>7.8469797703908455</v>
+        <v>7.846979770390848</v>
       </c>
       <c r="C19">
         <v>0.00017079874058204428</v>
       </c>
       <c r="D19">
-        <v>-4.000914132054965e-6</v>
+        <v>-4.000914132054958e-6</v>
       </c>
       <c r="E19">
         <v>0.001982691335217047</v>
       </c>
       <c r="F19">
-        <v>4.857304971840674e-5</v>
+        <v>4.8573049718406743e-5</v>
       </c>
       <c r="G19">
-        <v>7.846979897738308</v>
+        <v>7.846979897731851</v>
       </c>
       <c r="H19">
-        <v>0.0001707987584813091</v>
+        <v>0.00017079875848130557</v>
       </c>
       <c r="I19">
-        <v>-4.000933034317826e-6</v>
+        <v>-4.00093303430287e-6</v>
       </c>
       <c r="J19">
-        <v>0.0019826913494416184</v>
+        <v>0.0019826913494430743</v>
       </c>
       <c r="K19">
-        <v>4.857304990375905e-5</v>
+        <v>4.857304990376652e-5</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1100,19 +1100,19 @@
         <v>4.855426912812126e-5</v>
       </c>
       <c r="G20">
-        <v>7.8274786420605205</v>
+        <v>7.827478642053779</v>
       </c>
       <c r="H20">
-        <v>0.00016627297335600015</v>
+        <v>0.00016627297335599652</v>
       </c>
       <c r="I20">
-        <v>-4.2276691521045655e-6</v>
+        <v>-4.2276691520886955e-6</v>
       </c>
       <c r="J20">
-        <v>0.001981579288475798</v>
+        <v>0.001981579288477335</v>
       </c>
       <c r="K20">
-        <v>4.855426931357679e-5</v>
+        <v>4.855426931358505e-5</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1120,13 +1120,13 @@
         <v>-0.030500000000000003</v>
       </c>
       <c r="B21">
-        <v>7.807876081204587</v>
+        <v>7.8078760812045855</v>
       </c>
       <c r="C21">
         <v>0.00016174716924900604</v>
       </c>
       <c r="D21">
-        <v>-4.454091995881928e-6</v>
+        <v>-4.454091995881921e-6</v>
       </c>
       <c r="E21">
         <v>0.0019804506816599203</v>
@@ -1135,19 +1135,19 @@
         <v>4.8536224824547784e-5</v>
       </c>
       <c r="G21">
-        <v>7.807876219128261</v>
+        <v>7.807876219121254</v>
       </c>
       <c r="H21">
-        <v>0.00016174718862099768</v>
+        <v>0.00016174718862099394</v>
       </c>
       <c r="I21">
-        <v>-4.454113110950341e-6</v>
+        <v>-4.454113110933549e-6</v>
       </c>
       <c r="J21">
-        <v>0.0019804506970987237</v>
+        <v>0.001980450697100342</v>
       </c>
       <c r="K21">
-        <v>4.853622500896407e-5</v>
+        <v>4.853622500897314e-5</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1155,34 +1155,34 @@
         <v>-0.029500000000000002</v>
       </c>
       <c r="B22">
-        <v>7.788204815707793</v>
+        <v>7.788204815707791</v>
       </c>
       <c r="C22">
         <v>0.0001572213846927197</v>
       </c>
       <c r="D22">
-        <v>-4.680228918395454e-6</v>
+        <v>-4.680228918395447e-6</v>
       </c>
       <c r="E22">
-        <v>0.00197930531069268</v>
+        <v>0.0019793053106926806</v>
       </c>
       <c r="F22">
         <v>4.8518939078459185e-5</v>
       </c>
       <c r="G22">
-        <v>7.788204958030665</v>
+        <v>7.788204958023414</v>
       </c>
       <c r="H22">
-        <v>0.00015722140471638349</v>
+        <v>0.00015722140471637966</v>
       </c>
       <c r="I22">
-        <v>-4.680251169773928e-6</v>
+        <v>-4.680251169756204e-6</v>
       </c>
       <c r="J22">
-        <v>0.001979305326687208</v>
+        <v>0.001979305326688906</v>
       </c>
       <c r="K22">
-        <v>4.851893926067932e-5</v>
+        <v>4.851893926068922e-5</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1196,28 +1196,28 @@
         <v>0.00015269560192956747</v>
       </c>
       <c r="D23">
-        <v>-4.906046521873762e-6</v>
+        <v>-4.9060465218737685e-6</v>
       </c>
       <c r="E23">
-        <v>0.0019781429963554586</v>
+        <v>0.001978142996355458</v>
       </c>
       <c r="F23">
-        <v>4.8502429474660436e-5</v>
+        <v>4.850242947466044e-5</v>
       </c>
       <c r="G23">
-        <v>7.768498236269334</v>
+        <v>7.768498236261863</v>
       </c>
       <c r="H23">
-        <v>0.00015269562251139505</v>
+        <v>0.00015269562251139112</v>
       </c>
       <c r="I23">
-        <v>-4.906069953880821e-6</v>
+        <v>-4.906069953862164e-6</v>
       </c>
       <c r="J23">
-        <v>0.0019781430128568036</v>
+        <v>0.0019781430128585826</v>
       </c>
       <c r="K23">
-        <v>4.850242965346821e-5</v>
+        <v>4.850242965347898e-5</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1225,34 +1225,34 @@
         <v>-0.027500000000000004</v>
       </c>
       <c r="B24">
-        <v>7.748789801158633</v>
+        <v>7.748789801158634</v>
       </c>
       <c r="C24">
         <v>0.00014816982269790838</v>
       </c>
       <c r="D24">
-        <v>-5.131531664485882e-6</v>
+        <v>-5.13153166448589e-6</v>
       </c>
       <c r="E24">
         <v>0.0019769636624599315</v>
       </c>
       <c r="F24">
-        <v>4.848670861208554e-5</v>
+        <v>4.848670861208555e-5</v>
       </c>
       <c r="G24">
-        <v>7.748789949615047</v>
+        <v>7.74878994960738</v>
       </c>
       <c r="H24">
-        <v>0.0001481698436876103</v>
+        <v>0.00014816984368760624</v>
       </c>
       <c r="I24">
-        <v>-5.131556358852878e-6</v>
+        <v>-5.131556358833275e-6</v>
       </c>
       <c r="J24">
-        <v>0.0019769636793976956</v>
+        <v>0.0019769636793995535</v>
       </c>
       <c r="K24">
-        <v>4.8486708786123716e-5</v>
+        <v>4.848670878613538e-5</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1260,7 +1260,7 @@
         <v>-0.026500000000000003</v>
       </c>
       <c r="B25">
-        <v>7.7291138111979505</v>
+        <v>7.729113811197951</v>
       </c>
       <c r="C25">
         <v>0.0001436440502840814</v>
@@ -1269,25 +1269,25 @@
         <v>-5.356671129106585e-6</v>
       </c>
       <c r="E25">
-        <v>0.001975767322715462</v>
+        <v>0.0019757673227154614</v>
       </c>
       <c r="F25">
-        <v>4.8471783939335746e-5</v>
+        <v>4.847178393933576e-5</v>
       </c>
       <c r="G25">
-        <v>7.729113960663427</v>
+        <v>7.7291139606555905</v>
       </c>
       <c r="H25">
-        <v>0.00014364407143104512</v>
+        <v>0.00014364407143104091</v>
       </c>
       <c r="I25">
-        <v>-5.356697233671675e-6</v>
+        <v>-5.356697233651125e-6</v>
       </c>
       <c r="J25">
-        <v>0.0019757673399817912</v>
+        <v>0.0019757673399837285</v>
       </c>
       <c r="K25">
-        <v>4.8471784106967896e-5</v>
+        <v>4.8471784106980466e-5</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1295,34 +1295,34 @@
         <v>-0.025500000000000002</v>
       </c>
       <c r="B26">
-        <v>7.709503403710753</v>
+        <v>7.709503403710752</v>
       </c>
       <c r="C26">
         <v>0.00013911829077283716</v>
       </c>
       <c r="D26">
-        <v>-5.581450916433792e-6</v>
+        <v>-5.5814509164337775e-6</v>
       </c>
       <c r="E26">
         <v>0.001974554080226716</v>
       </c>
       <c r="F26">
-        <v>4.8457657733904146e-5</v>
+        <v>4.845765773390415e-5</v>
       </c>
       <c r="G26">
-        <v>7.709503551905693</v>
+        <v>7.709503551897711</v>
       </c>
       <c r="H26">
-        <v>0.0001391183116533423</v>
+        <v>0.000139118311653338</v>
       </c>
       <c r="I26">
-        <v>-5.581478693060342e-6</v>
+        <v>-5.581478693038844e-6</v>
       </c>
       <c r="J26">
-        <v>0.001974554097649237</v>
+        <v>0.001974554097651253</v>
       </c>
       <c r="K26">
-        <v>4.8457657892992654e-5</v>
+        <v>4.845765789300616e-5</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1345,19 +1345,19 @@
         <v>4.844432722462207e-5</v>
       </c>
       <c r="G27">
-        <v>7.689990909425506</v>
+        <v>7.689990909417402</v>
       </c>
       <c r="H27">
-        <v>0.00013459257509618677</v>
+        <v>0.00013459257509618232</v>
       </c>
       <c r="I27">
-        <v>-5.805884822848709e-6</v>
+        <v>-5.805884822826257e-6</v>
       </c>
       <c r="J27">
-        <v>0.0019733241422896135</v>
+        <v>0.001973324142291708</v>
       </c>
       <c r="K27">
-        <v>4.8444327372186345e-5</v>
+        <v>4.844432737220079e-5</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1371,28 +1371,28 @@
         <v>0.00013006686314970744</v>
       </c>
       <c r="D28">
-        <v>-6.0298626165439675e-6</v>
+        <v>-6.029862616543953e-6</v>
       </c>
       <c r="E28">
-        <v>0.001972077729851239</v>
+        <v>0.0019720777298512394</v>
       </c>
       <c r="F28">
         <v>4.843178484850564e-5</v>
       </c>
       <c r="G28">
-        <v>7.670606661719037</v>
+        <v>7.670606661710832</v>
       </c>
       <c r="H28">
-        <v>0.00013006688087187108</v>
+        <v>0.00013006688087186652</v>
       </c>
       <c r="I28">
-        <v>-6.029895414128852e-6</v>
+        <v>-6.0298954141054464e-6</v>
       </c>
       <c r="J28">
-        <v>0.00197207774655971</v>
+        <v>0.0019720777465618822</v>
       </c>
       <c r="K28">
-        <v>4.843178498021455e-5</v>
+        <v>4.8431784980229965e-5</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1400,34 +1400,34 @@
         <v>-0.022500000000000003</v>
       </c>
       <c r="B29">
-        <v>7.651379381056356</v>
+        <v>7.651379381056355</v>
       </c>
       <c r="C29">
         <v>0.00012554124869492</v>
       </c>
       <c r="D29">
-        <v>-6.253445211676147e-6</v>
+        <v>-6.253445211676163e-6</v>
       </c>
       <c r="E29">
-        <v>0.0019708152455582455</v>
+        <v>0.001970815245558246</v>
       </c>
       <c r="F29">
         <v>4.842001862611322e-5</v>
       </c>
       <c r="G29">
-        <v>7.651379494995731</v>
+        <v>7.651379494987448</v>
       </c>
       <c r="H29">
-        <v>0.000125541262276902</v>
+        <v>0.0001255412622768974</v>
       </c>
       <c r="I29">
-        <v>-6.253482178811195e-6</v>
+        <v>-6.253482178786837e-6</v>
       </c>
       <c r="J29">
-        <v>0.0019708152609205806</v>
+        <v>0.00197081526092283</v>
       </c>
       <c r="K29">
-        <v>4.842001873555774e-5</v>
+        <v>4.8420018735574135e-5</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1435,7 +1435,7 @@
         <v>-0.021500000000000002</v>
       </c>
       <c r="B30">
-        <v>7.632335781096997</v>
+        <v>7.632335781096996</v>
       </c>
       <c r="C30">
         <v>0.00012101576982858889</v>
@@ -1447,22 +1447,22 @@
         <v>0.0019695370959388926</v>
       </c>
       <c r="F30">
-        <v>4.840901263445295e-5</v>
+        <v>4.840901263445294e-5</v>
       </c>
       <c r="G30">
-        <v>7.632335862249127</v>
+        <v>7.632335862240785</v>
       </c>
       <c r="H30">
-        <v>0.0001210157761044613</v>
+        <v>0.0001210157761044567</v>
       </c>
       <c r="I30">
-        <v>-6.476602648146504e-6</v>
+        <v>-6.476602648121195e-6</v>
       </c>
       <c r="J30">
-        <v>0.0019695371087309543</v>
+        <v>0.0019695371087332806</v>
       </c>
       <c r="K30">
-        <v>4.840901271213936e-5</v>
+        <v>4.8409012712156736e-5</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1485,19 +1485,19 @@
         <v>4.8398747553765485e-5</v>
       </c>
       <c r="G31">
-        <v>7.613499799070441</v>
+        <v>7.61349979906206</v>
       </c>
       <c r="H31">
-        <v>0.00011649051718936111</v>
+        <v>0.00011649051718935648</v>
       </c>
       <c r="I31">
-        <v>-6.6991906280681595e-6</v>
+        <v>-6.699190628041898e-6</v>
       </c>
       <c r="J31">
-        <v>0.0019682437826052356</v>
+        <v>0.0019682437826076386</v>
       </c>
       <c r="K31">
-        <v>4.839874758577118e-5</v>
+        <v>4.8398747585789504e-5</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1505,13 +1505,13 @@
         <v>-0.019500000000000003</v>
       </c>
       <c r="B32">
-        <v>7.594892913663296</v>
+        <v>7.594892913663297</v>
       </c>
       <c r="C32">
         <v>0.0001119656665942591</v>
       </c>
       <c r="D32">
-        <v>-6.921074436483558e-6</v>
+        <v>-6.921074436483559e-6</v>
       </c>
       <c r="E32">
         <v>0.0019669358428047456</v>
@@ -1520,19 +1520,19 @@
         <v>4.8389201264132015e-5</v>
       </c>
       <c r="G32">
-        <v>7.5948928552228745</v>
+        <v>7.594892855214474</v>
       </c>
       <c r="H32">
-        <v>0.00011196564054584506</v>
+        <v>0.00011196564054584044</v>
       </c>
       <c r="I32">
-        <v>-6.921141681384752e-6</v>
+        <v>-6.9211416813575356e-6</v>
       </c>
       <c r="J32">
-        <v>0.0019669358435366055</v>
+        <v>0.0019669358435390858</v>
       </c>
       <c r="K32">
-        <v>4.8389201230378295e-5</v>
+        <v>4.838920123039759e-5</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1540,13 +1540,13 @@
         <v>-0.018500000000000003</v>
       </c>
       <c r="B33">
-        <v>7.576534339100005</v>
+        <v>7.576534339100001</v>
       </c>
       <c r="C33">
         <v>0.0001074414518883202</v>
       </c>
       <c r="D33">
-        <v>-7.142202238791036e-6</v>
+        <v>-7.1422022387910354e-6</v>
       </c>
       <c r="E33">
         <v>0.0019656139360294195</v>
@@ -1555,19 +1555,19 @@
         <v>4.8380349469456114e-5</v>
       </c>
       <c r="G33">
-        <v>7.576534147803184</v>
+        <v>7.5765341477947805</v>
       </c>
       <c r="H33">
-        <v>0.00010744139417917364</v>
+        <v>0.00010744139417916899</v>
       </c>
       <c r="I33">
-        <v>-7.1422916439501885e-6</v>
+        <v>-7.142291643922024e-6</v>
       </c>
       <c r="J33">
-        <v>0.001965613924598176</v>
+        <v>0.001965613924600732</v>
       </c>
       <c r="K33">
-        <v>4.8380349341580445e-5</v>
+        <v>4.838034934160067e-5</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1575,13 +1575,13 @@
         <v>-0.0175</v>
       </c>
       <c r="B34">
-        <v>7.558440931739576</v>
+        <v>7.558440931739575</v>
       </c>
       <c r="C34">
         <v>0.00010291827292018841</v>
       </c>
       <c r="D34">
-        <v>-7.3622629220894075e-6</v>
+        <v>-7.362262922089421e-6</v>
       </c>
       <c r="E34">
         <v>0.0019642787718273692</v>
@@ -1590,19 +1590,19 @@
         <v>4.8372166329318e-5</v>
       </c>
       <c r="G34">
-        <v>7.558440539479955</v>
+        <v>7.558440539471566</v>
       </c>
       <c r="H34">
-        <v>0.00010291816640344658</v>
+        <v>0.00010291816640344194</v>
       </c>
       <c r="I34">
-        <v>-7.362385701812025e-6</v>
+        <v>-7.362385701782914e-6</v>
       </c>
       <c r="J34">
-        <v>0.001964278741353969</v>
+        <v>0.0019642787413566014</v>
       </c>
       <c r="K34">
-        <v>4.837216606817484e-5</v>
+        <v>4.8372166068196e-5</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1610,34 +1610,34 @@
         <v>-0.0165</v>
       </c>
       <c r="B35">
-        <v>7.540627632800635</v>
+        <v>7.540627632800636</v>
       </c>
       <c r="C35">
         <v>9.839673213817795e-5</v>
       </c>
       <c r="D35">
-        <v>-7.5808628685374484e-6</v>
+        <v>-7.58086286853745e-6</v>
       </c>
       <c r="E35">
-        <v>0.001962931170919773</v>
+        <v>0.0019629311709197725</v>
       </c>
       <c r="F35">
-        <v>4.8364625082746746e-5</v>
+        <v>4.836462508274674e-5</v>
       </c>
       <c r="G35">
-        <v>7.540626943551119</v>
+        <v>7.540626943542757</v>
       </c>
       <c r="H35">
-        <v>9.839655216693991e-5</v>
+        <v>9.83965521669353e-5</v>
       </c>
       <c r="I35">
-        <v>-7.581035133719158e-6</v>
+        <v>-7.581035133689102e-6</v>
       </c>
       <c r="J35">
-        <v>0.001962931111401077</v>
+        <v>0.0019629311114037857</v>
       </c>
       <c r="K35">
-        <v>4.836462463563429e-5</v>
+        <v>4.836462463565637e-5</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1645,7 +1645,7 @@
         <v>-0.0155</v>
       </c>
       <c r="B36">
-        <v>7.523107874013398</v>
+        <v>7.523107874013399</v>
       </c>
       <c r="C36">
         <v>9.387773127221834e-5</v>
@@ -1657,22 +1657,22 @@
         <v>0.0019615720884111425</v>
       </c>
       <c r="F36">
-        <v>4.8357698651338894e-5</v>
+        <v>4.835769865133889e-5</v>
       </c>
       <c r="G36">
-        <v>7.523106755807059</v>
+        <v>7.523106755798738</v>
       </c>
       <c r="H36">
-        <v>9.387744329938386e-5</v>
+        <v>9.387744329937927e-5</v>
       </c>
       <c r="I36">
-        <v>-7.797658571174606e-6</v>
+        <v>-7.79765857114361e-6</v>
       </c>
       <c r="J36">
-        <v>0.001961571985659758</v>
+        <v>0.0019615719856625417</v>
       </c>
       <c r="K36">
-        <v>4.8357697949136594e-5</v>
+        <v>4.835769794915957e-5</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1695,19 +1695,19 @@
         <v>4.8351360211727205e-5</v>
       </c>
       <c r="G37">
-        <v>7.50589241057272</v>
+        <v>7.505892410564447</v>
       </c>
       <c r="H37">
-        <v>8.936214752117796e-5</v>
+        <v>8.936214752117341e-5</v>
       </c>
       <c r="I37">
-        <v>-8.01140469677037e-6</v>
+        <v>-8.011404696738432e-6</v>
       </c>
       <c r="J37">
-        <v>0.00196020249403181</v>
+        <v>0.0019602024940346685</v>
       </c>
       <c r="K37">
-        <v>4.8351359166228997e-5</v>
+        <v>4.8351359166252876e-5</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1715,7 +1715,7 @@
         <v>-0.013500000000000005</v>
       </c>
       <c r="B38">
-        <v>7.488998613076165</v>
+        <v>7.4889986130761645</v>
       </c>
       <c r="C38">
         <v>8.485320130770519e-5</v>
@@ -1727,22 +1727,22 @@
         <v>0.001958824262552214</v>
       </c>
       <c r="F38">
-        <v>4.8345583728735384e-5</v>
+        <v>4.834558372873537e-5</v>
       </c>
       <c r="G38">
-        <v>7.48899605388711</v>
+        <v>7.488996053878892</v>
       </c>
       <c r="H38">
-        <v>8.485254021714942e-5</v>
+        <v>8.485254021714488e-5</v>
       </c>
       <c r="I38">
-        <v>-8.22105386795074e-6</v>
+        <v>-8.22105386791787e-6</v>
       </c>
       <c r="J38">
-        <v>0.0019588240077319046</v>
+        <v>0.001958824007734837</v>
       </c>
       <c r="K38">
-        <v>4.834558223056433e-5</v>
+        <v>4.8345582230589085e-5</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1750,7 +1750,7 @@
         <v>-0.012500000000000004</v>
       </c>
       <c r="B39">
-        <v>7.472434005068939</v>
+        <v>7.47243400506894</v>
       </c>
       <c r="C39">
         <v>8.035221125603372e-5</v>
@@ -1759,25 +1759,25 @@
         <v>-8.424209879395892e-6</v>
       </c>
       <c r="E39">
-        <v>0.0019574385983966306</v>
+        <v>0.00195743859839663</v>
       </c>
       <c r="F39">
         <v>4.834034444049204e-5</v>
       </c>
       <c r="G39">
-        <v>7.472430319725447</v>
+        <v>7.472430319717289</v>
       </c>
       <c r="H39">
-        <v>8.035125109376089e-5</v>
+        <v>8.035125109375637e-5</v>
       </c>
       <c r="I39">
-        <v>-8.424897397887408e-6</v>
+        <v>-8.424897397853608e-6</v>
       </c>
       <c r="J39">
-        <v>0.0019574382198177995</v>
+        <v>0.0019574382198208062</v>
       </c>
       <c r="K39">
-        <v>4.834034235806435e-5</v>
+        <v>4.834034235808997e-5</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1800,19 +1800,19 @@
         <v>4.8335619285486306e-5</v>
       </c>
       <c r="G40">
-        <v>7.456209184992652</v>
+        <v>7.456209184984556</v>
       </c>
       <c r="H40">
-        <v>7.58618846750917e-5</v>
+        <v>7.586188467508719e-5</v>
       </c>
       <c r="I40">
-        <v>-8.620595293355651e-6</v>
+        <v>-8.620595293320923e-6</v>
       </c>
       <c r="J40">
-        <v>0.001956047244067605</v>
+        <v>0.001956047244070684</v>
       </c>
       <c r="K40">
-        <v>4.83356164655338e-5</v>
+        <v>4.8335616465560264e-5</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1820,7 +1820,7 @@
         <v>-0.010500000000000002</v>
       </c>
       <c r="B41">
-        <v>7.440355940609577</v>
+        <v>7.440355940609576</v>
       </c>
       <c r="C41">
         <v>7.139115530259627e-5</v>
@@ -1832,22 +1832,22 @@
         <v>0.001954654498265957</v>
       </c>
       <c r="F41">
-        <v>4.833138725950651e-5</v>
+        <v>4.8331387259506515e-5</v>
       </c>
       <c r="G41">
-        <v>7.440348865829486</v>
+        <v>7.440348865821451</v>
       </c>
       <c r="H41">
-        <v>7.138926904265961e-5</v>
+        <v>7.13892690426551e-5</v>
       </c>
       <c r="I41">
-        <v>-8.805016202278073e-6</v>
+        <v>-8.805016202242423e-6</v>
       </c>
       <c r="J41">
-        <v>0.001954653730283626</v>
+        <v>0.0019546537302867766</v>
       </c>
       <c r="K41">
-        <v>4.8331383529644216e-5</v>
+        <v>4.833138352967152e-5</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1861,28 +1861,28 @@
         <v>6.694227900835865e-5</v>
       </c>
       <c r="D42">
-        <v>-8.972334632956119e-6</v>
+        <v>-8.972334632956132e-6</v>
       </c>
       <c r="E42">
-        <v>0.0019532620455983193</v>
+        <v>0.001953262045598319</v>
       </c>
       <c r="F42">
         <v>4.8327629688356145e-5</v>
       </c>
       <c r="G42">
-        <v>7.424868702483857</v>
+        <v>7.424868702475882</v>
       </c>
       <c r="H42">
-        <v>6.693972139325106e-5</v>
+        <v>6.693972139324653e-5</v>
       </c>
       <c r="I42">
-        <v>-8.974067082201108e-6</v>
+        <v>-8.974067082164548e-6</v>
       </c>
       <c r="J42">
-        <v>0.0019532609913391757</v>
+        <v>0.0019532609913423967</v>
       </c>
       <c r="K42">
-        <v>4.832762486207577e-5</v>
+        <v>4.8327624862103907e-5</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1890,13 +1890,13 @@
         <v>-0.0085</v>
       </c>
       <c r="B43">
-        <v>7.409804361326825</v>
+        <v>7.409804361326826</v>
       </c>
       <c r="C43">
         <v>6.252470744422661e-5</v>
       </c>
       <c r="D43">
-        <v>-9.120245771218189e-6</v>
+        <v>-9.12024577121819e-6</v>
       </c>
       <c r="E43">
         <v>0.0019518745487402012</v>
@@ -1905,19 +1905,19 @@
         <v>4.832433040107497e-5</v>
       </c>
       <c r="G43">
-        <v>7.409791964407805</v>
+        <v>7.409791964399891</v>
       </c>
       <c r="H43">
-        <v>6.252131227339267e-5</v>
+        <v>6.252131227338814e-5</v>
       </c>
       <c r="I43">
-        <v>-9.122524398810872e-6</v>
+        <v>-9.122524398773408e-6</v>
       </c>
       <c r="J43">
-        <v>0.0019518731339565917</v>
+        <v>0.0019518731339598825</v>
       </c>
       <c r="K43">
-        <v>4.832432428534901e-5</v>
+        <v>4.832432428537796e-5</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1925,34 +1925,34 @@
         <v>-0.007500000000000003</v>
       </c>
       <c r="B44">
-        <v>7.39516238735815</v>
+        <v>7.395162387358149</v>
       </c>
       <c r="C44">
         <v>5.8148517600918635e-5</v>
       </c>
       <c r="D44">
-        <v>-9.24094082695466e-6</v>
+        <v>-9.240940826954645e-6</v>
       </c>
       <c r="E44">
-        <v>0.001950497039011185</v>
+        <v>0.0019504970390111852</v>
       </c>
       <c r="F44">
         <v>4.8321475788982486e-5</v>
       </c>
       <c r="G44">
-        <v>7.395146493953589</v>
+        <v>7.395146493945732</v>
       </c>
       <c r="H44">
-        <v>5.814410347907625e-5</v>
+        <v>5.814410347907173e-5</v>
       </c>
       <c r="I44">
-        <v>-9.243883020631417e-6</v>
+        <v>-9.243883020593063e-6</v>
       </c>
       <c r="J44">
-        <v>0.0019504951816100811</v>
+        <v>0.0019504951816134402</v>
       </c>
       <c r="K44">
-        <v>4.8321468194384894e-5</v>
+        <v>4.832146819441466e-5</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1960,7 +1960,7 @@
         <v>-0.006500000000000006</v>
       </c>
       <c r="B45">
-        <v>7.380985057862496</v>
+        <v>7.380985057862497</v>
       </c>
       <c r="C45">
         <v>5.3825950623410936e-5</v>
@@ -1969,25 +1969,25 @@
         <v>-9.326514893478296e-6</v>
       </c>
       <c r="E45">
-        <v>0.0019491355612734817</v>
+        <v>0.0019491355612734822</v>
       </c>
       <c r="F45">
         <v>4.8319054738865414e-5</v>
       </c>
       <c r="G45">
-        <v>7.380965099188425</v>
+        <v>7.380965099180624</v>
       </c>
       <c r="H45">
-        <v>5.382032863462538e-5</v>
+        <v>5.382032863462089e-5</v>
       </c>
       <c r="I45">
-        <v>-9.330242712088883e-6</v>
+        <v>-9.330242712049657e-6</v>
       </c>
       <c r="J45">
-        <v>0.0019491331745651566</v>
+        <v>0.0019491331745685818</v>
       </c>
       <c r="K45">
-        <v>4.831904549178145e-5</v>
+        <v>4.831904549181202e-5</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2007,22 +2007,22 @@
         <v>0.0019477972321492896</v>
       </c>
       <c r="F46">
-        <v>4.8317058434304465e-5</v>
+        <v>4.831705843430446e-5</v>
       </c>
       <c r="G46">
-        <v>7.367285607077348</v>
+        <v>7.367285607069599</v>
       </c>
       <c r="H46">
-        <v>4.956448166095712e-5</v>
+        <v>4.956448166095266e-5</v>
       </c>
       <c r="I46">
-        <v>-9.37225442653733e-6</v>
+        <v>-9.372254426497246e-6</v>
       </c>
       <c r="J46">
-        <v>0.001947794229533525</v>
+        <v>0.0019477942295370164</v>
       </c>
       <c r="K46">
-        <v>4.831704739045809e-5</v>
+        <v>4.831704739048943e-5</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2030,34 +2030,34 @@
         <v>-0.004500000000000004</v>
       </c>
       <c r="B47">
-        <v>7.354180114224782</v>
+        <v>7.354180114224781</v>
       </c>
       <c r="C47">
         <v>4.540185690462495e-5</v>
       </c>
       <c r="D47">
-        <v>-9.353500809400859e-6</v>
+        <v>-9.353500809400857e-6</v>
       </c>
       <c r="E47">
-        <v>0.0019464902394828777</v>
+        <v>0.0019464902394828783</v>
       </c>
       <c r="F47">
         <v>4.831548002720117e-5</v>
       </c>
       <c r="G47">
-        <v>7.354150500124364</v>
+        <v>7.3541505001166625</v>
       </c>
       <c r="H47">
-        <v>4.539327803319641e-5</v>
+        <v>4.539327803319197e-5</v>
       </c>
       <c r="I47">
-        <v>-9.359148631672355e-6</v>
+        <v>-9.359148631631447e-6</v>
       </c>
       <c r="J47">
-        <v>0.0019464865404603736</v>
+        <v>0.0019464865404639283</v>
       </c>
       <c r="K47">
-        <v>4.831546708542941e-5</v>
+        <v>4.831546708546153e-5</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2065,7 +2065,7 @@
         <v>-0.003500000000000003</v>
       </c>
       <c r="B48">
-        <v>7.341641088719923</v>
+        <v>7.341641088719922</v>
       </c>
       <c r="C48">
         <v>4.133573830300703e-5</v>
@@ -2074,25 +2074,25 @@
         <v>-9.27211396289656e-6</v>
       </c>
       <c r="E48">
-        <v>0.0019452237660785813</v>
+        <v>0.0019452237660785815</v>
       </c>
       <c r="F48">
-        <v>4.831431419119431e-5</v>
+        <v>4.8314314191194314e-5</v>
       </c>
       <c r="G48">
-        <v>7.341606083747915</v>
+        <v>7.341606083740256</v>
       </c>
       <c r="H48">
-        <v>4.1325458027726324e-5</v>
+        <v>4.132545802772192e-5</v>
       </c>
       <c r="I48">
-        <v>-9.278864976466483e-6</v>
+        <v>-9.278864976424774e-6</v>
       </c>
       <c r="J48">
-        <v>0.0019452193032597539</v>
+        <v>0.0019452193032633714</v>
       </c>
       <c r="K48">
-        <v>4.831429930620064e-5</v>
+        <v>4.831429930623349e-5</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2100,34 +2100,34 @@
         <v>-0.0025000000000000022</v>
       </c>
       <c r="B49">
-        <v>7.329741732374097</v>
+        <v>7.329741732374098</v>
       </c>
       <c r="C49">
         <v>3.739348370435997e-5</v>
       </c>
       <c r="D49">
-        <v>-9.110383943885534e-6</v>
+        <v>-9.110383943885563e-6</v>
       </c>
       <c r="E49">
-        <v>0.001944007824814379</v>
+        <v>0.0019440078248143789</v>
       </c>
       <c r="F49">
         <v>4.831355657859696e-5</v>
       </c>
       <c r="G49">
-        <v>7.3297011676012795</v>
+        <v>7.329701167593659</v>
       </c>
       <c r="H49">
-        <v>3.7381410695461106e-5</v>
+        <v>3.738141069545674e-5</v>
       </c>
       <c r="I49">
-        <v>-9.118296372351788e-6</v>
+        <v>-9.118296372309315e-6</v>
       </c>
       <c r="J49">
-        <v>0.001944002551374489</v>
+        <v>0.0019440025513781682</v>
       </c>
       <c r="K49">
-        <v>4.831353977136225e-5</v>
+        <v>4.8313539771395816e-5</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2135,34 +2135,34 @@
         <v>-0.0015000000000000013</v>
       </c>
       <c r="B50">
-        <v>7.318531379293011</v>
+        <v>7.318531379293013</v>
       </c>
       <c r="C50">
         <v>3.3596507570729135e-5</v>
       </c>
       <c r="D50">
-        <v>-8.854558823557522e-6</v>
+        <v>-8.854558823557495e-6</v>
       </c>
       <c r="E50">
-        <v>0.0019428529991676526</v>
+        <v>0.001942852999167652</v>
       </c>
       <c r="F50">
-        <v>4.831320321130851e-5</v>
+        <v>4.83132032113085e-5</v>
       </c>
       <c r="G50">
-        <v>7.318485289057696</v>
+        <v>7.318485289050108</v>
       </c>
       <c r="H50">
-        <v>3.358261194569312e-5</v>
+        <v>3.358261194568879e-5</v>
       </c>
       <c r="I50">
-        <v>-8.863651138110622e-6</v>
+        <v>-8.863651138067426e-6</v>
       </c>
       <c r="J50">
-        <v>0.0019428468960047908</v>
+        <v>0.0019428468960085298</v>
       </c>
       <c r="K50">
-        <v>4.831318457595074e-5</v>
+        <v>4.831318457598502e-5</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2170,7 +2170,7 @@
         <v>-0.0005000000000000004</v>
       </c>
       <c r="B51">
-        <v>7.308057908049579</v>
+        <v>7.308057908049578</v>
       </c>
       <c r="C51">
         <v>2.996656368943619e-5</v>
@@ -2179,25 +2179,25 @@
         <v>-8.490681568549664e-6</v>
       </c>
       <c r="E51">
-        <v>0.001941770092638928</v>
+        <v>0.0019417700926389282</v>
       </c>
       <c r="F51">
         <v>4.831324984256905e-5</v>
       </c>
       <c r="G51">
-        <v>7.308006556553027</v>
+        <v>7.308006556545467</v>
       </c>
       <c r="H51">
-        <v>2.9950888839104524e-5</v>
+        <v>2.9950888839100225e-5</v>
       </c>
       <c r="I51">
-        <v>-8.500924952827916e-6</v>
+        <v>-8.500924952784046e-6</v>
       </c>
       <c r="J51">
-        <v>0.0019417631743725535</v>
+        <v>0.0019417631743763523</v>
       </c>
       <c r="K51">
-        <v>4.831322954871378e-5</v>
+        <v>4.831322954874875e-5</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2205,7 +2205,7 @@
         <v>0.000499999999999997</v>
       </c>
       <c r="B52">
-        <v>7.298365345510584</v>
+        <v>7.298365345510583</v>
       </c>
       <c r="C52">
         <v>2.6524873023971605e-5</v>
@@ -2214,25 +2214,25 @@
         <v>-8.005147566357453e-6</v>
       </c>
       <c r="E52">
-        <v>0.0019407697016077274</v>
+        <v>0.0019407697016077278</v>
       </c>
       <c r="F52">
-        <v>4.831369132955279e-5</v>
+        <v>4.8313691329552805e-5</v>
       </c>
       <c r="G52">
-        <v>7.2983092384147925</v>
+        <v>7.2983092384072545</v>
       </c>
       <c r="H52">
-        <v>2.650754299807068e-5</v>
+        <v>2.6507542998066418e-5</v>
       </c>
       <c r="I52">
-        <v>-8.01646124885688e-6</v>
+        <v>-8.016461248812398e-6</v>
       </c>
       <c r="J52">
-        <v>0.001940762020548118</v>
+        <v>0.001940762020551976</v>
       </c>
       <c r="K52">
-        <v>4.831366961967071e-5</v>
+        <v>4.831366961970634e-5</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2240,34 +2240,34 @@
         <v>0.0014999999999999944</v>
       </c>
       <c r="B53">
-        <v>7.289491384498725</v>
+        <v>7.289491384498726</v>
       </c>
       <c r="C53">
         <v>2.3291165171862154e-5</v>
       </c>
       <c r="D53">
-        <v>-7.38531574010838e-6</v>
+        <v>-7.385315740108352e-6</v>
       </c>
       <c r="E53">
-        <v>0.0019398617373779395</v>
+        <v>0.0019398617373779397</v>
       </c>
       <c r="F53">
         <v>4.8314521056358154e-5</v>
       </c>
       <c r="G53">
-        <v>7.289431262676827</v>
+        <v>7.289431262669307</v>
       </c>
       <c r="H53">
-        <v>2.3272386235964232e-5</v>
+        <v>2.327238623596001e-5</v>
       </c>
       <c r="I53">
-        <v>-7.397566069879849e-6</v>
+        <v>-7.3975660698348126e-6</v>
       </c>
       <c r="J53">
-        <v>0.0019398533847245637</v>
+        <v>0.0019398533847284803</v>
       </c>
       <c r="K53">
-        <v>4.8314498237992474e-5</v>
+        <v>4.831449823802877e-5</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2275,34 +2275,34 @@
         <v>0.0024999999999999953</v>
       </c>
       <c r="B54">
-        <v>7.281465004781658</v>
+        <v>7.281465004781657</v>
       </c>
       <c r="C54">
         <v>2.0282702484804773e-5</v>
       </c>
       <c r="D54">
-        <v>-6.620129437104408e-6</v>
+        <v>-6.620129437104409e-6</v>
       </c>
       <c r="E54">
-        <v>0.0019390549328125643</v>
+        <v>0.0019390549328125646</v>
       </c>
       <c r="F54">
-        <v>4.831573044325217e-5</v>
+        <v>4.8315730443252176e-5</v>
       </c>
       <c r="G54">
-        <v>7.281401819146434</v>
+        <v>7.28140181913893</v>
       </c>
       <c r="H54">
-        <v>2.0262758013650156e-5</v>
+        <v>2.0262758013645965e-5</v>
       </c>
       <c r="I54">
-        <v>-6.633133223383306e-6</v>
+        <v>-6.63313322333779e-6</v>
       </c>
       <c r="J54">
-        <v>0.0019390460366024481</v>
+        <v>0.0019390460366064234</v>
       </c>
       <c r="K54">
-        <v>4.831570687653615e-5</v>
+        <v>4.831570687657308e-5</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2310,13 +2310,13 @@
         <v>0.003499999999999996</v>
       </c>
       <c r="B55">
-        <v>7.2743043936859735</v>
+        <v>7.274304393685975</v>
       </c>
       <c r="C55">
         <v>1.751336563035466e-5</v>
       </c>
       <c r="D55">
-        <v>-5.7006973807225425e-6</v>
+        <v>-5.700697380722543e-6</v>
       </c>
       <c r="E55">
         <v>0.0019383563752308692</v>
@@ -2325,19 +2325,19 @@
         <v>4.8317308571801674e-5</v>
       </c>
       <c r="G55">
-        <v>7.274239262090454</v>
+        <v>7.274239262082963</v>
       </c>
       <c r="H55">
-        <v>1.7492604239720916e-5</v>
+        <v>1.7492604239716758e-5</v>
       </c>
       <c r="I55">
-        <v>-5.714229547976359e-6</v>
+        <v>-5.714229547930437e-6</v>
       </c>
       <c r="J55">
-        <v>0.001938347094929597</v>
+        <v>0.0019383470949336304</v>
       </c>
       <c r="K55">
-        <v>4.831728465309974e-5</v>
+        <v>4.831728465313729e-5</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2354,25 +2354,25 @@
         <v>-4.620784510354977e-6</v>
       </c>
       <c r="E56">
-        <v>0.0019377711086931194</v>
+        <v>0.0019377711086931192</v>
       </c>
       <c r="F56">
-        <v>4.8319241947683665e-5</v>
+        <v>4.831924194768367e-5</v>
       </c>
       <c r="G56">
-        <v>7.267949498016932</v>
+        <v>7.267949498009454</v>
       </c>
       <c r="H56">
-        <v>1.4971698053980365e-5</v>
+        <v>1.4971698053976247e-5</v>
       </c>
       <c r="I56">
-        <v>-4.634589601394378e-6</v>
+        <v>-4.63458960134813e-6</v>
       </c>
       <c r="J56">
-        <v>0.0019377616267484625</v>
+        <v>0.0019377616267525542</v>
       </c>
       <c r="K56">
-        <v>4.83192180905372e-5</v>
+        <v>4.8319218090575346e-5</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2386,28 +2386,28 @@
         <v>1.2726257089254663e-5</v>
       </c>
       <c r="D57">
-        <v>-3.3771680410233087e-6</v>
+        <v>-3.377168041023337e-6</v>
       </c>
       <c r="E57">
-        <v>0.0019373018446669737</v>
+        <v>0.0019373018446669742</v>
       </c>
       <c r="F57">
         <v>4.832151441434018e-5</v>
       </c>
       <c r="G57">
-        <v>7.2625250085133075</v>
+        <v>7.262525008505842</v>
       </c>
       <c r="H57">
-        <v>1.2705074593533019e-5</v>
+        <v>1.2705074593528932e-5</v>
       </c>
       <c r="I57">
-        <v>-3.3909746112401996e-6</v>
+        <v>-3.390974611193707e-6</v>
       </c>
       <c r="J57">
-        <v>0.001937292355758522</v>
+        <v>0.001937292355762672</v>
       </c>
       <c r="K57">
-        <v>4.832149102913161e-5</v>
+        <v>4.832149102917033e-5</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2415,7 +2415,7 @@
         <v>0.006499999999999999</v>
       </c>
       <c r="B58">
-        <v>7.258008122081364</v>
+        <v>7.258008122081363</v>
       </c>
       <c r="C58">
         <v>1.0713495654058826e-5</v>
@@ -2424,25 +2424,25 @@
         <v>-1.969825197549196e-6</v>
       </c>
       <c r="E58">
-        <v>0.0019369488105258977</v>
+        <v>0.0019369488105258979</v>
       </c>
       <c r="F58">
-        <v>4.8324107221801486e-5</v>
+        <v>4.832410722180149e-5</v>
       </c>
       <c r="G58">
-        <v>7.257944606064144</v>
+        <v>7.257944606056692</v>
       </c>
       <c r="H58">
-        <v>1.069273385989908e-5</v>
+        <v>1.0692733859895028e-5</v>
       </c>
       <c r="I58">
-        <v>-1.9833617621075308e-6</v>
+        <v>-1.9833617620608715e-6</v>
       </c>
       <c r="J58">
-        <v>0.0019369395095702997</v>
+        <v>0.0019369395095745093</v>
       </c>
       <c r="K58">
-        <v>4.832408469565651e-5</v>
+        <v>4.832408469569581e-5</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2450,7 +2450,7 @@
         <v>0.0075</v>
       </c>
       <c r="B59">
-        <v>7.254234549479516</v>
+        <v>7.2542345494795155</v>
       </c>
       <c r="C59">
         <v>8.949585857645022e-6</v>
@@ -2459,25 +2459,25 @@
         <v>-4.0193456922472886e-7</v>
       </c>
       <c r="E59">
-        <v>0.001936709751527726</v>
+        <v>0.0019367097515277257</v>
       </c>
       <c r="F59">
-        <v>4.832699924624141e-5</v>
+        <v>4.832699924624142e-5</v>
       </c>
       <c r="G59">
-        <v>7.254173956726554</v>
+        <v>7.254173956719118</v>
       </c>
       <c r="H59">
-        <v>8.929640718984349e-6</v>
+        <v>8.929640718980332e-6</v>
       </c>
       <c r="I59">
-        <v>-4.1494555596154425e-7</v>
+        <v>-4.1494555591480285e-7</v>
       </c>
       <c r="J59">
-        <v>0.0019367008216779854</v>
+        <v>0.0019367008216822545</v>
       </c>
       <c r="K59">
-        <v>4.832697792466427e-5</v>
+        <v>4.832697792470413e-5</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2485,7 +2485,7 @@
         <v>0.008499999999999997</v>
       </c>
       <c r="B60">
-        <v>7.25122352671418</v>
+        <v>7.251223526714181</v>
       </c>
       <c r="C60">
         <v>7.424801893838488e-6</v>
@@ -2500,19 +2500,19 @@
         <v>4.8330167347267994e-5</v>
       </c>
       <c r="G60">
-        <v>7.2511668347467975</v>
+        <v>7.251166834739382</v>
       </c>
       <c r="H60">
-        <v>7.406022033906751e-6</v>
+        <v>7.406022033902771e-6</v>
       </c>
       <c r="I60">
-        <v>1.308048917797705e-6</v>
+        <v>1.3080489178444803e-6</v>
       </c>
       <c r="J60">
-        <v>0.0019365716877018356</v>
+        <v>0.0019365716877061641</v>
       </c>
       <c r="K60">
-        <v>4.8330147518852914e-5</v>
+        <v>4.833014751889334e-5</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2526,28 +2526,28 @@
         <v>6.125263095084021e-6</v>
       </c>
       <c r="D61">
-        <v>3.1880487687879953e-6</v>
+        <v>3.1880487687879957e-6</v>
       </c>
       <c r="E61">
-        <v>0.0019365531960946233</v>
+        <v>0.001936553196094623</v>
       </c>
       <c r="F61">
         <v>4.8333586841729365e-5</v>
       </c>
       <c r="G61">
-        <v>7.24886700872101</v>
+        <v>7.248867008713618</v>
       </c>
       <c r="H61">
-        <v>6.107931898853794e-6</v>
+        <v>6.107931898849852e-6</v>
       </c>
       <c r="I61">
-        <v>3.176722836439314e-6</v>
+        <v>3.1767228364860748e-6</v>
       </c>
       <c r="J61">
-        <v>0.001936545459293469</v>
+        <v>0.0019365454592978582</v>
       </c>
       <c r="K61">
-        <v>4.83335687270224e-5</v>
+        <v>4.833356872706337e-5</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2555,34 +2555,34 @@
         <v>0.010499999999999995</v>
       </c>
       <c r="B62">
-        <v>7.247257412886859</v>
+        <v>7.24725741288686</v>
       </c>
       <c r="C62">
         <v>5.0337071096847305e-6</v>
       </c>
       <c r="D62">
-        <v>5.1902547445883375e-6</v>
+        <v>5.1902547445883654e-6</v>
       </c>
       <c r="E62">
-        <v>0.0019366208278392347</v>
+        <v>0.0019366208278392345</v>
       </c>
       <c r="F62">
         <v>4.8337232065258525e-5</v>
       </c>
       <c r="G62">
-        <v>7.247210604516341</v>
+        <v>7.247210604508978</v>
       </c>
       <c r="H62">
-        <v>5.018030855553445e-6</v>
+        <v>5.018030855549541e-6</v>
       </c>
       <c r="I62">
-        <v>5.179996909765522e-6</v>
+        <v>5.179996909812223e-6</v>
       </c>
       <c r="J62">
-        <v>0.0019366138454667587</v>
+        <v>0.0019366138454712087</v>
       </c>
       <c r="K62">
-        <v>4.83372158104747e-5</v>
+        <v>4.8337215810516194e-5</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2590,34 +2590,34 @@
         <v>0.011499999999999996</v>
       </c>
       <c r="B63">
-        <v>7.246170055245895</v>
+        <v>7.246170055245896</v>
       </c>
       <c r="C63">
         <v>4.13040434011371e-6</v>
       </c>
       <c r="D63">
-        <v>7.314304758728796e-6</v>
+        <v>7.314304758728769e-6</v>
       </c>
       <c r="E63">
-        <v>0.0019367735553944684</v>
+        <v>0.0019367735553944686</v>
       </c>
       <c r="F63">
-        <v>4.834107698650936e-5</v>
+        <v>4.8341076986509354e-5</v>
       </c>
       <c r="G63">
-        <v>7.246128753263546</v>
+        <v>7.246128753256216</v>
       </c>
       <c r="H63">
-        <v>4.116507093003907e-6</v>
+        <v>4.11650709300004e-6</v>
       </c>
       <c r="I63">
-        <v>7.305195997998384e-6</v>
+        <v>7.305195998044985e-6</v>
       </c>
       <c r="J63">
-        <v>0.001936767381916286</v>
+        <v>0.0019367673819207978</v>
       </c>
       <c r="K63">
-        <v>4.8341062662370596e-5</v>
+        <v>4.834106266241265e-5</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2631,28 +2631,28 @@
         <v>3.394133822880611e-6</v>
       </c>
       <c r="D64">
-        <v>9.546605062069185e-6</v>
+        <v>9.546605062069183e-6</v>
       </c>
       <c r="E64">
-        <v>0.0019370012728420704</v>
+        <v>0.0019370012728420708</v>
       </c>
       <c r="F64">
         <v>4.834509583489927e-5</v>
       </c>
       <c r="G64">
-        <v>7.245550317349535</v>
+        <v>7.245550317342243</v>
       </c>
       <c r="H64">
-        <v>3.3820589909548516e-6</v>
+        <v>3.3820589909510214e-6</v>
       </c>
       <c r="I64">
-        <v>9.538674363947875e-6</v>
+        <v>9.538674363994335e-6</v>
       </c>
       <c r="J64">
-        <v>0.001936995925163273</v>
+        <v>0.0019369959251678474</v>
       </c>
       <c r="K64">
-        <v>4.834508344038968e-5</v>
+        <v>4.834508344043226e-5</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2660,7 +2660,7 @@
         <v>0.013499999999999998</v>
       </c>
       <c r="B65">
-        <v>7.24543480587311</v>
+        <v>7.245434805873111</v>
       </c>
       <c r="C65">
         <v>2.8031417706638426e-6</v>
@@ -2669,25 +2669,25 @@
         <v>1.1873202232559439e-5</v>
       </c>
       <c r="E65">
-        <v>0.0019372936688852127</v>
+        <v>0.0019372936688852125</v>
       </c>
       <c r="F65">
         <v>4.834926370155124e-5</v>
       </c>
       <c r="G65">
-        <v>7.245404494546612</v>
+        <v>7.245404494539363</v>
       </c>
       <c r="H65">
-        <v>2.792859490591316e-6</v>
+        <v>2.7928594905875226e-6</v>
       </c>
       <c r="I65">
-        <v>1.186643125393639e-5</v>
+        <v>1.1866431253982672e-5</v>
       </c>
       <c r="J65">
-        <v>0.0019372891301832047</v>
+        <v>0.0019372891301878414</v>
       </c>
       <c r="K65">
-        <v>4.8349253171940607e-5</v>
+        <v>4.83492531719837e-5</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2695,7 +2695,7 @@
         <v>0.014499999999999999</v>
       </c>
       <c r="B66">
-        <v>7.245648335323539</v>
+        <v>7.24564833532354</v>
       </c>
       <c r="C66">
         <v>2.3360137214177946e-6</v>
@@ -2710,19 +2710,19 @@
         <v>4.835355707565237e-5</v>
       </c>
       <c r="G66">
-        <v>7.245623128151915</v>
+        <v>7.245623128144712</v>
       </c>
       <c r="H66">
-        <v>2.3274326842292668e-6</v>
+        <v>2.3274326842255097e-6</v>
       </c>
       <c r="I66">
-        <v>1.4274672445618949e-5</v>
+        <v>1.4274672445665017e-5</v>
       </c>
       <c r="J66">
-        <v>0.0019376368766715105</v>
+        <v>0.0019376368766762095</v>
       </c>
       <c r="K66">
-        <v>4.835354829377335e-5</v>
+        <v>4.8353548293816914e-5</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2730,7 +2730,7 @@
         <v>0.0155</v>
       </c>
       <c r="B67">
-        <v>7.246163143697308</v>
+        <v>7.2461631436973075</v>
       </c>
       <c r="C67">
         <v>1.972407500647515e-6</v>
@@ -2739,25 +2739,25 @@
         <v>1.6754940013991176e-5</v>
       </c>
       <c r="E67">
-        <v>0.0019380326944604819</v>
+        <v>0.0019380326944604816</v>
       </c>
       <c r="F67">
         <v>4.835795428473176e-5</v>
       </c>
       <c r="G67">
-        <v>7.246142594459835</v>
+        <v>7.246142594452683</v>
       </c>
       <c r="H67">
-        <v>1.965389522312489e-6</v>
+        <v>1.9653895223087682e-6</v>
       </c>
       <c r="I67">
-        <v>1.6750283575028294e-5</v>
+        <v>1.6750283575074122e-5</v>
       </c>
       <c r="J67">
-        <v>0.0019380296188024346</v>
+        <v>0.001938029618807195</v>
       </c>
       <c r="K67">
-        <v>4.835794709425911e-5</v>
+        <v>4.835794709430314e-5</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2774,25 +2774,25 @@
         <v>1.928494623174159e-5</v>
       </c>
       <c r="E68">
-        <v>0.0019384611003600194</v>
+        <v>0.0019384611003600192</v>
       </c>
       <c r="F68">
         <v>4.836243581685834e-5</v>
       </c>
       <c r="G68">
-        <v>7.246905191344779</v>
+        <v>7.246905191337682</v>
       </c>
       <c r="H68">
-        <v>1.6879897295820197e-6</v>
+        <v>1.6879897295783358e-6</v>
       </c>
       <c r="I68">
-        <v>1.9281193679715902e-5</v>
+        <v>1.9281193679761472e-5</v>
       </c>
       <c r="J68">
-        <v>0.0019384586444552087</v>
+        <v>0.0019384586444600312</v>
       </c>
       <c r="K68">
-        <v>4.836243003626073e-5</v>
+        <v>4.8362430036305206e-5</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2809,25 +2809,25 @@
         <v>2.1859589078427797e-5</v>
       </c>
       <c r="E69">
-        <v>0.0019389181623986152</v>
+        <v>0.001938918162398615</v>
       </c>
       <c r="F69">
-        <v>4.836698451428948e-5</v>
+        <v>4.836698451428949e-5</v>
       </c>
       <c r="G69">
-        <v>7.247860005775937</v>
+        <v>7.2478600057688976</v>
       </c>
       <c r="H69">
-        <v>1.4785178318250381e-6</v>
+        <v>1.4785178318213902e-6</v>
       </c>
       <c r="I69">
-        <v>2.1856620552156135e-5</v>
+        <v>2.185662055220142e-5</v>
       </c>
       <c r="J69">
-        <v>0.0019389162407159003</v>
+        <v>0.001938916240720785</v>
       </c>
       <c r="K69">
-        <v>4.83669799502105e-5</v>
+        <v>4.836697995025541e-5</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2835,34 +2835,34 @@
         <v>0.018500000000000003</v>
       </c>
       <c r="B70">
-        <v>7.248973155728674</v>
+        <v>7.248973155728675</v>
       </c>
       <c r="C70">
         <v>1.3258776575638102e-6</v>
       </c>
       <c r="D70">
-        <v>2.446950805608784e-5</v>
+        <v>2.4469508056087844e-5</v>
       </c>
       <c r="E70">
-        <v>0.0019393972451773097</v>
+        <v>0.00193939724517731</v>
       </c>
       <c r="F70">
-        <v>4.837158564007961e-5</v>
+        <v>4.837158564007962e-5</v>
       </c>
       <c r="G70">
-        <v>7.248963286852573</v>
+        <v>7.248963286845593</v>
       </c>
       <c r="H70">
-        <v>1.3224799088500467e-6</v>
+        <v>1.3224799088464347e-6</v>
       </c>
       <c r="I70">
-        <v>2.4467201459834588e-5</v>
+        <v>2.446720145987957e-5</v>
       </c>
       <c r="J70">
-        <v>0.0019393957716573517</v>
+        <v>0.0019393957716622974</v>
       </c>
       <c r="K70">
-        <v>4.8371582099130414e-5</v>
+        <v>4.8371582099175734e-5</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2879,25 +2879,25 @@
         <v>2.7106784362624107e-5</v>
       </c>
       <c r="E71">
-        <v>0.0019398927883358035</v>
+        <v>0.0019398927883358037</v>
       </c>
       <c r="F71">
         <v>4.837622682993255e-5</v>
       </c>
       <c r="G71">
-        <v>7.250178389179823</v>
+        <v>7.2501783891729055</v>
       </c>
       <c r="H71">
-        <v>1.2076423368992323e-6</v>
+        <v>1.2076423368956564e-6</v>
       </c>
       <c r="I71">
-        <v>2.7105022267493485e-5</v>
+        <v>2.7105022267538164e-5</v>
       </c>
       <c r="J71">
-        <v>0.001939891681104501</v>
+        <v>0.001939891681109507</v>
       </c>
       <c r="K71">
-        <v>4.837622412819752e-5</v>
+        <v>4.8376224128243246e-5</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2917,22 +2917,22 @@
         <v>0.0019404002523193747</v>
       </c>
       <c r="F72">
-        <v>4.8380897949790805e-5</v>
+        <v>4.838089794979081e-5</v>
       </c>
       <c r="G72">
-        <v>7.251475376109701</v>
+        <v>7.251475376102847</v>
       </c>
       <c r="H72">
-        <v>1.1239433204132534e-6</v>
+        <v>1.123943320409713e-6</v>
       </c>
       <c r="I72">
-        <v>2.9763564278363438e-5</v>
+        <v>2.9763564278407806e-5</v>
       </c>
       <c r="J72">
-        <v>0.0019403994369961396</v>
+        <v>0.0019403994370012039</v>
       </c>
       <c r="K72">
-        <v>4.838089591970303e-5</v>
+        <v>4.8380895919749156e-5</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2955,19 +2955,19 @@
         <v>4.838559088448948e-5</v>
       </c>
       <c r="G73">
-        <v>7.252830382977419</v>
+        <v>7.25283038297063</v>
       </c>
       <c r="H73">
-        <v>1.0633123131895515e-6</v>
+        <v>1.0633123131860471e-6</v>
       </c>
       <c r="I73">
-        <v>3.24375910641636e-5</v>
+        <v>3.243759106420765e-5</v>
       </c>
       <c r="J73">
-        <v>0.001940915435209952</v>
+        <v>0.0019409154352150737</v>
       </c>
       <c r="K73">
-        <v>4.8385589379066214e-5</v>
+        <v>4.83855893791127e-5</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2975,34 +2975,34 @@
         <v>0.022499999999999992</v>
       </c>
       <c r="B74">
-        <v>7.254227619613074</v>
+        <v>7.254227619613075</v>
       </c>
       <c r="C74">
         <v>1.0203948659153001e-6</v>
       </c>
       <c r="D74">
-        <v>3.512371993081615e-5</v>
+        <v>3.512371993081618e-5</v>
       </c>
       <c r="E74">
-        <v>0.0019414372958632036</v>
+        <v>0.0019414372958632031</v>
       </c>
       <c r="F74">
-        <v>4.83902992841052e-5</v>
+        <v>4.8390299284105205e-5</v>
       </c>
       <c r="G74">
-        <v>7.254224838497752</v>
+        <v>7.254224838491029</v>
       </c>
       <c r="H74">
-        <v>1.0194321186797378e-6</v>
+        <v>1.019432118676269e-6</v>
       </c>
       <c r="I74">
-        <v>3.51229975371365e-5</v>
+        <v>3.5122997537180225e-5</v>
       </c>
       <c r="J74">
-        <v>0.001941436879808685</v>
+        <v>0.0019414368798138632</v>
       </c>
       <c r="K74">
-        <v>4.8390298178802785e-5</v>
+        <v>4.839029817884962e-5</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3010,34 +3010,34 @@
         <v>0.023499999999999993</v>
       </c>
       <c r="B75">
-        <v>7.255646549596952</v>
+        <v>7.255646549596953</v>
       </c>
       <c r="C75">
         <v>9.881382667228709e-7</v>
       </c>
       <c r="D75">
-        <v>3.781716879031416e-5</v>
+        <v>3.7817168790314164e-5</v>
       </c>
       <c r="E75">
         <v>0.0019419619425920737</v>
       </c>
       <c r="F75">
-        <v>4.8395018292841214e-5</v>
+        <v>4.839501829284121e-5</v>
       </c>
       <c r="G75">
-        <v>7.255644630930483</v>
+        <v>7.255644630923827</v>
       </c>
       <c r="H75">
-        <v>9.874746555374904e-7</v>
+        <v>9.874746555340572e-7</v>
       </c>
       <c r="I75">
-        <v>3.781664121979044e-5</v>
+        <v>3.7816641219833854e-5</v>
       </c>
       <c r="J75">
-        <v>0.0019419616542480647</v>
+        <v>0.0019419616542532985</v>
       </c>
       <c r="K75">
-        <v>4.8395017485467284e-5</v>
+        <v>4.839501748551447e-5</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3045,34 +3045,34 @@
         <v>0.024499999999999994</v>
       </c>
       <c r="B76">
-        <v>7.257080580254276</v>
+        <v>7.257080580254275</v>
       </c>
       <c r="C76">
         <v>9.6428098915461e-7</v>
       </c>
       <c r="D76">
-        <v>4.051655752251765e-5</v>
+        <v>4.051655752251766e-5</v>
       </c>
       <c r="E76">
-        <v>0.0019424883907241414</v>
+        <v>0.0019424883907241419</v>
       </c>
       <c r="F76">
         <v>4.839974428125018e-5</v>
       </c>
       <c r="G76">
-        <v>7.257079288126114</v>
+        <v>7.2570792881195265</v>
       </c>
       <c r="H76">
-        <v>9.638353998044682e-7</v>
+        <v>9.638353998010702e-7</v>
       </c>
       <c r="I76">
-        <v>4.051617192543449e-5</v>
+        <v>4.051617192547758e-5</v>
       </c>
       <c r="J76">
-        <v>0.001942488194847887</v>
+        <v>0.0019424881948531744</v>
       </c>
       <c r="K76">
-        <v>4.8399743690455005e-5</v>
+        <v>4.839974369050252e-5</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3080,7 +3080,7 @@
         <v>0.025499999999999995</v>
       </c>
       <c r="B77">
-        <v>7.258522068002907</v>
+        <v>7.258522068002905</v>
       </c>
       <c r="C77">
         <v>9.461749295081832e-7</v>
@@ -3089,25 +3089,25 @@
         <v>4.3220156221515145e-5</v>
       </c>
       <c r="E77">
-        <v>0.0019430155048473783</v>
+        <v>0.001943015504847378</v>
       </c>
       <c r="F77">
-        <v>4.8404474597323056e-5</v>
+        <v>4.840447459732305e-5</v>
       </c>
       <c r="G77">
-        <v>7.258521220705964</v>
+        <v>7.258521220699443</v>
       </c>
       <c r="H77">
-        <v>9.458846451017691e-7</v>
+        <v>9.458846450984061e-7</v>
       </c>
       <c r="I77">
-        <v>4.321987169473503e-5</v>
+        <v>4.321987169477779e-5</v>
       </c>
       <c r="J77">
-        <v>0.0019430153743728166</v>
+        <v>0.0019430153743781563</v>
       </c>
       <c r="K77">
-        <v>4.8404474160191944e-5</v>
+        <v>4.840447416023978e-5</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3124,25 +3124,25 @@
         <v>4.5926726763690936e-5</v>
       </c>
       <c r="E78">
-        <v>0.0019435424856509423</v>
+        <v>0.0019435424856509428</v>
       </c>
       <c r="F78">
-        <v>4.840920734642619e-5</v>
+        <v>4.8409207346426185e-5</v>
       </c>
       <c r="G78">
-        <v>7.259965058388014</v>
+        <v>7.25996505838156</v>
       </c>
       <c r="H78">
-        <v>9.317470066590061e-7</v>
+        <v>9.317470066556783e-7</v>
       </c>
       <c r="I78">
-        <v>4.592651252385817e-5</v>
+        <v>4.592651252390062e-5</v>
       </c>
       <c r="J78">
-        <v>0.001943542400359707</v>
+        <v>0.0019435424003650976</v>
       </c>
       <c r="K78">
-        <v>4.8409207015634076e-5</v>
+        <v>4.8409207015682215e-5</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3150,7 +3150,7 @@
         <v>0.027499999999999997</v>
       </c>
       <c r="B79">
-        <v>7.261407422129049</v>
+        <v>7.261407422129051</v>
       </c>
       <c r="C79">
         <v>9.202232757504605e-7</v>
@@ -3159,25 +3159,25 @@
         <v>4.8635402154121234e-5</v>
       </c>
       <c r="E79">
-        <v>0.0019440687849680816</v>
+        <v>0.0019440687849680812</v>
       </c>
       <c r="F79">
-        <v>4.8413941205007614e-5</v>
+        <v>4.841394120500761e-5</v>
       </c>
       <c r="G79">
-        <v>7.261407092908833</v>
+        <v>7.261407092902448</v>
       </c>
       <c r="H79">
-        <v>9.201147641144108e-7</v>
+        <v>9.201147641111183e-7</v>
       </c>
       <c r="I79">
-        <v>4.863523565047624e-5</v>
+        <v>4.863523565051838e-5</v>
       </c>
       <c r="J79">
-        <v>0.001944068730155244</v>
+        <v>0.001944068730160684</v>
       </c>
       <c r="K79">
-        <v>4.841394094590019e-5</v>
+        <v>4.841394094594861e-5</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3185,7 +3185,7 @@
         <v>0.028499999999999998</v>
       </c>
       <c r="B80">
-        <v>7.262845018644519</v>
+        <v>7.26284501864452</v>
       </c>
       <c r="C80">
         <v>9.101555930183322e-7</v>
@@ -3194,25 +3194,25 @@
         <v>5.134558806318752e-5</v>
       </c>
       <c r="E80">
-        <v>0.001944594037379451</v>
+        <v>0.0019445940373794507</v>
       </c>
       <c r="F80">
-        <v>4.841867526889428e-5</v>
+        <v>4.8418675268894285e-5</v>
       </c>
       <c r="G80">
-        <v>7.262844828216602</v>
+        <v>7.262844828210285</v>
       </c>
       <c r="H80">
-        <v>9.100960877623599e-7</v>
+        <v>9.100960877591023e-7</v>
       </c>
       <c r="I80">
-        <v>5.1345453202660855e-5</v>
+        <v>5.134545320270267e-5</v>
       </c>
       <c r="J80">
-        <v>0.0019445940026238634</v>
+        <v>0.001944594002629352</v>
       </c>
       <c r="K80">
-        <v>4.841867505675152e-5</v>
+        <v>4.841867505680023e-5</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3220,7 +3220,7 @@
         <v>0.0295</v>
       </c>
       <c r="B81">
-        <v>7.264276730446022</v>
+        <v>7.264276730446021</v>
       </c>
       <c r="C81">
         <v>9.011236480933065e-7</v>
@@ -3229,25 +3229,25 @@
         <v>5.405688535372191e-5</v>
       </c>
       <c r="E81">
-        <v>0.0019451180070548916</v>
+        <v>0.001945118007054892</v>
       </c>
       <c r="F81">
-        <v>4.842340893406654e-5</v>
+        <v>4.8423408934066534e-5</v>
       </c>
       <c r="G81">
-        <v>7.264276629884896</v>
+        <v>7.264276629878647</v>
       </c>
       <c r="H81">
-        <v>9.010960293426105e-7</v>
+        <v>9.010960293393875e-7</v>
       </c>
       <c r="I81">
-        <v>5.405677094146535e-5</v>
+        <v>5.405677094150684e-5</v>
       </c>
       <c r="J81">
-        <v>0.0019451179851559127</v>
+        <v>0.0019451179851614482</v>
       </c>
       <c r="K81">
-        <v>4.842340875170201e-5</v>
+        <v>4.8423408751750993e-5</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3255,34 +3255,34 @@
         <v>0.0305</v>
       </c>
       <c r="B82">
-        <v>7.2657015044469695</v>
+        <v>7.265701504446969</v>
       </c>
       <c r="C82">
         <v>8.927336204944563e-7</v>
       </c>
       <c r="D82">
-        <v>5.676903113811682e-5</v>
+        <v>5.676903113811685e-5</v>
       </c>
       <c r="E82">
-        <v>0.0019456405477637595</v>
+        <v>0.0019456405477637593</v>
       </c>
       <c r="F82">
         <v>4.842814180600059e-5</v>
       </c>
       <c r="G82">
-        <v>7.265701460671964</v>
+        <v>7.265701460665781</v>
       </c>
       <c r="H82">
-        <v>8.927262747652214e-7</v>
+        <v>8.927262747620327e-7</v>
       </c>
       <c r="I82">
-        <v>5.676892957966434e-5</v>
+        <v>5.67689295797055e-5</v>
       </c>
       <c r="J82">
-        <v>0.0019456405338681337</v>
+        <v>0.0019456405338737143</v>
       </c>
       <c r="K82">
-        <v>4.8428141641764836e-5</v>
+        <v>4.842814164181407e-5</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3290,7 +3290,7 @@
         <v>0.0315</v>
       </c>
       <c r="B83">
-        <v>7.267118695935651</v>
+        <v>7.26711869593565</v>
       </c>
       <c r="C83">
         <v>8.847335806952949e-7</v>
@@ -3299,25 +3299,25 @@
         <v>5.94818553210217e-5</v>
       </c>
       <c r="E83">
-        <v>0.0019461615736993227</v>
+        <v>0.001946161573699323</v>
       </c>
       <c r="F83">
-        <v>4.843287363284496e-5</v>
+        <v>4.843287363284497e-5</v>
       </c>
       <c r="G83">
-        <v>7.267118687116871</v>
+        <v>7.267118687110757</v>
       </c>
       <c r="H83">
-        <v>8.847388187757556e-7</v>
+        <v>8.847388187726011e-7</v>
       </c>
       <c r="I83">
-        <v>5.948176159064912e-5</v>
+        <v>5.948176159068994e-5</v>
       </c>
       <c r="J83">
-        <v>0.0019461615646152223</v>
+        <v>0.0019461615646208475</v>
       </c>
       <c r="K83">
-        <v>4.843287347903892e-5</v>
+        <v>4.8432873479088396e-5</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3334,25 +3334,25 @@
         <v>6.219524949891114e-5</v>
       </c>
       <c r="E84">
-        <v>0.0019466810388040002</v>
+        <v>0.001946681038804</v>
       </c>
       <c r="F84">
-        <v>4.843760425760104e-5</v>
+        <v>4.8437604257601045e-5</v>
       </c>
       <c r="G84">
-        <v>7.268527942180258</v>
+        <v>7.268527942174212</v>
       </c>
       <c r="H84">
-        <v>8.769786471342666e-7</v>
+        <v>8.76978647131146e-7</v>
       </c>
       <c r="I84">
-        <v>6.219516035210271e-5</v>
+        <v>6.21951603521432e-5</v>
       </c>
       <c r="J84">
-        <v>0.001946681032482847</v>
+        <v>0.001946681032488515</v>
       </c>
       <c r="K84">
-        <v>4.8437604109264936e-5</v>
+        <v>4.843760410931463e-5</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3360,7 +3360,7 @@
         <v>0.0335</v>
       </c>
       <c r="B85">
-        <v>7.26992900627909</v>
+        <v>7.2699290062790904</v>
       </c>
       <c r="C85">
         <v>8.693336000859928e-7</v>
@@ -3372,22 +3372,22 @@
         <v>0.0019471989225223444</v>
       </c>
       <c r="F85">
-        <v>4.844233358485993e-5</v>
+        <v>4.844233358485994e-5</v>
       </c>
       <c r="G85">
-        <v>7.269929030396837</v>
+        <v>7.269929030390859</v>
       </c>
       <c r="H85">
-        <v>8.69350925030787e-7</v>
+        <v>8.693509250277e-7</v>
       </c>
       <c r="I85">
-        <v>6.490905872127423e-5</v>
+        <v>6.49090587213144e-5</v>
       </c>
       <c r="J85">
-        <v>0.0019471989176811431</v>
+        <v>0.0019471989176868525</v>
       </c>
       <c r="K85">
-        <v>4.844233343888205e-5</v>
+        <v>4.8442333438931984e-5</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3401,7 +3401,7 @@
         <v>8.61778996989178e-7</v>
       </c>
       <c r="D86">
-        <v>6.762349988069645e-5</v>
+        <v>6.762349988069646e-5</v>
       </c>
       <c r="E86">
         <v>0.0019477152202450176</v>
@@ -3410,19 +3410,19 @@
         <v>4.844706155828918e-5</v>
       </c>
       <c r="G86">
-        <v>7.27132186413874</v>
+        <v>7.271321864132828</v>
       </c>
       <c r="H86">
-        <v>8.617988592848197e-7</v>
+        <v>8.617988592817663e-7</v>
       </c>
       <c r="I86">
-        <v>6.762341456183974e-5</v>
+        <v>6.762341456187956e-5</v>
       </c>
       <c r="J86">
-        <v>0.0019477152161000882</v>
+        <v>0.0019477152161058375</v>
       </c>
       <c r="K86">
-        <v>4.844706141277187e-5</v>
+        <v>4.844706141282199e-5</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3430,7 +3430,7 @@
         <v>0.0355</v>
       </c>
       <c r="B87">
-        <v>7.2727063878272205</v>
+        <v>7.272706387827221</v>
       </c>
       <c r="C87">
         <v>8.542679214879081e-7</v>
@@ -3439,25 +3439,25 @@
         <v>7.033828600318858e-5</v>
       </c>
       <c r="E87">
-        <v>0.0019482299370652749</v>
+        <v>0.0019482299370652744</v>
       </c>
       <c r="F87">
-        <v>4.845178814579399e-5</v>
+        <v>4.8451788145794e-5</v>
       </c>
       <c r="G87">
-        <v>7.272706421900478</v>
+        <v>7.272706421894634</v>
       </c>
       <c r="H87">
-        <v>8.54289153390227e-7</v>
+        <v>8.542891533872068e-7</v>
       </c>
       <c r="I87">
-        <v>7.033820122340426e-5</v>
+        <v>7.033820122344377e-5</v>
       </c>
       <c r="J87">
-        <v>0.0019482299331503182</v>
+        <v>0.0019482299331561054</v>
       </c>
       <c r="K87">
-        <v>4.845178799961672e-5</v>
+        <v>4.8451787999667024e-5</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3465,7 +3465,7 @@
         <v>0.03649999999999999</v>
       </c>
       <c r="B88">
-        <v>7.274082686179229</v>
+        <v>7.274082686179228</v>
       </c>
       <c r="C88">
         <v>8.46780781868316e-7</v>
@@ -3474,25 +3474,25 @@
         <v>7.305348611238778e-5</v>
       </c>
       <c r="E88">
-        <v>0.001948743083803064</v>
+        <v>0.0019487430838030645</v>
       </c>
       <c r="F88">
         <v>4.845651332998603e-5</v>
       </c>
       <c r="G88">
-        <v>7.274082721690408</v>
+        <v>7.274082721684631</v>
       </c>
       <c r="H88">
-        <v>8.468026950548545e-7</v>
+        <v>8.468026950518676e-7</v>
       </c>
       <c r="I88">
-        <v>7.30534014388665e-5</v>
+        <v>7.30534014389057e-5</v>
       </c>
       <c r="J88">
-        <v>0.0019487430798484963</v>
+        <v>0.0019487430798543197</v>
       </c>
       <c r="K88">
-        <v>4.845651318251324e-5</v>
+        <v>4.845651318256373e-5</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3500,34 +3500,34 @@
         <v>0.03749999999999999</v>
       </c>
       <c r="B89">
-        <v>7.275450768620779</v>
+        <v>7.275450768620778</v>
       </c>
       <c r="C89">
         <v>8.393065448313178e-7</v>
       </c>
       <c r="D89">
-        <v>7.576908831830932e-5</v>
+        <v>7.576908831830934e-5</v>
       </c>
       <c r="E89">
-        <v>0.0019492546745361872</v>
+        <v>0.001949254674536187</v>
       </c>
       <c r="F89">
         <v>4.8461237102213726e-5</v>
       </c>
       <c r="G89">
-        <v>7.275450804480247</v>
+        <v>7.275450804474537</v>
       </c>
       <c r="H89">
-        <v>8.393287425940465e-7</v>
+        <v>8.393287425910928e-7</v>
       </c>
       <c r="I89">
-        <v>7.576900351023881e-5</v>
+        <v>7.57690035102777e-5</v>
       </c>
       <c r="J89">
-        <v>0.0019492546703913666</v>
+        <v>0.001949254670397225</v>
       </c>
       <c r="K89">
-        <v>4.846123695310512e-5</v>
+        <v>4.846123695315578e-5</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3541,28 +3541,28 @@
         <v>8.318391256265564e-7</v>
       </c>
       <c r="D90">
-        <v>7.848508405236071e-5</v>
+        <v>7.848508405236068e-5</v>
       </c>
       <c r="E90">
-        <v>0.001949764725105025</v>
+        <v>0.0019497647251050252</v>
       </c>
       <c r="F90">
         <v>4.84659594589142e-5</v>
       </c>
       <c r="G90">
-        <v>7.276810724162294</v>
+        <v>7.27681072415665</v>
       </c>
       <c r="H90">
-        <v>8.3186138436507e-7</v>
+        <v>8.318613843621493e-7</v>
       </c>
       <c r="I90">
-        <v>7.848499898300576e-5</v>
+        <v>7.848499898304433e-5</v>
       </c>
       <c r="J90">
-        <v>0.0019497647206894932</v>
+        <v>0.0019497647206953845</v>
       </c>
       <c r="K90">
-        <v>4.8465959308004904e-5</v>
+        <v>4.84659593080557e-5</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3570,34 +3570,34 @@
         <v>0.03949999999999999</v>
       </c>
       <c r="B91">
-        <v>7.278162506580067</v>
+        <v>7.278162506580066</v>
       </c>
       <c r="C91">
         <v>8.243752379148261e-7</v>
       </c>
       <c r="D91">
-        <v>8.120146665327011e-5</v>
+        <v>8.120146665327009e-5</v>
       </c>
       <c r="E91">
-        <v>0.0019502732522291607</v>
+        <v>0.0019502732522291611</v>
       </c>
       <c r="F91">
         <v>4.8470680399437206e-5</v>
       </c>
       <c r="G91">
-        <v>7.27816254160239</v>
+        <v>7.278162541596813</v>
       </c>
       <c r="H91">
-        <v>8.243974343520667e-7</v>
+        <v>8.243974343491791e-7</v>
       </c>
       <c r="I91">
-        <v>8.120138126207006e-5</v>
+        <v>8.12013812621083e-5</v>
       </c>
       <c r="J91">
-        <v>0.001950273247502879</v>
+        <v>0.0019502732475088018</v>
       </c>
       <c r="K91">
-        <v>4.8470680246664046e-5</v>
+        <v>4.8470680246715e-5</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3605,34 +3605,34 @@
         <v>0.040499999999999994</v>
       </c>
       <c r="B92">
-        <v>7.2795062869273215</v>
+        <v>7.27950628692732</v>
       </c>
       <c r="C92">
         <v>8.169131433372726e-7</v>
       </c>
       <c r="D92">
-        <v>8.391823054353182e-5</v>
+        <v>8.391823054353181e-5</v>
       </c>
       <c r="E92">
-        <v>0.001950780272998468</v>
+        <v>0.0019507802729984685</v>
       </c>
       <c r="F92">
-        <v>4.847539992477731e-5</v>
+        <v>4.84753999247773e-5</v>
       </c>
       <c r="G92">
-        <v>7.279506321202356</v>
+        <v>7.279506321196845</v>
       </c>
       <c r="H92">
-        <v>8.169352109771837e-7</v>
+        <v>8.169352109743284e-7</v>
       </c>
       <c r="I92">
-        <v>8.39181448074169e-5</v>
+        <v>8.391814480745484e-5</v>
       </c>
       <c r="J92">
-        <v>0.0019507802679441196</v>
+        <v>0.0019507802679500713</v>
       </c>
       <c r="K92">
-        <v>4.847539977013472e-5</v>
+        <v>4.8475399770185806e-5</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3649,25 +3649,25 @@
         <v>8.663537076077562e-5</v>
       </c>
       <c r="E93">
-        <v>0.0019512858045874783</v>
+        <v>0.0019512858045874785</v>
       </c>
       <c r="F93">
-        <v>4.8480118036852e-5</v>
+        <v>4.8480118036852004e-5</v>
       </c>
       <c r="G93">
-        <v>7.2808421289603205</v>
+        <v>7.280842128954876</v>
       </c>
       <c r="H93">
-        <v>8.094738450029628e-7</v>
+        <v>8.094738450001398e-7</v>
       </c>
       <c r="I93">
-        <v>8.663528467742848e-5</v>
+        <v>8.663528467746612e-5</v>
       </c>
       <c r="J93">
-        <v>0.0019512857992002098</v>
+        <v>0.0019512857992061883</v>
       </c>
       <c r="K93">
-        <v>4.8480117880366306e-5</v>
+        <v>4.84801178804175e-5</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3675,34 +3675,34 @@
         <v>0.042499999999999996</v>
       </c>
       <c r="B94">
-        <v>7.282169998813772</v>
+        <v>7.282169998813773</v>
       </c>
       <c r="C94">
         <v>8.019911746476777e-7</v>
       </c>
       <c r="D94">
-        <v>8.9352882697057e-5</v>
+        <v>8.935288269705699e-5</v>
       </c>
       <c r="E94">
         <v>0.0019517898640995343</v>
       </c>
       <c r="F94">
-        <v>4.8484834738099835e-5</v>
+        <v>4.848483473809983e-5</v>
       </c>
       <c r="G94">
-        <v>7.282170031402554</v>
+        <v>7.2821700313971744</v>
       </c>
       <c r="H94">
-        <v>8.020128963475563e-7</v>
+        <v>8.020128963447655e-7</v>
       </c>
       <c r="I94">
-        <v>8.935279627538749e-5</v>
+        <v>8.93527962754248e-5</v>
       </c>
       <c r="J94">
-        <v>0.0019517898583811583</v>
+        <v>0.0019517898583871613</v>
       </c>
       <c r="K94">
-        <v>4.8484834579814496e-5</v>
+        <v>4.8484834579865806e-5</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3716,28 +3716,28 @@
         <v>7.945306163045706e-7</v>
       </c>
       <c r="D95">
-        <v>9.207076195692635e-5</v>
+        <v>9.207076195692627e-5</v>
       </c>
       <c r="E95">
-        <v>0.001952292468484513</v>
+        <v>0.0019522924684845127</v>
       </c>
       <c r="F95">
         <v>4.848955003126102e-5</v>
       </c>
       <c r="G95">
-        <v>7.283490095009818</v>
+        <v>7.283490095004503</v>
       </c>
       <c r="H95">
-        <v>7.945521467774414e-7</v>
+        <v>7.945521467746825e-7</v>
       </c>
       <c r="I95">
-        <v>9.207067521178417e-5</v>
+        <v>9.207067521182119e-5</v>
       </c>
       <c r="J95">
-        <v>0.0019522924624403109</v>
+        <v>0.001952292462446337</v>
       </c>
       <c r="K95">
-        <v>4.848954987122865e-5</v>
+        <v>4.848954987128005e-5</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3751,28 +3751,28 @@
         <v>7.87070155607161e-7</v>
       </c>
       <c r="D96">
-        <v>9.47890042817018e-5</v>
+        <v>9.478900428170185e-5</v>
       </c>
       <c r="E96">
-        <v>0.001952793634497233</v>
+        <v>0.0019527936344972325</v>
       </c>
       <c r="F96">
         <v>4.8494263919260226e-5</v>
       </c>
       <c r="G96">
-        <v>7.284802385917497</v>
+        <v>7.284802385912247</v>
       </c>
       <c r="H96">
-        <v>7.870914902890901e-7</v>
+        <v>7.87091490286363e-7</v>
       </c>
       <c r="I96">
-        <v>9.478891723101223e-5</v>
+        <v>9.478891723104898e-5</v>
       </c>
       <c r="J96">
-        <v>0.001952793628134236</v>
+        <v>0.0019527936281402824</v>
       </c>
       <c r="K96">
-        <v>4.849426375753805e-5</v>
+        <v>4.8494263757589534e-5</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3786,28 +3786,28 @@
         <v>7.796097397862636e-7</v>
       </c>
       <c r="D97">
-        <v>9.750760550975747e-5</v>
+        <v>9.750760550975753e-5</v>
       </c>
       <c r="E97">
-        <v>0.0019532933786778127</v>
+        <v>0.001953293378677813</v>
       </c>
       <c r="F97">
-        <v>4.8498976405144524e-5</v>
+        <v>4.849897640514452e-5</v>
       </c>
       <c r="G97">
-        <v>7.286106969763662</v>
+        <v>7.286106969758476</v>
       </c>
       <c r="H97">
-        <v>7.796308764458223e-7</v>
+        <v>7.79630876443127e-7</v>
       </c>
       <c r="I97">
-        <v>9.750751817300633e-5</v>
+        <v>9.75075181730428e-5</v>
       </c>
       <c r="J97">
-        <v>0.001953293372003896</v>
+        <v>0.001953293372009961</v>
       </c>
       <c r="K97">
-        <v>4.849897624179213e-5</v>
+        <v>4.8498976241843694e-5</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3830,19 +3830,19 @@
         <v>4.850368749205098e-5</v>
       </c>
       <c r="G98">
-        <v>7.287403911615196</v>
+        <v>7.287403911610075</v>
       </c>
       <c r="H98">
-        <v>7.721702817396647e-7</v>
+        <v>7.721702817370008e-7</v>
       </c>
       <c r="I98">
-        <v>0.00010022647395339461</v>
+        <v>0.00010022647395343082</v>
       </c>
       <c r="J98">
-        <v>0.0019537917103669964</v>
+        <v>0.0019537917103730792</v>
       </c>
       <c r="K98">
-        <v>4.850368732712909e-5</v>
+        <v>4.850368732718071e-5</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3850,7 +3850,7 @@
         <v>0.0475</v>
       </c>
       <c r="B99">
-        <v>7.2886932475936</v>
+        <v>7.288693247593599</v>
       </c>
       <c r="C99">
         <v>7.646889575078169e-7</v>
@@ -3862,22 +3862,22 @@
         <v>0.00195428866658689</v>
       </c>
       <c r="F99">
-        <v>4.850839718318945e-5</v>
+        <v>4.8508397183189445e-5</v>
       </c>
       <c r="G99">
-        <v>7.288693275934144</v>
+        <v>7.288693275929087</v>
       </c>
       <c r="H99">
-        <v>7.647096954371379e-7</v>
+        <v>7.647096954345055e-7</v>
       </c>
       <c r="I99">
-        <v>0.00010294578055323472</v>
+        <v>0.00010294578055327067</v>
       </c>
       <c r="J99">
-        <v>0.0019542886593160507</v>
+        <v>0.0019542886593221474</v>
       </c>
       <c r="K99">
-        <v>4.850839701675932e-5</v>
+        <v>4.8508397016811005e-5</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3885,34 +3885,34 @@
         <v>0.0485</v>
       </c>
       <c r="B100">
-        <v>7.289975099033328</v>
+        <v>7.289975099033327</v>
       </c>
       <c r="C100">
         <v>7.572285746980027e-7</v>
       </c>
       <c r="D100">
-        <v>0.00010566552208561363</v>
+        <v>0.00010566552208561356</v>
       </c>
       <c r="E100">
         <v>0.001954784242275936</v>
       </c>
       <c r="F100">
-        <v>4.8513105481833244e-5</v>
+        <v>4.851310548183324e-5</v>
       </c>
       <c r="G100">
-        <v>7.289975126564317</v>
+        <v>7.289975126559324</v>
       </c>
       <c r="H100">
-        <v>7.572491127372e-7</v>
+        <v>7.57249112734599e-7</v>
       </c>
       <c r="I100">
-        <v>0.00010566543401359897</v>
+        <v>0.00010566543401363461</v>
       </c>
       <c r="J100">
-        <v>0.0019547842347192807</v>
+        <v>0.001954784234725391</v>
       </c>
       <c r="K100">
-        <v>4.8513105313956355e-5</v>
+        <v>4.8513105314008085e-5</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3920,7 +3920,7 @@
         <v>0.0495</v>
       </c>
       <c r="B101">
-        <v>7.291249499991097</v>
+        <v>7.291249499991098</v>
       </c>
       <c r="C101">
         <v>7.497681935284183e-7</v>
@@ -3929,25 +3929,25 @@
         <v>0.00010838551870795952</v>
       </c>
       <c r="E101">
-        <v>0.0019552784600569383</v>
+        <v>0.0019552784600569387</v>
       </c>
       <c r="F101">
         <v>4.8517812391313546e-5</v>
       </c>
       <c r="G101">
-        <v>7.291249526727866</v>
+        <v>7.291249526722937</v>
       </c>
       <c r="H101">
-        <v>7.497885315360127e-7</v>
+        <v>7.497885315334429e-7</v>
       </c>
       <c r="I101">
-        <v>0.00010838543043255987</v>
+        <v>0.00010838543043259522</v>
       </c>
       <c r="J101">
-        <v>0.001955278452222892</v>
+        <v>0.001955278452229014</v>
       </c>
       <c r="K101">
-        <v>4.8517812222051474e-5</v>
+        <v>4.851781222210325e-5</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -3955,34 +3955,34 @@
         <v>0.0505</v>
       </c>
       <c r="B102">
-        <v>7.2925165130688345</v>
+        <v>7.292516513068835</v>
       </c>
       <c r="C102">
         <v>7.423078130411012e-7</v>
       </c>
       <c r="D102">
-        <v>0.00011110585442114464</v>
+        <v>0.00011110585442114465</v>
       </c>
       <c r="E102">
         <v>0.0019557713353570228</v>
       </c>
       <c r="F102">
-        <v>4.8522517915015854e-5</v>
+        <v>4.852251791501586e-5</v>
       </c>
       <c r="G102">
-        <v>7.292516539026653</v>
+        <v>7.292516539021786</v>
       </c>
       <c r="H102">
-        <v>7.423279509303793e-7</v>
+        <v>7.42327950927841e-7</v>
       </c>
       <c r="I102">
-        <v>0.0001111057659633404</v>
+        <v>0.00011110576596337548</v>
       </c>
       <c r="J102">
-        <v>0.0019557713272539707</v>
+        <v>0.001955771327260103</v>
       </c>
       <c r="K102">
-        <v>4.852251774443021e-5</v>
+        <v>4.8522517744482e-5</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -3999,25 +3999,25 @@
         <v>0.00011382652543221957</v>
       </c>
       <c r="E103">
-        <v>0.0019562628833873718</v>
+        <v>0.0019562628833873713</v>
       </c>
       <c r="F103">
-        <v>4.852722205637728e-5</v>
+        <v>4.8527222056377285e-5</v>
       </c>
       <c r="G103">
-        <v>7.2937762254458764</v>
+        <v>7.293776225441073</v>
       </c>
       <c r="H103">
-        <v>7.34867370540412e-7</v>
+        <v>7.348673705379046e-7</v>
       </c>
       <c r="I103">
-        <v>0.0001138264368130207</v>
+        <v>0.00011382643681305547</v>
       </c>
       <c r="J103">
-        <v>0.001956262875023647</v>
+        <v>0.0019562628750297876</v>
       </c>
       <c r="K103">
-        <v>4.8527221884529635e-5</v>
+        <v>4.852722188458144e-5</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4031,28 +4031,28 @@
         <v>7.273870527342221e-7</v>
       </c>
       <c r="D104">
-        <v>0.00011654752800107092</v>
+        <v>0.00011654752800107093</v>
       </c>
       <c r="E104">
-        <v>0.0019567531191464725</v>
+        <v>0.0019567531191464734</v>
       </c>
       <c r="F104">
         <v>4.85319248188843e-5</v>
       </c>
       <c r="G104">
-        <v>7.29502864735875</v>
+        <v>7.295028647354009</v>
       </c>
       <c r="H104">
-        <v>7.274067902095641e-7</v>
+        <v>7.274067902070878e-7</v>
       </c>
       <c r="I104">
-        <v>0.00011654743924150774</v>
+        <v>0.00011654743924154222</v>
       </c>
       <c r="J104">
-        <v>0.0019567531105303525</v>
+        <v>0.001956753110536499</v>
       </c>
       <c r="K104">
-        <v>4.853192464583621e-5</v>
+        <v>4.8531924645888014e-5</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4060,13 +4060,13 @@
         <v>0.05349999999999999</v>
       </c>
       <c r="B105">
-        <v>7.296273841820612</v>
+        <v>7.296273841820611</v>
       </c>
       <c r="C105">
         <v>7.199266726799186e-7</v>
       </c>
       <c r="D105">
-        <v>0.00011926885843951209</v>
+        <v>0.00011926885843951202</v>
       </c>
       <c r="E105">
         <v>0.0019572420574233895</v>
@@ -4075,19 +4075,19 @@
         <v>4.853662620607078e-5</v>
       </c>
       <c r="G105">
-        <v>7.296273865531634</v>
+        <v>7.296273865526956</v>
       </c>
       <c r="H105">
-        <v>7.199462098746305e-7</v>
+        <v>7.199462098721852e-7</v>
       </c>
       <c r="I105">
-        <v>0.00011926876956063094</v>
+        <v>0.00011926876956066511</v>
       </c>
       <c r="J105">
-        <v>0.0019572420485630933</v>
+        <v>0.001957242048569245</v>
       </c>
       <c r="K105">
-        <v>4.853662603188376e-5</v>
+        <v>4.853662603193555e-5</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4095,13 +4095,13 @@
         <v>0.05449999999999999</v>
       </c>
       <c r="B106">
-        <v>7.2975119171378955</v>
+        <v>7.297511917137896</v>
       </c>
       <c r="C106">
         <v>7.12466292642403e-7</v>
       </c>
       <c r="D106">
-        <v>0.00012199051311043846</v>
+        <v>0.00012199051311043845</v>
       </c>
       <c r="E106">
         <v>0.0019577297128010054</v>
@@ -4110,19 +4110,19 @@
         <v>4.854132622151609e-5</v>
       </c>
       <c r="G106">
-        <v>7.297511940129387</v>
+        <v>7.29751194012477</v>
       </c>
       <c r="H106">
-        <v>7.124856295106083e-7</v>
+        <v>7.124856295081935e-7</v>
       </c>
       <c r="I106">
-        <v>0.00012199042413329988</v>
+        <v>0.00012199042413333372</v>
       </c>
       <c r="J106">
-        <v>0.0019577297037046957</v>
+        <v>0.0019577297037108505</v>
       </c>
       <c r="K106">
-        <v>4.854132604625163e-5</v>
+        <v>4.854132604630341e-5</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4130,34 +4130,34 @@
         <v>0.055499999999999994</v>
       </c>
       <c r="B107">
-        <v>7.298742908434457</v>
+        <v>7.298742908434458</v>
       </c>
       <c r="C107">
         <v>7.050059126112048e-7</v>
       </c>
       <c r="D107">
-        <v>0.00012471248842701858</v>
+        <v>0.00012471248842701866</v>
       </c>
       <c r="E107">
-        <v>0.0019582160996592353</v>
+        <v>0.001958216099659235</v>
       </c>
       <c r="F107">
-        <v>4.85460248688433e-5</v>
+        <v>4.854602486884329e-5</v>
       </c>
       <c r="G107">
-        <v>7.2987429307207945</v>
+        <v>7.29874293071624</v>
       </c>
       <c r="H107">
-        <v>7.050250491078061e-7</v>
+        <v>7.050250491054218e-7</v>
       </c>
       <c r="I107">
-        <v>0.00012471239937269623</v>
+        <v>0.0001247123993727297</v>
       </c>
       <c r="J107">
-        <v>0.0019582160903350186</v>
+        <v>0.001958216090341174</v>
       </c>
       <c r="K107">
-        <v>4.854602469256284e-5</v>
+        <v>4.8546024692614583e-5</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -4165,7 +4165,7 @@
         <v>0.056499999999999995</v>
       </c>
       <c r="B108">
-        <v>7.299966874688674</v>
+        <v>7.299966874688673</v>
       </c>
       <c r="C108">
         <v>6.975455325822818e-7</v>
@@ -4177,22 +4177,22 @@
         <v>0.001958701232178186</v>
       </c>
       <c r="F108">
-        <v>4.855072215171744e-5</v>
+        <v>4.8550722151717454e-5</v>
       </c>
       <c r="G108">
-        <v>7.299966896284044</v>
+        <v>7.29996689627955</v>
       </c>
       <c r="H108">
-        <v>6.975644686625433e-7</v>
+        <v>6.975644686601893e-7</v>
       </c>
       <c r="I108">
-        <v>0.0001274346917414868</v>
+        <v>0.00012743469174151997</v>
       </c>
       <c r="J108">
-        <v>0.0019587012226341136</v>
+        <v>0.0019587012226402675</v>
       </c>
       <c r="K108">
-        <v>4.8550721974482424e-5</v>
+        <v>4.855072197453412e-5</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -4215,19 +4215,19 @@
         <v>4.8555418073843894e-5</v>
       </c>
       <c r="G109">
-        <v>7.301183895212194</v>
+        <v>7.301183895207761</v>
       </c>
       <c r="H109">
-        <v>6.901038881734506e-7</v>
+        <v>6.901038881711267e-7</v>
       </c>
       <c r="I109">
-        <v>0.00013015729775105292</v>
+        <v>0.00013015729775108572</v>
       </c>
       <c r="J109">
-        <v>0.001959185114585345</v>
+        <v>0.001959185114591495</v>
       </c>
       <c r="K109">
-        <v>4.8555417895715684e-5</v>
+        <v>4.855541789576733e-5</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -4235,7 +4235,7 @@
         <v>0.058499999999999996</v>
       </c>
       <c r="B110">
-        <v>7.302393965063416</v>
+        <v>7.302393965063415</v>
       </c>
       <c r="C110">
         <v>6.826247725264237e-7</v>
@@ -4244,25 +4244,25 @@
         <v>0.00013288030312004088</v>
       </c>
       <c r="E110">
-        <v>0.0019596677899383053</v>
+        <v>0.0019596677899383057</v>
       </c>
       <c r="F110">
-        <v>4.8560112638966645e-5</v>
+        <v>4.856011263896664e-5</v>
       </c>
       <c r="G110">
-        <v>7.302393985318661</v>
+        <v>7.302393985314288</v>
       </c>
       <c r="H110">
-        <v>6.826433076400285e-7</v>
+        <v>6.826433076377346e-7</v>
       </c>
       <c r="I110">
-        <v>0.0001328802139607329</v>
+        <v>0.00013288021396076543</v>
       </c>
       <c r="J110">
-        <v>0.0019596677799784547</v>
+        <v>0.0019596677799846004</v>
       </c>
       <c r="K110">
-        <v>4.85601124600066e-5</v>
+        <v>4.8560112460058175e-5</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -4285,19 +4285,19 @@
         <v>4.856480585086677e-5</v>
       </c>
       <c r="G111">
-        <v>7.303597223842677</v>
+        <v>7.3035972238383655</v>
       </c>
       <c r="H111">
-        <v>6.751827270620987e-7</v>
+        <v>6.751827270598343e-7</v>
       </c>
       <c r="I111">
-        <v>0.00013560343697707766</v>
+        <v>0.00013560343697710983</v>
       </c>
       <c r="J111">
-        <v>0.0019601492324125857</v>
+        <v>0.0019601492324187245</v>
       </c>
       <c r="K111">
-        <v>4.8564805671136195e-5</v>
+        <v>4.8564805671187674e-5</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -4320,19 +4320,19 @@
         <v>4.856949771336083e-5</v>
       </c>
       <c r="G112">
-        <v>7.304793667454758</v>
+        <v>7.3047936674505065</v>
       </c>
       <c r="H112">
-        <v>6.677221464395986e-7</v>
+        <v>6.677221464373637e-7</v>
       </c>
       <c r="I112">
-        <v>0.00013832696345311747</v>
+        <v>0.00013832696345314943</v>
       </c>
       <c r="J112">
-        <v>0.001960629485299252</v>
+        <v>0.001960629485305382</v>
       </c>
       <c r="K112">
-        <v>4.856949753292101e-5</v>
+        <v>4.856949753297238e-5</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -4340,7 +4340,7 @@
         <v>0.0615</v>
       </c>
       <c r="B113">
-        <v>7.305983353915324</v>
+        <v>7.305983353915325</v>
       </c>
       <c r="C113">
         <v>6.602436324435424e-7</v>
@@ -4349,25 +4349,25 @@
         <v>0.0001410508791618368</v>
       </c>
       <c r="E113">
-        <v>0.0019611085623897446</v>
+        <v>0.001961108562389744</v>
       </c>
       <c r="F113">
-        <v>4.857418823029943e-5</v>
+        <v>4.857418823029942e-5</v>
       </c>
       <c r="G113">
-        <v>7.305983372262143</v>
+        <v>7.305983372257951</v>
       </c>
       <c r="H113">
-        <v>6.602615657725068e-7</v>
+        <v>6.602615657703013e-7</v>
       </c>
       <c r="I113">
-        <v>0.0001410507900876414</v>
+        <v>0.00014105079008767306</v>
       </c>
       <c r="J113">
-        <v>0.0019611085518652636</v>
+        <v>0.0019611085518713833</v>
       </c>
       <c r="K113">
-        <v>4.857418804921159e-5</v>
+        <v>4.857418804926284e-5</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -4375,7 +4375,7 @@
         <v>0.0625</v>
       </c>
       <c r="B114">
-        <v>7.307166376077126</v>
+        <v>7.307166376077127</v>
       </c>
       <c r="C114">
         <v>6.527832524159005e-7</v>
@@ -4387,22 +4387,22 @@
         <v>0.001961586455852756</v>
       </c>
       <c r="F114">
-        <v>4.8578877405565644e-5</v>
+        <v>4.857887740556564e-5</v>
       </c>
       <c r="G114">
-        <v>7.3071663938142235</v>
+        <v>7.307166393810092</v>
       </c>
       <c r="H114">
-        <v>6.528009850608159e-7</v>
+        <v>6.528009850586398e-7</v>
       </c>
       <c r="I114">
-        <v>0.0001437749136244873</v>
+        <v>0.00014377491362451867</v>
       </c>
       <c r="J114">
-        <v>0.0019615864451556038</v>
+        <v>0.001961586445161711</v>
       </c>
       <c r="K114">
-        <v>4.8578877223891e-5</v>
+        <v>4.85788772239421e-5</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -4410,7 +4410,7 @@
         <v>0.0635</v>
       </c>
       <c r="B115">
-        <v>7.308342769967662</v>
+        <v>7.308342769967661</v>
       </c>
       <c r="C115">
         <v>6.45322872388325e-7</v>
@@ -4422,22 +4422,22 @@
         <v>0.001962063188898401</v>
       </c>
       <c r="F115">
-        <v>4.8583565243073686e-5</v>
+        <v>4.858356524307368e-5</v>
       </c>
       <c r="G115">
-        <v>7.308342787107955</v>
+        <v>7.308342787103882</v>
       </c>
       <c r="H115">
-        <v>6.453404043045239e-7</v>
+        <v>6.453404043023769e-7</v>
       </c>
       <c r="I115">
-        <v>0.0001464993308518438</v>
+        <v>0.00014649933085187492</v>
       </c>
       <c r="J115">
-        <v>0.001962063178036263</v>
+        <v>0.0019620631780423556</v>
       </c>
       <c r="K115">
-        <v>4.858356506087341e-5</v>
+        <v>4.858356506092435e-5</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -4451,28 +4451,28 @@
         <v>6.378624923607051e-7</v>
       </c>
       <c r="D116">
-        <v>0.0001492241274002416</v>
+        <v>0.00014922412740024155</v>
       </c>
       <c r="E116">
-        <v>0.001962538774216511</v>
+        <v>0.0019625387742165114</v>
       </c>
       <c r="F116">
-        <v>4.858825174676743e-5</v>
+        <v>4.858825174676744e-5</v>
       </c>
       <c r="G116">
-        <v>7.309512606593248</v>
+        <v>7.309512606589234</v>
       </c>
       <c r="H116">
-        <v>6.378798235036298e-7</v>
+        <v>6.378798235015118e-7</v>
       </c>
       <c r="I116">
-        <v>0.0001492240386015632</v>
+        <v>0.000149224038601594</v>
       </c>
       <c r="J116">
-        <v>0.0019625387631970236</v>
+        <v>0.0019625387632031003</v>
       </c>
       <c r="K116">
-        <v>4.8588251564102655e-5</v>
+        <v>4.8588251564153416e-5</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -4480,34 +4480,34 @@
         <v>0.0655</v>
       </c>
       <c r="B117">
-        <v>7.3106758901935756</v>
+        <v>7.310675890193576</v>
       </c>
       <c r="C117">
         <v>6.304021123330854e-7</v>
       </c>
       <c r="D117">
-        <v>0.00015194912241296214</v>
+        <v>0.00015194912241296216</v>
       </c>
       <c r="E117">
-        <v>0.0019630132243234513</v>
+        <v>0.001963013224323451</v>
       </c>
       <c r="F117">
-        <v>4.8592936920619116e-5</v>
+        <v>4.859293692061911e-5</v>
       </c>
       <c r="G117">
-        <v>7.310675906178339</v>
+        <v>7.310675906174383</v>
       </c>
       <c r="H117">
-        <v>6.304192426581334e-7</v>
+        <v>6.304192426560444e-7</v>
       </c>
       <c r="I117">
-        <v>0.00015194903374848525</v>
+        <v>0.0001519490337485158</v>
       </c>
       <c r="J117">
-        <v>0.0019630132131542044</v>
+        <v>0.0019630132131602637</v>
       </c>
       <c r="K117">
-        <v>4.8592936737550915e-5</v>
+        <v>4.85929367376015e-5</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -4515,13 +4515,13 @@
         <v>0.0665</v>
       </c>
       <c r="B118">
-        <v>7.311832723809435</v>
+        <v>7.3118327238094345</v>
       </c>
       <c r="C118">
         <v>6.229417323054657e-7</v>
       </c>
       <c r="D118">
-        <v>0.00015467440171884863</v>
+        <v>0.00015467440171884866</v>
       </c>
       <c r="E118">
         <v>0.001963486551564818</v>
@@ -4530,19 +4530,19 @@
         <v>4.859762076862795e-5</v>
       </c>
       <c r="G118">
-        <v>7.311832739235137</v>
+        <v>7.31183273923124</v>
       </c>
       <c r="H118">
-        <v>6.229586617680347e-7</v>
+        <v>6.229586617659746e-7</v>
       </c>
       <c r="I118">
-        <v>0.00015467431320977205</v>
+        <v>0.00015467431320980227</v>
       </c>
       <c r="J118">
-        <v>0.0019634865402533546</v>
+        <v>0.001963486540259395</v>
       </c>
       <c r="K118">
-        <v>4.859762058521739e-5</v>
+        <v>4.859762058526778e-5</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -4550,7 +4550,7 @@
         <v>0.0675</v>
       </c>
       <c r="B119">
-        <v>7.312983143725656</v>
+        <v>7.312983143725655</v>
       </c>
       <c r="C119">
         <v>6.154813522778458e-7</v>
@@ -4565,19 +4565,19 @@
         <v>4.8602303294818906e-5</v>
       </c>
       <c r="G119">
-        <v>7.312983158604546</v>
+        <v>7.312983158600708</v>
       </c>
       <c r="H119">
-        <v>6.154980808333336e-7</v>
+        <v>6.154980808313024e-7</v>
       </c>
       <c r="I119">
-        <v>0.00015739987394425346</v>
+        <v>0.0001573998739442834</v>
       </c>
       <c r="J119">
-        <v>0.00196395875667191</v>
+        <v>0.00196395875667793</v>
       </c>
       <c r="K119">
-        <v>4.8602303111127e-5</v>
+        <v>4.860230311117716e-5</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -4585,7 +4585,7 @@
         <v>0.06849999999999999</v>
       </c>
       <c r="B120">
-        <v>7.314127202257598</v>
+        <v>7.314127202257597</v>
       </c>
       <c r="C120">
         <v>6.080209722502483e-7</v>
@@ -4594,25 +4594,25 @@
         <v>0.00016012580108642238</v>
       </c>
       <c r="E120">
-        <v>0.001964429885995257</v>
+        <v>0.0019644298859952565</v>
       </c>
       <c r="F120">
         <v>4.860698450324138e-5</v>
       </c>
       <c r="G120">
-        <v>7.314127216601766</v>
+        <v>7.314127216597985</v>
       </c>
       <c r="H120">
-        <v>6.080374998540302e-7</v>
+        <v>6.080374998520278e-7</v>
       </c>
       <c r="I120">
-        <v>0.00016012571295178304</v>
+        <v>0.00016012571295181272</v>
       </c>
       <c r="J120">
-        <v>0.001964429874421804</v>
+        <v>0.0019644298744278025</v>
       </c>
       <c r="K120">
-        <v>4.86069843193291e-5</v>
+        <v>4.860698431937904e-5</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -4620,7 +4620,7 @@
         <v>0.06949999999999999</v>
       </c>
       <c r="B121">
-        <v>7.315264951200183</v>
+        <v>7.3152649512001835</v>
       </c>
       <c r="C121">
         <v>6.005605922226284e-7</v>
@@ -4629,25 +4629,25 @@
         <v>0.00016285191518818727</v>
       </c>
       <c r="E121">
-        <v>0.00196489991704535</v>
+        <v>0.0019648999170453502</v>
       </c>
       <c r="F121">
-        <v>4.861166439796802e-5</v>
+        <v>4.8611664397968024e-5</v>
       </c>
       <c r="G121">
-        <v>7.315264965021558</v>
+        <v>7.3152649650178345</v>
       </c>
       <c r="H121">
-        <v>6.005769188301245e-7</v>
+        <v>6.005769188281506e-7</v>
       </c>
       <c r="I121">
-        <v>0.0001628518272726047</v>
+        <v>0.00016285182727263415</v>
       </c>
       <c r="J121">
-        <v>0.0019648999053520346</v>
+        <v>0.0019648999053580103</v>
       </c>
       <c r="K121">
-        <v>4.861166421389633e-5</v>
+        <v>4.8611664213946024e-5</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -4667,22 +4667,22 @@
         <v>0.0019653688729570104</v>
       </c>
       <c r="F122">
-        <v>4.861634298309354e-5</v>
+        <v>4.861634298309355e-5</v>
       </c>
       <c r="G122">
-        <v>7.316396455143493</v>
+        <v>7.316396455139826</v>
       </c>
       <c r="H122">
-        <v>5.931163377616163e-7</v>
+        <v>5.931163377596709e-7</v>
       </c>
       <c r="I122">
-        <v>0.00016557821398672907</v>
+        <v>0.00016557821398675813</v>
       </c>
       <c r="J122">
-        <v>0.001965368861151194</v>
+        <v>0.001965368861157146</v>
       </c>
       <c r="K122">
-        <v>4.8616342798923345e-5</v>
+        <v>4.8616342798972785e-5</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -4690,34 +4690,34 @@
         <v>0.0715</v>
       </c>
       <c r="B123">
-        <v>7.317521724926201</v>
+        <v>7.3175217249262</v>
       </c>
       <c r="C123">
         <v>5.856398321674221e-7</v>
       </c>
       <c r="D123">
-        <v>0.00016830495762706497</v>
+        <v>0.00016830495762706495</v>
       </c>
       <c r="E123">
-        <v>0.0019658367652609495</v>
+        <v>0.00196583676526095</v>
       </c>
       <c r="F123">
         <v>4.862102026273355e-5</v>
       </c>
       <c r="G123">
-        <v>7.317521737737159</v>
+        <v>7.317521737733549</v>
       </c>
       <c r="H123">
-        <v>5.856557566485058e-7</v>
+        <v>5.856557566465888e-7</v>
       </c>
       <c r="I123">
-        <v>0.00016830487021332025</v>
+        <v>0.00016830487021334903</v>
       </c>
       <c r="J123">
-        <v>0.001965836753349953</v>
+        <v>0.001965836753355879</v>
       </c>
       <c r="K123">
-        <v>4.8621020078525716e-5</v>
+        <v>4.862102007857488e-5</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -4731,7 +4731,7 @@
         <v>5.781794521398134e-7</v>
       </c>
       <c r="D124">
-        <v>0.0001710318802410377</v>
+        <v>0.00017103188024103765</v>
       </c>
       <c r="E124">
         <v>0.0019663036053324066</v>
@@ -4740,19 +4740,19 @@
         <v>4.862569624102339e-5</v>
       </c>
       <c r="G124">
-        <v>7.3186408630673485</v>
+        <v>7.318640863063796</v>
       </c>
       <c r="H124">
-        <v>5.781951754907928e-7</v>
+        <v>5.781951754889042e-7</v>
       </c>
       <c r="I124">
-        <v>0.00017103179311009296</v>
+        <v>0.00017103179311012145</v>
       </c>
       <c r="J124">
-        <v>0.0019663035933235058</v>
+        <v>0.0019663035933294047</v>
       </c>
       <c r="K124">
-        <v>4.8625696056838764e-5</v>
+        <v>4.862569605688764e-5</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -4766,7 +4766,7 @@
         <v>5.707190721121716e-7</v>
       </c>
       <c r="D125">
-        <v>0.00017375906669959696</v>
+        <v>0.0001737590666995969</v>
       </c>
       <c r="E125">
         <v>0.001966769404393545</v>
@@ -4775,19 +4775,19 @@
         <v>4.86303709221171e-5</v>
       </c>
       <c r="G125">
-        <v>7.319753880899209</v>
+        <v>7.319753880895712</v>
       </c>
       <c r="H125">
-        <v>5.707345942884775e-7</v>
+        <v>5.707345942866173e-7</v>
       </c>
       <c r="I125">
-        <v>0.00017375897987271843</v>
+        <v>0.00017375897987274668</v>
       </c>
       <c r="J125">
-        <v>0.001966769392293976</v>
+        <v>0.0019667693922998455</v>
       </c>
       <c r="K125">
-        <v>4.863037073801648e-5</v>
+        <v>4.863037073806508e-5</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -4795,34 +4795,34 @@
         <v>0.0745</v>
       </c>
       <c r="B126">
-        <v>7.320860829122391</v>
+        <v>7.320860829122392</v>
       </c>
       <c r="C126">
         <v>5.632586920845849e-7</v>
       </c>
       <c r="D126">
-        <v>0.0001764865142357782</v>
+        <v>0.00017648651423577823</v>
       </c>
       <c r="E126">
-        <v>0.001967234173515826</v>
+        <v>0.0019672341735158254</v>
       </c>
       <c r="F126">
-        <v>4.8635044310186316e-5</v>
+        <v>4.863504431018633e-5</v>
       </c>
       <c r="G126">
-        <v>7.320860840503361</v>
+        <v>7.32086084049992</v>
       </c>
       <c r="H126">
-        <v>5.632740130415599e-7</v>
+        <v>5.63274013039728e-7</v>
       </c>
       <c r="I126">
-        <v>0.00017648642773424115</v>
+        <v>0.00017648642773426915</v>
       </c>
       <c r="J126">
-        <v>0.0019672341613327835</v>
+        <v>0.0019672341613386226</v>
       </c>
       <c r="K126">
-        <v>4.8635044126230465e-5</v>
+        <v>4.863504412627876e-5</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -4830,34 +4830,34 @@
         <v>0.0755</v>
       </c>
       <c r="B127">
-        <v>7.321961779734433</v>
+        <v>7.3219617797344325</v>
       </c>
       <c r="C127">
         <v>5.557983120569983e-7</v>
       </c>
       <c r="D127">
-        <v>0.0001792142201194157</v>
+        <v>0.00017921422011941572</v>
       </c>
       <c r="E127">
-        <v>0.0019676979236223305</v>
+        <v>0.0019676979236223314</v>
       </c>
       <c r="F127">
         <v>4.863971640941925e-5</v>
       </c>
       <c r="G127">
-        <v>7.321961790660983</v>
+        <v>7.321961790657599</v>
       </c>
       <c r="H127">
-        <v>5.558134317500398e-7</v>
+        <v>5.55813431748236e-7</v>
       </c>
       <c r="I127">
-        <v>0.0001792141339645042</v>
+        <v>0.00017921413396453193</v>
       </c>
       <c r="J127">
-        <v>0.0019676979113629695</v>
+        <v>0.001967697911368777</v>
       </c>
       <c r="K127">
-        <v>4.863971622566891e-5</v>
+        <v>4.863971622571689e-5</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -4874,25 +4874,25 @@
         <v>0.00018194218165657746</v>
       </c>
       <c r="E128">
-        <v>0.0019681606654900555</v>
+        <v>0.001968160665490055</v>
       </c>
       <c r="F128">
         <v>4.864438722401964e-5</v>
       </c>
       <c r="G128">
-        <v>7.3230567796688675</v>
+        <v>7.323056779665539</v>
       </c>
       <c r="H128">
-        <v>5.483528504139173e-7</v>
+        <v>5.483528504121416e-7</v>
       </c>
       <c r="I128">
-        <v>0.0001819420958695843</v>
+        <v>0.00018194209586961177</v>
       </c>
       <c r="J128">
-        <v>0.0019681606531614894</v>
+        <v>0.0019681606531672634</v>
       </c>
       <c r="K128">
-        <v>4.8644387040535496e-5</v>
+        <v>4.864438704058316e-5</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -4900,7 +4900,7 @@
         <v>0.0775</v>
       </c>
       <c r="B129">
-        <v>7.324145845294218</v>
+        <v>7.324145845294219</v>
       </c>
       <c r="C129">
         <v>5.408775520017367e-7</v>
@@ -4909,25 +4909,25 @@
         <v>0.00018467039618900983</v>
       </c>
       <c r="E129">
-        <v>0.0019686224097521564</v>
+        <v>0.001968622409752156</v>
       </c>
       <c r="F129">
         <v>4.864905675820581e-5</v>
       </c>
       <c r="G129">
-        <v>7.324145855344434</v>
+        <v>7.32414585534116</v>
       </c>
       <c r="H129">
-        <v>5.408922690331925e-7</v>
+        <v>5.408922690314446e-7</v>
       </c>
       <c r="I129">
-        <v>0.00018467031079123637</v>
+        <v>0.00018467031079126347</v>
       </c>
       <c r="J129">
-        <v>0.001968622397361462</v>
+        <v>0.0019686223973672005</v>
       </c>
       <c r="K129">
-        <v>4.864905657504855e-5</v>
+        <v>4.864905657509588e-5</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -4935,34 +4935,34 @@
         <v>0.0785</v>
       </c>
       <c r="B130">
-        <v>7.325229055402697</v>
+        <v>7.325229055402695</v>
       </c>
       <c r="C130">
         <v>5.33417171974128e-7</v>
       </c>
       <c r="D130">
-        <v>0.00018739886109359066</v>
+        <v>0.00018739886109359063</v>
       </c>
       <c r="E130">
-        <v>0.0019690831669001685</v>
+        <v>0.001969083166900169</v>
       </c>
       <c r="F130">
         <v>4.86537250162097e-5</v>
       </c>
       <c r="G130">
-        <v>7.325229065030714</v>
+        <v>7.325229065027496</v>
       </c>
       <c r="H130">
-        <v>5.334316876078654e-7</v>
+        <v>5.334316876061452e-7</v>
       </c>
       <c r="I130">
-        <v>0.00018739877610634648</v>
+        <v>0.00018739877610637328</v>
       </c>
       <c r="J130">
-        <v>0.0019690831544543833</v>
+        <v>0.001969083154460085</v>
       </c>
       <c r="K130">
-        <v>4.865372483343996e-5</v>
+        <v>4.865372483348694e-5</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -4976,7 +4976,7 @@
         <v>5.259567919465303e-7</v>
       </c>
       <c r="D131">
-        <v>0.00019012757378179148</v>
+        <v>0.0001901275737817915</v>
       </c>
       <c r="E131">
         <v>0.0019695429472861847</v>
@@ -4985,19 +4985,19 @@
         <v>4.865839200227596e-5</v>
       </c>
       <c r="G131">
-        <v>7.326306455601293</v>
+        <v>7.32630645559813</v>
       </c>
       <c r="H131">
-        <v>5.259711061379359e-7</v>
+        <v>5.259711061362433e-7</v>
       </c>
       <c r="I131">
-        <v>0.0001901274892263946</v>
+        <v>0.00019012748922642104</v>
       </c>
       <c r="J131">
-        <v>0.0019695429347923077</v>
+        <v>0.001969542934797971</v>
       </c>
       <c r="K131">
-        <v>4.865839181995431e-5</v>
+        <v>4.865839182000094e-5</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -5005,13 +5005,13 @@
         <v>0.0805</v>
       </c>
       <c r="B132">
-        <v>7.327378064650343</v>
+        <v>7.327378064650342</v>
       </c>
       <c r="C132">
         <v>5.184964119189326e-7</v>
       </c>
       <c r="D132">
-        <v>0.00019285653169914878</v>
+        <v>0.00019285653169914883</v>
       </c>
       <c r="E132">
         <v>0.0019700017611249962</v>
@@ -5020,19 +5020,19 @@
         <v>4.866305772066098e-5</v>
       </c>
       <c r="G132">
-        <v>7.327378073465225</v>
+        <v>7.327378073462115</v>
       </c>
       <c r="H132">
-        <v>5.185105246234038e-7</v>
+        <v>5.185105246217388e-7</v>
       </c>
       <c r="I132">
-        <v>0.0001928564475969253</v>
+        <v>0.0001928564475969515</v>
       </c>
       <c r="J132">
-        <v>0.0019700017485899898</v>
+        <v>0.0019700017485956138</v>
       </c>
       <c r="K132">
-        <v>4.8663057538847986e-5</v>
+        <v>4.866305753889424e-5</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -5040,34 +5040,34 @@
         <v>0.0815</v>
       </c>
       <c r="B133">
-        <v>7.3284439561482255</v>
+        <v>7.328443956148225</v>
       </c>
       <c r="C133">
         <v>5.110360318913019e-7</v>
       </c>
       <c r="D133">
-        <v>0.00019558573232474408</v>
+        <v>0.00019558573232474405</v>
       </c>
       <c r="E133">
-        <v>0.0019704596184962004</v>
+        <v>0.001970459618496201</v>
       </c>
       <c r="F133">
         <v>4.866772217563207e-5</v>
       </c>
       <c r="G133">
-        <v>7.328443964571897</v>
+        <v>7.328443964568841</v>
       </c>
       <c r="H133">
-        <v>5.110499430642695e-7</v>
+        <v>5.110499430626319e-7</v>
       </c>
       <c r="I133">
-        <v>0.00019558564869702792</v>
+        <v>0.00019558564869705383</v>
       </c>
       <c r="J133">
-        <v>0.0019704596059269904</v>
+        <v>0.0019704596059325727</v>
       </c>
       <c r="K133">
-        <v>4.8667721994388266e-5</v>
+        <v>4.866772199443412e-5</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -5075,7 +5075,7 @@
         <v>0.0825</v>
       </c>
       <c r="B134">
-        <v>7.329504166373342</v>
+        <v>7.329504166373344</v>
       </c>
       <c r="C134">
         <v>5.03575651863682e-7</v>
@@ -5084,25 +5084,25 @@
         <v>0.00019831517317069167</v>
       </c>
       <c r="E134">
-        <v>0.0019709165293462735</v>
+        <v>0.001970916529346273</v>
       </c>
       <c r="F134">
         <v>4.86723853714666e-5</v>
       </c>
       <c r="G134">
-        <v>7.329504174415869</v>
+        <v>7.329504174412866</v>
       </c>
       <c r="H134">
-        <v>5.035893614605329e-7</v>
+        <v>5.035893614589224e-7</v>
       </c>
       <c r="I134">
-        <v>0.00019831509003882453</v>
+        <v>0.00019831509003885022</v>
       </c>
       <c r="J134">
-        <v>0.0019709165167497494</v>
+        <v>0.001970916516755289</v>
       </c>
       <c r="K134">
-        <v>4.867238519085248e-5</v>
+        <v>4.867238519089793e-5</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -5110,13 +5110,13 @@
         <v>0.0835</v>
       </c>
       <c r="B135">
-        <v>7.330558740370353</v>
+        <v>7.3305587403703525</v>
       </c>
       <c r="C135">
         <v>4.961152718361065e-7</v>
       </c>
       <c r="D135">
-        <v>0.0002010448517816354</v>
+        <v>0.00020104485178163545</v>
       </c>
       <c r="E135">
         <v>0.001971372503490609</v>
@@ -5125,19 +5125,19 @@
         <v>4.867704731245116e-5</v>
       </c>
       <c r="G135">
-        <v>7.330558748041667</v>
+        <v>7.330558748038717</v>
       </c>
       <c r="H135">
-        <v>4.96128779812194e-7</v>
+        <v>4.961287798106105e-7</v>
       </c>
       <c r="I135">
-        <v>0.0002010447691669669</v>
+        <v>0.00020104476916699233</v>
       </c>
       <c r="J135">
-        <v>0.0019713724908736263</v>
+        <v>0.001971372490879122</v>
       </c>
       <c r="K135">
-        <v>4.867704713252715e-5</v>
+        <v>4.8677047132572186e-5</v>
       </c>
     </row>
     <row r="136" spans="1:11">
@@ -5157,22 +5157,22 @@
         <v>0.0019718275506155247</v>
       </c>
       <c r="F136">
-        <v>4.868170800288073e-5</v>
+        <v>4.868170800288074e-5</v>
       </c>
       <c r="G136">
-        <v>7.331607730048539</v>
+        <v>7.331607730045643</v>
       </c>
       <c r="H136">
-        <v>4.886681981192527e-7</v>
+        <v>4.886681981176962e-7</v>
       </c>
       <c r="I136">
-        <v>0.0002037746836581414</v>
+        <v>0.00020377468365816653</v>
       </c>
       <c r="J136">
-        <v>0.001971827537984903</v>
+        <v>0.0019718275379903534</v>
       </c>
       <c r="K136">
-        <v>4.868170782370726e-5</v>
+        <v>4.868170782375187e-5</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -5180,34 +5180,34 @@
         <v>0.0855</v>
       </c>
       <c r="B137">
-        <v>7.332651157636994</v>
+        <v>7.3326511576369935</v>
       </c>
       <c r="C137">
         <v>4.81194511780867e-7</v>
       </c>
       <c r="D137">
-        <v>0.00020650491263677446</v>
+        <v>0.00020650491263677438</v>
       </c>
       <c r="E137">
         <v>0.0019722816802802304</v>
       </c>
       <c r="F137">
-        <v>4.868636744705794e-5</v>
+        <v>4.868636744705793e-5</v>
       </c>
       <c r="G137">
-        <v>7.332651164595177</v>
+        <v>7.332651164592333</v>
       </c>
       <c r="H137">
-        <v>4.812076163817092e-7</v>
+        <v>4.812076163801793e-7</v>
       </c>
       <c r="I137">
-        <v>0.0002065048311205819</v>
+        <v>0.00020650483112060668</v>
       </c>
       <c r="J137">
-        <v>0.001972281667642755</v>
+        <v>0.0019722816676481596</v>
       </c>
       <c r="K137">
-        <v>4.868636726869538e-5</v>
+        <v>4.868636726873957e-5</v>
       </c>
     </row>
     <row r="138" spans="1:11">
@@ -5215,7 +5215,7 @@
         <v>0.08650000000000001</v>
       </c>
       <c r="B138">
-        <v>7.333689088788375</v>
+        <v>7.3336890887883746</v>
       </c>
       <c r="C138">
         <v>4.737341317532472e-7</v>
@@ -5224,25 +5224,25 @@
         <v>0.00020923529012849157</v>
       </c>
       <c r="E138">
-        <v>0.0019727349019187713</v>
+        <v>0.0019727349019187717</v>
       </c>
       <c r="F138">
         <v>4.8691025649292245e-5</v>
       </c>
       <c r="G138">
-        <v>7.333689095404392</v>
+        <v>7.333689095401599</v>
       </c>
       <c r="H138">
-        <v>4.7374703459956333e-7</v>
+        <v>4.737470345980599e-7</v>
       </c>
       <c r="I138">
-        <v>0.00020923520919359116</v>
+        <v>0.00020923520919361563</v>
       </c>
       <c r="J138">
-        <v>0.0019727348892811937</v>
+        <v>0.001972734889286551</v>
       </c>
       <c r="K138">
-        <v>4.8691025471800964e-5</v>
+        <v>4.869102547184473e-5</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -5259,25 +5259,25 @@
         <v>0.000211965895879299</v>
       </c>
       <c r="E139">
-        <v>0.001973187224841931</v>
+        <v>0.0019731872248419315</v>
       </c>
       <c r="F139">
         <v>4.869568261389927e-5</v>
       </c>
       <c r="G139">
-        <v>7.334721565767751</v>
+        <v>7.334721565765011</v>
       </c>
       <c r="H139">
-        <v>4.6628645277281515e-7</v>
+        <v>4.66286452771338e-7</v>
       </c>
       <c r="I139">
-        <v>0.00021196581554706965</v>
+        <v>0.00021196581554709372</v>
       </c>
       <c r="J139">
-        <v>0.001973187212210971</v>
+        <v>0.001973187212216279</v>
       </c>
       <c r="K139">
-        <v>4.869568243733958e-5</v>
+        <v>4.869568243738289e-5</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -5297,22 +5297,22 @@
         <v>0.0019736386582391123</v>
       </c>
       <c r="F140">
-        <v>4.870033834520001e-5</v>
+        <v>4.8700338345200006e-5</v>
       </c>
       <c r="G140">
-        <v>7.335748618550185</v>
+        <v>7.3357486185474965</v>
       </c>
       <c r="H140">
-        <v>4.588258709014646e-7</v>
+        <v>4.588258709000136e-7</v>
       </c>
       <c r="I140">
-        <v>0.00021469664788105233</v>
+        <v>0.00021469664788107597</v>
       </c>
       <c r="J140">
-        <v>0.0019736386456214563</v>
+        <v>0.0019736386456267138</v>
       </c>
       <c r="K140">
-        <v>4.87003381696322e-5</v>
+        <v>4.870033816967507e-5</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -5335,19 +5335,19 @@
         <v>4.870499284752017e-5</v>
       </c>
       <c r="G141">
-        <v>7.336770296194538</v>
+        <v>7.336770296191902</v>
       </c>
       <c r="H141">
-        <v>4.513652889855116e-7</v>
+        <v>4.5136528898408664e-7</v>
       </c>
       <c r="I141">
-        <v>0.00021742770392525293</v>
+        <v>0.00021742770392527613</v>
       </c>
       <c r="J141">
-        <v>0.001974089198582479</v>
+        <v>0.0019740891985876854</v>
       </c>
       <c r="K141">
-        <v>4.87049926730045e-5</v>
+        <v>4.870499267304688e-5</v>
       </c>
     </row>
     <row r="142" spans="1:11">
@@ -5355,34 +5355,34 @@
         <v>0.0905</v>
       </c>
       <c r="B142">
-        <v>7.337786635385603</v>
+        <v>7.337786635385604</v>
       </c>
       <c r="C142">
         <v>4.4389261164279026e-7</v>
       </c>
       <c r="D142">
-        <v>0.0002201590598344878</v>
+        <v>0.00022015905983448775</v>
       </c>
       <c r="E142">
-        <v>0.0019745388926172666</v>
+        <v>0.001974538892617266</v>
       </c>
       <c r="F142">
         <v>4.8709646125189475e-5</v>
       </c>
       <c r="G142">
-        <v>7.337786640726092</v>
+        <v>7.337786640723507</v>
       </c>
       <c r="H142">
-        <v>4.439047070249563e-7</v>
+        <v>4.4390470702355723e-7</v>
       </c>
       <c r="I142">
-        <v>0.00022015898143861576</v>
+        <v>0.0002201589814386385</v>
       </c>
       <c r="J142">
-        <v>0.001974538880046149</v>
+        <v>0.001974538880051301</v>
       </c>
       <c r="K142">
-        <v>4.8709645951786144e-5</v>
+        <v>4.870964595182805e-5</v>
       </c>
     </row>
     <row r="143" spans="1:11">
@@ -5396,28 +5396,28 @@
         <v>4.364322316151926e-7</v>
       </c>
       <c r="D143">
-        <v>0.00022289055591649047</v>
+        <v>0.00022289055591649041</v>
       </c>
       <c r="E143">
         <v>0.001974987711386577</v>
       </c>
       <c r="F143">
-        <v>4.871429818254101e-5</v>
+        <v>4.8714298182541004e-5</v>
       </c>
       <c r="G143">
-        <v>7.338797693757043</v>
+        <v>7.338797693754508</v>
       </c>
       <c r="H143">
-        <v>4.364441250197986e-7</v>
+        <v>4.3644412501842534e-7</v>
       </c>
       <c r="I143">
-        <v>0.0002228904782088751</v>
+        <v>0.0002228904782088974</v>
       </c>
       <c r="J143">
-        <v>0.0019749876988486314</v>
+        <v>0.001974987698853728</v>
       </c>
       <c r="K143">
-        <v>4.871429801031018e-5</v>
+        <v>4.8714298010351607e-5</v>
       </c>
     </row>
     <row r="144" spans="1:11">
@@ -5425,13 +5425,13 @@
         <v>0.09249999999999999</v>
       </c>
       <c r="B144">
-        <v>7.339803491733972</v>
+        <v>7.339803491733971</v>
       </c>
       <c r="C144">
         <v>4.2897185158760597e-7</v>
       </c>
       <c r="D144">
-        <v>0.000225622269050067</v>
+        <v>0.00022562226905006698</v>
       </c>
       <c r="E144">
         <v>0.001975435676210123</v>
@@ -5440,19 +5440,19 @@
         <v>4.871894902391058e-5</v>
       </c>
       <c r="G144">
-        <v>7.339803496490937</v>
+        <v>7.339803496488452</v>
       </c>
       <c r="H144">
-        <v>4.289835429700385e-7</v>
+        <v>4.28983542968691e-7</v>
       </c>
       <c r="I144">
-        <v>0.0002256221920521213</v>
+        <v>0.00022562219205214326</v>
       </c>
       <c r="J144">
-        <v>0.0019754356637119107</v>
+        <v>0.001975435663716951</v>
       </c>
       <c r="K144">
-        <v>4.87189488529124e-5</v>
+        <v>4.8718948852953345e-5</v>
       </c>
     </row>
     <row r="145" spans="1:11">
@@ -5469,25 +5469,25 @@
         <v>0.00022835419707923108</v>
       </c>
       <c r="E145">
-        <v>0.0019758827956974597</v>
+        <v>0.00197588279569746</v>
       </c>
       <c r="F145">
         <v>4.872359865363609e-5</v>
       </c>
       <c r="G145">
-        <v>7.3408040897270705</v>
+        <v>7.340804089724634</v>
       </c>
       <c r="H145">
-        <v>4.215229608756761e-7</v>
+        <v>4.215229608743543e-7</v>
       </c>
       <c r="I145">
-        <v>0.00022835412081237492</v>
+        <v>0.00022835412081239647</v>
       </c>
       <c r="J145">
-        <v>0.0019758827832455114</v>
+        <v>0.0019758827832504944</v>
       </c>
       <c r="K145">
-        <v>4.872359848393068e-5</v>
+        <v>4.872359848397112e-5</v>
       </c>
     </row>
     <row r="146" spans="1:11">
@@ -5495,34 +5495,34 @@
         <v>0.09449999999999999</v>
       </c>
       <c r="B146">
-        <v>7.341799509656448</v>
+        <v>7.341799509656447</v>
       </c>
       <c r="C146">
         <v>4.1405109153238855e-7</v>
       </c>
       <c r="D146">
-        <v>0.00023108633787550741</v>
+        <v>0.00023108633787550747</v>
       </c>
       <c r="E146">
-        <v>0.001976329078347381</v>
+        <v>0.0019763290783473804</v>
       </c>
       <c r="F146">
-        <v>4.8728247076056946e-5</v>
+        <v>4.872824707605694e-5</v>
       </c>
       <c r="G146">
-        <v>7.341799513864843</v>
+        <v>7.341799513862455</v>
       </c>
       <c r="H146">
-        <v>4.1406237873671134e-7</v>
+        <v>4.1406237873541496e-7</v>
       </c>
       <c r="I146">
-        <v>0.00023108626236116676</v>
+        <v>0.00023108626236118785</v>
       </c>
       <c r="J146">
-        <v>0.0019763290659481985</v>
+        <v>0.001976329065953122</v>
       </c>
       <c r="K146">
-        <v>4.8728246907704384e-5</v>
+        <v>4.872824690774433e-5</v>
       </c>
     </row>
     <row r="147" spans="1:11">
@@ -5530,7 +5530,7 @@
         <v>0.09549999999999999</v>
       </c>
       <c r="B147">
-        <v>7.342789804961131</v>
+        <v>7.342789804961132</v>
       </c>
       <c r="C147">
         <v>4.065907115047577e-7</v>
@@ -5539,25 +5539,25 @@
         <v>0.00023381868933751839</v>
       </c>
       <c r="E147">
-        <v>0.001976774532549587</v>
+        <v>0.0019767745325495866</v>
       </c>
       <c r="F147">
         <v>4.873289429551343e-5</v>
       </c>
       <c r="G147">
-        <v>7.342789808908073</v>
+        <v>7.342789808905732</v>
       </c>
       <c r="H147">
-        <v>4.066017965531441e-7</v>
+        <v>4.066017965518731e-7</v>
       </c>
       <c r="I147">
-        <v>0.00023381861459712566</v>
+        <v>0.0002338186145971463</v>
       </c>
       <c r="J147">
-        <v>0.001976774520209643</v>
+        <v>0.001976774520214505</v>
       </c>
       <c r="K147">
-        <v>4.873289412857377e-5</v>
+        <v>4.87328941286132e-5</v>
       </c>
     </row>
     <row r="148" spans="1:11">
@@ -5565,34 +5565,34 @@
         <v>0.09649999999999999</v>
       </c>
       <c r="B148">
-        <v>7.343775010775377</v>
+        <v>7.343775010775375</v>
       </c>
       <c r="C148">
         <v>3.9913033147716006e-7</v>
       </c>
       <c r="D148">
-        <v>0.0002365512493905789</v>
+        <v>0.00023655124939057895</v>
       </c>
       <c r="E148">
-        <v>0.001977219166586328</v>
+        <v>0.0019772191665863286</v>
       </c>
       <c r="F148">
-        <v>4.8737540316346194e-5</v>
+        <v>4.873754031634619e-5</v>
       </c>
       <c r="G148">
-        <v>7.343775014469273</v>
+        <v>7.343775014466979</v>
       </c>
       <c r="H148">
-        <v>3.9914121432497464e-7</v>
+        <v>3.9914121432372866e-7</v>
       </c>
       <c r="I148">
-        <v>0.0002365511754455727</v>
+        <v>0.00023655117544559286</v>
       </c>
       <c r="J148">
-        <v>0.0019772191543120667</v>
+        <v>0.001977219154316866</v>
       </c>
       <c r="K148">
-        <v>4.873754015087945e-5</v>
+        <v>4.8737540150918355e-5</v>
       </c>
     </row>
     <row r="149" spans="1:11">
@@ -5615,19 +5615,19 @@
         <v>4.8742185142895645e-5</v>
       </c>
       <c r="G149">
-        <v>7.344755169773883</v>
+        <v>7.344755169771635</v>
       </c>
       <c r="H149">
-        <v>3.916806320522028e-7</v>
+        <v>3.9168063205098174e-7</v>
       </c>
       <c r="I149">
-        <v>0.0002392839428581223</v>
+        <v>0.00023928394285814198</v>
       </c>
       <c r="J149">
-        <v>0.0019776629764318566</v>
+        <v>0.001977662976436591</v>
       </c>
       <c r="K149">
-        <v>4.874218497896181e-5</v>
+        <v>4.874218497900018e-5</v>
       </c>
     </row>
     <row r="150" spans="1:11">
@@ -5641,7 +5641,7 @@
         <v>3.842095714219537e-7</v>
       </c>
       <c r="D150">
-        <v>0.00024201698710218288</v>
+        <v>0.0002420169871021828</v>
       </c>
       <c r="E150">
         <v>0.001978106006764831</v>
@@ -5650,19 +5650,19 @@
         <v>4.8746828779501466e-5</v>
       </c>
       <c r="G150">
-        <v>7.34573031366446</v>
+        <v>7.345730313662258</v>
       </c>
       <c r="H150">
-        <v>3.842200497348286e-7</v>
+        <v>3.8422004973363223e-7</v>
       </c>
       <c r="I150">
-        <v>0.00024201691481228954</v>
+        <v>0.0002420169148123087</v>
       </c>
       <c r="J150">
-        <v>0.0019781059946411524</v>
+        <v>0.00197810599464582</v>
       </c>
       <c r="K150">
-        <v>4.874682861716047e-5</v>
+        <v>4.874682861719831e-5</v>
       </c>
     </row>
     <row r="151" spans="1:11">
@@ -5685,19 +5685,19 @@
         <v>4.875147123050203e-5</v>
       </c>
       <c r="G151">
-        <v>7.346700484604834</v>
+        <v>7.3467004846026756</v>
       </c>
       <c r="H151">
-        <v>3.767594673728521e-7</v>
+        <v>3.7675946737168035e-7</v>
       </c>
       <c r="I151">
-        <v>0.00024475008931110426</v>
+        <v>0.00024475008931112286</v>
       </c>
       <c r="J151">
-        <v>0.001978548216909408</v>
+        <v>0.0019785482169140073</v>
       </c>
       <c r="K151">
-        <v>4.8751471069813814e-5</v>
+        <v>4.875147106985111e-5</v>
       </c>
     </row>
     <row r="152" spans="1:11">
@@ -5714,25 +5714,25 @@
         <v>0.0002474835349316856</v>
       </c>
       <c r="E152">
-        <v>0.0019789896630525833</v>
+        <v>0.0019789896630525838</v>
       </c>
       <c r="F152">
-        <v>4.875611250023395e-5</v>
+        <v>4.8756112500233954e-5</v>
       </c>
       <c r="G152">
-        <v>7.347665720684213</v>
+        <v>7.347665720682099</v>
       </c>
       <c r="H152">
-        <v>3.692988849662732e-7</v>
+        <v>3.69298884965126e-7</v>
       </c>
       <c r="I152">
-        <v>0.00024748346438273127</v>
+        <v>0.00024748346438274927</v>
       </c>
       <c r="J152">
-        <v>0.0019789896511049282</v>
+        <v>0.0019789896511094576</v>
       </c>
       <c r="K152">
-        <v>4.87561123412584e-5</v>
+        <v>4.875611234129514e-5</v>
       </c>
     </row>
     <row r="153" spans="1:11">
@@ -5740,34 +5740,34 @@
         <v>0.10149999999999999</v>
       </c>
       <c r="B153">
-        <v>7.348626057070097</v>
+        <v>7.348626057070098</v>
       </c>
       <c r="C153">
         <v>3.6182843133910544e-7</v>
       </c>
       <c r="D153">
-        <v>0.0002502171077263826</v>
+        <v>0.00025021710772638267</v>
       </c>
       <c r="E153">
         <v>0.001979430316846551</v>
       </c>
       <c r="F153">
-        <v>4.8760752593031576e-5</v>
+        <v>4.876075259303158e-5</v>
       </c>
       <c r="G153">
-        <v>7.3486260596212585</v>
+        <v>7.348626059619188</v>
       </c>
       <c r="H153">
-        <v>3.618383025150919e-7</v>
+        <v>3.618383025139692e-7</v>
       </c>
       <c r="I153">
-        <v>0.000250217038080097</v>
+        <v>0.0002502170380801145</v>
       </c>
       <c r="J153">
-        <v>0.00197943030499638</v>
+        <v>0.001979430305000838</v>
       </c>
       <c r="K153">
-        <v>4.876075243582853e-5</v>
+        <v>4.876075243586472e-5</v>
       </c>
     </row>
     <row r="154" spans="1:11">
@@ -5781,28 +5781,28 @@
         <v>3.5436805131152986e-7</v>
       </c>
       <c r="D154">
-        <v>0.00025295087720266543</v>
+        <v>0.0002529508772026654</v>
       </c>
       <c r="E154">
-        <v>0.001979870198000683</v>
+        <v>0.0019798701980006835</v>
       </c>
       <c r="F154">
         <v>4.87653915132265e-5</v>
       </c>
       <c r="G154">
-        <v>7.349581538768109</v>
+        <v>7.349581538766082</v>
       </c>
       <c r="H154">
-        <v>3.543777200193083e-7</v>
+        <v>3.5437772001821e-7</v>
       </c>
       <c r="I154">
-        <v>0.00025295080848052205</v>
+        <v>0.00025295080848053897</v>
       </c>
       <c r="J154">
-        <v>0.0019798701862542775</v>
+        <v>0.0019798701862586625</v>
       </c>
       <c r="K154">
-        <v>4.876539135785579e-5</v>
+        <v>4.876539135789141e-5</v>
       </c>
     </row>
     <row r="155" spans="1:11">
@@ -5810,34 +5810,34 @@
         <v>0.1035</v>
       </c>
       <c r="B155">
-        <v>7.350532192965036</v>
+        <v>7.350532192965035</v>
       </c>
       <c r="C155">
         <v>3.4690767128385487e-7</v>
       </c>
       <c r="D155">
-        <v>0.000255684841461882</v>
+        <v>0.00025568484146188205</v>
       </c>
       <c r="E155">
-        <v>0.0019803093140888296</v>
+        <v>0.00198030931408883</v>
       </c>
       <c r="F155">
-        <v>4.877002926514711e-5</v>
+        <v>4.8770029265147105e-5</v>
       </c>
       <c r="G155">
-        <v>7.350532195114373</v>
+        <v>7.35053219511239</v>
       </c>
       <c r="H155">
-        <v>3.4691713747892225e-7</v>
+        <v>3.469171374778483e-7</v>
       </c>
       <c r="I155">
-        <v>0.00025568477368536003</v>
+        <v>0.00025568477368537645</v>
       </c>
       <c r="J155">
-        <v>0.001980309302452443</v>
+        <v>0.001980309302456755</v>
       </c>
       <c r="K155">
-        <v>4.877002911166853e-5</v>
+        <v>4.8770029111703576e-5</v>
       </c>
     </row>
     <row r="156" spans="1:11">
@@ -5845,34 +5845,34 @@
         <v>0.1045</v>
       </c>
       <c r="B156">
-        <v>7.351478063331199</v>
+        <v>7.351478063331197</v>
       </c>
       <c r="C156">
         <v>3.3944729125629036e-7</v>
       </c>
       <c r="D156">
-        <v>0.0002584189986290582</v>
+        <v>0.00025841899862905814</v>
       </c>
       <c r="E156">
-        <v>0.0019807476725895844</v>
+        <v>0.0019807476725895853</v>
       </c>
       <c r="F156">
-        <v>4.8774665853118144e-5</v>
+        <v>4.877466585311815e-5</v>
       </c>
       <c r="G156">
-        <v>7.351478065291077</v>
+        <v>7.351478065289136</v>
       </c>
       <c r="H156">
-        <v>3.394565548939339e-7</v>
+        <v>3.3945655489288415e-7</v>
       </c>
       <c r="I156">
-        <v>0.00025841893181964223</v>
+        <v>0.00025841893181965806</v>
       </c>
       <c r="J156">
-        <v>0.0019807476610694454</v>
+        <v>0.0019807476610736834</v>
       </c>
       <c r="K156">
-        <v>4.877466570159144e-5</v>
+        <v>4.8774665701625895e-5</v>
       </c>
     </row>
     <row r="157" spans="1:11">
@@ -5880,7 +5880,7 @@
         <v>0.1055</v>
       </c>
       <c r="B157">
-        <v>7.352419183796642</v>
+        <v>7.352419183796641</v>
       </c>
       <c r="C157">
         <v>3.319869112286596e-7</v>
@@ -5895,19 +5895,19 @@
         <v>4.8779301281460265e-5</v>
       </c>
       <c r="G157">
-        <v>7.352419185574567</v>
+        <v>7.3524191855726695</v>
       </c>
       <c r="H157">
-        <v>3.319959722643431e-7</v>
+        <v>3.319959722633175e-7</v>
       </c>
       <c r="I157">
-        <v>0.0002611532810317278</v>
+        <v>0.00026115328103174304</v>
       </c>
       <c r="J157">
-        <v>0.001981185269490015</v>
+        <v>0.0019811852694941777</v>
       </c>
       <c r="K157">
-        <v>4.877930113194518e-5</v>
+        <v>4.8779301131979014e-5</v>
       </c>
     </row>
     <row r="158" spans="1:11">
@@ -5921,28 +5921,28 @@
         <v>3.245265312010619e-7</v>
       </c>
       <c r="D158">
-        <v>0.00026388788430368895</v>
+        <v>0.000263887884303689</v>
       </c>
       <c r="E158">
         <v>0.001981622146275486</v>
       </c>
       <c r="F158">
-        <v>4.87839355544896e-5</v>
+        <v>4.8783935554489595e-5</v>
       </c>
       <c r="G158">
-        <v>7.353355591890385</v>
+        <v>7.353355591888531</v>
       </c>
       <c r="H158">
-        <v>3.2453538959014995e-7</v>
+        <v>3.2453538958914844e-7</v>
       </c>
       <c r="I158">
-        <v>0.00026388781949296</v>
+        <v>0.00026388781949297476</v>
       </c>
       <c r="J158">
-        <v>0.0019816221350064302</v>
+        <v>0.0019816221350105164</v>
       </c>
       <c r="K158">
-        <v>4.8783935407045824e-5</v>
+        <v>4.8783935407079055e-5</v>
       </c>
     </row>
     <row r="159" spans="1:11">
@@ -5950,7 +5950,7 @@
         <v>0.1075</v>
       </c>
       <c r="B159">
-        <v>7.354287318380918</v>
+        <v>7.354287318380919</v>
       </c>
       <c r="C159">
         <v>3.170661511734421e-7</v>
@@ -5965,19 +5965,19 @@
         <v>4.8788568676517403e-5</v>
       </c>
       <c r="G159">
-        <v>7.35428731981709</v>
+        <v>7.354287319815279</v>
       </c>
       <c r="H159">
-        <v>3.170748068713544e-7</v>
+        <v>3.1707480687037684e-7</v>
       </c>
       <c r="I159">
-        <v>0.0002666225453973285</v>
+        <v>0.0002666225453973427</v>
       </c>
       <c r="J159">
-        <v>0.0019820582648198883</v>
+        <v>0.001982058264823897</v>
       </c>
       <c r="K159">
-        <v>4.878856853120461e-5</v>
+        <v>4.878856853123722e-5</v>
       </c>
     </row>
     <row r="160" spans="1:11">
@@ -5985,7 +5985,7 @@
         <v>0.1085</v>
       </c>
       <c r="B160">
-        <v>7.3552144033138624</v>
+        <v>7.355214403313863</v>
       </c>
       <c r="C160">
         <v>3.0960577114584445e-7</v>
@@ -5994,25 +5994,25 @@
         <v>0.0002693575196871765</v>
       </c>
       <c r="E160">
-        <v>0.001982493677035201</v>
+        <v>0.0019824936770352</v>
       </c>
       <c r="F160">
-        <v>4.87932006518496e-5</v>
+        <v>4.8793200651849606e-5</v>
       </c>
       <c r="G160">
-        <v>7.3552144045900505</v>
+        <v>7.355214404588281</v>
       </c>
       <c r="H160">
-        <v>3.0961422410795647e-7</v>
+        <v>3.0961422410700287e-7</v>
       </c>
       <c r="I160">
-        <v>0.0002693574569611358</v>
+        <v>0.00026935745696114965</v>
       </c>
       <c r="J160">
-        <v>0.0019824936660418494</v>
+        <v>0.0019824936660457794</v>
       </c>
       <c r="K160">
-        <v>4.879320050872741e-5</v>
+        <v>4.879320050875939e-5</v>
       </c>
     </row>
     <row r="161" spans="1:11">
@@ -6032,22 +6032,22 @@
         <v>0.0019829283565416856</v>
       </c>
       <c r="F161">
-        <v>4.879783148478644e-5</v>
+        <v>4.8797831484786446e-5</v>
       </c>
       <c r="G161">
-        <v>7.3561368811051855</v>
+        <v>7.35613688110346</v>
       </c>
       <c r="H161">
-        <v>3.021536412999561e-7</v>
+        <v>3.021536412990264e-7</v>
       </c>
       <c r="I161">
-        <v>0.0002720925524226711</v>
+        <v>0.0002720925524226844</v>
       </c>
       <c r="J161">
-        <v>0.001982928345695359</v>
+        <v>0.00198292834569921</v>
       </c>
       <c r="K161">
-        <v>4.8797831343914466e-5</v>
+        <v>4.87978313439458e-5</v>
       </c>
     </row>
     <row r="162" spans="1:11">
@@ -6061,28 +6061,28 @@
         <v>2.9468501109063253e-7</v>
       </c>
       <c r="D162">
-        <v>0.000274827890597198</v>
+        <v>0.00027482789059719804</v>
       </c>
       <c r="E162">
-        <v>0.001983362321409569</v>
+        <v>0.0019833623214095685</v>
       </c>
       <c r="F162">
         <v>4.8802461179622104e-5</v>
       </c>
       <c r="G162">
-        <v>7.357054783922681</v>
+        <v>7.357054783920998</v>
       </c>
       <c r="H162">
-        <v>2.9469305844735333e-7</v>
+        <v>2.9469305844644754e-7</v>
       </c>
       <c r="I162">
-        <v>0.00027482783004188733</v>
+        <v>0.0002748278300419003</v>
       </c>
       <c r="J162">
-        <v>0.001983362310716352</v>
+        <v>0.001983362310720122</v>
       </c>
       <c r="K162">
-        <v>4.880246104105991e-5</v>
+        <v>4.8802461041090604e-5</v>
       </c>
     </row>
     <row r="163" spans="1:11">
@@ -6090,7 +6090,7 @@
         <v>0.1115</v>
       </c>
       <c r="B163">
-        <v>7.3579681464319195</v>
+        <v>7.35796814643192</v>
       </c>
       <c r="C163">
         <v>2.872246310630183e-7</v>
@@ -6105,19 +6105,19 @@
         <v>4.880708974064438e-5</v>
       </c>
       <c r="G163">
-        <v>7.357968147270655</v>
+        <v>7.357968147269015</v>
       </c>
       <c r="H163">
-        <v>2.8723247555014815e-7</v>
+        <v>2.872324755492662e-7</v>
       </c>
       <c r="I163">
-        <v>0.0002775632881000855</v>
+        <v>0.000277563288100098</v>
       </c>
       <c r="J163">
-        <v>0.001983795567954929</v>
+        <v>0.0019837955679586168</v>
       </c>
       <c r="K163">
-        <v>4.8807089604451506e-5</v>
+        <v>4.8807089604481545e-5</v>
       </c>
     </row>
     <row r="164" spans="1:11">
@@ -6125,7 +6125,7 @@
         <v>0.1125</v>
       </c>
       <c r="B164">
-        <v>7.358877004341994</v>
+        <v>7.358877004341993</v>
       </c>
       <c r="C164">
         <v>2.7976425103539303e-7</v>
@@ -6137,22 +6137,22 @@
         <v>0.00198422813454545</v>
       </c>
       <c r="F164">
-        <v>4.881171717213427e-5</v>
+        <v>4.8811717172134265e-5</v>
       </c>
       <c r="G164">
-        <v>7.358877005048789</v>
+        <v>7.358877005047192</v>
       </c>
       <c r="H164">
-        <v>2.797718926083406e-7</v>
+        <v>2.797718926074824e-7</v>
       </c>
       <c r="I164">
-        <v>0.0002802989248996025</v>
+        <v>0.00028029892489961464</v>
       </c>
       <c r="J164">
-        <v>0.0019842281241766167</v>
+        <v>0.0019842281241802214</v>
       </c>
       <c r="K164">
-        <v>4.881171703837021e-5</v>
+        <v>4.8811717038399594e-5</v>
       </c>
     </row>
     <row r="165" spans="1:11">
@@ -6166,7 +6166,7 @@
         <v>2.723038710077788e-7</v>
       </c>
       <c r="D165">
-        <v>0.0002830347959013072</v>
+        <v>0.00028303479590130714</v>
       </c>
       <c r="E165">
         <v>0.001984659996261213</v>
@@ -6175,19 +6175,19 @@
         <v>4.88163434783657e-5</v>
       </c>
       <c r="G165">
-        <v>7.359781390831916</v>
+        <v>7.359781390830362</v>
       </c>
       <c r="H165">
-        <v>2.723113096219306e-7</v>
+        <v>2.723113096210961e-7</v>
       </c>
       <c r="I165">
-        <v>0.00028303473876350516</v>
+        <v>0.000283034738763517</v>
       </c>
       <c r="J165">
-        <v>0.0019846599860636077</v>
+        <v>0.001984659986067128</v>
       </c>
       <c r="K165">
-        <v>4.8816343347089965e-5</v>
+        <v>4.8816343347118655e-5</v>
       </c>
     </row>
     <row r="166" spans="1:11">
@@ -6210,19 +6210,19 @@
         <v>4.882096866360517e-5</v>
       </c>
       <c r="G166">
-        <v>7.36068133787358</v>
+        <v>7.36068133787207</v>
       </c>
       <c r="H166">
-        <v>2.648507265909183e-7</v>
+        <v>2.648507265901073e-7</v>
       </c>
       <c r="I166">
-        <v>0.00028577072803528876</v>
+        <v>0.00028577072803530026</v>
       </c>
       <c r="J166">
-        <v>0.0019850911602159764</v>
+        <v>0.001985091160219412</v>
       </c>
       <c r="K166">
-        <v>4.8820968534877194e-5</v>
+        <v>4.8820968534905194e-5</v>
       </c>
     </row>
     <row r="167" spans="1:11">
@@ -6236,28 +6236,28 @@
         <v>2.5738311095258897e-7</v>
       </c>
       <c r="D167">
-        <v>0.00028850694583037946</v>
+        <v>0.0002885069458303795</v>
       </c>
       <c r="E167">
-        <v>0.0019855216629900653</v>
+        <v>0.0019855216629900657</v>
       </c>
       <c r="F167">
         <v>4.882559273211144e-5</v>
       </c>
       <c r="G167">
-        <v>7.361576879109547</v>
+        <v>7.36157687910808</v>
       </c>
       <c r="H167">
-        <v>2.573901435153035e-7</v>
+        <v>2.573901435145161e-7</v>
       </c>
       <c r="I167">
-        <v>0.0002885068910785805</v>
+        <v>0.0002885068910785916</v>
       </c>
       <c r="J167">
-        <v>0.0019855216531528804</v>
+        <v>0.00198552165315623</v>
       </c>
       <c r="K167">
-        <v>4.8825592605990654e-5</v>
+        <v>4.8825592606017956e-5</v>
       </c>
     </row>
     <row r="168" spans="1:11">
@@ -6265,13 +6265,13 @@
         <v>0.1165</v>
       </c>
       <c r="B168">
-        <v>7.362468046915109</v>
+        <v>7.36246804691511</v>
       </c>
       <c r="C168">
         <v>2.499227309249361e-7</v>
       </c>
       <c r="D168">
-        <v>0.00029124327980333247</v>
+        <v>0.0002912432798033325</v>
       </c>
       <c r="E168">
         <v>0.001985951480961771</v>
@@ -6280,19 +6280,19 @@
         <v>4.883021568813526e-5</v>
       </c>
       <c r="G168">
-        <v>7.362468047161279</v>
+        <v>7.362468047159855</v>
       </c>
       <c r="H168">
-        <v>2.499295603950863e-7</v>
+        <v>2.4992956039432243e-7</v>
       </c>
       <c r="I168">
-        <v>0.00029124322627684796</v>
+        <v>0.00029124322627685874</v>
       </c>
       <c r="J168">
-        <v>0.001985951471313735</v>
+        <v>0.0019859514713169973</v>
       </c>
       <c r="K168">
-        <v>4.883021556468105e-5</v>
+        <v>4.8830215564707637e-5</v>
       </c>
     </row>
     <row r="169" spans="1:11">
@@ -6300,7 +6300,7 @@
         <v>0.11750000000000001</v>
       </c>
       <c r="B169">
-        <v>7.363354874191987</v>
+        <v>7.363354874191988</v>
       </c>
       <c r="C169">
         <v>2.42462350897355e-7</v>
@@ -6315,19 +6315,19 @@
         <v>4.8834837535919037e-5</v>
       </c>
       <c r="G169">
-        <v>7.363354874339375</v>
+        <v>7.363354874337995</v>
       </c>
       <c r="H169">
-        <v>2.424689772302668e-7</v>
+        <v>2.424689772295263e-7</v>
       </c>
       <c r="I169">
-        <v>0.0002939797320331119</v>
+        <v>0.0002939797320331223</v>
       </c>
       <c r="J169">
-        <v>0.001986380621059376</v>
+        <v>0.0019863806210625515</v>
       </c>
       <c r="K169">
-        <v>4.883483741519075e-5</v>
+        <v>4.883483741521661e-5</v>
       </c>
     </row>
     <row r="170" spans="1:11">
@@ -6335,34 +6335,34 @@
         <v>0.11850000000000001</v>
       </c>
       <c r="B170">
-        <v>7.364237392591977</v>
+        <v>7.364237392591978</v>
       </c>
       <c r="C170">
         <v>2.3500197086974076e-7</v>
       </c>
       <c r="D170">
-        <v>0.000296716457780872</v>
+        <v>0.00029671645778087206</v>
       </c>
       <c r="E170">
-        <v>0.001986809117925165</v>
+        <v>0.001986809117925164</v>
       </c>
       <c r="F170">
-        <v>4.883945827969653e-5</v>
+        <v>4.8839458279696524e-5</v>
       </c>
       <c r="G170">
-        <v>7.364237392646974</v>
+        <v>7.364237392645638</v>
       </c>
       <c r="H170">
-        <v>2.3500839402084483e-7</v>
+        <v>2.3500839402012774e-7</v>
       </c>
       <c r="I170">
-        <v>0.00029671640676966427</v>
+        <v>0.00029671640676967424</v>
       </c>
       <c r="J170">
-        <v>0.001986809108673201</v>
+        <v>0.001986809108676288</v>
       </c>
       <c r="K170">
-        <v>4.883945816175352e-5</v>
+        <v>4.883945816177866e-5</v>
       </c>
     </row>
     <row r="171" spans="1:11">
@@ -6379,25 +6379,25 @@
         <v>0.00029945329864902726</v>
       </c>
       <c r="E171">
-        <v>0.001987236949407368</v>
+        <v>0.0019872369494073677</v>
       </c>
       <c r="F171">
         <v>4.8844077923692674e-5</v>
       </c>
       <c r="G171">
-        <v>7.365115633783115</v>
+        <v>7.365115633781823</v>
       </c>
       <c r="H171">
-        <v>2.2754781076682048e-7</v>
+        <v>2.275478107661267e-7</v>
       </c>
       <c r="I171">
-        <v>0.0002994532489277904</v>
+        <v>0.0002994532489278</v>
       </c>
       <c r="J171">
-        <v>0.0019872369403622857</v>
+        <v>0.0019872369403652838</v>
       </c>
       <c r="K171">
-        <v>4.884407780859424e-5</v>
+        <v>4.884407780861863e-5</v>
       </c>
     </row>
     <row r="172" spans="1:11">
@@ -6405,34 +6405,34 @@
         <v>0.12050000000000001</v>
       </c>
       <c r="B172">
-        <v>7.365989629256989</v>
+        <v>7.365989629256988</v>
       </c>
       <c r="C172">
         <v>2.2008121081450677e-7</v>
       </c>
       <c r="D172">
-        <v>0.00030219030537720126</v>
+        <v>0.0003021903053772012</v>
       </c>
       <c r="E172">
-        <v>0.001987664131090825</v>
+        <v>0.0019876641310908254</v>
       </c>
       <c r="F172">
-        <v>4.8848696472123216e-5</v>
+        <v>4.884869647212322e-5</v>
       </c>
       <c r="G172">
-        <v>7.365989629146067</v>
+        <v>7.365989629144818</v>
       </c>
       <c r="H172">
-        <v>2.2008722746819376e-7</v>
+        <v>2.2008722746752328e-7</v>
       </c>
       <c r="I172">
-        <v>0.000302190256967496</v>
+        <v>0.0003021902569675053</v>
       </c>
       <c r="J172">
-        <v>0.0019876641222584964</v>
+        <v>0.0019876641222614042</v>
       </c>
       <c r="K172">
-        <v>4.8848696359928614e-5</v>
+        <v>4.884869635995226e-5</v>
       </c>
     </row>
     <row r="173" spans="1:11">
@@ -6446,28 +6446,28 @@
         <v>2.126208307869367e-7</v>
       </c>
       <c r="D173">
-        <v>0.0003049274764438468</v>
+        <v>0.00030492747644384675</v>
       </c>
       <c r="E173">
-        <v>0.0019880906690332924</v>
+        <v>0.001988090669033293</v>
       </c>
       <c r="F173">
-        <v>4.885331392919451e-5</v>
+        <v>4.885331392919452e-5</v>
       </c>
       <c r="G173">
-        <v>7.366859409836615</v>
+        <v>7.366859409835409</v>
       </c>
       <c r="H173">
-        <v>2.1262664412496464e-7</v>
+        <v>2.1262664412431743e-7</v>
       </c>
       <c r="I173">
-        <v>0.0003049274293672381</v>
+        <v>0.0003049274293672471</v>
       </c>
       <c r="J173">
-        <v>0.0019880906604195676</v>
+        <v>0.0019880906604223844</v>
       </c>
       <c r="K173">
-        <v>4.8853313819962985e-5</v>
+        <v>4.8853313819985875e-5</v>
       </c>
     </row>
     <row r="174" spans="1:11">
@@ -6475,34 +6475,34 @@
         <v>0.12249999999999998</v>
       </c>
       <c r="B174">
-        <v>7.367725006913515</v>
+        <v>7.367725006913514</v>
       </c>
       <c r="C174">
         <v>2.0516045075928932e-7</v>
       </c>
       <c r="D174">
-        <v>0.000307664810345604</v>
+        <v>0.00030766481034560396</v>
       </c>
       <c r="E174">
         <v>0.001988516569219465</v>
       </c>
       <c r="F174">
-        <v>4.885793029910325e-5</v>
+        <v>4.885793029910326e-5</v>
       </c>
       <c r="G174">
-        <v>7.367725006661318</v>
+        <v>7.367725006660155</v>
       </c>
       <c r="H174">
-        <v>2.051660607371331e-7</v>
+        <v>2.0516606073650913e-7</v>
       </c>
       <c r="I174">
-        <v>0.00030766476462366096</v>
+        <v>0.00030766476462366937</v>
       </c>
       <c r="J174">
-        <v>0.0019885165608301753</v>
+        <v>0.0019885165608328997</v>
       </c>
       <c r="K174">
-        <v>4.885793019289399e-5</v>
+        <v>4.8857930192916125e-5</v>
       </c>
     </row>
     <row r="175" spans="1:11">
@@ -6510,7 +6510,7 @@
         <v>0.12349999999999998</v>
       </c>
       <c r="B175">
-        <v>7.368586450449503</v>
+        <v>7.368586450449502</v>
       </c>
       <c r="C175">
         <v>1.9770007073171375e-7</v>
@@ -6519,25 +6519,25 @@
         <v>0.00031040230559703974</v>
       </c>
       <c r="E175">
-        <v>0.001988941837562028</v>
+        <v>0.0019889418375620286</v>
       </c>
       <c r="F175">
-        <v>4.8862545586036257e-5</v>
+        <v>4.886254558603625e-5</v>
       </c>
       <c r="G175">
-        <v>7.368586450135721</v>
+        <v>7.368586450134602</v>
       </c>
       <c r="H175">
-        <v>1.9770547730469918e-7</v>
+        <v>1.9770547730409843e-7</v>
       </c>
       <c r="I175">
-        <v>0.00031040226125133517</v>
+        <v>0.0003104022612513432</v>
       </c>
       <c r="J175">
-        <v>0.0019889418294029865</v>
+        <v>0.0019889418294056172</v>
       </c>
       <c r="K175">
-        <v>4.886254548290842e-5</v>
+        <v>4.886254548292981e-5</v>
       </c>
     </row>
     <row r="176" spans="1:11">
@@ -6545,34 +6545,34 @@
         <v>0.12449999999999999</v>
       </c>
       <c r="B176">
-        <v>7.369443770856969</v>
+        <v>7.36944377085697</v>
       </c>
       <c r="C176">
         <v>1.90239690704094e-7</v>
       </c>
       <c r="D176">
-        <v>0.0003131399607303921</v>
+        <v>0.00031313996073039204</v>
       </c>
       <c r="E176">
-        <v>0.0019893664799026925</v>
+        <v>0.001989366479902693</v>
       </c>
       <c r="F176">
-        <v>4.886715979417019e-5</v>
+        <v>4.88671597941702e-5</v>
       </c>
       <c r="G176">
-        <v>7.369443770487543</v>
+        <v>7.369443770486467</v>
       </c>
       <c r="H176">
-        <v>1.902448938276629e-7</v>
+        <v>1.902448938270853e-7</v>
       </c>
       <c r="I176">
-        <v>0.0003131399177825028</v>
+        <v>0.0003131399177825104</v>
       </c>
       <c r="J176">
-        <v>0.0019893664719796917</v>
+        <v>0.0019893664719822287</v>
       </c>
       <c r="K176">
-        <v>4.8867159694182945e-5</v>
+        <v>4.8867159694203585e-5</v>
       </c>
     </row>
     <row r="177" spans="1:11">
@@ -6580,34 +6580,34 @@
         <v>0.1255</v>
       </c>
       <c r="B177">
-        <v>7.37029699807902</v>
+        <v>7.370296998079021</v>
       </c>
       <c r="C177">
         <v>1.827793106764687e-7</v>
       </c>
       <c r="D177">
-        <v>0.0003158777742953177</v>
+        <v>0.00031587777429531786</v>
       </c>
       <c r="E177">
         <v>0.00198979050201321</v>
       </c>
       <c r="F177">
-        <v>4.887177292767142e-5</v>
+        <v>4.8871772927671424e-5</v>
       </c>
       <c r="G177">
-        <v>7.370296997659817</v>
+        <v>7.370296997658785</v>
       </c>
       <c r="H177">
-        <v>1.827843103060242e-7</v>
+        <v>1.8278431030546972e-7</v>
       </c>
       <c r="I177">
-        <v>0.00031587773276682486</v>
+        <v>0.0003158777327668321</v>
       </c>
       <c r="J177">
-        <v>0.001989790494332025</v>
+        <v>0.0019897904943344666</v>
       </c>
       <c r="K177">
-        <v>4.88717728308839e-5</v>
+        <v>4.887177283090378e-5</v>
       </c>
     </row>
     <row r="178" spans="1:11">
@@ -6615,34 +6615,34 @@
         <v>0.1265</v>
       </c>
       <c r="B178">
-        <v>7.371146161777186</v>
+        <v>7.371146161777185</v>
       </c>
       <c r="C178">
         <v>1.7531893064889865e-7</v>
       </c>
       <c r="D178">
-        <v>0.0003186157448586453</v>
+        <v>0.00031861574485864537</v>
       </c>
       <c r="E178">
-        <v>0.0019902139095963754</v>
+        <v>0.001990213909596375</v>
       </c>
       <c r="F178">
-        <v>4.887638499069574e-5</v>
+        <v>4.8876384990695733e-5</v>
       </c>
       <c r="G178">
-        <v>7.371146161314002</v>
+        <v>7.371146161313014</v>
       </c>
       <c r="H178">
-        <v>1.7532372673978322e-7</v>
+        <v>1.753237267392518e-7</v>
       </c>
       <c r="I178">
-        <v>0.0003186157047711333</v>
+        <v>0.00031861570477114017</v>
       </c>
       <c r="J178">
-        <v>0.0019902139021627614</v>
+        <v>0.001990213902165108</v>
       </c>
       <c r="K178">
-        <v>4.8876384897167006e-5</v>
+        <v>4.887638489718612e-5</v>
       </c>
     </row>
     <row r="179" spans="1:11">
@@ -6650,7 +6650,7 @@
         <v>0.1275</v>
       </c>
       <c r="B179">
-        <v>7.3719912913345</v>
+        <v>7.371991291334499</v>
       </c>
       <c r="C179">
         <v>1.678585506212789e-7</v>
@@ -6665,19 +6665,19 @@
         <v>4.8880995987388165e-5</v>
       </c>
       <c r="G179">
-        <v>7.371991290833062</v>
+        <v>7.371991290832118</v>
       </c>
       <c r="H179">
-        <v>1.6786314312893987e-7</v>
+        <v>1.6786314312843144e-7</v>
       </c>
       <c r="I179">
-        <v>0.00032135383237918817</v>
+        <v>0.0003213538323791947</v>
       </c>
       <c r="J179">
-        <v>0.001990636701106705</v>
+        <v>0.0019906367011089557</v>
       </c>
       <c r="K179">
-        <v>4.888099589717731e-5</v>
+        <v>4.888099589719566e-5</v>
       </c>
     </row>
     <row r="180" spans="1:11">
@@ -6685,13 +6685,13 @@
         <v>0.1285</v>
       </c>
       <c r="B180">
-        <v>7.372832415858536</v>
+        <v>7.372832415858534</v>
       </c>
       <c r="C180">
         <v>1.6039817059365915e-7</v>
       </c>
       <c r="D180">
-        <v>0.00032409215133221754</v>
+        <v>0.0003240921513322176</v>
       </c>
       <c r="E180">
         <v>0.001991058903652929</v>
@@ -6700,19 +6700,19 @@
         <v>4.888560592188279e-5</v>
       </c>
       <c r="G180">
-        <v>7.372832415324502</v>
+        <v>7.372832415323601</v>
       </c>
       <c r="H180">
-        <v>1.6040255947349414e-7</v>
+        <v>1.604025594730087e-7</v>
       </c>
       <c r="I180">
-        <v>0.0003240921141914367</v>
+        <v>0.00032409211419144287</v>
       </c>
       <c r="J180">
-        <v>0.001991058896731656</v>
+        <v>0.0019910588967338096</v>
       </c>
       <c r="K180">
-        <v>4.888560583504883e-5</v>
+        <v>4.888560583506641e-5</v>
       </c>
     </row>
     <row r="181" spans="1:11">
@@ -6726,28 +6726,28 @@
         <v>1.529377905660449e-7</v>
       </c>
       <c r="D181">
-        <v>0.0003268305844598012</v>
+        <v>0.0003268305844598011</v>
       </c>
       <c r="E181">
-        <v>0.0019914805011959007</v>
+        <v>0.0019914805011959002</v>
       </c>
       <c r="F181">
         <v>4.889021479830253e-5</v>
       </c>
       <c r="G181">
-        <v>7.373669563623375</v>
+        <v>7.37366956362252</v>
       </c>
       <c r="H181">
-        <v>1.5294197577344604e-7</v>
+        <v>1.5294197577298348e-7</v>
       </c>
       <c r="I181">
-        <v>0.0003268305488247779</v>
+        <v>0.00032683054882478376</v>
       </c>
       <c r="J181">
-        <v>0.001991480494539362</v>
+        <v>0.0019914804945414173</v>
       </c>
       <c r="K181">
-        <v>4.889021471490449e-5</v>
+        <v>4.8890214714921286e-5</v>
       </c>
     </row>
     <row r="182" spans="1:11">
@@ -6755,34 +6755,34 @@
         <v>0.1305</v>
       </c>
       <c r="B182">
-        <v>7.374502764877782</v>
+        <v>7.374502764877781</v>
       </c>
       <c r="C182">
         <v>1.4547741053842515e-7</v>
       </c>
       <c r="D182">
-        <v>0.00032956916901999607</v>
+        <v>0.000329569169019996</v>
       </c>
       <c r="E182">
-        <v>0.0019919015063525765</v>
+        <v>0.001991901506352576</v>
       </c>
       <c r="F182">
         <v>4.889482262075899e-5</v>
       </c>
       <c r="G182">
-        <v>7.3745027642952605</v>
+        <v>7.374502764294449</v>
       </c>
       <c r="H182">
-        <v>1.4548139202879557e-7</v>
+        <v>1.4548139202835585e-7</v>
       </c>
       <c r="I182">
-        <v>0.00032956913491233005</v>
+        <v>0.00032956913491233547</v>
       </c>
       <c r="J182">
-        <v>0.001991901499966457</v>
+        <v>0.0019919014999684147</v>
       </c>
       <c r="K182">
-        <v>4.889482254085584e-5</v>
+        <v>4.889482254087186e-5</v>
       </c>
     </row>
     <row r="183" spans="1:11">
@@ -6796,7 +6796,7 @@
         <v>1.3801703051085233e-7</v>
       </c>
       <c r="D183">
-        <v>0.0003323079036619078</v>
+        <v>0.0003323079036619079</v>
       </c>
       <c r="E183">
         <v>0.0019923219244954186</v>
@@ -6805,19 +6805,19 @@
         <v>4.889942939335225e-5</v>
       </c>
       <c r="G183">
-        <v>7.375332045639192</v>
+        <v>7.375332045638426</v>
       </c>
       <c r="H183">
-        <v>1.380208082395427e-7</v>
+        <v>1.3802080823912577e-7</v>
       </c>
       <c r="I183">
-        <v>0.0003323078711032021</v>
+        <v>0.0003323078711032072</v>
       </c>
       <c r="J183">
-        <v>0.0019923219183853873</v>
+        <v>0.001992321918387246</v>
       </c>
       <c r="K183">
-        <v>4.8899429317002935e-5</v>
+        <v>4.889942931701818e-5</v>
       </c>
     </row>
     <row r="184" spans="1:11">
@@ -6831,28 +6831,28 @@
         <v>1.3055665048323256e-7</v>
       </c>
       <c r="D184">
-        <v>0.00033504678705040773</v>
+        <v>0.00033504678705040784</v>
       </c>
       <c r="E184">
-        <v>0.001992741760933606</v>
+        <v>0.0019927417609336066</v>
       </c>
       <c r="F184">
         <v>4.890403512017071e-5</v>
       </c>
       <c r="G184">
-        <v>7.376157435690574</v>
+        <v>7.376157435689851</v>
       </c>
       <c r="H184">
-        <v>1.3056022440568745e-7</v>
+        <v>1.3056022440529327e-7</v>
       </c>
       <c r="I184">
-        <v>0.000335046756062269</v>
+        <v>0.00033504675606227385</v>
       </c>
       <c r="J184">
-        <v>0.0019927417551053135</v>
+        <v>0.001992741755107074</v>
       </c>
       <c r="K184">
-        <v>4.8904035047434184e-5</v>
+        <v>4.890403504744862e-5</v>
       </c>
     </row>
     <row r="185" spans="1:11">
@@ -6866,7 +6866,7 @@
         <v>1.2309627045557967e-7</v>
       </c>
       <c r="D185">
-        <v>0.00033778581786591205</v>
+        <v>0.000337785817865912</v>
       </c>
       <c r="E185">
         <v>0.001993161020913929</v>
@@ -6875,19 +6875,19 @@
         <v>4.8908639805290955e-5</v>
       </c>
       <c r="G185">
-        <v>7.376978962224046</v>
+        <v>7.376978962223367</v>
       </c>
       <c r="H185">
-        <v>1.230996405272298e-7</v>
+        <v>1.2309964052685828e-7</v>
       </c>
       <c r="I185">
-        <v>0.0003377857884699503</v>
+        <v>0.00033778578846995486</v>
       </c>
       <c r="J185">
-        <v>0.001993161015373009</v>
+        <v>0.001993161015374671</v>
       </c>
       <c r="K185">
-        <v>4.8908639736226084e-5</v>
+        <v>4.890863973623974e-5</v>
       </c>
     </row>
     <row r="186" spans="1:11">
@@ -6895,7 +6895,7 @@
         <v>0.1345</v>
       </c>
       <c r="B186">
-        <v>7.377796653370848</v>
+        <v>7.377796653370849</v>
       </c>
       <c r="C186">
         <v>1.1563589042799856e-7</v>
@@ -6904,25 +6904,25 @@
         <v>0.00034052499480416345</v>
       </c>
       <c r="E186">
-        <v>0.0019935797096216653</v>
+        <v>0.0019935797096216658</v>
       </c>
       <c r="F186">
-        <v>4.891324345277754e-5</v>
+        <v>4.891324345277755e-5</v>
       </c>
       <c r="G186">
-        <v>7.377796652756322</v>
+        <v>7.377796652755687</v>
       </c>
       <c r="H186">
-        <v>1.1563905660416979e-7</v>
+        <v>1.156390566038209e-7</v>
       </c>
       <c r="I186">
-        <v>0.00034052496702199246</v>
+        <v>0.00034052496702199664</v>
       </c>
       <c r="J186">
-        <v>0.001993579704373738</v>
+        <v>0.0019935797043753004</v>
       </c>
       <c r="K186">
-        <v>4.8913243387443206e-5</v>
+        <v>4.891324338745607e-5</v>
       </c>
     </row>
     <row r="187" spans="1:11">
@@ -6930,13 +6930,13 @@
         <v>0.1355</v>
       </c>
       <c r="B187">
-        <v>7.3786105351583675</v>
+        <v>7.378610535158368</v>
       </c>
       <c r="C187">
         <v>1.0817551040038433e-7</v>
       </c>
       <c r="D187">
-        <v>0.00034326431657601776</v>
+        <v>0.0003432643165760178</v>
       </c>
       <c r="E187">
         <v>0.0019939978321814504</v>
@@ -6945,19 +6945,19 @@
         <v>4.89178460666829e-5</v>
       </c>
       <c r="G187">
-        <v>7.3786105345490025</v>
+        <v>7.378610534548412</v>
       </c>
       <c r="H187">
-        <v>1.0817847263650736e-7</v>
+        <v>1.0817847263618111e-7</v>
       </c>
       <c r="I187">
-        <v>0.0003432642904292543</v>
+        <v>0.0003432642904292581</v>
       </c>
       <c r="J187">
-        <v>0.001993997827232118</v>
+        <v>0.0019939978272335798</v>
       </c>
       <c r="K187">
-        <v>4.8917846005137926e-5</v>
+        <v>4.8917846005149994e-5</v>
       </c>
     </row>
     <row r="188" spans="1:11">
@@ -6965,7 +6965,7 @@
         <v>0.1365</v>
       </c>
       <c r="B188">
-        <v>7.379420635210409</v>
+        <v>7.37942063521041</v>
       </c>
       <c r="C188">
         <v>1.00715130372806e-7</v>
@@ -6974,25 +6974,25 @@
         <v>0.000346003781907232</v>
       </c>
       <c r="E188">
-        <v>0.0019944153936581237</v>
+        <v>0.0019944153936581233</v>
       </c>
       <c r="F188">
         <v>4.892244765104714e-5</v>
       </c>
       <c r="G188">
-        <v>7.379420634611345</v>
+        <v>7.3794206346107964</v>
       </c>
       <c r="H188">
-        <v>1.0071788862424254e-7</v>
+        <v>1.007178886239389e-7</v>
       </c>
       <c r="I188">
-        <v>0.00034600375741749634</v>
+        <v>0.00034600375741749976</v>
       </c>
       <c r="J188">
-        <v>0.0019944153890129714</v>
+        <v>0.001994415389014333</v>
       </c>
       <c r="K188">
-        <v>4.892244759335037e-5</v>
+        <v>4.8922447593361616e-5</v>
       </c>
     </row>
     <row r="189" spans="1:11">
@@ -7012,22 +7012,22 @@
         <v>0.001994832399057569</v>
       </c>
       <c r="F189">
-        <v>4.892704820989797e-5</v>
+        <v>4.8927048209897975e-5</v>
       </c>
       <c r="G189">
-        <v>7.3802269797030045</v>
+        <v>7.380226979702499</v>
       </c>
       <c r="H189">
-        <v>9.325730456737534e-8</v>
+        <v>9.325730456709429e-8</v>
       </c>
       <c r="I189">
-        <v>0.00034874336672717303</v>
+        <v>0.0003487433667271762</v>
       </c>
       <c r="J189">
-        <v>0.001994832394722166</v>
+        <v>0.001994832394723428</v>
       </c>
       <c r="K189">
-        <v>4.8927048156108185e-5</v>
+        <v>4.892704815611863e-5</v>
       </c>
     </row>
     <row r="190" spans="1:11">
@@ -7035,34 +7035,34 @@
         <v>0.1385</v>
       </c>
       <c r="B190">
-        <v>7.381029596900036</v>
+        <v>7.381029596900037</v>
       </c>
       <c r="C190">
         <v>8.579437031753334e-8</v>
       </c>
       <c r="D190">
-        <v>0.0003514831382240354</v>
+        <v>0.00035148313822403544</v>
       </c>
       <c r="E190">
         <v>0.001995248853327536</v>
       </c>
       <c r="F190">
-        <v>4.8931647747250534e-5</v>
+        <v>4.893164774725053e-5</v>
       </c>
       <c r="G190">
-        <v>7.38102959633675</v>
+        <v>7.381029596336287</v>
       </c>
       <c r="H190">
-        <v>8.579672046590574e-8</v>
+        <v>8.579672046564724e-8</v>
       </c>
       <c r="I190">
-        <v>0.00035148311711322893</v>
+        <v>0.00035148311711323175</v>
       </c>
       <c r="J190">
-        <v>0.0019952488493074393</v>
+        <v>0.001995248849308601</v>
       </c>
       <c r="K190">
-        <v>4.89316476974265e-5</v>
+        <v>4.8931647697436107e-5</v>
       </c>
     </row>
     <row r="191" spans="1:11">
@@ -7079,25 +7079,25 @@
         <v>0.0003542230267337958</v>
       </c>
       <c r="E191">
-        <v>0.0019956647613584575</v>
+        <v>0.001995664761358457</v>
       </c>
       <c r="F191">
-        <v>4.893624626710724e-5</v>
+        <v>4.8936246267107246e-5</v>
       </c>
       <c r="G191">
-        <v>7.381828510781139</v>
+        <v>7.381828510780719</v>
       </c>
       <c r="H191">
-        <v>7.833613631983374e-8</v>
+        <v>7.833613631959778e-8</v>
       </c>
       <c r="I191">
-        <v>0.0003542230073448973</v>
+        <v>0.0003542230073448997</v>
       </c>
       <c r="J191">
-        <v>0.0019956647576592048</v>
+        <v>0.0019956647576602664</v>
       </c>
       <c r="K191">
-        <v>4.8936246221307707e-5</v>
+        <v>4.8936246221316475e-5</v>
       </c>
     </row>
     <row r="192" spans="1:11">
@@ -7120,19 +7120,19 @@
         <v>4.894084377345774e-5</v>
       </c>
       <c r="G192">
-        <v>7.382623749063169</v>
+        <v>7.382623749062791</v>
       </c>
       <c r="H192">
-        <v>7.087555212915934e-8</v>
+        <v>7.087555212894591e-8</v>
       </c>
       <c r="I192">
-        <v>0.0003569630362055021</v>
+        <v>0.0003569630362055042</v>
       </c>
       <c r="J192">
-        <v>0.0019960801246113554</v>
+        <v>0.0019960801246123165</v>
       </c>
       <c r="K192">
-        <v>4.894084373174141e-5</v>
+        <v>4.894084373174935e-5</v>
       </c>
     </row>
     <row r="193" spans="1:11">
@@ -7155,19 +7155,19 @@
         <v>4.894544027027875e-5</v>
       </c>
       <c r="G193">
-        <v>7.383415336970898</v>
+        <v>7.383415336970561</v>
       </c>
       <c r="H193">
-        <v>6.341496789388254e-8</v>
+        <v>6.341496789369161e-8</v>
       </c>
       <c r="I193">
-        <v>0.00035970320249226374</v>
+        <v>0.0003597032024922657</v>
       </c>
       <c r="J193">
-        <v>0.0019964949549420474</v>
+        <v>0.0019964949549429083</v>
       </c>
       <c r="K193">
-        <v>4.8945440232704294e-5</v>
+        <v>4.8945440232711396e-5</v>
       </c>
     </row>
     <row r="194" spans="1:11">
@@ -7175,34 +7175,34 @@
         <v>0.14250000000000002</v>
       </c>
       <c r="B194">
-        <v>7.384203300488705</v>
+        <v>7.384203300488704</v>
       </c>
       <c r="C194">
         <v>5.595285020710815e-8</v>
       </c>
       <c r="D194">
-        <v>0.00036244351910947134</v>
+        <v>0.0003624435191094713</v>
       </c>
       <c r="E194">
-        <v>0.0019969092560781043</v>
+        <v>0.0019969092560781047</v>
       </c>
       <c r="F194">
         <v>4.895003576153391e-5</v>
       </c>
       <c r="G194">
-        <v>7.384203300056025</v>
+        <v>7.384203300055729</v>
       </c>
       <c r="H194">
-        <v>5.5954383614003336e-8</v>
+        <v>5.59543836138349e-8</v>
       </c>
       <c r="I194">
-        <v>0.0003624435050161071</v>
+        <v>0.00036244350501610885</v>
       </c>
       <c r="J194">
-        <v>0.0019969092533744727</v>
+        <v>0.0019969092533752325</v>
       </c>
       <c r="K194">
-        <v>4.895003572815999e-5</v>
+        <v>4.895003572816626e-5</v>
       </c>
     </row>
     <row r="195" spans="1:11">
@@ -7210,34 +7210,34 @@
         <v>0.14350000000000002</v>
       </c>
       <c r="B195">
-        <v>7.384987664024515</v>
+        <v>7.384987664024516</v>
       </c>
       <c r="C195">
         <v>4.849247017949115e-8</v>
       </c>
       <c r="D195">
-        <v>0.00036518395488637883</v>
+        <v>0.0003651839548863788</v>
       </c>
       <c r="E195">
         <v>0.0019973230269383995</v>
       </c>
       <c r="F195">
-        <v>4.8954630251173745e-5</v>
+        <v>4.895463025117374e-5</v>
       </c>
       <c r="G195">
-        <v>7.384987663636455</v>
+        <v>7.384987663636199</v>
       </c>
       <c r="H195">
-        <v>4.849379928952173e-8</v>
+        <v>4.849379928937578e-8</v>
       </c>
       <c r="I195">
-        <v>0.00036518394260147326</v>
+        <v>0.00036518394260147473</v>
       </c>
       <c r="J195">
-        <v>0.001997323024577622</v>
+        <v>0.0019973230245782805</v>
       </c>
       <c r="K195">
-        <v>4.8954630222059e-5</v>
+        <v>4.8954630222064415e-5</v>
       </c>
     </row>
     <row r="196" spans="1:11">
@@ -7245,7 +7245,7 @@
         <v>0.14450000000000002</v>
       </c>
       <c r="B196">
-        <v>7.385768453137591</v>
+        <v>7.385768453137592</v>
       </c>
       <c r="C196">
         <v>4.1032090151912813e-8</v>
@@ -7257,22 +7257,22 @@
         <v>0.0019977362751794877</v>
       </c>
       <c r="F196">
-        <v>4.895922374313552e-5</v>
+        <v>4.895922374313551e-5</v>
       </c>
       <c r="G196">
-        <v>7.385768452798822</v>
+        <v>7.385768452798607</v>
       </c>
       <c r="H196">
-        <v>4.103321492043772e-8</v>
+        <v>4.103321492031424e-8</v>
       </c>
       <c r="I196">
-        <v>0.000367924514086133</v>
+        <v>0.00036792451408613444</v>
       </c>
       <c r="J196">
-        <v>0.00199773627316703</v>
+        <v>0.0019977362731675875</v>
       </c>
       <c r="K196">
-        <v>4.895922371833855e-5</v>
+        <v>4.895922371834313e-5</v>
       </c>
     </row>
     <row r="197" spans="1:11">
@@ -7286,28 +7286,28 @@
         <v>3.357171012429719e-8</v>
       </c>
       <c r="D197">
-        <v>0.00037066522692405605</v>
+        <v>0.000370665226924056</v>
       </c>
       <c r="E197">
-        <v>0.0019981490053642033</v>
+        <v>0.0019981490053642037</v>
       </c>
       <c r="F197">
         <v>4.896381624134318e-5</v>
       </c>
       <c r="G197">
-        <v>7.386545692400994</v>
+        <v>7.386545692400819</v>
       </c>
       <c r="H197">
-        <v>3.357263050675131e-8</v>
+        <v>3.357263050665029e-8</v>
       </c>
       <c r="I197">
-        <v>0.0003706652183210054</v>
+        <v>0.0003706652183210066</v>
       </c>
       <c r="J197">
-        <v>0.001998149003705518</v>
+        <v>0.0019981490037059733</v>
       </c>
       <c r="K197">
-        <v>4.8963816220922555e-5</v>
+        <v>4.8963816220926295e-5</v>
       </c>
     </row>
     <row r="198" spans="1:11">
@@ -7321,28 +7321,28 @@
         <v>2.6111330096679507e-8</v>
       </c>
       <c r="D198">
-        <v>0.0003734060608996244</v>
+        <v>0.00037340606089962455</v>
       </c>
       <c r="E198">
-        <v>0.00199856122200339</v>
+        <v>0.0019985612220033895</v>
       </c>
       <c r="F198">
         <v>4.89684077497072e-5</v>
       </c>
       <c r="G198">
-        <v>7.3873194070745365</v>
+        <v>7.387319407074401</v>
       </c>
       <c r="H198">
-        <v>2.6112046048462494e-8</v>
+        <v>2.611204604838393e-8</v>
       </c>
       <c r="I198">
-        <v>0.00037340605416997656</v>
+        <v>0.0003734060541699775</v>
       </c>
       <c r="J198">
-        <v>0.0019985612207039137</v>
+        <v>0.0019985612207042676</v>
       </c>
       <c r="K198">
-        <v>4.896840773372147e-5</v>
+        <v>4.8968407733724384e-5</v>
       </c>
     </row>
     <row r="199" spans="1:11">
@@ -7356,7 +7356,7 @@
         <v>1.8650950069062858e-8</v>
       </c>
       <c r="D199">
-        <v>0.0003761470253443148</v>
+        <v>0.00037614702534431477</v>
       </c>
       <c r="E199">
         <v>0.0019989729295566117</v>
@@ -7365,19 +7365,19 @@
         <v>4.8972998272124576e-5</v>
       </c>
       <c r="G199">
-        <v>7.388089621227155</v>
+        <v>7.388089621227057</v>
       </c>
       <c r="H199">
-        <v>1.8651461545571275e-8</v>
+        <v>1.8651461545515162e-8</v>
       </c>
       <c r="I199">
-        <v>0.00037614702050972344</v>
+        <v>0.00037614702050972403</v>
       </c>
       <c r="J199">
-        <v>0.0019989729286217692</v>
+        <v>0.001998972928622022</v>
       </c>
       <c r="K199">
-        <v>4.8972998260632276e-5</v>
+        <v>4.897299826063434e-5</v>
       </c>
     </row>
     <row r="200" spans="1:11">
@@ -7385,13 +7385,13 @@
         <v>0.14850000000000002</v>
       </c>
       <c r="B200">
-        <v>7.388856359141055</v>
+        <v>7.388856359141054</v>
       </c>
       <c r="C200">
         <v>1.1190570041446549e-8</v>
       </c>
       <c r="D200">
-        <v>0.00037888811914741727</v>
+        <v>0.00037888811914741716</v>
       </c>
       <c r="E200">
         <v>0.0019993841324328627</v>
@@ -7400,19 +7400,19 @@
         <v>4.8977587812478666e-5</v>
       </c>
       <c r="G200">
-        <v>7.388856359045109</v>
+        <v>7.388856359045051</v>
       </c>
       <c r="H200">
-        <v>1.1190876998077655e-8</v>
+        <v>1.1190876998043989e-8</v>
       </c>
       <c r="I200">
-        <v>0.000378888116229539</v>
+        <v>0.00037888811622953925</v>
       </c>
       <c r="J200">
-        <v>0.001999384131868064</v>
+        <v>0.0019993841318682154</v>
       </c>
       <c r="K200">
-        <v>4.897758780553829e-5</v>
+        <v>4.8977587805539535e-5</v>
       </c>
     </row>
     <row r="201" spans="1:11">
@@ -7420,7 +7420,7 @@
         <v>0.14950000000000002</v>
       </c>
       <c r="B201">
-        <v>7.38961964451969</v>
+        <v>7.389619644519689</v>
       </c>
       <c r="C201">
         <v>3.730190013869243e-9</v>
@@ -7429,25 +7429,25 @@
         <v>0.0003816293412106668</v>
       </c>
       <c r="E201">
-        <v>0.001999794834991253</v>
+        <v>0.0019997948349912524</v>
       </c>
       <c r="F201">
         <v>4.8982176374639184e-5</v>
       </c>
       <c r="G201">
-        <v>7.389619644495596</v>
+        <v>7.3896196444955775</v>
       </c>
       <c r="H201">
-        <v>3.7302924059816274e-9</v>
+        <v>3.730292405970406e-9</v>
       </c>
       <c r="I201">
-        <v>0.0003816293402311609</v>
+        <v>0.000381629340231161</v>
       </c>
       <c r="J201">
-        <v>0.0019997948348018943</v>
+        <v>0.001999794834801945</v>
       </c>
       <c r="K201">
-        <v>4.898217637230919e-5</v>
+        <v>4.898217637230961e-5</v>
       </c>
     </row>
   </sheetData>

--- a/examples/analytical/pHBB1991/pHBB1991.uniform2x_analytical.solution.xlsx
+++ b/examples/analytical/pHBB1991/pHBB1991.uniform2x_analytical.solution.xlsx
@@ -470,19 +470,19 @@
         <v>4.897147100062461e-5</v>
       </c>
       <c r="G2">
-        <v>8.14258526678637</v>
+        <v>8.142585266786366</v>
       </c>
       <c r="H2">
-        <v>0.00024773710743651643</v>
+        <v>0.0002477371074365164</v>
       </c>
       <c r="I2">
-        <v>-1.1488416805373905e-7</v>
+        <v>-1.1488416805370857e-7</v>
       </c>
       <c r="J2">
-        <v>0.001999547524320331</v>
+        <v>0.001999547524320317</v>
       </c>
       <c r="K2">
-        <v>4.89714710103119e-5</v>
+        <v>4.897147101031176e-5</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -505,19 +505,19 @@
         <v>4.894556247095242e-5</v>
       </c>
       <c r="G3">
-        <v>8.12753287762528</v>
+        <v>8.127532877625281</v>
       </c>
       <c r="H3">
-        <v>0.00024321132240234106</v>
+        <v>0.00024321132240234092</v>
       </c>
       <c r="I3">
-        <v>-3.4458816550230695e-7</v>
+        <v>-3.4458816550221553e-7</v>
       </c>
       <c r="J3">
-        <v>0.0019986372693818494</v>
+        <v>0.001998637269381808</v>
       </c>
       <c r="K3">
-        <v>4.8945562499191634e-5</v>
+        <v>4.8945562499191275e-5</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -540,19 +540,19 @@
         <v>4.891979596420215e-5</v>
       </c>
       <c r="G4">
-        <v>8.11217960415382</v>
+        <v>8.112179604153841</v>
       </c>
       <c r="H4">
-        <v>0.00023868553734110874</v>
+        <v>0.00023868553734110855</v>
       </c>
       <c r="I4">
-        <v>-5.742006612638419e-7</v>
+        <v>-5.742006612636896e-7</v>
       </c>
       <c r="J4">
-        <v>0.0019977195689154584</v>
+        <v>0.0019977195689153903</v>
       </c>
       <c r="K4">
-        <v>4.8919796010118914e-5</v>
+        <v>4.891979601011837e-5</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -575,19 +575,19 @@
         <v>4.889419942647449e-5</v>
       </c>
       <c r="G5">
-        <v>8.096521820498182</v>
+        <v>8.096521820498229</v>
       </c>
       <c r="H5">
-        <v>0.0002341597522528196</v>
+        <v>0.00023415975225281945</v>
       </c>
       <c r="I5">
-        <v>-8.037143046542387e-7</v>
+        <v>-8.037143046540258e-7</v>
       </c>
       <c r="J5">
-        <v>0.001996793950663178</v>
+        <v>0.0019967939506630836</v>
       </c>
       <c r="K5">
-        <v>4.889419948916141e-5</v>
+        <v>4.8894199489160694e-5</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -610,19 +610,19 @@
         <v>4.886880264142698e-5</v>
       </c>
       <c r="G6">
-        <v>8.0805569247116</v>
+        <v>8.080556924711667</v>
       </c>
       <c r="H6">
-        <v>0.00022963396713747417</v>
+        <v>0.00022963396713747414</v>
       </c>
       <c r="I6">
-        <v>-1.0331211560355019e-6</v>
+        <v>-1.0331211560352285e-6</v>
       </c>
       <c r="J6">
-        <v>0.0019958599160348313</v>
+        <v>0.001995859916034711</v>
       </c>
       <c r="K6">
-        <v>4.886880271994286e-5</v>
+        <v>4.8868802719941956e-5</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -645,19 +645,19 @@
         <v>4.884363721612476e-5</v>
       </c>
       <c r="G7">
-        <v>8.064283526982491</v>
+        <v>8.064283526982571</v>
       </c>
       <c r="H7">
-        <v>0.00022510818199507386</v>
+        <v>0.00022510818199507397</v>
       </c>
       <c r="I7">
-        <v>-1.2624126589574388e-6</v>
+        <v>-1.2624126589571055e-6</v>
       </c>
       <c r="J7">
-        <v>0.0019949169408723785</v>
+        <v>0.0019949169408722306</v>
       </c>
       <c r="K7">
-        <v>4.8843637309494166e-5</v>
+        <v>4.884363730949306e-5</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -680,19 +680,19 @@
         <v>4.881873653057509e-5</v>
       </c>
       <c r="G8">
-        <v>8.047701651568952</v>
+        <v>8.047701651569028</v>
       </c>
       <c r="H8">
-        <v>0.00022058239682562234</v>
+        <v>0.0002205823968256226</v>
       </c>
       <c r="I8">
-        <v>-1.4915796170221405e-6</v>
+        <v>-1.4915796170217464e-6</v>
       </c>
       <c r="J8">
-        <v>0.00199396447684974</v>
+        <v>0.0019939644768495633</v>
       </c>
       <c r="K8">
-        <v>4.881873663778841e-5</v>
+        <v>4.8818736637787064e-5</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -715,19 +715,19 @@
         <v>4.879413564360707e-5</v>
       </c>
       <c r="G9">
-        <v>8.030812949265064</v>
+        <v>8.030812949265123</v>
       </c>
       <c r="H9">
-        <v>0.00021605661162912935</v>
+        <v>0.0002160566116291297</v>
       </c>
       <c r="I9">
-        <v>-1.7206121772980672e-6</v>
+        <v>-1.7206121772976115e-6</v>
       </c>
       <c r="J9">
-        <v>0.001993001953623131</v>
+        <v>0.0019930019536229253</v>
       </c>
       <c r="K9">
-        <v>4.8794135763621144e-5</v>
+        <v>4.879413576361953e-5</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -750,19 +750,19 @@
         <v>4.876987114765917e-5</v>
       </c>
       <c r="G10">
-        <v>8.013620915730236</v>
+        <v>8.013620915730273</v>
       </c>
       <c r="H10">
-        <v>0.00021153082640561988</v>
+        <v>0.00021153082640562032</v>
       </c>
       <c r="I10">
-        <v>-1.9494998223521532e-6</v>
+        <v>-1.949499822351636e-6</v>
       </c>
       <c r="J10">
-        <v>0.001992028781845449</v>
+        <v>0.001992028781845214</v>
       </c>
       <c r="K10">
-        <v>4.8769871279398564e-5</v>
+        <v>4.876987127939668e-5</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -785,19 +785,19 @@
         <v>4.874598096540582e-5</v>
       </c>
       <c r="G11">
-        <v>7.996131109350029</v>
+        <v>7.996131109350056</v>
       </c>
       <c r="H11">
-        <v>0.00020700504115515718</v>
+        <v>0.00020700504115515767</v>
       </c>
       <c r="I11">
-        <v>-2.178231373157047e-6</v>
+        <v>-2.178231373156468e-6</v>
       </c>
       <c r="J11">
-        <v>0.001991044357148628</v>
+        <v>0.0019910443571483642</v>
       </c>
       <c r="K11">
-        <v>4.8745981107765005e-5</v>
+        <v>4.874598110776286e-5</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -820,19 +820,19 @@
         <v>4.8722504082141167e-5</v>
       </c>
       <c r="G12">
-        <v>7.978351360527655</v>
+        <v>7.978351360527682</v>
       </c>
       <c r="H12">
-        <v>0.00020247925587789768</v>
+        <v>0.00020247925587789828</v>
       </c>
       <c r="I12">
-        <v>-2.4067950052271556e-6</v>
+        <v>-2.4067950052265156e-6</v>
       </c>
       <c r="J12">
-        <v>0.0019900480651776752</v>
+        <v>0.001990048065177383</v>
       </c>
       <c r="K12">
-        <v>4.872250423398754e-5</v>
+        <v>4.8722504233985144e-5</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -855,19 +855,19 @@
         <v>4.869948020958286e-5</v>
       </c>
       <c r="G13">
-        <v>7.960291962560365</v>
+        <v>7.960291962560388</v>
       </c>
       <c r="H13">
-        <v>0.0001979534705742213</v>
+        <v>0.00019795347057422198</v>
       </c>
       <c r="I13">
-        <v>-2.6351782802940638e-6</v>
+        <v>-2.635178280293363e-6</v>
       </c>
       <c r="J13">
-        <v>0.0019890392877272424</v>
+        <v>0.001989039287726922</v>
       </c>
       <c r="K13">
-        <v>4.869948036976087e-5</v>
+        <v>4.869948036975822e-5</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -890,19 +890,19 @@
         <v>4.867694937936854e-5</v>
       </c>
       <c r="G14">
-        <v>7.941965832717829</v>
+        <v>7.941965832717851</v>
       </c>
       <c r="H14">
-        <v>0.00019342768524503127</v>
+        <v>0.000193427685245032</v>
       </c>
       <c r="I14">
-        <v>-2.863368195594068e-6</v>
+        <v>-2.863368195593306e-6</v>
       </c>
       <c r="J14">
-        <v>0.0019880174099846685</v>
+        <v>0.00198801740998432</v>
       </c>
       <c r="K14">
-        <v>4.8676949546704794e-5</v>
+        <v>4.8676949546701894e-5</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -925,19 +925,19 @@
         <v>4.865495146802949e-5</v>
       </c>
       <c r="G15">
-        <v>7.923388631042031</v>
+        <v>7.9233886310420525</v>
       </c>
       <c r="H15">
-        <v>0.0001889018998924314</v>
+        <v>0.00018890189989243222</v>
       </c>
       <c r="I15">
-        <v>-3.09135125234642e-6</v>
+        <v>-3.0913512523455966e-6</v>
       </c>
       <c r="J15">
-        <v>0.0019869818288222284</v>
+        <v>0.0019869818288218524</v>
       </c>
       <c r="K15">
-        <v>4.865495164133891e-5</v>
+        <v>4.865495164133579e-5</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -960,19 +960,19 @@
         <v>4.863352565957487e-5</v>
       </c>
       <c r="G16">
-        <v>7.904578823992833</v>
+        <v>7.904578823992854</v>
       </c>
       <c r="H16">
-        <v>0.00018437611452122276</v>
+        <v>0.00018437611452122365</v>
       </c>
       <c r="I16">
-        <v>-3.3191135441802555e-6</v>
+        <v>-3.3191135441793704e-6</v>
       </c>
       <c r="J16">
-        <v>0.0019859319620075407</v>
+        <v>0.001985931962007138</v>
       </c>
       <c r="K16">
-        <v>4.8633525837667585e-5</v>
+        <v>4.8633525837664224e-5</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -995,19 +995,19 @@
         <v>4.8612709856802206e-5</v>
       </c>
       <c r="G17">
-        <v>7.885557680632623</v>
+        <v>7.885557680632643</v>
       </c>
       <c r="H17">
-        <v>0.0001798503291421388</v>
+        <v>0.00017985032914213974</v>
       </c>
       <c r="I17">
-        <v>-3.546640865034383e-6</v>
+        <v>-3.546640865033437e-6</v>
       </c>
       <c r="J17">
-        <v>0.0019848672581186345</v>
+        <v>0.0019848672581182047</v>
       </c>
       <c r="K17">
-        <v>4.86127100384908e-5</v>
+        <v>4.861271003848723e-5</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1030,19 +1030,19 @@
         <v>4.859254005770895e-5</v>
       </c>
       <c r="G18">
-        <v>7.866349190794807</v>
+        <v>7.866349190794826</v>
       </c>
       <c r="H18">
-        <v>0.0001753245437786875</v>
+        <v>0.00017532454377868853</v>
       </c>
       <c r="I18">
-        <v>-3.7739188342812445e-6</v>
+        <v>-3.7739188342802365e-6</v>
       </c>
       <c r="J18">
-        <v>0.001983787206865607</v>
+        <v>0.0019837872068651508</v>
       </c>
       <c r="K18">
-        <v>4.85925402418152e-5</v>
+        <v>4.859254024181143e-5</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1065,19 +1065,19 @@
         <v>4.8573049718406743e-5</v>
       </c>
       <c r="G19">
-        <v>7.846979897731851</v>
+        <v>7.846979897731867</v>
       </c>
       <c r="H19">
-        <v>0.00017079875848130557</v>
+        <v>0.0001707987584813067</v>
       </c>
       <c r="I19">
-        <v>-4.00093303430287e-6</v>
+        <v>-4.000933034301801e-6</v>
       </c>
       <c r="J19">
-        <v>0.0019826913494430743</v>
+        <v>0.0019826913494425916</v>
       </c>
       <c r="K19">
-        <v>4.857304990376652e-5</v>
+        <v>4.857304990376254e-5</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1100,19 +1100,19 @@
         <v>4.855426912812126e-5</v>
       </c>
       <c r="G20">
-        <v>7.827478642053779</v>
+        <v>7.8274786420537925</v>
       </c>
       <c r="H20">
-        <v>0.00016627297335599652</v>
+        <v>0.00016627297335599771</v>
       </c>
       <c r="I20">
-        <v>-4.2276691520886955e-6</v>
+        <v>-4.227669152087563e-6</v>
       </c>
       <c r="J20">
-        <v>0.001981579288477335</v>
+        <v>0.0019815792884768264</v>
       </c>
       <c r="K20">
-        <v>4.855426931358505e-5</v>
+        <v>4.855426931358086e-5</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1135,19 +1135,19 @@
         <v>4.8536224824547784e-5</v>
       </c>
       <c r="G21">
-        <v>7.807876219121254</v>
+        <v>7.807876219121264</v>
       </c>
       <c r="H21">
-        <v>0.00016174718862099394</v>
+        <v>0.0001617471886209952</v>
       </c>
       <c r="I21">
-        <v>-4.454113110933549e-6</v>
+        <v>-4.454113110932354e-6</v>
       </c>
       <c r="J21">
-        <v>0.001980450697100342</v>
+        <v>0.001980450697099808</v>
       </c>
       <c r="K21">
-        <v>4.853622500897314e-5</v>
+        <v>4.853622500896876e-5</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1170,19 +1170,19 @@
         <v>4.8518939078459185e-5</v>
       </c>
       <c r="G22">
-        <v>7.788204958023414</v>
+        <v>7.78820495802342</v>
       </c>
       <c r="H22">
-        <v>0.00015722140471637966</v>
+        <v>0.00015722140471638096</v>
       </c>
       <c r="I22">
-        <v>-4.680251169756204e-6</v>
+        <v>-4.680251169754949e-6</v>
       </c>
       <c r="J22">
-        <v>0.001979305326688906</v>
+        <v>0.0019793053266883467</v>
       </c>
       <c r="K22">
-        <v>4.851893926068922e-5</v>
+        <v>4.8518939260684636e-5</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1205,19 +1205,19 @@
         <v>4.850242947466044e-5</v>
       </c>
       <c r="G23">
-        <v>7.768498236261863</v>
+        <v>7.7684982362618635</v>
       </c>
       <c r="H23">
-        <v>0.00015269562251139112</v>
+        <v>0.00015269562251139248</v>
       </c>
       <c r="I23">
-        <v>-4.906069953862164e-6</v>
+        <v>-4.906069953860841e-6</v>
       </c>
       <c r="J23">
-        <v>0.0019781430128585826</v>
+        <v>0.0019781430128579976</v>
       </c>
       <c r="K23">
-        <v>4.850242965347898e-5</v>
+        <v>4.850242965347419e-5</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1240,19 +1240,19 @@
         <v>4.848670861208555e-5</v>
       </c>
       <c r="G24">
-        <v>7.74878994960738</v>
+        <v>7.748789949607376</v>
       </c>
       <c r="H24">
-        <v>0.00014816984368760624</v>
+        <v>0.00014816984368760768</v>
       </c>
       <c r="I24">
-        <v>-5.131556358833275e-6</v>
+        <v>-5.131556358831891e-6</v>
       </c>
       <c r="J24">
-        <v>0.0019769636793995535</v>
+        <v>0.0019769636793989438</v>
       </c>
       <c r="K24">
-        <v>4.848670878613538e-5</v>
+        <v>4.848670878613039e-5</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1275,19 +1275,19 @@
         <v>4.847178393933576e-5</v>
       </c>
       <c r="G25">
-        <v>7.7291139606555905</v>
+        <v>7.729113960655582</v>
       </c>
       <c r="H25">
-        <v>0.00014364407143104091</v>
+        <v>0.00014364407143104243</v>
       </c>
       <c r="I25">
-        <v>-5.356697233651125e-6</v>
+        <v>-5.356697233649677e-6</v>
       </c>
       <c r="J25">
-        <v>0.0019757673399837285</v>
+        <v>0.001975767339983094</v>
       </c>
       <c r="K25">
-        <v>4.8471784106980466e-5</v>
+        <v>4.847178410697528e-5</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1310,19 +1310,19 @@
         <v>4.845765773390415e-5</v>
       </c>
       <c r="G26">
-        <v>7.709503551897711</v>
+        <v>7.709503551897697</v>
       </c>
       <c r="H26">
-        <v>0.000139118311653338</v>
+        <v>0.00013911831165333956</v>
       </c>
       <c r="I26">
-        <v>-5.581478693038844e-6</v>
+        <v>-5.581478693037332e-6</v>
       </c>
       <c r="J26">
-        <v>0.001974554097651253</v>
+        <v>0.0019745540976505932</v>
       </c>
       <c r="K26">
-        <v>4.845765789300616e-5</v>
+        <v>4.8457657893000806e-5</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1345,19 +1345,19 @@
         <v>4.844432722462207e-5</v>
       </c>
       <c r="G27">
-        <v>7.689990909417402</v>
+        <v>7.689990909417381</v>
       </c>
       <c r="H27">
-        <v>0.00013459257509618232</v>
+        <v>0.00013459257509618395</v>
       </c>
       <c r="I27">
-        <v>-5.805884822826257e-6</v>
+        <v>-5.805884822824683e-6</v>
       </c>
       <c r="J27">
-        <v>0.001973324142291708</v>
+        <v>0.0019733241422910234</v>
       </c>
       <c r="K27">
-        <v>4.844432737220079e-5</v>
+        <v>4.8444327372195256e-5</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1380,19 +1380,19 @@
         <v>4.843178484850564e-5</v>
       </c>
       <c r="G28">
-        <v>7.670606661710832</v>
+        <v>7.6706066617108055</v>
       </c>
       <c r="H28">
-        <v>0.00013006688087186652</v>
+        <v>0.0001300668808718682</v>
       </c>
       <c r="I28">
-        <v>-6.0298954141054464e-6</v>
+        <v>-6.029895414103805e-6</v>
       </c>
       <c r="J28">
-        <v>0.0019720777465618822</v>
+        <v>0.001972077746561173</v>
       </c>
       <c r="K28">
-        <v>4.8431784980229965e-5</v>
+        <v>4.843178498022424e-5</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1415,19 +1415,19 @@
         <v>4.842001862611322e-5</v>
       </c>
       <c r="G29">
-        <v>7.651379494987448</v>
+        <v>7.651379494987413</v>
       </c>
       <c r="H29">
-        <v>0.0001255412622768974</v>
+        <v>0.00012554126227689916</v>
       </c>
       <c r="I29">
-        <v>-6.253482178786837e-6</v>
+        <v>-6.253482178785128e-6</v>
       </c>
       <c r="J29">
-        <v>0.00197081526092283</v>
+        <v>0.0019708152609220963</v>
       </c>
       <c r="K29">
-        <v>4.8420018735574135e-5</v>
+        <v>4.8420018735568226e-5</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1450,19 +1450,19 @@
         <v>4.840901263445294e-5</v>
       </c>
       <c r="G30">
-        <v>7.632335862240785</v>
+        <v>7.632335862240744</v>
       </c>
       <c r="H30">
-        <v>0.0001210157761044567</v>
+        <v>0.00012101577610445846</v>
       </c>
       <c r="I30">
-        <v>-6.476602648121195e-6</v>
+        <v>-6.476602648119417e-6</v>
       </c>
       <c r="J30">
-        <v>0.0019695371087332806</v>
+        <v>0.0019695371087325225</v>
       </c>
       <c r="K30">
-        <v>4.8409012712156736e-5</v>
+        <v>4.840901271215065e-5</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1485,19 +1485,19 @@
         <v>4.8398747553765485e-5</v>
       </c>
       <c r="G31">
-        <v>7.61349979906206</v>
+        <v>7.613499799062012</v>
       </c>
       <c r="H31">
-        <v>0.00011649051718935648</v>
+        <v>0.00011649051718935831</v>
       </c>
       <c r="I31">
-        <v>-6.699190628041898e-6</v>
+        <v>-6.699190628040051e-6</v>
       </c>
       <c r="J31">
-        <v>0.0019682437826076386</v>
+        <v>0.001968243782606856</v>
       </c>
       <c r="K31">
-        <v>4.8398747585789504e-5</v>
+        <v>4.839874758578325e-5</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1520,19 +1520,19 @@
         <v>4.8389201264132015e-5</v>
       </c>
       <c r="G32">
-        <v>7.594892855214474</v>
+        <v>7.594892855214418</v>
       </c>
       <c r="H32">
-        <v>0.00011196564054584044</v>
+        <v>0.00011196564054584228</v>
       </c>
       <c r="I32">
-        <v>-6.9211416813575356e-6</v>
+        <v>-6.921141681355621e-6</v>
       </c>
       <c r="J32">
-        <v>0.0019669358435390858</v>
+        <v>0.001966935843538278</v>
       </c>
       <c r="K32">
-        <v>4.838920123039759e-5</v>
+        <v>4.8389201230391156e-5</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1555,19 +1555,19 @@
         <v>4.8380349469456114e-5</v>
       </c>
       <c r="G33">
-        <v>7.5765341477947805</v>
+        <v>7.576534147794717</v>
       </c>
       <c r="H33">
-        <v>0.00010744139417916899</v>
+        <v>0.00010744139417917083</v>
       </c>
       <c r="I33">
-        <v>-7.142291643922024e-6</v>
+        <v>-7.142291643920039e-6</v>
       </c>
       <c r="J33">
-        <v>0.001965613924600732</v>
+        <v>0.0019656139245999</v>
       </c>
       <c r="K33">
-        <v>4.838034934160067e-5</v>
+        <v>4.838034934159408e-5</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1590,19 +1590,19 @@
         <v>4.8372166329318e-5</v>
       </c>
       <c r="G34">
-        <v>7.558440539471566</v>
+        <v>7.558440539471495</v>
       </c>
       <c r="H34">
-        <v>0.00010291816640344194</v>
+        <v>0.0001029181664034438</v>
       </c>
       <c r="I34">
-        <v>-7.362385701782914e-6</v>
+        <v>-7.362385701780857e-6</v>
       </c>
       <c r="J34">
-        <v>0.0019642787413566014</v>
+        <v>0.001964278741355745</v>
       </c>
       <c r="K34">
-        <v>4.8372166068196e-5</v>
+        <v>4.837216606818923e-5</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1625,19 +1625,19 @@
         <v>4.836462508274674e-5</v>
       </c>
       <c r="G35">
-        <v>7.540626943542757</v>
+        <v>7.540626943542678</v>
       </c>
       <c r="H35">
-        <v>9.83965521669353e-5</v>
+        <v>9.839655216693716e-5</v>
       </c>
       <c r="I35">
-        <v>-7.581035133689102e-6</v>
+        <v>-7.581035133686974e-6</v>
       </c>
       <c r="J35">
-        <v>0.0019629311114037857</v>
+        <v>0.001962931111402904</v>
       </c>
       <c r="K35">
-        <v>4.836462463565637e-5</v>
+        <v>4.836462463564943e-5</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1660,19 +1660,19 @@
         <v>4.835769865133889e-5</v>
       </c>
       <c r="G36">
-        <v>7.523106755798738</v>
+        <v>7.523106755798651</v>
       </c>
       <c r="H36">
-        <v>9.387744329937927e-5</v>
+        <v>9.387744329938114e-5</v>
       </c>
       <c r="I36">
-        <v>-7.79765857114361e-6</v>
+        <v>-7.797658571141411e-6</v>
       </c>
       <c r="J36">
-        <v>0.0019615719856625417</v>
+        <v>0.001961571985661636</v>
       </c>
       <c r="K36">
-        <v>4.835769794915957e-5</v>
+        <v>4.8357697949152464e-5</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1695,19 +1695,19 @@
         <v>4.8351360211727205e-5</v>
       </c>
       <c r="G37">
-        <v>7.505892410564447</v>
+        <v>7.505892410564352</v>
       </c>
       <c r="H37">
-        <v>8.936214752117341e-5</v>
+        <v>8.936214752117528e-5</v>
       </c>
       <c r="I37">
-        <v>-8.011404696738432e-6</v>
+        <v>-8.011404696736162e-6</v>
       </c>
       <c r="J37">
-        <v>0.0019602024940346685</v>
+        <v>0.0019602024940337387</v>
       </c>
       <c r="K37">
-        <v>4.8351359166252876e-5</v>
+        <v>4.835135916624559e-5</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1730,19 +1730,19 @@
         <v>4.834558372873537e-5</v>
       </c>
       <c r="G38">
-        <v>7.488996053878892</v>
+        <v>7.48899605387879</v>
       </c>
       <c r="H38">
-        <v>8.485254021714488e-5</v>
+        <v>8.48525402171468e-5</v>
       </c>
       <c r="I38">
-        <v>-8.22105386791787e-6</v>
+        <v>-8.221053867915528e-6</v>
       </c>
       <c r="J38">
-        <v>0.001958824007734837</v>
+        <v>0.0019588240077338817</v>
       </c>
       <c r="K38">
-        <v>4.8345582230589085e-5</v>
+        <v>4.8345582230581644e-5</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1765,19 +1765,19 @@
         <v>4.834034444049204e-5</v>
       </c>
       <c r="G39">
-        <v>7.472430319717289</v>
+        <v>7.472430319717179</v>
       </c>
       <c r="H39">
-        <v>8.035125109375637e-5</v>
+        <v>8.035125109375831e-5</v>
       </c>
       <c r="I39">
-        <v>-8.424897397853608e-6</v>
+        <v>-8.42489739785119e-6</v>
       </c>
       <c r="J39">
-        <v>0.0019574382198208062</v>
+        <v>0.001957438219819827</v>
       </c>
       <c r="K39">
-        <v>4.834034235808997e-5</v>
+        <v>4.834034235808237e-5</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1800,19 +1800,19 @@
         <v>4.8335619285486306e-5</v>
       </c>
       <c r="G40">
-        <v>7.456209184984556</v>
+        <v>7.456209184984439</v>
       </c>
       <c r="H40">
-        <v>7.586188467508719e-5</v>
+        <v>7.586188467508918e-5</v>
       </c>
       <c r="I40">
-        <v>-8.620595293320923e-6</v>
+        <v>-8.620595293318431e-6</v>
       </c>
       <c r="J40">
-        <v>0.001956047244070684</v>
+        <v>0.00195604724406968</v>
       </c>
       <c r="K40">
-        <v>4.8335616465560264e-5</v>
+        <v>4.8335616465552526e-5</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1835,19 +1835,19 @@
         <v>4.8331387259506515e-5</v>
       </c>
       <c r="G41">
-        <v>7.440348865821451</v>
+        <v>7.440348865821326</v>
       </c>
       <c r="H41">
-        <v>7.13892690426551e-5</v>
+        <v>7.138926904265712e-5</v>
       </c>
       <c r="I41">
-        <v>-8.805016202242423e-6</v>
+        <v>-8.805016202239858e-6</v>
       </c>
       <c r="J41">
-        <v>0.0019546537302867766</v>
+        <v>0.0019546537302857483</v>
       </c>
       <c r="K41">
-        <v>4.833138352967152e-5</v>
+        <v>4.833138352966363e-5</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1870,19 +1870,19 @@
         <v>4.8327629688356145e-5</v>
       </c>
       <c r="G42">
-        <v>7.424868702475882</v>
+        <v>7.4248687024757505</v>
       </c>
       <c r="H42">
-        <v>6.693972139324653e-5</v>
+        <v>6.693972139324861e-5</v>
       </c>
       <c r="I42">
-        <v>-8.974067082164548e-6</v>
+        <v>-8.974067082161907e-6</v>
       </c>
       <c r="J42">
-        <v>0.0019532609913423967</v>
+        <v>0.0019532609913413446</v>
       </c>
       <c r="K42">
-        <v>4.8327624862103907e-5</v>
+        <v>4.832762486209588e-5</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1905,19 +1905,19 @@
         <v>4.832433040107497e-5</v>
       </c>
       <c r="G43">
-        <v>7.409791964399891</v>
+        <v>7.409791964399752</v>
       </c>
       <c r="H43">
-        <v>6.252131227338814e-5</v>
+        <v>6.252131227339024e-5</v>
       </c>
       <c r="I43">
-        <v>-9.122524398773408e-6</v>
+        <v>-9.122524398770693e-6</v>
       </c>
       <c r="J43">
-        <v>0.0019518731339598825</v>
+        <v>0.0019518731339588067</v>
       </c>
       <c r="K43">
-        <v>4.832432428537796e-5</v>
+        <v>4.8324324285369784e-5</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1940,19 +1940,19 @@
         <v>4.8321475788982486e-5</v>
       </c>
       <c r="G44">
-        <v>7.395146493945732</v>
+        <v>7.395146493945587</v>
       </c>
       <c r="H44">
-        <v>5.814410347907173e-5</v>
+        <v>5.8144103479073845e-5</v>
       </c>
       <c r="I44">
-        <v>-9.243883020593063e-6</v>
+        <v>-9.24388302059027e-6</v>
       </c>
       <c r="J44">
-        <v>0.0019504951816134402</v>
+        <v>0.0019504951816123408</v>
       </c>
       <c r="K44">
-        <v>4.832146819441466e-5</v>
+        <v>4.832146819440635e-5</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1975,19 +1975,19 @@
         <v>4.8319054738865414e-5</v>
       </c>
       <c r="G45">
-        <v>7.380965099180624</v>
+        <v>7.3809650991804725</v>
       </c>
       <c r="H45">
-        <v>5.382032863462089e-5</v>
+        <v>5.382032863462299e-5</v>
       </c>
       <c r="I45">
-        <v>-9.330242712049657e-6</v>
+        <v>-9.330242712046782e-6</v>
       </c>
       <c r="J45">
-        <v>0.0019491331745685818</v>
+        <v>0.0019491331745674597</v>
       </c>
       <c r="K45">
-        <v>4.831904549181202e-5</v>
+        <v>4.8319045491803564e-5</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2010,19 +2010,19 @@
         <v>4.831705843430446e-5</v>
       </c>
       <c r="G46">
-        <v>7.367285607069599</v>
+        <v>7.367285607069441</v>
       </c>
       <c r="H46">
-        <v>4.956448166095266e-5</v>
+        <v>4.9564481660954755e-5</v>
       </c>
       <c r="I46">
-        <v>-9.372254426497246e-6</v>
+        <v>-9.372254426494298e-6</v>
       </c>
       <c r="J46">
-        <v>0.0019477942295370164</v>
+        <v>0.0019477942295358707</v>
       </c>
       <c r="K46">
-        <v>4.831704739048943e-5</v>
+        <v>4.831704739048085e-5</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2045,19 +2045,19 @@
         <v>4.831548002720117e-5</v>
       </c>
       <c r="G47">
-        <v>7.3541505001166625</v>
+        <v>7.354150500116498</v>
       </c>
       <c r="H47">
-        <v>4.539327803319197e-5</v>
+        <v>4.539327803319408e-5</v>
       </c>
       <c r="I47">
-        <v>-9.359148631631447e-6</v>
+        <v>-9.359148631628416e-6</v>
       </c>
       <c r="J47">
-        <v>0.0019464865404639283</v>
+        <v>0.0019464865404627608</v>
       </c>
       <c r="K47">
-        <v>4.831546708546153e-5</v>
+        <v>4.8315467085452795e-5</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2080,19 +2080,19 @@
         <v>4.8314314191194314e-5</v>
       </c>
       <c r="G48">
-        <v>7.341606083740256</v>
+        <v>7.3416060837400865</v>
       </c>
       <c r="H48">
-        <v>4.132545802772192e-5</v>
+        <v>4.132545802772402e-5</v>
       </c>
       <c r="I48">
-        <v>-9.278864976424774e-6</v>
+        <v>-9.278864976421665e-6</v>
       </c>
       <c r="J48">
-        <v>0.0019452193032633714</v>
+        <v>0.0019452193032621818</v>
       </c>
       <c r="K48">
-        <v>4.831429930623349e-5</v>
+        <v>4.831429930622462e-5</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2115,19 +2115,19 @@
         <v>4.831355657859696e-5</v>
       </c>
       <c r="G49">
-        <v>7.329701167593659</v>
+        <v>7.329701167593484</v>
       </c>
       <c r="H49">
-        <v>3.738141069545674e-5</v>
+        <v>3.738141069545883e-5</v>
       </c>
       <c r="I49">
-        <v>-9.118296372309315e-6</v>
+        <v>-9.118296372306132e-6</v>
       </c>
       <c r="J49">
-        <v>0.0019440025513781682</v>
+        <v>0.001944002551376957</v>
       </c>
       <c r="K49">
-        <v>4.8313539771395816e-5</v>
+        <v>4.831353977138679e-5</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2150,19 +2150,19 @@
         <v>4.83132032113085e-5</v>
       </c>
       <c r="G50">
-        <v>7.318485289050108</v>
+        <v>7.318485289049928</v>
       </c>
       <c r="H50">
-        <v>3.358261194568879e-5</v>
+        <v>3.358261194569086e-5</v>
       </c>
       <c r="I50">
-        <v>-8.863651138067426e-6</v>
+        <v>-8.863651138064169e-6</v>
       </c>
       <c r="J50">
-        <v>0.0019428468960085298</v>
+        <v>0.0019428468960072977</v>
       </c>
       <c r="K50">
-        <v>4.831318457598502e-5</v>
+        <v>4.8313184575975844e-5</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2185,19 +2185,19 @@
         <v>4.831324984256905e-5</v>
       </c>
       <c r="G51">
-        <v>7.308006556545467</v>
+        <v>7.308006556545282</v>
       </c>
       <c r="H51">
-        <v>2.9950888839100225e-5</v>
+        <v>2.9950888839102278e-5</v>
       </c>
       <c r="I51">
-        <v>-8.500924952784046e-6</v>
+        <v>-8.500924952780712e-6</v>
       </c>
       <c r="J51">
-        <v>0.0019417631743763523</v>
+        <v>0.0019417631743750999</v>
       </c>
       <c r="K51">
-        <v>4.831322954874875e-5</v>
+        <v>4.831322954873942e-5</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2220,19 +2220,19 @@
         <v>4.8313691329552805e-5</v>
       </c>
       <c r="G52">
-        <v>7.2983092384072545</v>
+        <v>7.298309238407065</v>
       </c>
       <c r="H52">
-        <v>2.6507542998066418e-5</v>
+        <v>2.6507542998068457e-5</v>
       </c>
       <c r="I52">
-        <v>-8.016461248812398e-6</v>
+        <v>-8.016461248808991e-6</v>
       </c>
       <c r="J52">
-        <v>0.001940762020551976</v>
+        <v>0.001940762020550703</v>
       </c>
       <c r="K52">
-        <v>4.831366961970634e-5</v>
+        <v>4.831366961969687e-5</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2255,19 +2255,19 @@
         <v>4.8314521056358154e-5</v>
       </c>
       <c r="G53">
-        <v>7.289431262669307</v>
+        <v>7.2894312626691145</v>
       </c>
       <c r="H53">
-        <v>2.327238623596001e-5</v>
+        <v>2.327238623596203e-5</v>
       </c>
       <c r="I53">
-        <v>-7.3975660698348126e-6</v>
+        <v>-7.397566069831335e-6</v>
       </c>
       <c r="J53">
-        <v>0.0019398533847284803</v>
+        <v>0.0019398533847271875</v>
       </c>
       <c r="K53">
-        <v>4.831449823802877e-5</v>
+        <v>4.8314498238019146e-5</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2290,19 +2290,19 @@
         <v>4.8315730443252176e-5</v>
       </c>
       <c r="G54">
-        <v>7.28140181913893</v>
+        <v>7.281401819138732</v>
       </c>
       <c r="H54">
-        <v>2.0262758013645965e-5</v>
+        <v>2.0262758013647975e-5</v>
       </c>
       <c r="I54">
-        <v>-6.63313322333779e-6</v>
+        <v>-6.633133223334243e-6</v>
       </c>
       <c r="J54">
-        <v>0.0019390460366064234</v>
+        <v>0.0019390460366051107</v>
       </c>
       <c r="K54">
-        <v>4.831570687657308e-5</v>
+        <v>4.831570687656331e-5</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2325,19 +2325,19 @@
         <v>4.8317308571801674e-5</v>
       </c>
       <c r="G55">
-        <v>7.274239262082963</v>
+        <v>7.274239262082762</v>
       </c>
       <c r="H55">
-        <v>1.7492604239716758e-5</v>
+        <v>1.749260423971875e-5</v>
       </c>
       <c r="I55">
-        <v>-5.714229547930437e-6</v>
+        <v>-5.71422954792682e-6</v>
       </c>
       <c r="J55">
-        <v>0.0019383470949336304</v>
+        <v>0.001938347094932299</v>
       </c>
       <c r="K55">
-        <v>4.831728465313729e-5</v>
+        <v>4.831728465312739e-5</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2360,19 +2360,19 @@
         <v>4.831924194768367e-5</v>
       </c>
       <c r="G56">
-        <v>7.267949498009454</v>
+        <v>7.267949498009249</v>
       </c>
       <c r="H56">
-        <v>1.4971698053976247e-5</v>
+        <v>1.4971698053978224e-5</v>
       </c>
       <c r="I56">
-        <v>-4.63458960134813e-6</v>
+        <v>-4.634589601344446e-6</v>
       </c>
       <c r="J56">
-        <v>0.0019377616267525542</v>
+        <v>0.001937761626751204</v>
       </c>
       <c r="K56">
-        <v>4.8319218090575346e-5</v>
+        <v>4.8319218090565304e-5</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2395,19 +2395,19 @@
         <v>4.832151441434018e-5</v>
       </c>
       <c r="G57">
-        <v>7.262525008505842</v>
+        <v>7.2625250085056345</v>
       </c>
       <c r="H57">
-        <v>1.2705074593528932e-5</v>
+        <v>1.2705074593530898e-5</v>
       </c>
       <c r="I57">
-        <v>-3.390974611193707e-6</v>
+        <v>-3.3909746111899574e-6</v>
       </c>
       <c r="J57">
-        <v>0.001937292355762672</v>
+        <v>0.0019372923557613034</v>
       </c>
       <c r="K57">
-        <v>4.832149102917033e-5</v>
+        <v>4.8321491029160156e-5</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2430,19 +2430,19 @@
         <v>4.832410722180149e-5</v>
       </c>
       <c r="G58">
-        <v>7.257944606056692</v>
+        <v>7.257944606056482</v>
       </c>
       <c r="H58">
-        <v>1.0692733859895028e-5</v>
+        <v>1.0692733859896978e-5</v>
       </c>
       <c r="I58">
-        <v>-1.9833617620608715e-6</v>
+        <v>-1.9833617620570607e-6</v>
       </c>
       <c r="J58">
-        <v>0.0019369395095745093</v>
+        <v>0.001936939509573123</v>
       </c>
       <c r="K58">
-        <v>4.832408469569581e-5</v>
+        <v>4.832408469568551e-5</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2465,19 +2465,19 @@
         <v>4.832699924624142e-5</v>
       </c>
       <c r="G59">
-        <v>7.254173956719118</v>
+        <v>7.254173956718905</v>
       </c>
       <c r="H59">
-        <v>8.929640718980332e-6</v>
+        <v>8.929640718982265e-6</v>
       </c>
       <c r="I59">
-        <v>-4.1494555591480285e-7</v>
+        <v>-4.1494555591093233e-7</v>
       </c>
       <c r="J59">
-        <v>0.0019367008216822545</v>
+        <v>0.0019367008216808511</v>
       </c>
       <c r="K59">
-        <v>4.832697792470413e-5</v>
+        <v>4.832697792469371e-5</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2500,19 +2500,19 @@
         <v>4.8330167347267994e-5</v>
       </c>
       <c r="G60">
-        <v>7.251166834739382</v>
+        <v>7.251166834739165</v>
       </c>
       <c r="H60">
-        <v>7.406022033902771e-6</v>
+        <v>7.406022033904684e-6</v>
       </c>
       <c r="I60">
-        <v>1.3080489178444803e-6</v>
+        <v>1.3080489178484084e-6</v>
       </c>
       <c r="J60">
-        <v>0.0019365716877061641</v>
+        <v>0.0019365716877047443</v>
       </c>
       <c r="K60">
-        <v>4.833014751889334e-5</v>
+        <v>4.83301475188828e-5</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2535,19 +2535,19 @@
         <v>4.8333586841729365e-5</v>
       </c>
       <c r="G61">
-        <v>7.248867008713618</v>
+        <v>7.248867008713399</v>
       </c>
       <c r="H61">
-        <v>6.107931898849852e-6</v>
+        <v>6.1079318988517466e-6</v>
       </c>
       <c r="I61">
-        <v>3.1767228364860748e-6</v>
+        <v>3.176722836490059e-6</v>
       </c>
       <c r="J61">
-        <v>0.0019365454592978582</v>
+        <v>0.0019365454592964219</v>
       </c>
       <c r="K61">
-        <v>4.833356872706337e-5</v>
+        <v>4.83335687270527e-5</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2570,19 +2570,19 @@
         <v>4.8337232065258525e-5</v>
       </c>
       <c r="G62">
-        <v>7.247210604508978</v>
+        <v>7.247210604508755</v>
       </c>
       <c r="H62">
-        <v>5.018030855549541e-6</v>
+        <v>5.0180308555514175e-6</v>
       </c>
       <c r="I62">
-        <v>5.179996909812223e-6</v>
+        <v>5.17999690981626e-6</v>
       </c>
       <c r="J62">
-        <v>0.0019366138454712087</v>
+        <v>0.001936613845469756</v>
       </c>
       <c r="K62">
-        <v>4.8337215810516194e-5</v>
+        <v>4.8337215810505407e-5</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2605,19 +2605,19 @@
         <v>4.8341076986509354e-5</v>
       </c>
       <c r="G63">
-        <v>7.246128753256216</v>
+        <v>7.24612875325599</v>
       </c>
       <c r="H63">
-        <v>4.11650709300004e-6</v>
+        <v>4.116507093001899e-6</v>
       </c>
       <c r="I63">
-        <v>7.305195998044985e-6</v>
+        <v>7.305195998049074e-6</v>
       </c>
       <c r="J63">
-        <v>0.0019367673819207978</v>
+        <v>0.0019367673819193287</v>
       </c>
       <c r="K63">
-        <v>4.834106266241265e-5</v>
+        <v>4.834106266240173e-5</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2640,19 +2640,19 @@
         <v>4.834509583489927e-5</v>
       </c>
       <c r="G64">
-        <v>7.245550317342243</v>
+        <v>7.245550317342014</v>
       </c>
       <c r="H64">
-        <v>3.3820589909510214e-6</v>
+        <v>3.382058990952865e-6</v>
       </c>
       <c r="I64">
-        <v>9.538674363994335e-6</v>
+        <v>9.538674363998473e-6</v>
       </c>
       <c r="J64">
-        <v>0.0019369959251678474</v>
+        <v>0.0019369959251663623</v>
       </c>
       <c r="K64">
-        <v>4.834508344043226e-5</v>
+        <v>4.834508344042123e-5</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2675,19 +2675,19 @@
         <v>4.834926370155124e-5</v>
       </c>
       <c r="G65">
-        <v>7.245404494539363</v>
+        <v>7.245404494539131</v>
       </c>
       <c r="H65">
-        <v>2.7928594905875226e-6</v>
+        <v>2.7928594905893505e-6</v>
       </c>
       <c r="I65">
-        <v>1.1866431253982672e-5</v>
+        <v>1.1866431253986865e-5</v>
       </c>
       <c r="J65">
-        <v>0.0019372891301878414</v>
+        <v>0.0019372891301863413</v>
       </c>
       <c r="K65">
-        <v>4.83492531719837e-5</v>
+        <v>4.834925317197256e-5</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2710,19 +2710,19 @@
         <v>4.835355707565237e-5</v>
       </c>
       <c r="G66">
-        <v>7.245623128144712</v>
+        <v>7.245623128144477</v>
       </c>
       <c r="H66">
-        <v>2.3274326842255097e-6</v>
+        <v>2.3274326842273224e-6</v>
       </c>
       <c r="I66">
-        <v>1.4274672445665017e-5</v>
+        <v>1.4274672445669263e-5</v>
       </c>
       <c r="J66">
-        <v>0.0019376368766762095</v>
+        <v>0.001937636876674694</v>
       </c>
       <c r="K66">
-        <v>4.8353548293816914e-5</v>
+        <v>4.835354829380567e-5</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2745,19 +2745,19 @@
         <v>4.835795428473176e-5</v>
       </c>
       <c r="G67">
-        <v>7.246142594452683</v>
+        <v>7.246142594452445</v>
       </c>
       <c r="H67">
-        <v>1.9653895223087682e-6</v>
+        <v>1.9653895223105656e-6</v>
       </c>
       <c r="I67">
-        <v>1.6750283575074122e-5</v>
+        <v>1.6750283575078425e-5</v>
       </c>
       <c r="J67">
-        <v>0.001938029618807195</v>
+        <v>0.001938029618805665</v>
       </c>
       <c r="K67">
-        <v>4.835794709430314e-5</v>
+        <v>4.8357947094291784e-5</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2780,19 +2780,19 @@
         <v>4.836243581685834e-5</v>
       </c>
       <c r="G68">
-        <v>7.246905191337682</v>
+        <v>7.246905191337441</v>
       </c>
       <c r="H68">
-        <v>1.6879897295783358e-6</v>
+        <v>1.6879897295801181e-6</v>
       </c>
       <c r="I68">
-        <v>1.9281193679761472e-5</v>
+        <v>1.9281193679765823e-5</v>
       </c>
       <c r="J68">
-        <v>0.0019384586444600312</v>
+        <v>0.001938458644458486</v>
       </c>
       <c r="K68">
-        <v>4.8362430036305206e-5</v>
+        <v>4.8362430036293734e-5</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2815,19 +2815,19 @@
         <v>4.836698451428949e-5</v>
       </c>
       <c r="G69">
-        <v>7.2478600057688976</v>
+        <v>7.247860005768654</v>
       </c>
       <c r="H69">
-        <v>1.4785178318213902e-6</v>
+        <v>1.478517831823158e-6</v>
       </c>
       <c r="I69">
-        <v>2.185662055220142e-5</v>
+        <v>2.185662055220582e-5</v>
       </c>
       <c r="J69">
-        <v>0.001938916240720785</v>
+        <v>0.0019389162407192255</v>
       </c>
       <c r="K69">
-        <v>4.836697995025541e-5</v>
+        <v>4.8366979950243846e-5</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2850,19 +2850,19 @@
         <v>4.837158564007962e-5</v>
       </c>
       <c r="G70">
-        <v>7.248963286845593</v>
+        <v>7.248963286845347</v>
       </c>
       <c r="H70">
-        <v>1.3224799088464347e-6</v>
+        <v>1.3224799088481877e-6</v>
       </c>
       <c r="I70">
-        <v>2.446720145987957e-5</v>
+        <v>2.4467201459884034e-5</v>
       </c>
       <c r="J70">
-        <v>0.0019393957716622974</v>
+        <v>0.0019393957716607243</v>
       </c>
       <c r="K70">
-        <v>4.8371582099175734e-5</v>
+        <v>4.837158209916408e-5</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2885,19 +2885,19 @@
         <v>4.837622682993255e-5</v>
       </c>
       <c r="G71">
-        <v>7.2501783891729055</v>
+        <v>7.250178389172657</v>
       </c>
       <c r="H71">
-        <v>1.2076423368956564e-6</v>
+        <v>1.2076423368973943e-6</v>
       </c>
       <c r="I71">
-        <v>2.7105022267538164e-5</v>
+        <v>2.710502226754269e-5</v>
       </c>
       <c r="J71">
-        <v>0.001939891681109507</v>
+        <v>0.00193989168110792</v>
       </c>
       <c r="K71">
-        <v>4.8376224128243246e-5</v>
+        <v>4.8376224128231496e-5</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2920,19 +2920,19 @@
         <v>4.838089794979081e-5</v>
       </c>
       <c r="G72">
-        <v>7.251475376102847</v>
+        <v>7.251475376102595</v>
       </c>
       <c r="H72">
-        <v>1.123943320409713e-6</v>
+        <v>1.1239433204114363e-6</v>
       </c>
       <c r="I72">
-        <v>2.9763564278407806e-5</v>
+        <v>2.976356427841239e-5</v>
       </c>
       <c r="J72">
-        <v>0.0019403994370012039</v>
+        <v>0.001940399436999604</v>
       </c>
       <c r="K72">
-        <v>4.8380895919749156e-5</v>
+        <v>4.8380895919737305e-5</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2955,19 +2955,19 @@
         <v>4.838559088448948e-5</v>
       </c>
       <c r="G73">
-        <v>7.25283038297063</v>
+        <v>7.252830382970377</v>
       </c>
       <c r="H73">
-        <v>1.0633123131860471e-6</v>
+        <v>1.0633123131877552e-6</v>
       </c>
       <c r="I73">
-        <v>3.243759106420765e-5</v>
+        <v>3.2437591064212305e-5</v>
       </c>
       <c r="J73">
-        <v>0.0019409154352150737</v>
+        <v>0.001940915435213461</v>
       </c>
       <c r="K73">
-        <v>4.83855893791127e-5</v>
+        <v>4.838558937910076e-5</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2990,19 +2990,19 @@
         <v>4.8390299284105205e-5</v>
       </c>
       <c r="G74">
-        <v>7.254224838491029</v>
+        <v>7.2542248384907735</v>
       </c>
       <c r="H74">
-        <v>1.019432118676269e-6</v>
+        <v>1.0194321186779618e-6</v>
       </c>
       <c r="I74">
-        <v>3.5122997537180225e-5</v>
+        <v>3.512299753718494e-5</v>
       </c>
       <c r="J74">
-        <v>0.0019414368798138632</v>
+        <v>0.0019414368798122386</v>
       </c>
       <c r="K74">
-        <v>4.839029817884962e-5</v>
+        <v>4.839029817883761e-5</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3025,19 +3025,19 @@
         <v>4.839501829284121e-5</v>
       </c>
       <c r="G75">
-        <v>7.255644630923827</v>
+        <v>7.25564463092357</v>
       </c>
       <c r="H75">
-        <v>9.874746555340572e-7</v>
+        <v>9.874746555357351e-7</v>
       </c>
       <c r="I75">
-        <v>3.7816641219833854e-5</v>
+        <v>3.7816641219838625e-5</v>
       </c>
       <c r="J75">
-        <v>0.0019419616542532985</v>
+        <v>0.0019419616542516627</v>
       </c>
       <c r="K75">
-        <v>4.839501748551447e-5</v>
+        <v>4.839501748550237e-5</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3060,19 +3060,19 @@
         <v>4.839974428125018e-5</v>
       </c>
       <c r="G76">
-        <v>7.2570792881195265</v>
+        <v>7.257079288119266</v>
       </c>
       <c r="H76">
-        <v>9.638353998010702e-7</v>
+        <v>9.638353998027335e-7</v>
       </c>
       <c r="I76">
-        <v>4.051617192547758e-5</v>
+        <v>4.0516171925482426e-5</v>
       </c>
       <c r="J76">
-        <v>0.0019424881948531744</v>
+        <v>0.0019424881948515282</v>
       </c>
       <c r="K76">
-        <v>4.839974369050252e-5</v>
+        <v>4.839974369049034e-5</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3095,19 +3095,19 @@
         <v>4.840447459732305e-5</v>
       </c>
       <c r="G77">
-        <v>7.258521220699443</v>
+        <v>7.258521220699182</v>
       </c>
       <c r="H77">
-        <v>9.458846450984061e-7</v>
+        <v>9.458846451000548e-7</v>
       </c>
       <c r="I77">
-        <v>4.321987169477779e-5</v>
+        <v>4.3219871694782695e-5</v>
       </c>
       <c r="J77">
-        <v>0.0019430153743781563</v>
+        <v>0.0019430153743764994</v>
       </c>
       <c r="K77">
-        <v>4.840447416023978e-5</v>
+        <v>4.8404474160227527e-5</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3130,19 +3130,19 @@
         <v>4.8409207346426185e-5</v>
       </c>
       <c r="G78">
-        <v>7.25996505838156</v>
+        <v>7.259965058381297</v>
       </c>
       <c r="H78">
-        <v>9.317470066556783e-7</v>
+        <v>9.317470066573122e-7</v>
       </c>
       <c r="I78">
-        <v>4.592651252390062e-5</v>
+        <v>4.592651252390559e-5</v>
       </c>
       <c r="J78">
-        <v>0.0019435424003650976</v>
+        <v>0.0019435424003634305</v>
       </c>
       <c r="K78">
-        <v>4.8409207015682215e-5</v>
+        <v>4.840920701566989e-5</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3165,19 +3165,19 @@
         <v>4.841394120500761e-5</v>
       </c>
       <c r="G79">
-        <v>7.261407092902448</v>
+        <v>7.261407092902182</v>
       </c>
       <c r="H79">
-        <v>9.201147641111183e-7</v>
+        <v>9.201147641127374e-7</v>
       </c>
       <c r="I79">
-        <v>4.863523565051838e-5</v>
+        <v>4.863523565052341e-5</v>
       </c>
       <c r="J79">
-        <v>0.001944068730160684</v>
+        <v>0.0019440687301590072</v>
       </c>
       <c r="K79">
-        <v>4.841394094594861e-5</v>
+        <v>4.8413940945936204e-5</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3200,19 +3200,19 @@
         <v>4.8418675268894285e-5</v>
       </c>
       <c r="G80">
-        <v>7.262844828210285</v>
+        <v>7.262844828210018</v>
       </c>
       <c r="H80">
-        <v>9.100960877591023e-7</v>
+        <v>9.10096087760707e-7</v>
       </c>
       <c r="I80">
-        <v>5.134545320270267e-5</v>
+        <v>5.1345453202707774e-5</v>
       </c>
       <c r="J80">
-        <v>0.001944594002629352</v>
+        <v>0.0019445940026276659</v>
       </c>
       <c r="K80">
-        <v>4.841867505680023e-5</v>
+        <v>4.8418675056787755e-5</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3235,19 +3235,19 @@
         <v>4.8423408934066534e-5</v>
       </c>
       <c r="G81">
-        <v>7.264276629878647</v>
+        <v>7.2642766298783785</v>
       </c>
       <c r="H81">
-        <v>9.010960293393875e-7</v>
+        <v>9.010960293409778e-7</v>
       </c>
       <c r="I81">
-        <v>5.405677094150684e-5</v>
+        <v>5.4056770941512024e-5</v>
       </c>
       <c r="J81">
-        <v>0.0019451179851614482</v>
+        <v>0.0019451179851597532</v>
       </c>
       <c r="K81">
-        <v>4.8423408751750993e-5</v>
+        <v>4.842340875173844e-5</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3270,19 +3270,19 @@
         <v>4.842814180600059e-5</v>
       </c>
       <c r="G82">
-        <v>7.265701460665781</v>
+        <v>7.265701460665512</v>
       </c>
       <c r="H82">
-        <v>8.927262747620327e-7</v>
+        <v>8.927262747636088e-7</v>
       </c>
       <c r="I82">
-        <v>5.67689295797055e-5</v>
+        <v>5.676892957971075e-5</v>
       </c>
       <c r="J82">
-        <v>0.0019456405338737143</v>
+        <v>0.001945640533872011</v>
       </c>
       <c r="K82">
-        <v>4.842814164181407e-5</v>
+        <v>4.842814164180145e-5</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3305,19 +3305,19 @@
         <v>4.843287363284497e-5</v>
       </c>
       <c r="G83">
-        <v>7.267118687110757</v>
+        <v>7.267118687110486</v>
       </c>
       <c r="H83">
-        <v>8.847388187726011e-7</v>
+        <v>8.847388187741635e-7</v>
       </c>
       <c r="I83">
-        <v>5.948176159068994e-5</v>
+        <v>5.948176159069527e-5</v>
       </c>
       <c r="J83">
-        <v>0.0019461615646208475</v>
+        <v>0.0019461615646191354</v>
       </c>
       <c r="K83">
-        <v>4.8432873479088396e-5</v>
+        <v>4.8432873479075724e-5</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3340,19 +3340,19 @@
         <v>4.8437604257601045e-5</v>
       </c>
       <c r="G84">
-        <v>7.268527942174212</v>
+        <v>7.26852794217394</v>
       </c>
       <c r="H84">
-        <v>8.76978647131146e-7</v>
+        <v>8.769786471326947e-7</v>
       </c>
       <c r="I84">
-        <v>6.21951603521432e-5</v>
+        <v>6.21951603521486e-5</v>
       </c>
       <c r="J84">
-        <v>0.001946681032488515</v>
+        <v>0.0019466810324867956</v>
       </c>
       <c r="K84">
-        <v>4.843760410931463e-5</v>
+        <v>4.843760410930189e-5</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3375,19 +3375,19 @@
         <v>4.844233358485994e-5</v>
       </c>
       <c r="G85">
-        <v>7.269929030390859</v>
+        <v>7.269929030390586</v>
       </c>
       <c r="H85">
-        <v>8.693509250277e-7</v>
+        <v>8.693509250292352e-7</v>
       </c>
       <c r="I85">
-        <v>6.49090587213144e-5</v>
+        <v>6.490905872131985e-5</v>
       </c>
       <c r="J85">
-        <v>0.0019471989176868525</v>
+        <v>0.0019471989176851263</v>
       </c>
       <c r="K85">
-        <v>4.8442333438931984e-5</v>
+        <v>4.844233343891917e-5</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3410,19 +3410,19 @@
         <v>4.844706155828918e-5</v>
       </c>
       <c r="G86">
-        <v>7.271321864132828</v>
+        <v>7.271321864132555</v>
       </c>
       <c r="H86">
-        <v>8.617988592817663e-7</v>
+        <v>8.617988592832881e-7</v>
       </c>
       <c r="I86">
-        <v>6.762341456187956e-5</v>
+        <v>6.762341456188509e-5</v>
       </c>
       <c r="J86">
-        <v>0.0019477152161058375</v>
+        <v>0.0019477152161041045</v>
       </c>
       <c r="K86">
-        <v>4.844706141282199e-5</v>
+        <v>4.844706141280912e-5</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3445,19 +3445,19 @@
         <v>4.8451788145794e-5</v>
       </c>
       <c r="G87">
-        <v>7.272706421894634</v>
+        <v>7.27270642189436</v>
       </c>
       <c r="H87">
-        <v>8.542891533872068e-7</v>
+        <v>8.542891533887152e-7</v>
       </c>
       <c r="I87">
-        <v>7.033820122344377e-5</v>
+        <v>7.033820122344936e-5</v>
       </c>
       <c r="J87">
-        <v>0.0019482299331561054</v>
+        <v>0.0019482299331543668</v>
       </c>
       <c r="K87">
-        <v>4.8451787999667024e-5</v>
+        <v>4.8451787999654095e-5</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3480,19 +3480,19 @@
         <v>4.845651332998603e-5</v>
       </c>
       <c r="G88">
-        <v>7.274082721684631</v>
+        <v>7.274082721684357</v>
       </c>
       <c r="H88">
-        <v>8.468026950518676e-7</v>
+        <v>8.468026950533622e-7</v>
       </c>
       <c r="I88">
-        <v>7.30534014389057e-5</v>
+        <v>7.305340143891139e-5</v>
       </c>
       <c r="J88">
-        <v>0.0019487430798543197</v>
+        <v>0.0019487430798525752</v>
       </c>
       <c r="K88">
-        <v>4.845651318256373e-5</v>
+        <v>4.845651318255073e-5</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3515,19 +3515,19 @@
         <v>4.8461237102213726e-5</v>
       </c>
       <c r="G89">
-        <v>7.275450804474537</v>
+        <v>7.275450804474262</v>
       </c>
       <c r="H89">
-        <v>8.393287425910928e-7</v>
+        <v>8.393287425925736e-7</v>
       </c>
       <c r="I89">
-        <v>7.57690035102777e-5</v>
+        <v>7.576900351028348e-5</v>
       </c>
       <c r="J89">
-        <v>0.001949254670397225</v>
+        <v>0.0019492546703954756</v>
       </c>
       <c r="K89">
-        <v>4.846123695315578e-5</v>
+        <v>4.846123695314274e-5</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3550,19 +3550,19 @@
         <v>4.84659594589142e-5</v>
       </c>
       <c r="G90">
-        <v>7.27681072415665</v>
+        <v>7.276810724156375</v>
       </c>
       <c r="H90">
-        <v>8.318613843621493e-7</v>
+        <v>8.318613843636166e-7</v>
       </c>
       <c r="I90">
-        <v>7.848499898304433e-5</v>
+        <v>7.848499898305022e-5</v>
       </c>
       <c r="J90">
-        <v>0.0019497647206953845</v>
+        <v>0.0019497647206936312</v>
       </c>
       <c r="K90">
-        <v>4.84659593080557e-5</v>
+        <v>4.846595930804262e-5</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3585,19 +3585,19 @@
         <v>4.8470680399437206e-5</v>
       </c>
       <c r="G91">
-        <v>7.278162541596813</v>
+        <v>7.2781625415965365</v>
       </c>
       <c r="H91">
-        <v>8.243974343491791e-7</v>
+        <v>8.243974343506326e-7</v>
       </c>
       <c r="I91">
-        <v>8.12013812621083e-5</v>
+        <v>8.120138126211427e-5</v>
       </c>
       <c r="J91">
-        <v>0.0019502732475088018</v>
+        <v>0.001950273247507044</v>
       </c>
       <c r="K91">
-        <v>4.8470680246715e-5</v>
+        <v>4.847068024670187e-5</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3620,19 +3620,19 @@
         <v>4.84753999247773e-5</v>
       </c>
       <c r="G92">
-        <v>7.279506321196845</v>
+        <v>7.279506321196569</v>
       </c>
       <c r="H92">
-        <v>8.169352109743284e-7</v>
+        <v>8.169352109757684e-7</v>
       </c>
       <c r="I92">
-        <v>8.391814480745484e-5</v>
+        <v>8.391814480746091e-5</v>
       </c>
       <c r="J92">
-        <v>0.0019507802679500713</v>
+        <v>0.0019507802679483105</v>
       </c>
       <c r="K92">
-        <v>4.8475399770185806e-5</v>
+        <v>4.8475399770172646e-5</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3655,19 +3655,19 @@
         <v>4.8480118036852004e-5</v>
       </c>
       <c r="G93">
-        <v>7.280842128954876</v>
+        <v>7.2808421289546</v>
       </c>
       <c r="H93">
-        <v>8.094738450001398e-7</v>
+        <v>8.094738450015661e-7</v>
       </c>
       <c r="I93">
-        <v>8.663528467746612e-5</v>
+        <v>8.66352846774723e-5</v>
       </c>
       <c r="J93">
-        <v>0.0019512857992061883</v>
+        <v>0.001951285799204425</v>
       </c>
       <c r="K93">
-        <v>4.84801178804175e-5</v>
+        <v>4.848011788040431e-5</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3690,19 +3690,19 @@
         <v>4.848483473809983e-5</v>
       </c>
       <c r="G94">
-        <v>7.2821700313971744</v>
+        <v>7.282170031396899</v>
       </c>
       <c r="H94">
-        <v>8.020128963447655e-7</v>
+        <v>8.020128963461782e-7</v>
       </c>
       <c r="I94">
-        <v>8.93527962754248e-5</v>
+        <v>8.93527962754311e-5</v>
       </c>
       <c r="J94">
-        <v>0.0019517898583871613</v>
+        <v>0.0019517898583853968</v>
       </c>
       <c r="K94">
-        <v>4.8484834579865806e-5</v>
+        <v>4.8484834579852586e-5</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3725,19 +3725,19 @@
         <v>4.848955003126102e-5</v>
       </c>
       <c r="G95">
-        <v>7.283490095004503</v>
+        <v>7.283490095004229</v>
       </c>
       <c r="H95">
-        <v>7.945521467746825e-7</v>
+        <v>7.945521467760821e-7</v>
       </c>
       <c r="I95">
-        <v>9.207067521182119e-5</v>
+        <v>9.207067521182758e-5</v>
       </c>
       <c r="J95">
-        <v>0.001952292462446337</v>
+        <v>0.0019522924624445714</v>
       </c>
       <c r="K95">
-        <v>4.848954987128005e-5</v>
+        <v>4.84895498712668e-5</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3760,19 +3760,19 @@
         <v>4.8494263919260226e-5</v>
       </c>
       <c r="G96">
-        <v>7.284802385912247</v>
+        <v>7.284802385911973</v>
       </c>
       <c r="H96">
-        <v>7.87091490286363e-7</v>
+        <v>7.870914902877496e-7</v>
       </c>
       <c r="I96">
-        <v>9.478891723104898e-5</v>
+        <v>9.478891723105545e-5</v>
       </c>
       <c r="J96">
-        <v>0.0019527936281402824</v>
+        <v>0.001952793628138517</v>
       </c>
       <c r="K96">
-        <v>4.8494263757589534e-5</v>
+        <v>4.849426375757626e-5</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3795,19 +3795,19 @@
         <v>4.849897640514452e-5</v>
       </c>
       <c r="G97">
-        <v>7.286106969758476</v>
+        <v>7.286106969758203</v>
       </c>
       <c r="H97">
-        <v>7.79630876443127e-7</v>
+        <v>7.796308764445006e-7</v>
       </c>
       <c r="I97">
-        <v>9.75075181730428e-5</v>
+        <v>9.750751817304935e-5</v>
       </c>
       <c r="J97">
-        <v>0.001953293372009961</v>
+        <v>0.0019532933720081956</v>
       </c>
       <c r="K97">
-        <v>4.8498976241843694e-5</v>
+        <v>4.84989762418304e-5</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3830,19 +3830,19 @@
         <v>4.850368749205098e-5</v>
       </c>
       <c r="G98">
-        <v>7.287403911610075</v>
+        <v>7.287403911609801</v>
       </c>
       <c r="H98">
-        <v>7.721702817370008e-7</v>
+        <v>7.721702817383616e-7</v>
       </c>
       <c r="I98">
-        <v>0.00010022647395343082</v>
+        <v>0.00010022647395343744</v>
       </c>
       <c r="J98">
-        <v>0.0019537917103730792</v>
+        <v>0.0019537917103713137</v>
       </c>
       <c r="K98">
-        <v>4.850368732718071e-5</v>
+        <v>4.850368732716742e-5</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3865,19 +3865,19 @@
         <v>4.8508397183189445e-5</v>
       </c>
       <c r="G99">
-        <v>7.288693275929087</v>
+        <v>7.288693275928814</v>
       </c>
       <c r="H99">
-        <v>7.647096954345055e-7</v>
+        <v>7.647096954358532e-7</v>
       </c>
       <c r="I99">
-        <v>0.00010294578055327067</v>
+        <v>0.00010294578055327732</v>
       </c>
       <c r="J99">
-        <v>0.0019542886593221474</v>
+        <v>0.0019542886593203837</v>
       </c>
       <c r="K99">
-        <v>4.8508397016811005e-5</v>
+        <v>4.8508397016797696e-5</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3900,19 +3900,19 @@
         <v>4.851310548183324e-5</v>
       </c>
       <c r="G100">
-        <v>7.289975126559324</v>
+        <v>7.289975126559052</v>
       </c>
       <c r="H100">
-        <v>7.57249112734599e-7</v>
+        <v>7.572491127359337e-7</v>
       </c>
       <c r="I100">
-        <v>0.00010566543401363461</v>
+        <v>0.00010566543401364136</v>
       </c>
       <c r="J100">
-        <v>0.001954784234725391</v>
+        <v>0.0019547842347236283</v>
       </c>
       <c r="K100">
-        <v>4.8513105314008085e-5</v>
+        <v>4.851310531399476e-5</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3935,19 +3935,19 @@
         <v>4.8517812391313546e-5</v>
       </c>
       <c r="G101">
-        <v>7.291249526722937</v>
+        <v>7.291249526722665</v>
       </c>
       <c r="H101">
-        <v>7.497885315334429e-7</v>
+        <v>7.497885315347645e-7</v>
       </c>
       <c r="I101">
-        <v>0.00010838543043259522</v>
+        <v>0.00010838543043260198</v>
       </c>
       <c r="J101">
-        <v>0.001955278452229014</v>
+        <v>0.001955278452227253</v>
       </c>
       <c r="K101">
-        <v>4.851781222210325e-5</v>
+        <v>4.85178122220899e-5</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -3970,19 +3970,19 @@
         <v>4.852251791501586e-5</v>
       </c>
       <c r="G102">
-        <v>7.292516539021786</v>
+        <v>7.292516539021515</v>
       </c>
       <c r="H102">
-        <v>7.42327950927841e-7</v>
+        <v>7.423279509291494e-7</v>
       </c>
       <c r="I102">
-        <v>0.00011110576596337548</v>
+        <v>0.00011110576596338223</v>
       </c>
       <c r="J102">
-        <v>0.001955771327260103</v>
+        <v>0.001955771327258343</v>
       </c>
       <c r="K102">
-        <v>4.8522517744482e-5</v>
+        <v>4.852251774446865e-5</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4005,19 +4005,19 @@
         <v>4.8527222056377285e-5</v>
       </c>
       <c r="G103">
-        <v>7.293776225441073</v>
+        <v>7.293776225440803</v>
       </c>
       <c r="H103">
-        <v>7.348673705379046e-7</v>
+        <v>7.348673705392e-7</v>
       </c>
       <c r="I103">
-        <v>0.00011382643681305547</v>
+        <v>0.0001138264368130622</v>
       </c>
       <c r="J103">
-        <v>0.0019562628750297876</v>
+        <v>0.0019562628750280303</v>
       </c>
       <c r="K103">
-        <v>4.852722188458144e-5</v>
+        <v>4.852722188456806e-5</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4040,19 +4040,19 @@
         <v>4.85319248188843e-5</v>
       </c>
       <c r="G104">
-        <v>7.295028647354009</v>
+        <v>7.295028647353741</v>
       </c>
       <c r="H104">
-        <v>7.274067902070878e-7</v>
+        <v>7.2740679020837e-7</v>
       </c>
       <c r="I104">
-        <v>0.00011654743924154222</v>
+        <v>0.00011654743924154896</v>
       </c>
       <c r="J104">
-        <v>0.001956753110536499</v>
+        <v>0.0019567531105347457</v>
       </c>
       <c r="K104">
-        <v>4.8531924645888014e-5</v>
+        <v>4.853192464587464e-5</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4075,19 +4075,19 @@
         <v>4.853662620607078e-5</v>
       </c>
       <c r="G105">
-        <v>7.296273865526956</v>
+        <v>7.296273865526688</v>
       </c>
       <c r="H105">
-        <v>7.199462098721852e-7</v>
+        <v>7.199462098734541e-7</v>
       </c>
       <c r="I105">
-        <v>0.00011926876956066511</v>
+        <v>0.00011926876956067186</v>
       </c>
       <c r="J105">
-        <v>0.001957242048569245</v>
+        <v>0.0019572420485674947</v>
       </c>
       <c r="K105">
-        <v>4.853662603193555e-5</v>
+        <v>4.853662603192217e-5</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4110,19 +4110,19 @@
         <v>4.854132622151609e-5</v>
       </c>
       <c r="G106">
-        <v>7.29751194012477</v>
+        <v>7.297511940124503</v>
       </c>
       <c r="H106">
-        <v>7.124856295081935e-7</v>
+        <v>7.124856295094493e-7</v>
       </c>
       <c r="I106">
-        <v>0.00012199042413333372</v>
+        <v>0.00012199042413334053</v>
       </c>
       <c r="J106">
-        <v>0.0019577297037108505</v>
+        <v>0.001957729703709104</v>
       </c>
       <c r="K106">
-        <v>4.854132604630341e-5</v>
+        <v>4.854132604629001e-5</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4145,19 +4145,19 @@
         <v>4.854602486884329e-5</v>
       </c>
       <c r="G107">
-        <v>7.29874293071624</v>
+        <v>7.2987429307159735</v>
       </c>
       <c r="H107">
-        <v>7.050250491054218e-7</v>
+        <v>7.050250491066643e-7</v>
       </c>
       <c r="I107">
-        <v>0.0001247123993727297</v>
+        <v>0.0001247123993727365</v>
       </c>
       <c r="J107">
-        <v>0.001958216090341174</v>
+        <v>0.0019582160903394313</v>
       </c>
       <c r="K107">
-        <v>4.8546024692614583e-5</v>
+        <v>4.8546024692601194e-5</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -4180,19 +4180,19 @@
         <v>4.8550722151717454e-5</v>
       </c>
       <c r="G108">
-        <v>7.29996689627955</v>
+        <v>7.299966896279285</v>
       </c>
       <c r="H108">
-        <v>6.975644686601893e-7</v>
+        <v>6.975644686614187e-7</v>
       </c>
       <c r="I108">
-        <v>0.00012743469174151997</v>
+        <v>0.00012743469174152677</v>
       </c>
       <c r="J108">
-        <v>0.0019587012226402675</v>
+        <v>0.001958701222638529</v>
       </c>
       <c r="K108">
-        <v>4.855072197453412e-5</v>
+        <v>4.855072197452074e-5</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -4215,19 +4215,19 @@
         <v>4.8555418073843894e-5</v>
       </c>
       <c r="G109">
-        <v>7.301183895207761</v>
+        <v>7.301183895207498</v>
       </c>
       <c r="H109">
-        <v>6.901038881711267e-7</v>
+        <v>6.901038881723429e-7</v>
       </c>
       <c r="I109">
-        <v>0.00013015729775108572</v>
+        <v>0.00013015729775109255</v>
       </c>
       <c r="J109">
-        <v>0.001959185114591495</v>
+        <v>0.0019591851145897617</v>
       </c>
       <c r="K109">
-        <v>4.855541789576733e-5</v>
+        <v>4.855541789575395e-5</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -4250,19 +4250,19 @@
         <v>4.856011263896664e-5</v>
       </c>
       <c r="G110">
-        <v>7.302393985314288</v>
+        <v>7.302393985314026</v>
       </c>
       <c r="H110">
-        <v>6.826433076377346e-7</v>
+        <v>6.826433076389375e-7</v>
       </c>
       <c r="I110">
-        <v>0.00013288021396076543</v>
+        <v>0.0001328802139607723</v>
       </c>
       <c r="J110">
-        <v>0.0019596677799846004</v>
+        <v>0.0019596677799828717</v>
       </c>
       <c r="K110">
-        <v>4.8560112460058175e-5</v>
+        <v>4.85601124600448e-5</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -4285,19 +4285,19 @@
         <v>4.856480585086677e-5</v>
       </c>
       <c r="G111">
-        <v>7.3035972238383655</v>
+        <v>7.303597223838104</v>
       </c>
       <c r="H111">
-        <v>6.751827270598343e-7</v>
+        <v>6.751827270610242e-7</v>
       </c>
       <c r="I111">
-        <v>0.00013560343697710983</v>
+        <v>0.00013560343697711675</v>
       </c>
       <c r="J111">
-        <v>0.0019601492324187245</v>
+        <v>0.0019601492324170014</v>
       </c>
       <c r="K111">
-        <v>4.8564805671187674e-5</v>
+        <v>4.856480567117432e-5</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -4320,19 +4320,19 @@
         <v>4.856949771336083e-5</v>
       </c>
       <c r="G112">
-        <v>7.3047936674505065</v>
+        <v>7.304793667450246</v>
       </c>
       <c r="H112">
-        <v>6.677221464373637e-7</v>
+        <v>6.677221464385406e-7</v>
       </c>
       <c r="I112">
-        <v>0.00013832696345314943</v>
+        <v>0.0001383269634531563</v>
       </c>
       <c r="J112">
-        <v>0.001960629485305382</v>
+        <v>0.0019606294853036646</v>
       </c>
       <c r="K112">
-        <v>4.856949753297238e-5</v>
+        <v>4.856949753295906e-5</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -4355,19 +4355,19 @@
         <v>4.857418823029942e-5</v>
       </c>
       <c r="G113">
-        <v>7.305983372257951</v>
+        <v>7.305983372257693</v>
       </c>
       <c r="H113">
-        <v>6.602615657703013e-7</v>
+        <v>6.602615657714652e-7</v>
       </c>
       <c r="I113">
-        <v>0.00014105079008767306</v>
+        <v>0.00014105079008767992</v>
       </c>
       <c r="J113">
-        <v>0.0019611085518713833</v>
+        <v>0.001961108551869671</v>
       </c>
       <c r="K113">
-        <v>4.857418804926284e-5</v>
+        <v>4.857418804924954e-5</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -4390,19 +4390,19 @@
         <v>4.857887740556564e-5</v>
       </c>
       <c r="G114">
-        <v>7.307166393810092</v>
+        <v>7.307166393809834</v>
       </c>
       <c r="H114">
-        <v>6.528009850586398e-7</v>
+        <v>6.528009850597907e-7</v>
       </c>
       <c r="I114">
-        <v>0.00014377491362451867</v>
+        <v>0.00014377491362452556</v>
       </c>
       <c r="J114">
-        <v>0.001961586445161711</v>
+        <v>0.001961586445160005</v>
       </c>
       <c r="K114">
-        <v>4.85788772239421e-5</v>
+        <v>4.857887722392884e-5</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -4425,19 +4425,19 @@
         <v>4.858356524307368e-5</v>
       </c>
       <c r="G115">
-        <v>7.308342787103882</v>
+        <v>7.3083427871036255</v>
       </c>
       <c r="H115">
-        <v>6.453404043023769e-7</v>
+        <v>6.453404043035148e-7</v>
       </c>
       <c r="I115">
-        <v>0.00014649933085187492</v>
+        <v>0.0001464993308518818</v>
       </c>
       <c r="J115">
-        <v>0.0019620631780423556</v>
+        <v>0.001962063178040657</v>
       </c>
       <c r="K115">
-        <v>4.858356506092435e-5</v>
+        <v>4.858356506091111e-5</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -4460,19 +4460,19 @@
         <v>4.858825174676744e-5</v>
       </c>
       <c r="G116">
-        <v>7.309512606589234</v>
+        <v>7.30951260658898</v>
       </c>
       <c r="H116">
-        <v>6.378798235015118e-7</v>
+        <v>6.378798235026366e-7</v>
       </c>
       <c r="I116">
-        <v>0.000149224038601594</v>
+        <v>0.00014922403860160089</v>
       </c>
       <c r="J116">
-        <v>0.0019625387632031003</v>
+        <v>0.0019625387632014094</v>
       </c>
       <c r="K116">
-        <v>4.8588251564153416e-5</v>
+        <v>4.8588251564140216e-5</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -4495,19 +4495,19 @@
         <v>4.859293692061911e-5</v>
       </c>
       <c r="G117">
-        <v>7.310675906174383</v>
+        <v>7.31067590617413</v>
       </c>
       <c r="H117">
-        <v>6.304192426560444e-7</v>
+        <v>6.304192426571562e-7</v>
       </c>
       <c r="I117">
-        <v>0.0001519490337485158</v>
+        <v>0.00015194903374852266</v>
       </c>
       <c r="J117">
-        <v>0.0019630132131602637</v>
+        <v>0.0019630132131585806</v>
       </c>
       <c r="K117">
-        <v>4.85929367376015e-5</v>
+        <v>4.8592936737588334e-5</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -4530,19 +4530,19 @@
         <v>4.859762076862795e-5</v>
       </c>
       <c r="G118">
-        <v>7.31183273923124</v>
+        <v>7.311832739230987</v>
       </c>
       <c r="H118">
-        <v>6.229586617659746e-7</v>
+        <v>6.229586617670732e-7</v>
       </c>
       <c r="I118">
-        <v>0.00015467431320980227</v>
+        <v>0.0001546743132098092</v>
       </c>
       <c r="J118">
-        <v>0.001963486540259395</v>
+        <v>0.0019634865402577196</v>
       </c>
       <c r="K118">
-        <v>4.859762058526778e-5</v>
+        <v>4.859762058525466e-5</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -4565,19 +4565,19 @@
         <v>4.8602303294818906e-5</v>
       </c>
       <c r="G119">
-        <v>7.312983158600708</v>
+        <v>7.312983158600456</v>
       </c>
       <c r="H119">
-        <v>6.154980808313024e-7</v>
+        <v>6.154980808323877e-7</v>
       </c>
       <c r="I119">
-        <v>0.0001573998739442834</v>
+        <v>0.0001573998739442903</v>
       </c>
       <c r="J119">
-        <v>0.00196395875667793</v>
+        <v>0.001963958756676263</v>
       </c>
       <c r="K119">
-        <v>4.860230311117716e-5</v>
+        <v>4.8602303111164084e-5</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -4600,19 +4600,19 @@
         <v>4.860698450324138e-5</v>
       </c>
       <c r="G120">
-        <v>7.314127216597985</v>
+        <v>7.314127216597735</v>
       </c>
       <c r="H120">
-        <v>6.080374998520278e-7</v>
+        <v>6.080374998531e-7</v>
       </c>
       <c r="I120">
-        <v>0.00016012571295181272</v>
+        <v>0.0001601257129518196</v>
       </c>
       <c r="J120">
-        <v>0.0019644298744278025</v>
+        <v>0.001964429874426143</v>
       </c>
       <c r="K120">
-        <v>4.860698431937904e-5</v>
+        <v>4.860698431936603e-5</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -4635,19 +4635,19 @@
         <v>4.8611664397968024e-5</v>
       </c>
       <c r="G121">
-        <v>7.3152649650178345</v>
+        <v>7.315264965017586</v>
       </c>
       <c r="H121">
-        <v>6.005769188281506e-7</v>
+        <v>6.005769188292099e-7</v>
       </c>
       <c r="I121">
-        <v>0.00016285182727263415</v>
+        <v>0.00016285182727264098</v>
       </c>
       <c r="J121">
-        <v>0.0019648999053580103</v>
+        <v>0.0019648999053563597</v>
       </c>
       <c r="K121">
-        <v>4.8611664213946024e-5</v>
+        <v>4.861166421393307e-5</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -4670,19 +4670,19 @@
         <v>4.861634298309355e-5</v>
       </c>
       <c r="G122">
-        <v>7.316396455139826</v>
+        <v>7.3163964551395795</v>
       </c>
       <c r="H122">
-        <v>5.931163377596709e-7</v>
+        <v>5.931163377607173e-7</v>
       </c>
       <c r="I122">
-        <v>0.00016557821398675813</v>
+        <v>0.00016557821398676493</v>
       </c>
       <c r="J122">
-        <v>0.001965368861157146</v>
+        <v>0.001965368861155504</v>
       </c>
       <c r="K122">
-        <v>4.8616342798972785e-5</v>
+        <v>4.861634279895988e-5</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -4705,19 +4705,19 @@
         <v>4.862102026273355e-5</v>
       </c>
       <c r="G123">
-        <v>7.317521737733549</v>
+        <v>7.317521737733304</v>
       </c>
       <c r="H123">
-        <v>5.856557566465888e-7</v>
+        <v>5.856557566476221e-7</v>
       </c>
       <c r="I123">
-        <v>0.00016830487021334903</v>
+        <v>0.0001683048702133558</v>
       </c>
       <c r="J123">
-        <v>0.001965836753355879</v>
+        <v>0.001965836753354247</v>
       </c>
       <c r="K123">
-        <v>4.862102007857488e-5</v>
+        <v>4.862102007856205e-5</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -4740,19 +4740,19 @@
         <v>4.862569624102339e-5</v>
       </c>
       <c r="G124">
-        <v>7.318640863063796</v>
+        <v>7.3186408630635515</v>
       </c>
       <c r="H124">
-        <v>5.781951754889042e-7</v>
+        <v>5.781951754899245e-7</v>
       </c>
       <c r="I124">
-        <v>0.00017103179311012145</v>
+        <v>0.00017103179311012823</v>
       </c>
       <c r="J124">
-        <v>0.0019663035933294047</v>
+        <v>0.0019663035933277823</v>
       </c>
       <c r="K124">
-        <v>4.862569605688764e-5</v>
+        <v>4.862569605687488e-5</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -4775,19 +4775,19 @@
         <v>4.86303709221171e-5</v>
       </c>
       <c r="G125">
-        <v>7.319753880895712</v>
+        <v>7.319753880895471</v>
       </c>
       <c r="H125">
-        <v>5.707345942866173e-7</v>
+        <v>5.707345942876243e-7</v>
       </c>
       <c r="I125">
-        <v>0.00017375897987274668</v>
+        <v>0.00017375897987275342</v>
       </c>
       <c r="J125">
-        <v>0.0019667693922998455</v>
+        <v>0.0019667693922982344</v>
       </c>
       <c r="K125">
-        <v>4.863037073806508e-5</v>
+        <v>4.8630370738052386e-5</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -4810,19 +4810,19 @@
         <v>4.863504431018633e-5</v>
       </c>
       <c r="G126">
-        <v>7.32086084049992</v>
+        <v>7.32086084049968</v>
       </c>
       <c r="H126">
-        <v>5.63274013039728e-7</v>
+        <v>5.632740130407217e-7</v>
       </c>
       <c r="I126">
-        <v>0.00017648642773426915</v>
+        <v>0.00017648642773427587</v>
       </c>
       <c r="J126">
-        <v>0.0019672341613386226</v>
+        <v>0.0019672341613370223</v>
       </c>
       <c r="K126">
-        <v>4.863504412627876e-5</v>
+        <v>4.863504412626615e-5</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -4845,19 +4845,19 @@
         <v>4.863971640941925e-5</v>
       </c>
       <c r="G127">
-        <v>7.321961790657599</v>
+        <v>7.32196179065736</v>
       </c>
       <c r="H127">
-        <v>5.55813431748236e-7</v>
+        <v>5.558134317492166e-7</v>
       </c>
       <c r="I127">
-        <v>0.00017921413396453193</v>
+        <v>0.0001792141339645386</v>
       </c>
       <c r="J127">
-        <v>0.001967697911368777</v>
+        <v>0.0019676979113671875</v>
       </c>
       <c r="K127">
-        <v>4.863971622571689e-5</v>
+        <v>4.8639716225704355e-5</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -4880,19 +4880,19 @@
         <v>4.864438722401964e-5</v>
       </c>
       <c r="G128">
-        <v>7.323056779665539</v>
+        <v>7.323056779665302</v>
       </c>
       <c r="H128">
-        <v>5.483528504121416e-7</v>
+        <v>5.48352850413109e-7</v>
       </c>
       <c r="I128">
-        <v>0.00018194209586961177</v>
+        <v>0.00018194209586961836</v>
       </c>
       <c r="J128">
-        <v>0.0019681606531672634</v>
+        <v>0.0019681606531656848</v>
       </c>
       <c r="K128">
-        <v>4.864438704058316e-5</v>
+        <v>4.8644387040570705e-5</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -4915,19 +4915,19 @@
         <v>4.864905675820581e-5</v>
       </c>
       <c r="G129">
-        <v>7.32414585534116</v>
+        <v>7.324145855340926</v>
       </c>
       <c r="H129">
-        <v>5.408922690314446e-7</v>
+        <v>5.408922690323988e-7</v>
       </c>
       <c r="I129">
-        <v>0.00018467031079126347</v>
+        <v>0.00018467031079127</v>
       </c>
       <c r="J129">
-        <v>0.0019686223973672005</v>
+        <v>0.0019686223973656323</v>
       </c>
       <c r="K129">
-        <v>4.864905657509588e-5</v>
+        <v>4.8649056575083486e-5</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -4950,19 +4950,19 @@
         <v>4.86537250162097e-5</v>
       </c>
       <c r="G130">
-        <v>7.325229065027496</v>
+        <v>7.325229065027262</v>
       </c>
       <c r="H130">
-        <v>5.334316876061452e-7</v>
+        <v>5.334316876070861e-7</v>
       </c>
       <c r="I130">
-        <v>0.00018739877610637328</v>
+        <v>0.0001873987761063797</v>
       </c>
       <c r="J130">
-        <v>0.001969083154460085</v>
+        <v>0.0019690831544585284</v>
       </c>
       <c r="K130">
-        <v>4.865372483348694e-5</v>
+        <v>4.865372483347463e-5</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -4985,19 +4985,19 @@
         <v>4.865839200227596e-5</v>
       </c>
       <c r="G131">
-        <v>7.32630645559813</v>
+        <v>7.326306455597899</v>
       </c>
       <c r="H131">
-        <v>5.259711061362433e-7</v>
+        <v>5.259711061371709e-7</v>
       </c>
       <c r="I131">
-        <v>0.00019012748922642104</v>
+        <v>0.00019012748922642739</v>
       </c>
       <c r="J131">
-        <v>0.001969542934797971</v>
+        <v>0.001969542934796427</v>
       </c>
       <c r="K131">
-        <v>4.865839182000094e-5</v>
+        <v>4.865839181998871e-5</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -5020,19 +5020,19 @@
         <v>4.866305772066098e-5</v>
       </c>
       <c r="G132">
-        <v>7.327378073462115</v>
+        <v>7.327378073461886</v>
       </c>
       <c r="H132">
-        <v>5.185105246217388e-7</v>
+        <v>5.185105246226531e-7</v>
       </c>
       <c r="I132">
-        <v>0.0001928564475969515</v>
+        <v>0.00019285644759695766</v>
       </c>
       <c r="J132">
-        <v>0.0019700017485956138</v>
+        <v>0.0019700017485940816</v>
       </c>
       <c r="K132">
-        <v>4.866305753889424e-5</v>
+        <v>4.86630575388821e-5</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -5055,19 +5055,19 @@
         <v>4.866772217563207e-5</v>
       </c>
       <c r="G133">
-        <v>7.328443964568841</v>
+        <v>7.3284439645686135</v>
       </c>
       <c r="H133">
-        <v>5.110499430626319e-7</v>
+        <v>5.110499430635328e-7</v>
       </c>
       <c r="I133">
-        <v>0.00019558564869705383</v>
+        <v>0.00019558564869705976</v>
       </c>
       <c r="J133">
-        <v>0.0019704596059325727</v>
+        <v>0.0019704596059310527</v>
       </c>
       <c r="K133">
-        <v>4.866772199443412e-5</v>
+        <v>4.866772199442209e-5</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -5090,19 +5090,19 @@
         <v>4.86723853714666e-5</v>
       </c>
       <c r="G134">
-        <v>7.329504174412866</v>
+        <v>7.329504174412641</v>
       </c>
       <c r="H134">
-        <v>5.035893614589224e-7</v>
+        <v>5.0358936145981e-7</v>
       </c>
       <c r="I134">
-        <v>0.00019831509003885022</v>
+        <v>0.0001983150900388559</v>
       </c>
       <c r="J134">
-        <v>0.001970916516755289</v>
+        <v>0.001970916516753782</v>
       </c>
       <c r="K134">
-        <v>4.867238519089793e-5</v>
+        <v>4.867238519088601e-5</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -5125,19 +5125,19 @@
         <v>4.867704731245116e-5</v>
       </c>
       <c r="G135">
-        <v>7.330558748038717</v>
+        <v>7.330558748038493</v>
       </c>
       <c r="H135">
-        <v>4.961287798106105e-7</v>
+        <v>4.961287798114848e-7</v>
       </c>
       <c r="I135">
-        <v>0.00020104476916699233</v>
+        <v>0.00020104476916699772</v>
       </c>
       <c r="J135">
-        <v>0.001971372490879122</v>
+        <v>0.0019713724908776275</v>
       </c>
       <c r="K135">
-        <v>4.8677047132572186e-5</v>
+        <v>4.86770471325604e-5</v>
       </c>
     </row>
     <row r="136" spans="1:11">
@@ -5160,19 +5160,19 @@
         <v>4.868170800288074e-5</v>
       </c>
       <c r="G136">
-        <v>7.331607730045643</v>
+        <v>7.3316077300454205</v>
       </c>
       <c r="H136">
-        <v>4.886681981176962e-7</v>
+        <v>4.886681981185572e-7</v>
       </c>
       <c r="I136">
-        <v>0.00020377468365816653</v>
+        <v>0.00020377468365817165</v>
       </c>
       <c r="J136">
-        <v>0.0019718275379903534</v>
+        <v>0.001971827537988871</v>
       </c>
       <c r="K136">
-        <v>4.868170782375187e-5</v>
+        <v>4.868170782374021e-5</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -5195,19 +5195,19 @@
         <v>4.868636744705793e-5</v>
       </c>
       <c r="G137">
-        <v>7.332651164592333</v>
+        <v>7.332651164592113</v>
       </c>
       <c r="H137">
-        <v>4.812076163801793e-7</v>
+        <v>4.81207616381027e-7</v>
       </c>
       <c r="I137">
-        <v>0.00020650483112060668</v>
+        <v>0.0002065048311206116</v>
       </c>
       <c r="J137">
-        <v>0.0019722816676481596</v>
+        <v>0.0019722816676466903</v>
       </c>
       <c r="K137">
-        <v>4.868636726873957e-5</v>
+        <v>4.868636726872803e-5</v>
       </c>
     </row>
     <row r="138" spans="1:11">
@@ -5230,19 +5230,19 @@
         <v>4.8691025649292245e-5</v>
       </c>
       <c r="G138">
-        <v>7.333689095401599</v>
+        <v>7.333689095401381</v>
       </c>
       <c r="H138">
-        <v>4.737470345980599e-7</v>
+        <v>4.7374703459889417e-7</v>
       </c>
       <c r="I138">
-        <v>0.00020923520919361563</v>
+        <v>0.00020923520919362032</v>
       </c>
       <c r="J138">
-        <v>0.001972734889286551</v>
+        <v>0.001972734889285095</v>
       </c>
       <c r="K138">
-        <v>4.869102547184473e-5</v>
+        <v>4.869102547183331e-5</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -5265,19 +5265,19 @@
         <v>4.869568261389927e-5</v>
       </c>
       <c r="G139">
-        <v>7.334721565765011</v>
+        <v>7.334721565764794</v>
       </c>
       <c r="H139">
-        <v>4.66286452771338e-7</v>
+        <v>4.6628645277215886e-7</v>
       </c>
       <c r="I139">
-        <v>0.00021196581554709372</v>
+        <v>0.00021196581554709822</v>
       </c>
       <c r="J139">
-        <v>0.001973187212216279</v>
+        <v>0.0019731872122148372</v>
       </c>
       <c r="K139">
-        <v>4.869568243738289e-5</v>
+        <v>4.8695682437371594e-5</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -5300,19 +5300,19 @@
         <v>4.8700338345200006e-5</v>
       </c>
       <c r="G140">
-        <v>7.3357486185474965</v>
+        <v>7.335748618547282</v>
       </c>
       <c r="H140">
-        <v>4.588258709000136e-7</v>
+        <v>4.5882587090082106e-7</v>
       </c>
       <c r="I140">
-        <v>0.00021469664788107597</v>
+        <v>0.0002146966478810804</v>
       </c>
       <c r="J140">
-        <v>0.0019736386456267138</v>
+        <v>0.001973638645625286</v>
       </c>
       <c r="K140">
-        <v>4.870033816967507e-5</v>
+        <v>4.8700338169663866e-5</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -5335,19 +5335,19 @@
         <v>4.870499284752017e-5</v>
       </c>
       <c r="G141">
-        <v>7.336770296191902</v>
+        <v>7.336770296191689</v>
       </c>
       <c r="H141">
-        <v>4.5136528898408664e-7</v>
+        <v>4.513652889848808e-7</v>
       </c>
       <c r="I141">
-        <v>0.00021742770392527613</v>
+        <v>0.0002174277039252804</v>
       </c>
       <c r="J141">
-        <v>0.0019740891985876854</v>
+        <v>0.0019740891985862725</v>
       </c>
       <c r="K141">
-        <v>4.870499267304688e-5</v>
+        <v>4.87049926730358e-5</v>
       </c>
     </row>
     <row r="142" spans="1:11">
@@ -5370,19 +5370,19 @@
         <v>4.8709646125189475e-5</v>
       </c>
       <c r="G142">
-        <v>7.337786640723507</v>
+        <v>7.337786640723296</v>
       </c>
       <c r="H142">
-        <v>4.4390470702355723e-7</v>
+        <v>4.439047070243379e-7</v>
       </c>
       <c r="I142">
-        <v>0.0002201589814386385</v>
+        <v>0.00022015898143864273</v>
       </c>
       <c r="J142">
-        <v>0.001974538880051301</v>
+        <v>0.0019745388800499037</v>
       </c>
       <c r="K142">
-        <v>4.870964595182805e-5</v>
+        <v>4.870964595181709e-5</v>
       </c>
     </row>
     <row r="143" spans="1:11">
@@ -5405,19 +5405,19 @@
         <v>4.8714298182541004e-5</v>
       </c>
       <c r="G143">
-        <v>7.338797693754508</v>
+        <v>7.3387976937543</v>
       </c>
       <c r="H143">
-        <v>4.3644412501842534e-7</v>
+        <v>4.364441250191925e-7</v>
       </c>
       <c r="I143">
-        <v>0.0002228904782088974</v>
+        <v>0.0002228904782089015</v>
       </c>
       <c r="J143">
-        <v>0.001974987698853728</v>
+        <v>0.0019749876988523467</v>
       </c>
       <c r="K143">
-        <v>4.8714298010351607e-5</v>
+        <v>4.871429801034077e-5</v>
       </c>
     </row>
     <row r="144" spans="1:11">
@@ -5440,19 +5440,19 @@
         <v>4.871894902391058e-5</v>
       </c>
       <c r="G144">
-        <v>7.339803496488452</v>
+        <v>7.339803496488246</v>
       </c>
       <c r="H144">
-        <v>4.28983542968691e-7</v>
+        <v>4.2898354296944467e-7</v>
       </c>
       <c r="I144">
-        <v>0.00022562219205214326</v>
+        <v>0.00022562219205214714</v>
       </c>
       <c r="J144">
-        <v>0.001975435663716951</v>
+        <v>0.0019754356637155857</v>
       </c>
       <c r="K144">
-        <v>4.8718948852953345e-5</v>
+        <v>4.871894885294263e-5</v>
       </c>
     </row>
     <row r="145" spans="1:11">
@@ -5475,19 +5475,19 @@
         <v>4.872359865363609e-5</v>
       </c>
       <c r="G145">
-        <v>7.340804089724634</v>
+        <v>7.34080408972443</v>
       </c>
       <c r="H145">
-        <v>4.215229608743543e-7</v>
+        <v>4.2152296087509443e-7</v>
       </c>
       <c r="I145">
-        <v>0.00022835412081239647</v>
+        <v>0.0002283541208124002</v>
       </c>
       <c r="J145">
-        <v>0.0019758827832504944</v>
+        <v>0.0019758827832491448</v>
       </c>
       <c r="K145">
-        <v>4.872359848397112e-5</v>
+        <v>4.872359848396053e-5</v>
       </c>
     </row>
     <row r="146" spans="1:11">
@@ -5510,19 +5510,19 @@
         <v>4.872824707605694e-5</v>
       </c>
       <c r="G146">
-        <v>7.341799513862455</v>
+        <v>7.341799513862252</v>
       </c>
       <c r="H146">
-        <v>4.1406237873541496e-7</v>
+        <v>4.1406237873614176e-7</v>
       </c>
       <c r="I146">
-        <v>0.00023108626236118785</v>
+        <v>0.00023108626236119148</v>
       </c>
       <c r="J146">
-        <v>0.001976329065953122</v>
+        <v>0.001976329065951789</v>
       </c>
       <c r="K146">
-        <v>4.872824690774433e-5</v>
+        <v>4.872824690773383e-5</v>
       </c>
     </row>
     <row r="147" spans="1:11">
@@ -5545,19 +5545,19 @@
         <v>4.873289429551343e-5</v>
       </c>
       <c r="G147">
-        <v>7.342789808905732</v>
+        <v>7.342789808905533</v>
       </c>
       <c r="H147">
-        <v>4.066017965518731e-7</v>
+        <v>4.0660179655258656e-7</v>
       </c>
       <c r="I147">
-        <v>0.0002338186145971463</v>
+        <v>0.00023381861459714976</v>
       </c>
       <c r="J147">
-        <v>0.001976774520214505</v>
+        <v>0.0019767745202131887</v>
       </c>
       <c r="K147">
-        <v>4.87328941286132e-5</v>
+        <v>4.8732894128602816e-5</v>
       </c>
     </row>
     <row r="148" spans="1:11">
@@ -5580,19 +5580,19 @@
         <v>4.873754031634619e-5</v>
       </c>
       <c r="G148">
-        <v>7.343775014466979</v>
+        <v>7.3437750144667815</v>
       </c>
       <c r="H148">
-        <v>3.9914121432372866e-7</v>
+        <v>3.991412143244289e-7</v>
       </c>
       <c r="I148">
-        <v>0.00023655117544559286</v>
+        <v>0.0002365511754455963</v>
       </c>
       <c r="J148">
-        <v>0.001977219154316866</v>
+        <v>0.0019772191543155665</v>
       </c>
       <c r="K148">
-        <v>4.8737540150918355e-5</v>
+        <v>4.873754015090809e-5</v>
       </c>
     </row>
     <row r="149" spans="1:11">
@@ -5615,19 +5615,19 @@
         <v>4.8742185142895645e-5</v>
       </c>
       <c r="G149">
-        <v>7.344755169771635</v>
+        <v>7.34475516977144</v>
       </c>
       <c r="H149">
-        <v>3.9168063205098174e-7</v>
+        <v>3.9168063205166884e-7</v>
       </c>
       <c r="I149">
-        <v>0.00023928394285814198</v>
+        <v>0.00023928394285814534</v>
       </c>
       <c r="J149">
-        <v>0.001977662976436591</v>
+        <v>0.0019776629764353096</v>
       </c>
       <c r="K149">
-        <v>4.874218497900018e-5</v>
+        <v>4.874218497899003e-5</v>
       </c>
     </row>
     <row r="150" spans="1:11">
@@ -5650,19 +5650,19 @@
         <v>4.8746828779501466e-5</v>
       </c>
       <c r="G150">
-        <v>7.345730313662258</v>
+        <v>7.345730313662066</v>
       </c>
       <c r="H150">
-        <v>3.8422004973363223e-7</v>
+        <v>3.8422004973430636e-7</v>
       </c>
       <c r="I150">
-        <v>0.0002420169148123087</v>
+        <v>0.00024201691481231193</v>
       </c>
       <c r="J150">
-        <v>0.00197810599464582</v>
+        <v>0.001978105994644558</v>
       </c>
       <c r="K150">
-        <v>4.874682861719831e-5</v>
+        <v>4.8746828617188276e-5</v>
       </c>
     </row>
     <row r="151" spans="1:11">
@@ -5685,19 +5685,19 @@
         <v>4.875147123050203e-5</v>
       </c>
       <c r="G151">
-        <v>7.3467004846026756</v>
+        <v>7.346700484602486</v>
       </c>
       <c r="H151">
-        <v>3.7675946737168035e-7</v>
+        <v>3.767594673723414e-7</v>
       </c>
       <c r="I151">
-        <v>0.00024475008931112286</v>
+        <v>0.00024475008931112605</v>
       </c>
       <c r="J151">
-        <v>0.0019785482169140073</v>
+        <v>0.0019785482169127648</v>
       </c>
       <c r="K151">
-        <v>4.875147106985111e-5</v>
+        <v>4.875147106984118e-5</v>
       </c>
     </row>
     <row r="152" spans="1:11">
@@ -5720,19 +5720,19 @@
         <v>4.8756112500233954e-5</v>
       </c>
       <c r="G152">
-        <v>7.347665720682099</v>
+        <v>7.3476657206819125</v>
       </c>
       <c r="H152">
-        <v>3.69298884965126e-7</v>
+        <v>3.69298884965774e-7</v>
       </c>
       <c r="I152">
-        <v>0.00024748346438274927</v>
+        <v>0.0002474834643827524</v>
       </c>
       <c r="J152">
-        <v>0.0019789896511094576</v>
+        <v>0.0019789896511082346</v>
       </c>
       <c r="K152">
-        <v>4.875611234129514e-5</v>
+        <v>4.875611234128535e-5</v>
       </c>
     </row>
     <row r="153" spans="1:11">
@@ -5755,19 +5755,19 @@
         <v>4.876075259303158e-5</v>
       </c>
       <c r="G153">
-        <v>7.348626059619188</v>
+        <v>7.348626059619004</v>
       </c>
       <c r="H153">
-        <v>3.618383025139692e-7</v>
+        <v>3.6183830251460407e-7</v>
       </c>
       <c r="I153">
-        <v>0.0002502170380801145</v>
+        <v>0.00025021703808011746</v>
       </c>
       <c r="J153">
-        <v>0.001979430305000838</v>
+        <v>0.0019794303049996353</v>
       </c>
       <c r="K153">
-        <v>4.876075243586472e-5</v>
+        <v>4.876075243585506e-5</v>
       </c>
     </row>
     <row r="154" spans="1:11">
@@ -5790,19 +5790,19 @@
         <v>4.87653915132265e-5</v>
       </c>
       <c r="G154">
-        <v>7.349581538766082</v>
+        <v>7.349581538765901</v>
       </c>
       <c r="H154">
-        <v>3.5437772001821e-7</v>
+        <v>3.543777200188317e-7</v>
       </c>
       <c r="I154">
-        <v>0.00025295080848053897</v>
+        <v>0.00025295080848054195</v>
       </c>
       <c r="J154">
-        <v>0.0019798701862586625</v>
+        <v>0.0019798701862574803</v>
       </c>
       <c r="K154">
-        <v>4.876539135789141e-5</v>
+        <v>4.876539135788189e-5</v>
       </c>
     </row>
     <row r="155" spans="1:11">
@@ -5825,19 +5825,19 @@
         <v>4.8770029265147105e-5</v>
       </c>
       <c r="G155">
-        <v>7.35053219511239</v>
+        <v>7.350532195112212</v>
       </c>
       <c r="H155">
-        <v>3.469171374778483e-7</v>
+        <v>3.4691713747845686e-7</v>
       </c>
       <c r="I155">
-        <v>0.00025568477368537645</v>
+        <v>0.0002556847736853793</v>
       </c>
       <c r="J155">
-        <v>0.001980309302456755</v>
+        <v>0.0019803093024555927</v>
       </c>
       <c r="K155">
-        <v>4.8770029111703576e-5</v>
+        <v>4.877002911169419e-5</v>
       </c>
     </row>
     <row r="156" spans="1:11">
@@ -5860,19 +5860,19 @@
         <v>4.877466585311815e-5</v>
       </c>
       <c r="G156">
-        <v>7.351478065289136</v>
+        <v>7.351478065288961</v>
       </c>
       <c r="H156">
-        <v>3.3945655489288415e-7</v>
+        <v>3.3945655489347957e-7</v>
       </c>
       <c r="I156">
-        <v>0.00025841893181965806</v>
+        <v>0.00025841893181966093</v>
       </c>
       <c r="J156">
-        <v>0.0019807476610736834</v>
+        <v>0.0019807476610725415</v>
       </c>
       <c r="K156">
-        <v>4.8774665701625895e-5</v>
+        <v>4.877466570161667e-5</v>
       </c>
     </row>
     <row r="157" spans="1:11">
@@ -5895,19 +5895,19 @@
         <v>4.8779301281460265e-5</v>
       </c>
       <c r="G157">
-        <v>7.3524191855726695</v>
+        <v>7.352419185572498</v>
       </c>
       <c r="H157">
-        <v>3.319959722633175e-7</v>
+        <v>3.3199597226389985e-7</v>
       </c>
       <c r="I157">
-        <v>0.00026115328103174304</v>
+        <v>0.0002611532810317458</v>
       </c>
       <c r="J157">
-        <v>0.0019811852694941777</v>
+        <v>0.0019811852694930562</v>
       </c>
       <c r="K157">
-        <v>4.8779301131979014e-5</v>
+        <v>4.877930113196995e-5</v>
       </c>
     </row>
     <row r="158" spans="1:11">
@@ -5930,19 +5930,19 @@
         <v>4.8783935554489595e-5</v>
       </c>
       <c r="G158">
-        <v>7.353355591888531</v>
+        <v>7.353355591888362</v>
       </c>
       <c r="H158">
-        <v>3.2453538958914844e-7</v>
+        <v>3.2453538958971765e-7</v>
       </c>
       <c r="I158">
-        <v>0.00026388781949297476</v>
+        <v>0.00026388781949297747</v>
       </c>
       <c r="J158">
-        <v>0.0019816221350105164</v>
+        <v>0.0019816221350094153</v>
       </c>
       <c r="K158">
-        <v>4.8783935407079055e-5</v>
+        <v>4.878393540707015e-5</v>
       </c>
     </row>
     <row r="159" spans="1:11">
@@ -5965,19 +5965,19 @@
         <v>4.8788568676517403e-5</v>
       </c>
       <c r="G159">
-        <v>7.354287319815279</v>
+        <v>7.354287319815114</v>
       </c>
       <c r="H159">
-        <v>3.1707480687037684e-7</v>
+        <v>3.1707480687093297e-7</v>
       </c>
       <c r="I159">
-        <v>0.0002666225453973427</v>
+        <v>0.00026662254539734534</v>
       </c>
       <c r="J159">
-        <v>0.001982058264823897</v>
+        <v>0.0019820582648228174</v>
       </c>
       <c r="K159">
-        <v>4.878856853123722e-5</v>
+        <v>4.878856853122848e-5</v>
       </c>
     </row>
     <row r="160" spans="1:11">
@@ -6000,19 +6000,19 @@
         <v>4.8793200651849606e-5</v>
       </c>
       <c r="G160">
-        <v>7.355214404588281</v>
+        <v>7.35521440458812</v>
       </c>
       <c r="H160">
-        <v>3.0961422410700287e-7</v>
+        <v>3.096142241075459e-7</v>
       </c>
       <c r="I160">
-        <v>0.00026935745696114965</v>
+        <v>0.00026935745696115215</v>
       </c>
       <c r="J160">
-        <v>0.0019824936660457794</v>
+        <v>0.0019824936660447208</v>
       </c>
       <c r="K160">
-        <v>4.879320050875939e-5</v>
+        <v>4.8793200508750816e-5</v>
       </c>
     </row>
     <row r="161" spans="1:11">
@@ -6035,19 +6035,19 @@
         <v>4.8797831484786446e-5</v>
       </c>
       <c r="G161">
-        <v>7.35613688110346</v>
+        <v>7.356136881103301</v>
       </c>
       <c r="H161">
-        <v>3.021536412990264e-7</v>
+        <v>3.0215364129955645e-7</v>
       </c>
       <c r="I161">
-        <v>0.0002720925524226844</v>
+        <v>0.00027209255242268684</v>
       </c>
       <c r="J161">
-        <v>0.00198292834569921</v>
+        <v>0.001982928345698173</v>
       </c>
       <c r="K161">
-        <v>4.87978313439458e-5</v>
+        <v>4.879783134393738e-5</v>
       </c>
     </row>
     <row r="162" spans="1:11">
@@ -6070,19 +6070,19 @@
         <v>4.8802461179622104e-5</v>
       </c>
       <c r="G162">
-        <v>7.357054783920998</v>
+        <v>7.357054783920843</v>
       </c>
       <c r="H162">
-        <v>2.9469305844644754e-7</v>
+        <v>2.946930584469645e-7</v>
       </c>
       <c r="I162">
-        <v>0.0002748278300419003</v>
+        <v>0.00027482783004190256</v>
       </c>
       <c r="J162">
-        <v>0.001983362310720122</v>
+        <v>0.0019833623107191065</v>
       </c>
       <c r="K162">
-        <v>4.8802461041090604e-5</v>
+        <v>4.880246104108235e-5</v>
       </c>
     </row>
     <row r="163" spans="1:11">
@@ -6105,19 +6105,19 @@
         <v>4.880708974064438e-5</v>
       </c>
       <c r="G163">
-        <v>7.357968147269015</v>
+        <v>7.357968147268863</v>
       </c>
       <c r="H163">
-        <v>2.872324755492662e-7</v>
+        <v>2.872324755497701e-7</v>
       </c>
       <c r="I163">
-        <v>0.000277563288100098</v>
+        <v>0.0002775632881001002</v>
       </c>
       <c r="J163">
-        <v>0.0019837955679586168</v>
+        <v>0.0019837955679576236</v>
       </c>
       <c r="K163">
-        <v>4.8807089604481545e-5</v>
+        <v>4.880708960447345e-5</v>
       </c>
     </row>
     <row r="164" spans="1:11">
@@ -6140,19 +6140,19 @@
         <v>4.8811717172134265e-5</v>
       </c>
       <c r="G164">
-        <v>7.358877005047192</v>
+        <v>7.358877005047043</v>
       </c>
       <c r="H164">
-        <v>2.797718926074824e-7</v>
+        <v>2.7977189260797325e-7</v>
       </c>
       <c r="I164">
-        <v>0.00028029892489961464</v>
+        <v>0.0002802989248996167</v>
       </c>
       <c r="J164">
-        <v>0.0019842281241802214</v>
+        <v>0.00198422812417925</v>
       </c>
       <c r="K164">
-        <v>4.8811717038399594e-5</v>
+        <v>4.881171703839167e-5</v>
       </c>
     </row>
     <row r="165" spans="1:11">
@@ -6175,19 +6175,19 @@
         <v>4.88163434783657e-5</v>
       </c>
       <c r="G165">
-        <v>7.359781390830362</v>
+        <v>7.359781390830217</v>
       </c>
       <c r="H165">
-        <v>2.723113096210961e-7</v>
+        <v>2.7231130962157397e-7</v>
       </c>
       <c r="I165">
-        <v>0.000283034738763517</v>
+        <v>0.0002830347387635188</v>
       </c>
       <c r="J165">
-        <v>0.001984659986067128</v>
+        <v>0.00198465998606618</v>
       </c>
       <c r="K165">
-        <v>4.8816343347118655e-5</v>
+        <v>4.881634334711091e-5</v>
       </c>
     </row>
     <row r="166" spans="1:11">
@@ -6210,19 +6210,19 @@
         <v>4.882096866360517e-5</v>
       </c>
       <c r="G166">
-        <v>7.36068133787207</v>
+        <v>7.360681337871929</v>
       </c>
       <c r="H166">
-        <v>2.648507265901073e-7</v>
+        <v>2.648507265905722e-7</v>
       </c>
       <c r="I166">
-        <v>0.00028577072803530026</v>
+        <v>0.00028577072803530194</v>
       </c>
       <c r="J166">
-        <v>0.001985091160219412</v>
+        <v>0.001985091160218487</v>
       </c>
       <c r="K166">
-        <v>4.8820968534905194e-5</v>
+        <v>4.8820968534897645e-5</v>
       </c>
     </row>
     <row r="167" spans="1:11">
@@ -6245,19 +6245,19 @@
         <v>4.882559273211144e-5</v>
       </c>
       <c r="G167">
-        <v>7.36157687910808</v>
+        <v>7.361576879107942</v>
       </c>
       <c r="H167">
-        <v>2.573901435145161e-7</v>
+        <v>2.573901435149679e-7</v>
       </c>
       <c r="I167">
-        <v>0.0002885068910785916</v>
+        <v>0.00028850689107859324</v>
       </c>
       <c r="J167">
-        <v>0.00198552165315623</v>
+        <v>0.001985521653155328</v>
       </c>
       <c r="K167">
-        <v>4.8825592606017956e-5</v>
+        <v>4.882559260601059e-5</v>
       </c>
     </row>
     <row r="168" spans="1:11">
@@ -6280,19 +6280,19 @@
         <v>4.883021568813526e-5</v>
       </c>
       <c r="G168">
-        <v>7.362468047159855</v>
+        <v>7.362468047159721</v>
       </c>
       <c r="H168">
-        <v>2.4992956039432243e-7</v>
+        <v>2.4992956039476125e-7</v>
       </c>
       <c r="I168">
-        <v>0.00029124322627685874</v>
+        <v>0.0002912432262768601</v>
       </c>
       <c r="J168">
-        <v>0.0019859514713169973</v>
+        <v>0.0019859514713161195</v>
       </c>
       <c r="K168">
-        <v>4.8830215564707637e-5</v>
+        <v>4.8830215564700454e-5</v>
       </c>
     </row>
     <row r="169" spans="1:11">
@@ -6315,19 +6315,19 @@
         <v>4.8834837535919037e-5</v>
       </c>
       <c r="G169">
-        <v>7.363354874337995</v>
+        <v>7.363354874337865</v>
       </c>
       <c r="H169">
-        <v>2.424689772295263e-7</v>
+        <v>2.424689772299521e-7</v>
       </c>
       <c r="I169">
-        <v>0.0002939797320331223</v>
+        <v>0.0002939797320331234</v>
       </c>
       <c r="J169">
-        <v>0.0019863806210625515</v>
+        <v>0.0019863806210616976</v>
       </c>
       <c r="K169">
-        <v>4.883483741521661e-5</v>
+        <v>4.8834837415209625e-5</v>
       </c>
     </row>
     <row r="170" spans="1:11">
@@ -6350,19 +6350,19 @@
         <v>4.8839458279696524e-5</v>
       </c>
       <c r="G170">
-        <v>7.364237392645638</v>
+        <v>7.364237392645511</v>
       </c>
       <c r="H170">
-        <v>2.3500839402012774e-7</v>
+        <v>2.3500839402054053e-7</v>
       </c>
       <c r="I170">
-        <v>0.00029671640676967424</v>
+        <v>0.0002967164067696752</v>
       </c>
       <c r="J170">
-        <v>0.001986809108676288</v>
+        <v>0.001986809108675458</v>
       </c>
       <c r="K170">
-        <v>4.883945816177866e-5</v>
+        <v>4.883945816177186e-5</v>
       </c>
     </row>
     <row r="171" spans="1:11">
@@ -6385,19 +6385,19 @@
         <v>4.8844077923692674e-5</v>
       </c>
       <c r="G171">
-        <v>7.365115633781823</v>
+        <v>7.3651156337817</v>
       </c>
       <c r="H171">
-        <v>2.275478107661267e-7</v>
+        <v>2.2754781076652646e-7</v>
       </c>
       <c r="I171">
-        <v>0.0002994532489278</v>
+        <v>0.00029945324892780093</v>
       </c>
       <c r="J171">
-        <v>0.0019872369403652838</v>
+        <v>0.001987236940364478</v>
       </c>
       <c r="K171">
-        <v>4.884407780861863e-5</v>
+        <v>4.884407780861202e-5</v>
       </c>
     </row>
     <row r="172" spans="1:11">
@@ -6420,19 +6420,19 @@
         <v>4.884869647212322e-5</v>
       </c>
       <c r="G172">
-        <v>7.365989629144818</v>
+        <v>7.365989629144699</v>
       </c>
       <c r="H172">
-        <v>2.2008722746752328e-7</v>
+        <v>2.2008722746790993e-7</v>
       </c>
       <c r="I172">
-        <v>0.0003021902569675053</v>
+        <v>0.000302190256967506</v>
       </c>
       <c r="J172">
-        <v>0.0019876641222614042</v>
+        <v>0.0019876641222606223</v>
       </c>
       <c r="K172">
-        <v>4.884869635995226e-5</v>
+        <v>4.8848696359945846e-5</v>
       </c>
     </row>
     <row r="173" spans="1:11">
@@ -6455,19 +6455,19 @@
         <v>4.885331392919452e-5</v>
       </c>
       <c r="G173">
-        <v>7.366859409835409</v>
+        <v>7.366859409835294</v>
       </c>
       <c r="H173">
-        <v>2.1262664412431743e-7</v>
+        <v>2.12626644124691e-7</v>
       </c>
       <c r="I173">
-        <v>0.0003049274293672471</v>
+        <v>0.0003049274293672476</v>
       </c>
       <c r="J173">
-        <v>0.0019880906604223844</v>
+        <v>0.0019880906604216276</v>
       </c>
       <c r="K173">
-        <v>4.8853313819985875e-5</v>
+        <v>4.885331381997966e-5</v>
       </c>
     </row>
     <row r="174" spans="1:11">
@@ -6490,19 +6490,19 @@
         <v>4.885793029910326e-5</v>
       </c>
       <c r="G174">
-        <v>7.367725006660155</v>
+        <v>7.367725006660044</v>
       </c>
       <c r="H174">
-        <v>2.0516606073650913e-7</v>
+        <v>2.0516606073686962e-7</v>
       </c>
       <c r="I174">
-        <v>0.00030766476462366937</v>
+        <v>0.0003076647646236698</v>
       </c>
       <c r="J174">
-        <v>0.0019885165608328997</v>
+        <v>0.001988516560832168</v>
       </c>
       <c r="K174">
-        <v>4.8857930192916125e-5</v>
+        <v>4.885793019291012e-5</v>
       </c>
     </row>
     <row r="175" spans="1:11">
@@ -6525,19 +6525,19 @@
         <v>4.886254558603625e-5</v>
       </c>
       <c r="G175">
-        <v>7.368586450134602</v>
+        <v>7.368586450134495</v>
       </c>
       <c r="H175">
-        <v>1.9770547730409843e-7</v>
+        <v>1.9770547730444582e-7</v>
       </c>
       <c r="I175">
-        <v>0.0003104022612513432</v>
+        <v>0.00031040226125134357</v>
       </c>
       <c r="J175">
-        <v>0.0019889418294056172</v>
+        <v>0.0019889418294049117</v>
       </c>
       <c r="K175">
-        <v>4.886254548292981e-5</v>
+        <v>4.8862545482924e-5</v>
       </c>
     </row>
     <row r="176" spans="1:11">
@@ -6560,19 +6560,19 @@
         <v>4.88671597941702e-5</v>
       </c>
       <c r="G176">
-        <v>7.369443770486467</v>
+        <v>7.369443770486365</v>
       </c>
       <c r="H176">
-        <v>1.902448938270853e-7</v>
+        <v>1.9024489382741953e-7</v>
       </c>
       <c r="I176">
-        <v>0.0003131399177825104</v>
+        <v>0.0003131399177825107</v>
       </c>
       <c r="J176">
-        <v>0.0019893664719822287</v>
+        <v>0.001989366471981549</v>
       </c>
       <c r="K176">
-        <v>4.8867159694203585e-5</v>
+        <v>4.886715969419798e-5</v>
       </c>
     </row>
     <row r="177" spans="1:11">
@@ -6595,19 +6595,19 @@
         <v>4.8871772927671424e-5</v>
       </c>
       <c r="G177">
-        <v>7.370296997658785</v>
+        <v>7.370296997658686</v>
       </c>
       <c r="H177">
-        <v>1.8278431030546972e-7</v>
+        <v>1.8278431030579085e-7</v>
       </c>
       <c r="I177">
         <v>0.0003158777327668321</v>
       </c>
       <c r="J177">
-        <v>0.0019897904943344666</v>
+        <v>0.001989790494333814</v>
       </c>
       <c r="K177">
-        <v>4.887177283090378e-5</v>
+        <v>4.8871772830898364e-5</v>
       </c>
     </row>
     <row r="178" spans="1:11">
@@ -6630,19 +6630,19 @@
         <v>4.8876384990695733e-5</v>
       </c>
       <c r="G178">
-        <v>7.371146161313014</v>
+        <v>7.371146161312919</v>
       </c>
       <c r="H178">
-        <v>1.753237267392518e-7</v>
+        <v>1.7532372673955977e-7</v>
       </c>
       <c r="I178">
-        <v>0.00031861570477114017</v>
+        <v>0.0003186157047711401</v>
       </c>
       <c r="J178">
-        <v>0.001990213902165108</v>
+        <v>0.001990213902164482</v>
       </c>
       <c r="K178">
-        <v>4.887638489718612e-5</v>
+        <v>4.887638489718092e-5</v>
       </c>
     </row>
     <row r="179" spans="1:11">
@@ -6665,19 +6665,19 @@
         <v>4.8880995987388165e-5</v>
       </c>
       <c r="G179">
-        <v>7.371991290832118</v>
+        <v>7.371991290832027</v>
       </c>
       <c r="H179">
-        <v>1.6786314312843144e-7</v>
+        <v>1.6786314312872629e-7</v>
       </c>
       <c r="I179">
-        <v>0.0003213538323791947</v>
+        <v>0.00032135383237919446</v>
       </c>
       <c r="J179">
-        <v>0.0019906367011089557</v>
+        <v>0.0019906367011083563</v>
       </c>
       <c r="K179">
-        <v>4.888099589719566e-5</v>
+        <v>4.888099589719065e-5</v>
       </c>
     </row>
     <row r="180" spans="1:11">
@@ -6700,19 +6700,19 @@
         <v>4.888560592188279e-5</v>
       </c>
       <c r="G180">
-        <v>7.372832415323601</v>
+        <v>7.372832415323515</v>
       </c>
       <c r="H180">
-        <v>1.604025594730087e-7</v>
+        <v>1.6040255947329038e-7</v>
       </c>
       <c r="I180">
-        <v>0.00032409211419144287</v>
+        <v>0.0003240921141914426</v>
       </c>
       <c r="J180">
-        <v>0.0019910588967338096</v>
+        <v>0.001991058896733237</v>
       </c>
       <c r="K180">
-        <v>4.888560583506641e-5</v>
+        <v>4.888560583506162e-5</v>
       </c>
     </row>
     <row r="181" spans="1:11">
@@ -6735,19 +6735,19 @@
         <v>4.889021479830253e-5</v>
       </c>
       <c r="G181">
-        <v>7.37366956362252</v>
+        <v>7.373669563622438</v>
       </c>
       <c r="H181">
-        <v>1.5294197577298348e-7</v>
+        <v>1.5294197577325205e-7</v>
       </c>
       <c r="I181">
-        <v>0.00032683054882478376</v>
+        <v>0.0003268305488247833</v>
       </c>
       <c r="J181">
-        <v>0.0019914804945414173</v>
+        <v>0.0019914804945408717</v>
       </c>
       <c r="K181">
-        <v>4.8890214714921286e-5</v>
+        <v>4.889021471491671e-5</v>
       </c>
     </row>
     <row r="182" spans="1:11">
@@ -6770,19 +6770,19 @@
         <v>4.889482262075899e-5</v>
       </c>
       <c r="G182">
-        <v>7.374502764294449</v>
+        <v>7.374502764294371</v>
       </c>
       <c r="H182">
-        <v>1.4548139202835585e-7</v>
+        <v>1.454813920286113e-7</v>
       </c>
       <c r="I182">
-        <v>0.00032956913491233547</v>
+        <v>0.000329569134912335</v>
       </c>
       <c r="J182">
-        <v>0.0019919014999684147</v>
+        <v>0.001991901499967897</v>
       </c>
       <c r="K182">
-        <v>4.889482254087186e-5</v>
+        <v>4.889482254086748e-5</v>
       </c>
     </row>
     <row r="183" spans="1:11">
@@ -6805,19 +6805,19 @@
         <v>4.889942939335225e-5</v>
       </c>
       <c r="G183">
-        <v>7.375332045638426</v>
+        <v>7.375332045638351</v>
       </c>
       <c r="H183">
-        <v>1.3802080823912577e-7</v>
+        <v>1.380208082393681e-7</v>
       </c>
       <c r="I183">
-        <v>0.0003323078711032072</v>
+        <v>0.00033230787110320666</v>
       </c>
       <c r="J183">
-        <v>0.001992321918387246</v>
+        <v>0.001992321918386755</v>
       </c>
       <c r="K183">
-        <v>4.889942931701818e-5</v>
+        <v>4.8899429317014014e-5</v>
       </c>
     </row>
     <row r="184" spans="1:11">
@@ -6840,19 +6840,19 @@
         <v>4.890403512017071e-5</v>
       </c>
       <c r="G184">
-        <v>7.376157435689851</v>
+        <v>7.376157435689782</v>
       </c>
       <c r="H184">
-        <v>1.3056022440529327e-7</v>
+        <v>1.305602244055225e-7</v>
       </c>
       <c r="I184">
-        <v>0.00033504675606227385</v>
+        <v>0.0003350467560622733</v>
       </c>
       <c r="J184">
-        <v>0.001992741755107074</v>
+        <v>0.0019927417551066097</v>
       </c>
       <c r="K184">
-        <v>4.890403504744862e-5</v>
+        <v>4.890403504744468e-5</v>
       </c>
     </row>
     <row r="185" spans="1:11">
@@ -6875,19 +6875,19 @@
         <v>4.8908639805290955e-5</v>
       </c>
       <c r="G185">
-        <v>7.376978962223367</v>
+        <v>7.376978962223301</v>
       </c>
       <c r="H185">
-        <v>1.2309964052685828e-7</v>
+        <v>1.2309964052707446e-7</v>
       </c>
       <c r="I185">
-        <v>0.00033778578846995486</v>
+        <v>0.00033778578846995437</v>
       </c>
       <c r="J185">
-        <v>0.001993161015374671</v>
+        <v>0.0019931610153742334</v>
       </c>
       <c r="K185">
-        <v>4.890863973623974e-5</v>
+        <v>4.8908639736236004e-5</v>
       </c>
     </row>
     <row r="186" spans="1:11">
@@ -6910,19 +6910,19 @@
         <v>4.891324345277755e-5</v>
       </c>
       <c r="G186">
-        <v>7.377796652755687</v>
+        <v>7.377796652755626</v>
       </c>
       <c r="H186">
-        <v>1.156390566038209e-7</v>
+        <v>1.1563905660402396e-7</v>
       </c>
       <c r="I186">
-        <v>0.00034052496702199664</v>
+        <v>0.0003405249670219962</v>
       </c>
       <c r="J186">
-        <v>0.0019935797043753004</v>
+        <v>0.00199357970437489</v>
       </c>
       <c r="K186">
-        <v>4.891324338745607e-5</v>
+        <v>4.891324338745255e-5</v>
       </c>
     </row>
     <row r="187" spans="1:11">
@@ -6945,19 +6945,19 @@
         <v>4.89178460666829e-5</v>
       </c>
       <c r="G187">
-        <v>7.378610534548412</v>
+        <v>7.378610534548354</v>
       </c>
       <c r="H187">
-        <v>1.0817847263618111e-7</v>
+        <v>1.0817847263637107e-7</v>
       </c>
       <c r="I187">
-        <v>0.0003432642904292581</v>
+        <v>0.0003432642904292577</v>
       </c>
       <c r="J187">
-        <v>0.0019939978272335798</v>
+        <v>0.001993997827233196</v>
       </c>
       <c r="K187">
-        <v>4.8917846005149994e-5</v>
+        <v>4.8917846005146694e-5</v>
       </c>
     </row>
     <row r="188" spans="1:11">
@@ -6980,19 +6980,19 @@
         <v>4.892244765104714e-5</v>
       </c>
       <c r="G188">
-        <v>7.3794206346107964</v>
+        <v>7.379420634610743</v>
       </c>
       <c r="H188">
-        <v>1.007178886239389e-7</v>
+        <v>1.0071788862411576e-7</v>
       </c>
       <c r="I188">
-        <v>0.00034600375741749976</v>
+        <v>0.00034600375741749954</v>
       </c>
       <c r="J188">
-        <v>0.001994415389014333</v>
+        <v>0.0019944153890139754</v>
       </c>
       <c r="K188">
-        <v>4.8922447593361616e-5</v>
+        <v>4.892244759335855e-5</v>
       </c>
     </row>
     <row r="189" spans="1:11">
@@ -7015,19 +7015,19 @@
         <v>4.8927048209897975e-5</v>
       </c>
       <c r="G189">
-        <v>7.380226979702499</v>
+        <v>7.38022697970245</v>
       </c>
       <c r="H189">
-        <v>9.325730456709429e-8</v>
+        <v>9.325730456725805e-8</v>
       </c>
       <c r="I189">
-        <v>0.0003487433667271762</v>
+        <v>0.0003487433667271761</v>
       </c>
       <c r="J189">
-        <v>0.001994832394723428</v>
+        <v>0.0019948323947230977</v>
       </c>
       <c r="K189">
-        <v>4.892704815611863e-5</v>
+        <v>4.8927048156115774e-5</v>
       </c>
     </row>
     <row r="190" spans="1:11">
@@ -7050,19 +7050,19 @@
         <v>4.893164774725053e-5</v>
       </c>
       <c r="G190">
-        <v>7.381029596336287</v>
+        <v>7.381029596336242</v>
       </c>
       <c r="H190">
-        <v>8.579672046564724e-8</v>
+        <v>8.57967204657979e-8</v>
       </c>
       <c r="I190">
-        <v>0.00035148311711323175</v>
+        <v>0.0003514831171132318</v>
       </c>
       <c r="J190">
-        <v>0.001995248849308601</v>
+        <v>0.001995248849308297</v>
       </c>
       <c r="K190">
-        <v>4.8931647697436107e-5</v>
+        <v>4.893164769743349e-5</v>
       </c>
     </row>
     <row r="191" spans="1:11">
@@ -7085,19 +7085,19 @@
         <v>4.8936246267107246e-5</v>
       </c>
       <c r="G191">
-        <v>7.381828510780719</v>
+        <v>7.381828510780677</v>
       </c>
       <c r="H191">
-        <v>7.833613631959778e-8</v>
+        <v>7.833613631973533e-8</v>
       </c>
       <c r="I191">
-        <v>0.0003542230073448997</v>
+        <v>0.0003542230073448999</v>
       </c>
       <c r="J191">
-        <v>0.0019956647576602664</v>
+        <v>0.0019956647576599897</v>
       </c>
       <c r="K191">
-        <v>4.8936246221316475e-5</v>
+        <v>4.893624622131409e-5</v>
       </c>
     </row>
     <row r="192" spans="1:11">
@@ -7120,19 +7120,19 @@
         <v>4.894084377345774e-5</v>
       </c>
       <c r="G192">
-        <v>7.382623749062791</v>
+        <v>7.382623749062754</v>
       </c>
       <c r="H192">
-        <v>7.087555212894591e-8</v>
+        <v>7.087555212907035e-8</v>
       </c>
       <c r="I192">
-        <v>0.0003569630362055042</v>
+        <v>0.0003569630362055045</v>
       </c>
       <c r="J192">
-        <v>0.0019960801246123165</v>
+        <v>0.001996080124612067</v>
       </c>
       <c r="K192">
-        <v>4.894084373174935e-5</v>
+        <v>4.89408437317472e-5</v>
       </c>
     </row>
     <row r="193" spans="1:11">
@@ -7155,19 +7155,19 @@
         <v>4.894544027027875e-5</v>
       </c>
       <c r="G193">
-        <v>7.383415336970561</v>
+        <v>7.383415336970528</v>
       </c>
       <c r="H193">
-        <v>6.341496789369161e-8</v>
+        <v>6.341496789380295e-8</v>
       </c>
       <c r="I193">
-        <v>0.0003597032024922657</v>
+        <v>0.000359703202492266</v>
       </c>
       <c r="J193">
-        <v>0.0019964949549429083</v>
+        <v>0.0019964949549426854</v>
       </c>
       <c r="K193">
-        <v>4.8945440232711396e-5</v>
+        <v>4.894544023270948e-5</v>
       </c>
     </row>
     <row r="194" spans="1:11">
@@ -7190,19 +7190,19 @@
         <v>4.895003576153391e-5</v>
       </c>
       <c r="G194">
-        <v>7.384203300055729</v>
+        <v>7.3842033000557</v>
       </c>
       <c r="H194">
-        <v>5.59543836138349e-8</v>
+        <v>5.595438361393313e-8</v>
       </c>
       <c r="I194">
-        <v>0.00036244350501610885</v>
+        <v>0.00036244350501610933</v>
       </c>
       <c r="J194">
-        <v>0.0019969092533752325</v>
+        <v>0.001996909253375037</v>
       </c>
       <c r="K194">
-        <v>4.895003572816626e-5</v>
+        <v>4.895003572816458e-5</v>
       </c>
     </row>
     <row r="195" spans="1:11">
@@ -7225,19 +7225,19 @@
         <v>4.895463025117374e-5</v>
       </c>
       <c r="G195">
-        <v>7.384987663636199</v>
+        <v>7.384987663636174</v>
       </c>
       <c r="H195">
-        <v>4.849379928937578e-8</v>
+        <v>4.8493799289460906e-8</v>
       </c>
       <c r="I195">
-        <v>0.00036518394260147473</v>
+        <v>0.00036518394260147527</v>
       </c>
       <c r="J195">
-        <v>0.0019973230245782805</v>
+        <v>0.0019973230245781104</v>
       </c>
       <c r="K195">
-        <v>4.8954630222064415e-5</v>
+        <v>4.895463022206298e-5</v>
       </c>
     </row>
     <row r="196" spans="1:11">
@@ -7260,19 +7260,19 @@
         <v>4.895922374313551e-5</v>
       </c>
       <c r="G196">
-        <v>7.385768452798607</v>
+        <v>7.385768452798586</v>
       </c>
       <c r="H196">
-        <v>4.103321492031424e-8</v>
+        <v>4.1033214920386275e-8</v>
       </c>
       <c r="I196">
-        <v>0.00036792451408613444</v>
+        <v>0.000367924514086135</v>
       </c>
       <c r="J196">
-        <v>0.0019977362731675875</v>
+        <v>0.001997736273167445</v>
       </c>
       <c r="K196">
-        <v>4.895922371834313e-5</v>
+        <v>4.8959223718341924e-5</v>
       </c>
     </row>
     <row r="197" spans="1:11">
@@ -7295,19 +7295,19 @@
         <v>4.896381624134318e-5</v>
       </c>
       <c r="G197">
-        <v>7.386545692400819</v>
+        <v>7.3865456924008015</v>
       </c>
       <c r="H197">
-        <v>3.357263050665029e-8</v>
+        <v>3.357263050670923e-8</v>
       </c>
       <c r="I197">
-        <v>0.0003706652183210066</v>
+        <v>0.0003706652183210071</v>
       </c>
       <c r="J197">
-        <v>0.0019981490037059733</v>
+        <v>0.0019981490037058566</v>
       </c>
       <c r="K197">
-        <v>4.8963816220926295e-5</v>
+        <v>4.896381622092532e-5</v>
       </c>
     </row>
     <row r="198" spans="1:11">
@@ -7330,19 +7330,19 @@
         <v>4.89684077497072e-5</v>
       </c>
       <c r="G198">
-        <v>7.387319407074401</v>
+        <v>7.387319407074387</v>
       </c>
       <c r="H198">
-        <v>2.611204604838393e-8</v>
+        <v>2.6112046048429774e-8</v>
       </c>
       <c r="I198">
-        <v>0.0003734060541699775</v>
+        <v>0.0003734060541699781</v>
       </c>
       <c r="J198">
-        <v>0.0019985612207042676</v>
+        <v>0.0019985612207041774</v>
       </c>
       <c r="K198">
-        <v>4.8968407733724384e-5</v>
+        <v>4.896840773372363e-5</v>
       </c>
     </row>
     <row r="199" spans="1:11">
@@ -7365,19 +7365,19 @@
         <v>4.8972998272124576e-5</v>
       </c>
       <c r="G199">
-        <v>7.388089621227057</v>
+        <v>7.388089621227048</v>
       </c>
       <c r="H199">
-        <v>1.8651461545515162e-8</v>
+        <v>1.8651461545547906e-8</v>
       </c>
       <c r="I199">
-        <v>0.00037614702050972403</v>
+        <v>0.0003761470205097245</v>
       </c>
       <c r="J199">
-        <v>0.001998972928622022</v>
+        <v>0.0019989729286219574</v>
       </c>
       <c r="K199">
-        <v>4.897299826063434e-5</v>
+        <v>4.8972998260633815e-5</v>
       </c>
     </row>
     <row r="200" spans="1:11">
@@ -7400,19 +7400,19 @@
         <v>4.8977587812478666e-5</v>
       </c>
       <c r="G200">
-        <v>7.388856359045051</v>
+        <v>7.388856359045045</v>
       </c>
       <c r="H200">
-        <v>1.1190876998043989e-8</v>
+        <v>1.1190876998063634e-8</v>
       </c>
       <c r="I200">
-        <v>0.00037888811622953925</v>
+        <v>0.0003788881162295396</v>
       </c>
       <c r="J200">
-        <v>0.0019993841318682154</v>
+        <v>0.001999384131868177</v>
       </c>
       <c r="K200">
-        <v>4.8977587805539535e-5</v>
+        <v>4.897758780553922e-5</v>
       </c>
     </row>
     <row r="201" spans="1:11">
@@ -7435,19 +7435,19 @@
         <v>4.8982176374639184e-5</v>
       </c>
       <c r="G201">
-        <v>7.3896196444955775</v>
+        <v>7.389619644495575</v>
       </c>
       <c r="H201">
-        <v>3.730292405970406e-9</v>
+        <v>3.730292405976954e-9</v>
       </c>
       <c r="I201">
-        <v>0.000381629340231161</v>
+        <v>0.0003816293402311611</v>
       </c>
       <c r="J201">
-        <v>0.001999794834801945</v>
+        <v>0.001999794834801932</v>
       </c>
       <c r="K201">
-        <v>4.898217637230961e-5</v>
+        <v>4.89821763723095e-5</v>
       </c>
     </row>
   </sheetData>

--- a/examples/analytical/pHBB1991/pHBB1991.uniform2x_analytical.solution.xlsx
+++ b/examples/analytical/pHBB1991/pHBB1991.uniform2x_analytical.solution.xlsx
@@ -461,10 +461,10 @@
         <v>0.0002477371068645818</v>
       </c>
       <c r="D2">
-        <v>-1.1488363384858805e-7</v>
+        <v>-1.1488363384860134e-7</v>
       </c>
       <c r="E2">
-        <v>0.001999547523802507</v>
+        <v>0.0019995475238025074</v>
       </c>
       <c r="F2">
         <v>4.897147100062461e-5</v>
@@ -490,19 +490,19 @@
         <v>-0.0485</v>
       </c>
       <c r="B3">
-        <v>8.127532866643628</v>
+        <v>8.12753286664363</v>
       </c>
       <c r="C3">
         <v>0.00024321132059374557</v>
       </c>
       <c r="D3">
-        <v>-3.445865614469403e-7</v>
+        <v>-3.4458656144693874e-7</v>
       </c>
       <c r="E3">
         <v>0.0019986372679018575</v>
       </c>
       <c r="F3">
-        <v>4.894556247095242e-5</v>
+        <v>4.894556247095243e-5</v>
       </c>
       <c r="G3">
         <v>8.127532877625281</v>
@@ -525,19 +525,19 @@
         <v>-0.0475</v>
       </c>
       <c r="B4">
-        <v>8.112179585751413</v>
+        <v>8.112179585751411</v>
       </c>
       <c r="C4">
         <v>0.00023868553432290944</v>
       </c>
       <c r="D4">
-        <v>-5.741979859056071e-7</v>
+        <v>-5.741979859056009e-7</v>
       </c>
       <c r="E4">
-        <v>0.001997719566493645</v>
+        <v>0.0019977195664936456</v>
       </c>
       <c r="F4">
-        <v>4.891979596420215e-5</v>
+        <v>4.8919795964202146e-5</v>
       </c>
       <c r="G4">
         <v>8.112179604153841</v>
@@ -560,16 +560,16 @@
         <v>-0.0465</v>
       </c>
       <c r="B5">
-        <v>8.096521794595319</v>
+        <v>8.09652179459532</v>
       </c>
       <c r="C5">
         <v>0.0002341597480520736</v>
       </c>
       <c r="D5">
-        <v>-8.037105565711459e-7</v>
+        <v>-8.037105565711579e-7</v>
       </c>
       <c r="E5">
-        <v>0.0019967939473196166</v>
+        <v>0.001996793947319617</v>
       </c>
       <c r="F5">
         <v>4.889419942647449e-5</v>
@@ -601,13 +601,13 @@
         <v>0.0002296339617812386</v>
       </c>
       <c r="D6">
-        <v>-1.0331163338387438e-6</v>
+        <v>-1.0331163338387381e-6</v>
       </c>
       <c r="E6">
         <v>0.001995859911789324</v>
       </c>
       <c r="F6">
-        <v>4.886880264142698e-5</v>
+        <v>4.8868802641426976e-5</v>
       </c>
       <c r="G6">
         <v>8.080556924711667</v>
@@ -636,10 +636,10 @@
         <v>0.00022510817551040592</v>
       </c>
       <c r="D7">
-        <v>-1.2624067612940147e-6</v>
+        <v>-1.262406761294009e-6</v>
       </c>
       <c r="E7">
-        <v>0.0019949169357444587</v>
+        <v>0.0019949169357444583</v>
       </c>
       <c r="F7">
         <v>4.884363721612476e-5</v>
@@ -671,13 +671,13 @@
         <v>0.00022058238923957954</v>
       </c>
       <c r="D8">
-        <v>-1.4915726425775408e-6</v>
+        <v>-1.4915726425775508e-6</v>
       </c>
       <c r="E8">
-        <v>0.001993964470858689</v>
+        <v>0.0019939644708586893</v>
       </c>
       <c r="F8">
-        <v>4.881873653057509e-5</v>
+        <v>4.8818736530575095e-5</v>
       </c>
       <c r="G8">
         <v>8.047701651569028</v>
@@ -706,13 +706,13 @@
         <v>0.00021605660296876995</v>
       </c>
       <c r="D9">
-        <v>-1.7206041247989956e-6</v>
+        <v>-1.720604124798995e-6</v>
       </c>
       <c r="E9">
-        <v>0.001993001946788007</v>
+        <v>0.0019930019467880064</v>
       </c>
       <c r="F9">
-        <v>4.879413564360707e-5</v>
+        <v>4.8794135643607065e-5</v>
       </c>
       <c r="G9">
         <v>8.030812949265123</v>
@@ -741,7 +741,7 @@
         <v>0.00021153081669800385</v>
       </c>
       <c r="D10">
-        <v>-1.9494906905688542e-6</v>
+        <v>-1.9494906905688614e-6</v>
       </c>
       <c r="E10">
         <v>0.001992028774185119</v>
@@ -770,19 +770,19 @@
         <v>-0.0405</v>
       </c>
       <c r="B11">
-        <v>7.996131037584214</v>
+        <v>7.996131037584213</v>
       </c>
       <c r="C11">
         <v>0.00020700503042734902</v>
       </c>
       <c r="D11">
-        <v>-2.1782211609048957e-6</v>
+        <v>-2.178221160904914e-6</v>
       </c>
       <c r="E11">
         <v>0.0019910443486818234</v>
       </c>
       <c r="F11">
-        <v>4.874598096540582e-5</v>
+        <v>4.874598096540581e-5</v>
       </c>
       <c r="G11">
         <v>7.996131109350056</v>
@@ -811,13 +811,13 @@
         <v>0.00020247924415697243</v>
       </c>
       <c r="D12">
-        <v>-2.4067837113659685e-6</v>
+        <v>-2.4067837113659753e-6</v>
       </c>
       <c r="E12">
         <v>0.00199004805592306</v>
       </c>
       <c r="F12">
-        <v>4.8722504082141167e-5</v>
+        <v>4.872250408214116e-5</v>
       </c>
       <c r="G12">
         <v>7.978351360527682</v>
@@ -840,16 +840,16 @@
         <v>-0.038500000000000006</v>
       </c>
       <c r="B13">
-        <v>7.96029187572544</v>
+        <v>7.960291875725442</v>
       </c>
       <c r="C13">
         <v>0.00019795345788727807</v>
       </c>
       <c r="D13">
-        <v>-2.635165903722312e-6</v>
+        <v>-2.635165903722309e-6</v>
       </c>
       <c r="E13">
-        <v>0.0019890392777035006</v>
+        <v>0.0019890392777035</v>
       </c>
       <c r="F13">
         <v>4.869948020958286e-5</v>
@@ -875,19 +875,19 @@
         <v>-0.037500000000000006</v>
       </c>
       <c r="B14">
-        <v>7.941965738532529</v>
+        <v>7.941965738532528</v>
       </c>
       <c r="C14">
         <v>0.00019342767161922392</v>
       </c>
       <c r="D14">
-        <v>-2.8633547352319797e-6</v>
+        <v>-2.8633547352319737e-6</v>
       </c>
       <c r="E14">
         <v>0.001988017399210614</v>
       </c>
       <c r="F14">
-        <v>4.867694937936854e-5</v>
+        <v>4.8676949379368536e-5</v>
       </c>
       <c r="G14">
         <v>7.941965832717851</v>
@@ -910,16 +910,16 @@
         <v>-0.036500000000000005</v>
       </c>
       <c r="B15">
-        <v>7.923388529683465</v>
+        <v>7.923388529683464</v>
       </c>
       <c r="C15">
         <v>0.00018890188535503505</v>
       </c>
       <c r="D15">
-        <v>-3.0913367070951555e-6</v>
+        <v>-3.0913367070951546e-6</v>
       </c>
       <c r="E15">
-        <v>0.001986981817316944</v>
+        <v>0.0019869818173169442</v>
       </c>
       <c r="F15">
         <v>4.865495146802949e-5</v>
@@ -945,16 +945,16 @@
         <v>-0.035500000000000004</v>
       </c>
       <c r="B16">
-        <v>7.904578715682754</v>
+        <v>7.904578715682751</v>
       </c>
       <c r="C16">
         <v>0.00018437609909977457</v>
       </c>
       <c r="D16">
-        <v>-3.319097912831648e-6</v>
+        <v>-3.319097912831641e-6</v>
       </c>
       <c r="E16">
-        <v>0.001985931949790557</v>
+        <v>0.0019859319497905576</v>
       </c>
       <c r="F16">
         <v>4.863352565957487e-5</v>
@@ -986,13 +986,13 @@
         <v>0.00017985031286473153</v>
       </c>
       <c r="D17">
-        <v>-3.5466241460792422e-6</v>
+        <v>-3.546624146079237e-6</v>
       </c>
       <c r="E17">
         <v>0.0019848672452101746</v>
       </c>
       <c r="F17">
-        <v>4.8612709856802206e-5</v>
+        <v>4.861270985680221e-5</v>
       </c>
       <c r="G17">
         <v>7.885557680632643</v>
@@ -1015,19 +1015,19 @@
         <v>-0.0335</v>
       </c>
       <c r="B18">
-        <v>7.866349069440384</v>
+        <v>7.86634906944038</v>
       </c>
       <c r="C18">
         <v>0.00017532452667456505</v>
       </c>
       <c r="D18">
-        <v>-3.7739010255173527e-6</v>
+        <v>-3.773901025517345e-6</v>
       </c>
       <c r="E18">
         <v>0.0019837871932869336</v>
       </c>
       <c r="F18">
-        <v>4.859254005770895e-5</v>
+        <v>4.8592540057708946e-5</v>
       </c>
       <c r="G18">
         <v>7.866349190794826</v>
@@ -1050,19 +1050,19 @@
         <v>-0.0325</v>
       </c>
       <c r="B19">
-        <v>7.846979770390848</v>
+        <v>7.846979770390849</v>
       </c>
       <c r="C19">
         <v>0.00017079874058204428</v>
       </c>
       <c r="D19">
-        <v>-4.000914132054958e-6</v>
+        <v>-4.000914132054961e-6</v>
       </c>
       <c r="E19">
         <v>0.001982691335217047</v>
       </c>
       <c r="F19">
-        <v>4.8573049718406743e-5</v>
+        <v>4.857304971840674e-5</v>
       </c>
       <c r="G19">
         <v>7.846979897731867</v>
@@ -1085,19 +1085,19 @@
         <v>-0.0315</v>
       </c>
       <c r="B20">
-        <v>7.827478509165468</v>
+        <v>7.827478509165469</v>
       </c>
       <c r="C20">
         <v>0.000166272954697795</v>
       </c>
       <c r="D20">
-        <v>-4.22764914969505e-6</v>
+        <v>-4.22764914969504e-6</v>
       </c>
       <c r="E20">
         <v>0.001981579273629338</v>
       </c>
       <c r="F20">
-        <v>4.855426912812126e-5</v>
+        <v>4.855426912812127e-5</v>
       </c>
       <c r="G20">
         <v>7.8274786420537925</v>
@@ -1120,13 +1120,13 @@
         <v>-0.030500000000000003</v>
       </c>
       <c r="B21">
-        <v>7.8078760812045855</v>
+        <v>7.807876081204587</v>
       </c>
       <c r="C21">
         <v>0.00016174716924900604</v>
       </c>
       <c r="D21">
-        <v>-4.454091995881921e-6</v>
+        <v>-4.454091995881923e-6</v>
       </c>
       <c r="E21">
         <v>0.0019804506816599203</v>
@@ -1161,13 +1161,13 @@
         <v>0.0001572213846927197</v>
       </c>
       <c r="D22">
-        <v>-4.680228918395447e-6</v>
+        <v>-4.68022891839545e-6</v>
       </c>
       <c r="E22">
         <v>0.0019793053106926806</v>
       </c>
       <c r="F22">
-        <v>4.8518939078459185e-5</v>
+        <v>4.851893907845918e-5</v>
       </c>
       <c r="G22">
         <v>7.78820495802342</v>
@@ -1190,19 +1190,19 @@
         <v>-0.028500000000000004</v>
       </c>
       <c r="B23">
-        <v>7.768498090344823</v>
+        <v>7.768498090344824</v>
       </c>
       <c r="C23">
         <v>0.00015269560192956747</v>
       </c>
       <c r="D23">
-        <v>-4.9060465218737685e-6</v>
+        <v>-4.906046521873761e-6</v>
       </c>
       <c r="E23">
         <v>0.001978142996355458</v>
       </c>
       <c r="F23">
-        <v>4.850242947466044e-5</v>
+        <v>4.8502429474660436e-5</v>
       </c>
       <c r="G23">
         <v>7.7684982362618635</v>
@@ -1225,19 +1225,19 @@
         <v>-0.027500000000000004</v>
       </c>
       <c r="B24">
-        <v>7.748789801158634</v>
+        <v>7.748789801158633</v>
       </c>
       <c r="C24">
         <v>0.00014816982269790838</v>
       </c>
       <c r="D24">
-        <v>-5.13153166448589e-6</v>
+        <v>-5.131531664485889e-6</v>
       </c>
       <c r="E24">
         <v>0.0019769636624599315</v>
       </c>
       <c r="F24">
-        <v>4.848670861208555e-5</v>
+        <v>4.848670861208554e-5</v>
       </c>
       <c r="G24">
         <v>7.748789949607376</v>
@@ -1260,7 +1260,7 @@
         <v>-0.026500000000000003</v>
       </c>
       <c r="B25">
-        <v>7.729113811197951</v>
+        <v>7.729113811197952</v>
       </c>
       <c r="C25">
         <v>0.0001436440502840814</v>
@@ -1272,7 +1272,7 @@
         <v>0.0019757673227154614</v>
       </c>
       <c r="F25">
-        <v>4.847178393933576e-5</v>
+        <v>4.847178393933575e-5</v>
       </c>
       <c r="G25">
         <v>7.729113960655582</v>
@@ -1301,13 +1301,13 @@
         <v>0.00013911829077283716</v>
       </c>
       <c r="D26">
-        <v>-5.5814509164337775e-6</v>
+        <v>-5.581450916433791e-6</v>
       </c>
       <c r="E26">
-        <v>0.001974554080226716</v>
+        <v>0.0019745540802267162</v>
       </c>
       <c r="F26">
-        <v>4.845765773390415e-5</v>
+        <v>4.8457657733904146e-5</v>
       </c>
       <c r="G26">
         <v>7.709503551897697</v>
@@ -1365,16 +1365,16 @@
         <v>-0.023500000000000004</v>
       </c>
       <c r="B28">
-        <v>7.670606528675637</v>
+        <v>7.670606528675634</v>
       </c>
       <c r="C28">
         <v>0.00013006686314970744</v>
       </c>
       <c r="D28">
-        <v>-6.029862616543953e-6</v>
+        <v>-6.029862616543951e-6</v>
       </c>
       <c r="E28">
-        <v>0.0019720777298512394</v>
+        <v>0.001972077729851239</v>
       </c>
       <c r="F28">
         <v>4.843178484850564e-5</v>
@@ -1406,13 +1406,13 @@
         <v>0.00012554124869492</v>
       </c>
       <c r="D29">
-        <v>-6.253445211676163e-6</v>
+        <v>-6.253445211676151e-6</v>
       </c>
       <c r="E29">
         <v>0.001970815245558246</v>
       </c>
       <c r="F29">
-        <v>4.842001862611322e-5</v>
+        <v>4.8420018626113226e-5</v>
       </c>
       <c r="G29">
         <v>7.651379494987413</v>
@@ -1435,19 +1435,19 @@
         <v>-0.021500000000000002</v>
       </c>
       <c r="B30">
-        <v>7.632335781096996</v>
+        <v>7.632335781096995</v>
       </c>
       <c r="C30">
         <v>0.00012101576982858889</v>
       </c>
       <c r="D30">
-        <v>-6.476559447589047e-6</v>
+        <v>-6.476559447589043e-6</v>
       </c>
       <c r="E30">
-        <v>0.0019695370959388926</v>
+        <v>0.001969537095938893</v>
       </c>
       <c r="F30">
-        <v>4.840901263445294e-5</v>
+        <v>4.840901263445295e-5</v>
       </c>
       <c r="G30">
         <v>7.632335862240744</v>
@@ -1476,10 +1476,10 @@
         <v>0.00011649052321752413</v>
       </c>
       <c r="D31">
-        <v>-6.699137928599852e-6</v>
+        <v>-6.699137928599851e-6</v>
       </c>
       <c r="E31">
-        <v>0.0019682437743284167</v>
+        <v>0.0019682437743284162</v>
       </c>
       <c r="F31">
         <v>4.8398747553765485e-5</v>
@@ -1546,7 +1546,7 @@
         <v>0.0001074414518883202</v>
       </c>
       <c r="D33">
-        <v>-7.1422022387910354e-6</v>
+        <v>-7.142202238791036e-6</v>
       </c>
       <c r="E33">
         <v>0.0019656139360294195</v>
@@ -1575,13 +1575,13 @@
         <v>-0.0175</v>
       </c>
       <c r="B34">
-        <v>7.558440931739575</v>
+        <v>7.558440931739576</v>
       </c>
       <c r="C34">
         <v>0.00010291827292018841</v>
       </c>
       <c r="D34">
-        <v>-7.362262922089421e-6</v>
+        <v>-7.3622629220894075e-6</v>
       </c>
       <c r="E34">
         <v>0.0019642787718273692</v>
@@ -1610,19 +1610,19 @@
         <v>-0.0165</v>
       </c>
       <c r="B35">
-        <v>7.540627632800636</v>
+        <v>7.5406276328006365</v>
       </c>
       <c r="C35">
         <v>9.839673213817795e-5</v>
       </c>
       <c r="D35">
-        <v>-7.58086286853745e-6</v>
+        <v>-7.580862868537452e-6</v>
       </c>
       <c r="E35">
         <v>0.0019629311709197725</v>
       </c>
       <c r="F35">
-        <v>4.836462508274674e-5</v>
+        <v>4.8364625082746746e-5</v>
       </c>
       <c r="G35">
         <v>7.540626943542678</v>
@@ -1645,7 +1645,7 @@
         <v>-0.0155</v>
       </c>
       <c r="B36">
-        <v>7.523107874013399</v>
+        <v>7.523107874013398</v>
       </c>
       <c r="C36">
         <v>9.387773127221834e-5</v>
@@ -1721,13 +1721,13 @@
         <v>8.485320130770519e-5</v>
       </c>
       <c r="D38">
-        <v>-8.220562951317863e-6</v>
+        <v>-8.22056295131786e-6</v>
       </c>
       <c r="E38">
         <v>0.001958824262552214</v>
       </c>
       <c r="F38">
-        <v>4.834558372873537e-5</v>
+        <v>4.834558372873538e-5</v>
       </c>
       <c r="G38">
         <v>7.48899605387879</v>
@@ -1750,19 +1750,19 @@
         <v>-0.012500000000000004</v>
       </c>
       <c r="B39">
-        <v>7.47243400506894</v>
+        <v>7.472434005068941</v>
       </c>
       <c r="C39">
         <v>8.035221125603372e-5</v>
       </c>
       <c r="D39">
-        <v>-8.424209879395892e-6</v>
+        <v>-8.424209879395902e-6</v>
       </c>
       <c r="E39">
-        <v>0.00195743859839663</v>
+        <v>0.0019574385983966306</v>
       </c>
       <c r="F39">
-        <v>4.834034444049204e-5</v>
+        <v>4.8340344440492046e-5</v>
       </c>
       <c r="G39">
         <v>7.472430319717179</v>
@@ -1791,13 +1791,13 @@
         <v>7.586324582542889e-5</v>
       </c>
       <c r="D40">
-        <v>-8.619644869242415e-6</v>
+        <v>-8.619644869242414e-6</v>
       </c>
       <c r="E40">
-        <v>0.0019560477902975794</v>
+        <v>0.00195604779029758</v>
       </c>
       <c r="F40">
-        <v>4.8335619285486306e-5</v>
+        <v>4.83356192854863e-5</v>
       </c>
       <c r="G40">
         <v>7.456209184984439</v>
@@ -1820,19 +1820,19 @@
         <v>-0.010500000000000002</v>
       </c>
       <c r="B41">
-        <v>7.440355940609576</v>
+        <v>7.440355940609577</v>
       </c>
       <c r="C41">
         <v>7.139115530259627e-5</v>
       </c>
       <c r="D41">
-        <v>-8.8037222195893e-6</v>
+        <v>-8.803722219589302e-6</v>
       </c>
       <c r="E41">
-        <v>0.001954654498265957</v>
+        <v>0.0019546544982659564</v>
       </c>
       <c r="F41">
-        <v>4.8331387259506515e-5</v>
+        <v>4.833138725950651e-5</v>
       </c>
       <c r="G41">
         <v>7.440348865821326</v>
@@ -1855,19 +1855,19 @@
         <v>-0.009500000000000001</v>
       </c>
       <c r="B42">
-        <v>7.424878169994056</v>
+        <v>7.424878169994055</v>
       </c>
       <c r="C42">
         <v>6.694227900835865e-5</v>
       </c>
       <c r="D42">
-        <v>-8.972334632956132e-6</v>
+        <v>-8.972334632956119e-6</v>
       </c>
       <c r="E42">
-        <v>0.001953262045598319</v>
+        <v>0.0019532620455983193</v>
       </c>
       <c r="F42">
-        <v>4.8327629688356145e-5</v>
+        <v>4.832762968835614e-5</v>
       </c>
       <c r="G42">
         <v>7.4248687024757505</v>
@@ -1890,19 +1890,19 @@
         <v>-0.0085</v>
       </c>
       <c r="B43">
-        <v>7.409804361326826</v>
+        <v>7.409804361326825</v>
       </c>
       <c r="C43">
         <v>6.252470744422661e-5</v>
       </c>
       <c r="D43">
-        <v>-9.12024577121819e-6</v>
+        <v>-9.120245771218178e-6</v>
       </c>
       <c r="E43">
-        <v>0.0019518745487402012</v>
+        <v>0.0019518745487402014</v>
       </c>
       <c r="F43">
-        <v>4.832433040107497e-5</v>
+        <v>4.8324330401074976e-5</v>
       </c>
       <c r="G43">
         <v>7.409791964399752</v>
@@ -1925,7 +1925,7 @@
         <v>-0.007500000000000003</v>
       </c>
       <c r="B44">
-        <v>7.395162387358149</v>
+        <v>7.39516238735815</v>
       </c>
       <c r="C44">
         <v>5.8148517600918635e-5</v>
@@ -1934,7 +1934,7 @@
         <v>-9.240940826954645e-6</v>
       </c>
       <c r="E44">
-        <v>0.0019504970390111852</v>
+        <v>0.001950497039011185</v>
       </c>
       <c r="F44">
         <v>4.8321475788982486e-5</v>
@@ -1960,19 +1960,19 @@
         <v>-0.006500000000000006</v>
       </c>
       <c r="B45">
-        <v>7.380985057862497</v>
+        <v>7.380985057862498</v>
       </c>
       <c r="C45">
         <v>5.3825950623410936e-5</v>
       </c>
       <c r="D45">
-        <v>-9.326514893478296e-6</v>
+        <v>-9.326514893478293e-6</v>
       </c>
       <c r="E45">
-        <v>0.0019491355612734822</v>
+        <v>0.0019491355612734815</v>
       </c>
       <c r="F45">
-        <v>4.8319054738865414e-5</v>
+        <v>4.831905473886541e-5</v>
       </c>
       <c r="G45">
         <v>7.3809650991804725</v>
@@ -1995,13 +1995,13 @@
         <v>-0.005500000000000005</v>
       </c>
       <c r="B46">
-        <v>7.367310165023262</v>
+        <v>7.3673101650232615</v>
       </c>
       <c r="C46">
         <v>4.9571497334718584e-5</v>
       </c>
       <c r="D46">
-        <v>-9.367621144921958e-6</v>
+        <v>-9.367621144921966e-6</v>
       </c>
       <c r="E46">
         <v>0.0019477972321492896</v>
@@ -2036,10 +2036,10 @@
         <v>4.540185690462495e-5</v>
       </c>
       <c r="D47">
-        <v>-9.353500809400857e-6</v>
+        <v>-9.353500809400847e-6</v>
       </c>
       <c r="E47">
-        <v>0.0019464902394828783</v>
+        <v>0.001946490239482878</v>
       </c>
       <c r="F47">
         <v>4.831548002720117e-5</v>
@@ -2065,19 +2065,19 @@
         <v>-0.003500000000000003</v>
       </c>
       <c r="B48">
-        <v>7.341641088719922</v>
+        <v>7.341641088719923</v>
       </c>
       <c r="C48">
         <v>4.133573830300703e-5</v>
       </c>
       <c r="D48">
-        <v>-9.27211396289656e-6</v>
+        <v>-9.272113962896563e-6</v>
       </c>
       <c r="E48">
-        <v>0.0019452237660785815</v>
+        <v>0.0019452237660785813</v>
       </c>
       <c r="F48">
-        <v>4.8314314191194314e-5</v>
+        <v>4.831431419119431e-5</v>
       </c>
       <c r="G48">
         <v>7.3416060837400865</v>
@@ -2100,16 +2100,16 @@
         <v>-0.0025000000000000022</v>
       </c>
       <c r="B49">
-        <v>7.329741732374098</v>
+        <v>7.329741732374097</v>
       </c>
       <c r="C49">
         <v>3.739348370435997e-5</v>
       </c>
       <c r="D49">
-        <v>-9.110383943885563e-6</v>
+        <v>-9.110383943885561e-6</v>
       </c>
       <c r="E49">
-        <v>0.0019440078248143789</v>
+        <v>0.001944007824814379</v>
       </c>
       <c r="F49">
         <v>4.831355657859696e-5</v>
@@ -2135,7 +2135,7 @@
         <v>-0.0015000000000000013</v>
       </c>
       <c r="B50">
-        <v>7.318531379293013</v>
+        <v>7.318531379293012</v>
       </c>
       <c r="C50">
         <v>3.3596507570729135e-5</v>
@@ -2144,7 +2144,7 @@
         <v>-8.854558823557495e-6</v>
       </c>
       <c r="E50">
-        <v>0.001942852999167652</v>
+        <v>0.0019428529991676522</v>
       </c>
       <c r="F50">
         <v>4.83132032113085e-5</v>
@@ -2170,16 +2170,16 @@
         <v>-0.0005000000000000004</v>
       </c>
       <c r="B51">
-        <v>7.308057908049578</v>
+        <v>7.308057908049579</v>
       </c>
       <c r="C51">
         <v>2.996656368943619e-5</v>
       </c>
       <c r="D51">
-        <v>-8.490681568549664e-6</v>
+        <v>-8.490681568549686e-6</v>
       </c>
       <c r="E51">
-        <v>0.0019417700926389282</v>
+        <v>0.001941770092638928</v>
       </c>
       <c r="F51">
         <v>4.831324984256905e-5</v>
@@ -2211,13 +2211,13 @@
         <v>2.6524873023971605e-5</v>
       </c>
       <c r="D52">
-        <v>-8.005147566357453e-6</v>
+        <v>-8.005147566357478e-6</v>
       </c>
       <c r="E52">
-        <v>0.0019407697016077278</v>
+        <v>0.0019407697016077274</v>
       </c>
       <c r="F52">
-        <v>4.8313691329552805e-5</v>
+        <v>4.831369132955279e-5</v>
       </c>
       <c r="G52">
         <v>7.298309238407065</v>
@@ -2249,10 +2249,10 @@
         <v>-7.385315740108352e-6</v>
       </c>
       <c r="E53">
-        <v>0.0019398617373779397</v>
+        <v>0.0019398617373779395</v>
       </c>
       <c r="F53">
-        <v>4.8314521056358154e-5</v>
+        <v>4.831452105635816e-5</v>
       </c>
       <c r="G53">
         <v>7.2894312626691145</v>
@@ -2275,19 +2275,19 @@
         <v>0.0024999999999999953</v>
       </c>
       <c r="B54">
-        <v>7.281465004781657</v>
+        <v>7.281465004781658</v>
       </c>
       <c r="C54">
         <v>2.0282702484804773e-5</v>
       </c>
       <c r="D54">
-        <v>-6.620129437104409e-6</v>
+        <v>-6.620129437104427e-6</v>
       </c>
       <c r="E54">
-        <v>0.0019390549328125646</v>
+        <v>0.0019390549328125643</v>
       </c>
       <c r="F54">
-        <v>4.8315730443252176e-5</v>
+        <v>4.831573044325217e-5</v>
       </c>
       <c r="G54">
         <v>7.281401819138732</v>
@@ -2310,13 +2310,13 @@
         <v>0.003499999999999996</v>
       </c>
       <c r="B55">
-        <v>7.274304393685975</v>
+        <v>7.2743043936859735</v>
       </c>
       <c r="C55">
         <v>1.751336563035466e-5</v>
       </c>
       <c r="D55">
-        <v>-5.700697380722543e-6</v>
+        <v>-5.7006973807225425e-6</v>
       </c>
       <c r="E55">
         <v>0.0019383563752308692</v>
@@ -2345,16 +2345,16 @@
         <v>0.004499999999999997</v>
       </c>
       <c r="B56">
-        <v>7.268015348731682</v>
+        <v>7.268015348731683</v>
       </c>
       <c r="C56">
         <v>1.4992880414686623e-5</v>
       </c>
       <c r="D56">
-        <v>-4.620784510354977e-6</v>
+        <v>-4.620784510354982e-6</v>
       </c>
       <c r="E56">
-        <v>0.0019377711086931192</v>
+        <v>0.0019377711086931194</v>
       </c>
       <c r="F56">
         <v>4.831924194768367e-5</v>
@@ -2386,10 +2386,10 @@
         <v>1.2726257089254663e-5</v>
       </c>
       <c r="D57">
-        <v>-3.377168041023337e-6</v>
+        <v>-3.3771680410233087e-6</v>
       </c>
       <c r="E57">
-        <v>0.0019373018446669742</v>
+        <v>0.0019373018446669737</v>
       </c>
       <c r="F57">
         <v>4.832151441434018e-5</v>
@@ -2421,10 +2421,10 @@
         <v>1.0713495654058826e-5</v>
       </c>
       <c r="D58">
-        <v>-1.969825197549196e-6</v>
+        <v>-1.9698251975491954e-6</v>
       </c>
       <c r="E58">
-        <v>0.0019369488105258979</v>
+        <v>0.001936948810525898</v>
       </c>
       <c r="F58">
         <v>4.832410722180149e-5</v>
@@ -2450,19 +2450,19 @@
         <v>0.0075</v>
       </c>
       <c r="B59">
-        <v>7.2542345494795155</v>
+        <v>7.254234549479515</v>
       </c>
       <c r="C59">
         <v>8.949585857645022e-6</v>
       </c>
       <c r="D59">
-        <v>-4.0193456922472886e-7</v>
+        <v>-4.019345692247308e-7</v>
       </c>
       <c r="E59">
-        <v>0.0019367097515277257</v>
+        <v>0.001936709751527726</v>
       </c>
       <c r="F59">
-        <v>4.832699924624142e-5</v>
+        <v>4.832699924624141e-5</v>
       </c>
       <c r="G59">
         <v>7.254173956718905</v>
@@ -2485,13 +2485,13 @@
         <v>0.008499999999999997</v>
       </c>
       <c r="B60">
-        <v>7.251223526714181</v>
+        <v>7.25122352671418</v>
       </c>
       <c r="C60">
         <v>7.424801893838488e-6</v>
       </c>
       <c r="D60">
-        <v>1.3203090774375856e-6</v>
+        <v>1.3203090774375815e-6</v>
       </c>
       <c r="E60">
         <v>0.0019365800858267633</v>
@@ -2520,19 +2520,19 @@
         <v>0.009499999999999995</v>
       </c>
       <c r="B61">
-        <v>7.248919027992431</v>
+        <v>7.2489190279924305</v>
       </c>
       <c r="C61">
         <v>6.125263095084021e-6</v>
       </c>
       <c r="D61">
-        <v>3.1880487687879957e-6</v>
+        <v>3.1880487687880186e-6</v>
       </c>
       <c r="E61">
-        <v>0.001936553196094623</v>
+        <v>0.0019365531960946229</v>
       </c>
       <c r="F61">
-        <v>4.8333586841729365e-5</v>
+        <v>4.833358684172937e-5</v>
       </c>
       <c r="G61">
         <v>7.248867008713399</v>
@@ -2555,19 +2555,19 @@
         <v>0.010499999999999995</v>
       </c>
       <c r="B62">
-        <v>7.24725741288686</v>
+        <v>7.247257412886861</v>
       </c>
       <c r="C62">
         <v>5.0337071096847305e-6</v>
       </c>
       <c r="D62">
-        <v>5.1902547445883654e-6</v>
+        <v>5.1902547445883375e-6</v>
       </c>
       <c r="E62">
-        <v>0.0019366208278392345</v>
+        <v>0.0019366208278392342</v>
       </c>
       <c r="F62">
-        <v>4.8337232065258525e-5</v>
+        <v>4.833723206525853e-5</v>
       </c>
       <c r="G62">
         <v>7.247210604508755</v>
@@ -2634,7 +2634,7 @@
         <v>9.546605062069183e-6</v>
       </c>
       <c r="E64">
-        <v>0.0019370012728420708</v>
+        <v>0.0019370012728420704</v>
       </c>
       <c r="F64">
         <v>4.834509583489927e-5</v>
@@ -2660,16 +2660,16 @@
         <v>0.013499999999999998</v>
       </c>
       <c r="B65">
-        <v>7.245434805873111</v>
+        <v>7.245434805873109</v>
       </c>
       <c r="C65">
         <v>2.8031417706638426e-6</v>
       </c>
       <c r="D65">
-        <v>1.1873202232559439e-5</v>
+        <v>1.1873202232559459e-5</v>
       </c>
       <c r="E65">
-        <v>0.0019372936688852125</v>
+        <v>0.0019372936688852127</v>
       </c>
       <c r="F65">
         <v>4.834926370155124e-5</v>
@@ -2695,13 +2695,13 @@
         <v>0.014499999999999999</v>
       </c>
       <c r="B66">
-        <v>7.24564833532354</v>
+        <v>7.245648335323539</v>
       </c>
       <c r="C66">
         <v>2.3360137214177946e-6</v>
       </c>
       <c r="D66">
-        <v>1.4280341847588948e-5</v>
+        <v>1.4280341847588958e-5</v>
       </c>
       <c r="E66">
         <v>0.0019376406510878714</v>
@@ -2736,13 +2736,13 @@
         <v>1.972407500647515e-6</v>
       </c>
       <c r="D67">
-        <v>1.6754940013991176e-5</v>
+        <v>1.675494001399116e-5</v>
       </c>
       <c r="E67">
-        <v>0.0019380326944604816</v>
+        <v>0.0019380326944604819</v>
       </c>
       <c r="F67">
-        <v>4.835795428473176e-5</v>
+        <v>4.835795428473175e-5</v>
       </c>
       <c r="G67">
         <v>7.246142594452445</v>
@@ -2774,7 +2774,7 @@
         <v>1.928494623174159e-5</v>
       </c>
       <c r="E68">
-        <v>0.0019384611003600192</v>
+        <v>0.0019384611003600194</v>
       </c>
       <c r="F68">
         <v>4.836243581685834e-5</v>
@@ -2806,10 +2806,10 @@
         <v>1.482934465119728e-6</v>
       </c>
       <c r="D69">
-        <v>2.1859589078427797e-5</v>
+        <v>2.1859589078427804e-5</v>
       </c>
       <c r="E69">
-        <v>0.001938918162398615</v>
+        <v>0.0019389181623986147</v>
       </c>
       <c r="F69">
         <v>4.836698451428949e-5</v>
@@ -2835,7 +2835,7 @@
         <v>0.018500000000000003</v>
       </c>
       <c r="B70">
-        <v>7.248973155728675</v>
+        <v>7.248973155728674</v>
       </c>
       <c r="C70">
         <v>1.3258776575638102e-6</v>
@@ -2844,10 +2844,10 @@
         <v>2.4469508056087844e-5</v>
       </c>
       <c r="E70">
-        <v>0.00193939724517731</v>
+        <v>0.0019393972451773097</v>
       </c>
       <c r="F70">
-        <v>4.837158564007962e-5</v>
+        <v>4.837158564007961e-5</v>
       </c>
       <c r="G70">
         <v>7.248963286845347</v>
@@ -2870,19 +2870,19 @@
         <v>0.019500000000000003</v>
       </c>
       <c r="B71">
-        <v>7.2501858096874825</v>
+        <v>7.250185809687482</v>
       </c>
       <c r="C71">
         <v>1.2102025708319508e-6</v>
       </c>
       <c r="D71">
-        <v>2.7106784362624107e-5</v>
+        <v>2.710678436262409e-5</v>
       </c>
       <c r="E71">
         <v>0.0019398927883358037</v>
       </c>
       <c r="F71">
-        <v>4.837622682993255e-5</v>
+        <v>4.8376226829932555e-5</v>
       </c>
       <c r="G71">
         <v>7.250178389172657</v>
@@ -2911,13 +2911,13 @@
         <v>1.1258322142056323e-6</v>
       </c>
       <c r="D72">
-        <v>2.9764889622432742e-5</v>
+        <v>2.9764889622432736e-5</v>
       </c>
       <c r="E72">
         <v>0.0019404002523193747</v>
       </c>
       <c r="F72">
-        <v>4.838089794979081e-5</v>
+        <v>4.8380897949790805e-5</v>
       </c>
       <c r="G72">
         <v>7.251475376102595</v>
@@ -2981,10 +2981,10 @@
         <v>1.0203948659153001e-6</v>
       </c>
       <c r="D74">
-        <v>3.512371993081618e-5</v>
+        <v>3.512371993081615e-5</v>
       </c>
       <c r="E74">
-        <v>0.0019414372958632031</v>
+        <v>0.0019414372958632034</v>
       </c>
       <c r="F74">
         <v>4.8390299284105205e-5</v>
@@ -3010,19 +3010,19 @@
         <v>0.023499999999999993</v>
       </c>
       <c r="B75">
-        <v>7.255646549596953</v>
+        <v>7.255646549596954</v>
       </c>
       <c r="C75">
         <v>9.881382667228709e-7</v>
       </c>
       <c r="D75">
-        <v>3.7817168790314164e-5</v>
+        <v>3.781716879031416e-5</v>
       </c>
       <c r="E75">
-        <v>0.0019419619425920737</v>
+        <v>0.0019419619425920733</v>
       </c>
       <c r="F75">
-        <v>4.839501829284121e-5</v>
+        <v>4.839501829284122e-5</v>
       </c>
       <c r="G75">
         <v>7.25564463092357</v>
@@ -3045,13 +3045,13 @@
         <v>0.024499999999999994</v>
       </c>
       <c r="B76">
-        <v>7.257080580254275</v>
+        <v>7.257080580254276</v>
       </c>
       <c r="C76">
         <v>9.6428098915461e-7</v>
       </c>
       <c r="D76">
-        <v>4.051655752251766e-5</v>
+        <v>4.051655752251763e-5</v>
       </c>
       <c r="E76">
         <v>0.0019424883907241419</v>
@@ -3080,7 +3080,7 @@
         <v>0.025499999999999995</v>
       </c>
       <c r="B77">
-        <v>7.258522068002905</v>
+        <v>7.258522068002907</v>
       </c>
       <c r="C77">
         <v>9.461749295081832e-7</v>
@@ -3089,10 +3089,10 @@
         <v>4.3220156221515145e-5</v>
       </c>
       <c r="E77">
-        <v>0.001943015504847378</v>
+        <v>0.0019430155048473783</v>
       </c>
       <c r="F77">
-        <v>4.840447459732305e-5</v>
+        <v>4.8404474597323056e-5</v>
       </c>
       <c r="G77">
         <v>7.258521220699182</v>
@@ -3150,19 +3150,19 @@
         <v>0.027499999999999997</v>
       </c>
       <c r="B79">
-        <v>7.261407422129051</v>
+        <v>7.261407422129049</v>
       </c>
       <c r="C79">
         <v>9.202232757504605e-7</v>
       </c>
       <c r="D79">
-        <v>4.8635402154121234e-5</v>
+        <v>4.863540215412124e-5</v>
       </c>
       <c r="E79">
-        <v>0.0019440687849680812</v>
+        <v>0.0019440687849680816</v>
       </c>
       <c r="F79">
-        <v>4.841394120500761e-5</v>
+        <v>4.8413941205007614e-5</v>
       </c>
       <c r="G79">
         <v>7.261407092902182</v>
@@ -3191,7 +3191,7 @@
         <v>9.101555930183322e-7</v>
       </c>
       <c r="D80">
-        <v>5.134558806318752e-5</v>
+        <v>5.1345588063187505e-5</v>
       </c>
       <c r="E80">
         <v>0.0019445940373794507</v>
@@ -3220,7 +3220,7 @@
         <v>0.0295</v>
       </c>
       <c r="B81">
-        <v>7.264276730446021</v>
+        <v>7.264276730446022</v>
       </c>
       <c r="C81">
         <v>9.011236480933065e-7</v>
@@ -3255,16 +3255,16 @@
         <v>0.0305</v>
       </c>
       <c r="B82">
-        <v>7.265701504446969</v>
+        <v>7.2657015044469695</v>
       </c>
       <c r="C82">
         <v>8.927336204944563e-7</v>
       </c>
       <c r="D82">
-        <v>5.676903113811685e-5</v>
+        <v>5.676903113811684e-5</v>
       </c>
       <c r="E82">
-        <v>0.0019456405477637593</v>
+        <v>0.0019456405477637597</v>
       </c>
       <c r="F82">
         <v>4.842814180600059e-5</v>
@@ -3331,13 +3331,13 @@
         <v>8.769657961624901e-7</v>
       </c>
       <c r="D84">
-        <v>6.219524949891114e-5</v>
+        <v>6.219524949891115e-5</v>
       </c>
       <c r="E84">
         <v>0.001946681038804</v>
       </c>
       <c r="F84">
-        <v>4.8437604257601045e-5</v>
+        <v>4.843760425760104e-5</v>
       </c>
       <c r="G84">
         <v>7.26852794217394</v>
@@ -3395,16 +3395,16 @@
         <v>0.0345</v>
       </c>
       <c r="B86">
-        <v>7.271321833412688</v>
+        <v>7.271321833412689</v>
       </c>
       <c r="C86">
         <v>8.61778996989178e-7</v>
       </c>
       <c r="D86">
-        <v>6.762349988069646e-5</v>
+        <v>6.762349988069645e-5</v>
       </c>
       <c r="E86">
-        <v>0.0019477152202450176</v>
+        <v>0.0019477152202450171</v>
       </c>
       <c r="F86">
         <v>4.844706155828918e-5</v>
@@ -3439,10 +3439,10 @@
         <v>7.033828600318858e-5</v>
       </c>
       <c r="E87">
-        <v>0.0019482299370652744</v>
+        <v>0.0019482299370652747</v>
       </c>
       <c r="F87">
-        <v>4.8451788145794e-5</v>
+        <v>4.845178814579399e-5</v>
       </c>
       <c r="G87">
         <v>7.27270642189436</v>
@@ -3471,10 +3471,10 @@
         <v>8.46780781868316e-7</v>
       </c>
       <c r="D88">
-        <v>7.305348611238778e-5</v>
+        <v>7.305348611238776e-5</v>
       </c>
       <c r="E88">
-        <v>0.0019487430838030645</v>
+        <v>0.001948743083803064</v>
       </c>
       <c r="F88">
         <v>4.845651332998603e-5</v>
@@ -3500,16 +3500,16 @@
         <v>0.03749999999999999</v>
       </c>
       <c r="B89">
-        <v>7.275450768620778</v>
+        <v>7.27545076862078</v>
       </c>
       <c r="C89">
         <v>8.393065448313178e-7</v>
       </c>
       <c r="D89">
-        <v>7.576908831830934e-5</v>
+        <v>7.576908831830933e-5</v>
       </c>
       <c r="E89">
-        <v>0.001949254674536187</v>
+        <v>0.0019492546745361868</v>
       </c>
       <c r="F89">
         <v>4.8461237102213726e-5</v>
@@ -3535,19 +3535,19 @@
         <v>0.03849999999999999</v>
       </c>
       <c r="B90">
-        <v>7.276810688559161</v>
+        <v>7.276810688559162</v>
       </c>
       <c r="C90">
         <v>8.318391256265564e-7</v>
       </c>
       <c r="D90">
-        <v>7.848508405236068e-5</v>
+        <v>7.848508405236071e-5</v>
       </c>
       <c r="E90">
         <v>0.0019497647251050252</v>
       </c>
       <c r="F90">
-        <v>4.84659594589142e-5</v>
+        <v>4.8465959458914205e-5</v>
       </c>
       <c r="G90">
         <v>7.276810724156375</v>
@@ -3570,16 +3570,16 @@
         <v>0.03949999999999999</v>
       </c>
       <c r="B91">
-        <v>7.278162506580066</v>
+        <v>7.278162506580067</v>
       </c>
       <c r="C91">
         <v>8.243752379148261e-7</v>
       </c>
       <c r="D91">
-        <v>8.120146665327009e-5</v>
+        <v>8.12014666532701e-5</v>
       </c>
       <c r="E91">
-        <v>0.0019502732522291611</v>
+        <v>0.0019502732522291607</v>
       </c>
       <c r="F91">
         <v>4.8470680399437206e-5</v>
@@ -3605,7 +3605,7 @@
         <v>0.040499999999999994</v>
       </c>
       <c r="B92">
-        <v>7.27950628692732</v>
+        <v>7.2795062869273215</v>
       </c>
       <c r="C92">
         <v>8.169131433372726e-7</v>
@@ -3617,7 +3617,7 @@
         <v>0.0019507802729984685</v>
       </c>
       <c r="F92">
-        <v>4.84753999247773e-5</v>
+        <v>4.847539992477731e-5</v>
       </c>
       <c r="G92">
         <v>7.279506321196569</v>
@@ -3640,7 +3640,7 @@
         <v>0.041499999999999995</v>
       </c>
       <c r="B93">
-        <v>7.280842095512052</v>
+        <v>7.280842095512051</v>
       </c>
       <c r="C93">
         <v>8.094519412623378e-7</v>
@@ -3649,7 +3649,7 @@
         <v>8.663537076077562e-5</v>
       </c>
       <c r="E93">
-        <v>0.0019512858045874785</v>
+        <v>0.0019512858045874788</v>
       </c>
       <c r="F93">
         <v>4.8480118036852004e-5</v>
@@ -3681,13 +3681,13 @@
         <v>8.019911746476777e-7</v>
       </c>
       <c r="D94">
-        <v>8.935288269705699e-5</v>
+        <v>8.9352882697057e-5</v>
       </c>
       <c r="E94">
-        <v>0.0019517898640995343</v>
+        <v>0.0019517898640995341</v>
       </c>
       <c r="F94">
-        <v>4.848483473809983e-5</v>
+        <v>4.8484834738099835e-5</v>
       </c>
       <c r="G94">
         <v>7.282170031396899</v>
@@ -3710,16 +3710,16 @@
         <v>0.0435</v>
       </c>
       <c r="B95">
-        <v>7.283490063288727</v>
+        <v>7.283490063288726</v>
       </c>
       <c r="C95">
         <v>7.945306163045706e-7</v>
       </c>
       <c r="D95">
-        <v>9.207076195692627e-5</v>
+        <v>9.207076195692632e-5</v>
       </c>
       <c r="E95">
-        <v>0.0019522924684845127</v>
+        <v>0.0019522924684845125</v>
       </c>
       <c r="F95">
         <v>4.848955003126102e-5</v>
@@ -3745,13 +3745,13 @@
         <v>0.0445</v>
       </c>
       <c r="B96">
-        <v>7.284802355059795</v>
+        <v>7.284802355059796</v>
       </c>
       <c r="C96">
         <v>7.87070155607161e-7</v>
       </c>
       <c r="D96">
-        <v>9.478900428170185e-5</v>
+        <v>9.478900428170183e-5</v>
       </c>
       <c r="E96">
         <v>0.0019527936344972325</v>
@@ -3786,13 +3786,13 @@
         <v>7.796097397862636e-7</v>
       </c>
       <c r="D97">
-        <v>9.750760550975753e-5</v>
+        <v>9.75076055097575e-5</v>
       </c>
       <c r="E97">
         <v>0.001953293378677813</v>
       </c>
       <c r="F97">
-        <v>4.849897640514452e-5</v>
+        <v>4.8498976405144524e-5</v>
       </c>
       <c r="G97">
         <v>7.286106969758203</v>
@@ -3821,13 +3821,13 @@
         <v>7.721493441827683e-7</v>
       </c>
       <c r="D98">
-        <v>0.00010022656155594348</v>
+        <v>0.00010022656155594345</v>
       </c>
       <c r="E98">
-        <v>0.0019537917173435785</v>
+        <v>0.001953791717343578</v>
       </c>
       <c r="F98">
-        <v>4.850368749205098e-5</v>
+        <v>4.850368749205097e-5</v>
       </c>
       <c r="G98">
         <v>7.287403911609801</v>
@@ -3856,10 +3856,10 @@
         <v>7.646889575078169e-7</v>
       </c>
       <c r="D99">
-        <v>0.00010294586840093426</v>
+        <v>0.00010294586840093428</v>
       </c>
       <c r="E99">
-        <v>0.00195428866658689</v>
+        <v>0.0019542886665868905</v>
       </c>
       <c r="F99">
         <v>4.8508397183189445e-5</v>
@@ -3891,13 +3891,13 @@
         <v>7.572285746980027e-7</v>
       </c>
       <c r="D100">
-        <v>0.00010566552208561356</v>
+        <v>0.00010566552208561363</v>
       </c>
       <c r="E100">
         <v>0.001954784242275936</v>
       </c>
       <c r="F100">
-        <v>4.851310548183324e-5</v>
+        <v>4.8513105481833244e-5</v>
       </c>
       <c r="G100">
         <v>7.289975126559052</v>
@@ -3920,16 +3920,16 @@
         <v>0.0495</v>
       </c>
       <c r="B101">
-        <v>7.291249499991098</v>
+        <v>7.291249499991099</v>
       </c>
       <c r="C101">
         <v>7.497681935284183e-7</v>
       </c>
       <c r="D101">
-        <v>0.00010838551870795952</v>
+        <v>0.00010838551870795947</v>
       </c>
       <c r="E101">
-        <v>0.0019552784600569387</v>
+        <v>0.0019552784600569383</v>
       </c>
       <c r="F101">
         <v>4.8517812391313546e-5</v>
@@ -3955,19 +3955,19 @@
         <v>0.0505</v>
       </c>
       <c r="B102">
-        <v>7.292516513068835</v>
+        <v>7.2925165130688345</v>
       </c>
       <c r="C102">
         <v>7.423078130411012e-7</v>
       </c>
       <c r="D102">
-        <v>0.00011110585442114465</v>
+        <v>0.00011110585442114462</v>
       </c>
       <c r="E102">
-        <v>0.0019557713353570228</v>
+        <v>0.0019557713353570223</v>
       </c>
       <c r="F102">
-        <v>4.852251791501586e-5</v>
+        <v>4.8522517915015854e-5</v>
       </c>
       <c r="G102">
         <v>7.292516539021515</v>
@@ -3996,7 +3996,7 @@
         <v>7.348474328320853e-7</v>
       </c>
       <c r="D103">
-        <v>0.00011382652543221957</v>
+        <v>0.0001138265254322196</v>
       </c>
       <c r="E103">
         <v>0.0019562628833873713</v>
@@ -4031,13 +4031,13 @@
         <v>7.273870527342221e-7</v>
       </c>
       <c r="D104">
-        <v>0.00011654752800107093</v>
+        <v>0.00011654752800107092</v>
       </c>
       <c r="E104">
-        <v>0.0019567531191464734</v>
+        <v>0.001956753119146473</v>
       </c>
       <c r="F104">
-        <v>4.85319248188843e-5</v>
+        <v>4.853192481888431e-5</v>
       </c>
       <c r="G104">
         <v>7.295028647353741</v>
@@ -4066,13 +4066,13 @@
         <v>7.199266726799186e-7</v>
       </c>
       <c r="D105">
-        <v>0.00011926885843951202</v>
+        <v>0.00011926885843951204</v>
       </c>
       <c r="E105">
-        <v>0.0019572420574233895</v>
+        <v>0.00195724205742339</v>
       </c>
       <c r="F105">
-        <v>4.853662620607078e-5</v>
+        <v>4.8536626206070787e-5</v>
       </c>
       <c r="G105">
         <v>7.296273865526688</v>
@@ -4101,7 +4101,7 @@
         <v>7.12466292642403e-7</v>
       </c>
       <c r="D106">
-        <v>0.00012199051311043845</v>
+        <v>0.00012199051311043849</v>
       </c>
       <c r="E106">
         <v>0.0019577297128010054</v>
@@ -4130,13 +4130,13 @@
         <v>0.055499999999999994</v>
       </c>
       <c r="B107">
-        <v>7.298742908434458</v>
+        <v>7.298742908434457</v>
       </c>
       <c r="C107">
         <v>7.050059126112048e-7</v>
       </c>
       <c r="D107">
-        <v>0.00012471248842701866</v>
+        <v>0.00012471248842701863</v>
       </c>
       <c r="E107">
         <v>0.001958216099659235</v>
@@ -4165,7 +4165,7 @@
         <v>0.056499999999999995</v>
       </c>
       <c r="B108">
-        <v>7.299966874688673</v>
+        <v>7.299966874688674</v>
       </c>
       <c r="C108">
         <v>6.975455325822818e-7</v>
@@ -4200,7 +4200,7 @@
         <v>0.057499999999999996</v>
       </c>
       <c r="B109">
-        <v>7.301183874293794</v>
+        <v>7.301183874293793</v>
       </c>
       <c r="C109">
         <v>6.900851525541981e-7</v>
@@ -4235,19 +4235,19 @@
         <v>0.058499999999999996</v>
       </c>
       <c r="B110">
-        <v>7.302393965063415</v>
+        <v>7.302393965063416</v>
       </c>
       <c r="C110">
         <v>6.826247725264237e-7</v>
       </c>
       <c r="D110">
-        <v>0.00013288030312004088</v>
+        <v>0.00013288030312004086</v>
       </c>
       <c r="E110">
-        <v>0.0019596677899383057</v>
+        <v>0.0019596677899383053</v>
       </c>
       <c r="F110">
-        <v>4.856011263896664e-5</v>
+        <v>4.8560112638966645e-5</v>
       </c>
       <c r="G110">
         <v>7.302393985314026</v>
@@ -4270,13 +4270,13 @@
         <v>0.0595</v>
       </c>
       <c r="B111">
-        <v>7.3035972042369615</v>
+        <v>7.303597204236961</v>
       </c>
       <c r="C111">
         <v>6.751643924987818e-7</v>
       </c>
       <c r="D111">
-        <v>0.00013560352612915233</v>
+        <v>0.00013560352612915227</v>
       </c>
       <c r="E111">
         <v>0.0019601492425684666</v>
@@ -4349,7 +4349,7 @@
         <v>0.0001410508791618368</v>
       </c>
       <c r="E113">
-        <v>0.001961108562389744</v>
+        <v>0.0019611085623897446</v>
       </c>
       <c r="F113">
         <v>4.857418823029942e-5</v>
@@ -4375,7 +4375,7 @@
         <v>0.0625</v>
       </c>
       <c r="B114">
-        <v>7.307166376077127</v>
+        <v>7.3071663760771255</v>
       </c>
       <c r="C114">
         <v>6.527832524159005e-7</v>
@@ -4410,16 +4410,16 @@
         <v>0.0635</v>
       </c>
       <c r="B115">
-        <v>7.308342769967661</v>
+        <v>7.30834276996766</v>
       </c>
       <c r="C115">
         <v>6.45322872388325e-7</v>
       </c>
       <c r="D115">
-        <v>0.00014649941976353542</v>
+        <v>0.00014649941976353545</v>
       </c>
       <c r="E115">
-        <v>0.001962063188898401</v>
+        <v>0.0019620631888984013</v>
       </c>
       <c r="F115">
         <v>4.858356524307368e-5</v>
@@ -4445,19 +4445,19 @@
         <v>0.0645</v>
       </c>
       <c r="B116">
-        <v>7.309512590037008</v>
+        <v>7.30951259003701</v>
       </c>
       <c r="C116">
         <v>6.378624923607051e-7</v>
       </c>
       <c r="D116">
-        <v>0.00014922412740024155</v>
+        <v>0.0001492241274002416</v>
       </c>
       <c r="E116">
-        <v>0.0019625387742165114</v>
+        <v>0.001962538774216511</v>
       </c>
       <c r="F116">
-        <v>4.858825174676744e-5</v>
+        <v>4.858825174676743e-5</v>
       </c>
       <c r="G116">
         <v>7.30951260658898</v>
@@ -4480,19 +4480,19 @@
         <v>0.0655</v>
       </c>
       <c r="B117">
-        <v>7.310675890193576</v>
+        <v>7.3106758901935756</v>
       </c>
       <c r="C117">
         <v>6.304021123330854e-7</v>
       </c>
       <c r="D117">
-        <v>0.00015194912241296216</v>
+        <v>0.00015194912241296214</v>
       </c>
       <c r="E117">
-        <v>0.001963013224323451</v>
+        <v>0.0019630132243234513</v>
       </c>
       <c r="F117">
-        <v>4.859293692061911e-5</v>
+        <v>4.8592936920619116e-5</v>
       </c>
       <c r="G117">
         <v>7.31067590617413</v>
@@ -4521,13 +4521,13 @@
         <v>6.229417323054657e-7</v>
       </c>
       <c r="D118">
-        <v>0.00015467440171884866</v>
+        <v>0.00015467440171884863</v>
       </c>
       <c r="E118">
-        <v>0.001963486551564818</v>
+        <v>0.0019634865515648185</v>
       </c>
       <c r="F118">
-        <v>4.859762076862795e-5</v>
+        <v>4.859762076862796e-5</v>
       </c>
       <c r="G118">
         <v>7.311832739230987</v>
@@ -4550,7 +4550,7 @@
         <v>0.0675</v>
       </c>
       <c r="B119">
-        <v>7.312983143725655</v>
+        <v>7.312983143725656</v>
       </c>
       <c r="C119">
         <v>6.154813522778458e-7</v>
@@ -4562,7 +4562,7 @@
         <v>0.0019639587681180935</v>
       </c>
       <c r="F119">
-        <v>4.8602303294818906e-5</v>
+        <v>4.86023032948189e-5</v>
       </c>
       <c r="G119">
         <v>7.312983158600456</v>
@@ -4585,7 +4585,7 @@
         <v>0.06849999999999999</v>
       </c>
       <c r="B120">
-        <v>7.314127202257597</v>
+        <v>7.314127202257598</v>
       </c>
       <c r="C120">
         <v>6.080209722502483e-7</v>
@@ -4594,7 +4594,7 @@
         <v>0.00016012580108642238</v>
       </c>
       <c r="E120">
-        <v>0.0019644298859952565</v>
+        <v>0.001964429885995257</v>
       </c>
       <c r="F120">
         <v>4.860698450324138e-5</v>
@@ -4620,19 +4620,19 @@
         <v>0.06949999999999999</v>
       </c>
       <c r="B121">
-        <v>7.3152649512001835</v>
+        <v>7.315264951200183</v>
       </c>
       <c r="C121">
         <v>6.005605922226284e-7</v>
       </c>
       <c r="D121">
-        <v>0.00016285191518818727</v>
+        <v>0.00016285191518818732</v>
       </c>
       <c r="E121">
         <v>0.0019648999170453502</v>
       </c>
       <c r="F121">
-        <v>4.8611664397968024e-5</v>
+        <v>4.861166439796802e-5</v>
       </c>
       <c r="G121">
         <v>7.315264965017586</v>
@@ -4661,13 +4661,13 @@
         <v>5.931002121950197e-7</v>
       </c>
       <c r="D122">
-        <v>0.00016557830166201654</v>
+        <v>0.00016557830166201657</v>
       </c>
       <c r="E122">
-        <v>0.0019653688729570104</v>
+        <v>0.001965368872957011</v>
       </c>
       <c r="F122">
-        <v>4.861634298309355e-5</v>
+        <v>4.861634298309354e-5</v>
       </c>
       <c r="G122">
         <v>7.3163964551395795</v>
@@ -4690,19 +4690,19 @@
         <v>0.0715</v>
       </c>
       <c r="B123">
-        <v>7.3175217249262</v>
+        <v>7.317521724926201</v>
       </c>
       <c r="C123">
         <v>5.856398321674221e-7</v>
       </c>
       <c r="D123">
-        <v>0.00016830495762706495</v>
+        <v>0.00016830495762706497</v>
       </c>
       <c r="E123">
-        <v>0.00196583676526095</v>
+        <v>0.0019658367652609495</v>
       </c>
       <c r="F123">
-        <v>4.862102026273355e-5</v>
+        <v>4.8621020262733556e-5</v>
       </c>
       <c r="G123">
         <v>7.317521737733304</v>
@@ -4725,7 +4725,7 @@
         <v>0.0725</v>
       </c>
       <c r="B124">
-        <v>7.318640850744321</v>
+        <v>7.3186408507443215</v>
       </c>
       <c r="C124">
         <v>5.781794521398134e-7</v>
@@ -4734,10 +4734,10 @@
         <v>0.00017103188024103765</v>
       </c>
       <c r="E124">
-        <v>0.0019663036053324066</v>
+        <v>0.001966303605332406</v>
       </c>
       <c r="F124">
-        <v>4.862569624102339e-5</v>
+        <v>4.8625696241023395e-5</v>
       </c>
       <c r="G124">
         <v>7.3186408630635515</v>
@@ -4760,16 +4760,16 @@
         <v>0.0735</v>
       </c>
       <c r="B125">
-        <v>7.3197538690527955</v>
+        <v>7.319753869052796</v>
       </c>
       <c r="C125">
         <v>5.707190721121716e-7</v>
       </c>
       <c r="D125">
-        <v>0.0001737590666995969</v>
+        <v>0.00017375906669959694</v>
       </c>
       <c r="E125">
-        <v>0.001966769404393545</v>
+        <v>0.0019667694043935444</v>
       </c>
       <c r="F125">
         <v>4.86303709221171e-5</v>
@@ -4795,19 +4795,19 @@
         <v>0.0745</v>
       </c>
       <c r="B126">
-        <v>7.320860829122392</v>
+        <v>7.320860829122393</v>
       </c>
       <c r="C126">
         <v>5.632586920845849e-7</v>
       </c>
       <c r="D126">
-        <v>0.00017648651423577823</v>
+        <v>0.00017648651423577826</v>
       </c>
       <c r="E126">
         <v>0.0019672341735158254</v>
       </c>
       <c r="F126">
-        <v>4.863504431018633e-5</v>
+        <v>4.863504431018632e-5</v>
       </c>
       <c r="G126">
         <v>7.32086084049968</v>
@@ -4836,10 +4836,10 @@
         <v>5.557983120569983e-7</v>
       </c>
       <c r="D127">
-        <v>0.00017921422011941572</v>
+        <v>0.00017921422011941566</v>
       </c>
       <c r="E127">
-        <v>0.0019676979236223314</v>
+        <v>0.001967697923622331</v>
       </c>
       <c r="F127">
         <v>4.863971640941925e-5</v>
@@ -4871,7 +4871,7 @@
         <v>5.483379320293896e-7</v>
       </c>
       <c r="D128">
-        <v>0.00018194218165657746</v>
+        <v>0.0001819421816565775</v>
       </c>
       <c r="E128">
         <v>0.001968160665490055</v>
@@ -4900,7 +4900,7 @@
         <v>0.0775</v>
       </c>
       <c r="B129">
-        <v>7.324145845294219</v>
+        <v>7.324145845294218</v>
       </c>
       <c r="C129">
         <v>5.408775520017367e-7</v>
@@ -4909,7 +4909,7 @@
         <v>0.00018467039618900983</v>
       </c>
       <c r="E129">
-        <v>0.001968622409752156</v>
+        <v>0.0019686224097521564</v>
       </c>
       <c r="F129">
         <v>4.864905675820581e-5</v>
@@ -4935,7 +4935,7 @@
         <v>0.0785</v>
       </c>
       <c r="B130">
-        <v>7.325229055402695</v>
+        <v>7.325229055402696</v>
       </c>
       <c r="C130">
         <v>5.33417171974128e-7</v>
@@ -4944,10 +4944,10 @@
         <v>0.00018739886109359063</v>
       </c>
       <c r="E130">
-        <v>0.001969083166900169</v>
+        <v>0.0019690831669001685</v>
       </c>
       <c r="F130">
-        <v>4.86537250162097e-5</v>
+        <v>4.865372501620971e-5</v>
       </c>
       <c r="G130">
         <v>7.325229065027262</v>
@@ -4976,7 +4976,7 @@
         <v>5.259567919465303e-7</v>
       </c>
       <c r="D131">
-        <v>0.0001901275737817915</v>
+        <v>0.00019012757378179145</v>
       </c>
       <c r="E131">
         <v>0.0019695429472861847</v>
@@ -5011,13 +5011,13 @@
         <v>5.184964119189326e-7</v>
       </c>
       <c r="D132">
-        <v>0.00019285653169914883</v>
+        <v>0.0001928565316991488</v>
       </c>
       <c r="E132">
         <v>0.0019700017611249962</v>
       </c>
       <c r="F132">
-        <v>4.866305772066098e-5</v>
+        <v>4.866305772066097e-5</v>
       </c>
       <c r="G132">
         <v>7.327378073461886</v>
@@ -5040,19 +5040,19 @@
         <v>0.0815</v>
       </c>
       <c r="B133">
-        <v>7.328443956148225</v>
+        <v>7.3284439561482255</v>
       </c>
       <c r="C133">
         <v>5.110360318913019e-7</v>
       </c>
       <c r="D133">
-        <v>0.00019558573232474405</v>
+        <v>0.00019558573232474408</v>
       </c>
       <c r="E133">
-        <v>0.001970459618496201</v>
+        <v>0.0019704596184962004</v>
       </c>
       <c r="F133">
-        <v>4.866772217563207e-5</v>
+        <v>4.8667722175632067e-5</v>
       </c>
       <c r="G133">
         <v>7.3284439645686135</v>
@@ -5075,7 +5075,7 @@
         <v>0.0825</v>
       </c>
       <c r="B134">
-        <v>7.329504166373344</v>
+        <v>7.329504166373343</v>
       </c>
       <c r="C134">
         <v>5.03575651863682e-7</v>
@@ -5119,7 +5119,7 @@
         <v>0.00020104485178163545</v>
       </c>
       <c r="E135">
-        <v>0.001971372503490609</v>
+        <v>0.0019713725034906093</v>
       </c>
       <c r="F135">
         <v>4.867704731245116e-5</v>
@@ -5154,10 +5154,10 @@
         <v>0.00020377476573425415</v>
       </c>
       <c r="E136">
-        <v>0.0019718275506155247</v>
+        <v>0.0019718275506155243</v>
       </c>
       <c r="F136">
-        <v>4.868170800288074e-5</v>
+        <v>4.868170800288073e-5</v>
       </c>
       <c r="G136">
         <v>7.3316077300454205</v>
@@ -5186,10 +5186,10 @@
         <v>4.81194511780867e-7</v>
       </c>
       <c r="D137">
-        <v>0.00020650491263677438</v>
+        <v>0.00020650491263677435</v>
       </c>
       <c r="E137">
-        <v>0.0019722816802802304</v>
+        <v>0.001972281680280231</v>
       </c>
       <c r="F137">
         <v>4.868636744705793e-5</v>
@@ -5221,7 +5221,7 @@
         <v>4.737341317532472e-7</v>
       </c>
       <c r="D138">
-        <v>0.00020923529012849157</v>
+        <v>0.00020923529012849151</v>
       </c>
       <c r="E138">
         <v>0.0019727349019187717</v>
@@ -5256,13 +5256,13 @@
         <v>4.6627375172563847e-7</v>
       </c>
       <c r="D139">
-        <v>0.000211965895879299</v>
+        <v>0.00021196589587929902</v>
       </c>
       <c r="E139">
         <v>0.0019731872248419315</v>
       </c>
       <c r="F139">
-        <v>4.869568261389927e-5</v>
+        <v>4.869568261389928e-5</v>
       </c>
       <c r="G139">
         <v>7.334721565764794</v>
@@ -5285,7 +5285,7 @@
         <v>0.08850000000000001</v>
       </c>
       <c r="B140">
-        <v>7.335748612590325</v>
+        <v>7.335748612590324</v>
       </c>
       <c r="C140">
         <v>4.588133716980629e-7</v>
@@ -5320,16 +5320,16 @@
         <v>0.08950000000000001</v>
       </c>
       <c r="B141">
-        <v>7.336770290548904</v>
+        <v>7.336770290548903</v>
       </c>
       <c r="C141">
         <v>4.5135299167044317e-7</v>
       </c>
       <c r="D141">
-        <v>0.00021742778298797504</v>
+        <v>0.00021742778298797498</v>
       </c>
       <c r="E141">
-        <v>0.0019740892111801776</v>
+        <v>0.001974089211180178</v>
       </c>
       <c r="F141">
         <v>4.870499284752017e-5</v>
@@ -5367,7 +5367,7 @@
         <v>0.001974538892617266</v>
       </c>
       <c r="F142">
-        <v>4.8709646125189475e-5</v>
+        <v>4.870964612518947e-5</v>
       </c>
       <c r="G142">
         <v>7.337786640723296</v>
@@ -5402,7 +5402,7 @@
         <v>0.001974987711386577</v>
       </c>
       <c r="F143">
-        <v>4.8714298182541004e-5</v>
+        <v>4.871429818254101e-5</v>
       </c>
       <c r="G143">
         <v>7.3387976937543</v>
@@ -5425,13 +5425,13 @@
         <v>0.09249999999999999</v>
       </c>
       <c r="B144">
-        <v>7.339803491733971</v>
+        <v>7.339803491733972</v>
       </c>
       <c r="C144">
         <v>4.2897185158760597e-7</v>
       </c>
       <c r="D144">
-        <v>0.00022562226905006698</v>
+        <v>0.000225622269050067</v>
       </c>
       <c r="E144">
         <v>0.001975435676210123</v>
@@ -5466,10 +5466,10 @@
         <v>4.215114715599862e-7</v>
       </c>
       <c r="D145">
-        <v>0.00022835419707923108</v>
+        <v>0.00022835419707923114</v>
       </c>
       <c r="E145">
-        <v>0.00197588279569746</v>
+        <v>0.0019758827956974597</v>
       </c>
       <c r="F145">
         <v>4.872359865363609e-5</v>
@@ -5495,19 +5495,19 @@
         <v>0.09449999999999999</v>
       </c>
       <c r="B146">
-        <v>7.341799509656447</v>
+        <v>7.341799509656448</v>
       </c>
       <c r="C146">
         <v>4.1405109153238855e-7</v>
       </c>
       <c r="D146">
-        <v>0.00023108633787550747</v>
+        <v>0.00023108633787550741</v>
       </c>
       <c r="E146">
-        <v>0.0019763290783473804</v>
+        <v>0.001976329078347381</v>
       </c>
       <c r="F146">
-        <v>4.872824707605694e-5</v>
+        <v>4.8728247076056946e-5</v>
       </c>
       <c r="G146">
         <v>7.341799513862252</v>
@@ -5530,7 +5530,7 @@
         <v>0.09549999999999999</v>
       </c>
       <c r="B147">
-        <v>7.342789804961132</v>
+        <v>7.342789804961131</v>
       </c>
       <c r="C147">
         <v>4.065907115047577e-7</v>
@@ -5542,7 +5542,7 @@
         <v>0.0019767745325495866</v>
       </c>
       <c r="F147">
-        <v>4.873289429551343e-5</v>
+        <v>4.873289429551342e-5</v>
       </c>
       <c r="G147">
         <v>7.342789808905533</v>
@@ -5565,19 +5565,19 @@
         <v>0.09649999999999999</v>
       </c>
       <c r="B148">
-        <v>7.343775010775375</v>
+        <v>7.343775010775376</v>
       </c>
       <c r="C148">
         <v>3.9913033147716006e-7</v>
       </c>
       <c r="D148">
-        <v>0.00023655124939057895</v>
+        <v>0.00023655124939057893</v>
       </c>
       <c r="E148">
-        <v>0.0019772191665863286</v>
+        <v>0.001977219166586328</v>
       </c>
       <c r="F148">
-        <v>4.873754031634619e-5</v>
+        <v>4.8737540316346194e-5</v>
       </c>
       <c r="G148">
         <v>7.3437750144667815</v>
@@ -5606,13 +5606,13 @@
         <v>3.916699514495734e-7</v>
       </c>
       <c r="D149">
-        <v>0.0002392840159862974</v>
+        <v>0.00023928401598629742</v>
       </c>
       <c r="E149">
-        <v>0.001977662988634021</v>
+        <v>0.0019776629886340204</v>
       </c>
       <c r="F149">
-        <v>4.8742185142895645e-5</v>
+        <v>4.874218514289565e-5</v>
       </c>
       <c r="G149">
         <v>7.34475516977144</v>
@@ -5635,19 +5635,19 @@
         <v>0.09849999999999999</v>
       </c>
       <c r="B150">
-        <v>7.345730310451847</v>
+        <v>7.345730310451846</v>
       </c>
       <c r="C150">
         <v>3.842095714219537e-7</v>
       </c>
       <c r="D150">
-        <v>0.0002420169871021828</v>
+        <v>0.00024201698710218288</v>
       </c>
       <c r="E150">
         <v>0.001978106006764831</v>
       </c>
       <c r="F150">
-        <v>4.8746828779501466e-5</v>
+        <v>4.874682877950146e-5</v>
       </c>
       <c r="G150">
         <v>7.345730313662066</v>
@@ -5740,16 +5740,16 @@
         <v>0.10149999999999999</v>
       </c>
       <c r="B153">
-        <v>7.348626057070098</v>
+        <v>7.348626057070097</v>
       </c>
       <c r="C153">
         <v>3.6182843133910544e-7</v>
       </c>
       <c r="D153">
-        <v>0.00025021710772638267</v>
+        <v>0.0002502171077263826</v>
       </c>
       <c r="E153">
-        <v>0.001979430316846551</v>
+        <v>0.0019794303168465506</v>
       </c>
       <c r="F153">
         <v>4.876075259303158e-5</v>
@@ -5784,7 +5784,7 @@
         <v>0.0002529508772026654</v>
       </c>
       <c r="E154">
-        <v>0.0019798701980006835</v>
+        <v>0.001979870198000684</v>
       </c>
       <c r="F154">
         <v>4.87653915132265e-5</v>
@@ -5810,19 +5810,19 @@
         <v>0.1035</v>
       </c>
       <c r="B155">
-        <v>7.350532192965035</v>
+        <v>7.350532192965036</v>
       </c>
       <c r="C155">
         <v>3.4690767128385487e-7</v>
       </c>
       <c r="D155">
-        <v>0.00025568484146188205</v>
+        <v>0.000255684841461882</v>
       </c>
       <c r="E155">
         <v>0.00198030931408883</v>
       </c>
       <c r="F155">
-        <v>4.8770029265147105e-5</v>
+        <v>4.877002926514711e-5</v>
       </c>
       <c r="G155">
         <v>7.350532195112212</v>
@@ -5845,7 +5845,7 @@
         <v>0.1045</v>
       </c>
       <c r="B156">
-        <v>7.351478063331197</v>
+        <v>7.351478063331199</v>
       </c>
       <c r="C156">
         <v>3.3944729125629036e-7</v>
@@ -5854,10 +5854,10 @@
         <v>0.00025841899862905814</v>
       </c>
       <c r="E156">
-        <v>0.0019807476725895853</v>
+        <v>0.001980747672589585</v>
       </c>
       <c r="F156">
-        <v>4.877466585311815e-5</v>
+        <v>4.8774665853118144e-5</v>
       </c>
       <c r="G156">
         <v>7.351478065288961</v>
@@ -5880,13 +5880,13 @@
         <v>0.1055</v>
       </c>
       <c r="B157">
-        <v>7.352419183796641</v>
+        <v>7.352419183796642</v>
       </c>
       <c r="C157">
         <v>3.319869112286596e-7</v>
       </c>
       <c r="D157">
-        <v>0.00026115334685254774</v>
+        <v>0.0002611533468525478</v>
       </c>
       <c r="E157">
         <v>0.0019811852808877023</v>
@@ -5921,10 +5921,10 @@
         <v>3.245265312010619e-7</v>
       </c>
       <c r="D158">
-        <v>0.000263887884303689</v>
+        <v>0.00026388788430368895</v>
       </c>
       <c r="E158">
-        <v>0.001981622146275486</v>
+        <v>0.0019816221462754862</v>
       </c>
       <c r="F158">
         <v>4.8783935554489595e-5</v>
@@ -5956,13 +5956,13 @@
         <v>3.170661511734421e-7</v>
       </c>
       <c r="D159">
-        <v>0.000266622609176466</v>
+        <v>0.00026662260917646594</v>
       </c>
       <c r="E159">
-        <v>0.0019820582759541576</v>
+        <v>0.001982058275954157</v>
       </c>
       <c r="F159">
-        <v>4.8788568676517403e-5</v>
+        <v>4.878856867651741e-5</v>
       </c>
       <c r="G159">
         <v>7.354287319815114</v>
@@ -5991,10 +5991,10 @@
         <v>3.0960577114584445e-7</v>
       </c>
       <c r="D160">
-        <v>0.0002693575196871765</v>
+        <v>0.00026935751968717645</v>
       </c>
       <c r="E160">
-        <v>0.0019824936770352</v>
+        <v>0.001982493677035201</v>
       </c>
       <c r="F160">
         <v>4.8793200651849606e-5</v>
@@ -6020,13 +6020,13 @@
         <v>0.1095</v>
       </c>
       <c r="B161">
-        <v>7.3561368799818405</v>
+        <v>7.35613687998184</v>
       </c>
       <c r="C161">
         <v>3.021453911182468e-7</v>
       </c>
       <c r="D161">
-        <v>0.0002720926140741045</v>
+        <v>0.00027209261407410454</v>
       </c>
       <c r="E161">
         <v>0.0019829283565416856</v>
@@ -6061,7 +6061,7 @@
         <v>2.9468501109063253e-7</v>
       </c>
       <c r="D162">
-        <v>0.00027482789059719804</v>
+        <v>0.000274827890597198</v>
       </c>
       <c r="E162">
         <v>0.0019833623214095685</v>
@@ -6090,7 +6090,7 @@
         <v>0.1115</v>
       </c>
       <c r="B163">
-        <v>7.35796814643192</v>
+        <v>7.3579681464319195</v>
       </c>
       <c r="C163">
         <v>2.872246310630183e-7</v>
@@ -6131,7 +6131,7 @@
         <v>2.7976425103539303e-7</v>
       </c>
       <c r="D164">
-        <v>0.00028029898319810226</v>
+        <v>0.00028029898319810215</v>
       </c>
       <c r="E164">
         <v>0.00198422813454545</v>
@@ -6166,7 +6166,7 @@
         <v>2.723038710077788e-7</v>
       </c>
       <c r="D165">
-        <v>0.00028303479590130714</v>
+        <v>0.0002830347959013072</v>
       </c>
       <c r="E165">
         <v>0.001984659996261213</v>
@@ -6230,19 +6230,19 @@
         <v>0.1155</v>
       </c>
       <c r="B167">
-        <v>7.361576878758128</v>
+        <v>7.361576878758127</v>
       </c>
       <c r="C167">
         <v>2.5738311095258897e-7</v>
       </c>
       <c r="D167">
-        <v>0.0002885069458303795</v>
+        <v>0.00028850694583037957</v>
       </c>
       <c r="E167">
-        <v>0.0019855216629900657</v>
+        <v>0.0019855216629900653</v>
       </c>
       <c r="F167">
-        <v>4.882559273211144e-5</v>
+        <v>4.882559273211145e-5</v>
       </c>
       <c r="G167">
         <v>7.361576879107942</v>
@@ -6265,7 +6265,7 @@
         <v>0.1165</v>
       </c>
       <c r="B168">
-        <v>7.36246804691511</v>
+        <v>7.362468046915109</v>
       </c>
       <c r="C168">
         <v>2.499227309249361e-7</v>
@@ -6274,7 +6274,7 @@
         <v>0.0002912432798033325</v>
       </c>
       <c r="E168">
-        <v>0.001985951480961771</v>
+        <v>0.0019859514809617705</v>
       </c>
       <c r="F168">
         <v>4.883021568813526e-5</v>
@@ -6300,19 +6300,19 @@
         <v>0.11750000000000001</v>
       </c>
       <c r="B169">
-        <v>7.363354874191988</v>
+        <v>7.363354874191987</v>
       </c>
       <c r="C169">
         <v>2.42462350897355e-7</v>
       </c>
       <c r="D169">
-        <v>0.0002939797843127341</v>
+        <v>0.00029397978431273405</v>
       </c>
       <c r="E169">
         <v>0.001986380630512332</v>
       </c>
       <c r="F169">
-        <v>4.8834837535919037e-5</v>
+        <v>4.883483753591903e-5</v>
       </c>
       <c r="G169">
         <v>7.363354874337865</v>
@@ -6335,19 +6335,19 @@
         <v>0.11850000000000001</v>
       </c>
       <c r="B170">
-        <v>7.364237392591978</v>
+        <v>7.364237392591977</v>
       </c>
       <c r="C170">
         <v>2.3500197086974076e-7</v>
       </c>
       <c r="D170">
-        <v>0.00029671645778087206</v>
+        <v>0.00029671645778087195</v>
       </c>
       <c r="E170">
-        <v>0.001986809117925164</v>
+        <v>0.0019868091179251644</v>
       </c>
       <c r="F170">
-        <v>4.8839458279696524e-5</v>
+        <v>4.883945827969653e-5</v>
       </c>
       <c r="G170">
         <v>7.364237392645511</v>
@@ -6379,7 +6379,7 @@
         <v>0.00029945329864902726</v>
       </c>
       <c r="E171">
-        <v>0.0019872369494073677</v>
+        <v>0.001987236949407368</v>
       </c>
       <c r="F171">
         <v>4.8844077923692674e-5</v>
@@ -6405,19 +6405,19 @@
         <v>0.12050000000000001</v>
       </c>
       <c r="B172">
-        <v>7.365989629256988</v>
+        <v>7.365989629256989</v>
       </c>
       <c r="C172">
         <v>2.2008121081450677e-7</v>
       </c>
       <c r="D172">
-        <v>0.0003021903053772012</v>
+        <v>0.00030219030537720126</v>
       </c>
       <c r="E172">
         <v>0.0019876641310908254</v>
       </c>
       <c r="F172">
-        <v>4.884869647212322e-5</v>
+        <v>4.8848696472123216e-5</v>
       </c>
       <c r="G172">
         <v>7.365989629144699</v>
@@ -6440,19 +6440,19 @@
         <v>0.1215</v>
       </c>
       <c r="B173">
-        <v>7.366859410021219</v>
+        <v>7.366859410021218</v>
       </c>
       <c r="C173">
         <v>2.126208307869367e-7</v>
       </c>
       <c r="D173">
-        <v>0.00030492747644384675</v>
+        <v>0.00030492747644384686</v>
       </c>
       <c r="E173">
-        <v>0.001988090669033293</v>
+        <v>0.0019880906690332933</v>
       </c>
       <c r="F173">
-        <v>4.885331392919452e-5</v>
+        <v>4.8853313929194524e-5</v>
       </c>
       <c r="G173">
         <v>7.366859409835294</v>
@@ -6475,13 +6475,13 @@
         <v>0.12249999999999998</v>
       </c>
       <c r="B174">
-        <v>7.367725006913514</v>
+        <v>7.367725006913516</v>
       </c>
       <c r="C174">
         <v>2.0516045075928932e-7</v>
       </c>
       <c r="D174">
-        <v>0.00030766481034560396</v>
+        <v>0.000307664810345604</v>
       </c>
       <c r="E174">
         <v>0.001988516569219465</v>
@@ -6510,7 +6510,7 @@
         <v>0.12349999999999998</v>
       </c>
       <c r="B175">
-        <v>7.368586450449502</v>
+        <v>7.368586450449503</v>
       </c>
       <c r="C175">
         <v>1.9770007073171375e-7</v>
@@ -6519,10 +6519,10 @@
         <v>0.00031040230559703974</v>
       </c>
       <c r="E175">
-        <v>0.0019889418375620286</v>
+        <v>0.0019889418375620277</v>
       </c>
       <c r="F175">
-        <v>4.886254558603625e-5</v>
+        <v>4.8862545586036257e-5</v>
       </c>
       <c r="G175">
         <v>7.368586450134495</v>
@@ -6551,7 +6551,7 @@
         <v>1.90239690704094e-7</v>
       </c>
       <c r="D176">
-        <v>0.00031313996073039204</v>
+        <v>0.0003131399607303921</v>
       </c>
       <c r="E176">
         <v>0.001989366479902693</v>
@@ -6580,19 +6580,19 @@
         <v>0.1255</v>
       </c>
       <c r="B177">
-        <v>7.370296998079021</v>
+        <v>7.37029699807902</v>
       </c>
       <c r="C177">
         <v>1.827793106764687e-7</v>
       </c>
       <c r="D177">
-        <v>0.00031587777429531786</v>
+        <v>0.00031587777429531775</v>
       </c>
       <c r="E177">
         <v>0.00198979050201321</v>
       </c>
       <c r="F177">
-        <v>4.8871772927671424e-5</v>
+        <v>4.887177292767142e-5</v>
       </c>
       <c r="G177">
         <v>7.370296997658686</v>
@@ -6615,13 +6615,13 @@
         <v>0.1265</v>
       </c>
       <c r="B178">
-        <v>7.371146161777185</v>
+        <v>7.371146161777186</v>
       </c>
       <c r="C178">
         <v>1.7531893064889865e-7</v>
       </c>
       <c r="D178">
-        <v>0.00031861574485864537</v>
+        <v>0.0003186157448586453</v>
       </c>
       <c r="E178">
         <v>0.001990213909596375</v>
@@ -6650,13 +6650,13 @@
         <v>0.1275</v>
       </c>
       <c r="B179">
-        <v>7.371991291334499</v>
+        <v>7.3719912913345</v>
       </c>
       <c r="C179">
         <v>1.678585506212789e-7</v>
       </c>
       <c r="D179">
-        <v>0.0003213538710041308</v>
+        <v>0.00032135387100413077</v>
       </c>
       <c r="E179">
         <v>0.001990636708287009</v>
@@ -6685,7 +6685,7 @@
         <v>0.1285</v>
       </c>
       <c r="B180">
-        <v>7.372832415858534</v>
+        <v>7.372832415858535</v>
       </c>
       <c r="C180">
         <v>1.6039817059365915e-7</v>
@@ -6694,10 +6694,10 @@
         <v>0.0003240921513322176</v>
       </c>
       <c r="E180">
-        <v>0.001991058903652929</v>
+        <v>0.0019910589036529285</v>
       </c>
       <c r="F180">
-        <v>4.888560592188279e-5</v>
+        <v>4.8885605921882794e-5</v>
       </c>
       <c r="G180">
         <v>7.372832415323515</v>
@@ -6726,10 +6726,10 @@
         <v>1.529377905660449e-7</v>
       </c>
       <c r="D181">
-        <v>0.0003268305844598011</v>
+        <v>0.00032683058445980115</v>
       </c>
       <c r="E181">
-        <v>0.0019914805011959002</v>
+        <v>0.0019914805011959007</v>
       </c>
       <c r="F181">
         <v>4.889021479830253e-5</v>
@@ -6790,16 +6790,16 @@
         <v>0.1315</v>
       </c>
       <c r="B183">
-        <v>7.375332046237739</v>
+        <v>7.375332046237738</v>
       </c>
       <c r="C183">
         <v>1.3801703051085233e-7</v>
       </c>
       <c r="D183">
-        <v>0.0003323079036619079</v>
+        <v>0.00033230790366190784</v>
       </c>
       <c r="E183">
-        <v>0.0019923219244954186</v>
+        <v>0.001992321924495419</v>
       </c>
       <c r="F183">
         <v>4.889942939335225e-5</v>
@@ -6825,7 +6825,7 @@
         <v>0.1325</v>
       </c>
       <c r="B184">
-        <v>7.376157436299755</v>
+        <v>7.376157436299754</v>
       </c>
       <c r="C184">
         <v>1.3055665048323256e-7</v>
@@ -6837,7 +6837,7 @@
         <v>0.0019927417609336066</v>
       </c>
       <c r="F184">
-        <v>4.890403512017071e-5</v>
+        <v>4.890403512017072e-5</v>
       </c>
       <c r="G184">
         <v>7.376157435689782</v>
@@ -6895,7 +6895,7 @@
         <v>0.1345</v>
       </c>
       <c r="B186">
-        <v>7.377796653370849</v>
+        <v>7.377796653370848</v>
       </c>
       <c r="C186">
         <v>1.1563589042799856e-7</v>
@@ -6907,7 +6907,7 @@
         <v>0.0019935797096216658</v>
       </c>
       <c r="F186">
-        <v>4.891324345277755e-5</v>
+        <v>4.891324345277754e-5</v>
       </c>
       <c r="G186">
         <v>7.377796652755626</v>
@@ -6930,7 +6930,7 @@
         <v>0.1355</v>
       </c>
       <c r="B187">
-        <v>7.378610535158368</v>
+        <v>7.378610535158367</v>
       </c>
       <c r="C187">
         <v>1.0817551040038433e-7</v>
@@ -6942,7 +6942,7 @@
         <v>0.0019939978321814504</v>
       </c>
       <c r="F187">
-        <v>4.89178460666829e-5</v>
+        <v>4.891784606668289e-5</v>
       </c>
       <c r="G187">
         <v>7.378610534548354</v>
@@ -6971,7 +6971,7 @@
         <v>1.00715130372806e-7</v>
       </c>
       <c r="D188">
-        <v>0.000346003781907232</v>
+        <v>0.0003460037819072319</v>
       </c>
       <c r="E188">
         <v>0.0019944153936581233</v>
@@ -7009,7 +7009,7 @@
         <v>0.00034874338953825744</v>
       </c>
       <c r="E189">
-        <v>0.001994832399057569</v>
+        <v>0.0019948323990575684</v>
       </c>
       <c r="F189">
         <v>4.8927048209897975e-5</v>
@@ -7035,19 +7035,19 @@
         <v>0.1385</v>
       </c>
       <c r="B190">
-        <v>7.381029596900037</v>
+        <v>7.381029596900036</v>
       </c>
       <c r="C190">
         <v>8.579437031753334e-8</v>
       </c>
       <c r="D190">
-        <v>0.00035148313822403544</v>
+        <v>0.0003514831382240354</v>
       </c>
       <c r="E190">
         <v>0.001995248853327536</v>
       </c>
       <c r="F190">
-        <v>4.893164774725053e-5</v>
+        <v>4.8931647747250534e-5</v>
       </c>
       <c r="G190">
         <v>7.381029596336242</v>
@@ -7076,13 +7076,13 @@
         <v>7.8333990289955e-8</v>
       </c>
       <c r="D191">
-        <v>0.0003542230267337958</v>
+        <v>0.0003542230267337957</v>
       </c>
       <c r="E191">
-        <v>0.001995664761358457</v>
+        <v>0.0019956647613584575</v>
       </c>
       <c r="F191">
-        <v>4.8936246267107246e-5</v>
+        <v>4.893624626710724e-5</v>
       </c>
       <c r="G191">
         <v>7.381828510780677</v>
@@ -7146,10 +7146,10 @@
         <v>6.341323023476242e-8</v>
       </c>
       <c r="D193">
-        <v>0.0003597032183724441</v>
+        <v>0.00035970321837244405</v>
       </c>
       <c r="E193">
-        <v>0.0019964949579830524</v>
+        <v>0.001996494957983052</v>
       </c>
       <c r="F193">
         <v>4.894544027027875e-5</v>
@@ -7210,19 +7210,19 @@
         <v>0.14350000000000002</v>
       </c>
       <c r="B195">
-        <v>7.384987664024516</v>
+        <v>7.384987664024515</v>
       </c>
       <c r="C195">
         <v>4.849247017949115e-8</v>
       </c>
       <c r="D195">
-        <v>0.0003651839548863788</v>
+        <v>0.00036518395488637883</v>
       </c>
       <c r="E195">
         <v>0.0019973230269383995</v>
       </c>
       <c r="F195">
-        <v>4.895463025117374e-5</v>
+        <v>4.8954630251173745e-5</v>
       </c>
       <c r="G195">
         <v>7.384987663636174</v>
@@ -7251,13 +7251,13 @@
         <v>4.1032090151912813e-8</v>
       </c>
       <c r="D196">
-        <v>0.00036792452454093526</v>
+        <v>0.0003679245245409352</v>
       </c>
       <c r="E196">
         <v>0.0019977362751794877</v>
       </c>
       <c r="F196">
-        <v>4.895922374313551e-5</v>
+        <v>4.895922374313552e-5</v>
       </c>
       <c r="G196">
         <v>7.385768452798586</v>
@@ -7356,7 +7356,7 @@
         <v>1.8650950069062858e-8</v>
       </c>
       <c r="D199">
-        <v>0.00037614702534431477</v>
+        <v>0.00037614702534431493</v>
       </c>
       <c r="E199">
         <v>0.0019989729295566117</v>
@@ -7385,13 +7385,13 @@
         <v>0.14850000000000002</v>
       </c>
       <c r="B200">
-        <v>7.388856359141054</v>
+        <v>7.388856359141055</v>
       </c>
       <c r="C200">
         <v>1.1190570041446549e-8</v>
       </c>
       <c r="D200">
-        <v>0.00037888811914741716</v>
+        <v>0.00037888811914741727</v>
       </c>
       <c r="E200">
         <v>0.0019993841324328627</v>
@@ -7420,19 +7420,19 @@
         <v>0.14950000000000002</v>
       </c>
       <c r="B201">
-        <v>7.389619644519689</v>
+        <v>7.389619644519688</v>
       </c>
       <c r="C201">
         <v>3.730190013869243e-9</v>
       </c>
       <c r="D201">
-        <v>0.0003816293412106668</v>
+        <v>0.00038162934121066674</v>
       </c>
       <c r="E201">
-        <v>0.0019997948349912524</v>
+        <v>0.001999794834991253</v>
       </c>
       <c r="F201">
-        <v>4.8982176374639184e-5</v>
+        <v>4.898217637463918e-5</v>
       </c>
       <c r="G201">
         <v>7.389619644495575</v>

--- a/examples/analytical/pHBB1991/pHBB1991.uniform2x_analytical.solution.xlsx
+++ b/examples/analytical/pHBB1991/pHBB1991.uniform2x_analytical.solution.xlsx
@@ -470,19 +470,19 @@
         <v>4.897147100062461e-5</v>
       </c>
       <c r="G2">
-        <v>8.142585266786366</v>
+        <v>8.142585266786346</v>
       </c>
       <c r="H2">
         <v>0.0002477371074365164</v>
       </c>
       <c r="I2">
-        <v>-1.1488416805370857e-7</v>
+        <v>-1.1488416805376069e-7</v>
       </c>
       <c r="J2">
-        <v>0.001999547524320317</v>
+        <v>0.0019995475243203323</v>
       </c>
       <c r="K2">
-        <v>4.897147101031176e-5</v>
+        <v>4.897147101031187e-5</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -505,19 +505,19 @@
         <v>4.894556247095243e-5</v>
       </c>
       <c r="G3">
-        <v>8.127532877625281</v>
+        <v>8.127532877625208</v>
       </c>
       <c r="H3">
-        <v>0.00024321132240234092</v>
+        <v>0.00024321132240234095</v>
       </c>
       <c r="I3">
-        <v>-3.4458816550221553e-7</v>
+        <v>-3.4458816550237154e-7</v>
       </c>
       <c r="J3">
-        <v>0.001998637269381808</v>
+        <v>0.001998637269381853</v>
       </c>
       <c r="K3">
-        <v>4.8945562499191275e-5</v>
+        <v>4.89455624991916e-5</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -540,19 +540,19 @@
         <v>4.8919795964202146e-5</v>
       </c>
       <c r="G4">
-        <v>8.112179604153841</v>
+        <v>8.112179604153699</v>
       </c>
       <c r="H4">
-        <v>0.00023868553734110855</v>
+        <v>0.00023868553734110858</v>
       </c>
       <c r="I4">
-        <v>-5.742006612636896e-7</v>
+        <v>-5.74200661263949e-7</v>
       </c>
       <c r="J4">
-        <v>0.0019977195689153903</v>
+        <v>0.001997719568915464</v>
       </c>
       <c r="K4">
-        <v>4.891979601011837e-5</v>
+        <v>4.891979601011885e-5</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -575,19 +575,19 @@
         <v>4.889419942647449e-5</v>
       </c>
       <c r="G5">
-        <v>8.096521820498229</v>
+        <v>8.09652182049801</v>
       </c>
       <c r="H5">
-        <v>0.00023415975225281945</v>
+        <v>0.00023415975225281948</v>
       </c>
       <c r="I5">
-        <v>-8.037143046540258e-7</v>
+        <v>-8.037143046543882e-7</v>
       </c>
       <c r="J5">
-        <v>0.0019967939506630836</v>
+        <v>0.0019967939506631855</v>
       </c>
       <c r="K5">
-        <v>4.8894199489160694e-5</v>
+        <v>4.889419948916133e-5</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -610,19 +610,19 @@
         <v>4.8868802641426976e-5</v>
       </c>
       <c r="G6">
-        <v>8.080556924711667</v>
+        <v>8.080556924711376</v>
       </c>
       <c r="H6">
-        <v>0.00022963396713747414</v>
+        <v>0.00022963396713747417</v>
       </c>
       <c r="I6">
-        <v>-1.0331211560352285e-6</v>
+        <v>-1.033121156035693e-6</v>
       </c>
       <c r="J6">
-        <v>0.001995859916034711</v>
+        <v>0.0019958599160348426</v>
       </c>
       <c r="K6">
-        <v>4.8868802719941956e-5</v>
+        <v>4.886880271994276e-5</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -645,19 +645,19 @@
         <v>4.884363721612476e-5</v>
       </c>
       <c r="G7">
-        <v>8.064283526982571</v>
+        <v>8.06428352698222</v>
       </c>
       <c r="H7">
-        <v>0.00022510818199507397</v>
+        <v>0.0002251081819950739</v>
       </c>
       <c r="I7">
-        <v>-1.2624126589571055e-6</v>
+        <v>-1.262412658957671e-6</v>
       </c>
       <c r="J7">
-        <v>0.0019949169408722306</v>
+        <v>0.001994916940872392</v>
       </c>
       <c r="K7">
-        <v>4.884363730949306e-5</v>
+        <v>4.884363730949404e-5</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -680,19 +680,19 @@
         <v>4.8818736530575095e-5</v>
       </c>
       <c r="G8">
-        <v>8.047701651569028</v>
+        <v>8.04770165156863</v>
       </c>
       <c r="H8">
-        <v>0.0002205823968256226</v>
+        <v>0.0002205823968256224</v>
       </c>
       <c r="I8">
-        <v>-1.4915796170217464e-6</v>
+        <v>-1.491579617022413e-6</v>
       </c>
       <c r="J8">
-        <v>0.0019939644768495633</v>
+        <v>0.001993964476849756</v>
       </c>
       <c r="K8">
-        <v>4.8818736637787064e-5</v>
+        <v>4.881873663778826e-5</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -715,19 +715,19 @@
         <v>4.8794135643607065e-5</v>
       </c>
       <c r="G9">
-        <v>8.030812949265123</v>
+        <v>8.030812949264691</v>
       </c>
       <c r="H9">
-        <v>0.0002160566116291297</v>
+        <v>0.0002160566116291294</v>
       </c>
       <c r="I9">
-        <v>-1.7206121772976115e-6</v>
+        <v>-1.7206121772983793e-6</v>
       </c>
       <c r="J9">
-        <v>0.0019930019536229253</v>
+        <v>0.00199300195362315</v>
       </c>
       <c r="K9">
-        <v>4.879413576361953e-5</v>
+        <v>4.879413576362097e-5</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -750,19 +750,19 @@
         <v>4.876987114765917e-5</v>
       </c>
       <c r="G10">
-        <v>8.013620915730273</v>
+        <v>8.013620915729813</v>
       </c>
       <c r="H10">
-        <v>0.00021153082640562032</v>
+        <v>0.00021153082640562</v>
       </c>
       <c r="I10">
-        <v>-1.949499822351636e-6</v>
+        <v>-1.9494998223525047e-6</v>
       </c>
       <c r="J10">
-        <v>0.001992028781845214</v>
+        <v>0.00199202878184547</v>
       </c>
       <c r="K10">
-        <v>4.876987127939668e-5</v>
+        <v>4.876987127939839e-5</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -785,19 +785,19 @@
         <v>4.874598096540581e-5</v>
       </c>
       <c r="G11">
-        <v>7.996131109350056</v>
+        <v>7.996131109349559</v>
       </c>
       <c r="H11">
-        <v>0.00020700504115515767</v>
+        <v>0.00020700504115515718</v>
       </c>
       <c r="I11">
-        <v>-2.178231373156468e-6</v>
+        <v>-2.1782313731574367e-6</v>
       </c>
       <c r="J11">
-        <v>0.0019910443571483642</v>
+        <v>0.0019910443571486513</v>
       </c>
       <c r="K11">
-        <v>4.874598110776286e-5</v>
+        <v>4.874598110776482e-5</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -820,19 +820,19 @@
         <v>4.872250408214116e-5</v>
       </c>
       <c r="G12">
-        <v>7.978351360527682</v>
+        <v>7.978351360527137</v>
       </c>
       <c r="H12">
-        <v>0.00020247925587789828</v>
+        <v>0.00020247925587789766</v>
       </c>
       <c r="I12">
-        <v>-2.4067950052265156e-6</v>
+        <v>-2.4067950052275825e-6</v>
       </c>
       <c r="J12">
-        <v>0.001990048065177383</v>
+        <v>0.0019900480651777</v>
       </c>
       <c r="K12">
-        <v>4.8722504233985144e-5</v>
+        <v>4.8722504233987374e-5</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -840,7 +840,7 @@
         <v>-0.038500000000000006</v>
       </c>
       <c r="B13">
-        <v>7.960291875725442</v>
+        <v>7.960291875725441</v>
       </c>
       <c r="C13">
         <v>0.00019795345788727807</v>
@@ -855,19 +855,19 @@
         <v>4.869948020958286e-5</v>
       </c>
       <c r="G13">
-        <v>7.960291962560388</v>
+        <v>7.960291962559801</v>
       </c>
       <c r="H13">
-        <v>0.00019795347057422198</v>
+        <v>0.00019795347057422128</v>
       </c>
       <c r="I13">
-        <v>-2.635178280293363e-6</v>
+        <v>-2.6351782802945267e-6</v>
       </c>
       <c r="J13">
-        <v>0.001989039287726922</v>
+        <v>0.0019890392877272693</v>
       </c>
       <c r="K13">
-        <v>4.869948036975822e-5</v>
+        <v>4.8699480369760716e-5</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -890,19 +890,19 @@
         <v>4.8676949379368536e-5</v>
       </c>
       <c r="G14">
-        <v>7.941965832717851</v>
+        <v>7.9419658327172185</v>
       </c>
       <c r="H14">
-        <v>0.000193427685245032</v>
+        <v>0.00019342768524503124</v>
       </c>
       <c r="I14">
-        <v>-2.863368195593306e-6</v>
+        <v>-2.8633681955945662e-6</v>
       </c>
       <c r="J14">
-        <v>0.00198801740998432</v>
+        <v>0.0019880174099846967</v>
       </c>
       <c r="K14">
-        <v>4.8676949546701894e-5</v>
+        <v>4.8676949546704665e-5</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -925,19 +925,19 @@
         <v>4.865495146802949e-5</v>
       </c>
       <c r="G15">
-        <v>7.9233886310420525</v>
+        <v>7.923388631041377</v>
       </c>
       <c r="H15">
-        <v>0.00018890189989243222</v>
+        <v>0.00018890189989243138</v>
       </c>
       <c r="I15">
-        <v>-3.0913512523455966e-6</v>
+        <v>-3.0913512523469523e-6</v>
       </c>
       <c r="J15">
-        <v>0.0019869818288218524</v>
+        <v>0.0019869818288222587</v>
       </c>
       <c r="K15">
-        <v>4.865495164133579e-5</v>
+        <v>4.8654951641338836e-5</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -960,19 +960,19 @@
         <v>4.863352565957487e-5</v>
       </c>
       <c r="G16">
-        <v>7.904578823992854</v>
+        <v>7.904578823992136</v>
       </c>
       <c r="H16">
-        <v>0.00018437611452122365</v>
+        <v>0.00018437611452122273</v>
       </c>
       <c r="I16">
-        <v>-3.3191135441793704e-6</v>
+        <v>-3.3191135441808205e-6</v>
       </c>
       <c r="J16">
-        <v>0.001985931962007138</v>
+        <v>0.0019859319620075732</v>
       </c>
       <c r="K16">
-        <v>4.8633525837664224e-5</v>
+        <v>4.863352583766754e-5</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -995,19 +995,19 @@
         <v>4.861270985680221e-5</v>
       </c>
       <c r="G17">
-        <v>7.885557680632643</v>
+        <v>7.885557680631884</v>
       </c>
       <c r="H17">
-        <v>0.00017985032914213974</v>
+        <v>0.0001798503291421388</v>
       </c>
       <c r="I17">
-        <v>-3.546640865033437e-6</v>
+        <v>-3.5466408650349795e-6</v>
       </c>
       <c r="J17">
-        <v>0.0019848672581182047</v>
+        <v>0.001984867258118669</v>
       </c>
       <c r="K17">
-        <v>4.861271003848723e-5</v>
+        <v>4.8612710038490814e-5</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1030,19 +1030,19 @@
         <v>4.8592540057708946e-5</v>
       </c>
       <c r="G18">
-        <v>7.866349190794826</v>
+        <v>7.866349190794029</v>
       </c>
       <c r="H18">
-        <v>0.00017532454377868853</v>
+        <v>0.00017532454377868756</v>
       </c>
       <c r="I18">
-        <v>-3.7739188342802365e-6</v>
+        <v>-3.7739188342818713e-6</v>
       </c>
       <c r="J18">
-        <v>0.0019837872068651508</v>
+        <v>0.0019837872068656443</v>
       </c>
       <c r="K18">
-        <v>4.859254024181143e-5</v>
+        <v>4.85925402418153e-5</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1065,19 +1065,19 @@
         <v>4.857304971840674e-5</v>
       </c>
       <c r="G19">
-        <v>7.846979897731867</v>
+        <v>7.846979897731035</v>
       </c>
       <c r="H19">
-        <v>0.0001707987584813067</v>
+        <v>0.00017079875848130565</v>
       </c>
       <c r="I19">
-        <v>-4.000933034301801e-6</v>
+        <v>-4.000933034303525e-6</v>
       </c>
       <c r="J19">
-        <v>0.0019826913494425916</v>
+        <v>0.001982691349443114</v>
       </c>
       <c r="K19">
-        <v>4.857304990376254e-5</v>
+        <v>4.857304990376669e-5</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1100,19 +1100,19 @@
         <v>4.855426912812127e-5</v>
       </c>
       <c r="G20">
-        <v>7.8274786420537925</v>
+        <v>7.827478642052928</v>
       </c>
       <c r="H20">
-        <v>0.00016627297335599771</v>
+        <v>0.00016627297335599663</v>
       </c>
       <c r="I20">
-        <v>-4.227669152087563e-6</v>
+        <v>-4.227669152089379e-6</v>
       </c>
       <c r="J20">
-        <v>0.0019815792884768264</v>
+        <v>0.001981579288477377</v>
       </c>
       <c r="K20">
-        <v>4.855426931358086e-5</v>
+        <v>4.8554269313585284e-5</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1135,19 +1135,19 @@
         <v>4.8536224824547784e-5</v>
       </c>
       <c r="G21">
-        <v>7.807876219121264</v>
+        <v>7.80787621912037</v>
       </c>
       <c r="H21">
-        <v>0.0001617471886209952</v>
+        <v>0.00016174718862099408</v>
       </c>
       <c r="I21">
-        <v>-4.454113110932354e-6</v>
+        <v>-4.45411311093426e-6</v>
       </c>
       <c r="J21">
-        <v>0.001980450697099808</v>
+        <v>0.001980450697100387</v>
       </c>
       <c r="K21">
-        <v>4.853622500896876e-5</v>
+        <v>4.853622500897346e-5</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1170,19 +1170,19 @@
         <v>4.851893907845918e-5</v>
       </c>
       <c r="G22">
-        <v>7.78820495802342</v>
+        <v>7.7882049580225</v>
       </c>
       <c r="H22">
-        <v>0.00015722140471638096</v>
+        <v>0.00015722140471637977</v>
       </c>
       <c r="I22">
-        <v>-4.680251169754949e-6</v>
+        <v>-4.680251169756943e-6</v>
       </c>
       <c r="J22">
-        <v>0.0019793053266883467</v>
+        <v>0.0019793053266889534</v>
       </c>
       <c r="K22">
-        <v>4.8518939260684636e-5</v>
+        <v>4.851893926068964e-5</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1205,19 +1205,19 @@
         <v>4.8502429474660436e-5</v>
       </c>
       <c r="G23">
-        <v>7.7684982362618635</v>
+        <v>7.768498236260919</v>
       </c>
       <c r="H23">
-        <v>0.00015269562251139248</v>
+        <v>0.00015269562251139123</v>
       </c>
       <c r="I23">
-        <v>-4.906069953860841e-6</v>
+        <v>-4.906069953862925e-6</v>
       </c>
       <c r="J23">
-        <v>0.0019781430128579976</v>
+        <v>0.001978143012858632</v>
       </c>
       <c r="K23">
-        <v>4.850242965347419e-5</v>
+        <v>4.850242965347948e-5</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1240,19 +1240,19 @@
         <v>4.848670861208554e-5</v>
       </c>
       <c r="G24">
-        <v>7.748789949607376</v>
+        <v>7.748789949606412</v>
       </c>
       <c r="H24">
-        <v>0.00014816984368760768</v>
+        <v>0.0001481698436876064</v>
       </c>
       <c r="I24">
-        <v>-5.131556358831891e-6</v>
+        <v>-5.131556358834061e-6</v>
       </c>
       <c r="J24">
-        <v>0.0019769636793989438</v>
+        <v>0.0019769636793996064</v>
       </c>
       <c r="K24">
-        <v>4.848670878613039e-5</v>
+        <v>4.8486708786135974e-5</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1275,19 +1275,19 @@
         <v>4.847178393933575e-5</v>
       </c>
       <c r="G25">
-        <v>7.729113960655582</v>
+        <v>7.7291139606546</v>
       </c>
       <c r="H25">
-        <v>0.00014364407143104243</v>
+        <v>0.00014364407143104113</v>
       </c>
       <c r="I25">
-        <v>-5.356697233649677e-6</v>
+        <v>-5.3566972336519345e-6</v>
       </c>
       <c r="J25">
-        <v>0.001975767339983094</v>
+        <v>0.001975767339983783</v>
       </c>
       <c r="K25">
-        <v>4.847178410697528e-5</v>
+        <v>4.8471784106981164e-5</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1295,7 +1295,7 @@
         <v>-0.025500000000000002</v>
       </c>
       <c r="B26">
-        <v>7.709503403710752</v>
+        <v>7.709503403710751</v>
       </c>
       <c r="C26">
         <v>0.00013911829077283716</v>
@@ -1310,19 +1310,19 @@
         <v>4.8457657733904146e-5</v>
       </c>
       <c r="G26">
-        <v>7.709503551897697</v>
+        <v>7.709503551896701</v>
       </c>
       <c r="H26">
-        <v>0.00013911831165333956</v>
+        <v>0.0001391183116533382</v>
       </c>
       <c r="I26">
-        <v>-5.581478693037332e-6</v>
+        <v>-5.581478693039673e-6</v>
       </c>
       <c r="J26">
-        <v>0.0019745540976505932</v>
+        <v>0.0019745540976513105</v>
       </c>
       <c r="K26">
-        <v>4.8457657893000806e-5</v>
+        <v>4.8457657893006966e-5</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1345,19 +1345,19 @@
         <v>4.844432722462207e-5</v>
       </c>
       <c r="G27">
-        <v>7.689990909417381</v>
+        <v>7.689990909416373</v>
       </c>
       <c r="H27">
-        <v>0.00013459257509618395</v>
+        <v>0.0001345925750961826</v>
       </c>
       <c r="I27">
-        <v>-5.805884822824683e-6</v>
+        <v>-5.805884822827106e-6</v>
       </c>
       <c r="J27">
-        <v>0.0019733241422910234</v>
+        <v>0.0019733241422917685</v>
       </c>
       <c r="K27">
-        <v>4.8444327372195256e-5</v>
+        <v>4.84443273722017e-5</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1380,19 +1380,19 @@
         <v>4.843178484850564e-5</v>
       </c>
       <c r="G28">
-        <v>7.6706066617108055</v>
+        <v>7.6706066617097886</v>
       </c>
       <c r="H28">
-        <v>0.0001300668808718682</v>
+        <v>0.00013006688087186682</v>
       </c>
       <c r="I28">
-        <v>-6.029895414103805e-6</v>
+        <v>-6.029895414106313e-6</v>
       </c>
       <c r="J28">
-        <v>0.001972077746561173</v>
+        <v>0.0019720777465619455</v>
       </c>
       <c r="K28">
-        <v>4.843178498022424e-5</v>
+        <v>4.8431784980230954e-5</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1415,19 +1415,19 @@
         <v>4.8420018626113226e-5</v>
       </c>
       <c r="G29">
-        <v>7.651379494987413</v>
+        <v>7.651379494986391</v>
       </c>
       <c r="H29">
-        <v>0.00012554126227689916</v>
+        <v>0.00012554126227689775</v>
       </c>
       <c r="I29">
-        <v>-6.253482178785128e-6</v>
+        <v>-6.253482178787722e-6</v>
       </c>
       <c r="J29">
-        <v>0.0019708152609220963</v>
+        <v>0.0019708152609228956</v>
       </c>
       <c r="K29">
-        <v>4.8420018735568226e-5</v>
+        <v>4.8420018735575205e-5</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1441,7 +1441,7 @@
         <v>0.00012101576982858889</v>
       </c>
       <c r="D30">
-        <v>-6.476559447589043e-6</v>
+        <v>-6.476559447589044e-6</v>
       </c>
       <c r="E30">
         <v>0.001969537095938893</v>
@@ -1450,19 +1450,19 @@
         <v>4.840901263445295e-5</v>
       </c>
       <c r="G30">
-        <v>7.632335862240744</v>
+        <v>7.632335862239717</v>
       </c>
       <c r="H30">
-        <v>0.00012101577610445846</v>
+        <v>0.00012101577610445705</v>
       </c>
       <c r="I30">
-        <v>-6.476602648119417e-6</v>
+        <v>-6.476602648122097e-6</v>
       </c>
       <c r="J30">
-        <v>0.0019695371087325225</v>
+        <v>0.001969537108733348</v>
       </c>
       <c r="K30">
-        <v>4.840901271215065e-5</v>
+        <v>4.8409012712157895e-5</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1485,19 +1485,19 @@
         <v>4.8398747553765485e-5</v>
       </c>
       <c r="G31">
-        <v>7.613499799062012</v>
+        <v>7.6134997990609845</v>
       </c>
       <c r="H31">
-        <v>0.00011649051718935831</v>
+        <v>0.00011649051718935686</v>
       </c>
       <c r="I31">
-        <v>-6.699190628040051e-6</v>
+        <v>-6.699190628042816e-6</v>
       </c>
       <c r="J31">
-        <v>0.001968243782606856</v>
+        <v>0.0019682437826077084</v>
       </c>
       <c r="K31">
-        <v>4.839874758578325e-5</v>
+        <v>4.839874758579077e-5</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1520,19 +1520,19 @@
         <v>4.8389201264132015e-5</v>
       </c>
       <c r="G32">
-        <v>7.594892855214418</v>
+        <v>7.594892855213391</v>
       </c>
       <c r="H32">
-        <v>0.00011196564054584228</v>
+        <v>0.0001119656405458408</v>
       </c>
       <c r="I32">
-        <v>-6.921141681355621e-6</v>
+        <v>-6.921141681358474e-6</v>
       </c>
       <c r="J32">
-        <v>0.001966935843538278</v>
+        <v>0.001966935843539157</v>
       </c>
       <c r="K32">
-        <v>4.8389201230391156e-5</v>
+        <v>4.838920123039895e-5</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1555,19 +1555,19 @@
         <v>4.8380349469456114e-5</v>
       </c>
       <c r="G33">
-        <v>7.576534147794717</v>
+        <v>7.576534147793693</v>
       </c>
       <c r="H33">
-        <v>0.00010744139417917083</v>
+        <v>0.00010744139417916934</v>
       </c>
       <c r="I33">
-        <v>-7.142291643920039e-6</v>
+        <v>-7.14229164392298e-6</v>
       </c>
       <c r="J33">
-        <v>0.0019656139245999</v>
+        <v>0.001965613924600806</v>
       </c>
       <c r="K33">
-        <v>4.838034934159408e-5</v>
+        <v>4.838034934160213e-5</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1590,19 +1590,19 @@
         <v>4.8372166329318e-5</v>
       </c>
       <c r="G34">
-        <v>7.558440539471495</v>
+        <v>7.5584405394704754</v>
       </c>
       <c r="H34">
-        <v>0.0001029181664034438</v>
+        <v>0.00010291816640344229</v>
       </c>
       <c r="I34">
-        <v>-7.362385701780857e-6</v>
+        <v>-7.362385701783886e-6</v>
       </c>
       <c r="J34">
-        <v>0.001964278741355745</v>
+        <v>0.0019642787413566777</v>
       </c>
       <c r="K34">
-        <v>4.837216606818923e-5</v>
+        <v>4.8372166068197554e-5</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1610,7 +1610,7 @@
         <v>-0.0165</v>
       </c>
       <c r="B35">
-        <v>7.5406276328006365</v>
+        <v>7.540627632800634</v>
       </c>
       <c r="C35">
         <v>9.839673213817795e-5</v>
@@ -1619,25 +1619,25 @@
         <v>-7.580862868537452e-6</v>
       </c>
       <c r="E35">
-        <v>0.0019629311709197725</v>
+        <v>0.001962931170919773</v>
       </c>
       <c r="F35">
         <v>4.8364625082746746e-5</v>
       </c>
       <c r="G35">
-        <v>7.540626943542678</v>
+        <v>7.540626943541664</v>
       </c>
       <c r="H35">
-        <v>9.839655216693716e-5</v>
+        <v>9.839655216693563e-5</v>
       </c>
       <c r="I35">
-        <v>-7.581035133686974e-6</v>
+        <v>-7.58103513369009e-6</v>
       </c>
       <c r="J35">
-        <v>0.001962931111402904</v>
+        <v>0.001962931111403864</v>
       </c>
       <c r="K35">
-        <v>4.836462463564943e-5</v>
+        <v>4.836462463565802e-5</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1660,19 +1660,19 @@
         <v>4.835769865133889e-5</v>
       </c>
       <c r="G36">
-        <v>7.523106755798651</v>
+        <v>7.523106755797643</v>
       </c>
       <c r="H36">
-        <v>9.387744329938114e-5</v>
+        <v>9.38774432993796e-5</v>
       </c>
       <c r="I36">
-        <v>-7.797658571141411e-6</v>
+        <v>-7.797658571144614e-6</v>
       </c>
       <c r="J36">
-        <v>0.001961571985661636</v>
+        <v>0.001961571985662622</v>
       </c>
       <c r="K36">
-        <v>4.8357697949152464e-5</v>
+        <v>4.835769794916129e-5</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1695,19 +1695,19 @@
         <v>4.8351360211727205e-5</v>
       </c>
       <c r="G37">
-        <v>7.505892410564352</v>
+        <v>7.505892410563352</v>
       </c>
       <c r="H37">
-        <v>8.936214752117528e-5</v>
+        <v>8.936214752117373e-5</v>
       </c>
       <c r="I37">
-        <v>-8.011404696736162e-6</v>
+        <v>-8.011404696739453e-6</v>
       </c>
       <c r="J37">
-        <v>0.0019602024940337387</v>
+        <v>0.001960202494034751</v>
       </c>
       <c r="K37">
-        <v>4.835135916624559e-5</v>
+        <v>4.835135916625468e-5</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1730,19 +1730,19 @@
         <v>4.834558372873538e-5</v>
       </c>
       <c r="G38">
-        <v>7.48899605387879</v>
+        <v>7.488996053877798</v>
       </c>
       <c r="H38">
-        <v>8.48525402171468e-5</v>
+        <v>8.485254021714522e-5</v>
       </c>
       <c r="I38">
-        <v>-8.221053867915528e-6</v>
+        <v>-8.221053867918907e-6</v>
       </c>
       <c r="J38">
-        <v>0.0019588240077338817</v>
+        <v>0.0019588240077349213</v>
       </c>
       <c r="K38">
-        <v>4.8345582230581644e-5</v>
+        <v>4.834558223059098e-5</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1765,19 +1765,19 @@
         <v>4.8340344440492046e-5</v>
       </c>
       <c r="G39">
-        <v>7.472430319717179</v>
+        <v>7.472430319716197</v>
       </c>
       <c r="H39">
-        <v>8.035125109375831e-5</v>
+        <v>8.035125109375673e-5</v>
       </c>
       <c r="I39">
-        <v>-8.42489739785119e-6</v>
+        <v>-8.424897397854656e-6</v>
       </c>
       <c r="J39">
-        <v>0.001957438219819827</v>
+        <v>0.0019574382198208925</v>
       </c>
       <c r="K39">
-        <v>4.834034235808237e-5</v>
+        <v>4.834034235809195e-5</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1800,19 +1800,19 @@
         <v>4.83356192854863e-5</v>
       </c>
       <c r="G40">
-        <v>7.456209184984439</v>
+        <v>7.456209184983464</v>
       </c>
       <c r="H40">
-        <v>7.586188467508918e-5</v>
+        <v>7.586188467508757e-5</v>
       </c>
       <c r="I40">
-        <v>-8.620595293318431e-6</v>
+        <v>-8.620595293321987e-6</v>
       </c>
       <c r="J40">
-        <v>0.00195604724406968</v>
+        <v>0.0019560472440707712</v>
       </c>
       <c r="K40">
-        <v>4.8335616465552526e-5</v>
+        <v>4.833561646556235e-5</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1835,19 +1835,19 @@
         <v>4.833138725950651e-5</v>
       </c>
       <c r="G41">
-        <v>7.440348865821326</v>
+        <v>7.440348865820361</v>
       </c>
       <c r="H41">
-        <v>7.138926904265712e-5</v>
+        <v>7.138926904265548e-5</v>
       </c>
       <c r="I41">
-        <v>-8.805016202239858e-6</v>
+        <v>-8.805016202243502e-6</v>
       </c>
       <c r="J41">
-        <v>0.0019546537302857483</v>
+        <v>0.0019546537302868655</v>
       </c>
       <c r="K41">
-        <v>4.833138352966363e-5</v>
+        <v>4.8331383529673686e-5</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1870,19 +1870,19 @@
         <v>4.832762968835614e-5</v>
       </c>
       <c r="G42">
-        <v>7.4248687024757505</v>
+        <v>7.424868702474794</v>
       </c>
       <c r="H42">
-        <v>6.693972139324861e-5</v>
+        <v>6.693972139324697e-5</v>
       </c>
       <c r="I42">
-        <v>-8.974067082161907e-6</v>
+        <v>-8.97406708216564e-6</v>
       </c>
       <c r="J42">
-        <v>0.0019532609913413446</v>
+        <v>0.0019532609913424878</v>
       </c>
       <c r="K42">
-        <v>4.832762486209588e-5</v>
+        <v>4.832762486210615e-5</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1905,19 +1905,19 @@
         <v>4.8324330401074976e-5</v>
       </c>
       <c r="G43">
-        <v>7.409791964399752</v>
+        <v>7.4097919643988055</v>
       </c>
       <c r="H43">
-        <v>6.252131227339024e-5</v>
+        <v>6.252131227338859e-5</v>
       </c>
       <c r="I43">
-        <v>-9.122524398770693e-6</v>
+        <v>-9.12252439877452e-6</v>
       </c>
       <c r="J43">
-        <v>0.0019518731339588067</v>
+        <v>0.001951873133959975</v>
       </c>
       <c r="K43">
-        <v>4.8324324285369784e-5</v>
+        <v>4.832432428538027e-5</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1940,19 +1940,19 @@
         <v>4.8321475788982486e-5</v>
       </c>
       <c r="G44">
-        <v>7.395146493945587</v>
+        <v>7.395146493944648</v>
       </c>
       <c r="H44">
-        <v>5.8144103479073845e-5</v>
+        <v>5.8144103479072205e-5</v>
       </c>
       <c r="I44">
-        <v>-9.24388302059027e-6</v>
+        <v>-9.243883020594188e-6</v>
       </c>
       <c r="J44">
-        <v>0.0019504951816123408</v>
+        <v>0.0019504951816135341</v>
       </c>
       <c r="K44">
-        <v>4.832146819440635e-5</v>
+        <v>4.8321468194417033e-5</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1975,19 +1975,19 @@
         <v>4.831905473886541e-5</v>
       </c>
       <c r="G45">
-        <v>7.3809650991804725</v>
+        <v>7.380965099179542</v>
       </c>
       <c r="H45">
-        <v>5.382032863462299e-5</v>
+        <v>5.382032863462137e-5</v>
       </c>
       <c r="I45">
-        <v>-9.330242712046782e-6</v>
+        <v>-9.330242712050797e-6</v>
       </c>
       <c r="J45">
-        <v>0.0019491331745674597</v>
+        <v>0.001949133174568678</v>
       </c>
       <c r="K45">
-        <v>4.8319045491803564e-5</v>
+        <v>4.8319045491814454e-5</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2010,19 +2010,19 @@
         <v>4.831705843430446e-5</v>
       </c>
       <c r="G46">
-        <v>7.367285607069441</v>
+        <v>7.367285607068518</v>
       </c>
       <c r="H46">
-        <v>4.9564481660954755e-5</v>
+        <v>4.9564481660953135e-5</v>
       </c>
       <c r="I46">
-        <v>-9.372254426494298e-6</v>
+        <v>-9.372254426498408e-6</v>
       </c>
       <c r="J46">
-        <v>0.0019477942295358707</v>
+        <v>0.001947794229537113</v>
       </c>
       <c r="K46">
-        <v>4.831704739048085e-5</v>
+        <v>4.8317047390491954e-5</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2030,13 +2030,13 @@
         <v>-0.004500000000000004</v>
       </c>
       <c r="B47">
-        <v>7.354180114224781</v>
+        <v>7.354180114224782</v>
       </c>
       <c r="C47">
         <v>4.540185690462495e-5</v>
       </c>
       <c r="D47">
-        <v>-9.353500809400847e-6</v>
+        <v>-9.353500809400859e-6</v>
       </c>
       <c r="E47">
         <v>0.001946490239482878</v>
@@ -2045,19 +2045,19 @@
         <v>4.831548002720117e-5</v>
       </c>
       <c r="G47">
-        <v>7.354150500116498</v>
+        <v>7.354150500115582</v>
       </c>
       <c r="H47">
-        <v>4.539327803319408e-5</v>
+        <v>4.5393278033192454e-5</v>
       </c>
       <c r="I47">
-        <v>-9.359148631628416e-6</v>
+        <v>-9.359148631632631e-6</v>
       </c>
       <c r="J47">
-        <v>0.0019464865404627608</v>
+        <v>0.0019464865404640258</v>
       </c>
       <c r="K47">
-        <v>4.8315467085452795e-5</v>
+        <v>4.831546708546409e-5</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2080,19 +2080,19 @@
         <v>4.831431419119431e-5</v>
       </c>
       <c r="G48">
-        <v>7.3416060837400865</v>
+        <v>7.341606083739175</v>
       </c>
       <c r="H48">
-        <v>4.132545802772402e-5</v>
+        <v>4.13254580277224e-5</v>
       </c>
       <c r="I48">
-        <v>-9.278864976421665e-6</v>
+        <v>-9.278864976425983e-6</v>
       </c>
       <c r="J48">
-        <v>0.0019452193032621818</v>
+        <v>0.0019452193032634692</v>
       </c>
       <c r="K48">
-        <v>4.831429930622462e-5</v>
+        <v>4.831429930623611e-5</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2115,19 +2115,19 @@
         <v>4.831355657859696e-5</v>
       </c>
       <c r="G49">
-        <v>7.329701167593484</v>
+        <v>7.329701167592578</v>
       </c>
       <c r="H49">
-        <v>3.738141069545883e-5</v>
+        <v>3.7381410695457216e-5</v>
       </c>
       <c r="I49">
-        <v>-9.118296372306132e-6</v>
+        <v>-9.11829637231056e-6</v>
       </c>
       <c r="J49">
-        <v>0.001944002551376957</v>
+        <v>0.0019440025513782666</v>
       </c>
       <c r="K49">
-        <v>4.831353977138679e-5</v>
+        <v>4.831353977139847e-5</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2150,19 +2150,19 @@
         <v>4.83132032113085e-5</v>
       </c>
       <c r="G50">
-        <v>7.318485289049928</v>
+        <v>7.318485289049026</v>
       </c>
       <c r="H50">
-        <v>3.358261194569086e-5</v>
+        <v>3.3582611945689256e-5</v>
       </c>
       <c r="I50">
-        <v>-8.863651138064169e-6</v>
+        <v>-8.863651138068709e-6</v>
       </c>
       <c r="J50">
-        <v>0.0019428468960072977</v>
+        <v>0.0019428468960086289</v>
       </c>
       <c r="K50">
-        <v>4.8313184575975844e-5</v>
+        <v>4.831318457598772e-5</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2185,19 +2185,19 @@
         <v>4.831324984256905e-5</v>
       </c>
       <c r="G51">
-        <v>7.308006556545282</v>
+        <v>7.308006556544384</v>
       </c>
       <c r="H51">
-        <v>2.9950888839102278e-5</v>
+        <v>2.995088883910068e-5</v>
       </c>
       <c r="I51">
-        <v>-8.500924952780712e-6</v>
+        <v>-8.50092495278538e-6</v>
       </c>
       <c r="J51">
-        <v>0.0019417631743750999</v>
+        <v>0.0019417631743764523</v>
       </c>
       <c r="K51">
-        <v>4.831322954873942e-5</v>
+        <v>4.831322954875149e-5</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2220,19 +2220,19 @@
         <v>4.831369132955279e-5</v>
       </c>
       <c r="G52">
-        <v>7.298309238407065</v>
+        <v>7.29830923840617</v>
       </c>
       <c r="H52">
-        <v>2.6507542998068457e-5</v>
+        <v>2.650754299806687e-5</v>
       </c>
       <c r="I52">
-        <v>-8.016461248808991e-6</v>
+        <v>-8.016461248813784e-6</v>
       </c>
       <c r="J52">
-        <v>0.001940762020550703</v>
+        <v>0.0019407620205520771</v>
       </c>
       <c r="K52">
-        <v>4.831366961969687e-5</v>
+        <v>4.8313669619709125e-5</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2255,19 +2255,19 @@
         <v>4.831452105635816e-5</v>
       </c>
       <c r="G53">
-        <v>7.2894312626691145</v>
+        <v>7.289431262668221</v>
       </c>
       <c r="H53">
-        <v>2.327238623596203e-5</v>
+        <v>2.327238623596045e-5</v>
       </c>
       <c r="I53">
-        <v>-7.397566069831335e-6</v>
+        <v>-7.397566069836267e-6</v>
       </c>
       <c r="J53">
-        <v>0.0019398533847271875</v>
+        <v>0.0019398533847285822</v>
       </c>
       <c r="K53">
-        <v>4.8314498238019146e-5</v>
+        <v>4.8314498238031573e-5</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2281,28 +2281,28 @@
         <v>2.0282702484804773e-5</v>
       </c>
       <c r="D54">
-        <v>-6.620129437104427e-6</v>
+        <v>-6.620129437104428e-6</v>
       </c>
       <c r="E54">
         <v>0.0019390549328125643</v>
       </c>
       <c r="F54">
-        <v>4.831573044325217e-5</v>
+        <v>4.8315730443252176e-5</v>
       </c>
       <c r="G54">
-        <v>7.281401819138732</v>
+        <v>7.28140181913784</v>
       </c>
       <c r="H54">
-        <v>2.0262758013647975e-5</v>
+        <v>2.0262758013646402e-5</v>
       </c>
       <c r="I54">
-        <v>-6.633133223334243e-6</v>
+        <v>-6.633133223339321e-6</v>
       </c>
       <c r="J54">
-        <v>0.0019390460366051107</v>
+        <v>0.0019390460366065256</v>
       </c>
       <c r="K54">
-        <v>4.831570687656331e-5</v>
+        <v>4.831570687657591e-5</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2325,19 +2325,19 @@
         <v>4.8317308571801674e-5</v>
       </c>
       <c r="G55">
-        <v>7.274239262082762</v>
+        <v>7.274239262081871</v>
       </c>
       <c r="H55">
-        <v>1.749260423971875e-5</v>
+        <v>1.7492604239717192e-5</v>
       </c>
       <c r="I55">
-        <v>-5.71422954792682e-6</v>
+        <v>-5.714229547932055e-6</v>
       </c>
       <c r="J55">
-        <v>0.001938347094932299</v>
+        <v>0.0019383470949337351</v>
       </c>
       <c r="K55">
-        <v>4.831728465312739e-5</v>
+        <v>4.831728465314015e-5</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2360,19 +2360,19 @@
         <v>4.831924194768367e-5</v>
       </c>
       <c r="G56">
-        <v>7.267949498009249</v>
+        <v>7.26794949800836</v>
       </c>
       <c r="H56">
-        <v>1.4971698053978224e-5</v>
+        <v>1.4971698053976675e-5</v>
       </c>
       <c r="I56">
-        <v>-4.634589601344446e-6</v>
+        <v>-4.634589601349848e-6</v>
       </c>
       <c r="J56">
-        <v>0.001937761626751204</v>
+        <v>0.0019377616267526607</v>
       </c>
       <c r="K56">
-        <v>4.8319218090565304e-5</v>
+        <v>4.831921809057824e-5</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2395,19 +2395,19 @@
         <v>4.832151441434018e-5</v>
       </c>
       <c r="G57">
-        <v>7.2625250085056345</v>
+        <v>7.262525008504746</v>
       </c>
       <c r="H57">
-        <v>1.2705074593530898e-5</v>
+        <v>1.2705074593529363e-5</v>
       </c>
       <c r="I57">
-        <v>-3.3909746111899574e-6</v>
+        <v>-3.3909746111955356e-6</v>
       </c>
       <c r="J57">
-        <v>0.0019372923557613034</v>
+        <v>0.0019372923557627805</v>
       </c>
       <c r="K57">
-        <v>4.8321491029160156e-5</v>
+        <v>4.8321491029173255e-5</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2430,19 +2430,19 @@
         <v>4.832410722180149e-5</v>
       </c>
       <c r="G58">
-        <v>7.257944606056482</v>
+        <v>7.257944606055595</v>
       </c>
       <c r="H58">
-        <v>1.0692733859896978e-5</v>
+        <v>1.0692733859895458e-5</v>
       </c>
       <c r="I58">
-        <v>-1.9833617620570607e-6</v>
+        <v>-1.983361762062825e-6</v>
       </c>
       <c r="J58">
-        <v>0.001936939509573123</v>
+        <v>0.0019369395095746198</v>
       </c>
       <c r="K58">
-        <v>4.832408469568551e-5</v>
+        <v>4.832408469569876e-5</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2456,7 +2456,7 @@
         <v>8.949585857645022e-6</v>
       </c>
       <c r="D59">
-        <v>-4.019345692247308e-7</v>
+        <v>-4.019345692247307e-7</v>
       </c>
       <c r="E59">
         <v>0.001936709751527726</v>
@@ -2465,19 +2465,19 @@
         <v>4.832699924624141e-5</v>
       </c>
       <c r="G59">
-        <v>7.254173956718905</v>
+        <v>7.25417395671802</v>
       </c>
       <c r="H59">
-        <v>8.929640718982265e-6</v>
+        <v>8.929640718980759e-6</v>
       </c>
       <c r="I59">
-        <v>-4.1494555591093233e-7</v>
+        <v>-4.149455559168938e-7</v>
       </c>
       <c r="J59">
-        <v>0.0019367008216808511</v>
+        <v>0.0019367008216823682</v>
       </c>
       <c r="K59">
-        <v>4.832697792469371e-5</v>
+        <v>4.832697792470709e-5</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2500,19 +2500,19 @@
         <v>4.8330167347267994e-5</v>
       </c>
       <c r="G60">
-        <v>7.251166834739165</v>
+        <v>7.2511668347382825</v>
       </c>
       <c r="H60">
-        <v>7.406022033904684e-6</v>
+        <v>7.4060220339031935e-6</v>
       </c>
       <c r="I60">
-        <v>1.3080489178484084e-6</v>
+        <v>1.308048917842241e-6</v>
       </c>
       <c r="J60">
-        <v>0.0019365716877047443</v>
+        <v>0.001936571687706281</v>
       </c>
       <c r="K60">
-        <v>4.83301475188828e-5</v>
+        <v>4.833014751889633e-5</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2520,7 +2520,7 @@
         <v>0.009499999999999995</v>
       </c>
       <c r="B61">
-        <v>7.2489190279924305</v>
+        <v>7.248919027992431</v>
       </c>
       <c r="C61">
         <v>6.125263095084021e-6</v>
@@ -2529,25 +2529,25 @@
         <v>3.1880487687880186e-6</v>
       </c>
       <c r="E61">
-        <v>0.0019365531960946229</v>
+        <v>0.001936553196094623</v>
       </c>
       <c r="F61">
-        <v>4.833358684172937e-5</v>
+        <v>4.8333586841729365e-5</v>
       </c>
       <c r="G61">
-        <v>7.248867008713399</v>
+        <v>7.248867008712519</v>
       </c>
       <c r="H61">
-        <v>6.1079318988517466e-6</v>
+        <v>6.1079318988502685e-6</v>
       </c>
       <c r="I61">
-        <v>3.176722836490059e-6</v>
+        <v>3.176722836483679e-6</v>
       </c>
       <c r="J61">
-        <v>0.0019365454592964219</v>
+        <v>0.0019365454592979788</v>
       </c>
       <c r="K61">
-        <v>4.83335687270527e-5</v>
+        <v>4.833356872706637e-5</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2555,34 +2555,34 @@
         <v>0.010499999999999995</v>
       </c>
       <c r="B62">
-        <v>7.247257412886861</v>
+        <v>7.247257412886859</v>
       </c>
       <c r="C62">
         <v>5.0337071096847305e-6</v>
       </c>
       <c r="D62">
-        <v>5.1902547445883375e-6</v>
+        <v>5.190254744588365e-6</v>
       </c>
       <c r="E62">
-        <v>0.0019366208278392342</v>
+        <v>0.0019366208278392347</v>
       </c>
       <c r="F62">
-        <v>4.833723206525853e-5</v>
+        <v>4.8337232065258525e-5</v>
       </c>
       <c r="G62">
-        <v>7.247210604508755</v>
+        <v>7.24721060450788</v>
       </c>
       <c r="H62">
-        <v>5.0180308555514175e-6</v>
+        <v>5.018030855549951e-6</v>
       </c>
       <c r="I62">
-        <v>5.17999690981626e-6</v>
+        <v>5.179996909809663e-6</v>
       </c>
       <c r="J62">
-        <v>0.001936613845469756</v>
+        <v>0.0019366138454713334</v>
       </c>
       <c r="K62">
-        <v>4.8337215810505407e-5</v>
+        <v>4.833721581051922e-5</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2590,34 +2590,34 @@
         <v>0.011499999999999996</v>
       </c>
       <c r="B63">
-        <v>7.246170055245896</v>
+        <v>7.246170055245895</v>
       </c>
       <c r="C63">
         <v>4.13040434011371e-6</v>
       </c>
       <c r="D63">
-        <v>7.314304758728769e-6</v>
+        <v>7.3143047587287966e-6</v>
       </c>
       <c r="E63">
         <v>0.0019367735553944686</v>
       </c>
       <c r="F63">
-        <v>4.8341076986509354e-5</v>
+        <v>4.834107698650936e-5</v>
       </c>
       <c r="G63">
-        <v>7.24612875325599</v>
+        <v>7.24612875325512</v>
       </c>
       <c r="H63">
-        <v>4.116507093001899e-6</v>
+        <v>4.116507093000445e-6</v>
       </c>
       <c r="I63">
-        <v>7.305195998049074e-6</v>
+        <v>7.305195998042251e-6</v>
       </c>
       <c r="J63">
-        <v>0.0019367673819193287</v>
+        <v>0.0019367673819209261</v>
       </c>
       <c r="K63">
-        <v>4.834106266240173e-5</v>
+        <v>4.8341062662415685e-5</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2631,7 +2631,7 @@
         <v>3.394133822880611e-6</v>
       </c>
       <c r="D64">
-        <v>9.546605062069183e-6</v>
+        <v>9.546605062069185e-6</v>
       </c>
       <c r="E64">
         <v>0.0019370012728420704</v>
@@ -2640,19 +2640,19 @@
         <v>4.834509583489927e-5</v>
       </c>
       <c r="G64">
-        <v>7.245550317342014</v>
+        <v>7.2455503173411495</v>
       </c>
       <c r="H64">
-        <v>3.382058990952865e-6</v>
+        <v>3.382058990951422e-6</v>
       </c>
       <c r="I64">
-        <v>9.538674363998473e-6</v>
+        <v>9.53867436399142e-6</v>
       </c>
       <c r="J64">
-        <v>0.0019369959251663623</v>
+        <v>0.00193699592516798</v>
       </c>
       <c r="K64">
-        <v>4.834508344042123e-5</v>
+        <v>4.834508344043531e-5</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2675,19 +2675,19 @@
         <v>4.834926370155124e-5</v>
       </c>
       <c r="G65">
-        <v>7.245404494539131</v>
+        <v>7.245404494538273</v>
       </c>
       <c r="H65">
-        <v>2.7928594905893505e-6</v>
+        <v>2.792859490587919e-6</v>
       </c>
       <c r="I65">
-        <v>1.1866431253986865e-5</v>
+        <v>1.1866431253979573e-5</v>
       </c>
       <c r="J65">
-        <v>0.0019372891301863413</v>
+        <v>0.001937289130187979</v>
       </c>
       <c r="K65">
-        <v>4.834925317197256e-5</v>
+        <v>4.834925317198677e-5</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2710,19 +2710,19 @@
         <v>4.835355707565237e-5</v>
       </c>
       <c r="G66">
-        <v>7.245623128144477</v>
+        <v>7.2456231281436265</v>
       </c>
       <c r="H66">
-        <v>2.3274326842273224e-6</v>
+        <v>2.3274326842259023e-6</v>
       </c>
       <c r="I66">
-        <v>1.4274672445669263e-5</v>
+        <v>1.4274672445661732e-5</v>
       </c>
       <c r="J66">
-        <v>0.001937636876674694</v>
+        <v>0.001937636876676352</v>
       </c>
       <c r="K66">
-        <v>4.835354829380567e-5</v>
+        <v>4.8353548293820003e-5</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2739,25 +2739,25 @@
         <v>1.675494001399116e-5</v>
       </c>
       <c r="E67">
-        <v>0.0019380326944604819</v>
+        <v>0.0019380326944604823</v>
       </c>
       <c r="F67">
-        <v>4.835795428473175e-5</v>
+        <v>4.835795428473176e-5</v>
       </c>
       <c r="G67">
-        <v>7.246142594452445</v>
+        <v>7.2461425944516025</v>
       </c>
       <c r="H67">
-        <v>1.9653895223105656e-6</v>
+        <v>1.9653895223091575e-6</v>
       </c>
       <c r="I67">
-        <v>1.6750283575078425e-5</v>
+        <v>1.675028357507065e-5</v>
       </c>
       <c r="J67">
-        <v>0.001938029618805665</v>
+        <v>0.001938029618807343</v>
       </c>
       <c r="K67">
-        <v>4.8357947094291784e-5</v>
+        <v>4.835794709430625e-5</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2780,19 +2780,19 @@
         <v>4.836243581685834e-5</v>
       </c>
       <c r="G68">
-        <v>7.246905191337441</v>
+        <v>7.246905191336606</v>
       </c>
       <c r="H68">
-        <v>1.6879897295801181e-6</v>
+        <v>1.6879897295787214e-6</v>
       </c>
       <c r="I68">
-        <v>1.9281193679765823e-5</v>
+        <v>1.9281193679757803e-5</v>
       </c>
       <c r="J68">
-        <v>0.001938458644458486</v>
+        <v>0.0019384586444601848</v>
       </c>
       <c r="K68">
-        <v>4.8362430036293734e-5</v>
+        <v>4.836243003630834e-5</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2815,19 +2815,19 @@
         <v>4.836698451428949e-5</v>
       </c>
       <c r="G69">
-        <v>7.247860005768654</v>
+        <v>7.247860005767828</v>
       </c>
       <c r="H69">
-        <v>1.478517831823158e-6</v>
+        <v>1.4785178318217724e-6</v>
       </c>
       <c r="I69">
-        <v>2.185662055220582e-5</v>
+        <v>2.1856620552197558e-5</v>
       </c>
       <c r="J69">
-        <v>0.0019389162407192255</v>
+        <v>0.0019389162407209444</v>
       </c>
       <c r="K69">
-        <v>4.8366979950243846e-5</v>
+        <v>4.836697995025858e-5</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2850,19 +2850,19 @@
         <v>4.837158564007961e-5</v>
       </c>
       <c r="G70">
-        <v>7.248963286845347</v>
+        <v>7.24896328684453</v>
       </c>
       <c r="H70">
-        <v>1.3224799088481877e-6</v>
+        <v>1.3224799088468131e-6</v>
       </c>
       <c r="I70">
-        <v>2.4467201459884034e-5</v>
+        <v>2.4467201459875527e-5</v>
       </c>
       <c r="J70">
-        <v>0.0019393957716607243</v>
+        <v>0.0019393957716624635</v>
       </c>
       <c r="K70">
-        <v>4.837158209916408e-5</v>
+        <v>4.837158209917894e-5</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2876,28 +2876,28 @@
         <v>1.2102025708319508e-6</v>
       </c>
       <c r="D71">
-        <v>2.710678436262409e-5</v>
+        <v>2.7106784362624094e-5</v>
       </c>
       <c r="E71">
         <v>0.0019398927883358037</v>
       </c>
       <c r="F71">
-        <v>4.8376226829932555e-5</v>
+        <v>4.837622682993255e-5</v>
       </c>
       <c r="G71">
-        <v>7.250178389172657</v>
+        <v>7.250178389171849</v>
       </c>
       <c r="H71">
-        <v>1.2076423368973943e-6</v>
+        <v>1.207642336896031e-6</v>
       </c>
       <c r="I71">
-        <v>2.710502226754269e-5</v>
+        <v>2.7105022267533926e-5</v>
       </c>
       <c r="J71">
-        <v>0.00193989168110792</v>
+        <v>0.0019398916811096793</v>
       </c>
       <c r="K71">
-        <v>4.8376224128231496e-5</v>
+        <v>4.837622412824648e-5</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2905,7 +2905,7 @@
         <v>0.020499999999999997</v>
       </c>
       <c r="B72">
-        <v>7.25148084131876</v>
+        <v>7.251480841318761</v>
       </c>
       <c r="C72">
         <v>1.1258322142056323e-6</v>
@@ -2914,25 +2914,25 @@
         <v>2.9764889622432736e-5</v>
       </c>
       <c r="E72">
-        <v>0.0019404002523193747</v>
+        <v>0.0019404002523193745</v>
       </c>
       <c r="F72">
-        <v>4.8380897949790805e-5</v>
+        <v>4.838089794979081e-5</v>
       </c>
       <c r="G72">
-        <v>7.251475376102595</v>
+        <v>7.251475376101798</v>
       </c>
       <c r="H72">
-        <v>1.1239433204114363e-6</v>
+        <v>1.123943320410084e-6</v>
       </c>
       <c r="I72">
-        <v>2.976356427841239e-5</v>
+        <v>2.9763564278403374e-5</v>
       </c>
       <c r="J72">
-        <v>0.001940399436999604</v>
+        <v>0.0019403994370013828</v>
       </c>
       <c r="K72">
-        <v>4.8380895919737305e-5</v>
+        <v>4.83808959197524e-5</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2955,19 +2955,19 @@
         <v>4.838559088448948e-5</v>
       </c>
       <c r="G73">
-        <v>7.252830382970377</v>
+        <v>7.252830382969589</v>
       </c>
       <c r="H73">
-        <v>1.0633123131877552e-6</v>
+        <v>1.063312313186414e-6</v>
       </c>
       <c r="I73">
-        <v>3.2437591064212305e-5</v>
+        <v>3.243759106420302e-5</v>
       </c>
       <c r="J73">
-        <v>0.001940915435213461</v>
+        <v>0.0019409154352152585</v>
       </c>
       <c r="K73">
-        <v>4.838558937910076e-5</v>
+        <v>4.838558937911598e-5</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2990,19 +2990,19 @@
         <v>4.8390299284105205e-5</v>
       </c>
       <c r="G74">
-        <v>7.2542248384907735</v>
+        <v>7.254224838489995</v>
       </c>
       <c r="H74">
-        <v>1.0194321186779618e-6</v>
+        <v>1.0194321186766321e-6</v>
       </c>
       <c r="I74">
-        <v>3.512299753718494e-5</v>
+        <v>3.51229975371754e-5</v>
       </c>
       <c r="J74">
-        <v>0.0019414368798122386</v>
+        <v>0.0019414368798140538</v>
       </c>
       <c r="K74">
-        <v>4.839029817883761e-5</v>
+        <v>4.839029817885294e-5</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3010,34 +3010,34 @@
         <v>0.023499999999999993</v>
       </c>
       <c r="B75">
-        <v>7.255646549596954</v>
+        <v>7.255646549596953</v>
       </c>
       <c r="C75">
         <v>9.881382667228709e-7</v>
       </c>
       <c r="D75">
-        <v>3.781716879031416e-5</v>
+        <v>3.781716879031418e-5</v>
       </c>
       <c r="E75">
-        <v>0.0019419619425920733</v>
+        <v>0.0019419619425920737</v>
       </c>
       <c r="F75">
-        <v>4.839501829284122e-5</v>
+        <v>4.839501829284121e-5</v>
       </c>
       <c r="G75">
-        <v>7.25564463092357</v>
+        <v>7.255644630922801</v>
       </c>
       <c r="H75">
-        <v>9.874746555357351e-7</v>
+        <v>9.87474655534417e-7</v>
       </c>
       <c r="I75">
-        <v>3.7816641219838625e-5</v>
+        <v>3.781664121982884e-5</v>
       </c>
       <c r="J75">
-        <v>0.0019419616542516627</v>
+        <v>0.0019419616542534948</v>
       </c>
       <c r="K75">
-        <v>4.839501748550237e-5</v>
+        <v>4.839501748551782e-5</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3060,19 +3060,19 @@
         <v>4.839974428125018e-5</v>
       </c>
       <c r="G76">
-        <v>7.257079288119266</v>
+        <v>7.257079288118507</v>
       </c>
       <c r="H76">
-        <v>9.638353998027335e-7</v>
+        <v>9.638353998014268e-7</v>
       </c>
       <c r="I76">
-        <v>4.0516171925482426e-5</v>
+        <v>4.051617192547236e-5</v>
       </c>
       <c r="J76">
-        <v>0.0019424881948515282</v>
+        <v>0.0019424881948533756</v>
       </c>
       <c r="K76">
-        <v>4.839974369049034e-5</v>
+        <v>4.839974369050591e-5</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3086,7 +3086,7 @@
         <v>9.461749295081832e-7</v>
       </c>
       <c r="D77">
-        <v>4.3220156221515145e-5</v>
+        <v>4.322015622151512e-5</v>
       </c>
       <c r="E77">
         <v>0.0019430155048473783</v>
@@ -3095,19 +3095,19 @@
         <v>4.8404474597323056e-5</v>
       </c>
       <c r="G77">
-        <v>7.258521220699182</v>
+        <v>7.258521220698432</v>
       </c>
       <c r="H77">
-        <v>9.458846451000548e-7</v>
+        <v>9.458846450987595e-7</v>
       </c>
       <c r="I77">
-        <v>4.3219871694782695e-5</v>
+        <v>4.321987169477239e-5</v>
       </c>
       <c r="J77">
-        <v>0.0019430153743764994</v>
+        <v>0.001943015374378362</v>
       </c>
       <c r="K77">
-        <v>4.8404474160227527e-5</v>
+        <v>4.84044741602432e-5</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3130,19 +3130,19 @@
         <v>4.8409207346426185e-5</v>
       </c>
       <c r="G78">
-        <v>7.259965058381297</v>
+        <v>7.2599650583805575</v>
       </c>
       <c r="H78">
-        <v>9.317470066573122e-7</v>
+        <v>9.317470066560286e-7</v>
       </c>
       <c r="I78">
-        <v>4.592651252390559e-5</v>
+        <v>4.592651252389501e-5</v>
       </c>
       <c r="J78">
-        <v>0.0019435424003634305</v>
+        <v>0.0019435424003653079</v>
       </c>
       <c r="K78">
-        <v>4.840920701566989e-5</v>
+        <v>4.8409207015685664e-5</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3165,19 +3165,19 @@
         <v>4.8413941205007614e-5</v>
       </c>
       <c r="G79">
-        <v>7.261407092902182</v>
+        <v>7.261407092901453</v>
       </c>
       <c r="H79">
-        <v>9.201147641127374e-7</v>
+        <v>9.201147641114651e-7</v>
       </c>
       <c r="I79">
-        <v>4.863523565052341e-5</v>
+        <v>4.8635235650512556e-5</v>
       </c>
       <c r="J79">
-        <v>0.0019440687301590072</v>
+        <v>0.001944068730160899</v>
       </c>
       <c r="K79">
-        <v>4.8413940945936204e-5</v>
+        <v>4.84139409459521e-5</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3185,34 +3185,34 @@
         <v>0.028499999999999998</v>
       </c>
       <c r="B80">
-        <v>7.26284501864452</v>
+        <v>7.262845018644519</v>
       </c>
       <c r="C80">
         <v>9.101555930183322e-7</v>
       </c>
       <c r="D80">
-        <v>5.1345588063187505e-5</v>
+        <v>5.13455880631875e-5</v>
       </c>
       <c r="E80">
-        <v>0.0019445940373794507</v>
+        <v>0.0019445940373794509</v>
       </c>
       <c r="F80">
-        <v>4.8418675268894285e-5</v>
+        <v>4.841867526889428e-5</v>
       </c>
       <c r="G80">
-        <v>7.262844828210018</v>
+        <v>7.262844828209298</v>
       </c>
       <c r="H80">
-        <v>9.10096087760707e-7</v>
+        <v>9.100960877594459e-7</v>
       </c>
       <c r="I80">
-        <v>5.1345453202707774e-5</v>
+        <v>5.134545320269666e-5</v>
       </c>
       <c r="J80">
-        <v>0.0019445940026276659</v>
+        <v>0.0019445940026295713</v>
       </c>
       <c r="K80">
-        <v>4.8418675056787755e-5</v>
+        <v>4.841867505680374e-5</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3235,19 +3235,19 @@
         <v>4.8423408934066534e-5</v>
       </c>
       <c r="G81">
-        <v>7.2642766298783785</v>
+        <v>7.264276629877668</v>
       </c>
       <c r="H81">
-        <v>9.010960293409778e-7</v>
+        <v>9.010960293397277e-7</v>
       </c>
       <c r="I81">
-        <v>5.4056770941512024e-5</v>
+        <v>5.405677094150065e-5</v>
       </c>
       <c r="J81">
-        <v>0.0019451179851597532</v>
+        <v>0.0019451179851616709</v>
       </c>
       <c r="K81">
-        <v>4.842340875173844e-5</v>
+        <v>4.8423408751754524e-5</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3261,28 +3261,28 @@
         <v>8.927336204944563e-7</v>
       </c>
       <c r="D82">
-        <v>5.676903113811684e-5</v>
+        <v>5.676903113811682e-5</v>
       </c>
       <c r="E82">
-        <v>0.0019456405477637597</v>
+        <v>0.0019456405477637595</v>
       </c>
       <c r="F82">
         <v>4.842814180600059e-5</v>
       </c>
       <c r="G82">
-        <v>7.265701460665512</v>
+        <v>7.265701460664811</v>
       </c>
       <c r="H82">
-        <v>8.927262747636088e-7</v>
+        <v>8.927262747623695e-7</v>
       </c>
       <c r="I82">
-        <v>5.676892957971075e-5</v>
+        <v>5.676892957969914e-5</v>
       </c>
       <c r="J82">
-        <v>0.001945640533872011</v>
+        <v>0.0019456405338739407</v>
       </c>
       <c r="K82">
-        <v>4.842814164180145e-5</v>
+        <v>4.8428141641817623e-5</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3305,19 +3305,19 @@
         <v>4.843287363284497e-5</v>
       </c>
       <c r="G83">
-        <v>7.267118687110486</v>
+        <v>7.267118687109795</v>
       </c>
       <c r="H83">
-        <v>8.847388187741635e-7</v>
+        <v>8.847388187729347e-7</v>
       </c>
       <c r="I83">
-        <v>5.948176159069527e-5</v>
+        <v>5.948176159068343e-5</v>
       </c>
       <c r="J83">
-        <v>0.0019461615646191354</v>
+        <v>0.0019461615646210767</v>
       </c>
       <c r="K83">
-        <v>4.8432873479075724e-5</v>
+        <v>4.8432873479091973e-5</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3340,19 +3340,19 @@
         <v>4.843760425760104e-5</v>
       </c>
       <c r="G84">
-        <v>7.26852794217394</v>
+        <v>7.268527942173258</v>
       </c>
       <c r="H84">
-        <v>8.769786471326947e-7</v>
+        <v>8.769786471314765e-7</v>
       </c>
       <c r="I84">
-        <v>6.21951603521486e-5</v>
+        <v>6.219516035213651e-5</v>
       </c>
       <c r="J84">
-        <v>0.0019466810324867956</v>
+        <v>0.0019466810324887476</v>
       </c>
       <c r="K84">
-        <v>4.843760410930189e-5</v>
+        <v>4.843760410931823e-5</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3360,34 +3360,34 @@
         <v>0.0335</v>
       </c>
       <c r="B85">
-        <v>7.2699290062790904</v>
+        <v>7.26992900627909</v>
       </c>
       <c r="C85">
         <v>8.693336000859928e-7</v>
       </c>
       <c r="D85">
-        <v>6.490914532737336e-5</v>
+        <v>6.490914532737337e-5</v>
       </c>
       <c r="E85">
-        <v>0.0019471989225223444</v>
+        <v>0.0019471989225223446</v>
       </c>
       <c r="F85">
-        <v>4.844233358485994e-5</v>
+        <v>4.844233358485993e-5</v>
       </c>
       <c r="G85">
-        <v>7.269929030390586</v>
+        <v>7.269929030389913</v>
       </c>
       <c r="H85">
-        <v>8.693509250292352e-7</v>
+        <v>8.693509250280277e-7</v>
       </c>
       <c r="I85">
-        <v>6.490905872131985e-5</v>
+        <v>6.490905872130753e-5</v>
       </c>
       <c r="J85">
-        <v>0.0019471989176851263</v>
+        <v>0.001947198917687089</v>
       </c>
       <c r="K85">
-        <v>4.844233343891917e-5</v>
+        <v>4.8442333438935596e-5</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3395,7 +3395,7 @@
         <v>0.0345</v>
       </c>
       <c r="B86">
-        <v>7.271321833412689</v>
+        <v>7.271321833412688</v>
       </c>
       <c r="C86">
         <v>8.61778996989178e-7</v>
@@ -3404,25 +3404,25 @@
         <v>6.762349988069645e-5</v>
       </c>
       <c r="E86">
-        <v>0.0019477152202450171</v>
+        <v>0.0019477152202450176</v>
       </c>
       <c r="F86">
         <v>4.844706155828918e-5</v>
       </c>
       <c r="G86">
-        <v>7.271321864132555</v>
+        <v>7.271321864131891</v>
       </c>
       <c r="H86">
-        <v>8.617988592832881e-7</v>
+        <v>8.61798859282091e-7</v>
       </c>
       <c r="I86">
-        <v>6.762341456188509e-5</v>
+        <v>6.762341456187256e-5</v>
       </c>
       <c r="J86">
-        <v>0.0019477152161041045</v>
+        <v>0.0019477152161060773</v>
       </c>
       <c r="K86">
-        <v>4.844706141280912e-5</v>
+        <v>4.8447061412825636e-5</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3445,19 +3445,19 @@
         <v>4.845178814579399e-5</v>
       </c>
       <c r="G87">
-        <v>7.27270642189436</v>
+        <v>7.272706421893705</v>
       </c>
       <c r="H87">
-        <v>8.542891533887152e-7</v>
+        <v>8.542891533875282e-7</v>
       </c>
       <c r="I87">
-        <v>7.033820122344936e-5</v>
+        <v>7.03382012234366e-5</v>
       </c>
       <c r="J87">
-        <v>0.0019482299331543668</v>
+        <v>0.001948229933156349</v>
       </c>
       <c r="K87">
-        <v>4.8451787999654095e-5</v>
+        <v>4.8451787999670683e-5</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3480,19 +3480,19 @@
         <v>4.845651332998603e-5</v>
       </c>
       <c r="G88">
-        <v>7.274082721684357</v>
+        <v>7.274082721683711</v>
       </c>
       <c r="H88">
-        <v>8.468026950533622e-7</v>
+        <v>8.468026950521856e-7</v>
       </c>
       <c r="I88">
-        <v>7.305340143891139e-5</v>
+        <v>7.305340143889838e-5</v>
       </c>
       <c r="J88">
-        <v>0.0019487430798525752</v>
+        <v>0.001948743079854567</v>
       </c>
       <c r="K88">
-        <v>4.845651318255073e-5</v>
+        <v>4.84565131825674e-5</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3500,34 +3500,34 @@
         <v>0.03749999999999999</v>
       </c>
       <c r="B89">
-        <v>7.27545076862078</v>
+        <v>7.275450768620779</v>
       </c>
       <c r="C89">
         <v>8.393065448313178e-7</v>
       </c>
       <c r="D89">
-        <v>7.576908831830933e-5</v>
+        <v>7.576908831830932e-5</v>
       </c>
       <c r="E89">
-        <v>0.0019492546745361868</v>
+        <v>0.0019492546745361872</v>
       </c>
       <c r="F89">
         <v>4.8461237102213726e-5</v>
       </c>
       <c r="G89">
-        <v>7.275450804474262</v>
+        <v>7.275450804473625</v>
       </c>
       <c r="H89">
-        <v>8.393287425925736e-7</v>
+        <v>8.393287425914073e-7</v>
       </c>
       <c r="I89">
-        <v>7.576900351028348e-5</v>
+        <v>7.576900351027024e-5</v>
       </c>
       <c r="J89">
-        <v>0.0019492546703954756</v>
+        <v>0.0019492546703974757</v>
       </c>
       <c r="K89">
-        <v>4.846123695314274e-5</v>
+        <v>4.846123695315946e-5</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3550,19 +3550,19 @@
         <v>4.8465959458914205e-5</v>
       </c>
       <c r="G90">
-        <v>7.276810724156375</v>
+        <v>7.276810724155747</v>
       </c>
       <c r="H90">
-        <v>8.318613843636166e-7</v>
+        <v>8.318613843624603e-7</v>
       </c>
       <c r="I90">
-        <v>7.848499898305022e-5</v>
+        <v>7.848499898303673e-5</v>
       </c>
       <c r="J90">
-        <v>0.0019497647206936312</v>
+        <v>0.0019497647206956393</v>
       </c>
       <c r="K90">
-        <v>4.846595930804262e-5</v>
+        <v>4.846595930805943e-5</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3576,7 +3576,7 @@
         <v>8.243752379148261e-7</v>
       </c>
       <c r="D91">
-        <v>8.12014666532701e-5</v>
+        <v>8.120146665327009e-5</v>
       </c>
       <c r="E91">
         <v>0.0019502732522291607</v>
@@ -3585,19 +3585,19 @@
         <v>4.8470680399437206e-5</v>
       </c>
       <c r="G91">
-        <v>7.2781625415965365</v>
+        <v>7.278162541595918</v>
       </c>
       <c r="H91">
-        <v>8.243974343506326e-7</v>
+        <v>8.243974343494865e-7</v>
       </c>
       <c r="I91">
-        <v>8.120138126211427e-5</v>
+        <v>8.120138126210057e-5</v>
       </c>
       <c r="J91">
-        <v>0.001950273247507044</v>
+        <v>0.0019502732475090608</v>
       </c>
       <c r="K91">
-        <v>4.847068024670187e-5</v>
+        <v>4.847068024671875e-5</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3611,28 +3611,28 @@
         <v>8.169131433372726e-7</v>
       </c>
       <c r="D92">
-        <v>8.391823054353181e-5</v>
+        <v>8.391823054353182e-5</v>
       </c>
       <c r="E92">
         <v>0.0019507802729984685</v>
       </c>
       <c r="F92">
-        <v>4.847539992477731e-5</v>
+        <v>4.84753999247773e-5</v>
       </c>
       <c r="G92">
-        <v>7.279506321196569</v>
+        <v>7.279506321195959</v>
       </c>
       <c r="H92">
-        <v>8.169352109757684e-7</v>
+        <v>8.16935210974633e-7</v>
       </c>
       <c r="I92">
-        <v>8.391814480746091e-5</v>
+        <v>8.391814480744695e-5</v>
       </c>
       <c r="J92">
-        <v>0.0019507802679483105</v>
+        <v>0.0019507802679503347</v>
       </c>
       <c r="K92">
-        <v>4.8475399770172646e-5</v>
+        <v>4.84753997701896e-5</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3655,19 +3655,19 @@
         <v>4.8480118036852004e-5</v>
       </c>
       <c r="G93">
-        <v>7.2808421289546</v>
+        <v>7.280842128953998</v>
       </c>
       <c r="H93">
-        <v>8.094738450015661e-7</v>
+        <v>8.094738450004411e-7</v>
       </c>
       <c r="I93">
-        <v>8.66352846774723e-5</v>
+        <v>8.66352846774581e-5</v>
       </c>
       <c r="J93">
-        <v>0.001951285799204425</v>
+        <v>0.001951285799206456</v>
       </c>
       <c r="K93">
-        <v>4.848011788040431e-5</v>
+        <v>4.848011788042134e-5</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3690,19 +3690,19 @@
         <v>4.8484834738099835e-5</v>
       </c>
       <c r="G94">
-        <v>7.282170031396899</v>
+        <v>7.282170031396306</v>
       </c>
       <c r="H94">
-        <v>8.020128963461782e-7</v>
+        <v>8.02012896345064e-7</v>
       </c>
       <c r="I94">
-        <v>8.93527962754311e-5</v>
+        <v>8.935279627541665e-5</v>
       </c>
       <c r="J94">
-        <v>0.0019517898583853968</v>
+        <v>0.001951789858387434</v>
       </c>
       <c r="K94">
-        <v>4.8484834579852586e-5</v>
+        <v>4.848483457986969e-5</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3725,19 +3725,19 @@
         <v>4.848955003126102e-5</v>
       </c>
       <c r="G95">
-        <v>7.283490095004229</v>
+        <v>7.2834900950036445</v>
       </c>
       <c r="H95">
-        <v>7.945521467760821e-7</v>
+        <v>7.945521467749784e-7</v>
       </c>
       <c r="I95">
-        <v>9.207067521182758e-5</v>
+        <v>9.20706752118129e-5</v>
       </c>
       <c r="J95">
-        <v>0.0019522924624445714</v>
+        <v>0.0019522924624466149</v>
       </c>
       <c r="K95">
-        <v>4.84895498712668e-5</v>
+        <v>4.848954987128397e-5</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3745,34 +3745,34 @@
         <v>0.0445</v>
       </c>
       <c r="B96">
-        <v>7.284802355059796</v>
+        <v>7.284802355059795</v>
       </c>
       <c r="C96">
         <v>7.87070155607161e-7</v>
       </c>
       <c r="D96">
-        <v>9.478900428170183e-5</v>
+        <v>9.478900428170177e-5</v>
       </c>
       <c r="E96">
-        <v>0.0019527936344972325</v>
+        <v>0.001952793634497233</v>
       </c>
       <c r="F96">
         <v>4.8494263919260226e-5</v>
       </c>
       <c r="G96">
-        <v>7.284802385911973</v>
+        <v>7.284802385911397</v>
       </c>
       <c r="H96">
-        <v>7.870914902877496e-7</v>
+        <v>7.870914902866563e-7</v>
       </c>
       <c r="I96">
-        <v>9.478891723105545e-5</v>
+        <v>9.478891723104058e-5</v>
       </c>
       <c r="J96">
-        <v>0.001952793628138517</v>
+        <v>0.0019527936281405656</v>
       </c>
       <c r="K96">
-        <v>4.849426375757626e-5</v>
+        <v>4.8494263757593484e-5</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3795,19 +3795,19 @@
         <v>4.8498976405144524e-5</v>
       </c>
       <c r="G97">
-        <v>7.286106969758203</v>
+        <v>7.286106969757636</v>
       </c>
       <c r="H97">
-        <v>7.796308764445006e-7</v>
+        <v>7.796308764434177e-7</v>
       </c>
       <c r="I97">
-        <v>9.750751817304935e-5</v>
+        <v>9.750751817303427e-5</v>
       </c>
       <c r="J97">
-        <v>0.0019532933720081956</v>
+        <v>0.0019532933720102495</v>
       </c>
       <c r="K97">
-        <v>4.84989762418304e-5</v>
+        <v>4.8498976241847665e-5</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3821,28 +3821,28 @@
         <v>7.721493441827683e-7</v>
       </c>
       <c r="D98">
-        <v>0.00010022656155594345</v>
+        <v>0.00010022656155594348</v>
       </c>
       <c r="E98">
-        <v>0.001953791717343578</v>
+        <v>0.0019537917173435785</v>
       </c>
       <c r="F98">
-        <v>4.850368749205097e-5</v>
+        <v>4.850368749205098e-5</v>
       </c>
       <c r="G98">
-        <v>7.287403911609801</v>
+        <v>7.2874039116092435</v>
       </c>
       <c r="H98">
-        <v>7.721702817383616e-7</v>
+        <v>7.721702817372889e-7</v>
       </c>
       <c r="I98">
-        <v>0.00010022647395343744</v>
+        <v>0.00010022647395342215</v>
       </c>
       <c r="J98">
-        <v>0.0019537917103713137</v>
+        <v>0.0019537917103733724</v>
       </c>
       <c r="K98">
-        <v>4.850368732716742e-5</v>
+        <v>4.8503687327184716e-5</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3865,19 +3865,19 @@
         <v>4.8508397183189445e-5</v>
       </c>
       <c r="G99">
-        <v>7.288693275928814</v>
+        <v>7.2886932759282645</v>
       </c>
       <c r="H99">
-        <v>7.647096954358532e-7</v>
+        <v>7.64709695434791e-7</v>
       </c>
       <c r="I99">
-        <v>0.00010294578055327732</v>
+        <v>0.00010294578055326186</v>
       </c>
       <c r="J99">
-        <v>0.0019542886593203837</v>
+        <v>0.0019542886593224467</v>
       </c>
       <c r="K99">
-        <v>4.8508397016797696e-5</v>
+        <v>4.850839701681502e-5</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3891,7 +3891,7 @@
         <v>7.572285746980027e-7</v>
       </c>
       <c r="D100">
-        <v>0.00010566552208561363</v>
+        <v>0.00010566552208561362</v>
       </c>
       <c r="E100">
         <v>0.001954784242275936</v>
@@ -3900,19 +3900,19 @@
         <v>4.8513105481833244e-5</v>
       </c>
       <c r="G100">
-        <v>7.289975126559052</v>
+        <v>7.28997512655851</v>
       </c>
       <c r="H100">
-        <v>7.572491127359337e-7</v>
+        <v>7.572491127348816e-7</v>
       </c>
       <c r="I100">
-        <v>0.00010566543401364136</v>
+        <v>0.00010566543401362571</v>
       </c>
       <c r="J100">
-        <v>0.0019547842347236283</v>
+        <v>0.0019547842347256957</v>
       </c>
       <c r="K100">
-        <v>4.851310531399476e-5</v>
+        <v>4.8513105314012124e-5</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3926,7 +3926,7 @@
         <v>7.497681935284183e-7</v>
       </c>
       <c r="D101">
-        <v>0.00010838551870795947</v>
+        <v>0.00010838551870795949</v>
       </c>
       <c r="E101">
         <v>0.0019552784600569383</v>
@@ -3935,19 +3935,19 @@
         <v>4.8517812391313546e-5</v>
       </c>
       <c r="G101">
-        <v>7.291249526722665</v>
+        <v>7.291249526722132</v>
       </c>
       <c r="H101">
-        <v>7.497885315347645e-7</v>
+        <v>7.497885315337229e-7</v>
       </c>
       <c r="I101">
-        <v>0.00010838543043260198</v>
+        <v>0.0001083854304325862</v>
       </c>
       <c r="J101">
-        <v>0.001955278452227253</v>
+        <v>0.001955278452229325</v>
       </c>
       <c r="K101">
-        <v>4.85178122220899e-5</v>
+        <v>4.851781222210729e-5</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -3961,28 +3961,28 @@
         <v>7.423078130411012e-7</v>
       </c>
       <c r="D102">
-        <v>0.00011110585442114462</v>
+        <v>0.00011110585442114464</v>
       </c>
       <c r="E102">
-        <v>0.0019557713353570223</v>
+        <v>0.0019557713353570228</v>
       </c>
       <c r="F102">
         <v>4.8522517915015854e-5</v>
       </c>
       <c r="G102">
-        <v>7.292516539021515</v>
+        <v>7.2925165390209905</v>
       </c>
       <c r="H102">
-        <v>7.423279509291494e-7</v>
+        <v>7.42327950928118e-7</v>
       </c>
       <c r="I102">
-        <v>0.00011110576596338223</v>
+        <v>0.0001111057659633663</v>
       </c>
       <c r="J102">
-        <v>0.001955771327258343</v>
+        <v>0.0019557713272604187</v>
       </c>
       <c r="K102">
-        <v>4.852251774446865e-5</v>
+        <v>4.852251774448605e-5</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4005,19 +4005,19 @@
         <v>4.8527222056377285e-5</v>
       </c>
       <c r="G103">
-        <v>7.293776225440803</v>
+        <v>7.293776225440287</v>
       </c>
       <c r="H103">
-        <v>7.348673705392e-7</v>
+        <v>7.348673705381787e-7</v>
       </c>
       <c r="I103">
-        <v>0.0001138264368130622</v>
+        <v>0.00011382643681304617</v>
       </c>
       <c r="J103">
-        <v>0.0019562628750280303</v>
+        <v>0.001956262875030108</v>
       </c>
       <c r="K103">
-        <v>4.852722188456806e-5</v>
+        <v>4.852722188458549e-5</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4025,34 +4025,34 @@
         <v>0.05249999999999999</v>
       </c>
       <c r="B104">
-        <v>7.295028622913623</v>
+        <v>7.295028622913622</v>
       </c>
       <c r="C104">
         <v>7.273870527342221e-7</v>
       </c>
       <c r="D104">
-        <v>0.00011654752800107092</v>
+        <v>0.0001165475280010709</v>
       </c>
       <c r="E104">
         <v>0.001956753119146473</v>
       </c>
       <c r="F104">
-        <v>4.853192481888431e-5</v>
+        <v>4.85319248188843e-5</v>
       </c>
       <c r="G104">
-        <v>7.295028647353741</v>
+        <v>7.295028647353232</v>
       </c>
       <c r="H104">
-        <v>7.2740679020837e-7</v>
+        <v>7.274067902073593e-7</v>
       </c>
       <c r="I104">
-        <v>0.00011654743924154896</v>
+        <v>0.00011654743924153275</v>
       </c>
       <c r="J104">
-        <v>0.0019567531105347457</v>
+        <v>0.0019567531105368252</v>
       </c>
       <c r="K104">
-        <v>4.853192464587464e-5</v>
+        <v>4.8531924645892066e-5</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4075,19 +4075,19 @@
         <v>4.8536626206070787e-5</v>
       </c>
       <c r="G105">
-        <v>7.296273865526688</v>
+        <v>7.296273865526187</v>
       </c>
       <c r="H105">
-        <v>7.199462098734541e-7</v>
+        <v>7.199462098724538e-7</v>
       </c>
       <c r="I105">
-        <v>0.00011926876956067186</v>
+        <v>0.00011926876956065549</v>
       </c>
       <c r="J105">
-        <v>0.0019572420485674947</v>
+        <v>0.0019572420485695755</v>
       </c>
       <c r="K105">
-        <v>4.853662603192217e-5</v>
+        <v>4.853662603193961e-5</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4110,19 +4110,19 @@
         <v>4.854132622151609e-5</v>
       </c>
       <c r="G106">
-        <v>7.297511940124503</v>
+        <v>7.297511940124011</v>
       </c>
       <c r="H106">
-        <v>7.124856295094493e-7</v>
+        <v>7.124856295084592e-7</v>
       </c>
       <c r="I106">
-        <v>0.00012199042413334053</v>
+        <v>0.00012199042413332398</v>
       </c>
       <c r="J106">
-        <v>0.001957729703709104</v>
+        <v>0.001957729703711186</v>
       </c>
       <c r="K106">
-        <v>4.854132604629001e-5</v>
+        <v>4.854132604630745e-5</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4130,34 +4130,34 @@
         <v>0.055499999999999994</v>
       </c>
       <c r="B107">
-        <v>7.298742908434457</v>
+        <v>7.298742908434458</v>
       </c>
       <c r="C107">
         <v>7.050059126112048e-7</v>
       </c>
       <c r="D107">
-        <v>0.00012471248842701863</v>
+        <v>0.00012471248842701858</v>
       </c>
       <c r="E107">
         <v>0.001958216099659235</v>
       </c>
       <c r="F107">
-        <v>4.854602486884329e-5</v>
+        <v>4.85460248688433e-5</v>
       </c>
       <c r="G107">
-        <v>7.2987429307159735</v>
+        <v>7.2987429307154885</v>
       </c>
       <c r="H107">
-        <v>7.050250491066643e-7</v>
+        <v>7.050250491056847e-7</v>
       </c>
       <c r="I107">
-        <v>0.0001247123993727365</v>
+        <v>0.00012471239937271984</v>
       </c>
       <c r="J107">
-        <v>0.0019582160903394313</v>
+        <v>0.0019582160903415147</v>
       </c>
       <c r="K107">
-        <v>4.8546024692601194e-5</v>
+        <v>4.854602469261863e-5</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -4180,19 +4180,19 @@
         <v>4.8550722151717454e-5</v>
       </c>
       <c r="G108">
-        <v>7.299966896279285</v>
+        <v>7.299966896278808</v>
       </c>
       <c r="H108">
-        <v>6.975644686614187e-7</v>
+        <v>6.975644686604494e-7</v>
       </c>
       <c r="I108">
-        <v>0.00012743469174152677</v>
+        <v>0.00012743469174150994</v>
       </c>
       <c r="J108">
-        <v>0.001958701222638529</v>
+        <v>0.0019587012226406136</v>
       </c>
       <c r="K108">
-        <v>4.855072197452074e-5</v>
+        <v>4.855072197453817e-5</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -4206,7 +4206,7 @@
         <v>6.900851525541981e-7</v>
       </c>
       <c r="D109">
-        <v>0.0001301573868964721</v>
+        <v>0.00013015738689647205</v>
       </c>
       <c r="E109">
         <v>0.0019591851243412773</v>
@@ -4215,19 +4215,19 @@
         <v>4.8555418073843894e-5</v>
       </c>
       <c r="G109">
-        <v>7.301183895207498</v>
+        <v>7.3011838952070285</v>
       </c>
       <c r="H109">
-        <v>6.901038881723429e-7</v>
+        <v>6.901038881713841e-7</v>
       </c>
       <c r="I109">
-        <v>0.00013015729775109255</v>
+        <v>0.00013015729775107558</v>
       </c>
       <c r="J109">
-        <v>0.0019591851145897617</v>
+        <v>0.001959185114591846</v>
       </c>
       <c r="K109">
-        <v>4.855541789575395e-5</v>
+        <v>4.8555417895771364e-5</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -4241,7 +4241,7 @@
         <v>6.826247725264237e-7</v>
       </c>
       <c r="D110">
-        <v>0.00013288030312004086</v>
+        <v>0.00013288030312004088</v>
       </c>
       <c r="E110">
         <v>0.0019596677899383053</v>
@@ -4250,19 +4250,19 @@
         <v>4.8560112638966645e-5</v>
       </c>
       <c r="G110">
-        <v>7.302393985314026</v>
+        <v>7.302393985313564</v>
       </c>
       <c r="H110">
-        <v>6.826433076389375e-7</v>
+        <v>6.826433076379891e-7</v>
       </c>
       <c r="I110">
-        <v>0.0001328802139607723</v>
+        <v>0.0001328802139607552</v>
       </c>
       <c r="J110">
-        <v>0.0019596677799828717</v>
+        <v>0.0019596677799849555</v>
       </c>
       <c r="K110">
-        <v>4.85601124600448e-5</v>
+        <v>4.8560112460062194e-5</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -4285,19 +4285,19 @@
         <v>4.856480585086677e-5</v>
       </c>
       <c r="G111">
-        <v>7.303597223838104</v>
+        <v>7.30359722383765</v>
       </c>
       <c r="H111">
-        <v>6.751827270610242e-7</v>
+        <v>6.751827270600863e-7</v>
       </c>
       <c r="I111">
-        <v>0.00013560343697711675</v>
+        <v>0.00013560343697709953</v>
       </c>
       <c r="J111">
-        <v>0.0019601492324170014</v>
+        <v>0.0019601492324190836</v>
       </c>
       <c r="K111">
-        <v>4.856480567117432e-5</v>
+        <v>4.856480567119168e-5</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -4320,19 +4320,19 @@
         <v>4.856949771336083e-5</v>
       </c>
       <c r="G112">
-        <v>7.304793667450246</v>
+        <v>7.3047936674497995</v>
       </c>
       <c r="H112">
-        <v>6.677221464385406e-7</v>
+        <v>6.677221464376132e-7</v>
       </c>
       <c r="I112">
-        <v>0.0001383269634531563</v>
+        <v>0.00013832696345313894</v>
       </c>
       <c r="J112">
-        <v>0.0019606294853036646</v>
+        <v>0.001960629485305745</v>
       </c>
       <c r="K112">
-        <v>4.856949753295906e-5</v>
+        <v>4.8569497532976354e-5</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -4355,19 +4355,19 @@
         <v>4.857418823029942e-5</v>
       </c>
       <c r="G113">
-        <v>7.305983372257693</v>
+        <v>7.305983372257253</v>
       </c>
       <c r="H113">
-        <v>6.602615657714652e-7</v>
+        <v>6.602615657705481e-7</v>
       </c>
       <c r="I113">
-        <v>0.00014105079008767992</v>
+        <v>0.00014105079008766246</v>
       </c>
       <c r="J113">
-        <v>0.001961108551869671</v>
+        <v>0.0019611085518717493</v>
       </c>
       <c r="K113">
-        <v>4.857418804924954e-5</v>
+        <v>4.857418804926679e-5</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -4390,19 +4390,19 @@
         <v>4.857887740556564e-5</v>
       </c>
       <c r="G114">
-        <v>7.307166393809834</v>
+        <v>7.307166393809402</v>
       </c>
       <c r="H114">
-        <v>6.528009850597907e-7</v>
+        <v>6.528009850588838e-7</v>
       </c>
       <c r="I114">
-        <v>0.00014377491362452556</v>
+        <v>0.000143774913624508</v>
       </c>
       <c r="J114">
-        <v>0.001961586445160005</v>
+        <v>0.0019615864451620808</v>
       </c>
       <c r="K114">
-        <v>4.857887722392884e-5</v>
+        <v>4.857887722394604e-5</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -4410,13 +4410,13 @@
         <v>0.0635</v>
       </c>
       <c r="B115">
-        <v>7.30834276996766</v>
+        <v>7.308342769967661</v>
       </c>
       <c r="C115">
         <v>6.45322872388325e-7</v>
       </c>
       <c r="D115">
-        <v>0.00014649941976353545</v>
+        <v>0.00014649941976353548</v>
       </c>
       <c r="E115">
         <v>0.0019620631888984013</v>
@@ -4425,19 +4425,19 @@
         <v>4.858356524307368e-5</v>
       </c>
       <c r="G115">
-        <v>7.3083427871036255</v>
+        <v>7.308342787103201</v>
       </c>
       <c r="H115">
-        <v>6.453404043035148e-7</v>
+        <v>6.453404043026183e-7</v>
       </c>
       <c r="I115">
-        <v>0.0001464993308518818</v>
+        <v>0.00014649933085186416</v>
       </c>
       <c r="J115">
-        <v>0.001962063178040657</v>
+        <v>0.0019620631780427294</v>
       </c>
       <c r="K115">
-        <v>4.858356506091111e-5</v>
+        <v>4.858356506092826e-5</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -4445,7 +4445,7 @@
         <v>0.0645</v>
       </c>
       <c r="B116">
-        <v>7.30951259003701</v>
+        <v>7.309512590037008</v>
       </c>
       <c r="C116">
         <v>6.378624923607051e-7</v>
@@ -4460,19 +4460,19 @@
         <v>4.858825174676743e-5</v>
       </c>
       <c r="G116">
-        <v>7.30951260658898</v>
+        <v>7.309512606588561</v>
       </c>
       <c r="H116">
-        <v>6.378798235026366e-7</v>
+        <v>6.378798235017505e-7</v>
       </c>
       <c r="I116">
-        <v>0.00014922403860160089</v>
+        <v>0.00014922403860158313</v>
       </c>
       <c r="J116">
-        <v>0.0019625387632014094</v>
+        <v>0.001962538763203478</v>
       </c>
       <c r="K116">
-        <v>4.8588251564140216e-5</v>
+        <v>4.8588251564157305e-5</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -4480,7 +4480,7 @@
         <v>0.0655</v>
       </c>
       <c r="B117">
-        <v>7.3106758901935756</v>
+        <v>7.310675890193575</v>
       </c>
       <c r="C117">
         <v>6.304021123330854e-7</v>
@@ -4492,22 +4492,22 @@
         <v>0.0019630132243234513</v>
       </c>
       <c r="F117">
-        <v>4.8592936920619116e-5</v>
+        <v>4.85929369206191e-5</v>
       </c>
       <c r="G117">
-        <v>7.31067590617413</v>
+        <v>7.31067590617372</v>
       </c>
       <c r="H117">
-        <v>6.304192426571562e-7</v>
+        <v>6.304192426562803e-7</v>
       </c>
       <c r="I117">
-        <v>0.00015194903374852266</v>
+        <v>0.00015194903374850485</v>
       </c>
       <c r="J117">
-        <v>0.0019630132131585806</v>
+        <v>0.001963013213160645</v>
       </c>
       <c r="K117">
-        <v>4.8592936737588334e-5</v>
+        <v>4.859293673760535e-5</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -4521,28 +4521,28 @@
         <v>6.229417323054657e-7</v>
       </c>
       <c r="D118">
-        <v>0.00015467440171884863</v>
+        <v>0.0001546744017188486</v>
       </c>
       <c r="E118">
-        <v>0.0019634865515648185</v>
+        <v>0.001963486551564818</v>
       </c>
       <c r="F118">
-        <v>4.859762076862796e-5</v>
+        <v>4.859762076862795e-5</v>
       </c>
       <c r="G118">
-        <v>7.311832739230987</v>
+        <v>7.311832739230585</v>
       </c>
       <c r="H118">
-        <v>6.229586617670732e-7</v>
+        <v>6.229586617662078e-7</v>
       </c>
       <c r="I118">
-        <v>0.0001546743132098092</v>
+        <v>0.00015467431320979124</v>
       </c>
       <c r="J118">
-        <v>0.0019634865402577196</v>
+        <v>0.0019634865402597805</v>
       </c>
       <c r="K118">
-        <v>4.859762058525466e-5</v>
+        <v>4.85976205852716e-5</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -4559,25 +4559,25 @@
         <v>0.00015739996227672086</v>
       </c>
       <c r="E119">
-        <v>0.0019639587681180935</v>
+        <v>0.001963958768118093</v>
       </c>
       <c r="F119">
         <v>4.86023032948189e-5</v>
       </c>
       <c r="G119">
-        <v>7.312983158600456</v>
+        <v>7.312983158600061</v>
       </c>
       <c r="H119">
-        <v>6.154980808323877e-7</v>
+        <v>6.154980808315327e-7</v>
       </c>
       <c r="I119">
-        <v>0.0001573998739442903</v>
+        <v>0.00015739987394427227</v>
       </c>
       <c r="J119">
-        <v>0.001963958756676263</v>
+        <v>0.0019639587566783194</v>
       </c>
       <c r="K119">
-        <v>4.8602303111164084e-5</v>
+        <v>4.8602303111180964e-5</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -4594,25 +4594,25 @@
         <v>0.00016012580108642238</v>
       </c>
       <c r="E120">
-        <v>0.001964429885995257</v>
+        <v>0.0019644298859952565</v>
       </c>
       <c r="F120">
         <v>4.860698450324138e-5</v>
       </c>
       <c r="G120">
-        <v>7.314127216597735</v>
+        <v>7.314127216597347</v>
       </c>
       <c r="H120">
-        <v>6.080374998531e-7</v>
+        <v>6.080374998522552e-7</v>
       </c>
       <c r="I120">
-        <v>0.0001601257129518196</v>
+        <v>0.00016012571295180158</v>
       </c>
       <c r="J120">
-        <v>0.001964429874426143</v>
+        <v>0.0019644298744281945</v>
       </c>
       <c r="K120">
-        <v>4.860698431936603e-5</v>
+        <v>4.8606984319382806e-5</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -4635,19 +4635,19 @@
         <v>4.861166439796802e-5</v>
       </c>
       <c r="G121">
-        <v>7.315264965017586</v>
+        <v>7.315264965017205</v>
       </c>
       <c r="H121">
-        <v>6.005769188292099e-7</v>
+        <v>6.005769188283754e-7</v>
       </c>
       <c r="I121">
-        <v>0.00016285182727264098</v>
+        <v>0.00016285182727262285</v>
       </c>
       <c r="J121">
-        <v>0.0019648999053563597</v>
+        <v>0.0019648999053584046</v>
       </c>
       <c r="K121">
-        <v>4.861166421393307e-5</v>
+        <v>4.861166421394976e-5</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -4655,34 +4655,34 @@
         <v>0.0705</v>
       </c>
       <c r="B122">
-        <v>7.3163964418331355</v>
+        <v>7.316396441833136</v>
       </c>
       <c r="C122">
         <v>5.931002121950197e-7</v>
       </c>
       <c r="D122">
-        <v>0.00016557830166201657</v>
+        <v>0.0001655783016620166</v>
       </c>
       <c r="E122">
-        <v>0.001965368872957011</v>
+        <v>0.0019653688729570104</v>
       </c>
       <c r="F122">
-        <v>4.861634298309354e-5</v>
+        <v>4.861634298309355e-5</v>
       </c>
       <c r="G122">
-        <v>7.3163964551395795</v>
+        <v>7.316396455139206</v>
       </c>
       <c r="H122">
-        <v>5.931163377607173e-7</v>
+        <v>5.93116337759893e-7</v>
       </c>
       <c r="I122">
-        <v>0.00016557821398676493</v>
+        <v>0.00016557821398674683</v>
       </c>
       <c r="J122">
-        <v>0.001965368861155504</v>
+        <v>0.001965368861157542</v>
       </c>
       <c r="K122">
-        <v>4.861634279895988e-5</v>
+        <v>4.86163427989765e-5</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -4705,19 +4705,19 @@
         <v>4.8621020262733556e-5</v>
       </c>
       <c r="G123">
-        <v>7.317521737733304</v>
+        <v>7.317521737732937</v>
       </c>
       <c r="H123">
-        <v>5.856557566476221e-7</v>
+        <v>5.856557566468081e-7</v>
       </c>
       <c r="I123">
-        <v>0.0001683048702133558</v>
+        <v>0.0001683048702133377</v>
       </c>
       <c r="J123">
-        <v>0.001965836753354247</v>
+        <v>0.001965836753356277</v>
       </c>
       <c r="K123">
-        <v>4.862102007856205e-5</v>
+        <v>4.862102007857858e-5</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -4740,19 +4740,19 @@
         <v>4.8625696241023395e-5</v>
       </c>
       <c r="G124">
-        <v>7.3186408630635515</v>
+        <v>7.318640863063192</v>
       </c>
       <c r="H124">
-        <v>5.781951754899245e-7</v>
+        <v>5.781951754891209e-7</v>
       </c>
       <c r="I124">
-        <v>0.00017103179311012823</v>
+        <v>0.00017103179311011007</v>
       </c>
       <c r="J124">
-        <v>0.0019663035933277823</v>
+        <v>0.001966303593329804</v>
       </c>
       <c r="K124">
-        <v>4.862569605687488e-5</v>
+        <v>4.862569605689132e-5</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -4775,19 +4775,19 @@
         <v>4.86303709221171e-5</v>
       </c>
       <c r="G125">
-        <v>7.319753880895471</v>
+        <v>7.319753880895117</v>
       </c>
       <c r="H125">
-        <v>5.707345942876243e-7</v>
+        <v>5.70734594286831e-7</v>
       </c>
       <c r="I125">
-        <v>0.00017375897987275342</v>
+        <v>0.00017375897987273524</v>
       </c>
       <c r="J125">
-        <v>0.0019667693922982344</v>
+        <v>0.0019667693923002476</v>
       </c>
       <c r="K125">
-        <v>4.8630370738052386e-5</v>
+        <v>4.8630370738068724e-5</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -4810,19 +4810,19 @@
         <v>4.863504431018632e-5</v>
       </c>
       <c r="G126">
-        <v>7.32086084049968</v>
+        <v>7.320860840499334</v>
       </c>
       <c r="H126">
-        <v>5.632740130407217e-7</v>
+        <v>5.632740130399388e-7</v>
       </c>
       <c r="I126">
-        <v>0.00017648642773427587</v>
+        <v>0.00017648642773425766</v>
       </c>
       <c r="J126">
-        <v>0.0019672341613370223</v>
+        <v>0.0019672341613390268</v>
       </c>
       <c r="K126">
-        <v>4.863504412626615e-5</v>
+        <v>4.8635044126282405e-5</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -4845,19 +4845,19 @@
         <v>4.863971640941925e-5</v>
       </c>
       <c r="G127">
-        <v>7.32196179065736</v>
+        <v>7.321961790657021</v>
       </c>
       <c r="H127">
-        <v>5.558134317492166e-7</v>
+        <v>5.558134317484442e-7</v>
       </c>
       <c r="I127">
-        <v>0.0001792141339645386</v>
+        <v>0.00017921413396452035</v>
       </c>
       <c r="J127">
-        <v>0.0019676979113671875</v>
+        <v>0.0019676979113691824</v>
       </c>
       <c r="K127">
-        <v>4.8639716225704355e-5</v>
+        <v>4.8639716225720516e-5</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -4871,28 +4871,28 @@
         <v>5.483379320293896e-7</v>
       </c>
       <c r="D128">
-        <v>0.0001819421816565775</v>
+        <v>0.00018194218165657746</v>
       </c>
       <c r="E128">
-        <v>0.001968160665490055</v>
+        <v>0.0019681606654900555</v>
       </c>
       <c r="F128">
         <v>4.864438722401964e-5</v>
       </c>
       <c r="G128">
-        <v>7.323056779665302</v>
+        <v>7.323056779664969</v>
       </c>
       <c r="H128">
-        <v>5.48352850413109e-7</v>
+        <v>5.483528504123469e-7</v>
       </c>
       <c r="I128">
-        <v>0.00018194209586961836</v>
+        <v>0.0001819420958696001</v>
       </c>
       <c r="J128">
-        <v>0.0019681606531656848</v>
+        <v>0.0019681606531676697</v>
       </c>
       <c r="K128">
-        <v>4.8644387040570705e-5</v>
+        <v>4.864438704058678e-5</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -4915,19 +4915,19 @@
         <v>4.864905675820581e-5</v>
       </c>
       <c r="G129">
-        <v>7.324145855340926</v>
+        <v>7.324145855340599</v>
       </c>
       <c r="H129">
-        <v>5.408922690323988e-7</v>
+        <v>5.408922690316473e-7</v>
       </c>
       <c r="I129">
-        <v>0.00018467031079127</v>
+        <v>0.00018467031079125173</v>
       </c>
       <c r="J129">
-        <v>0.0019686223973656323</v>
+        <v>0.0019686223973676077</v>
       </c>
       <c r="K129">
-        <v>4.8649056575083486e-5</v>
+        <v>4.864905657509949e-5</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -4950,19 +4950,19 @@
         <v>4.865372501620971e-5</v>
       </c>
       <c r="G130">
-        <v>7.325229065027262</v>
+        <v>7.325229065026942</v>
       </c>
       <c r="H130">
-        <v>5.334316876070861e-7</v>
+        <v>5.334316876063449e-7</v>
       </c>
       <c r="I130">
-        <v>0.0001873987761063797</v>
+        <v>0.00018739877610636147</v>
       </c>
       <c r="J130">
-        <v>0.0019690831544585284</v>
+        <v>0.0019690831544604925</v>
       </c>
       <c r="K130">
-        <v>4.865372483347463e-5</v>
+        <v>4.865372483349054e-5</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -4985,19 +4985,19 @@
         <v>4.865839200227596e-5</v>
       </c>
       <c r="G131">
-        <v>7.326306455597899</v>
+        <v>7.326306455597584</v>
       </c>
       <c r="H131">
-        <v>5.259711061371709e-7</v>
+        <v>5.259711061364402e-7</v>
       </c>
       <c r="I131">
-        <v>0.00019012748922642739</v>
+        <v>0.00019012748922640912</v>
       </c>
       <c r="J131">
-        <v>0.001969542934796427</v>
+        <v>0.001969542934798379</v>
       </c>
       <c r="K131">
-        <v>4.865839181998871e-5</v>
+        <v>4.8658391820004516e-5</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -5020,19 +5020,19 @@
         <v>4.866305772066097e-5</v>
       </c>
       <c r="G132">
-        <v>7.327378073461886</v>
+        <v>7.3273780734615785</v>
       </c>
       <c r="H132">
-        <v>5.185105246226531e-7</v>
+        <v>5.18510524621933e-7</v>
       </c>
       <c r="I132">
-        <v>0.00019285644759695766</v>
+        <v>0.00019285644759693942</v>
       </c>
       <c r="J132">
-        <v>0.0019700017485940816</v>
+        <v>0.001970001748596022</v>
       </c>
       <c r="K132">
-        <v>4.86630575388821e-5</v>
+        <v>4.8663057538897805e-5</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -5055,19 +5055,19 @@
         <v>4.8667722175632067e-5</v>
       </c>
       <c r="G133">
-        <v>7.3284439645686135</v>
+        <v>7.328443964568312</v>
       </c>
       <c r="H133">
-        <v>5.110499430635328e-7</v>
+        <v>5.110499430628233e-7</v>
       </c>
       <c r="I133">
-        <v>0.00019558564869705976</v>
+        <v>0.00019558564869704163</v>
       </c>
       <c r="J133">
-        <v>0.0019704596059310527</v>
+        <v>0.001970459605932981</v>
       </c>
       <c r="K133">
-        <v>4.866772199442209e-5</v>
+        <v>4.866772199443768e-5</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -5075,34 +5075,34 @@
         <v>0.0825</v>
       </c>
       <c r="B134">
-        <v>7.329504166373343</v>
+        <v>7.329504166373344</v>
       </c>
       <c r="C134">
         <v>5.03575651863682e-7</v>
       </c>
       <c r="D134">
-        <v>0.00019831517317069167</v>
+        <v>0.0001983151731706917</v>
       </c>
       <c r="E134">
         <v>0.001970916529346273</v>
       </c>
       <c r="F134">
-        <v>4.86723853714666e-5</v>
+        <v>4.867238537146661e-5</v>
       </c>
       <c r="G134">
-        <v>7.329504174412641</v>
+        <v>7.329504174412346</v>
       </c>
       <c r="H134">
-        <v>5.0358936145981e-7</v>
+        <v>5.035893614591112e-7</v>
       </c>
       <c r="I134">
-        <v>0.0001983150900388559</v>
+        <v>0.00019831509003883786</v>
       </c>
       <c r="J134">
-        <v>0.001970916516753782</v>
+        <v>0.001970916516755698</v>
       </c>
       <c r="K134">
-        <v>4.867238519088601e-5</v>
+        <v>4.867238519090147e-5</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -5125,19 +5125,19 @@
         <v>4.867704731245116e-5</v>
       </c>
       <c r="G135">
-        <v>7.330558748038493</v>
+        <v>7.3305587480382055</v>
       </c>
       <c r="H135">
-        <v>4.961287798114848e-7</v>
+        <v>4.961287798107966e-7</v>
       </c>
       <c r="I135">
-        <v>0.00020104476916699772</v>
+        <v>0.00020104476916697986</v>
       </c>
       <c r="J135">
-        <v>0.0019713724908776275</v>
+        <v>0.001971372490879531</v>
       </c>
       <c r="K135">
-        <v>4.86770471325604e-5</v>
+        <v>4.867704713257574e-5</v>
       </c>
     </row>
     <row r="136" spans="1:11">
@@ -5145,7 +5145,7 @@
         <v>0.0845</v>
       </c>
       <c r="B136">
-        <v>7.33160772273863</v>
+        <v>7.331607722738631</v>
       </c>
       <c r="C136">
         <v>4.886548918084867e-7</v>
@@ -5154,25 +5154,25 @@
         <v>0.00020377476573425415</v>
       </c>
       <c r="E136">
-        <v>0.0019718275506155243</v>
+        <v>0.0019718275506155247</v>
       </c>
       <c r="F136">
         <v>4.868170800288073e-5</v>
       </c>
       <c r="G136">
-        <v>7.3316077300454205</v>
+        <v>7.331607730045138</v>
       </c>
       <c r="H136">
-        <v>4.886681981185572e-7</v>
+        <v>4.886681981178794e-7</v>
       </c>
       <c r="I136">
-        <v>0.00020377468365817165</v>
+        <v>0.00020377468365815392</v>
       </c>
       <c r="J136">
-        <v>0.001971827537988871</v>
+        <v>0.0019718275379907624</v>
       </c>
       <c r="K136">
-        <v>4.868170782374021e-5</v>
+        <v>4.868170782375541e-5</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -5195,19 +5195,19 @@
         <v>4.868636744705793e-5</v>
       </c>
       <c r="G137">
-        <v>7.332651164592113</v>
+        <v>7.332651164591837</v>
       </c>
       <c r="H137">
-        <v>4.81207616381027e-7</v>
+        <v>4.812076163803597e-7</v>
       </c>
       <c r="I137">
-        <v>0.0002065048311206116</v>
+        <v>0.0002065048311205939</v>
       </c>
       <c r="J137">
-        <v>0.0019722816676466903</v>
+        <v>0.0019722816676485673</v>
       </c>
       <c r="K137">
-        <v>4.868636726872803e-5</v>
+        <v>4.86863672687431e-5</v>
       </c>
     </row>
     <row r="138" spans="1:11">
@@ -5230,19 +5230,19 @@
         <v>4.8691025649292245e-5</v>
       </c>
       <c r="G138">
-        <v>7.333689095401381</v>
+        <v>7.333689095401112</v>
       </c>
       <c r="H138">
-        <v>4.7374703459889417e-7</v>
+        <v>4.7374703459823735e-7</v>
       </c>
       <c r="I138">
-        <v>0.00020923520919362032</v>
+        <v>0.0002092352091936027</v>
       </c>
       <c r="J138">
-        <v>0.001972734889285095</v>
+        <v>0.0019727348892869577</v>
       </c>
       <c r="K138">
-        <v>4.869102547183331e-5</v>
+        <v>4.8691025471848235e-5</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -5265,19 +5265,19 @@
         <v>4.869568261389928e-5</v>
       </c>
       <c r="G139">
-        <v>7.334721565764794</v>
+        <v>7.334721565764531</v>
       </c>
       <c r="H139">
-        <v>4.6628645277215886e-7</v>
+        <v>4.662864527715124e-7</v>
       </c>
       <c r="I139">
-        <v>0.00021196581554709822</v>
+        <v>0.00021196581554708076</v>
       </c>
       <c r="J139">
-        <v>0.0019731872122148372</v>
+        <v>0.0019731872122166843</v>
       </c>
       <c r="K139">
-        <v>4.8695682437371594e-5</v>
+        <v>4.869568243738638e-5</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -5300,19 +5300,19 @@
         <v>4.8700338345200006e-5</v>
       </c>
       <c r="G140">
-        <v>7.335748618547282</v>
+        <v>7.335748618547024</v>
       </c>
       <c r="H140">
-        <v>4.5882587090082106e-7</v>
+        <v>4.58825870900185e-7</v>
       </c>
       <c r="I140">
-        <v>0.0002146966478810804</v>
+        <v>0.00021469664788106299</v>
       </c>
       <c r="J140">
-        <v>0.001973638645625286</v>
+        <v>0.001973638645627117</v>
       </c>
       <c r="K140">
-        <v>4.8700338169663866e-5</v>
+        <v>4.87003381696785e-5</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -5335,19 +5335,19 @@
         <v>4.870499284752017e-5</v>
       </c>
       <c r="G141">
-        <v>7.336770296191689</v>
+        <v>7.336770296191437</v>
       </c>
       <c r="H141">
-        <v>4.513652889848808e-7</v>
+        <v>4.5136528898425504e-7</v>
       </c>
       <c r="I141">
-        <v>0.0002174277039252804</v>
+        <v>0.00021742770392526315</v>
       </c>
       <c r="J141">
-        <v>0.0019740891985862725</v>
+        <v>0.001974089198588087</v>
       </c>
       <c r="K141">
-        <v>4.87049926730358e-5</v>
+        <v>4.870499267305029e-5</v>
       </c>
     </row>
     <row r="142" spans="1:11">
@@ -5355,34 +5355,34 @@
         <v>0.0905</v>
       </c>
       <c r="B142">
-        <v>7.337786635385604</v>
+        <v>7.337786635385603</v>
       </c>
       <c r="C142">
         <v>4.4389261164279026e-7</v>
       </c>
       <c r="D142">
-        <v>0.00022015905983448775</v>
+        <v>0.00022015905983448772</v>
       </c>
       <c r="E142">
-        <v>0.001974538892617266</v>
+        <v>0.0019745388926172666</v>
       </c>
       <c r="F142">
         <v>4.870964612518947e-5</v>
       </c>
       <c r="G142">
-        <v>7.337786640723296</v>
+        <v>7.33778664072305</v>
       </c>
       <c r="H142">
-        <v>4.439047070243379e-7</v>
+        <v>4.439047070237226e-7</v>
       </c>
       <c r="I142">
-        <v>0.00022015898143864273</v>
+        <v>0.00022015898143862558</v>
       </c>
       <c r="J142">
-        <v>0.0019745388800499037</v>
+        <v>0.001974538880051701</v>
       </c>
       <c r="K142">
-        <v>4.870964595181709e-5</v>
+        <v>4.8709645951831436e-5</v>
       </c>
     </row>
     <row r="143" spans="1:11">
@@ -5405,19 +5405,19 @@
         <v>4.871429818254101e-5</v>
       </c>
       <c r="G143">
-        <v>7.3387976937543</v>
+        <v>7.33879769375406</v>
       </c>
       <c r="H143">
-        <v>4.364441250191925e-7</v>
+        <v>4.364441250185877e-7</v>
       </c>
       <c r="I143">
-        <v>0.0002228904782089015</v>
+        <v>0.00022289047820888447</v>
       </c>
       <c r="J143">
-        <v>0.0019749876988523467</v>
+        <v>0.0019749876988541257</v>
       </c>
       <c r="K143">
-        <v>4.871429801034077e-5</v>
+        <v>4.871429801035497e-5</v>
       </c>
     </row>
     <row r="144" spans="1:11">
@@ -5425,34 +5425,34 @@
         <v>0.09249999999999999</v>
       </c>
       <c r="B144">
-        <v>7.339803491733972</v>
+        <v>7.339803491733971</v>
       </c>
       <c r="C144">
         <v>4.2897185158760597e-7</v>
       </c>
       <c r="D144">
-        <v>0.000225622269050067</v>
+        <v>0.00022562226905006698</v>
       </c>
       <c r="E144">
-        <v>0.001975435676210123</v>
+        <v>0.0019754356762101233</v>
       </c>
       <c r="F144">
-        <v>4.871894902391058e-5</v>
+        <v>4.8718949023910574e-5</v>
       </c>
       <c r="G144">
-        <v>7.339803496488246</v>
+        <v>7.3398034964880114</v>
       </c>
       <c r="H144">
-        <v>4.2898354296944467e-7</v>
+        <v>4.2898354296885037e-7</v>
       </c>
       <c r="I144">
-        <v>0.00022562219205214714</v>
+        <v>0.0002256221920521304</v>
       </c>
       <c r="J144">
-        <v>0.0019754356637155857</v>
+        <v>0.0019754356637173456</v>
       </c>
       <c r="K144">
-        <v>4.871894885294263e-5</v>
+        <v>4.871894885295667e-5</v>
       </c>
     </row>
     <row r="145" spans="1:11">
@@ -5466,7 +5466,7 @@
         <v>4.215114715599862e-7</v>
       </c>
       <c r="D145">
-        <v>0.00022835419707923114</v>
+        <v>0.00022835419707923108</v>
       </c>
       <c r="E145">
         <v>0.0019758827956974597</v>
@@ -5475,19 +5475,19 @@
         <v>4.872359865363609e-5</v>
       </c>
       <c r="G145">
-        <v>7.34080408972443</v>
+        <v>7.340804089724202</v>
       </c>
       <c r="H145">
-        <v>4.2152296087509443e-7</v>
+        <v>4.215229608745106e-7</v>
       </c>
       <c r="I145">
-        <v>0.0002283541208124002</v>
+        <v>0.0002283541208123837</v>
       </c>
       <c r="J145">
-        <v>0.0019758827832491448</v>
+        <v>0.001975882783250885</v>
       </c>
       <c r="K145">
-        <v>4.872359848396053e-5</v>
+        <v>4.872359848397442e-5</v>
       </c>
     </row>
     <row r="146" spans="1:11">
@@ -5510,19 +5510,19 @@
         <v>4.8728247076056946e-5</v>
       </c>
       <c r="G146">
-        <v>7.341799513862252</v>
+        <v>7.34179951386203</v>
       </c>
       <c r="H146">
-        <v>4.1406237873614176e-7</v>
+        <v>4.140623787355684e-7</v>
       </c>
       <c r="I146">
-        <v>0.00023108626236119148</v>
+        <v>0.00023108626236117524</v>
       </c>
       <c r="J146">
-        <v>0.001976329065951789</v>
+        <v>0.0019763290659535085</v>
       </c>
       <c r="K146">
-        <v>4.872824690773383e-5</v>
+        <v>4.872824690774759e-5</v>
       </c>
     </row>
     <row r="147" spans="1:11">
@@ -5530,7 +5530,7 @@
         <v>0.09549999999999999</v>
       </c>
       <c r="B147">
-        <v>7.342789804961131</v>
+        <v>7.342789804961132</v>
       </c>
       <c r="C147">
         <v>4.065907115047577e-7</v>
@@ -5539,25 +5539,25 @@
         <v>0.00023381868933751839</v>
       </c>
       <c r="E147">
-        <v>0.0019767745325495866</v>
+        <v>0.001976774532549587</v>
       </c>
       <c r="F147">
-        <v>4.873289429551342e-5</v>
+        <v>4.873289429551343e-5</v>
       </c>
       <c r="G147">
-        <v>7.342789808905533</v>
+        <v>7.342789808905315</v>
       </c>
       <c r="H147">
-        <v>4.0660179655258656e-7</v>
+        <v>4.0660179655202366e-7</v>
       </c>
       <c r="I147">
-        <v>0.00023381861459714976</v>
+        <v>0.00023381861459713374</v>
       </c>
       <c r="J147">
-        <v>0.0019767745202131887</v>
+        <v>0.001976774520214887</v>
       </c>
       <c r="K147">
-        <v>4.8732894128602816e-5</v>
+        <v>4.873289412861643e-5</v>
       </c>
     </row>
     <row r="148" spans="1:11">
@@ -5565,13 +5565,13 @@
         <v>0.09649999999999999</v>
       </c>
       <c r="B148">
-        <v>7.343775010775376</v>
+        <v>7.343775010775377</v>
       </c>
       <c r="C148">
         <v>3.9913033147716006e-7</v>
       </c>
       <c r="D148">
-        <v>0.00023655124939057893</v>
+        <v>0.0002365512493905789</v>
       </c>
       <c r="E148">
         <v>0.001977219166586328</v>
@@ -5580,19 +5580,19 @@
         <v>4.8737540316346194e-5</v>
       </c>
       <c r="G148">
-        <v>7.3437750144667815</v>
+        <v>7.34377501446657</v>
       </c>
       <c r="H148">
-        <v>3.991412143244289e-7</v>
+        <v>3.9914121432387646e-7</v>
       </c>
       <c r="I148">
-        <v>0.0002365511754455963</v>
+        <v>0.00023655117544558058</v>
       </c>
       <c r="J148">
-        <v>0.0019772191543155665</v>
+        <v>0.001977219154317243</v>
       </c>
       <c r="K148">
-        <v>4.873754015090809e-5</v>
+        <v>4.8737540150921554e-5</v>
       </c>
     </row>
     <row r="149" spans="1:11">
@@ -5606,7 +5606,7 @@
         <v>3.916699514495734e-7</v>
       </c>
       <c r="D149">
-        <v>0.00023928401598629742</v>
+        <v>0.0002392840159862974</v>
       </c>
       <c r="E149">
         <v>0.0019776629886340204</v>
@@ -5615,19 +5615,19 @@
         <v>4.874218514289565e-5</v>
       </c>
       <c r="G149">
-        <v>7.34475516977144</v>
+        <v>7.344755169771234</v>
       </c>
       <c r="H149">
-        <v>3.9168063205166884e-7</v>
+        <v>3.916806320511268e-7</v>
       </c>
       <c r="I149">
-        <v>0.00023928394285814534</v>
+        <v>0.00023928394285812986</v>
       </c>
       <c r="J149">
-        <v>0.0019776629764353096</v>
+        <v>0.0019776629764369637</v>
       </c>
       <c r="K149">
-        <v>4.874218497899003e-5</v>
+        <v>4.8742184979003335e-5</v>
       </c>
     </row>
     <row r="150" spans="1:11">
@@ -5650,19 +5650,19 @@
         <v>4.874682877950146e-5</v>
       </c>
       <c r="G150">
-        <v>7.345730313662066</v>
+        <v>7.345730313661864</v>
       </c>
       <c r="H150">
-        <v>3.8422004973430636e-7</v>
+        <v>3.842200497337746e-7</v>
       </c>
       <c r="I150">
-        <v>0.00024201691481231193</v>
+        <v>0.00024201691481229675</v>
       </c>
       <c r="J150">
-        <v>0.001978105994644558</v>
+        <v>0.0019781059946461887</v>
       </c>
       <c r="K150">
-        <v>4.8746828617188276e-5</v>
+        <v>4.874682861720143e-5</v>
       </c>
     </row>
     <row r="151" spans="1:11">
@@ -5685,19 +5685,19 @@
         <v>4.875147123050203e-5</v>
       </c>
       <c r="G151">
-        <v>7.346700484602486</v>
+        <v>7.34670048460229</v>
       </c>
       <c r="H151">
-        <v>3.767594673723414e-7</v>
+        <v>3.7675946737181985e-7</v>
       </c>
       <c r="I151">
-        <v>0.00024475008931112605</v>
+        <v>0.0002447500893111111</v>
       </c>
       <c r="J151">
-        <v>0.0019785482169127648</v>
+        <v>0.0019785482169143716</v>
       </c>
       <c r="K151">
-        <v>4.875147106984118e-5</v>
+        <v>4.875147106985417e-5</v>
       </c>
     </row>
     <row r="152" spans="1:11">
@@ -5720,19 +5720,19 @@
         <v>4.8756112500233954e-5</v>
       </c>
       <c r="G152">
-        <v>7.3476657206819125</v>
+        <v>7.347665720681721</v>
       </c>
       <c r="H152">
-        <v>3.69298884965774e-7</v>
+        <v>3.6929888496526263e-7</v>
       </c>
       <c r="I152">
-        <v>0.0002474834643827524</v>
+        <v>0.0002474834643827377</v>
       </c>
       <c r="J152">
-        <v>0.0019789896511082346</v>
+        <v>0.001978989651109817</v>
       </c>
       <c r="K152">
-        <v>4.875611234128535e-5</v>
+        <v>4.875611234129815e-5</v>
       </c>
     </row>
     <row r="153" spans="1:11">
@@ -5755,19 +5755,19 @@
         <v>4.876075259303158e-5</v>
       </c>
       <c r="G153">
-        <v>7.348626059619004</v>
+        <v>7.348626059618818</v>
       </c>
       <c r="H153">
-        <v>3.6183830251460407e-7</v>
+        <v>3.6183830251410305e-7</v>
       </c>
       <c r="I153">
-        <v>0.00025021703808011746</v>
+        <v>0.000250217038080103</v>
       </c>
       <c r="J153">
-        <v>0.0019794303049996353</v>
+        <v>0.0019794303050011935</v>
       </c>
       <c r="K153">
-        <v>4.876075243585506e-5</v>
+        <v>4.876075243586768e-5</v>
       </c>
     </row>
     <row r="154" spans="1:11">
@@ -5790,19 +5790,19 @@
         <v>4.87653915132265e-5</v>
       </c>
       <c r="G154">
-        <v>7.349581538765901</v>
+        <v>7.349581538765719</v>
       </c>
       <c r="H154">
-        <v>3.543777200188317e-7</v>
+        <v>3.54377720018341e-7</v>
       </c>
       <c r="I154">
-        <v>0.00025295080848054195</v>
+        <v>0.00025295080848052764</v>
       </c>
       <c r="J154">
-        <v>0.0019798701862574803</v>
+        <v>0.0019798701862590137</v>
       </c>
       <c r="K154">
-        <v>4.876539135788189e-5</v>
+        <v>4.876539135789432e-5</v>
       </c>
     </row>
     <row r="155" spans="1:11">
@@ -5810,34 +5810,34 @@
         <v>0.1035</v>
       </c>
       <c r="B155">
-        <v>7.350532192965036</v>
+        <v>7.3505321929650345</v>
       </c>
       <c r="C155">
         <v>3.4690767128385487e-7</v>
       </c>
       <c r="D155">
-        <v>0.000255684841461882</v>
+        <v>0.00025568484146188205</v>
       </c>
       <c r="E155">
         <v>0.00198030931408883</v>
       </c>
       <c r="F155">
-        <v>4.877002926514711e-5</v>
+        <v>4.8770029265147105e-5</v>
       </c>
       <c r="G155">
-        <v>7.350532195112212</v>
+        <v>7.350532195112034</v>
       </c>
       <c r="H155">
-        <v>3.4691713747845686e-7</v>
+        <v>3.469171374779765e-7</v>
       </c>
       <c r="I155">
-        <v>0.0002556847736853793</v>
+        <v>0.0002556847736853653</v>
       </c>
       <c r="J155">
-        <v>0.0019803093024555927</v>
+        <v>0.0019803093024571006</v>
       </c>
       <c r="K155">
-        <v>4.877002911169419e-5</v>
+        <v>4.877002911170643e-5</v>
       </c>
     </row>
     <row r="156" spans="1:11">
@@ -5851,28 +5851,28 @@
         <v>3.3944729125629036e-7</v>
       </c>
       <c r="D156">
-        <v>0.00025841899862905814</v>
+        <v>0.0002584189986290582</v>
       </c>
       <c r="E156">
-        <v>0.001980747672589585</v>
+        <v>0.0019807476725895844</v>
       </c>
       <c r="F156">
         <v>4.8774665853118144e-5</v>
       </c>
       <c r="G156">
-        <v>7.351478065288961</v>
+        <v>7.351478065288789</v>
       </c>
       <c r="H156">
-        <v>3.3945655489347957e-7</v>
+        <v>3.3945655489300946e-7</v>
       </c>
       <c r="I156">
-        <v>0.00025841893181966093</v>
+        <v>0.00025841893181964706</v>
       </c>
       <c r="J156">
-        <v>0.0019807476610725415</v>
+        <v>0.001980747661074024</v>
       </c>
       <c r="K156">
-        <v>4.877466570161667e-5</v>
+        <v>4.877466570162871e-5</v>
       </c>
     </row>
     <row r="157" spans="1:11">
@@ -5895,19 +5895,19 @@
         <v>4.8779301281460265e-5</v>
       </c>
       <c r="G157">
-        <v>7.352419185572498</v>
+        <v>7.35241918557233</v>
       </c>
       <c r="H157">
-        <v>3.3199597226389985e-7</v>
+        <v>3.3199597226344e-7</v>
       </c>
       <c r="I157">
-        <v>0.0002611532810317458</v>
+        <v>0.00026115328103173214</v>
       </c>
       <c r="J157">
-        <v>0.0019811852694930562</v>
+        <v>0.0019811852694945125</v>
       </c>
       <c r="K157">
-        <v>4.877930113196995e-5</v>
+        <v>4.877930113198179e-5</v>
       </c>
     </row>
     <row r="158" spans="1:11">
@@ -5930,19 +5930,19 @@
         <v>4.8783935554489595e-5</v>
       </c>
       <c r="G158">
-        <v>7.353355591888362</v>
+        <v>7.3533555918881985</v>
       </c>
       <c r="H158">
-        <v>3.2453538958971765e-7</v>
+        <v>3.2453538958926814e-7</v>
       </c>
       <c r="I158">
-        <v>0.00026388781949297747</v>
+        <v>0.000263887819492964</v>
       </c>
       <c r="J158">
-        <v>0.0019816221350094153</v>
+        <v>0.0019816221350108455</v>
       </c>
       <c r="K158">
-        <v>4.878393540707015e-5</v>
+        <v>4.8783935407081766e-5</v>
       </c>
     </row>
     <row r="159" spans="1:11">
@@ -5965,19 +5965,19 @@
         <v>4.878856867651741e-5</v>
       </c>
       <c r="G159">
-        <v>7.354287319815114</v>
+        <v>7.354287319814955</v>
       </c>
       <c r="H159">
-        <v>3.1707480687093297e-7</v>
+        <v>3.170748068704939e-7</v>
       </c>
       <c r="I159">
-        <v>0.00026662254539734534</v>
+        <v>0.0002666225453973321</v>
       </c>
       <c r="J159">
-        <v>0.0019820582648228174</v>
+        <v>0.0019820582648242204</v>
       </c>
       <c r="K159">
-        <v>4.878856853122848e-5</v>
+        <v>4.878856853123989e-5</v>
       </c>
     </row>
     <row r="160" spans="1:11">
@@ -6000,19 +6000,19 @@
         <v>4.8793200651849606e-5</v>
       </c>
       <c r="G160">
-        <v>7.35521440458812</v>
+        <v>7.355214404587966</v>
       </c>
       <c r="H160">
-        <v>3.096142241075459e-7</v>
+        <v>3.0961422410711716e-7</v>
       </c>
       <c r="I160">
-        <v>0.00026935745696115215</v>
+        <v>0.0002693574569611392</v>
       </c>
       <c r="J160">
-        <v>0.0019824936660447208</v>
+        <v>0.001982493666046097</v>
       </c>
       <c r="K160">
-        <v>4.8793200508750816e-5</v>
+        <v>4.879320050876201e-5</v>
       </c>
     </row>
     <row r="161" spans="1:11">
@@ -6035,19 +6035,19 @@
         <v>4.8797831484786446e-5</v>
       </c>
       <c r="G161">
-        <v>7.356136881103301</v>
+        <v>7.356136881103152</v>
       </c>
       <c r="H161">
-        <v>3.0215364129955645e-7</v>
+        <v>3.0215364129913796e-7</v>
       </c>
       <c r="I161">
-        <v>0.00027209255242268684</v>
+        <v>0.0002720925524226741</v>
       </c>
       <c r="J161">
-        <v>0.001982928345698173</v>
+        <v>0.001982928345699522</v>
       </c>
       <c r="K161">
-        <v>4.879783134393738e-5</v>
+        <v>4.879783134394836e-5</v>
       </c>
     </row>
     <row r="162" spans="1:11">
@@ -6070,19 +6070,19 @@
         <v>4.8802461179622104e-5</v>
       </c>
       <c r="G162">
-        <v>7.357054783920843</v>
+        <v>7.357054783920699</v>
       </c>
       <c r="H162">
-        <v>2.946930584469645e-7</v>
+        <v>2.9469305844655633e-7</v>
       </c>
       <c r="I162">
-        <v>0.00027482783004190256</v>
+        <v>0.00027482783004189</v>
       </c>
       <c r="J162">
-        <v>0.0019833623107191065</v>
+        <v>0.0019833623107204284</v>
       </c>
       <c r="K162">
-        <v>4.880246104108235e-5</v>
+        <v>4.8802461041093105e-5</v>
       </c>
     </row>
     <row r="163" spans="1:11">
@@ -6105,19 +6105,19 @@
         <v>4.880708974064438e-5</v>
       </c>
       <c r="G163">
-        <v>7.357968147268863</v>
+        <v>7.357968147268723</v>
       </c>
       <c r="H163">
-        <v>2.872324755497701e-7</v>
+        <v>2.8723247554937227e-7</v>
       </c>
       <c r="I163">
-        <v>0.0002775632881001002</v>
+        <v>0.0002775632881000879</v>
       </c>
       <c r="J163">
-        <v>0.0019837955679576236</v>
+        <v>0.0019837955679589177</v>
       </c>
       <c r="K163">
-        <v>4.880708960447345e-5</v>
+        <v>4.880708960448398e-5</v>
       </c>
     </row>
     <row r="164" spans="1:11">
@@ -6140,19 +6140,19 @@
         <v>4.8811717172134265e-5</v>
       </c>
       <c r="G164">
-        <v>7.358877005047043</v>
+        <v>7.3588770050469074</v>
       </c>
       <c r="H164">
-        <v>2.7977189260797325e-7</v>
+        <v>2.797718926075857e-7</v>
       </c>
       <c r="I164">
-        <v>0.0002802989248996167</v>
+        <v>0.0002802989248996046</v>
       </c>
       <c r="J164">
-        <v>0.00198422812417925</v>
+        <v>0.0019842281241805168</v>
       </c>
       <c r="K164">
-        <v>4.881171703839167e-5</v>
+        <v>4.881171703840197e-5</v>
       </c>
     </row>
     <row r="165" spans="1:11">
@@ -6166,7 +6166,7 @@
         <v>2.723038710077788e-7</v>
       </c>
       <c r="D165">
-        <v>0.0002830347959013072</v>
+        <v>0.00028303479590130725</v>
       </c>
       <c r="E165">
         <v>0.001984659996261213</v>
@@ -6175,19 +6175,19 @@
         <v>4.88163434783657e-5</v>
       </c>
       <c r="G165">
-        <v>7.359781390830217</v>
+        <v>7.359781390830086</v>
       </c>
       <c r="H165">
-        <v>2.7231130962157397e-7</v>
+        <v>2.7231130962119667e-7</v>
       </c>
       <c r="I165">
-        <v>0.0002830347387635188</v>
+        <v>0.000283034738763507</v>
       </c>
       <c r="J165">
-        <v>0.00198465998606618</v>
+        <v>0.001984659986067418</v>
       </c>
       <c r="K165">
-        <v>4.881634334711091e-5</v>
+        <v>4.881634334712098e-5</v>
       </c>
     </row>
     <row r="166" spans="1:11">
@@ -6210,19 +6210,19 @@
         <v>4.882096866360517e-5</v>
       </c>
       <c r="G166">
-        <v>7.360681337871929</v>
+        <v>7.360681337871802</v>
       </c>
       <c r="H166">
-        <v>2.648507265905722e-7</v>
+        <v>2.648507265902052e-7</v>
       </c>
       <c r="I166">
-        <v>0.00028577072803530194</v>
+        <v>0.00028577072803529033</v>
       </c>
       <c r="J166">
-        <v>0.001985091160218487</v>
+        <v>0.001985091160219696</v>
       </c>
       <c r="K166">
-        <v>4.8820968534897645e-5</v>
+        <v>4.882096853490747e-5</v>
       </c>
     </row>
     <row r="167" spans="1:11">
@@ -6245,19 +6245,19 @@
         <v>4.882559273211145e-5</v>
       </c>
       <c r="G167">
-        <v>7.361576879107942</v>
+        <v>7.36157687910782</v>
       </c>
       <c r="H167">
-        <v>2.573901435149679e-7</v>
+        <v>2.5739014351461126e-7</v>
       </c>
       <c r="I167">
-        <v>0.00028850689107859324</v>
+        <v>0.00028850689107858186</v>
       </c>
       <c r="J167">
-        <v>0.001985521653155328</v>
+        <v>0.0019855216531565077</v>
       </c>
       <c r="K167">
-        <v>4.882559260601059e-5</v>
+        <v>4.8825592606020185e-5</v>
       </c>
     </row>
     <row r="168" spans="1:11">
@@ -6265,7 +6265,7 @@
         <v>0.1165</v>
       </c>
       <c r="B168">
-        <v>7.362468046915109</v>
+        <v>7.36246804691511</v>
       </c>
       <c r="C168">
         <v>2.499227309249361e-7</v>
@@ -6274,25 +6274,25 @@
         <v>0.0002912432798033325</v>
       </c>
       <c r="E168">
-        <v>0.0019859514809617705</v>
+        <v>0.001985951480961771</v>
       </c>
       <c r="F168">
         <v>4.883021568813526e-5</v>
       </c>
       <c r="G168">
-        <v>7.362468047159721</v>
+        <v>7.362468047159602</v>
       </c>
       <c r="H168">
-        <v>2.4992956039476125e-7</v>
+        <v>2.499295603944149e-7</v>
       </c>
       <c r="I168">
-        <v>0.0002912432262768601</v>
+        <v>0.000291243226276849</v>
       </c>
       <c r="J168">
-        <v>0.0019859514713161195</v>
+        <v>0.0019859514713172688</v>
       </c>
       <c r="K168">
-        <v>4.8830215564700454e-5</v>
+        <v>4.883021556470981e-5</v>
       </c>
     </row>
     <row r="169" spans="1:11">
@@ -6315,19 +6315,19 @@
         <v>4.883483753591903e-5</v>
       </c>
       <c r="G169">
-        <v>7.363354874337865</v>
+        <v>7.363354874337751</v>
       </c>
       <c r="H169">
-        <v>2.424689772299521e-7</v>
+        <v>2.4246897722961615e-7</v>
       </c>
       <c r="I169">
-        <v>0.0002939797320331234</v>
+        <v>0.0002939797320331127</v>
       </c>
       <c r="J169">
-        <v>0.0019863806210616976</v>
+        <v>0.001986380621062817</v>
       </c>
       <c r="K169">
-        <v>4.8834837415209625e-5</v>
+        <v>4.883483741521874e-5</v>
       </c>
     </row>
     <row r="170" spans="1:11">
@@ -6341,7 +6341,7 @@
         <v>2.3500197086974076e-7</v>
       </c>
       <c r="D170">
-        <v>0.00029671645778087195</v>
+        <v>0.000296716457780872</v>
       </c>
       <c r="E170">
         <v>0.0019868091179251644</v>
@@ -6350,19 +6350,19 @@
         <v>4.883945827969653e-5</v>
       </c>
       <c r="G170">
-        <v>7.364237392645511</v>
+        <v>7.364237392645401</v>
       </c>
       <c r="H170">
-        <v>2.3500839402054053e-7</v>
+        <v>2.3500839402021487e-7</v>
       </c>
       <c r="I170">
-        <v>0.0002967164067696752</v>
+        <v>0.0002967164067696648</v>
       </c>
       <c r="J170">
-        <v>0.001986809108675458</v>
+        <v>0.001986809108676547</v>
       </c>
       <c r="K170">
-        <v>4.883945816177186e-5</v>
+        <v>4.883945816178071e-5</v>
       </c>
     </row>
     <row r="171" spans="1:11">
@@ -6385,19 +6385,19 @@
         <v>4.8844077923692674e-5</v>
       </c>
       <c r="G171">
-        <v>7.3651156337817</v>
+        <v>7.365115633781594</v>
       </c>
       <c r="H171">
-        <v>2.2754781076652646e-7</v>
+        <v>2.275478107662112e-7</v>
       </c>
       <c r="I171">
-        <v>0.00029945324892780093</v>
+        <v>0.0002994532489277908</v>
       </c>
       <c r="J171">
-        <v>0.001987236940364478</v>
+        <v>0.001987236940365536</v>
       </c>
       <c r="K171">
-        <v>4.884407780861202e-5</v>
+        <v>4.884407780862063e-5</v>
       </c>
     </row>
     <row r="172" spans="1:11">
@@ -6420,19 +6420,19 @@
         <v>4.8848696472123216e-5</v>
       </c>
       <c r="G172">
-        <v>7.365989629144699</v>
+        <v>7.365989629144597</v>
       </c>
       <c r="H172">
-        <v>2.2008722746790993e-7</v>
+        <v>2.2008722746760502e-7</v>
       </c>
       <c r="I172">
-        <v>0.000302190256967506</v>
+        <v>0.0003021902569674962</v>
       </c>
       <c r="J172">
-        <v>0.0019876641222606223</v>
+        <v>0.00198766412226165</v>
       </c>
       <c r="K172">
-        <v>4.8848696359945846e-5</v>
+        <v>4.884869635995421e-5</v>
       </c>
     </row>
     <row r="173" spans="1:11">
@@ -6455,19 +6455,19 @@
         <v>4.8853313929194524e-5</v>
       </c>
       <c r="G173">
-        <v>7.366859409835294</v>
+        <v>7.366859409835196</v>
       </c>
       <c r="H173">
-        <v>2.12626644124691e-7</v>
+        <v>2.1262664412439644e-7</v>
       </c>
       <c r="I173">
-        <v>0.0003049274293672476</v>
+        <v>0.00030492742936723803</v>
       </c>
       <c r="J173">
-        <v>0.0019880906604216276</v>
+        <v>0.001988090660422624</v>
       </c>
       <c r="K173">
-        <v>4.885331381997966e-5</v>
+        <v>4.885331381998776e-5</v>
       </c>
     </row>
     <row r="174" spans="1:11">
@@ -6490,19 +6490,19 @@
         <v>4.885793029910326e-5</v>
       </c>
       <c r="G174">
-        <v>7.367725006660044</v>
+        <v>7.367725006659949</v>
       </c>
       <c r="H174">
-        <v>2.0516606073686962e-7</v>
+        <v>2.0516606073658547e-7</v>
       </c>
       <c r="I174">
-        <v>0.0003076647646236698</v>
+        <v>0.0003076647646236606</v>
       </c>
       <c r="J174">
-        <v>0.001988516560832168</v>
+        <v>0.001988516560833132</v>
       </c>
       <c r="K174">
-        <v>4.885793019291012e-5</v>
+        <v>4.8857930192917934e-5</v>
       </c>
     </row>
     <row r="175" spans="1:11">
@@ -6525,19 +6525,19 @@
         <v>4.8862545586036257e-5</v>
       </c>
       <c r="G175">
-        <v>7.368586450134495</v>
+        <v>7.368586450134404</v>
       </c>
       <c r="H175">
-        <v>1.9770547730444582e-7</v>
+        <v>1.977054773041721e-7</v>
       </c>
       <c r="I175">
-        <v>0.00031040226125134357</v>
+        <v>0.00031040226125133457</v>
       </c>
       <c r="J175">
-        <v>0.0019889418294049117</v>
+        <v>0.0019889418294058428</v>
       </c>
       <c r="K175">
-        <v>4.8862545482924e-5</v>
+        <v>4.886254548293155e-5</v>
       </c>
     </row>
     <row r="176" spans="1:11">
@@ -6545,7 +6545,7 @@
         <v>0.12449999999999999</v>
       </c>
       <c r="B176">
-        <v>7.36944377085697</v>
+        <v>7.369443770856969</v>
       </c>
       <c r="C176">
         <v>1.90239690704094e-7</v>
@@ -6554,25 +6554,25 @@
         <v>0.0003131399607303921</v>
       </c>
       <c r="E176">
-        <v>0.001989366479902693</v>
+        <v>0.0019893664799026925</v>
       </c>
       <c r="F176">
-        <v>4.88671597941702e-5</v>
+        <v>4.886715979417019e-5</v>
       </c>
       <c r="G176">
-        <v>7.369443770486365</v>
+        <v>7.369443770486277</v>
       </c>
       <c r="H176">
-        <v>1.9024489382741953e-7</v>
+        <v>1.9024489382715626e-7</v>
       </c>
       <c r="I176">
-        <v>0.0003131399177825107</v>
+        <v>0.000313139917782502</v>
       </c>
       <c r="J176">
-        <v>0.001989366471981549</v>
+        <v>0.001989366471982447</v>
       </c>
       <c r="K176">
-        <v>4.886715969419798e-5</v>
+        <v>4.886715969420524e-5</v>
       </c>
     </row>
     <row r="177" spans="1:11">
@@ -6580,7 +6580,7 @@
         <v>0.1255</v>
       </c>
       <c r="B177">
-        <v>7.37029699807902</v>
+        <v>7.370296998079021</v>
       </c>
       <c r="C177">
         <v>1.827793106764687e-7</v>
@@ -6592,22 +6592,22 @@
         <v>0.00198979050201321</v>
       </c>
       <c r="F177">
-        <v>4.887177292767142e-5</v>
+        <v>4.8871772927671424e-5</v>
       </c>
       <c r="G177">
-        <v>7.370296997658686</v>
+        <v>7.370296997658602</v>
       </c>
       <c r="H177">
-        <v>1.8278431030579085e-7</v>
+        <v>1.82784310305538e-7</v>
       </c>
       <c r="I177">
-        <v>0.0003158777327668321</v>
+        <v>0.00031587773276682383</v>
       </c>
       <c r="J177">
-        <v>0.001989790494333814</v>
+        <v>0.001989790494334678</v>
       </c>
       <c r="K177">
-        <v>4.8871772830898364e-5</v>
+        <v>4.887177283090535e-5</v>
       </c>
     </row>
     <row r="178" spans="1:11">
@@ -6630,19 +6630,19 @@
         <v>4.8876384990695733e-5</v>
       </c>
       <c r="G178">
-        <v>7.371146161312919</v>
+        <v>7.371146161312839</v>
       </c>
       <c r="H178">
-        <v>1.7532372673955977e-7</v>
+        <v>1.7532372673931738e-7</v>
       </c>
       <c r="I178">
-        <v>0.0003186157047711401</v>
+        <v>0.0003186157047711322</v>
       </c>
       <c r="J178">
-        <v>0.001990213902164482</v>
+        <v>0.001990213902165312</v>
       </c>
       <c r="K178">
-        <v>4.887638489718092e-5</v>
+        <v>4.887638489718762e-5</v>
       </c>
     </row>
     <row r="179" spans="1:11">
@@ -6665,19 +6665,19 @@
         <v>4.8880995987388165e-5</v>
       </c>
       <c r="G179">
-        <v>7.371991290832027</v>
+        <v>7.371991290831951</v>
       </c>
       <c r="H179">
-        <v>1.6786314312872629e-7</v>
+        <v>1.678631431284943e-7</v>
       </c>
       <c r="I179">
-        <v>0.00032135383237919446</v>
+        <v>0.0003213538323791869</v>
       </c>
       <c r="J179">
-        <v>0.0019906367011083563</v>
+        <v>0.001990636701109153</v>
       </c>
       <c r="K179">
-        <v>4.888099589719065e-5</v>
+        <v>4.888099589719707e-5</v>
       </c>
     </row>
     <row r="180" spans="1:11">
@@ -6694,25 +6694,25 @@
         <v>0.0003240921513322176</v>
       </c>
       <c r="E180">
-        <v>0.0019910589036529285</v>
+        <v>0.001991058903652929</v>
       </c>
       <c r="F180">
         <v>4.8885605921882794e-5</v>
       </c>
       <c r="G180">
-        <v>7.372832415323515</v>
+        <v>7.372832415323442</v>
       </c>
       <c r="H180">
-        <v>1.6040255947329038e-7</v>
+        <v>1.6040255947306883e-7</v>
       </c>
       <c r="I180">
-        <v>0.0003240921141914426</v>
+        <v>0.00032409211419143533</v>
       </c>
       <c r="J180">
-        <v>0.001991058896733237</v>
+        <v>0.0019910588967339995</v>
       </c>
       <c r="K180">
-        <v>4.888560583506162e-5</v>
+        <v>4.888560583506775e-5</v>
       </c>
     </row>
     <row r="181" spans="1:11">
@@ -6735,19 +6735,19 @@
         <v>4.889021479830253e-5</v>
       </c>
       <c r="G181">
-        <v>7.373669563622438</v>
+        <v>7.373669563622368</v>
       </c>
       <c r="H181">
-        <v>1.5294197577325205e-7</v>
+        <v>1.5294197577304087e-7</v>
       </c>
       <c r="I181">
-        <v>0.0003268305488247833</v>
+        <v>0.00032683054882477633</v>
       </c>
       <c r="J181">
-        <v>0.0019914804945408717</v>
+        <v>0.0019914804945416007</v>
       </c>
       <c r="K181">
-        <v>4.889021471491671e-5</v>
+        <v>4.889021471492256e-5</v>
       </c>
     </row>
     <row r="182" spans="1:11">
@@ -6755,34 +6755,34 @@
         <v>0.1305</v>
       </c>
       <c r="B182">
-        <v>7.374502764877781</v>
+        <v>7.37450276487778</v>
       </c>
       <c r="C182">
         <v>1.4547741053842515e-7</v>
       </c>
       <c r="D182">
-        <v>0.000329569169019996</v>
+        <v>0.00032956916901999607</v>
       </c>
       <c r="E182">
-        <v>0.001991901506352576</v>
+        <v>0.0019919015063525765</v>
       </c>
       <c r="F182">
         <v>4.889482262075899e-5</v>
       </c>
       <c r="G182">
-        <v>7.374502764294371</v>
+        <v>7.374502764294305</v>
       </c>
       <c r="H182">
-        <v>1.454813920286113e-7</v>
+        <v>1.454813920284105e-7</v>
       </c>
       <c r="I182">
-        <v>0.000329569134912335</v>
+        <v>0.00032956913491232826</v>
       </c>
       <c r="J182">
-        <v>0.001991901499967897</v>
+        <v>0.001991901499968591</v>
       </c>
       <c r="K182">
-        <v>4.889482254086748e-5</v>
+        <v>4.889482254087306e-5</v>
       </c>
     </row>
     <row r="183" spans="1:11">
@@ -6799,25 +6799,25 @@
         <v>0.00033230790366190784</v>
       </c>
       <c r="E183">
-        <v>0.001992321924495419</v>
+        <v>0.0019923219244954186</v>
       </c>
       <c r="F183">
         <v>4.889942939335225e-5</v>
       </c>
       <c r="G183">
-        <v>7.375332045638351</v>
+        <v>7.375332045638289</v>
       </c>
       <c r="H183">
-        <v>1.380208082393681e-7</v>
+        <v>1.3802080823917765e-7</v>
       </c>
       <c r="I183">
-        <v>0.00033230787110320666</v>
+        <v>0.0003323078711032002</v>
       </c>
       <c r="J183">
-        <v>0.001992321918386755</v>
+        <v>0.001992321918387415</v>
       </c>
       <c r="K183">
-        <v>4.8899429317014014e-5</v>
+        <v>4.889942931701931e-5</v>
       </c>
     </row>
     <row r="184" spans="1:11">
@@ -6825,34 +6825,34 @@
         <v>0.1325</v>
       </c>
       <c r="B184">
-        <v>7.376157436299754</v>
+        <v>7.376157436299755</v>
       </c>
       <c r="C184">
         <v>1.3055665048323256e-7</v>
       </c>
       <c r="D184">
-        <v>0.00033504678705040784</v>
+        <v>0.0003350467870504078</v>
       </c>
       <c r="E184">
-        <v>0.0019927417609336066</v>
+        <v>0.001992741760933606</v>
       </c>
       <c r="F184">
         <v>4.890403512017072e-5</v>
       </c>
       <c r="G184">
-        <v>7.376157435689782</v>
+        <v>7.376157435689723</v>
       </c>
       <c r="H184">
-        <v>1.305602244055225e-7</v>
+        <v>1.305602244053424e-7</v>
       </c>
       <c r="I184">
-        <v>0.0003350467560622733</v>
+        <v>0.00033504675606226697</v>
       </c>
       <c r="J184">
-        <v>0.0019927417551066097</v>
+        <v>0.0019927417551072356</v>
       </c>
       <c r="K184">
-        <v>4.890403504744468e-5</v>
+        <v>4.8904035047449695e-5</v>
       </c>
     </row>
     <row r="185" spans="1:11">
@@ -6875,19 +6875,19 @@
         <v>4.8908639805290955e-5</v>
       </c>
       <c r="G185">
-        <v>7.376978962223301</v>
+        <v>7.376978962223245</v>
       </c>
       <c r="H185">
-        <v>1.2309964052707446e-7</v>
+        <v>1.2309964052690468e-7</v>
       </c>
       <c r="I185">
-        <v>0.00033778578846995437</v>
+        <v>0.0003377857884699482</v>
       </c>
       <c r="J185">
-        <v>0.0019931610153742334</v>
+        <v>0.0019931610153748245</v>
       </c>
       <c r="K185">
-        <v>4.8908639736236004e-5</v>
+        <v>4.8908639736240754e-5</v>
       </c>
     </row>
     <row r="186" spans="1:11">
@@ -6910,19 +6910,19 @@
         <v>4.891324345277754e-5</v>
       </c>
       <c r="G186">
-        <v>7.377796652755626</v>
+        <v>7.377796652755573</v>
       </c>
       <c r="H186">
-        <v>1.1563905660402396e-7</v>
+        <v>1.1563905660386452e-7</v>
       </c>
       <c r="I186">
-        <v>0.0003405249670219962</v>
+        <v>0.00034052496702199035</v>
       </c>
       <c r="J186">
-        <v>0.00199357970437489</v>
+        <v>0.001993579704375446</v>
       </c>
       <c r="K186">
-        <v>4.891324338745255e-5</v>
+        <v>4.891324338745701e-5</v>
       </c>
     </row>
     <row r="187" spans="1:11">
@@ -6945,19 +6945,19 @@
         <v>4.891784606668289e-5</v>
       </c>
       <c r="G187">
-        <v>7.378610534548354</v>
+        <v>7.378610534548305</v>
       </c>
       <c r="H187">
-        <v>1.0817847263637107e-7</v>
+        <v>1.0817847263622194e-7</v>
       </c>
       <c r="I187">
-        <v>0.0003432642904292577</v>
+        <v>0.0003432642904292522</v>
       </c>
       <c r="J187">
-        <v>0.001993997827233196</v>
+        <v>0.001993997827233717</v>
       </c>
       <c r="K187">
-        <v>4.8917846005146694e-5</v>
+        <v>4.8917846005150875e-5</v>
       </c>
     </row>
     <row r="188" spans="1:11">
@@ -6980,19 +6980,19 @@
         <v>4.892244765104714e-5</v>
       </c>
       <c r="G188">
-        <v>7.379420634610743</v>
+        <v>7.379420634610698</v>
       </c>
       <c r="H188">
-        <v>1.0071788862411576e-7</v>
+        <v>1.0071788862397693e-7</v>
       </c>
       <c r="I188">
-        <v>0.00034600375741749954</v>
+        <v>0.0003460037574174942</v>
       </c>
       <c r="J188">
-        <v>0.0019944153890139754</v>
+        <v>0.001994415389014462</v>
       </c>
       <c r="K188">
-        <v>4.892244759335855e-5</v>
+        <v>4.892244759336244e-5</v>
       </c>
     </row>
     <row r="189" spans="1:11">
@@ -7015,19 +7015,19 @@
         <v>4.8927048209897975e-5</v>
       </c>
       <c r="G189">
-        <v>7.38022697970245</v>
+        <v>7.380226979702408</v>
       </c>
       <c r="H189">
-        <v>9.325730456725805e-8</v>
+        <v>9.325730456712947e-8</v>
       </c>
       <c r="I189">
-        <v>0.0003487433667271761</v>
+        <v>0.000348743366727171</v>
       </c>
       <c r="J189">
-        <v>0.0019948323947230977</v>
+        <v>0.001994832394723549</v>
       </c>
       <c r="K189">
-        <v>4.8927048156115774e-5</v>
+        <v>4.892704815611938e-5</v>
       </c>
     </row>
     <row r="190" spans="1:11">
@@ -7050,19 +7050,19 @@
         <v>4.8931647747250534e-5</v>
       </c>
       <c r="G190">
-        <v>7.381029596336242</v>
+        <v>7.381029596336203</v>
       </c>
       <c r="H190">
-        <v>8.57967204657979e-8</v>
+        <v>8.579672046567963e-8</v>
       </c>
       <c r="I190">
-        <v>0.0003514831171132318</v>
+        <v>0.0003514831171132269</v>
       </c>
       <c r="J190">
-        <v>0.001995248849308297</v>
+        <v>0.001995248849308713</v>
       </c>
       <c r="K190">
-        <v>4.893164769743349e-5</v>
+        <v>4.893164769743679e-5</v>
       </c>
     </row>
     <row r="191" spans="1:11">
@@ -7085,19 +7085,19 @@
         <v>4.893624626710724e-5</v>
       </c>
       <c r="G191">
-        <v>7.381828510780677</v>
+        <v>7.381828510780641</v>
       </c>
       <c r="H191">
-        <v>7.833613631973533e-8</v>
+        <v>7.833613631962735e-8</v>
       </c>
       <c r="I191">
-        <v>0.0003542230073448999</v>
+        <v>0.00035422300734489534</v>
       </c>
       <c r="J191">
-        <v>0.0019956647576599897</v>
+        <v>0.0019956647576603688</v>
       </c>
       <c r="K191">
-        <v>4.893624622131409e-5</v>
+        <v>4.893624622131711e-5</v>
       </c>
     </row>
     <row r="192" spans="1:11">
@@ -7120,19 +7120,19 @@
         <v>4.894084377345774e-5</v>
       </c>
       <c r="G192">
-        <v>7.382623749062754</v>
+        <v>7.382623749062722</v>
       </c>
       <c r="H192">
-        <v>7.087555212907035e-8</v>
+        <v>7.087555212897266e-8</v>
       </c>
       <c r="I192">
-        <v>0.0003569630362055045</v>
+        <v>0.00035696303620550026</v>
       </c>
       <c r="J192">
-        <v>0.001996080124612067</v>
+        <v>0.0019960801246124097</v>
       </c>
       <c r="K192">
-        <v>4.89408437317472e-5</v>
+        <v>4.894084373174993e-5</v>
       </c>
     </row>
     <row r="193" spans="1:11">
@@ -7155,19 +7155,19 @@
         <v>4.894544027027875e-5</v>
       </c>
       <c r="G193">
-        <v>7.383415336970528</v>
+        <v>7.383415336970499</v>
       </c>
       <c r="H193">
-        <v>6.341496789380295e-8</v>
+        <v>6.341496789371556e-8</v>
       </c>
       <c r="I193">
-        <v>0.000359703202492266</v>
+        <v>0.00035970320249226206</v>
       </c>
       <c r="J193">
-        <v>0.0019964949549426854</v>
+        <v>0.0019964949549429916</v>
       </c>
       <c r="K193">
-        <v>4.894544023270948e-5</v>
+        <v>4.894544023271193e-5</v>
       </c>
     </row>
     <row r="194" spans="1:11">
@@ -7175,34 +7175,34 @@
         <v>0.14250000000000002</v>
       </c>
       <c r="B194">
-        <v>7.384203300488704</v>
+        <v>7.384203300488705</v>
       </c>
       <c r="C194">
         <v>5.595285020710815e-8</v>
       </c>
       <c r="D194">
-        <v>0.0003624435191094713</v>
+        <v>0.0003624435191094714</v>
       </c>
       <c r="E194">
-        <v>0.0019969092560781047</v>
+        <v>0.0019969092560781043</v>
       </c>
       <c r="F194">
         <v>4.895003576153391e-5</v>
       </c>
       <c r="G194">
-        <v>7.3842033000557</v>
+        <v>7.384203300055675</v>
       </c>
       <c r="H194">
-        <v>5.595438361393313e-8</v>
+        <v>5.5954383613856026e-8</v>
       </c>
       <c r="I194">
-        <v>0.00036244350501610933</v>
+        <v>0.00036244350501610565</v>
       </c>
       <c r="J194">
-        <v>0.001996909253375037</v>
+        <v>0.0019969092533753067</v>
       </c>
       <c r="K194">
-        <v>4.895003572816458e-5</v>
+        <v>4.8950035728166726e-5</v>
       </c>
     </row>
     <row r="195" spans="1:11">
@@ -7210,7 +7210,7 @@
         <v>0.14350000000000002</v>
       </c>
       <c r="B195">
-        <v>7.384987664024515</v>
+        <v>7.384987664024516</v>
       </c>
       <c r="C195">
         <v>4.849247017949115e-8</v>
@@ -7222,22 +7222,22 @@
         <v>0.0019973230269383995</v>
       </c>
       <c r="F195">
-        <v>4.8954630251173745e-5</v>
+        <v>4.895463025117375e-5</v>
       </c>
       <c r="G195">
-        <v>7.384987663636174</v>
+        <v>7.384987663636152</v>
       </c>
       <c r="H195">
-        <v>4.8493799289460906e-8</v>
+        <v>4.849379928939409e-8</v>
       </c>
       <c r="I195">
-        <v>0.00036518394260147527</v>
+        <v>0.000365183942601472</v>
       </c>
       <c r="J195">
-        <v>0.0019973230245781104</v>
+        <v>0.001997323024578344</v>
       </c>
       <c r="K195">
-        <v>4.895463022206298e-5</v>
+        <v>4.895463022206483e-5</v>
       </c>
     </row>
     <row r="196" spans="1:11">
@@ -7251,28 +7251,28 @@
         <v>4.1032090151912813e-8</v>
       </c>
       <c r="D196">
-        <v>0.0003679245245409352</v>
+        <v>0.00036792452454093526</v>
       </c>
       <c r="E196">
         <v>0.0019977362751794877</v>
       </c>
       <c r="F196">
-        <v>4.895922374313552e-5</v>
+        <v>4.895922374313551e-5</v>
       </c>
       <c r="G196">
-        <v>7.385768452798586</v>
+        <v>7.385768452798567</v>
       </c>
       <c r="H196">
-        <v>4.1033214920386275e-8</v>
+        <v>4.1033214920329735e-8</v>
       </c>
       <c r="I196">
-        <v>0.000367924514086135</v>
+        <v>0.0003679245140861321</v>
       </c>
       <c r="J196">
-        <v>0.001997736273167445</v>
+        <v>0.001997736273167641</v>
       </c>
       <c r="K196">
-        <v>4.8959223718341924e-5</v>
+        <v>4.895922371834348e-5</v>
       </c>
     </row>
     <row r="197" spans="1:11">
@@ -7292,22 +7292,22 @@
         <v>0.0019981490053642037</v>
       </c>
       <c r="F197">
-        <v>4.896381624134318e-5</v>
+        <v>4.896381624134317e-5</v>
       </c>
       <c r="G197">
-        <v>7.3865456924008015</v>
+        <v>7.386545692400786</v>
       </c>
       <c r="H197">
-        <v>3.357263050670923e-8</v>
+        <v>3.357263050666297e-8</v>
       </c>
       <c r="I197">
-        <v>0.0003706652183210071</v>
+        <v>0.00037066521832100483</v>
       </c>
       <c r="J197">
-        <v>0.0019981490037058566</v>
+        <v>0.0019981490037060175</v>
       </c>
       <c r="K197">
-        <v>4.896381622092532e-5</v>
+        <v>4.896381622092659e-5</v>
       </c>
     </row>
     <row r="198" spans="1:11">
@@ -7321,7 +7321,7 @@
         <v>2.6111330096679507e-8</v>
       </c>
       <c r="D198">
-        <v>0.00037340606089962455</v>
+        <v>0.00037340606089962444</v>
       </c>
       <c r="E198">
         <v>0.0019985612220033895</v>
@@ -7330,19 +7330,19 @@
         <v>4.89684077497072e-5</v>
       </c>
       <c r="G198">
-        <v>7.387319407074387</v>
+        <v>7.387319407074375</v>
       </c>
       <c r="H198">
-        <v>2.6112046048429774e-8</v>
+        <v>2.61120460483938e-8</v>
       </c>
       <c r="I198">
-        <v>0.0003734060541699781</v>
+        <v>0.0003734060541699762</v>
       </c>
       <c r="J198">
-        <v>0.0019985612207041774</v>
+        <v>0.001998561220704301</v>
       </c>
       <c r="K198">
-        <v>4.896840773372363e-5</v>
+        <v>4.896840773372462e-5</v>
       </c>
     </row>
     <row r="199" spans="1:11">
@@ -7365,19 +7365,19 @@
         <v>4.8972998272124576e-5</v>
       </c>
       <c r="G199">
-        <v>7.388089621227048</v>
+        <v>7.3880896212270395</v>
       </c>
       <c r="H199">
-        <v>1.8651461545547906e-8</v>
+        <v>1.8651461545522213e-8</v>
       </c>
       <c r="I199">
-        <v>0.0003761470205097245</v>
+        <v>0.00037614702050972317</v>
       </c>
       <c r="J199">
-        <v>0.0019989729286219574</v>
+        <v>0.001998972928622046</v>
       </c>
       <c r="K199">
-        <v>4.8972998260633815e-5</v>
+        <v>4.897299826063451e-5</v>
       </c>
     </row>
     <row r="200" spans="1:11">
@@ -7400,19 +7400,19 @@
         <v>4.8977587812478666e-5</v>
       </c>
       <c r="G200">
-        <v>7.388856359045045</v>
+        <v>7.38885635904504</v>
       </c>
       <c r="H200">
-        <v>1.1190876998063634e-8</v>
+        <v>1.1190876998048219e-8</v>
       </c>
       <c r="I200">
-        <v>0.0003788881162295396</v>
+        <v>0.0003788881162295387</v>
       </c>
       <c r="J200">
-        <v>0.001999384131868177</v>
+        <v>0.0019993841318682298</v>
       </c>
       <c r="K200">
-        <v>4.897758780553922e-5</v>
+        <v>4.897758780553963e-5</v>
       </c>
     </row>
     <row r="201" spans="1:11">
@@ -7435,19 +7435,19 @@
         <v>4.898217637463918e-5</v>
       </c>
       <c r="G201">
-        <v>7.389619644495575</v>
+        <v>7.389619644495574</v>
       </c>
       <c r="H201">
-        <v>3.730292405976954e-9</v>
+        <v>3.7302924059718154e-9</v>
       </c>
       <c r="I201">
-        <v>0.0003816293402311611</v>
+        <v>0.00038162934023116076</v>
       </c>
       <c r="J201">
-        <v>0.001999794834801932</v>
+        <v>0.00199979483480195</v>
       </c>
       <c r="K201">
-        <v>4.89821763723095e-5</v>
+        <v>4.898217637230963e-5</v>
       </c>
     </row>
   </sheetData>
